--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -457,7 +457,7 @@
     <definedName name="x0713t6a">#REF!</definedName>
     <definedName name="x0713t8a">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -621,13 +621,13 @@
     <t>2021 - 2021</t>
   </si>
   <si>
-    <t>As of August 2021</t>
+    <t>As of November 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2021</t>
+    <t>Q1 2000 to Q3 2021</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2021</t>
+    <t>Q1 2001 to Q3 2021</t>
   </si>
 </sst>
 </file>
@@ -23614,10 +23614,10 @@
   </sheetPr>
   <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="61" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH24" sqref="CH24"/>
+      <selection pane="topRight" activeCell="CP15" sqref="CP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23626,8 +23626,8 @@
     <col min="2" max="77" width="10.7265625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="10.7265625" style="1" customWidth="1"/>
-    <col min="82" max="87" width="10.7265625" style="17" customWidth="1"/>
-    <col min="88" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="88" width="11.1796875" style="17" customWidth="1"/>
+    <col min="89" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -23792,6 +23792,7 @@
         <v>2021</v>
       </c>
       <c r="CI9" s="29"/>
+      <c r="CJ9" s="29"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24054,6 +24055,9 @@
       </c>
       <c r="CI10" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ10" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24319,9 +24323,11 @@
         <v>124853.99216919967</v>
       </c>
       <c r="CI12" s="19">
-        <v>172393.38778817211</v>
-      </c>
-      <c r="CJ12" s="9"/>
+        <v>172485.32048363221</v>
+      </c>
+      <c r="CJ12" s="19">
+        <v>115713.17597092142</v>
+      </c>
       <c r="CK12" s="9"/>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
@@ -24649,7 +24655,9 @@
       <c r="CI13" s="19">
         <v>3073.8267670285459</v>
       </c>
-      <c r="CJ13" s="9"/>
+      <c r="CJ13" s="19">
+        <v>2332.5902892018848</v>
+      </c>
       <c r="CK13" s="9"/>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
@@ -24975,9 +24983,11 @@
         <v>24459.720636902119</v>
       </c>
       <c r="CI14" s="19">
-        <v>28336.01701809829</v>
-      </c>
-      <c r="CJ14" s="9"/>
+        <v>27594.712900774888</v>
+      </c>
+      <c r="CJ14" s="19">
+        <v>22035.508966614394</v>
+      </c>
       <c r="CK14" s="9"/>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
@@ -25303,9 +25313,11 @@
         <v>1865.4869028858584</v>
       </c>
       <c r="CI15" s="19">
-        <v>1906.6308223193241</v>
-      </c>
-      <c r="CJ15" s="9"/>
+        <v>2026.7605683540019</v>
+      </c>
+      <c r="CJ15" s="19">
+        <v>2305.4721412734443</v>
+      </c>
       <c r="CK15" s="9"/>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
@@ -25458,7 +25470,7 @@
       <c r="CG16" s="20"/>
       <c r="CH16" s="20"/>
       <c r="CI16" s="20"/>
-      <c r="CJ16" s="9"/>
+      <c r="CJ16" s="20"/>
       <c r="CK16" s="9"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
@@ -25784,9 +25796,11 @@
         <v>154628.8523834777</v>
       </c>
       <c r="CI17" s="21">
-        <v>205709.86239561829</v>
-      </c>
-      <c r="CJ17" s="9"/>
+        <v>205180.62071978964</v>
+      </c>
+      <c r="CJ17" s="21">
+        <v>142386.74736801113</v>
+      </c>
       <c r="CK17" s="9"/>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
@@ -25940,6 +25954,7 @@
       <c r="CG18" s="22"/>
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
+      <c r="CJ18" s="22"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -26033,7 +26048,7 @@
       <c r="CG20" s="23"/>
       <c r="CH20" s="23"/>
       <c r="CI20" s="23"/>
-      <c r="CJ20" s="9"/>
+      <c r="CJ20" s="23"/>
       <c r="CK20" s="9"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
@@ -26186,7 +26201,7 @@
       <c r="CG21" s="23"/>
       <c r="CH21" s="23"/>
       <c r="CI21" s="23"/>
-      <c r="CJ21" s="9"/>
+      <c r="CJ21" s="23"/>
       <c r="CK21" s="9"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
@@ -26416,6 +26431,7 @@
       <c r="CI30" s="29">
         <v>0</v>
       </c>
+      <c r="CJ30" s="29"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -26678,6 +26694,9 @@
       </c>
       <c r="CI31" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ31" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26943,9 +26962,11 @@
         <v>109060.05275456735</v>
       </c>
       <c r="CI33" s="19">
-        <v>127234.23585419785</v>
-      </c>
-      <c r="CJ33" s="9"/>
+        <v>127275.53889486621</v>
+      </c>
+      <c r="CJ33" s="19">
+        <v>145632.00568178826</v>
+      </c>
       <c r="CK33" s="9"/>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
@@ -27273,7 +27294,9 @@
       <c r="CI34" s="19">
         <v>2832.3672064673701</v>
       </c>
-      <c r="CJ34" s="9"/>
+      <c r="CJ34" s="19">
+        <v>2296.1477460962215</v>
+      </c>
       <c r="CK34" s="9"/>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
@@ -27599,9 +27622,11 @@
         <v>23321.373401767531</v>
       </c>
       <c r="CI35" s="19">
-        <v>24689.376829543235</v>
-      </c>
-      <c r="CJ35" s="9"/>
+        <v>24043.473183797974</v>
+      </c>
+      <c r="CJ35" s="19">
+        <v>22154.351052325244</v>
+      </c>
       <c r="CK35" s="9"/>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
@@ -27927,9 +27952,11 @@
         <v>1704.4969981261102</v>
       </c>
       <c r="CI36" s="19">
-        <v>1707.6259430502316</v>
-      </c>
-      <c r="CJ36" s="9"/>
+        <v>1815.2171287477922</v>
+      </c>
+      <c r="CJ36" s="19">
+        <v>2088.9438657102255</v>
+      </c>
       <c r="CK36" s="9"/>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
@@ -28082,7 +28109,7 @@
       <c r="CG37" s="20"/>
       <c r="CH37" s="20"/>
       <c r="CI37" s="20"/>
-      <c r="CJ37" s="9"/>
+      <c r="CJ37" s="20"/>
       <c r="CK37" s="9"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
@@ -28408,9 +28435,11 @@
         <v>137399.45565547582</v>
       </c>
       <c r="CI38" s="21">
-        <v>156463.60583325868</v>
-      </c>
-      <c r="CJ38" s="9"/>
+        <v>155966.59641387934</v>
+      </c>
+      <c r="CJ38" s="21">
+        <v>172171.44834591995</v>
+      </c>
       <c r="CK38" s="9"/>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
@@ -28564,6 +28593,7 @@
       <c r="CG39" s="22"/>
       <c r="CH39" s="22"/>
       <c r="CI39" s="22"/>
+      <c r="CJ39" s="22"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -28657,7 +28687,7 @@
       <c r="CG41" s="23"/>
       <c r="CH41" s="23"/>
       <c r="CI41" s="23"/>
-      <c r="CJ41" s="9"/>
+      <c r="CJ41" s="23"/>
       <c r="CK41" s="9"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
@@ -28810,7 +28840,7 @@
       <c r="CG42" s="23"/>
       <c r="CH42" s="23"/>
       <c r="CI42" s="23"/>
-      <c r="CJ42" s="9"/>
+      <c r="CJ42" s="23"/>
       <c r="CK42" s="9"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
@@ -29038,6 +29068,7 @@
       <c r="CG51" s="24"/>
       <c r="CH51" s="24"/>
       <c r="CI51" s="24"/>
+      <c r="CJ51" s="24"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -29289,10 +29320,13 @@
       <c r="CE52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="25"/>
+      <c r="CF52" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="CG52" s="25"/>
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
+      <c r="CJ52" s="25"/>
     </row>
     <row r="53" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -29545,13 +29579,15 @@
         <v>-0.53998191851570709</v>
       </c>
       <c r="CE54" s="26">
-        <v>14.065239298351244</v>
-      </c>
-      <c r="CF54" s="23"/>
+        <v>14.126067181842245</v>
+      </c>
+      <c r="CF54" s="26">
+        <v>7.4907308081145345</v>
+      </c>
       <c r="CG54" s="23"/>
       <c r="CH54" s="23"/>
       <c r="CI54" s="23"/>
-      <c r="CJ54" s="9"/>
+      <c r="CJ54" s="23"/>
       <c r="CK54" s="9"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
@@ -29863,11 +29899,13 @@
       <c r="CE55" s="26">
         <v>-5.567566827594348</v>
       </c>
-      <c r="CF55" s="23"/>
+      <c r="CF55" s="26">
+        <v>-6.8132764834519151</v>
+      </c>
       <c r="CG55" s="23"/>
       <c r="CH55" s="23"/>
       <c r="CI55" s="23"/>
-      <c r="CJ55" s="9"/>
+      <c r="CJ55" s="23"/>
       <c r="CK55" s="9"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
@@ -30177,13 +30215,15 @@
         <v>1.5665600297433855</v>
       </c>
       <c r="CE56" s="26">
-        <v>6.4812951247018304</v>
-      </c>
-      <c r="CF56" s="23"/>
+        <v>3.6956170089859341</v>
+      </c>
+      <c r="CF56" s="26">
+        <v>0.5568349866916833</v>
+      </c>
       <c r="CG56" s="23"/>
       <c r="CH56" s="23"/>
       <c r="CI56" s="23"/>
-      <c r="CJ56" s="9"/>
+      <c r="CJ56" s="23"/>
       <c r="CK56" s="9"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
@@ -30493,13 +30533,15 @@
         <v>8.4562632253270493</v>
       </c>
       <c r="CE57" s="26">
-        <v>4.0514760937270466</v>
-      </c>
-      <c r="CF57" s="23"/>
+        <v>10.607374200140484</v>
+      </c>
+      <c r="CF57" s="26">
+        <v>10.133921778067844</v>
+      </c>
       <c r="CG57" s="23"/>
       <c r="CH57" s="23"/>
       <c r="CI57" s="23"/>
-      <c r="CJ57" s="9"/>
+      <c r="CJ57" s="23"/>
       <c r="CK57" s="9"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
@@ -30648,7 +30690,7 @@
       <c r="CG58" s="23"/>
       <c r="CH58" s="23"/>
       <c r="CI58" s="23"/>
-      <c r="CJ58" s="9"/>
+      <c r="CJ58" s="23"/>
       <c r="CK58" s="9"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
@@ -30958,13 +31000,15 @@
         <v>-7.012713462189879E-2</v>
       </c>
       <c r="CE59" s="26">
-        <v>12.511520861763785</v>
-      </c>
-      <c r="CF59" s="23"/>
+        <v>12.222055956399203</v>
+      </c>
+      <c r="CF59" s="26">
+        <v>6.1325134961683858</v>
+      </c>
       <c r="CG59" s="23"/>
       <c r="CH59" s="23"/>
       <c r="CI59" s="23"/>
-      <c r="CJ59" s="9"/>
+      <c r="CJ59" s="23"/>
       <c r="CK59" s="9"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
@@ -31114,6 +31158,7 @@
       <c r="CG60" s="22"/>
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
+      <c r="CJ60" s="22"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -31203,11 +31248,11 @@
       <c r="CC62" s="16"/>
       <c r="CD62" s="28"/>
       <c r="CE62" s="28"/>
-      <c r="CF62" s="23"/>
+      <c r="CF62" s="28"/>
       <c r="CG62" s="23"/>
       <c r="CH62" s="23"/>
       <c r="CI62" s="23"/>
-      <c r="CJ62" s="9"/>
+      <c r="CJ62" s="23"/>
       <c r="CK62" s="9"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
@@ -31356,7 +31401,7 @@
       <c r="CG63" s="23"/>
       <c r="CH63" s="23"/>
       <c r="CI63" s="23"/>
-      <c r="CJ63" s="9"/>
+      <c r="CJ63" s="23"/>
       <c r="CK63" s="9"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
@@ -31576,10 +31621,11 @@
       <c r="CE72" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="CF72" s="24"/>
+      <c r="CF72" s="29"/>
       <c r="CG72" s="24"/>
       <c r="CH72" s="24"/>
       <c r="CI72" s="24"/>
+      <c r="CJ72" s="24"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -31831,10 +31877,13 @@
       <c r="CE73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="25"/>
+      <c r="CF73" s="27" t="s">
+        <v>10</v>
+      </c>
       <c r="CG73" s="25"/>
       <c r="CH73" s="25"/>
       <c r="CI73" s="25"/>
+      <c r="CJ73" s="25"/>
     </row>
     <row r="74" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -32087,13 +32136,15 @@
         <v>0.97988234612608949</v>
       </c>
       <c r="CE75" s="26">
-        <v>11.361681026983277</v>
-      </c>
-      <c r="CF75" s="23"/>
+        <v>11.397831486091036</v>
+      </c>
+      <c r="CF75" s="26">
+        <v>3.5826536838582825</v>
+      </c>
       <c r="CG75" s="23"/>
       <c r="CH75" s="23"/>
       <c r="CI75" s="23"/>
-      <c r="CJ75" s="9"/>
+      <c r="CJ75" s="23"/>
       <c r="CK75" s="9"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
@@ -32405,11 +32456,13 @@
       <c r="CE76" s="26">
         <v>-6.9641674278682757</v>
       </c>
-      <c r="CF76" s="23"/>
+      <c r="CF76" s="26">
+        <v>-8.1904201807408015</v>
+      </c>
       <c r="CG76" s="23"/>
       <c r="CH76" s="23"/>
       <c r="CI76" s="23"/>
-      <c r="CJ76" s="9"/>
+      <c r="CJ76" s="23"/>
       <c r="CK76" s="9"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
@@ -32719,13 +32772,15 @@
         <v>1.0813694563528884</v>
       </c>
       <c r="CE77" s="26">
-        <v>4.9879559179255182</v>
-      </c>
-      <c r="CF77" s="23"/>
+        <v>2.2413453430653476</v>
+      </c>
+      <c r="CF77" s="26">
+        <v>-0.62571895771155539</v>
+      </c>
       <c r="CG77" s="23"/>
       <c r="CH77" s="23"/>
       <c r="CI77" s="23"/>
-      <c r="CJ77" s="9"/>
+      <c r="CJ77" s="23"/>
       <c r="CK77" s="9"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
@@ -33035,13 +33090,15 @@
         <v>7.1384601652940063</v>
       </c>
       <c r="CE78" s="26">
-        <v>2.6743281136284054</v>
-      </c>
-      <c r="CF78" s="23"/>
+        <v>9.1434572267135081</v>
+      </c>
+      <c r="CF78" s="26">
+        <v>9.1948461015941092</v>
+      </c>
       <c r="CG78" s="23"/>
       <c r="CH78" s="23"/>
       <c r="CI78" s="23"/>
-      <c r="CJ78" s="9"/>
+      <c r="CJ78" s="23"/>
       <c r="CK78" s="9"/>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
@@ -33190,7 +33247,7 @@
       <c r="CG79" s="23"/>
       <c r="CH79" s="23"/>
       <c r="CI79" s="23"/>
-      <c r="CJ79" s="9"/>
+      <c r="CJ79" s="23"/>
       <c r="CK79" s="9"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
@@ -33500,13 +33557,15 @@
         <v>1.1169839369117511</v>
       </c>
       <c r="CE80" s="26">
-        <v>9.8166868113982702</v>
-      </c>
-      <c r="CF80" s="23"/>
+        <v>9.4678521577443036</v>
+      </c>
+      <c r="CF80" s="26">
+        <v>2.910048374424548</v>
+      </c>
       <c r="CG80" s="23"/>
       <c r="CH80" s="23"/>
       <c r="CI80" s="23"/>
-      <c r="CJ80" s="9"/>
+      <c r="CJ80" s="23"/>
       <c r="CK80" s="9"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
@@ -33656,6 +33715,7 @@
       <c r="CG81" s="22"/>
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
+      <c r="CJ81" s="22"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
@@ -33749,7 +33809,7 @@
       <c r="CG83" s="23"/>
       <c r="CH83" s="23"/>
       <c r="CI83" s="23"/>
-      <c r="CJ83" s="9"/>
+      <c r="CJ83" s="23"/>
       <c r="CK83" s="9"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
@@ -33898,7 +33958,7 @@
       <c r="CG84" s="23"/>
       <c r="CH84" s="23"/>
       <c r="CI84" s="23"/>
-      <c r="CJ84" s="9"/>
+      <c r="CJ84" s="23"/>
       <c r="CK84" s="9"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
@@ -34119,6 +34179,7 @@
       <c r="CI92" s="29">
         <v>0</v>
       </c>
+      <c r="CJ92" s="29"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -34381,6 +34442,9 @@
       </c>
       <c r="CI93" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ93" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34646,9 +34710,11 @@
         <v>114.48187399118133</v>
       </c>
       <c r="CI95" s="26">
-        <v>135.49292502194433</v>
-      </c>
-      <c r="CJ95" s="9"/>
+        <v>135.521186538531</v>
+      </c>
+      <c r="CJ95" s="26">
+        <v>79.455869215836614</v>
+      </c>
       <c r="CK95" s="9"/>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
@@ -34976,7 +35042,9 @@
       <c r="CI96" s="26">
         <v>108.52500904578446</v>
       </c>
-      <c r="CJ96" s="9"/>
+      <c r="CJ96" s="26">
+        <v>101.58711664646236</v>
+      </c>
       <c r="CK96" s="9"/>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
@@ -35302,9 +35370,11 @@
         <v>104.88113292267904</v>
       </c>
       <c r="CI97" s="26">
-        <v>114.77007789111751</v>
-      </c>
-      <c r="CJ97" s="9"/>
+        <v>114.77007789111752</v>
+      </c>
+      <c r="CJ97" s="26">
+        <v>99.463572255264154</v>
+      </c>
       <c r="CK97" s="9"/>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
@@ -35632,7 +35702,9 @@
       <c r="CI98" s="26">
         <v>111.65389177173203</v>
       </c>
-      <c r="CJ98" s="9"/>
+      <c r="CJ98" s="26">
+        <v>110.3654425146365</v>
+      </c>
       <c r="CK98" s="9"/>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
@@ -35785,7 +35857,7 @@
       <c r="CG99" s="26"/>
       <c r="CH99" s="26"/>
       <c r="CI99" s="26"/>
-      <c r="CJ99" s="9"/>
+      <c r="CJ99" s="26"/>
       <c r="CK99" s="9"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
@@ -36111,9 +36183,11 @@
         <v>112.53963972841639</v>
       </c>
       <c r="CI100" s="26">
-        <v>131.47457602047132</v>
-      </c>
-      <c r="CJ100" s="9"/>
+        <v>131.55420804036396</v>
+      </c>
+      <c r="CJ100" s="26">
+        <v>82.700557343243929</v>
+      </c>
       <c r="CK100" s="9"/>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
@@ -36267,6 +36341,7 @@
       <c r="CG101" s="22"/>
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
+      <c r="CJ101" s="22"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
@@ -36437,6 +36512,7 @@
       <c r="CI113" s="29">
         <v>0</v>
       </c>
+      <c r="CJ113" s="29"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -36699,6 +36775,9 @@
       </c>
       <c r="CI114" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ114" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -36964,9 +37043,11 @@
         <v>80.744304988802014</v>
       </c>
       <c r="CI116" s="26">
-        <v>83.804143263013614</v>
-      </c>
-      <c r="CJ116" s="9"/>
+        <v>84.065112912974058</v>
+      </c>
+      <c r="CJ116" s="26">
+        <v>81.266815985233862</v>
+      </c>
       <c r="CK116" s="9"/>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
@@ -37292,9 +37373,11 @@
         <v>2.2309243206015226</v>
       </c>
       <c r="CI117" s="26">
-        <v>1.4942534748854219</v>
-      </c>
-      <c r="CJ117" s="9"/>
+        <v>1.4981077434337227</v>
+      </c>
+      <c r="CJ117" s="26">
+        <v>1.6382074401721525</v>
+      </c>
       <c r="CK117" s="9"/>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
@@ -37620,9 +37703,11 @@
         <v>15.818341958745386</v>
       </c>
       <c r="CI118" s="26">
-        <v>13.774748905136528</v>
-      </c>
-      <c r="CJ118" s="9"/>
+        <v>13.448985973417216</v>
+      </c>
+      <c r="CJ118" s="26">
+        <v>15.475814550115169</v>
+      </c>
       <c r="CK118" s="9"/>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
@@ -37948,9 +38033,11 @@
         <v>1.2064287318510736</v>
       </c>
       <c r="CI119" s="26">
-        <v>0.92685435696443119</v>
-      </c>
-      <c r="CJ119" s="9"/>
+        <v>0.98779337017500368</v>
+      </c>
+      <c r="CJ119" s="26">
+        <v>1.6191620244788287</v>
+      </c>
       <c r="CK119" s="9"/>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
@@ -38103,7 +38190,7 @@
       <c r="CG120" s="23"/>
       <c r="CH120" s="23"/>
       <c r="CI120" s="23"/>
-      <c r="CJ120" s="9"/>
+      <c r="CJ120" s="23"/>
       <c r="CK120" s="9"/>
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
@@ -38431,7 +38518,9 @@
       <c r="CI121" s="26">
         <v>100</v>
       </c>
-      <c r="CJ121" s="9"/>
+      <c r="CJ121" s="26">
+        <v>100</v>
+      </c>
       <c r="CK121" s="9"/>
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
@@ -38585,6 +38674,7 @@
       <c r="CG122" s="22"/>
       <c r="CH122" s="22"/>
       <c r="CI122" s="22"/>
+      <c r="CJ122" s="22"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
@@ -38678,7 +38768,7 @@
       <c r="CG124" s="23"/>
       <c r="CH124" s="23"/>
       <c r="CI124" s="23"/>
-      <c r="CJ124" s="9"/>
+      <c r="CJ124" s="23"/>
       <c r="CK124" s="9"/>
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
@@ -38831,7 +38921,7 @@
       <c r="CG125" s="23"/>
       <c r="CH125" s="23"/>
       <c r="CI125" s="23"/>
-      <c r="CJ125" s="9"/>
+      <c r="CJ125" s="23"/>
       <c r="CK125" s="9"/>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
@@ -39061,6 +39151,7 @@
       <c r="CI134" s="29">
         <v>0</v>
       </c>
+      <c r="CJ134" s="29"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -39323,6 +39414,9 @@
       </c>
       <c r="CI135" s="18" t="s">
         <v>8</v>
+      </c>
+      <c r="CJ135" s="18" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39588,9 +39682,11 @@
         <v>79.374443104077145</v>
       </c>
       <c r="CI137" s="26">
-        <v>81.318741937847065</v>
-      </c>
-      <c r="CJ137" s="9"/>
+        <v>81.604357485062152</v>
+      </c>
+      <c r="CJ137" s="26">
+        <v>84.585456578834311</v>
+      </c>
       <c r="CK137" s="9"/>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
@@ -39916,9 +40012,11 @@
         <v>2.4116052608850076</v>
       </c>
       <c r="CI138" s="26">
-        <v>1.8102402736939278</v>
-      </c>
-      <c r="CJ138" s="9"/>
+        <v>1.8160088580450169</v>
+      </c>
+      <c r="CJ138" s="26">
+        <v>1.3336402569390564</v>
+      </c>
       <c r="CK138" s="9"/>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
@@ -40244,9 +40342,11 @@
         <v>16.973410331584599</v>
       </c>
       <c r="CI139" s="26">
-        <v>15.779629197510886</v>
-      </c>
-      <c r="CJ139" s="9"/>
+        <v>15.415783723327033</v>
+      </c>
+      <c r="CJ139" s="26">
+        <v>12.86761031818331</v>
+      </c>
       <c r="CK139" s="9"/>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
@@ -40572,9 +40672,11 @@
         <v>1.2405413034532502</v>
       </c>
       <c r="CI140" s="26">
-        <v>1.091388590948126</v>
-      </c>
-      <c r="CJ140" s="9"/>
+        <v>1.1638499335658117</v>
+      </c>
+      <c r="CJ140" s="26">
+        <v>1.213292846043325</v>
+      </c>
       <c r="CK140" s="9"/>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
@@ -40727,7 +40829,7 @@
       <c r="CG141" s="23"/>
       <c r="CH141" s="23"/>
       <c r="CI141" s="23"/>
-      <c r="CJ141" s="9"/>
+      <c r="CJ141" s="23"/>
       <c r="CK141" s="9"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
@@ -41055,7 +41157,9 @@
       <c r="CI142" s="26">
         <v>100</v>
       </c>
-      <c r="CJ142" s="9"/>
+      <c r="CJ142" s="26">
+        <v>100</v>
+      </c>
       <c r="CK142" s="9"/>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
@@ -41209,6 +41313,7 @@
       <c r="CG143" s="22"/>
       <c r="CH143" s="22"/>
       <c r="CI143" s="22"/>
+      <c r="CJ143" s="22"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
@@ -41345,13 +41450,13 @@
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CI9"/>
-    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="CH9:CJ9"/>
+    <mergeCell ref="CH30:CJ30"/>
+    <mergeCell ref="CD72:CF72"/>
+    <mergeCell ref="CH92:CJ92"/>
+    <mergeCell ref="CH113:CJ113"/>
+    <mergeCell ref="CH134:CJ134"/>
     <mergeCell ref="CD51:CE51"/>
-    <mergeCell ref="CD72:CE72"/>
-    <mergeCell ref="CH92:CI92"/>
-    <mergeCell ref="CH113:CI113"/>
-    <mergeCell ref="CH134:CI134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2021\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9528"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -467,7 +467,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="52">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,16 +618,13 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>2021 - 2021</t>
+    <t>As of January 2022</t>
   </si>
   <si>
-    <t>As of November 2021</t>
+    <t>Q1 2000 to Q4 2021</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2021</t>
-  </si>
-  <si>
-    <t>Q1 2001 to Q3 2021</t>
+    <t>Q1 2001 to Q4 2021</t>
   </si>
 </sst>
 </file>
@@ -23614,10 +23611,10 @@
   </sheetPr>
   <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" topLeftCell="A4" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BW1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CP15" sqref="CP15"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23626,8 +23623,8 @@
     <col min="2" max="77" width="10.7265625" style="1" customWidth="1"/>
     <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="79" max="81" width="10.7265625" style="1" customWidth="1"/>
-    <col min="82" max="88" width="11.1796875" style="17" customWidth="1"/>
-    <col min="89" max="16384" width="7.81640625" style="1"/>
+    <col min="82" max="89" width="8.81640625" style="17" customWidth="1"/>
+    <col min="90" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.25">
@@ -23642,7 +23639,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.25">
@@ -23652,7 +23649,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.25">
@@ -23793,6 +23790,7 @@
       </c>
       <c r="CI9" s="29"/>
       <c r="CJ9" s="29"/>
+      <c r="CK9" s="29"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
@@ -24058,6 +24056,9 @@
       </c>
       <c r="CJ10" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK10" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -24326,9 +24327,11 @@
         <v>172485.32048363221</v>
       </c>
       <c r="CJ12" s="19">
-        <v>115713.17597092142</v>
-      </c>
-      <c r="CK12" s="9"/>
+        <v>115903.47844910492</v>
+      </c>
+      <c r="CK12" s="19">
+        <v>116490.83644733387</v>
+      </c>
       <c r="CL12" s="9"/>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
@@ -24656,9 +24659,11 @@
         <v>3073.8267670285459</v>
       </c>
       <c r="CJ13" s="19">
-        <v>2332.5902892018848</v>
-      </c>
-      <c r="CK13" s="9"/>
+        <v>2340.2614294095238</v>
+      </c>
+      <c r="CK13" s="19">
+        <v>3129.0859836993204</v>
+      </c>
       <c r="CL13" s="9"/>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
@@ -24986,9 +24991,11 @@
         <v>27594.712900774888</v>
       </c>
       <c r="CJ14" s="19">
-        <v>22035.508966614394</v>
-      </c>
-      <c r="CK14" s="9"/>
+        <v>22021.1727915669</v>
+      </c>
+      <c r="CK14" s="19">
+        <v>26481.634610303903</v>
+      </c>
       <c r="CL14" s="9"/>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
@@ -25316,9 +25323,11 @@
         <v>2026.7605683540019</v>
       </c>
       <c r="CJ15" s="19">
-        <v>2305.4721412734443</v>
-      </c>
-      <c r="CK15" s="9"/>
+        <v>2273.6357528279777</v>
+      </c>
+      <c r="CK15" s="19">
+        <v>2428.6931567124825</v>
+      </c>
       <c r="CL15" s="9"/>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
@@ -25471,7 +25480,7 @@
       <c r="CH16" s="20"/>
       <c r="CI16" s="20"/>
       <c r="CJ16" s="20"/>
-      <c r="CK16" s="9"/>
+      <c r="CK16" s="20"/>
       <c r="CL16" s="9"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
@@ -25799,9 +25808,11 @@
         <v>205180.62071978964</v>
       </c>
       <c r="CJ17" s="21">
-        <v>142386.74736801113</v>
-      </c>
-      <c r="CK17" s="9"/>
+        <v>142538.54842290931</v>
+      </c>
+      <c r="CK17" s="21">
+        <v>148530.25019804959</v>
+      </c>
       <c r="CL17" s="9"/>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
@@ -25955,6 +25966,7 @@
       <c r="CH18" s="22"/>
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
+      <c r="CK18" s="22"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
@@ -26049,7 +26061,7 @@
       <c r="CH20" s="23"/>
       <c r="CI20" s="23"/>
       <c r="CJ20" s="23"/>
-      <c r="CK20" s="9"/>
+      <c r="CK20" s="23"/>
       <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
@@ -26202,7 +26214,7 @@
       <c r="CH21" s="23"/>
       <c r="CI21" s="23"/>
       <c r="CJ21" s="23"/>
-      <c r="CK21" s="9"/>
+      <c r="CK21" s="23"/>
       <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
@@ -26279,7 +26291,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.25">
@@ -26289,7 +26301,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.25">
@@ -26428,10 +26440,9 @@
       <c r="CH30" s="29">
         <v>2021</v>
       </c>
-      <c r="CI30" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI30" s="29"/>
       <c r="CJ30" s="29"/>
+      <c r="CK30" s="29"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
@@ -26697,6 +26708,9 @@
       </c>
       <c r="CJ31" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK31" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -26965,9 +26979,11 @@
         <v>127275.53889486621</v>
       </c>
       <c r="CJ33" s="19">
-        <v>145632.00568178826</v>
-      </c>
-      <c r="CK33" s="9"/>
+        <v>145871.51281960148</v>
+      </c>
+      <c r="CK33" s="19">
+        <v>119547.56929682048</v>
+      </c>
       <c r="CL33" s="9"/>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
@@ -27295,9 +27311,11 @@
         <v>2832.3672064673701</v>
       </c>
       <c r="CJ34" s="19">
-        <v>2296.1477460962215</v>
-      </c>
-      <c r="CK34" s="9"/>
+        <v>2303.6990384853302</v>
+      </c>
+      <c r="CK34" s="19">
+        <v>2955.2015296386685</v>
+      </c>
       <c r="CL34" s="9"/>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
@@ -27625,9 +27643,11 @@
         <v>24043.473183797974</v>
       </c>
       <c r="CJ35" s="19">
-        <v>22154.351052325244</v>
-      </c>
-      <c r="CK35" s="9"/>
+        <v>22139.93755930219</v>
+      </c>
+      <c r="CK35" s="19">
+        <v>25046.230397502237</v>
+      </c>
       <c r="CL35" s="9"/>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
@@ -27955,9 +27975,11 @@
         <v>1815.2171287477922</v>
       </c>
       <c r="CJ36" s="19">
-        <v>2088.9438657102255</v>
-      </c>
-      <c r="CK36" s="9"/>
+        <v>2054.5974157759247</v>
+      </c>
+      <c r="CK36" s="19">
+        <v>2190.6365726389927</v>
+      </c>
       <c r="CL36" s="9"/>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
@@ -28110,7 +28132,7 @@
       <c r="CH37" s="20"/>
       <c r="CI37" s="20"/>
       <c r="CJ37" s="20"/>
-      <c r="CK37" s="9"/>
+      <c r="CK37" s="20"/>
       <c r="CL37" s="9"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
@@ -28438,9 +28460,11 @@
         <v>155966.59641387934</v>
       </c>
       <c r="CJ38" s="21">
-        <v>172171.44834591995</v>
-      </c>
-      <c r="CK38" s="9"/>
+        <v>172369.74683316494</v>
+      </c>
+      <c r="CK38" s="21">
+        <v>149739.63779660038</v>
+      </c>
       <c r="CL38" s="9"/>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
@@ -28594,6 +28618,7 @@
       <c r="CH39" s="22"/>
       <c r="CI39" s="22"/>
       <c r="CJ39" s="22"/>
+      <c r="CK39" s="22"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
@@ -28688,7 +28713,7 @@
       <c r="CH41" s="23"/>
       <c r="CI41" s="23"/>
       <c r="CJ41" s="23"/>
-      <c r="CK41" s="9"/>
+      <c r="CK41" s="23"/>
       <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
@@ -28841,7 +28866,7 @@
       <c r="CH42" s="23"/>
       <c r="CI42" s="23"/>
       <c r="CJ42" s="23"/>
-      <c r="CK42" s="9"/>
+      <c r="CK42" s="23"/>
       <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
@@ -28918,7 +28943,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.25">
@@ -28928,7 +28953,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.25">
@@ -29061,14 +29086,13 @@
       <c r="CD51" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="CF51" s="24"/>
-      <c r="CG51" s="24"/>
+      <c r="CE51" s="29"/>
+      <c r="CF51" s="29"/>
+      <c r="CG51" s="29"/>
       <c r="CH51" s="24"/>
       <c r="CI51" s="24"/>
       <c r="CJ51" s="24"/>
+      <c r="CK51" s="24"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
@@ -29323,10 +29347,13 @@
       <c r="CF52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="25"/>
+      <c r="CG52" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CH52" s="25"/>
       <c r="CI52" s="25"/>
       <c r="CJ52" s="25"/>
+      <c r="CK52" s="25"/>
     </row>
     <row r="53" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
@@ -29582,13 +29609,15 @@
         <v>14.126067181842245</v>
       </c>
       <c r="CF54" s="26">
-        <v>7.4907308081145345</v>
-      </c>
-      <c r="CG54" s="23"/>
+        <v>7.6675106111309077</v>
+      </c>
+      <c r="CG54" s="26">
+        <v>7.1875590963734339</v>
+      </c>
       <c r="CH54" s="23"/>
       <c r="CI54" s="23"/>
       <c r="CJ54" s="23"/>
-      <c r="CK54" s="9"/>
+      <c r="CK54" s="23"/>
       <c r="CL54" s="9"/>
       <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
@@ -29900,13 +29929,15 @@
         <v>-5.567566827594348</v>
       </c>
       <c r="CF55" s="26">
-        <v>-6.8132764834519151</v>
-      </c>
-      <c r="CG55" s="23"/>
+        <v>-6.5068152824021013</v>
+      </c>
+      <c r="CG55" s="26">
+        <v>7.4724009836808278</v>
+      </c>
       <c r="CH55" s="23"/>
       <c r="CI55" s="23"/>
       <c r="CJ55" s="23"/>
-      <c r="CK55" s="9"/>
+      <c r="CK55" s="23"/>
       <c r="CL55" s="9"/>
       <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
@@ -30218,13 +30249,15 @@
         <v>3.6956170089859341</v>
       </c>
       <c r="CF56" s="26">
-        <v>0.5568349866916833</v>
-      </c>
-      <c r="CG56" s="23"/>
+        <v>0.49141328979440857</v>
+      </c>
+      <c r="CG56" s="26">
+        <v>3.9926272844492274</v>
+      </c>
       <c r="CH56" s="23"/>
       <c r="CI56" s="23"/>
       <c r="CJ56" s="23"/>
-      <c r="CK56" s="9"/>
+      <c r="CK56" s="23"/>
       <c r="CL56" s="9"/>
       <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
@@ -30536,13 +30569,15 @@
         <v>10.607374200140484</v>
       </c>
       <c r="CF57" s="26">
-        <v>10.133921778067844</v>
-      </c>
-      <c r="CG57" s="23"/>
+        <v>8.6130765455539944</v>
+      </c>
+      <c r="CG57" s="26">
+        <v>12.147256872631317</v>
+      </c>
       <c r="CH57" s="23"/>
       <c r="CI57" s="23"/>
       <c r="CJ57" s="23"/>
-      <c r="CK57" s="9"/>
+      <c r="CK57" s="23"/>
       <c r="CL57" s="9"/>
       <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
@@ -30691,7 +30726,7 @@
       <c r="CH58" s="23"/>
       <c r="CI58" s="23"/>
       <c r="CJ58" s="23"/>
-      <c r="CK58" s="9"/>
+      <c r="CK58" s="23"/>
       <c r="CL58" s="9"/>
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
@@ -31003,13 +31038,15 @@
         <v>12.222055956399203</v>
       </c>
       <c r="CF59" s="26">
-        <v>6.1325134961683858</v>
-      </c>
-      <c r="CG59" s="23"/>
+        <v>6.2456632647074173</v>
+      </c>
+      <c r="CG59" s="26">
+        <v>6.686282519642333</v>
+      </c>
       <c r="CH59" s="23"/>
       <c r="CI59" s="23"/>
       <c r="CJ59" s="23"/>
-      <c r="CK59" s="9"/>
+      <c r="CK59" s="23"/>
       <c r="CL59" s="9"/>
       <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
@@ -31159,6 +31196,7 @@
       <c r="CH60" s="22"/>
       <c r="CI60" s="22"/>
       <c r="CJ60" s="22"/>
+      <c r="CK60" s="22"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
@@ -31249,11 +31287,11 @@
       <c r="CD62" s="28"/>
       <c r="CE62" s="28"/>
       <c r="CF62" s="28"/>
-      <c r="CG62" s="23"/>
+      <c r="CG62" s="28"/>
       <c r="CH62" s="23"/>
       <c r="CI62" s="23"/>
       <c r="CJ62" s="23"/>
-      <c r="CK62" s="9"/>
+      <c r="CK62" s="23"/>
       <c r="CL62" s="9"/>
       <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
@@ -31402,7 +31440,7 @@
       <c r="CH63" s="23"/>
       <c r="CI63" s="23"/>
       <c r="CJ63" s="23"/>
-      <c r="CK63" s="9"/>
+      <c r="CK63" s="23"/>
       <c r="CL63" s="9"/>
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
@@ -31475,7 +31513,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.25">
@@ -31485,7 +31523,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.25">
@@ -31618,14 +31656,13 @@
       <c r="CD72" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="29" t="s">
-        <v>49</v>
-      </c>
+      <c r="CE72" s="29"/>
       <c r="CF72" s="29"/>
-      <c r="CG72" s="24"/>
+      <c r="CG72" s="29"/>
       <c r="CH72" s="24"/>
       <c r="CI72" s="24"/>
       <c r="CJ72" s="24"/>
+      <c r="CK72" s="24"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
@@ -31880,10 +31917,13 @@
       <c r="CF73" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="25"/>
+      <c r="CG73" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CH73" s="25"/>
       <c r="CI73" s="25"/>
       <c r="CJ73" s="25"/>
+      <c r="CK73" s="25"/>
     </row>
     <row r="74" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
@@ -32139,13 +32179,15 @@
         <v>11.397831486091036</v>
       </c>
       <c r="CF75" s="26">
-        <v>3.5826536838582825</v>
-      </c>
-      <c r="CG75" s="23"/>
+        <v>3.7530062433439184</v>
+      </c>
+      <c r="CG75" s="26">
+        <v>4.3560337701286329</v>
+      </c>
       <c r="CH75" s="23"/>
       <c r="CI75" s="23"/>
       <c r="CJ75" s="23"/>
-      <c r="CK75" s="9"/>
+      <c r="CK75" s="23"/>
       <c r="CL75" s="9"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
@@ -32457,13 +32499,15 @@
         <v>-6.9641674278682757</v>
       </c>
       <c r="CF76" s="26">
-        <v>-8.1904201807408015</v>
-      </c>
-      <c r="CG76" s="23"/>
+        <v>-7.8884879629577256</v>
+      </c>
+      <c r="CG76" s="26">
+        <v>5.6801132899339422</v>
+      </c>
       <c r="CH76" s="23"/>
       <c r="CI76" s="23"/>
       <c r="CJ76" s="23"/>
-      <c r="CK76" s="9"/>
+      <c r="CK76" s="23"/>
       <c r="CL76" s="9"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
@@ -32775,13 +32819,15 @@
         <v>2.2413453430653476</v>
       </c>
       <c r="CF77" s="26">
-        <v>-0.62571895771155539</v>
-      </c>
-      <c r="CG77" s="23"/>
+        <v>-0.69037129183278978</v>
+      </c>
+      <c r="CG77" s="26">
+        <v>3.944615141100698</v>
+      </c>
       <c r="CH77" s="23"/>
       <c r="CI77" s="23"/>
       <c r="CJ77" s="23"/>
-      <c r="CK77" s="9"/>
+      <c r="CK77" s="23"/>
       <c r="CL77" s="9"/>
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
@@ -33093,13 +33139,15 @@
         <v>9.1434572267135081</v>
       </c>
       <c r="CF78" s="26">
-        <v>9.1948461015941092</v>
-      </c>
-      <c r="CG78" s="23"/>
+        <v>7.3994626179709257</v>
+      </c>
+      <c r="CG78" s="26">
+        <v>10.748233011504425</v>
+      </c>
       <c r="CH78" s="23"/>
       <c r="CI78" s="23"/>
       <c r="CJ78" s="23"/>
-      <c r="CK78" s="9"/>
+      <c r="CK78" s="23"/>
       <c r="CL78" s="9"/>
       <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
@@ -33248,7 +33296,7 @@
       <c r="CH79" s="23"/>
       <c r="CI79" s="23"/>
       <c r="CJ79" s="23"/>
-      <c r="CK79" s="9"/>
+      <c r="CK79" s="23"/>
       <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
@@ -33560,13 +33608,15 @@
         <v>9.4678521577443036</v>
       </c>
       <c r="CF80" s="26">
-        <v>2.910048374424548</v>
-      </c>
-      <c r="CG80" s="23"/>
+        <v>3.0285750355580205</v>
+      </c>
+      <c r="CG80" s="26">
+        <v>4.4008867387039174</v>
+      </c>
       <c r="CH80" s="23"/>
       <c r="CI80" s="23"/>
       <c r="CJ80" s="23"/>
-      <c r="CK80" s="9"/>
+      <c r="CK80" s="23"/>
       <c r="CL80" s="9"/>
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
@@ -33716,6 +33766,7 @@
       <c r="CH81" s="22"/>
       <c r="CI81" s="22"/>
       <c r="CJ81" s="22"/>
+      <c r="CK81" s="22"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
@@ -33810,7 +33861,7 @@
       <c r="CH83" s="23"/>
       <c r="CI83" s="23"/>
       <c r="CJ83" s="23"/>
-      <c r="CK83" s="9"/>
+      <c r="CK83" s="23"/>
       <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
@@ -33959,7 +34010,7 @@
       <c r="CH84" s="23"/>
       <c r="CI84" s="23"/>
       <c r="CJ84" s="23"/>
-      <c r="CK84" s="9"/>
+      <c r="CK84" s="23"/>
       <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
@@ -34027,7 +34078,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.25">
@@ -34037,7 +34088,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.25">
@@ -34176,10 +34227,9 @@
       <c r="CH92" s="29">
         <v>2021</v>
       </c>
-      <c r="CI92" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI92" s="29"/>
       <c r="CJ92" s="29"/>
+      <c r="CK92" s="29"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
@@ -34445,6 +34495,9 @@
       </c>
       <c r="CJ93" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK93" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34713,9 +34766,11 @@
         <v>135.521186538531</v>
       </c>
       <c r="CJ95" s="26">
-        <v>79.455869215836614</v>
-      </c>
-      <c r="CK95" s="9"/>
+        <v>79.455869215836628</v>
+      </c>
+      <c r="CK95" s="26">
+        <v>97.443082391832533</v>
+      </c>
       <c r="CL95" s="9"/>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
@@ -35043,9 +35098,11 @@
         <v>108.52500904578446</v>
       </c>
       <c r="CJ96" s="26">
-        <v>101.58711664646236</v>
-      </c>
-      <c r="CK96" s="9"/>
+        <v>101.58711664646233</v>
+      </c>
+      <c r="CK96" s="26">
+        <v>105.88401340202043</v>
+      </c>
       <c r="CL96" s="9"/>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
@@ -35373,9 +35430,11 @@
         <v>114.77007789111752</v>
       </c>
       <c r="CJ97" s="26">
-        <v>99.463572255264154</v>
-      </c>
-      <c r="CK97" s="9"/>
+        <v>99.46357225526414</v>
+      </c>
+      <c r="CK97" s="26">
+        <v>105.73101895982245</v>
+      </c>
       <c r="CL97" s="9"/>
       <c r="CM97" s="9"/>
       <c r="CN97" s="9"/>
@@ -35703,9 +35762,11 @@
         <v>111.65389177173203</v>
       </c>
       <c r="CJ98" s="26">
-        <v>110.3654425146365</v>
-      </c>
-      <c r="CK98" s="9"/>
+        <v>110.66088837502663</v>
+      </c>
+      <c r="CK98" s="26">
+        <v>110.86700491751174</v>
+      </c>
       <c r="CL98" s="9"/>
       <c r="CM98" s="9"/>
       <c r="CN98" s="9"/>
@@ -35858,7 +35919,7 @@
       <c r="CH99" s="26"/>
       <c r="CI99" s="26"/>
       <c r="CJ99" s="26"/>
-      <c r="CK99" s="9"/>
+      <c r="CK99" s="26"/>
       <c r="CL99" s="9"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
@@ -36186,9 +36247,11 @@
         <v>131.55420804036396</v>
       </c>
       <c r="CJ100" s="26">
-        <v>82.700557343243929</v>
-      </c>
-      <c r="CK100" s="9"/>
+        <v>82.693483654571381</v>
+      </c>
+      <c r="CK100" s="26">
+        <v>99.192339706208216</v>
+      </c>
       <c r="CL100" s="9"/>
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
@@ -36342,6 +36405,7 @@
       <c r="CH101" s="22"/>
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
+      <c r="CK101" s="22"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
@@ -36360,7 +36424,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.25">
@@ -36370,7 +36434,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.25">
@@ -36509,10 +36573,9 @@
       <c r="CH113" s="29">
         <v>2021</v>
       </c>
-      <c r="CI113" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI113" s="29"/>
       <c r="CJ113" s="29"/>
+      <c r="CK113" s="29"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
@@ -36778,6 +36841,9 @@
       </c>
       <c r="CJ114" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK114" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -37046,9 +37112,11 @@
         <v>84.065112912974058</v>
       </c>
       <c r="CJ116" s="26">
-        <v>81.266815985233862</v>
-      </c>
-      <c r="CK116" s="9"/>
+        <v>81.313777733460142</v>
+      </c>
+      <c r="CK116" s="26">
+        <v>78.429031319886349</v>
+      </c>
       <c r="CL116" s="9"/>
       <c r="CM116" s="9"/>
       <c r="CN116" s="9"/>
@@ -37376,9 +37444,11 @@
         <v>1.4981077434337227</v>
       </c>
       <c r="CJ117" s="26">
-        <v>1.6382074401721525</v>
-      </c>
-      <c r="CK117" s="9"/>
+        <v>1.6418445783985467</v>
+      </c>
+      <c r="CK117" s="26">
+        <v>2.1066994632588383</v>
+      </c>
       <c r="CL117" s="9"/>
       <c r="CM117" s="9"/>
       <c r="CN117" s="9"/>
@@ -37706,9 +37776,11 @@
         <v>13.448985973417216</v>
       </c>
       <c r="CJ118" s="26">
-        <v>15.475814550115169</v>
-      </c>
-      <c r="CK118" s="9"/>
+        <v>15.44927532601951</v>
+      </c>
+      <c r="CK118" s="26">
+        <v>17.829118698038553</v>
+      </c>
       <c r="CL118" s="9"/>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
@@ -38036,9 +38108,11 @@
         <v>0.98779337017500368</v>
       </c>
       <c r="CJ119" s="26">
-        <v>1.6191620244788287</v>
-      </c>
-      <c r="CK119" s="9"/>
+        <v>1.5951023621218179</v>
+      </c>
+      <c r="CK119" s="26">
+        <v>1.6351505188162503</v>
+      </c>
       <c r="CL119" s="9"/>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
@@ -38191,7 +38265,7 @@
       <c r="CH120" s="23"/>
       <c r="CI120" s="23"/>
       <c r="CJ120" s="23"/>
-      <c r="CK120" s="9"/>
+      <c r="CK120" s="23"/>
       <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
@@ -38521,7 +38595,9 @@
       <c r="CJ121" s="26">
         <v>100</v>
       </c>
-      <c r="CK121" s="9"/>
+      <c r="CK121" s="26">
+        <v>100</v>
+      </c>
       <c r="CL121" s="9"/>
       <c r="CM121" s="9"/>
       <c r="CN121" s="9"/>
@@ -38675,6 +38751,7 @@
       <c r="CH122" s="22"/>
       <c r="CI122" s="22"/>
       <c r="CJ122" s="22"/>
+      <c r="CK122" s="22"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
@@ -38769,7 +38846,7 @@
       <c r="CH124" s="23"/>
       <c r="CI124" s="23"/>
       <c r="CJ124" s="23"/>
-      <c r="CK124" s="9"/>
+      <c r="CK124" s="23"/>
       <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
@@ -38922,7 +38999,7 @@
       <c r="CH125" s="23"/>
       <c r="CI125" s="23"/>
       <c r="CJ125" s="23"/>
-      <c r="CK125" s="9"/>
+      <c r="CK125" s="23"/>
       <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
@@ -38999,7 +39076,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.25">
@@ -39009,7 +39086,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.25">
@@ -39148,10 +39225,9 @@
       <c r="CH134" s="29">
         <v>2021</v>
       </c>
-      <c r="CI134" s="29">
-        <v>0</v>
-      </c>
+      <c r="CI134" s="29"/>
       <c r="CJ134" s="29"/>
+      <c r="CK134" s="29"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
@@ -39417,6 +39493,9 @@
       </c>
       <c r="CJ135" s="18" t="s">
         <v>10</v>
+      </c>
+      <c r="CK135" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -39685,9 +39764,11 @@
         <v>81.604357485062152</v>
       </c>
       <c r="CJ137" s="26">
-        <v>84.585456578834311</v>
-      </c>
-      <c r="CK137" s="9"/>
+        <v>84.627096981693171</v>
+      </c>
+      <c r="CK137" s="26">
+        <v>79.836956370369052</v>
+      </c>
       <c r="CL137" s="9"/>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
@@ -40015,9 +40096,11 @@
         <v>1.8160088580450169</v>
       </c>
       <c r="CJ138" s="26">
-        <v>1.3336402569390564</v>
-      </c>
-      <c r="CK138" s="9"/>
+        <v>1.3364868724411707</v>
+      </c>
+      <c r="CK138" s="26">
+        <v>1.9735599558834793</v>
+      </c>
       <c r="CL138" s="9"/>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
@@ -40345,9 +40428,11 @@
         <v>15.415783723327033</v>
       </c>
       <c r="CJ139" s="26">
-        <v>12.86761031818331</v>
-      </c>
-      <c r="CK139" s="9"/>
+        <v>12.844445133826893</v>
+      </c>
+      <c r="CK139" s="26">
+        <v>16.726519955607156</v>
+      </c>
       <c r="CL139" s="9"/>
       <c r="CM139" s="9"/>
       <c r="CN139" s="9"/>
@@ -40675,9 +40760,11 @@
         <v>1.1638499335658117</v>
       </c>
       <c r="CJ140" s="26">
-        <v>1.213292846043325</v>
-      </c>
-      <c r="CK140" s="9"/>
+        <v>1.1919710120387601</v>
+      </c>
+      <c r="CK140" s="26">
+        <v>1.4629637181403199</v>
+      </c>
       <c r="CL140" s="9"/>
       <c r="CM140" s="9"/>
       <c r="CN140" s="9"/>
@@ -40830,7 +40917,7 @@
       <c r="CH141" s="23"/>
       <c r="CI141" s="23"/>
       <c r="CJ141" s="23"/>
-      <c r="CK141" s="9"/>
+      <c r="CK141" s="23"/>
       <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
@@ -41160,7 +41247,9 @@
       <c r="CJ142" s="26">
         <v>100</v>
       </c>
-      <c r="CK142" s="9"/>
+      <c r="CK142" s="26">
+        <v>100</v>
+      </c>
       <c r="CL142" s="9"/>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
@@ -41314,6 +41403,7 @@
       <c r="CH143" s="22"/>
       <c r="CI143" s="22"/>
       <c r="CJ143" s="22"/>
+      <c r="CK143" s="22"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
@@ -41450,13 +41540,13 @@
     <mergeCell ref="AL30:AO30"/>
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CJ9"/>
-    <mergeCell ref="CH30:CJ30"/>
-    <mergeCell ref="CD72:CF72"/>
-    <mergeCell ref="CH92:CJ92"/>
-    <mergeCell ref="CH113:CJ113"/>
-    <mergeCell ref="CH134:CJ134"/>
-    <mergeCell ref="CD51:CE51"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB531F-684E-4FD0-B07E-3BAB81057269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11424" windowHeight="9180"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -322,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CI$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CL$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -467,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -618,23 +619,26 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>As of January 2022</t>
+    <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2021</t>
+    <t>As of May 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2021</t>
+    <t>Q1 2000 to Q1 2022</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -708,9 +712,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -725,38 +729,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -766,11 +775,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23352,7 +23367,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -23404,7 +23419,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -23605,194 +23620,196 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV144"/>
+  <dimension ref="A1:EV186"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A103" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CL100" sqref="CL100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="77" width="10.7265625" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="81" width="10.7265625" style="1" customWidth="1"/>
-    <col min="82" max="89" width="8.81640625" style="17" customWidth="1"/>
-    <col min="90" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="77" width="10.77734375" style="1" customWidth="1"/>
+    <col min="78" max="78" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="79" max="90" width="10.77734375" style="17" customWidth="1"/>
+    <col min="91" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="35">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
+      <c r="AS9" s="35"/>
+      <c r="AT9" s="35">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="35"/>
+      <c r="AV9" s="35"/>
+      <c r="AW9" s="35"/>
+      <c r="AX9" s="35">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="35"/>
+      <c r="AZ9" s="35"/>
+      <c r="BA9" s="35"/>
+      <c r="BB9" s="35">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="35"/>
+      <c r="BD9" s="35"/>
+      <c r="BE9" s="35"/>
+      <c r="BF9" s="35">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="35"/>
+      <c r="BH9" s="35"/>
+      <c r="BI9" s="35"/>
+      <c r="BJ9" s="35">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="35"/>
+      <c r="BL9" s="35"/>
+      <c r="BM9" s="35"/>
+      <c r="BN9" s="35">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="35"/>
+      <c r="BP9" s="35"/>
+      <c r="BQ9" s="35"/>
+      <c r="BR9" s="35">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="35"/>
+      <c r="BT9" s="35"/>
+      <c r="BU9" s="35"/>
+      <c r="BV9" s="35">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="35"/>
+      <c r="BX9" s="35"/>
+      <c r="BY9" s="35"/>
+      <c r="BZ9" s="38">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="29">
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38">
         <v>2020</v>
       </c>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="29"/>
-      <c r="CG9" s="29"/>
-      <c r="CH9" s="29">
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38">
         <v>2021</v>
       </c>
-      <c r="CI9" s="29"/>
-      <c r="CJ9" s="29"/>
-      <c r="CK9" s="29"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
+      <c r="CL9" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24024,16 +24041,16 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="6" t="s">
+      <c r="BZ10" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="6" t="s">
+      <c r="CA10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="6" t="s">
+      <c r="CB10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="6" t="s">
+      <c r="CC10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD10" s="18" t="s">
@@ -24060,11 +24077,14 @@
       <c r="CK10" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL10" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24296,16 +24316,16 @@
       <c r="BY12" s="8">
         <v>105852.46370208971</v>
       </c>
-      <c r="BZ12" s="8">
+      <c r="BZ12" s="19">
         <v>120271.672411477</v>
       </c>
-      <c r="CA12" s="8">
+      <c r="CA12" s="19">
         <v>158432.34979964601</v>
       </c>
-      <c r="CB12" s="8">
+      <c r="CB12" s="19">
         <v>106841.57254965699</v>
       </c>
-      <c r="CC12" s="8">
+      <c r="CC12" s="19">
         <v>111034.10941864933</v>
       </c>
       <c r="CD12" s="19">
@@ -24318,7 +24338,7 @@
         <v>107649.44577173362</v>
       </c>
       <c r="CG12" s="19">
-        <v>108679.43764126186</v>
+        <v>108952.01304205437</v>
       </c>
       <c r="CH12" s="19">
         <v>124853.99216919967</v>
@@ -24330,9 +24350,11 @@
         <v>115903.47844910492</v>
       </c>
       <c r="CK12" s="19">
-        <v>116490.83644733387</v>
-      </c>
-      <c r="CL12" s="9"/>
+        <v>116866.99599831183</v>
+      </c>
+      <c r="CL12" s="19">
+        <v>150439.12234080129</v>
+      </c>
       <c r="CM12" s="9"/>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
@@ -24396,7 +24418,7 @@
       <c r="EU12" s="9"/>
       <c r="EV12" s="9"/>
     </row>
-    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24628,16 +24650,16 @@
       <c r="BY13" s="8">
         <v>2884.7741662110511</v>
       </c>
-      <c r="BZ13" s="8">
+      <c r="BZ13" s="19">
         <v>3204.9769337411699</v>
       </c>
-      <c r="CA13" s="8">
+      <c r="CA13" s="19">
         <v>3044.3534311151702</v>
       </c>
-      <c r="CB13" s="8">
+      <c r="CB13" s="19">
         <v>2378.4164361460798</v>
       </c>
-      <c r="CC13" s="8">
+      <c r="CC13" s="19">
         <v>2892.8555679168567</v>
       </c>
       <c r="CD13" s="19">
@@ -24662,9 +24684,11 @@
         <v>2340.2614294095238</v>
       </c>
       <c r="CK13" s="19">
-        <v>3129.0859836993204</v>
-      </c>
-      <c r="CL13" s="9"/>
+        <v>3131.4786591923739</v>
+      </c>
+      <c r="CL13" s="19">
+        <v>3281.7999960750249</v>
+      </c>
       <c r="CM13" s="9"/>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
@@ -24728,7 +24752,7 @@
       <c r="EU13" s="9"/>
       <c r="EV13" s="9"/>
     </row>
-    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24960,16 +24984,16 @@
       <c r="BY14" s="8">
         <v>22843.454154843894</v>
       </c>
-      <c r="BZ14" s="8">
+      <c r="BZ14" s="19">
         <v>22898.2742361893</v>
       </c>
-      <c r="CA14" s="8">
+      <c r="CA14" s="19">
         <v>24086.906291442701</v>
       </c>
-      <c r="CB14" s="8">
+      <c r="CB14" s="19">
         <v>21061.333686186401</v>
       </c>
-      <c r="CC14" s="8">
+      <c r="CC14" s="19">
         <v>24562.950521247545</v>
       </c>
       <c r="CD14" s="19">
@@ -24982,7 +25006,7 @@
         <v>21913.487004171035</v>
       </c>
       <c r="CG14" s="19">
-        <v>25464.91544815879</v>
+        <v>25327.158708572715</v>
       </c>
       <c r="CH14" s="19">
         <v>24459.720636902119</v>
@@ -24994,9 +25018,11 @@
         <v>22021.1727915669</v>
       </c>
       <c r="CK14" s="19">
-        <v>26481.634610303903</v>
-      </c>
-      <c r="CL14" s="9"/>
+        <v>26136.660396856932</v>
+      </c>
+      <c r="CL14" s="19">
+        <v>25497.844642572269</v>
+      </c>
       <c r="CM14" s="9"/>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
@@ -25060,7 +25086,7 @@
       <c r="EU14" s="9"/>
       <c r="EV14" s="9"/>
     </row>
-    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25292,16 +25318,16 @@
       <c r="BY15" s="8">
         <v>1781.7702785368872</v>
       </c>
-      <c r="BZ15" s="8">
+      <c r="BZ15" s="19">
         <v>1818.12738450798</v>
       </c>
-      <c r="CA15" s="8">
+      <c r="CA15" s="19">
         <v>1584.99586406413</v>
       </c>
-      <c r="CB15" s="8">
+      <c r="CB15" s="19">
         <v>1890.1465170502299</v>
       </c>
-      <c r="CC15" s="8">
+      <c r="CC15" s="19">
         <v>1878.4419513351272</v>
       </c>
       <c r="CD15" s="19">
@@ -25314,7 +25340,7 @@
         <v>2093.3351905139893</v>
       </c>
       <c r="CG15" s="19">
-        <v>2165.6286782572088</v>
+        <v>2129.3934708287588</v>
       </c>
       <c r="CH15" s="19">
         <v>1865.4869028858584</v>
@@ -25326,9 +25352,11 @@
         <v>2273.6357528279777</v>
       </c>
       <c r="CK15" s="19">
-        <v>2428.6931567124825</v>
-      </c>
-      <c r="CL15" s="9"/>
+        <v>2393.2311448656578</v>
+      </c>
+      <c r="CL15" s="19">
+        <v>2032.3932095435107</v>
+      </c>
       <c r="CM15" s="9"/>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
@@ -25392,7 +25420,7 @@
       <c r="EU15" s="9"/>
       <c r="EV15" s="9"/>
     </row>
-    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -25469,10 +25497,10 @@
       <c r="BW16" s="10"/>
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
-      <c r="BZ16" s="10"/>
-      <c r="CA16" s="10"/>
-      <c r="CB16" s="10"/>
-      <c r="CC16" s="10"/>
+      <c r="BZ16" s="20"/>
+      <c r="CA16" s="20"/>
+      <c r="CB16" s="20"/>
+      <c r="CC16" s="20"/>
       <c r="CD16" s="20"/>
       <c r="CE16" s="20"/>
       <c r="CF16" s="20"/>
@@ -25481,7 +25509,7 @@
       <c r="CI16" s="20"/>
       <c r="CJ16" s="20"/>
       <c r="CK16" s="20"/>
-      <c r="CL16" s="9"/>
+      <c r="CL16" s="20"/>
       <c r="CM16" s="9"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
@@ -25545,7 +25573,7 @@
       <c r="EU16" s="9"/>
       <c r="EV16" s="9"/>
     </row>
-    <row r="17" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -25777,16 +25805,16 @@
       <c r="BY17" s="12">
         <v>133362.46230168155</v>
       </c>
-      <c r="BZ17" s="12">
+      <c r="BZ17" s="21">
         <v>148193.05096591543</v>
       </c>
-      <c r="CA17" s="12">
+      <c r="CA17" s="21">
         <v>187148.605386268</v>
       </c>
-      <c r="CB17" s="12">
+      <c r="CB17" s="21">
         <v>132171.46918903969</v>
       </c>
-      <c r="CC17" s="12">
+      <c r="CC17" s="21">
         <v>140368.35745914886</v>
       </c>
       <c r="CD17" s="21">
@@ -25799,7 +25827,7 @@
         <v>134159.40382223361</v>
       </c>
       <c r="CG17" s="21">
-        <v>139221.50691744577</v>
+        <v>139320.09037122381</v>
       </c>
       <c r="CH17" s="21">
         <v>154628.8523834777</v>
@@ -25811,9 +25839,11 @@
         <v>142538.54842290931</v>
       </c>
       <c r="CK17" s="21">
-        <v>148530.25019804959</v>
-      </c>
-      <c r="CL17" s="9"/>
+        <v>148528.36619922679</v>
+      </c>
+      <c r="CL17" s="21">
+        <v>181251.1601889921</v>
+      </c>
       <c r="CM17" s="9"/>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
@@ -25877,7 +25907,7 @@
       <c r="EU17" s="9"/>
       <c r="EV17" s="9"/>
     </row>
-    <row r="18" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -25955,10 +25985,10 @@
       <c r="BW18" s="13"/>
       <c r="BX18" s="13"/>
       <c r="BY18" s="13"/>
-      <c r="BZ18" s="13"/>
-      <c r="CA18" s="13"/>
-      <c r="CB18" s="13"/>
-      <c r="CC18" s="13"/>
+      <c r="BZ18" s="22"/>
+      <c r="CA18" s="22"/>
+      <c r="CB18" s="22"/>
+      <c r="CC18" s="22"/>
       <c r="CD18" s="22"/>
       <c r="CE18" s="22"/>
       <c r="CF18" s="22"/>
@@ -25967,13 +25997,14 @@
       <c r="CI18" s="22"/>
       <c r="CJ18" s="22"/>
       <c r="CK18" s="22"/>
+      <c r="CL18" s="22"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26050,10 +26081,10 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="9"/>
-      <c r="CA20" s="9"/>
-      <c r="CB20" s="9"/>
-      <c r="CC20" s="9"/>
+      <c r="BZ20" s="23"/>
+      <c r="CA20" s="23"/>
+      <c r="CB20" s="23"/>
+      <c r="CC20" s="23"/>
       <c r="CD20" s="23"/>
       <c r="CE20" s="23"/>
       <c r="CF20" s="23"/>
@@ -26062,7 +26093,7 @@
       <c r="CI20" s="23"/>
       <c r="CJ20" s="23"/>
       <c r="CK20" s="23"/>
-      <c r="CL20" s="9"/>
+      <c r="CL20" s="23"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -26126,7 +26157,7 @@
       <c r="EU20" s="9"/>
       <c r="EV20" s="9"/>
     </row>
-    <row r="21" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26203,10 +26234,10 @@
       <c r="BW21" s="9"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
-      <c r="BZ21" s="9"/>
-      <c r="CA21" s="9"/>
-      <c r="CB21" s="9"/>
-      <c r="CC21" s="9"/>
+      <c r="BZ21" s="23"/>
+      <c r="CA21" s="23"/>
+      <c r="CB21" s="23"/>
+      <c r="CC21" s="23"/>
       <c r="CD21" s="23"/>
       <c r="CE21" s="23"/>
       <c r="CF21" s="23"/>
@@ -26215,7 +26246,7 @@
       <c r="CI21" s="23"/>
       <c r="CJ21" s="23"/>
       <c r="CK21" s="23"/>
-      <c r="CL21" s="9"/>
+      <c r="CL21" s="23"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
@@ -26279,172 +26310,175 @@
       <c r="EU21" s="9"/>
       <c r="EV21" s="9"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="30">
+      <c r="B30" s="35">
         <v>2000</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="35">
         <v>2001</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="30">
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="35">
         <v>2002</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="30">
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="35">
         <v>2003</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="30">
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="35">
         <v>2004</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="30">
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="35">
         <v>2005</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="30">
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="35">
         <v>2006</v>
       </c>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="30">
+      <c r="AA30" s="36"/>
+      <c r="AB30" s="36"/>
+      <c r="AC30" s="36"/>
+      <c r="AD30" s="35">
         <v>2007</v>
       </c>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="30">
+      <c r="AE30" s="36"/>
+      <c r="AF30" s="36"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="35">
         <v>2008</v>
       </c>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="30">
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="35">
         <v>2009</v>
       </c>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="30">
+      <c r="AM30" s="36"/>
+      <c r="AN30" s="36"/>
+      <c r="AO30" s="36"/>
+      <c r="AP30" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="30">
+      <c r="AQ30" s="36"/>
+      <c r="AR30" s="36"/>
+      <c r="AS30" s="36"/>
+      <c r="AT30" s="35">
         <v>2011</v>
       </c>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="30">
+      <c r="AU30" s="36"/>
+      <c r="AV30" s="36"/>
+      <c r="AW30" s="36"/>
+      <c r="AX30" s="35">
         <v>2012</v>
       </c>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="30">
+      <c r="AY30" s="36"/>
+      <c r="AZ30" s="36"/>
+      <c r="BA30" s="36"/>
+      <c r="BB30" s="35">
         <v>2013</v>
       </c>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="30">
+      <c r="BC30" s="36"/>
+      <c r="BD30" s="36"/>
+      <c r="BE30" s="36"/>
+      <c r="BF30" s="35">
         <v>2014</v>
       </c>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="30">
+      <c r="BG30" s="36"/>
+      <c r="BH30" s="36"/>
+      <c r="BI30" s="36"/>
+      <c r="BJ30" s="35">
         <v>2015</v>
       </c>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="30">
+      <c r="BK30" s="36"/>
+      <c r="BL30" s="36"/>
+      <c r="BM30" s="36"/>
+      <c r="BN30" s="35">
         <v>2016</v>
       </c>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
-      <c r="BR30" s="30">
+      <c r="BO30" s="36"/>
+      <c r="BP30" s="36"/>
+      <c r="BQ30" s="36"/>
+      <c r="BR30" s="35">
         <v>2017</v>
       </c>
-      <c r="BS30" s="31"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="30">
+      <c r="BS30" s="36"/>
+      <c r="BT30" s="36"/>
+      <c r="BU30" s="36"/>
+      <c r="BV30" s="35">
         <v>2018</v>
       </c>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
-      <c r="BZ30" s="30">
+      <c r="BW30" s="36"/>
+      <c r="BX30" s="36"/>
+      <c r="BY30" s="36"/>
+      <c r="BZ30" s="38">
         <v>2019</v>
       </c>
-      <c r="CA30" s="31"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-      <c r="CD30" s="29">
+      <c r="CA30" s="39"/>
+      <c r="CB30" s="39"/>
+      <c r="CC30" s="39"/>
+      <c r="CD30" s="38">
         <v>2020</v>
       </c>
-      <c r="CE30" s="29"/>
-      <c r="CF30" s="29"/>
-      <c r="CG30" s="29"/>
-      <c r="CH30" s="29">
+      <c r="CE30" s="38"/>
+      <c r="CF30" s="38"/>
+      <c r="CG30" s="38"/>
+      <c r="CH30" s="38">
         <v>2021</v>
       </c>
-      <c r="CI30" s="29"/>
-      <c r="CJ30" s="29"/>
-      <c r="CK30" s="29"/>
+      <c r="CI30" s="38"/>
+      <c r="CJ30" s="38"/>
+      <c r="CK30" s="38"/>
+      <c r="CL30" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26676,16 +26710,16 @@
       <c r="BY31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ31" s="6" t="s">
+      <c r="BZ31" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA31" s="6" t="s">
+      <c r="CA31" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB31" s="6" t="s">
+      <c r="CB31" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC31" s="6" t="s">
+      <c r="CC31" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD31" s="18" t="s">
@@ -26712,11 +26746,14 @@
       <c r="CK31" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL31" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="32" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -26948,20 +26985,20 @@
       <c r="BY33" s="8">
         <v>108390.35450855801</v>
       </c>
-      <c r="BZ33" s="8">
+      <c r="BZ33" s="19">
         <v>102431.50392162605</v>
       </c>
-      <c r="CA33" s="8">
+      <c r="CA33" s="19">
         <v>125941.7515986575</v>
       </c>
-      <c r="CB33" s="8">
+      <c r="CB33" s="19">
         <v>140881.36133726753</v>
       </c>
-      <c r="CC33" s="8">
+      <c r="CC33" s="19">
         <v>114322.37498963406</v>
       </c>
       <c r="CD33" s="19">
-        <v>108001.76254983649</v>
+        <v>108001.76254983651</v>
       </c>
       <c r="CE33" s="19">
         <v>114253.15663416451</v>
@@ -26970,7 +27007,7 @@
         <v>140594.97464340663</v>
       </c>
       <c r="CG33" s="19">
-        <v>114557.40983808867</v>
+        <v>114844.72759182457</v>
       </c>
       <c r="CH33" s="19">
         <v>109060.05275456735</v>
@@ -26982,9 +27019,11 @@
         <v>145871.51281960148</v>
       </c>
       <c r="CK33" s="19">
-        <v>119547.56929682048</v>
-      </c>
-      <c r="CL33" s="9"/>
+        <v>119933.59702556206</v>
+      </c>
+      <c r="CL33" s="19">
+        <v>116448.15745941042</v>
+      </c>
       <c r="CM33" s="9"/>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
@@ -27048,7 +27087,7 @@
       <c r="EU33" s="9"/>
       <c r="EV33" s="9"/>
     </row>
-    <row r="34" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -27280,16 +27319,16 @@
       <c r="BY34" s="8">
         <v>2761.6625347379131</v>
       </c>
-      <c r="BZ34" s="8">
+      <c r="BZ34" s="19">
         <v>3047.4329345269971</v>
       </c>
-      <c r="CA34" s="8">
+      <c r="CA34" s="19">
         <v>2913.7389677677497</v>
       </c>
-      <c r="CB34" s="8">
+      <c r="CB34" s="19">
         <v>2432.0914819390237</v>
       </c>
-      <c r="CC34" s="8">
+      <c r="CC34" s="19">
         <v>2830.6406920104287</v>
       </c>
       <c r="CD34" s="19">
@@ -27314,9 +27353,11 @@
         <v>2303.6990384853302</v>
       </c>
       <c r="CK34" s="19">
-        <v>2955.2015296386685</v>
-      </c>
-      <c r="CL34" s="9"/>
+        <v>2957.4612432783179</v>
+      </c>
+      <c r="CL34" s="19">
+        <v>2995.4632546905109</v>
+      </c>
       <c r="CM34" s="9"/>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
@@ -27380,7 +27421,7 @@
       <c r="EU34" s="9"/>
       <c r="EV34" s="9"/>
     </row>
-    <row r="35" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27612,16 +27653,16 @@
       <c r="BY35" s="8">
         <v>22381.984121684269</v>
       </c>
-      <c r="BZ35" s="8">
+      <c r="BZ35" s="19">
         <v>22279.914573627942</v>
       </c>
-      <c r="CA35" s="8">
+      <c r="CA35" s="19">
         <v>21784.566819635125</v>
       </c>
-      <c r="CB35" s="8">
+      <c r="CB35" s="19">
         <v>21876.764303855827</v>
       </c>
-      <c r="CC35" s="8">
+      <c r="CC35" s="19">
         <v>23583.718351503543</v>
       </c>
       <c r="CD35" s="19">
@@ -27634,7 +27675,7 @@
         <v>22293.84788494472</v>
       </c>
       <c r="CG35" s="19">
-        <v>24095.745954230501</v>
+        <v>23965.395967115615</v>
       </c>
       <c r="CH35" s="19">
         <v>23321.373401767531</v>
@@ -27646,9 +27687,11 @@
         <v>22139.93755930219</v>
       </c>
       <c r="CK35" s="19">
-        <v>25046.230397502237</v>
-      </c>
-      <c r="CL35" s="9"/>
+        <v>24719.955784756323</v>
+      </c>
+      <c r="CL35" s="19">
+        <v>24063.471741691585</v>
+      </c>
       <c r="CM35" s="9"/>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
@@ -27712,7 +27755,7 @@
       <c r="EU35" s="9"/>
       <c r="EV35" s="9"/>
     </row>
-    <row r="36" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -27944,16 +27987,16 @@
       <c r="BY36" s="8">
         <v>1741.1971204188453</v>
       </c>
-      <c r="BZ36" s="8">
+      <c r="BZ36" s="19">
         <v>1785.2554797105533</v>
       </c>
-      <c r="CA36" s="8">
+      <c r="CA36" s="19">
         <v>1555.8051581405723</v>
       </c>
-      <c r="CB36" s="8">
+      <c r="CB36" s="19">
         <v>1829.7199444468843</v>
       </c>
-      <c r="CC36" s="8">
+      <c r="CC36" s="19">
         <v>1815.3553965872513</v>
       </c>
       <c r="CD36" s="19">
@@ -27966,7 +28009,7 @@
         <v>1913.0425476003575</v>
       </c>
       <c r="CG36" s="19">
-        <v>1978.0329790105375</v>
+        <v>1944.9366148857139</v>
       </c>
       <c r="CH36" s="19">
         <v>1704.4969981261102</v>
@@ -27978,9 +28021,11 @@
         <v>2054.5974157759247</v>
       </c>
       <c r="CK36" s="19">
-        <v>2190.6365726389927</v>
-      </c>
-      <c r="CL36" s="9"/>
+        <v>2158.6083456663318</v>
+      </c>
+      <c r="CL36" s="19">
+        <v>1830.9098394516477</v>
+      </c>
       <c r="CM36" s="9"/>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
@@ -28044,7 +28089,7 @@
       <c r="EU36" s="9"/>
       <c r="EV36" s="9"/>
     </row>
-    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -28121,10 +28166,10 @@
       <c r="BW37" s="10"/>
       <c r="BX37" s="10"/>
       <c r="BY37" s="10"/>
-      <c r="BZ37" s="10"/>
-      <c r="CA37" s="10"/>
-      <c r="CB37" s="10"/>
-      <c r="CC37" s="10"/>
+      <c r="BZ37" s="20"/>
+      <c r="CA37" s="20"/>
+      <c r="CB37" s="20"/>
+      <c r="CC37" s="20"/>
       <c r="CD37" s="20"/>
       <c r="CE37" s="20"/>
       <c r="CF37" s="20"/>
@@ -28133,7 +28178,7 @@
       <c r="CI37" s="20"/>
       <c r="CJ37" s="20"/>
       <c r="CK37" s="20"/>
-      <c r="CL37" s="9"/>
+      <c r="CL37" s="20"/>
       <c r="CM37" s="9"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
@@ -28197,7 +28242,7 @@
       <c r="EU37" s="9"/>
       <c r="EV37" s="9"/>
     </row>
-    <row r="38" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
@@ -28429,16 +28474,16 @@
       <c r="BY38" s="12">
         <v>135275.19828539906</v>
       </c>
-      <c r="BZ38" s="12">
+      <c r="BZ38" s="21">
         <v>129544.10690949154</v>
       </c>
-      <c r="CA38" s="12">
+      <c r="CA38" s="21">
         <v>152195.86254420097</v>
       </c>
-      <c r="CB38" s="12">
+      <c r="CB38" s="21">
         <v>167019.93706750925</v>
       </c>
-      <c r="CC38" s="12">
+      <c r="CC38" s="21">
         <v>142552.08942973529</v>
       </c>
       <c r="CD38" s="21">
@@ -28451,7 +28496,7 @@
         <v>167302.85435247005</v>
       </c>
       <c r="CG38" s="21">
-        <v>143427.55361012495</v>
+        <v>143551.42501262113</v>
       </c>
       <c r="CH38" s="21">
         <v>137399.45565547582</v>
@@ -28463,9 +28508,11 @@
         <v>172369.74683316494</v>
       </c>
       <c r="CK38" s="21">
-        <v>149739.63779660038</v>
-      </c>
-      <c r="CL38" s="9"/>
+        <v>149769.62239926303</v>
+      </c>
+      <c r="CL38" s="21">
+        <v>145338.00229524414</v>
+      </c>
       <c r="CM38" s="9"/>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
@@ -28529,7 +28576,7 @@
       <c r="EU38" s="9"/>
       <c r="EV38" s="9"/>
     </row>
-    <row r="39" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -28607,10 +28654,10 @@
       <c r="BW39" s="13"/>
       <c r="BX39" s="13"/>
       <c r="BY39" s="13"/>
-      <c r="BZ39" s="13"/>
-      <c r="CA39" s="13"/>
-      <c r="CB39" s="13"/>
-      <c r="CC39" s="13"/>
+      <c r="BZ39" s="22"/>
+      <c r="CA39" s="22"/>
+      <c r="CB39" s="22"/>
+      <c r="CC39" s="22"/>
       <c r="CD39" s="22"/>
       <c r="CE39" s="22"/>
       <c r="CF39" s="22"/>
@@ -28619,13 +28666,14 @@
       <c r="CI39" s="22"/>
       <c r="CJ39" s="22"/>
       <c r="CK39" s="22"/>
+      <c r="CL39" s="22"/>
     </row>
-    <row r="40" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28702,10 +28750,10 @@
       <c r="BW41" s="9"/>
       <c r="BX41" s="9"/>
       <c r="BY41" s="9"/>
-      <c r="BZ41" s="9"/>
-      <c r="CA41" s="9"/>
-      <c r="CB41" s="9"/>
-      <c r="CC41" s="9"/>
+      <c r="BZ41" s="23"/>
+      <c r="CA41" s="23"/>
+      <c r="CB41" s="23"/>
+      <c r="CC41" s="23"/>
       <c r="CD41" s="23"/>
       <c r="CE41" s="23"/>
       <c r="CF41" s="23"/>
@@ -28714,7 +28762,7 @@
       <c r="CI41" s="23"/>
       <c r="CJ41" s="23"/>
       <c r="CK41" s="23"/>
-      <c r="CL41" s="9"/>
+      <c r="CL41" s="23"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -28778,7 +28826,7 @@
       <c r="EU41" s="9"/>
       <c r="EV41" s="9"/>
     </row>
-    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -28855,10 +28903,10 @@
       <c r="BW42" s="9"/>
       <c r="BX42" s="9"/>
       <c r="BY42" s="9"/>
-      <c r="BZ42" s="9"/>
-      <c r="CA42" s="9"/>
-      <c r="CB42" s="9"/>
-      <c r="CC42" s="9"/>
+      <c r="BZ42" s="23"/>
+      <c r="CA42" s="23"/>
+      <c r="CB42" s="23"/>
+      <c r="CC42" s="23"/>
       <c r="CD42" s="23"/>
       <c r="CE42" s="23"/>
       <c r="CF42" s="23"/>
@@ -28867,7 +28915,7 @@
       <c r="CI42" s="23"/>
       <c r="CJ42" s="23"/>
       <c r="CK42" s="23"/>
-      <c r="CL42" s="9"/>
+      <c r="CL42" s="23"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -28931,170 +28979,191 @@
       <c r="EU42" s="9"/>
       <c r="EV42" s="9"/>
     </row>
-    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CI48" s="28"/>
+      <c r="CJ48" s="28"/>
+      <c r="CK48" s="28"/>
+      <c r="CL48" s="28"/>
+      <c r="CM48" s="29"/>
     </row>
-    <row r="49" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CI49" s="28"/>
+      <c r="CJ49" s="28"/>
+      <c r="CK49" s="28"/>
+      <c r="CL49" s="28"/>
+      <c r="CM49" s="29"/>
     </row>
-    <row r="51" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CI50" s="28"/>
+      <c r="CJ50" s="28"/>
+      <c r="CK50" s="28"/>
+      <c r="CL50" s="28"/>
+      <c r="CM50" s="29"/>
+    </row>
+    <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30" t="s">
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30" t="s">
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30" t="s">
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30" t="s">
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30" t="s">
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30" t="s">
+      <c r="AA51" s="35"/>
+      <c r="AB51" s="35"/>
+      <c r="AC51" s="35"/>
+      <c r="AD51" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30" t="s">
+      <c r="AE51" s="35"/>
+      <c r="AF51" s="35"/>
+      <c r="AG51" s="35"/>
+      <c r="AH51" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30" t="s">
+      <c r="AI51" s="35"/>
+      <c r="AJ51" s="35"/>
+      <c r="AK51" s="35"/>
+      <c r="AL51" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30" t="s">
+      <c r="AM51" s="35"/>
+      <c r="AN51" s="35"/>
+      <c r="AO51" s="35"/>
+      <c r="AP51" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30" t="s">
+      <c r="AQ51" s="35"/>
+      <c r="AR51" s="35"/>
+      <c r="AS51" s="35"/>
+      <c r="AT51" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="30" t="s">
+      <c r="AU51" s="35"/>
+      <c r="AV51" s="35"/>
+      <c r="AW51" s="35"/>
+      <c r="AX51" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="30"/>
-      <c r="AZ51" s="30"/>
-      <c r="BA51" s="30"/>
-      <c r="BB51" s="30" t="s">
+      <c r="AY51" s="35"/>
+      <c r="AZ51" s="35"/>
+      <c r="BA51" s="35"/>
+      <c r="BB51" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="30"/>
-      <c r="BD51" s="30"/>
-      <c r="BE51" s="30"/>
-      <c r="BF51" s="30" t="s">
+      <c r="BC51" s="35"/>
+      <c r="BD51" s="35"/>
+      <c r="BE51" s="35"/>
+      <c r="BF51" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="30"/>
-      <c r="BH51" s="30"/>
-      <c r="BI51" s="30"/>
-      <c r="BJ51" s="30" t="s">
+      <c r="BG51" s="35"/>
+      <c r="BH51" s="35"/>
+      <c r="BI51" s="35"/>
+      <c r="BJ51" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="30"/>
-      <c r="BL51" s="30"/>
-      <c r="BM51" s="30"/>
-      <c r="BN51" s="30" t="s">
+      <c r="BK51" s="35"/>
+      <c r="BL51" s="35"/>
+      <c r="BM51" s="35"/>
+      <c r="BN51" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="30"/>
-      <c r="BP51" s="30"/>
-      <c r="BQ51" s="30"/>
-      <c r="BR51" s="30" t="s">
+      <c r="BO51" s="35"/>
+      <c r="BP51" s="35"/>
+      <c r="BQ51" s="35"/>
+      <c r="BR51" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="30"/>
-      <c r="BT51" s="30"/>
-      <c r="BU51" s="30"/>
-      <c r="BV51" s="30" t="s">
+      <c r="BS51" s="35"/>
+      <c r="BT51" s="35"/>
+      <c r="BU51" s="35"/>
+      <c r="BV51" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="30"/>
-      <c r="BX51" s="30"/>
-      <c r="BY51" s="30"/>
-      <c r="BZ51" s="30" t="s">
+      <c r="BW51" s="35"/>
+      <c r="BX51" s="35"/>
+      <c r="BY51" s="35"/>
+      <c r="BZ51" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="30"/>
-      <c r="CB51" s="30"/>
-      <c r="CC51" s="30"/>
-      <c r="CD51" s="29" t="s">
+      <c r="CA51" s="38"/>
+      <c r="CB51" s="38"/>
+      <c r="CC51" s="38"/>
+      <c r="CD51" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="29"/>
-      <c r="CF51" s="29"/>
-      <c r="CG51" s="29"/>
-      <c r="CH51" s="24"/>
-      <c r="CI51" s="24"/>
-      <c r="CJ51" s="24"/>
-      <c r="CK51" s="24"/>
+      <c r="CE51" s="38"/>
+      <c r="CF51" s="38"/>
+      <c r="CG51" s="38"/>
+      <c r="CH51" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI51" s="32"/>
+      <c r="CJ51" s="32"/>
+      <c r="CK51" s="32"/>
+      <c r="CL51" s="33"/>
+      <c r="CM51" s="29"/>
     </row>
-    <row r="52" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29326,39 +29395,48 @@
       <c r="BY52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ52" s="5" t="s">
+      <c r="BZ52" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CA52" s="5" t="s">
+      <c r="CA52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CB52" s="5" t="s">
+      <c r="CB52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CC52" s="5" t="s">
+      <c r="CC52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CD52" s="27" t="s">
+      <c r="CD52" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CE52" s="27" t="s">
+      <c r="CE52" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="27" t="s">
+      <c r="CF52" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="27" t="s">
+      <c r="CG52" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CH52" s="25"/>
-      <c r="CI52" s="25"/>
-      <c r="CJ52" s="25"/>
-      <c r="CK52" s="25"/>
+      <c r="CH52" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI52" s="32"/>
+      <c r="CJ52" s="32"/>
+      <c r="CK52" s="32"/>
+      <c r="CL52" s="32"/>
+      <c r="CM52" s="29"/>
     </row>
-    <row r="53" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
+      <c r="CI53" s="28"/>
+      <c r="CJ53" s="28"/>
+      <c r="CK53" s="28"/>
+      <c r="CL53" s="28"/>
+      <c r="CM53" s="29"/>
     </row>
-    <row r="54" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29590,36 +29668,38 @@
       <c r="BY54" s="15">
         <v>4.8951583509126522</v>
       </c>
-      <c r="BZ54" s="15">
+      <c r="BZ54" s="24">
         <v>4.3735726774849013</v>
       </c>
-      <c r="CA54" s="15">
+      <c r="CA54" s="24">
         <v>-4.6054804960004958</v>
       </c>
-      <c r="CB54" s="15">
+      <c r="CB54" s="24">
         <v>0.75614126860699571</v>
       </c>
-      <c r="CC54" s="15">
-        <v>-2.120674259212791</v>
-      </c>
-      <c r="CD54" s="26">
+      <c r="CC54" s="24">
+        <v>-1.8751862715847949</v>
+      </c>
+      <c r="CD54" s="24">
         <v>-0.53998191851570709</v>
       </c>
-      <c r="CE54" s="26">
+      <c r="CE54" s="24">
         <v>14.126067181842245</v>
       </c>
-      <c r="CF54" s="26">
+      <c r="CF54" s="24">
         <v>7.6675106111309077</v>
       </c>
-      <c r="CG54" s="26">
-        <v>7.1875590963734339</v>
-      </c>
-      <c r="CH54" s="23"/>
-      <c r="CI54" s="23"/>
-      <c r="CJ54" s="23"/>
-      <c r="CK54" s="23"/>
-      <c r="CL54" s="9"/>
-      <c r="CM54" s="9"/>
+      <c r="CG54" s="24">
+        <v>7.2646504963633589</v>
+      </c>
+      <c r="CH54" s="24">
+        <v>20.492040123898605</v>
+      </c>
+      <c r="CI54" s="30"/>
+      <c r="CJ54" s="30"/>
+      <c r="CK54" s="30"/>
+      <c r="CL54" s="30"/>
+      <c r="CM54" s="31"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
@@ -29678,7 +29758,7 @@
       <c r="EQ54" s="9"/>
       <c r="ER54" s="9"/>
     </row>
-    <row r="55" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -29910,36 +29990,38 @@
       <c r="BY55" s="15">
         <v>0.28013983903703377</v>
       </c>
-      <c r="BZ55" s="15">
+      <c r="BZ55" s="24">
         <v>6.1796471075463728</v>
       </c>
-      <c r="CA55" s="15">
+      <c r="CA55" s="24">
         <v>6.9210310745297221</v>
       </c>
-      <c r="CB55" s="15">
+      <c r="CB55" s="24">
         <v>5.2438007816239178</v>
       </c>
-      <c r="CC55" s="15">
+      <c r="CC55" s="24">
         <v>0.64536861287317038</v>
       </c>
-      <c r="CD55" s="26">
+      <c r="CD55" s="24">
         <v>1.3699389236369512</v>
       </c>
-      <c r="CE55" s="26">
+      <c r="CE55" s="24">
         <v>-5.567566827594348</v>
       </c>
-      <c r="CF55" s="26">
+      <c r="CF55" s="24">
         <v>-6.5068152824021013</v>
       </c>
-      <c r="CG55" s="26">
-        <v>7.4724009836808278</v>
-      </c>
-      <c r="CH55" s="23"/>
-      <c r="CI55" s="23"/>
-      <c r="CJ55" s="23"/>
-      <c r="CK55" s="23"/>
-      <c r="CL55" s="9"/>
-      <c r="CM55" s="9"/>
+      <c r="CG55" s="24">
+        <v>7.5545804384330495</v>
+      </c>
+      <c r="CH55" s="24">
+        <v>-4.8657848848455529</v>
+      </c>
+      <c r="CI55" s="30"/>
+      <c r="CJ55" s="30"/>
+      <c r="CK55" s="30"/>
+      <c r="CL55" s="30"/>
+      <c r="CM55" s="31"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
@@ -29998,7 +30080,7 @@
       <c r="EQ55" s="9"/>
       <c r="ER55" s="9"/>
     </row>
-    <row r="56" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30230,36 +30312,38 @@
       <c r="BY56" s="15">
         <v>7.5273045606329134</v>
       </c>
-      <c r="BZ56" s="15">
+      <c r="BZ56" s="24">
         <v>5.1714827137163013</v>
       </c>
-      <c r="CA56" s="15">
+      <c r="CA56" s="24">
         <v>10.480201290620656</v>
       </c>
-      <c r="CB56" s="15">
+      <c r="CB56" s="24">
         <v>4.0460558228729013</v>
       </c>
-      <c r="CC56" s="15">
-        <v>3.6720544876358616</v>
-      </c>
-      <c r="CD56" s="26">
+      <c r="CC56" s="24">
+        <v>3.1112230864289216</v>
+      </c>
+      <c r="CD56" s="24">
         <v>1.5665600297433855</v>
       </c>
-      <c r="CE56" s="26">
+      <c r="CE56" s="24">
         <v>3.6956170089859341</v>
       </c>
-      <c r="CF56" s="26">
+      <c r="CF56" s="24">
         <v>0.49141328979440857</v>
       </c>
-      <c r="CG56" s="26">
-        <v>3.9926272844492274</v>
-      </c>
-      <c r="CH56" s="23"/>
-      <c r="CI56" s="23"/>
-      <c r="CJ56" s="23"/>
-      <c r="CK56" s="23"/>
-      <c r="CL56" s="9"/>
-      <c r="CM56" s="9"/>
+      <c r="CG56" s="24">
+        <v>3.1961804227578625</v>
+      </c>
+      <c r="CH56" s="24">
+        <v>4.2442185709347058</v>
+      </c>
+      <c r="CI56" s="30"/>
+      <c r="CJ56" s="30"/>
+      <c r="CK56" s="30"/>
+      <c r="CL56" s="30"/>
+      <c r="CM56" s="31"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30318,7 +30402,7 @@
       <c r="EQ56" s="9"/>
       <c r="ER56" s="9"/>
     </row>
-    <row r="57" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30550,36 +30634,38 @@
       <c r="BY57" s="15">
         <v>5.4255968888212891</v>
       </c>
-      <c r="BZ57" s="15">
+      <c r="BZ57" s="24">
         <v>-5.3951810205619211</v>
       </c>
-      <c r="CA57" s="15">
+      <c r="CA57" s="24">
         <v>15.608623592856489</v>
       </c>
-      <c r="CB57" s="15">
+      <c r="CB57" s="24">
         <v>10.749890108035459</v>
       </c>
-      <c r="CC57" s="15">
-        <v>15.288560113234254</v>
-      </c>
-      <c r="CD57" s="26">
+      <c r="CC57" s="24">
+        <v>13.359556802661075</v>
+      </c>
+      <c r="CD57" s="24">
         <v>8.4562632253270493</v>
       </c>
-      <c r="CE57" s="26">
+      <c r="CE57" s="24">
         <v>10.607374200140484</v>
       </c>
-      <c r="CF57" s="26">
+      <c r="CF57" s="24">
         <v>8.6130765455539944</v>
       </c>
-      <c r="CG57" s="26">
-        <v>12.147256872631317</v>
-      </c>
-      <c r="CH57" s="23"/>
-      <c r="CI57" s="23"/>
-      <c r="CJ57" s="23"/>
-      <c r="CK57" s="23"/>
-      <c r="CL57" s="9"/>
-      <c r="CM57" s="9"/>
+      <c r="CG57" s="24">
+        <v>12.390273458207488</v>
+      </c>
+      <c r="CH57" s="24">
+        <v>8.9470639756008268</v>
+      </c>
+      <c r="CI57" s="30"/>
+      <c r="CJ57" s="30"/>
+      <c r="CK57" s="30"/>
+      <c r="CL57" s="30"/>
+      <c r="CM57" s="31"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
@@ -30638,7 +30724,7 @@
       <c r="EQ57" s="9"/>
       <c r="ER57" s="9"/>
     </row>
-    <row r="58" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -30715,20 +30801,20 @@
       <c r="BW58" s="9"/>
       <c r="BX58" s="9"/>
       <c r="BY58" s="9"/>
-      <c r="BZ58" s="9"/>
-      <c r="CA58" s="9"/>
-      <c r="CB58" s="9"/>
-      <c r="CC58" s="9"/>
+      <c r="BZ58" s="23"/>
+      <c r="CA58" s="23"/>
+      <c r="CB58" s="23"/>
+      <c r="CC58" s="23"/>
       <c r="CD58" s="23"/>
       <c r="CE58" s="23"/>
       <c r="CF58" s="23"/>
       <c r="CG58" s="23"/>
       <c r="CH58" s="23"/>
-      <c r="CI58" s="23"/>
-      <c r="CJ58" s="23"/>
-      <c r="CK58" s="23"/>
-      <c r="CL58" s="9"/>
-      <c r="CM58" s="9"/>
+      <c r="CI58" s="30"/>
+      <c r="CJ58" s="30"/>
+      <c r="CK58" s="30"/>
+      <c r="CL58" s="30"/>
+      <c r="CM58" s="31"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
@@ -30787,7 +30873,7 @@
       <c r="EQ58" s="9"/>
       <c r="ER58" s="9"/>
     </row>
-    <row r="59" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>15</v>
       </c>
@@ -31019,36 +31105,38 @@
       <c r="BY59" s="15">
         <v>5.2532736997755478</v>
       </c>
-      <c r="BZ59" s="15">
+      <c r="BZ59" s="24">
         <v>4.4160736656379811</v>
       </c>
-      <c r="CA59" s="15">
+      <c r="CA59" s="24">
         <v>-2.3051830982535648</v>
       </c>
-      <c r="CB59" s="15">
+      <c r="CB59" s="24">
         <v>1.5040573017696062</v>
       </c>
-      <c r="CC59" s="15">
-        <v>-0.81702925250574765</v>
-      </c>
-      <c r="CD59" s="26">
+      <c r="CC59" s="24">
+        <v>-0.74679728886199825</v>
+      </c>
+      <c r="CD59" s="24">
         <v>-7.012713462189879E-2</v>
       </c>
-      <c r="CE59" s="26">
+      <c r="CE59" s="24">
         <v>12.222055956399203</v>
       </c>
-      <c r="CF59" s="26">
+      <c r="CF59" s="24">
         <v>6.2456632647074173</v>
       </c>
-      <c r="CG59" s="26">
-        <v>6.686282519642333</v>
-      </c>
-      <c r="CH59" s="23"/>
-      <c r="CI59" s="23"/>
-      <c r="CJ59" s="23"/>
-      <c r="CK59" s="23"/>
-      <c r="CL59" s="9"/>
-      <c r="CM59" s="9"/>
+      <c r="CG59" s="24">
+        <v>6.6094385981714225</v>
+      </c>
+      <c r="CH59" s="24">
+        <v>17.216908355169963</v>
+      </c>
+      <c r="CI59" s="30"/>
+      <c r="CJ59" s="30"/>
+      <c r="CK59" s="30"/>
+      <c r="CL59" s="30"/>
+      <c r="CM59" s="31"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
@@ -31107,7 +31195,7 @@
       <c r="EQ59" s="9"/>
       <c r="ER59" s="9"/>
     </row>
-    <row r="60" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -31185,25 +31273,32 @@
       <c r="BW60" s="13"/>
       <c r="BX60" s="13"/>
       <c r="BY60" s="13"/>
-      <c r="BZ60" s="13"/>
-      <c r="CA60" s="13"/>
-      <c r="CB60" s="13"/>
-      <c r="CC60" s="13"/>
+      <c r="BZ60" s="22"/>
+      <c r="CA60" s="22"/>
+      <c r="CB60" s="22"/>
+      <c r="CC60" s="22"/>
       <c r="CD60" s="22"/>
       <c r="CE60" s="22"/>
       <c r="CF60" s="22"/>
       <c r="CG60" s="22"/>
       <c r="CH60" s="22"/>
-      <c r="CI60" s="22"/>
-      <c r="CJ60" s="22"/>
-      <c r="CK60" s="22"/>
+      <c r="CI60" s="34"/>
+      <c r="CJ60" s="34"/>
+      <c r="CK60" s="34"/>
+      <c r="CL60" s="34"/>
+      <c r="CM60" s="29"/>
     </row>
-    <row r="61" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CI61" s="28"/>
+      <c r="CJ61" s="28"/>
+      <c r="CK61" s="28"/>
+      <c r="CL61" s="28"/>
+      <c r="CM61" s="29"/>
     </row>
-    <row r="62" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -31280,20 +31375,20 @@
       <c r="BW62" s="16"/>
       <c r="BX62" s="16"/>
       <c r="BY62" s="16"/>
-      <c r="BZ62" s="16"/>
-      <c r="CA62" s="16"/>
-      <c r="CB62" s="16"/>
-      <c r="CC62" s="16"/>
-      <c r="CD62" s="28"/>
-      <c r="CE62" s="28"/>
-      <c r="CF62" s="28"/>
-      <c r="CG62" s="28"/>
-      <c r="CH62" s="23"/>
-      <c r="CI62" s="23"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="23"/>
-      <c r="CL62" s="9"/>
-      <c r="CM62" s="9"/>
+      <c r="BZ62" s="26"/>
+      <c r="CA62" s="26"/>
+      <c r="CB62" s="26"/>
+      <c r="CC62" s="26"/>
+      <c r="CD62" s="26"/>
+      <c r="CE62" s="26"/>
+      <c r="CF62" s="26"/>
+      <c r="CG62" s="26"/>
+      <c r="CH62" s="26"/>
+      <c r="CI62" s="30"/>
+      <c r="CJ62" s="30"/>
+      <c r="CK62" s="30"/>
+      <c r="CL62" s="30"/>
+      <c r="CM62" s="31"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
@@ -31352,7 +31447,7 @@
       <c r="EQ62" s="9"/>
       <c r="ER62" s="9"/>
     </row>
-    <row r="63" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31429,20 +31524,20 @@
       <c r="BW63" s="9"/>
       <c r="BX63" s="9"/>
       <c r="BY63" s="9"/>
-      <c r="BZ63" s="9"/>
-      <c r="CA63" s="9"/>
-      <c r="CB63" s="9"/>
-      <c r="CC63" s="9"/>
+      <c r="BZ63" s="23"/>
+      <c r="CA63" s="23"/>
+      <c r="CB63" s="23"/>
+      <c r="CC63" s="23"/>
       <c r="CD63" s="23"/>
       <c r="CE63" s="23"/>
       <c r="CF63" s="23"/>
       <c r="CG63" s="23"/>
       <c r="CH63" s="23"/>
-      <c r="CI63" s="23"/>
-      <c r="CJ63" s="23"/>
-      <c r="CK63" s="23"/>
-      <c r="CL63" s="9"/>
-      <c r="CM63" s="9"/>
+      <c r="CI63" s="30"/>
+      <c r="CJ63" s="30"/>
+      <c r="CK63" s="30"/>
+      <c r="CL63" s="30"/>
+      <c r="CM63" s="31"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
@@ -31501,170 +31596,197 @@
       <c r="EQ63" s="9"/>
       <c r="ER63" s="9"/>
     </row>
-    <row r="64" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI64" s="28"/>
+      <c r="CJ64" s="28"/>
+      <c r="CK64" s="28"/>
+      <c r="CL64" s="28"/>
+      <c r="CM64" s="29"/>
     </row>
-    <row r="65" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CI65" s="28"/>
+      <c r="CJ65" s="28"/>
+      <c r="CK65" s="28"/>
+      <c r="CL65" s="28"/>
+      <c r="CM65" s="29"/>
     </row>
-    <row r="66" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="CI69" s="28"/>
+      <c r="CJ69" s="28"/>
+      <c r="CK69" s="28"/>
+      <c r="CL69" s="28"/>
     </row>
-    <row r="70" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CI70" s="28"/>
+      <c r="CJ70" s="28"/>
+      <c r="CK70" s="28"/>
+      <c r="CL70" s="28"/>
     </row>
-    <row r="72" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CI71" s="28"/>
+      <c r="CJ71" s="28"/>
+      <c r="CK71" s="28"/>
+      <c r="CL71" s="28"/>
+    </row>
+    <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="30" t="s">
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="30" t="s">
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="30" t="s">
+      <c r="K72" s="37"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="37"/>
+      <c r="N72" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="30" t="s">
+      <c r="O72" s="37"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="37"/>
+      <c r="R72" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="30" t="s">
+      <c r="S72" s="37"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="37"/>
+      <c r="V72" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="30" t="s">
+      <c r="W72" s="37"/>
+      <c r="X72" s="37"/>
+      <c r="Y72" s="37"/>
+      <c r="Z72" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="30" t="s">
+      <c r="AA72" s="37"/>
+      <c r="AB72" s="37"/>
+      <c r="AC72" s="37"/>
+      <c r="AD72" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="30" t="s">
+      <c r="AE72" s="37"/>
+      <c r="AF72" s="37"/>
+      <c r="AG72" s="37"/>
+      <c r="AH72" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="30" t="s">
+      <c r="AI72" s="37"/>
+      <c r="AJ72" s="37"/>
+      <c r="AK72" s="37"/>
+      <c r="AL72" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="32"/>
-      <c r="AN72" s="32"/>
-      <c r="AO72" s="32"/>
-      <c r="AP72" s="30" t="s">
+      <c r="AM72" s="37"/>
+      <c r="AN72" s="37"/>
+      <c r="AO72" s="37"/>
+      <c r="AP72" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="32"/>
-      <c r="AR72" s="32"/>
-      <c r="AS72" s="32"/>
-      <c r="AT72" s="30" t="s">
+      <c r="AQ72" s="37"/>
+      <c r="AR72" s="37"/>
+      <c r="AS72" s="37"/>
+      <c r="AT72" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="32"/>
-      <c r="AV72" s="32"/>
-      <c r="AW72" s="32"/>
-      <c r="AX72" s="30" t="s">
+      <c r="AU72" s="37"/>
+      <c r="AV72" s="37"/>
+      <c r="AW72" s="37"/>
+      <c r="AX72" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="32"/>
-      <c r="AZ72" s="32"/>
-      <c r="BA72" s="32"/>
-      <c r="BB72" s="30" t="s">
+      <c r="AY72" s="37"/>
+      <c r="AZ72" s="37"/>
+      <c r="BA72" s="37"/>
+      <c r="BB72" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="32"/>
-      <c r="BD72" s="32"/>
-      <c r="BE72" s="32"/>
-      <c r="BF72" s="30" t="s">
+      <c r="BC72" s="37"/>
+      <c r="BD72" s="37"/>
+      <c r="BE72" s="37"/>
+      <c r="BF72" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="32"/>
-      <c r="BH72" s="32"/>
-      <c r="BI72" s="32"/>
-      <c r="BJ72" s="30" t="s">
+      <c r="BG72" s="37"/>
+      <c r="BH72" s="37"/>
+      <c r="BI72" s="37"/>
+      <c r="BJ72" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="32"/>
-      <c r="BL72" s="32"/>
-      <c r="BM72" s="32"/>
-      <c r="BN72" s="30" t="s">
+      <c r="BK72" s="37"/>
+      <c r="BL72" s="37"/>
+      <c r="BM72" s="37"/>
+      <c r="BN72" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="32"/>
-      <c r="BP72" s="32"/>
-      <c r="BQ72" s="32"/>
-      <c r="BR72" s="30" t="s">
+      <c r="BO72" s="37"/>
+      <c r="BP72" s="37"/>
+      <c r="BQ72" s="37"/>
+      <c r="BR72" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="32"/>
-      <c r="BT72" s="32"/>
-      <c r="BU72" s="32"/>
-      <c r="BV72" s="30" t="s">
+      <c r="BS72" s="37"/>
+      <c r="BT72" s="37"/>
+      <c r="BU72" s="37"/>
+      <c r="BV72" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="32"/>
-      <c r="BX72" s="32"/>
-      <c r="BY72" s="32"/>
-      <c r="BZ72" s="30" t="s">
+      <c r="BW72" s="37"/>
+      <c r="BX72" s="37"/>
+      <c r="BY72" s="37"/>
+      <c r="BZ72" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="30"/>
-      <c r="CB72" s="30"/>
-      <c r="CC72" s="30"/>
-      <c r="CD72" s="29" t="s">
+      <c r="CA72" s="38"/>
+      <c r="CB72" s="38"/>
+      <c r="CC72" s="38"/>
+      <c r="CD72" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="29"/>
-      <c r="CF72" s="29"/>
-      <c r="CG72" s="29"/>
-      <c r="CH72" s="24"/>
-      <c r="CI72" s="24"/>
-      <c r="CJ72" s="24"/>
-      <c r="CK72" s="24"/>
+      <c r="CE72" s="38"/>
+      <c r="CF72" s="38"/>
+      <c r="CG72" s="38"/>
+      <c r="CH72" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI72" s="32"/>
+      <c r="CJ72" s="32"/>
+      <c r="CK72" s="32"/>
+      <c r="CL72" s="33"/>
     </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -31896,39 +32018,46 @@
       <c r="BY73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ73" s="5" t="s">
+      <c r="BZ73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CA73" s="5" t="s">
+      <c r="CA73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CB73" s="5" t="s">
+      <c r="CB73" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CC73" s="5" t="s">
+      <c r="CC73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CD73" s="27" t="s">
+      <c r="CD73" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="CE73" s="27" t="s">
+      <c r="CE73" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="27" t="s">
+      <c r="CF73" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="27" t="s">
+      <c r="CG73" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="CH73" s="25"/>
-      <c r="CI73" s="25"/>
-      <c r="CJ73" s="25"/>
-      <c r="CK73" s="25"/>
+      <c r="CH73" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="CI73" s="32"/>
+      <c r="CJ73" s="32"/>
+      <c r="CK73" s="32"/>
+      <c r="CL73" s="32"/>
     </row>
-    <row r="74" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
+      <c r="CI74" s="28"/>
+      <c r="CJ74" s="28"/>
+      <c r="CK74" s="28"/>
+      <c r="CL74" s="28"/>
     </row>
-    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32160,35 +32289,37 @@
       <c r="BY75" s="15">
         <v>5.4728305926960275</v>
       </c>
-      <c r="BZ75" s="15">
+      <c r="BZ75" s="24">
         <v>5.4380326510410839</v>
       </c>
-      <c r="CA75" s="15">
+      <c r="CA75" s="24">
         <v>-9.2809531518518185</v>
       </c>
-      <c r="CB75" s="15">
+      <c r="CB75" s="24">
         <v>-0.20328217383936931</v>
       </c>
-      <c r="CC75" s="15">
-        <v>0.20558954314580546</v>
-      </c>
-      <c r="CD75" s="26">
-        <v>0.97988234612608949</v>
-      </c>
-      <c r="CE75" s="26">
+      <c r="CC75" s="24">
+        <v>0.45691195816905861</v>
+      </c>
+      <c r="CD75" s="24">
+        <v>0.97988234612607528</v>
+      </c>
+      <c r="CE75" s="24">
         <v>11.397831486091036</v>
       </c>
-      <c r="CF75" s="26">
+      <c r="CF75" s="24">
         <v>3.7530062433439184</v>
       </c>
-      <c r="CG75" s="26">
-        <v>4.3560337701286329</v>
-      </c>
-      <c r="CH75" s="23"/>
-      <c r="CI75" s="23"/>
-      <c r="CJ75" s="23"/>
-      <c r="CK75" s="23"/>
-      <c r="CL75" s="9"/>
+      <c r="CG75" s="24">
+        <v>4.4310866858634483</v>
+      </c>
+      <c r="CH75" s="24">
+        <v>6.774345434684065</v>
+      </c>
+      <c r="CI75" s="30"/>
+      <c r="CJ75" s="30"/>
+      <c r="CK75" s="30"/>
+      <c r="CL75" s="30"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
@@ -32248,7 +32379,7 @@
       <c r="EQ75" s="9"/>
       <c r="ER75" s="9"/>
     </row>
-    <row r="76" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -32480,35 +32611,37 @@
       <c r="BY76" s="15">
         <v>2.497704060683219</v>
       </c>
-      <c r="BZ76" s="15">
+      <c r="BZ76" s="24">
         <v>5.5677471908866778</v>
       </c>
-      <c r="CA76" s="15">
+      <c r="CA76" s="24">
         <v>4.4837296535699096</v>
       </c>
-      <c r="CB76" s="15">
+      <c r="CB76" s="24">
         <v>2.8328619663759298</v>
       </c>
-      <c r="CC76" s="15">
+      <c r="CC76" s="24">
         <v>-1.2108867547884898</v>
       </c>
-      <c r="CD76" s="26">
+      <c r="CD76" s="24">
         <v>2.9972962036546704</v>
       </c>
-      <c r="CE76" s="26">
+      <c r="CE76" s="24">
         <v>-6.9641674278682757</v>
       </c>
-      <c r="CF76" s="26">
+      <c r="CF76" s="24">
         <v>-7.8884879629577256</v>
       </c>
-      <c r="CG76" s="26">
-        <v>5.6801132899339422</v>
-      </c>
-      <c r="CH76" s="23"/>
-      <c r="CI76" s="23"/>
-      <c r="CJ76" s="23"/>
-      <c r="CK76" s="23"/>
-      <c r="CL76" s="9"/>
+      <c r="CG76" s="24">
+        <v>5.7609222605052821</v>
+      </c>
+      <c r="CH76" s="24">
+        <v>-9.5990984312631156</v>
+      </c>
+      <c r="CI76" s="30"/>
+      <c r="CJ76" s="30"/>
+      <c r="CK76" s="30"/>
+      <c r="CL76" s="30"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
@@ -32568,7 +32701,7 @@
       <c r="EQ76" s="9"/>
       <c r="ER76" s="9"/>
     </row>
-    <row r="77" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -32800,35 +32933,37 @@
       <c r="BY77" s="15">
         <v>5.3692032988934386</v>
       </c>
-      <c r="BZ77" s="15">
+      <c r="BZ77" s="24">
         <v>3.5546211365261371</v>
       </c>
-      <c r="CA77" s="15">
+      <c r="CA77" s="24">
         <v>7.9497695482169064</v>
       </c>
-      <c r="CB77" s="15">
+      <c r="CB77" s="24">
         <v>1.9065140314894649</v>
       </c>
-      <c r="CC77" s="15">
-        <v>2.1711063331720766</v>
-      </c>
-      <c r="CD77" s="26">
+      <c r="CC77" s="24">
+        <v>1.618394563246369</v>
+      </c>
+      <c r="CD77" s="24">
         <v>1.0813694563528884</v>
       </c>
-      <c r="CE77" s="26">
+      <c r="CE77" s="24">
         <v>2.2413453430653476</v>
       </c>
-      <c r="CF77" s="26">
+      <c r="CF77" s="24">
         <v>-0.69037129183278978</v>
       </c>
-      <c r="CG77" s="26">
-        <v>3.944615141100698</v>
-      </c>
-      <c r="CH77" s="23"/>
-      <c r="CI77" s="23"/>
-      <c r="CJ77" s="23"/>
-      <c r="CK77" s="23"/>
-      <c r="CL77" s="9"/>
+      <c r="CG77" s="24">
+        <v>3.1485389128395269</v>
+      </c>
+      <c r="CH77" s="24">
+        <v>3.1820524766685025</v>
+      </c>
+      <c r="CI77" s="30"/>
+      <c r="CJ77" s="30"/>
+      <c r="CK77" s="30"/>
+      <c r="CL77" s="30"/>
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
@@ -32888,7 +33023,7 @@
       <c r="EQ77" s="9"/>
       <c r="ER77" s="9"/>
     </row>
-    <row r="78" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33120,35 +33255,37 @@
       <c r="BY78" s="15">
         <v>4.2590396744147654</v>
       </c>
-      <c r="BZ78" s="15">
+      <c r="BZ78" s="24">
         <v>-10.885070944930817</v>
       </c>
-      <c r="CA78" s="15">
+      <c r="CA78" s="24">
         <v>6.8994984491236266</v>
       </c>
-      <c r="CB78" s="15">
+      <c r="CB78" s="24">
         <v>4.55384461465556</v>
       </c>
-      <c r="CC78" s="15">
-        <v>8.9611975004513909</v>
-      </c>
-      <c r="CD78" s="26">
+      <c r="CC78" s="24">
+        <v>7.138063353438497</v>
+      </c>
+      <c r="CD78" s="24">
         <v>7.1384601652940063</v>
       </c>
-      <c r="CE78" s="26">
+      <c r="CE78" s="24">
         <v>9.1434572267135081</v>
       </c>
-      <c r="CF78" s="26">
+      <c r="CF78" s="24">
         <v>7.3994626179709257</v>
       </c>
-      <c r="CG78" s="26">
-        <v>10.748233011504425</v>
-      </c>
-      <c r="CH78" s="23"/>
-      <c r="CI78" s="23"/>
-      <c r="CJ78" s="23"/>
-      <c r="CK78" s="23"/>
-      <c r="CL78" s="9"/>
+      <c r="CG78" s="24">
+        <v>10.986051120908826</v>
+      </c>
+      <c r="CH78" s="24">
+        <v>7.4164308569926192</v>
+      </c>
+      <c r="CI78" s="30"/>
+      <c r="CJ78" s="30"/>
+      <c r="CK78" s="30"/>
+      <c r="CL78" s="30"/>
       <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
       <c r="CO78" s="9"/>
@@ -33208,7 +33345,7 @@
       <c r="EQ78" s="9"/>
       <c r="ER78" s="9"/>
     </row>
-    <row r="79" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33285,19 +33422,19 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="9"/>
-      <c r="CA79" s="9"/>
-      <c r="CB79" s="9"/>
-      <c r="CC79" s="9"/>
+      <c r="BZ79" s="23"/>
+      <c r="CA79" s="23"/>
+      <c r="CB79" s="23"/>
+      <c r="CC79" s="23"/>
       <c r="CD79" s="23"/>
       <c r="CE79" s="23"/>
       <c r="CF79" s="23"/>
       <c r="CG79" s="23"/>
       <c r="CH79" s="23"/>
-      <c r="CI79" s="23"/>
-      <c r="CJ79" s="23"/>
-      <c r="CK79" s="23"/>
-      <c r="CL79" s="9"/>
+      <c r="CI79" s="30"/>
+      <c r="CJ79" s="30"/>
+      <c r="CK79" s="30"/>
+      <c r="CL79" s="30"/>
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
@@ -33357,7 +33494,7 @@
       <c r="EQ79" s="9"/>
       <c r="ER79" s="9"/>
     </row>
-    <row r="80" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>15</v>
       </c>
@@ -33589,35 +33726,37 @@
       <c r="BY80" s="15">
         <v>5.3793239533707293</v>
       </c>
-      <c r="BZ80" s="15">
+      <c r="BZ80" s="24">
         <v>4.8922119022859079</v>
       </c>
-      <c r="CA80" s="15">
+      <c r="CA80" s="24">
         <v>-6.3857091854579409</v>
       </c>
-      <c r="CB80" s="15">
+      <c r="CB80" s="24">
         <v>0.16939132532809253</v>
       </c>
-      <c r="CC80" s="15">
-        <v>0.61413633703431003</v>
-      </c>
-      <c r="CD80" s="26">
+      <c r="CC80" s="24">
+        <v>0.70103187324967564</v>
+      </c>
+      <c r="CD80" s="24">
         <v>1.1169839369117511</v>
       </c>
-      <c r="CE80" s="26">
+      <c r="CE80" s="24">
         <v>9.4678521577443036</v>
       </c>
-      <c r="CF80" s="26">
+      <c r="CF80" s="24">
         <v>3.0285750355580205</v>
       </c>
-      <c r="CG80" s="26">
-        <v>4.4008867387039174</v>
-      </c>
-      <c r="CH80" s="23"/>
-      <c r="CI80" s="23"/>
-      <c r="CJ80" s="23"/>
-      <c r="CK80" s="23"/>
-      <c r="CL80" s="9"/>
+      <c r="CG80" s="24">
+        <v>4.3316862832223393</v>
+      </c>
+      <c r="CH80" s="24">
+        <v>5.777713311815404</v>
+      </c>
+      <c r="CI80" s="30"/>
+      <c r="CJ80" s="30"/>
+      <c r="CK80" s="30"/>
+      <c r="CL80" s="30"/>
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
@@ -33677,7 +33816,7 @@
       <c r="EQ80" s="9"/>
       <c r="ER80" s="9"/>
     </row>
-    <row r="81" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -33755,25 +33894,30 @@
       <c r="BW81" s="13"/>
       <c r="BX81" s="13"/>
       <c r="BY81" s="13"/>
-      <c r="BZ81" s="13"/>
-      <c r="CA81" s="13"/>
-      <c r="CB81" s="13"/>
-      <c r="CC81" s="13"/>
+      <c r="BZ81" s="22"/>
+      <c r="CA81" s="22"/>
+      <c r="CB81" s="22"/>
+      <c r="CC81" s="22"/>
       <c r="CD81" s="22"/>
       <c r="CE81" s="22"/>
       <c r="CF81" s="22"/>
       <c r="CG81" s="22"/>
       <c r="CH81" s="22"/>
-      <c r="CI81" s="22"/>
-      <c r="CJ81" s="22"/>
-      <c r="CK81" s="22"/>
+      <c r="CI81" s="34"/>
+      <c r="CJ81" s="34"/>
+      <c r="CK81" s="34"/>
+      <c r="CL81" s="34"/>
     </row>
-    <row r="82" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CI82" s="28"/>
+      <c r="CJ82" s="28"/>
+      <c r="CK82" s="28"/>
+      <c r="CL82" s="28"/>
     </row>
-    <row r="83" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -33850,19 +33994,19 @@
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
       <c r="BY83" s="9"/>
-      <c r="BZ83" s="9"/>
-      <c r="CA83" s="9"/>
-      <c r="CB83" s="9"/>
-      <c r="CC83" s="9"/>
+      <c r="BZ83" s="23"/>
+      <c r="CA83" s="23"/>
+      <c r="CB83" s="23"/>
+      <c r="CC83" s="23"/>
       <c r="CD83" s="23"/>
       <c r="CE83" s="23"/>
       <c r="CF83" s="23"/>
       <c r="CG83" s="23"/>
       <c r="CH83" s="23"/>
-      <c r="CI83" s="23"/>
-      <c r="CJ83" s="23"/>
-      <c r="CK83" s="23"/>
-      <c r="CL83" s="9"/>
+      <c r="CI83" s="30"/>
+      <c r="CJ83" s="30"/>
+      <c r="CK83" s="30"/>
+      <c r="CL83" s="30"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
@@ -33922,7 +34066,7 @@
       <c r="EQ83" s="9"/>
       <c r="ER83" s="9"/>
     </row>
-    <row r="84" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -33999,19 +34143,19 @@
       <c r="BW84" s="16"/>
       <c r="BX84" s="16"/>
       <c r="BY84" s="16"/>
-      <c r="BZ84" s="16"/>
-      <c r="CA84" s="9"/>
-      <c r="CB84" s="9"/>
-      <c r="CC84" s="9"/>
+      <c r="BZ84" s="26"/>
+      <c r="CA84" s="23"/>
+      <c r="CB84" s="23"/>
+      <c r="CC84" s="23"/>
       <c r="CD84" s="23"/>
       <c r="CE84" s="23"/>
       <c r="CF84" s="23"/>
       <c r="CG84" s="23"/>
       <c r="CH84" s="23"/>
-      <c r="CI84" s="23"/>
-      <c r="CJ84" s="23"/>
-      <c r="CK84" s="23"/>
-      <c r="CL84" s="9"/>
+      <c r="CI84" s="30"/>
+      <c r="CJ84" s="30"/>
+      <c r="CK84" s="30"/>
+      <c r="CL84" s="30"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
@@ -34071,167 +34215,188 @@
       <c r="EQ84" s="9"/>
       <c r="ER84" s="9"/>
     </row>
-    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CI85" s="28"/>
+      <c r="CJ85" s="28"/>
+      <c r="CK85" s="28"/>
+      <c r="CL85" s="28"/>
     </row>
-    <row r="86" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>49</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="CI86" s="28"/>
+      <c r="CJ86" s="28"/>
+      <c r="CK86" s="28"/>
+      <c r="CL86" s="28"/>
     </row>
-    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:152" x14ac:dyDescent="0.2">
+      <c r="CI87" s="28"/>
+      <c r="CJ87" s="28"/>
+      <c r="CK87" s="28"/>
+      <c r="CL87" s="28"/>
+    </row>
+    <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="CI88" s="28"/>
+      <c r="CJ88" s="28"/>
+      <c r="CK88" s="28"/>
+      <c r="CL88" s="28"/>
     </row>
-    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="30">
+      <c r="B92" s="35">
         <v>2000</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="30">
+      <c r="C92" s="36"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="35">
         <v>2001</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30">
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="35">
         <v>2002</v>
       </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="30">
+      <c r="K92" s="36"/>
+      <c r="L92" s="36"/>
+      <c r="M92" s="36"/>
+      <c r="N92" s="35">
         <v>2003</v>
       </c>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="30">
+      <c r="O92" s="36"/>
+      <c r="P92" s="36"/>
+      <c r="Q92" s="36"/>
+      <c r="R92" s="35">
         <v>2004</v>
       </c>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-      <c r="V92" s="30">
+      <c r="S92" s="36"/>
+      <c r="T92" s="36"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="35">
         <v>2005</v>
       </c>
-      <c r="W92" s="31"/>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="31"/>
-      <c r="Z92" s="30">
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="35">
         <v>2006</v>
       </c>
-      <c r="AA92" s="31"/>
-      <c r="AB92" s="31"/>
-      <c r="AC92" s="31"/>
-      <c r="AD92" s="30">
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
+      <c r="AC92" s="36"/>
+      <c r="AD92" s="35">
         <v>2007</v>
       </c>
-      <c r="AE92" s="31"/>
-      <c r="AF92" s="31"/>
-      <c r="AG92" s="31"/>
-      <c r="AH92" s="30">
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="35">
         <v>2008</v>
       </c>
-      <c r="AI92" s="31"/>
-      <c r="AJ92" s="31"/>
-      <c r="AK92" s="31"/>
-      <c r="AL92" s="30">
+      <c r="AI92" s="36"/>
+      <c r="AJ92" s="36"/>
+      <c r="AK92" s="36"/>
+      <c r="AL92" s="35">
         <v>2009</v>
       </c>
-      <c r="AM92" s="31"/>
-      <c r="AN92" s="31"/>
-      <c r="AO92" s="31"/>
-      <c r="AP92" s="30">
+      <c r="AM92" s="36"/>
+      <c r="AN92" s="36"/>
+      <c r="AO92" s="36"/>
+      <c r="AP92" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="31"/>
-      <c r="AR92" s="31"/>
-      <c r="AS92" s="31"/>
-      <c r="AT92" s="30">
+      <c r="AQ92" s="36"/>
+      <c r="AR92" s="36"/>
+      <c r="AS92" s="36"/>
+      <c r="AT92" s="35">
         <v>2011</v>
       </c>
-      <c r="AU92" s="31"/>
-      <c r="AV92" s="31"/>
-      <c r="AW92" s="31"/>
-      <c r="AX92" s="30">
+      <c r="AU92" s="36"/>
+      <c r="AV92" s="36"/>
+      <c r="AW92" s="36"/>
+      <c r="AX92" s="35">
         <v>2012</v>
       </c>
-      <c r="AY92" s="31"/>
-      <c r="AZ92" s="31"/>
-      <c r="BA92" s="31"/>
-      <c r="BB92" s="30">
+      <c r="AY92" s="36"/>
+      <c r="AZ92" s="36"/>
+      <c r="BA92" s="36"/>
+      <c r="BB92" s="35">
         <v>2013</v>
       </c>
-      <c r="BC92" s="31"/>
-      <c r="BD92" s="31"/>
-      <c r="BE92" s="31"/>
-      <c r="BF92" s="30">
+      <c r="BC92" s="36"/>
+      <c r="BD92" s="36"/>
+      <c r="BE92" s="36"/>
+      <c r="BF92" s="35">
         <v>2014</v>
       </c>
-      <c r="BG92" s="31"/>
-      <c r="BH92" s="31"/>
-      <c r="BI92" s="31"/>
-      <c r="BJ92" s="30">
+      <c r="BG92" s="36"/>
+      <c r="BH92" s="36"/>
+      <c r="BI92" s="36"/>
+      <c r="BJ92" s="35">
         <v>2015</v>
       </c>
-      <c r="BK92" s="31"/>
-      <c r="BL92" s="31"/>
-      <c r="BM92" s="31"/>
-      <c r="BN92" s="30">
+      <c r="BK92" s="36"/>
+      <c r="BL92" s="36"/>
+      <c r="BM92" s="36"/>
+      <c r="BN92" s="35">
         <v>2016</v>
       </c>
-      <c r="BO92" s="31"/>
-      <c r="BP92" s="31"/>
-      <c r="BQ92" s="31"/>
-      <c r="BR92" s="30">
+      <c r="BO92" s="36"/>
+      <c r="BP92" s="36"/>
+      <c r="BQ92" s="36"/>
+      <c r="BR92" s="35">
         <v>2017</v>
       </c>
-      <c r="BS92" s="31"/>
-      <c r="BT92" s="31"/>
-      <c r="BU92" s="31"/>
-      <c r="BV92" s="30">
+      <c r="BS92" s="36"/>
+      <c r="BT92" s="36"/>
+      <c r="BU92" s="36"/>
+      <c r="BV92" s="35">
         <v>2018</v>
       </c>
-      <c r="BW92" s="31"/>
-      <c r="BX92" s="31"/>
-      <c r="BY92" s="31"/>
-      <c r="BZ92" s="30">
+      <c r="BW92" s="36"/>
+      <c r="BX92" s="36"/>
+      <c r="BY92" s="36"/>
+      <c r="BZ92" s="38">
         <v>2019</v>
       </c>
-      <c r="CA92" s="31"/>
-      <c r="CB92" s="31"/>
-      <c r="CC92" s="31"/>
-      <c r="CD92" s="29">
+      <c r="CA92" s="39"/>
+      <c r="CB92" s="39"/>
+      <c r="CC92" s="39"/>
+      <c r="CD92" s="38">
         <v>2020</v>
       </c>
-      <c r="CE92" s="29"/>
-      <c r="CF92" s="29"/>
-      <c r="CG92" s="29"/>
-      <c r="CH92" s="29">
+      <c r="CE92" s="38"/>
+      <c r="CF92" s="38"/>
+      <c r="CG92" s="38"/>
+      <c r="CH92" s="38">
         <v>2021</v>
       </c>
-      <c r="CI92" s="29"/>
-      <c r="CJ92" s="29"/>
-      <c r="CK92" s="29"/>
+      <c r="CI92" s="38"/>
+      <c r="CJ92" s="38"/>
+      <c r="CK92" s="38"/>
+      <c r="CL92" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="93" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34463,16 +34628,16 @@
       <c r="BY93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ93" s="6" t="s">
+      <c r="BZ93" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA93" s="6" t="s">
+      <c r="CA93" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB93" s="6" t="s">
+      <c r="CB93" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC93" s="6" t="s">
+      <c r="CC93" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD93" s="18" t="s">
@@ -34499,11 +34664,14 @@
       <c r="CK93" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL93" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="94" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -34735,43 +34903,45 @@
       <c r="BY95" s="15">
         <v>97.658563976494861</v>
       </c>
-      <c r="BZ95" s="15">
+      <c r="BZ95" s="24">
         <v>117.41668120337381</v>
       </c>
-      <c r="CA95" s="15">
+      <c r="CA95" s="24">
         <v>125.79811523070387</v>
       </c>
-      <c r="CB95" s="15">
+      <c r="CB95" s="24">
         <v>75.83797568074327</v>
       </c>
-      <c r="CC95" s="15">
+      <c r="CC95" s="24">
         <v>97.12369029135121</v>
       </c>
-      <c r="CD95" s="26">
+      <c r="CD95" s="24">
         <v>116.23128961149492</v>
       </c>
-      <c r="CE95" s="26">
+      <c r="CE95" s="24">
         <v>132.28149075495628</v>
       </c>
-      <c r="CF95" s="26">
+      <c r="CF95" s="24">
         <v>76.567065106535054</v>
       </c>
-      <c r="CG95" s="26">
-        <v>94.86897250458567</v>
-      </c>
-      <c r="CH95" s="26">
+      <c r="CG95" s="24">
+        <v>94.868972504585685</v>
+      </c>
+      <c r="CH95" s="24">
         <v>114.48187399118133</v>
       </c>
-      <c r="CI95" s="26">
+      <c r="CI95" s="24">
         <v>135.521186538531</v>
       </c>
-      <c r="CJ95" s="26">
+      <c r="CJ95" s="24">
         <v>79.455869215836628</v>
       </c>
-      <c r="CK95" s="26">
-        <v>97.443082391832533</v>
-      </c>
-      <c r="CL95" s="9"/>
+      <c r="CK95" s="24">
+        <v>97.443084253867056</v>
+      </c>
+      <c r="CL95" s="24">
+        <v>129.18978335336811</v>
+      </c>
       <c r="CM95" s="9"/>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
@@ -34835,7 +35005,7 @@
       <c r="EU95" s="9"/>
       <c r="EV95" s="9"/>
     </row>
-    <row r="96" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -35067,43 +35237,45 @@
       <c r="BY96" s="15">
         <v>104.45788107433704</v>
       </c>
-      <c r="BZ96" s="15">
+      <c r="BZ96" s="24">
         <v>105.16972818102808</v>
       </c>
-      <c r="CA96" s="15">
+      <c r="CA96" s="24">
         <v>104.48270983750771</v>
       </c>
-      <c r="CB96" s="15">
+      <c r="CB96" s="24">
         <v>97.793049883545066</v>
       </c>
-      <c r="CC96" s="15">
+      <c r="CC96" s="24">
         <v>102.1979079182332</v>
       </c>
-      <c r="CD96" s="26">
+      <c r="CD96" s="24">
         <v>105.77932106921133</v>
       </c>
-      <c r="CE96" s="26">
+      <c r="CE96" s="24">
         <v>106.91998746912591</v>
       </c>
-      <c r="CF96" s="26">
+      <c r="CF96" s="24">
         <v>100.0858292083373</v>
       </c>
-      <c r="CG96" s="26">
+      <c r="CG96" s="24">
         <v>104.11821481142425</v>
       </c>
-      <c r="CH96" s="26">
+      <c r="CH96" s="24">
         <v>104.10800779631782</v>
       </c>
-      <c r="CI96" s="26">
+      <c r="CI96" s="24">
         <v>108.52500904578446</v>
       </c>
-      <c r="CJ96" s="26">
+      <c r="CJ96" s="24">
         <v>101.58711664646233</v>
       </c>
-      <c r="CK96" s="26">
+      <c r="CK96" s="24">
         <v>105.88401340202043</v>
       </c>
-      <c r="CL96" s="9"/>
+      <c r="CL96" s="24">
+        <v>109.55901364959652</v>
+      </c>
       <c r="CM96" s="9"/>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
@@ -35167,7 +35339,7 @@
       <c r="EU96" s="9"/>
       <c r="EV96" s="9"/>
     </row>
-    <row r="97" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35399,43 +35571,45 @@
       <c r="BY97" s="15">
         <v>102.06179233552642</v>
       </c>
-      <c r="BZ97" s="15">
+      <c r="BZ97" s="24">
         <v>102.77541307673275</v>
       </c>
-      <c r="CA97" s="15">
+      <c r="CA97" s="24">
         <v>110.5686722663331</v>
       </c>
-      <c r="CB97" s="15">
+      <c r="CB97" s="24">
         <v>96.272617804243993</v>
       </c>
-      <c r="CC97" s="15">
+      <c r="CC97" s="24">
         <v>104.1521534269916</v>
       </c>
-      <c r="CD97" s="26">
+      <c r="CD97" s="24">
         <v>104.38010840234777</v>
       </c>
-      <c r="CE97" s="26">
+      <c r="CE97" s="24">
         <v>113.16049325112172</v>
       </c>
-      <c r="CF97" s="26">
+      <c r="CF97" s="24">
         <v>98.293875141085223</v>
       </c>
-      <c r="CG97" s="26">
+      <c r="CG97" s="24">
         <v>105.68220422197763</v>
       </c>
-      <c r="CH97" s="26">
+      <c r="CH97" s="24">
         <v>104.88113292267904</v>
       </c>
-      <c r="CI97" s="26">
+      <c r="CI97" s="24">
         <v>114.77007789111752</v>
       </c>
-      <c r="CJ97" s="26">
+      <c r="CJ97" s="24">
         <v>99.46357225526414</v>
       </c>
-      <c r="CK97" s="26">
-        <v>105.73101895982245</v>
-      </c>
-      <c r="CL97" s="9"/>
+      <c r="CK97" s="24">
+        <v>105.73101596312007</v>
+      </c>
+      <c r="CL97" s="24">
+        <v>105.96078951648333</v>
+      </c>
       <c r="CM97" s="9"/>
       <c r="CN97" s="9"/>
       <c r="CO97" s="9"/>
@@ -35499,7 +35673,7 @@
       <c r="EU97" s="9"/>
       <c r="EV97" s="9"/>
     </row>
-    <row r="98" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -35731,43 +35905,45 @@
       <c r="BY98" s="15">
         <v>102.3301875268598</v>
       </c>
-      <c r="BZ98" s="15">
+      <c r="BZ98" s="24">
         <v>101.84129975631029</v>
       </c>
-      <c r="CA98" s="15">
+      <c r="CA98" s="24">
         <v>101.87624432087918</v>
       </c>
-      <c r="CB98" s="15">
+      <c r="CB98" s="24">
         <v>103.30250390431266</v>
       </c>
-      <c r="CC98" s="15">
+      <c r="CC98" s="24">
         <v>103.47516276242517</v>
       </c>
-      <c r="CD98" s="26">
+      <c r="CD98" s="24">
         <v>108.11519270943492</v>
       </c>
-      <c r="CE98" s="26">
+      <c r="CE98" s="24">
         <v>110.17612386976508</v>
       </c>
-      <c r="CF98" s="26">
+      <c r="CF98" s="24">
         <v>109.42439273709743</v>
       </c>
-      <c r="CG98" s="26">
-        <v>109.48395204919746</v>
-      </c>
-      <c r="CH98" s="26">
+      <c r="CG98" s="24">
+        <v>109.48395204919743</v>
+      </c>
+      <c r="CH98" s="24">
         <v>109.44500957976091</v>
       </c>
-      <c r="CI98" s="26">
+      <c r="CI98" s="24">
         <v>111.65389177173203</v>
       </c>
-      <c r="CJ98" s="26">
+      <c r="CJ98" s="24">
         <v>110.66088837502663</v>
       </c>
-      <c r="CK98" s="26">
-        <v>110.86700491751174</v>
-      </c>
-      <c r="CL98" s="9"/>
+      <c r="CK98" s="24">
+        <v>110.86916946607566</v>
+      </c>
+      <c r="CL98" s="24">
+        <v>111.00454898162582</v>
+      </c>
       <c r="CM98" s="9"/>
       <c r="CN98" s="9"/>
       <c r="CO98" s="9"/>
@@ -35831,7 +36007,7 @@
       <c r="EU98" s="9"/>
       <c r="EV98" s="9"/>
     </row>
-    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -35908,19 +36084,19 @@
       <c r="BW99" s="15"/>
       <c r="BX99" s="15"/>
       <c r="BY99" s="15"/>
-      <c r="BZ99" s="15"/>
-      <c r="CA99" s="15"/>
-      <c r="CB99" s="15"/>
-      <c r="CC99" s="15"/>
-      <c r="CD99" s="26"/>
-      <c r="CE99" s="26"/>
-      <c r="CF99" s="26"/>
-      <c r="CG99" s="26"/>
-      <c r="CH99" s="26"/>
-      <c r="CI99" s="26"/>
-      <c r="CJ99" s="26"/>
-      <c r="CK99" s="26"/>
-      <c r="CL99" s="9"/>
+      <c r="BZ99" s="24"/>
+      <c r="CA99" s="24"/>
+      <c r="CB99" s="24"/>
+      <c r="CC99" s="24"/>
+      <c r="CD99" s="24"/>
+      <c r="CE99" s="24"/>
+      <c r="CF99" s="24"/>
+      <c r="CG99" s="24"/>
+      <c r="CH99" s="24"/>
+      <c r="CI99" s="24"/>
+      <c r="CJ99" s="24"/>
+      <c r="CK99" s="24"/>
+      <c r="CL99" s="24"/>
       <c r="CM99" s="9"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
@@ -35984,7 +36160,7 @@
       <c r="EU99" s="9"/>
       <c r="EV99" s="9"/>
     </row>
-    <row r="100" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>15</v>
       </c>
@@ -36216,43 +36392,45 @@
       <c r="BY100" s="15">
         <v>98.586040894442391</v>
       </c>
-      <c r="BZ100" s="15">
+      <c r="BZ100" s="24">
         <v>114.3958258706846</v>
       </c>
-      <c r="CA100" s="15">
+      <c r="CA100" s="24">
         <v>122.96563274308197</v>
       </c>
-      <c r="CB100" s="15">
+      <c r="CB100" s="24">
         <v>79.135144887293393</v>
       </c>
-      <c r="CC100" s="15">
+      <c r="CC100" s="24">
         <v>98.468116476354552</v>
       </c>
-      <c r="CD100" s="26">
+      <c r="CD100" s="24">
         <v>113.87654778681036</v>
       </c>
-      <c r="CE100" s="26">
+      <c r="CE100" s="24">
         <v>128.32554593445334</v>
       </c>
-      <c r="CF100" s="26">
+      <c r="CF100" s="24">
         <v>80.189548672964932</v>
       </c>
-      <c r="CG100" s="26">
-        <v>97.067476515626595</v>
-      </c>
-      <c r="CH100" s="26">
+      <c r="CG100" s="24">
+        <v>97.052391057054777</v>
+      </c>
+      <c r="CH100" s="24">
         <v>112.53963972841639</v>
       </c>
-      <c r="CI100" s="26">
+      <c r="CI100" s="24">
         <v>131.55420804036396</v>
       </c>
-      <c r="CJ100" s="26">
+      <c r="CJ100" s="24">
         <v>82.693483654571381</v>
       </c>
-      <c r="CK100" s="26">
-        <v>99.192339706208216</v>
-      </c>
-      <c r="CL100" s="9"/>
+      <c r="CK100" s="24">
+        <v>99.171222988913442</v>
+      </c>
+      <c r="CL100" s="24">
+        <v>124.71009462534985</v>
+      </c>
       <c r="CM100" s="9"/>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
@@ -36316,7 +36494,7 @@
       <c r="EU100" s="9"/>
       <c r="EV100" s="9"/>
     </row>
-    <row r="101" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -36394,10 +36572,10 @@
       <c r="BW101" s="13"/>
       <c r="BX101" s="13"/>
       <c r="BY101" s="13"/>
-      <c r="BZ101" s="13"/>
-      <c r="CA101" s="13"/>
-      <c r="CB101" s="13"/>
-      <c r="CC101" s="13"/>
+      <c r="BZ101" s="22"/>
+      <c r="CA101" s="22"/>
+      <c r="CB101" s="22"/>
+      <c r="CC101" s="22"/>
       <c r="CD101" s="22"/>
       <c r="CE101" s="22"/>
       <c r="CF101" s="22"/>
@@ -36406,178 +36584,182 @@
       <c r="CI101" s="22"/>
       <c r="CJ101" s="22"/>
       <c r="CK101" s="22"/>
+      <c r="CL101" s="22"/>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="30">
+      <c r="B113" s="35">
         <v>2000</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="30">
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="35">
         <v>2001</v>
       </c>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="30">
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="35">
         <v>2002</v>
       </c>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="30">
+      <c r="K113" s="36"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="35">
         <v>2003</v>
       </c>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="30">
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="35">
         <v>2004</v>
       </c>
-      <c r="S113" s="31"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-      <c r="V113" s="30">
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="35">
         <v>2005</v>
       </c>
-      <c r="W113" s="31"/>
-      <c r="X113" s="31"/>
-      <c r="Y113" s="31"/>
-      <c r="Z113" s="30">
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="35">
         <v>2006</v>
       </c>
-      <c r="AA113" s="31"/>
-      <c r="AB113" s="31"/>
-      <c r="AC113" s="31"/>
-      <c r="AD113" s="30">
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="35">
         <v>2007</v>
       </c>
-      <c r="AE113" s="31"/>
-      <c r="AF113" s="31"/>
-      <c r="AG113" s="31"/>
-      <c r="AH113" s="30">
+      <c r="AE113" s="36"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="36"/>
+      <c r="AH113" s="35">
         <v>2008</v>
       </c>
-      <c r="AI113" s="31"/>
-      <c r="AJ113" s="31"/>
-      <c r="AK113" s="31"/>
-      <c r="AL113" s="30">
+      <c r="AI113" s="36"/>
+      <c r="AJ113" s="36"/>
+      <c r="AK113" s="36"/>
+      <c r="AL113" s="35">
         <v>2009</v>
       </c>
-      <c r="AM113" s="31"/>
-      <c r="AN113" s="31"/>
-      <c r="AO113" s="31"/>
-      <c r="AP113" s="30">
+      <c r="AM113" s="36"/>
+      <c r="AN113" s="36"/>
+      <c r="AO113" s="36"/>
+      <c r="AP113" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="31"/>
-      <c r="AR113" s="31"/>
-      <c r="AS113" s="31"/>
-      <c r="AT113" s="30">
+      <c r="AQ113" s="36"/>
+      <c r="AR113" s="36"/>
+      <c r="AS113" s="36"/>
+      <c r="AT113" s="35">
         <v>2011</v>
       </c>
-      <c r="AU113" s="31"/>
-      <c r="AV113" s="31"/>
-      <c r="AW113" s="31"/>
-      <c r="AX113" s="30">
+      <c r="AU113" s="36"/>
+      <c r="AV113" s="36"/>
+      <c r="AW113" s="36"/>
+      <c r="AX113" s="35">
         <v>2012</v>
       </c>
-      <c r="AY113" s="31"/>
-      <c r="AZ113" s="31"/>
-      <c r="BA113" s="31"/>
-      <c r="BB113" s="30">
+      <c r="AY113" s="36"/>
+      <c r="AZ113" s="36"/>
+      <c r="BA113" s="36"/>
+      <c r="BB113" s="35">
         <v>2013</v>
       </c>
-      <c r="BC113" s="31"/>
-      <c r="BD113" s="31"/>
-      <c r="BE113" s="31"/>
-      <c r="BF113" s="30">
+      <c r="BC113" s="36"/>
+      <c r="BD113" s="36"/>
+      <c r="BE113" s="36"/>
+      <c r="BF113" s="35">
         <v>2014</v>
       </c>
-      <c r="BG113" s="31"/>
-      <c r="BH113" s="31"/>
-      <c r="BI113" s="31"/>
-      <c r="BJ113" s="30">
+      <c r="BG113" s="36"/>
+      <c r="BH113" s="36"/>
+      <c r="BI113" s="36"/>
+      <c r="BJ113" s="35">
         <v>2015</v>
       </c>
-      <c r="BK113" s="31"/>
-      <c r="BL113" s="31"/>
-      <c r="BM113" s="31"/>
-      <c r="BN113" s="30">
+      <c r="BK113" s="36"/>
+      <c r="BL113" s="36"/>
+      <c r="BM113" s="36"/>
+      <c r="BN113" s="35">
         <v>2016</v>
       </c>
-      <c r="BO113" s="31"/>
-      <c r="BP113" s="31"/>
-      <c r="BQ113" s="31"/>
-      <c r="BR113" s="30">
+      <c r="BO113" s="36"/>
+      <c r="BP113" s="36"/>
+      <c r="BQ113" s="36"/>
+      <c r="BR113" s="35">
         <v>2017</v>
       </c>
-      <c r="BS113" s="31"/>
-      <c r="BT113" s="31"/>
-      <c r="BU113" s="31"/>
-      <c r="BV113" s="30">
+      <c r="BS113" s="36"/>
+      <c r="BT113" s="36"/>
+      <c r="BU113" s="36"/>
+      <c r="BV113" s="35">
         <v>2018</v>
       </c>
-      <c r="BW113" s="31"/>
-      <c r="BX113" s="31"/>
-      <c r="BY113" s="31"/>
-      <c r="BZ113" s="30">
+      <c r="BW113" s="36"/>
+      <c r="BX113" s="36"/>
+      <c r="BY113" s="36"/>
+      <c r="BZ113" s="38">
         <v>2019</v>
       </c>
-      <c r="CA113" s="31"/>
-      <c r="CB113" s="31"/>
-      <c r="CC113" s="31"/>
-      <c r="CD113" s="29">
+      <c r="CA113" s="39"/>
+      <c r="CB113" s="39"/>
+      <c r="CC113" s="39"/>
+      <c r="CD113" s="38">
         <v>2020</v>
       </c>
-      <c r="CE113" s="29"/>
-      <c r="CF113" s="29"/>
-      <c r="CG113" s="29"/>
-      <c r="CH113" s="29">
+      <c r="CE113" s="38"/>
+      <c r="CF113" s="38"/>
+      <c r="CG113" s="38"/>
+      <c r="CH113" s="38">
         <v>2021</v>
       </c>
-      <c r="CI113" s="29"/>
-      <c r="CJ113" s="29"/>
-      <c r="CK113" s="29"/>
+      <c r="CI113" s="38"/>
+      <c r="CJ113" s="38"/>
+      <c r="CK113" s="38"/>
+      <c r="CL113" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="114" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -36809,16 +36991,16 @@
       <c r="BY114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ114" s="6" t="s">
+      <c r="BZ114" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA114" s="6" t="s">
+      <c r="CA114" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB114" s="6" t="s">
+      <c r="CB114" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC114" s="6" t="s">
+      <c r="CC114" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD114" s="18" t="s">
@@ -36845,11 +37027,14 @@
       <c r="CK114" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL114" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="115" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37081,43 +37266,45 @@
       <c r="BY116" s="15">
         <v>79.372007591340804</v>
       </c>
-      <c r="BZ116" s="15">
+      <c r="BZ116" s="24">
         <v>81.158780136822756</v>
       </c>
-      <c r="CA116" s="15">
+      <c r="CA116" s="24">
         <v>84.655907252232694</v>
       </c>
-      <c r="CB116" s="15">
+      <c r="CB116" s="24">
         <v>80.835579119458572</v>
       </c>
-      <c r="CC116" s="15">
+      <c r="CC116" s="24">
         <v>79.101951058281344</v>
       </c>
-      <c r="CD116" s="26">
+      <c r="CD116" s="24">
         <v>81.1257456792721</v>
       </c>
-      <c r="CE116" s="26">
+      <c r="CE116" s="24">
         <v>82.662620716345501</v>
       </c>
-      <c r="CF116" s="26">
+      <c r="CF116" s="24">
         <v>80.239955384993578</v>
       </c>
-      <c r="CG116" s="26">
-        <v>78.062247742876067</v>
-      </c>
-      <c r="CH116" s="26">
+      <c r="CG116" s="24">
+        <v>78.202657457189048</v>
+      </c>
+      <c r="CH116" s="24">
         <v>80.744304988802014</v>
       </c>
-      <c r="CI116" s="26">
+      <c r="CI116" s="24">
         <v>84.065112912974058</v>
       </c>
-      <c r="CJ116" s="26">
+      <c r="CJ116" s="24">
         <v>81.313777733460142</v>
       </c>
-      <c r="CK116" s="26">
-        <v>78.429031319886349</v>
-      </c>
-      <c r="CL116" s="9"/>
+      <c r="CK116" s="24">
+        <v>78.68328386616308</v>
+      </c>
+      <c r="CL116" s="24">
+        <v>83.000363795705994</v>
+      </c>
       <c r="CM116" s="9"/>
       <c r="CN116" s="9"/>
       <c r="CO116" s="9"/>
@@ -37181,7 +37368,7 @@
       <c r="EU116" s="9"/>
       <c r="EV116" s="9"/>
     </row>
-    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -37413,43 +37600,45 @@
       <c r="BY117" s="15">
         <v>2.1631080563624816</v>
       </c>
-      <c r="BZ117" s="15">
+      <c r="BZ117" s="24">
         <v>2.1627039276479425</v>
       </c>
-      <c r="CA117" s="15">
+      <c r="CA117" s="24">
         <v>1.6267037763021179</v>
       </c>
-      <c r="CB117" s="15">
+      <c r="CB117" s="24">
         <v>1.7994930757290164</v>
       </c>
-      <c r="CC117" s="15">
+      <c r="CC117" s="24">
         <v>2.0609029130790812</v>
       </c>
-      <c r="CD117" s="26">
+      <c r="CD117" s="24">
         <v>2.199231706136572</v>
       </c>
-      <c r="CE117" s="26">
+      <c r="CE117" s="24">
         <v>1.7803282766779449</v>
       </c>
-      <c r="CF117" s="26">
+      <c r="CF117" s="24">
         <v>1.8657923220438064</v>
       </c>
-      <c r="CG117" s="26">
-        <v>2.0912897829028632</v>
-      </c>
-      <c r="CH117" s="26">
+      <c r="CG117" s="24">
+        <v>2.0898099778790509</v>
+      </c>
+      <c r="CH117" s="24">
         <v>2.2309243206015226</v>
       </c>
-      <c r="CI117" s="26">
+      <c r="CI117" s="24">
         <v>1.4981077434337227</v>
       </c>
-      <c r="CJ117" s="26">
+      <c r="CJ117" s="24">
         <v>1.6418445783985467</v>
       </c>
-      <c r="CK117" s="26">
-        <v>2.1066994632588383</v>
-      </c>
-      <c r="CL117" s="9"/>
+      <c r="CK117" s="24">
+        <v>2.1083371071300965</v>
+      </c>
+      <c r="CL117" s="24">
+        <v>1.8106366837338115</v>
+      </c>
       <c r="CM117" s="9"/>
       <c r="CN117" s="9"/>
       <c r="CO117" s="9"/>
@@ -37513,7 +37702,7 @@
       <c r="EU117" s="9"/>
       <c r="EV117" s="9"/>
     </row>
-    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -37745,43 +37934,45 @@
       <c r="BY118" s="15">
         <v>17.128848523484304</v>
       </c>
-      <c r="BZ118" s="15">
+      <c r="BZ118" s="24">
         <v>15.451651806167298</v>
       </c>
-      <c r="CA118" s="15">
+      <c r="CA118" s="24">
         <v>12.870470630399938</v>
       </c>
-      <c r="CB118" s="15">
+      <c r="CB118" s="24">
         <v>15.934856300994277</v>
       </c>
-      <c r="CC118" s="15">
+      <c r="CC118" s="24">
         <v>17.498922809861941</v>
       </c>
-      <c r="CD118" s="26">
+      <c r="CD118" s="24">
         <v>15.563438403502031</v>
       </c>
-      <c r="CE118" s="26">
+      <c r="CE118" s="24">
         <v>14.554837513863927</v>
       </c>
-      <c r="CF118" s="26">
+      <c r="CF118" s="24">
         <v>16.333917995944027</v>
       </c>
-      <c r="CG118" s="26">
-        <v>18.290935080352728</v>
-      </c>
-      <c r="CH118" s="26">
+      <c r="CG118" s="24">
+        <v>18.179114470201331</v>
+      </c>
+      <c r="CH118" s="24">
         <v>15.818341958745386</v>
       </c>
-      <c r="CI118" s="26">
+      <c r="CI118" s="24">
         <v>13.448985973417216</v>
       </c>
-      <c r="CJ118" s="26">
+      <c r="CJ118" s="24">
         <v>15.44927532601951</v>
       </c>
-      <c r="CK118" s="26">
-        <v>17.829118698038553</v>
-      </c>
-      <c r="CL118" s="9"/>
+      <c r="CK118" s="24">
+        <v>17.597083348913181</v>
+      </c>
+      <c r="CL118" s="24">
+        <v>14.067686306661681</v>
+      </c>
       <c r="CM118" s="9"/>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
@@ -37845,7 +38036,7 @@
       <c r="EU118" s="9"/>
       <c r="EV118" s="9"/>
     </row>
-    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38077,43 +38268,45 @@
       <c r="BY119" s="15">
         <v>1.3360358288123937</v>
       </c>
-      <c r="BZ119" s="15">
+      <c r="BZ119" s="24">
         <v>1.2268641293620113</v>
       </c>
-      <c r="CA119" s="15">
+      <c r="CA119" s="24">
         <v>0.84691834106524899</v>
       </c>
-      <c r="CB119" s="15">
+      <c r="CB119" s="24">
         <v>1.4300715038181402</v>
       </c>
-      <c r="CC119" s="15">
+      <c r="CC119" s="24">
         <v>1.3382232187776413</v>
       </c>
-      <c r="CD119" s="26">
+      <c r="CD119" s="24">
         <v>1.111584211089286</v>
       </c>
-      <c r="CE119" s="26">
+      <c r="CE119" s="24">
         <v>1.0022134931126374</v>
       </c>
-      <c r="CF119" s="26">
+      <c r="CF119" s="24">
         <v>1.5603342970185969</v>
       </c>
-      <c r="CG119" s="26">
-        <v>1.5555273938683642</v>
-      </c>
-      <c r="CH119" s="26">
+      <c r="CG119" s="24">
+        <v>1.5284180947305639</v>
+      </c>
+      <c r="CH119" s="24">
         <v>1.2064287318510736</v>
       </c>
-      <c r="CI119" s="26">
+      <c r="CI119" s="24">
         <v>0.98779337017500368</v>
       </c>
-      <c r="CJ119" s="26">
+      <c r="CJ119" s="24">
         <v>1.5951023621218179</v>
       </c>
-      <c r="CK119" s="26">
-        <v>1.6351505188162503</v>
-      </c>
-      <c r="CL119" s="9"/>
+      <c r="CK119" s="24">
+        <v>1.6112956777936445</v>
+      </c>
+      <c r="CL119" s="24">
+        <v>1.1213132138985027</v>
+      </c>
       <c r="CM119" s="9"/>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
@@ -38177,7 +38370,7 @@
       <c r="EU119" s="9"/>
       <c r="EV119" s="9"/>
     </row>
-    <row r="120" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -38254,10 +38447,10 @@
       <c r="BW120" s="9"/>
       <c r="BX120" s="9"/>
       <c r="BY120" s="9"/>
-      <c r="BZ120" s="9"/>
-      <c r="CA120" s="9"/>
-      <c r="CB120" s="9"/>
-      <c r="CC120" s="9"/>
+      <c r="BZ120" s="23"/>
+      <c r="CA120" s="23"/>
+      <c r="CB120" s="23"/>
+      <c r="CC120" s="23"/>
       <c r="CD120" s="23"/>
       <c r="CE120" s="23"/>
       <c r="CF120" s="23"/>
@@ -38266,7 +38459,7 @@
       <c r="CI120" s="23"/>
       <c r="CJ120" s="23"/>
       <c r="CK120" s="23"/>
-      <c r="CL120" s="9"/>
+      <c r="CL120" s="23"/>
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
@@ -38330,7 +38523,7 @@
       <c r="EU120" s="9"/>
       <c r="EV120" s="9"/>
     </row>
-    <row r="121" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>15</v>
       </c>
@@ -38562,43 +38755,45 @@
       <c r="BY121" s="15">
         <v>100</v>
       </c>
-      <c r="BZ121" s="15">
+      <c r="BZ121" s="24">
         <v>100</v>
       </c>
-      <c r="CA121" s="15">
+      <c r="CA121" s="24">
         <v>100</v>
       </c>
-      <c r="CB121" s="15">
+      <c r="CB121" s="24">
         <v>100</v>
       </c>
-      <c r="CC121" s="15">
+      <c r="CC121" s="24">
         <v>100</v>
       </c>
-      <c r="CD121" s="26">
+      <c r="CD121" s="24">
         <v>100</v>
       </c>
-      <c r="CE121" s="26">
+      <c r="CE121" s="24">
         <v>100</v>
       </c>
-      <c r="CF121" s="26">
+      <c r="CF121" s="24">
         <v>100</v>
       </c>
-      <c r="CG121" s="26">
+      <c r="CG121" s="24">
         <v>100</v>
       </c>
-      <c r="CH121" s="26">
+      <c r="CH121" s="24">
         <v>100</v>
       </c>
-      <c r="CI121" s="26">
+      <c r="CI121" s="24">
         <v>100</v>
       </c>
-      <c r="CJ121" s="26">
+      <c r="CJ121" s="24">
         <v>100</v>
       </c>
-      <c r="CK121" s="26">
+      <c r="CK121" s="24">
         <v>100</v>
       </c>
-      <c r="CL121" s="9"/>
+      <c r="CL121" s="24">
+        <v>100</v>
+      </c>
       <c r="CM121" s="9"/>
       <c r="CN121" s="9"/>
       <c r="CO121" s="9"/>
@@ -38662,7 +38857,7 @@
       <c r="EU121" s="9"/>
       <c r="EV121" s="9"/>
     </row>
-    <row r="122" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -38740,10 +38935,10 @@
       <c r="BW122" s="13"/>
       <c r="BX122" s="13"/>
       <c r="BY122" s="13"/>
-      <c r="BZ122" s="13"/>
-      <c r="CA122" s="13"/>
-      <c r="CB122" s="13"/>
-      <c r="CC122" s="13"/>
+      <c r="BZ122" s="22"/>
+      <c r="CA122" s="22"/>
+      <c r="CB122" s="22"/>
+      <c r="CC122" s="22"/>
       <c r="CD122" s="22"/>
       <c r="CE122" s="22"/>
       <c r="CF122" s="22"/>
@@ -38752,13 +38947,14 @@
       <c r="CI122" s="22"/>
       <c r="CJ122" s="22"/>
       <c r="CK122" s="22"/>
+      <c r="CL122" s="22"/>
     </row>
-    <row r="123" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -38835,10 +39031,10 @@
       <c r="BW124" s="9"/>
       <c r="BX124" s="9"/>
       <c r="BY124" s="9"/>
-      <c r="BZ124" s="9"/>
-      <c r="CA124" s="9"/>
-      <c r="CB124" s="9"/>
-      <c r="CC124" s="9"/>
+      <c r="BZ124" s="23"/>
+      <c r="CA124" s="23"/>
+      <c r="CB124" s="23"/>
+      <c r="CC124" s="23"/>
       <c r="CD124" s="23"/>
       <c r="CE124" s="23"/>
       <c r="CF124" s="23"/>
@@ -38847,7 +39043,7 @@
       <c r="CI124" s="23"/>
       <c r="CJ124" s="23"/>
       <c r="CK124" s="23"/>
-      <c r="CL124" s="9"/>
+      <c r="CL124" s="23"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
@@ -38911,7 +39107,7 @@
       <c r="EU124" s="9"/>
       <c r="EV124" s="9"/>
     </row>
-    <row r="125" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -38988,10 +39184,10 @@
       <c r="BW125" s="9"/>
       <c r="BX125" s="9"/>
       <c r="BY125" s="9"/>
-      <c r="BZ125" s="9"/>
-      <c r="CA125" s="9"/>
-      <c r="CB125" s="9"/>
-      <c r="CC125" s="9"/>
+      <c r="BZ125" s="23"/>
+      <c r="CA125" s="23"/>
+      <c r="CB125" s="23"/>
+      <c r="CC125" s="23"/>
       <c r="CD125" s="23"/>
       <c r="CE125" s="23"/>
       <c r="CF125" s="23"/>
@@ -39000,7 +39196,7 @@
       <c r="CI125" s="23"/>
       <c r="CJ125" s="23"/>
       <c r="CK125" s="23"/>
-      <c r="CL125" s="9"/>
+      <c r="CL125" s="23"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
@@ -39064,172 +39260,175 @@
       <c r="EU125" s="9"/>
       <c r="EV125" s="9"/>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="30">
+      <c r="B134" s="35">
         <v>2000</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="30">
+      <c r="C134" s="36"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="35">
         <v>2001</v>
       </c>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="30">
+      <c r="G134" s="36"/>
+      <c r="H134" s="36"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="35">
         <v>2002</v>
       </c>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="30">
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="36"/>
+      <c r="N134" s="35">
         <v>2003</v>
       </c>
-      <c r="O134" s="31"/>
-      <c r="P134" s="31"/>
-      <c r="Q134" s="31"/>
-      <c r="R134" s="30">
+      <c r="O134" s="36"/>
+      <c r="P134" s="36"/>
+      <c r="Q134" s="36"/>
+      <c r="R134" s="35">
         <v>2004</v>
       </c>
-      <c r="S134" s="31"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="31"/>
-      <c r="V134" s="30">
+      <c r="S134" s="36"/>
+      <c r="T134" s="36"/>
+      <c r="U134" s="36"/>
+      <c r="V134" s="35">
         <v>2005</v>
       </c>
-      <c r="W134" s="31"/>
-      <c r="X134" s="31"/>
-      <c r="Y134" s="31"/>
-      <c r="Z134" s="30">
+      <c r="W134" s="36"/>
+      <c r="X134" s="36"/>
+      <c r="Y134" s="36"/>
+      <c r="Z134" s="35">
         <v>2006</v>
       </c>
-      <c r="AA134" s="31"/>
-      <c r="AB134" s="31"/>
-      <c r="AC134" s="31"/>
-      <c r="AD134" s="30">
+      <c r="AA134" s="36"/>
+      <c r="AB134" s="36"/>
+      <c r="AC134" s="36"/>
+      <c r="AD134" s="35">
         <v>2007</v>
       </c>
-      <c r="AE134" s="31"/>
-      <c r="AF134" s="31"/>
-      <c r="AG134" s="31"/>
-      <c r="AH134" s="30">
+      <c r="AE134" s="36"/>
+      <c r="AF134" s="36"/>
+      <c r="AG134" s="36"/>
+      <c r="AH134" s="35">
         <v>2008</v>
       </c>
-      <c r="AI134" s="31"/>
-      <c r="AJ134" s="31"/>
-      <c r="AK134" s="31"/>
-      <c r="AL134" s="30">
+      <c r="AI134" s="36"/>
+      <c r="AJ134" s="36"/>
+      <c r="AK134" s="36"/>
+      <c r="AL134" s="35">
         <v>2009</v>
       </c>
-      <c r="AM134" s="31"/>
-      <c r="AN134" s="31"/>
-      <c r="AO134" s="31"/>
-      <c r="AP134" s="30">
+      <c r="AM134" s="36"/>
+      <c r="AN134" s="36"/>
+      <c r="AO134" s="36"/>
+      <c r="AP134" s="35">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="31"/>
-      <c r="AR134" s="31"/>
-      <c r="AS134" s="31"/>
-      <c r="AT134" s="30">
+      <c r="AQ134" s="36"/>
+      <c r="AR134" s="36"/>
+      <c r="AS134" s="36"/>
+      <c r="AT134" s="35">
         <v>2011</v>
       </c>
-      <c r="AU134" s="31"/>
-      <c r="AV134" s="31"/>
-      <c r="AW134" s="31"/>
-      <c r="AX134" s="30">
+      <c r="AU134" s="36"/>
+      <c r="AV134" s="36"/>
+      <c r="AW134" s="36"/>
+      <c r="AX134" s="35">
         <v>2012</v>
       </c>
-      <c r="AY134" s="31"/>
-      <c r="AZ134" s="31"/>
-      <c r="BA134" s="31"/>
-      <c r="BB134" s="30">
+      <c r="AY134" s="36"/>
+      <c r="AZ134" s="36"/>
+      <c r="BA134" s="36"/>
+      <c r="BB134" s="35">
         <v>2013</v>
       </c>
-      <c r="BC134" s="31"/>
-      <c r="BD134" s="31"/>
-      <c r="BE134" s="31"/>
-      <c r="BF134" s="30">
+      <c r="BC134" s="36"/>
+      <c r="BD134" s="36"/>
+      <c r="BE134" s="36"/>
+      <c r="BF134" s="35">
         <v>2014</v>
       </c>
-      <c r="BG134" s="31"/>
-      <c r="BH134" s="31"/>
-      <c r="BI134" s="31"/>
-      <c r="BJ134" s="30">
+      <c r="BG134" s="36"/>
+      <c r="BH134" s="36"/>
+      <c r="BI134" s="36"/>
+      <c r="BJ134" s="35">
         <v>2015</v>
       </c>
-      <c r="BK134" s="31"/>
-      <c r="BL134" s="31"/>
-      <c r="BM134" s="31"/>
-      <c r="BN134" s="30">
+      <c r="BK134" s="36"/>
+      <c r="BL134" s="36"/>
+      <c r="BM134" s="36"/>
+      <c r="BN134" s="35">
         <v>2016</v>
       </c>
-      <c r="BO134" s="31"/>
-      <c r="BP134" s="31"/>
-      <c r="BQ134" s="31"/>
-      <c r="BR134" s="30">
+      <c r="BO134" s="36"/>
+      <c r="BP134" s="36"/>
+      <c r="BQ134" s="36"/>
+      <c r="BR134" s="35">
         <v>2017</v>
       </c>
-      <c r="BS134" s="31"/>
-      <c r="BT134" s="31"/>
-      <c r="BU134" s="31"/>
-      <c r="BV134" s="30">
+      <c r="BS134" s="36"/>
+      <c r="BT134" s="36"/>
+      <c r="BU134" s="36"/>
+      <c r="BV134" s="35">
         <v>2018</v>
       </c>
-      <c r="BW134" s="31"/>
-      <c r="BX134" s="31"/>
-      <c r="BY134" s="31"/>
-      <c r="BZ134" s="30">
+      <c r="BW134" s="36"/>
+      <c r="BX134" s="36"/>
+      <c r="BY134" s="36"/>
+      <c r="BZ134" s="38">
         <v>2019</v>
       </c>
-      <c r="CA134" s="31"/>
-      <c r="CB134" s="31"/>
-      <c r="CC134" s="31"/>
-      <c r="CD134" s="29">
+      <c r="CA134" s="39"/>
+      <c r="CB134" s="39"/>
+      <c r="CC134" s="39"/>
+      <c r="CD134" s="38">
         <v>2020</v>
       </c>
-      <c r="CE134" s="29"/>
-      <c r="CF134" s="29"/>
-      <c r="CG134" s="29"/>
-      <c r="CH134" s="29">
+      <c r="CE134" s="38"/>
+      <c r="CF134" s="38"/>
+      <c r="CG134" s="38"/>
+      <c r="CH134" s="38">
         <v>2021</v>
       </c>
-      <c r="CI134" s="29"/>
-      <c r="CJ134" s="29"/>
-      <c r="CK134" s="29"/>
+      <c r="CI134" s="38"/>
+      <c r="CJ134" s="38"/>
+      <c r="CK134" s="38"/>
+      <c r="CL134" s="27">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="135" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -39461,16 +39660,16 @@
       <c r="BY135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ135" s="6" t="s">
+      <c r="BZ135" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="CA135" s="6" t="s">
+      <c r="CA135" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="CB135" s="6" t="s">
+      <c r="CB135" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="CC135" s="6" t="s">
+      <c r="CC135" s="18" t="s">
         <v>9</v>
       </c>
       <c r="CD135" s="18" t="s">
@@ -39497,11 +39696,14 @@
       <c r="CK135" s="18" t="s">
         <v>9</v>
       </c>
+      <c r="CL135" s="18" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="136" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -39733,43 +39935,45 @@
       <c r="BY137" s="15">
         <v>80.12581454870957</v>
       </c>
-      <c r="BZ137" s="15">
+      <c r="BZ137" s="24">
         <v>79.070755409346233</v>
       </c>
-      <c r="CA137" s="15">
+      <c r="CA137" s="24">
         <v>82.749786684957556</v>
       </c>
-      <c r="CB137" s="15">
+      <c r="CB137" s="24">
         <v>84.350026596120358</v>
       </c>
-      <c r="CC137" s="15">
+      <c r="CC137" s="24">
         <v>80.196912894766228</v>
       </c>
-      <c r="CD137" s="26">
-        <v>79.482210732286433</v>
-      </c>
-      <c r="CE137" s="26">
+      <c r="CD137" s="24">
+        <v>79.482210732286447</v>
+      </c>
+      <c r="CE137" s="24">
         <v>80.190553275876525</v>
       </c>
-      <c r="CF137" s="26">
+      <c r="CF137" s="24">
         <v>84.036207981965546</v>
       </c>
-      <c r="CG137" s="26">
-        <v>79.871270864374381</v>
-      </c>
-      <c r="CH137" s="26">
+      <c r="CG137" s="24">
+        <v>80.002499161347487</v>
+      </c>
+      <c r="CH137" s="24">
         <v>79.374443104077145</v>
       </c>
-      <c r="CI137" s="26">
+      <c r="CI137" s="24">
         <v>81.604357485062152</v>
       </c>
-      <c r="CJ137" s="26">
+      <c r="CJ137" s="24">
         <v>84.627096981693171</v>
       </c>
-      <c r="CK137" s="26">
-        <v>79.836956370369052</v>
-      </c>
-      <c r="CL137" s="9"/>
+      <c r="CK137" s="24">
+        <v>80.078720306737068</v>
+      </c>
+      <c r="CL137" s="24">
+        <v>80.122304985900399</v>
+      </c>
       <c r="CM137" s="9"/>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
@@ -39833,7 +40037,7 @@
       <c r="EU137" s="9"/>
       <c r="EV137" s="9"/>
     </row>
-    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -40065,43 +40269,45 @@
       <c r="BY138" s="15">
         <v>2.0415143128538982</v>
       </c>
-      <c r="BZ138" s="15">
+      <c r="BZ138" s="24">
         <v>2.3524288423680622</v>
       </c>
-      <c r="CA138" s="15">
+      <c r="CA138" s="24">
         <v>1.9144666083951771</v>
       </c>
-      <c r="CB138" s="15">
+      <c r="CB138" s="24">
         <v>1.4561683620776216</v>
       </c>
-      <c r="CC138" s="15">
+      <c r="CC138" s="24">
         <v>1.9856886723541622</v>
       </c>
-      <c r="CD138" s="26">
+      <c r="CD138" s="24">
         <v>2.3675791444555268</v>
       </c>
-      <c r="CE138" s="26">
+      <c r="CE138" s="24">
         <v>2.1367529444689848</v>
       </c>
-      <c r="CF138" s="26">
+      <c r="CF138" s="24">
         <v>1.494887392207495</v>
       </c>
-      <c r="CG138" s="26">
-        <v>1.9496705956489366</v>
-      </c>
-      <c r="CH138" s="26">
+      <c r="CG138" s="24">
+        <v>1.9479882129692292</v>
+      </c>
+      <c r="CH138" s="24">
         <v>2.4116052608850076</v>
       </c>
-      <c r="CI138" s="26">
+      <c r="CI138" s="24">
         <v>1.8160088580450169</v>
       </c>
-      <c r="CJ138" s="26">
+      <c r="CJ138" s="24">
         <v>1.3364868724411707</v>
       </c>
-      <c r="CK138" s="26">
-        <v>1.9735599558834793</v>
-      </c>
-      <c r="CL138" s="9"/>
+      <c r="CK138" s="24">
+        <v>1.9746736326771102</v>
+      </c>
+      <c r="CL138" s="24">
+        <v>2.06103235725329</v>
+      </c>
       <c r="CM138" s="9"/>
       <c r="CN138" s="9"/>
       <c r="CO138" s="9"/>
@@ -40165,7 +40371,7 @@
       <c r="EU138" s="9"/>
       <c r="EV138" s="9"/>
     </row>
-    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -40397,43 +40603,45 @@
       <c r="BY139" s="15">
         <v>16.545519360070358</v>
       </c>
-      <c r="BZ139" s="15">
+      <c r="BZ139" s="24">
         <v>17.198709462865981</v>
       </c>
-      <c r="CA139" s="15">
+      <c r="CA139" s="24">
         <v>14.313507907160364</v>
       </c>
-      <c r="CB139" s="15">
+      <c r="CB139" s="24">
         <v>13.098295142461506</v>
       </c>
-      <c r="CC139" s="15">
+      <c r="CC139" s="24">
         <v>16.54393032459064</v>
       </c>
-      <c r="CD139" s="26">
+      <c r="CD139" s="24">
         <v>16.979390654125964</v>
       </c>
-      <c r="CE139" s="26">
+      <c r="CE139" s="24">
         <v>16.505384664672583</v>
       </c>
-      <c r="CF139" s="26">
+      <c r="CF139" s="24">
         <v>13.325443831326703</v>
       </c>
-      <c r="CG139" s="26">
-        <v>16.79994209461962</v>
-      </c>
-      <c r="CH139" s="26">
+      <c r="CG139" s="24">
+        <v>16.694641634528228</v>
+      </c>
+      <c r="CH139" s="24">
         <v>16.973410331584599</v>
       </c>
-      <c r="CI139" s="26">
+      <c r="CI139" s="24">
         <v>15.415783723327033</v>
       </c>
-      <c r="CJ139" s="26">
+      <c r="CJ139" s="24">
         <v>12.844445133826893</v>
       </c>
-      <c r="CK139" s="26">
-        <v>16.726519955607156</v>
-      </c>
-      <c r="CL139" s="9"/>
+      <c r="CK139" s="24">
+        <v>16.505320230331279</v>
+      </c>
+      <c r="CL139" s="24">
+        <v>16.556902779500369</v>
+      </c>
       <c r="CM139" s="9"/>
       <c r="CN139" s="9"/>
       <c r="CO139" s="9"/>
@@ -40497,7 +40705,7 @@
       <c r="EU139" s="9"/>
       <c r="EV139" s="9"/>
     </row>
-    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -40729,43 +40937,45 @@
       <c r="BY140" s="15">
         <v>1.2871517783661468</v>
       </c>
-      <c r="BZ140" s="15">
+      <c r="BZ140" s="24">
         <v>1.3781062854197268</v>
       </c>
-      <c r="CA140" s="15">
+      <c r="CA140" s="24">
         <v>1.0222387994869</v>
       </c>
-      <c r="CB140" s="15">
+      <c r="CB140" s="24">
         <v>1.0955098993405283</v>
       </c>
-      <c r="CC140" s="15">
+      <c r="CC140" s="24">
         <v>1.2734681082889703</v>
       </c>
-      <c r="CD140" s="26">
+      <c r="CD140" s="24">
         <v>1.1708194691320786</v>
       </c>
-      <c r="CE140" s="26">
+      <c r="CE140" s="24">
         <v>1.1673091149819272</v>
       </c>
-      <c r="CF140" s="26">
+      <c r="CF140" s="24">
         <v>1.1434607945002544</v>
       </c>
-      <c r="CG140" s="26">
-        <v>1.3791164453570535</v>
-      </c>
-      <c r="CH140" s="26">
+      <c r="CG140" s="24">
+        <v>1.3548709911550609</v>
+      </c>
+      <c r="CH140" s="24">
         <v>1.2405413034532502</v>
       </c>
-      <c r="CI140" s="26">
+      <c r="CI140" s="24">
         <v>1.1638499335658117</v>
       </c>
-      <c r="CJ140" s="26">
+      <c r="CJ140" s="24">
         <v>1.1919710120387601</v>
       </c>
-      <c r="CK140" s="26">
-        <v>1.4629637181403199</v>
-      </c>
-      <c r="CL140" s="9"/>
+      <c r="CK140" s="24">
+        <v>1.4412858302545561</v>
+      </c>
+      <c r="CL140" s="24">
+        <v>1.2597598773459679</v>
+      </c>
       <c r="CM140" s="9"/>
       <c r="CN140" s="9"/>
       <c r="CO140" s="9"/>
@@ -40829,7 +41039,7 @@
       <c r="EU140" s="9"/>
       <c r="EV140" s="9"/>
     </row>
-    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -40906,10 +41116,10 @@
       <c r="BW141" s="9"/>
       <c r="BX141" s="9"/>
       <c r="BY141" s="9"/>
-      <c r="BZ141" s="9"/>
-      <c r="CA141" s="9"/>
-      <c r="CB141" s="9"/>
-      <c r="CC141" s="9"/>
+      <c r="BZ141" s="23"/>
+      <c r="CA141" s="23"/>
+      <c r="CB141" s="23"/>
+      <c r="CC141" s="23"/>
       <c r="CD141" s="23"/>
       <c r="CE141" s="23"/>
       <c r="CF141" s="23"/>
@@ -40918,7 +41128,7 @@
       <c r="CI141" s="23"/>
       <c r="CJ141" s="23"/>
       <c r="CK141" s="23"/>
-      <c r="CL141" s="9"/>
+      <c r="CL141" s="23"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
@@ -40982,7 +41192,7 @@
       <c r="EU141" s="9"/>
       <c r="EV141" s="9"/>
     </row>
-    <row r="142" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>15</v>
       </c>
@@ -41214,43 +41424,45 @@
       <c r="BY142" s="15">
         <v>100</v>
       </c>
-      <c r="BZ142" s="15">
+      <c r="BZ142" s="24">
         <v>100</v>
       </c>
-      <c r="CA142" s="15">
+      <c r="CA142" s="24">
         <v>100</v>
       </c>
-      <c r="CB142" s="15">
+      <c r="CB142" s="24">
         <v>100</v>
       </c>
-      <c r="CC142" s="15">
+      <c r="CC142" s="24">
         <v>100</v>
       </c>
-      <c r="CD142" s="26">
+      <c r="CD142" s="24">
         <v>100</v>
       </c>
-      <c r="CE142" s="26">
+      <c r="CE142" s="24">
         <v>100</v>
       </c>
-      <c r="CF142" s="26">
+      <c r="CF142" s="24">
         <v>100</v>
       </c>
-      <c r="CG142" s="26">
+      <c r="CG142" s="24">
         <v>100</v>
       </c>
-      <c r="CH142" s="26">
+      <c r="CH142" s="24">
         <v>100</v>
       </c>
-      <c r="CI142" s="26">
+      <c r="CI142" s="24">
         <v>100</v>
       </c>
-      <c r="CJ142" s="26">
+      <c r="CJ142" s="24">
         <v>100</v>
       </c>
-      <c r="CK142" s="26">
+      <c r="CK142" s="24">
         <v>100</v>
       </c>
-      <c r="CL142" s="9"/>
+      <c r="CL142" s="24">
+        <v>100</v>
+      </c>
       <c r="CM142" s="9"/>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
@@ -41314,7 +41526,7 @@
       <c r="EU142" s="9"/>
       <c r="EV142" s="9"/>
     </row>
-    <row r="143" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -41392,10 +41604,10 @@
       <c r="BW143" s="13"/>
       <c r="BX143" s="13"/>
       <c r="BY143" s="13"/>
-      <c r="BZ143" s="13"/>
-      <c r="CA143" s="13"/>
-      <c r="CB143" s="13"/>
-      <c r="CC143" s="13"/>
+      <c r="BZ143" s="22"/>
+      <c r="CA143" s="22"/>
+      <c r="CB143" s="22"/>
+      <c r="CC143" s="22"/>
       <c r="CD143" s="22"/>
       <c r="CE143" s="22"/>
       <c r="CF143" s="22"/>
@@ -41404,25 +41616,508 @@
       <c r="CI143" s="22"/>
       <c r="CJ143" s="22"/>
       <c r="CK143" s="22"/>
+      <c r="CL143" s="22"/>
     </row>
-    <row r="144" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="153" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD153" s="1"/>
+      <c r="CE153" s="1"/>
+      <c r="CF153" s="1"/>
+      <c r="CG153" s="1"/>
+      <c r="CH153" s="1"/>
+      <c r="CI153" s="1"/>
+      <c r="CJ153" s="1"/>
+      <c r="CK153" s="1"/>
+      <c r="CL153" s="1"/>
+    </row>
+    <row r="154" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD154" s="1"/>
+      <c r="CE154" s="1"/>
+      <c r="CF154" s="1"/>
+      <c r="CG154" s="1"/>
+      <c r="CH154" s="1"/>
+      <c r="CI154" s="1"/>
+      <c r="CJ154" s="1"/>
+      <c r="CK154" s="1"/>
+      <c r="CL154" s="1"/>
+    </row>
+    <row r="155" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD155" s="1"/>
+      <c r="CE155" s="1"/>
+      <c r="CF155" s="1"/>
+      <c r="CG155" s="1"/>
+      <c r="CH155" s="1"/>
+      <c r="CI155" s="1"/>
+      <c r="CJ155" s="1"/>
+      <c r="CK155" s="1"/>
+      <c r="CL155" s="1"/>
+    </row>
+    <row r="156" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD156" s="1"/>
+      <c r="CE156" s="1"/>
+      <c r="CF156" s="1"/>
+      <c r="CG156" s="1"/>
+      <c r="CH156" s="1"/>
+      <c r="CI156" s="1"/>
+      <c r="CJ156" s="1"/>
+      <c r="CK156" s="1"/>
+      <c r="CL156" s="1"/>
+    </row>
+    <row r="157" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD157" s="1"/>
+      <c r="CE157" s="1"/>
+      <c r="CF157" s="1"/>
+      <c r="CG157" s="1"/>
+      <c r="CH157" s="1"/>
+      <c r="CI157" s="1"/>
+      <c r="CJ157" s="1"/>
+      <c r="CK157" s="1"/>
+      <c r="CL157" s="1"/>
+    </row>
+    <row r="158" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD158" s="1"/>
+      <c r="CE158" s="1"/>
+      <c r="CF158" s="1"/>
+      <c r="CG158" s="1"/>
+      <c r="CH158" s="1"/>
+      <c r="CI158" s="1"/>
+      <c r="CJ158" s="1"/>
+      <c r="CK158" s="1"/>
+      <c r="CL158" s="1"/>
+    </row>
+    <row r="159" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD159" s="1"/>
+      <c r="CE159" s="1"/>
+      <c r="CF159" s="1"/>
+      <c r="CG159" s="1"/>
+      <c r="CH159" s="1"/>
+      <c r="CI159" s="1"/>
+      <c r="CJ159" s="1"/>
+      <c r="CK159" s="1"/>
+      <c r="CL159" s="1"/>
+    </row>
+    <row r="160" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD160" s="1"/>
+      <c r="CE160" s="1"/>
+      <c r="CF160" s="1"/>
+      <c r="CG160" s="1"/>
+      <c r="CH160" s="1"/>
+      <c r="CI160" s="1"/>
+      <c r="CJ160" s="1"/>
+      <c r="CK160" s="1"/>
+      <c r="CL160" s="1"/>
+    </row>
+    <row r="161" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD161" s="1"/>
+      <c r="CE161" s="1"/>
+      <c r="CF161" s="1"/>
+      <c r="CG161" s="1"/>
+      <c r="CH161" s="1"/>
+      <c r="CI161" s="1"/>
+      <c r="CJ161" s="1"/>
+      <c r="CK161" s="1"/>
+      <c r="CL161" s="1"/>
+    </row>
+    <row r="162" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD162" s="1"/>
+      <c r="CE162" s="1"/>
+      <c r="CF162" s="1"/>
+      <c r="CG162" s="1"/>
+      <c r="CH162" s="1"/>
+      <c r="CI162" s="1"/>
+      <c r="CJ162" s="1"/>
+      <c r="CK162" s="1"/>
+      <c r="CL162" s="1"/>
+    </row>
+    <row r="163" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD163" s="1"/>
+      <c r="CE163" s="1"/>
+      <c r="CF163" s="1"/>
+      <c r="CG163" s="1"/>
+      <c r="CH163" s="1"/>
+      <c r="CI163" s="1"/>
+      <c r="CJ163" s="1"/>
+      <c r="CK163" s="1"/>
+      <c r="CL163" s="1"/>
+    </row>
+    <row r="164" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD164" s="1"/>
+      <c r="CE164" s="1"/>
+      <c r="CF164" s="1"/>
+      <c r="CG164" s="1"/>
+      <c r="CH164" s="1"/>
+      <c r="CI164" s="1"/>
+      <c r="CJ164" s="1"/>
+      <c r="CK164" s="1"/>
+      <c r="CL164" s="1"/>
+    </row>
+    <row r="165" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD165" s="1"/>
+      <c r="CE165" s="1"/>
+      <c r="CF165" s="1"/>
+      <c r="CG165" s="1"/>
+      <c r="CH165" s="1"/>
+      <c r="CI165" s="1"/>
+      <c r="CJ165" s="1"/>
+      <c r="CK165" s="1"/>
+      <c r="CL165" s="1"/>
+    </row>
+    <row r="166" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD166" s="1"/>
+      <c r="CE166" s="1"/>
+      <c r="CF166" s="1"/>
+      <c r="CG166" s="1"/>
+      <c r="CH166" s="1"/>
+      <c r="CI166" s="1"/>
+      <c r="CJ166" s="1"/>
+      <c r="CK166" s="1"/>
+      <c r="CL166" s="1"/>
+    </row>
+    <row r="167" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD167" s="1"/>
+      <c r="CE167" s="1"/>
+      <c r="CF167" s="1"/>
+      <c r="CG167" s="1"/>
+      <c r="CH167" s="1"/>
+      <c r="CI167" s="1"/>
+      <c r="CJ167" s="1"/>
+      <c r="CK167" s="1"/>
+      <c r="CL167" s="1"/>
+    </row>
+    <row r="168" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD168" s="1"/>
+      <c r="CE168" s="1"/>
+      <c r="CF168" s="1"/>
+      <c r="CG168" s="1"/>
+      <c r="CH168" s="1"/>
+      <c r="CI168" s="1"/>
+      <c r="CJ168" s="1"/>
+      <c r="CK168" s="1"/>
+      <c r="CL168" s="1"/>
+    </row>
+    <row r="169" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD169" s="1"/>
+      <c r="CE169" s="1"/>
+      <c r="CF169" s="1"/>
+      <c r="CG169" s="1"/>
+      <c r="CH169" s="1"/>
+      <c r="CI169" s="1"/>
+      <c r="CJ169" s="1"/>
+      <c r="CK169" s="1"/>
+      <c r="CL169" s="1"/>
+    </row>
+    <row r="170" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD170" s="1"/>
+      <c r="CE170" s="1"/>
+      <c r="CF170" s="1"/>
+      <c r="CG170" s="1"/>
+      <c r="CH170" s="1"/>
+      <c r="CI170" s="1"/>
+      <c r="CJ170" s="1"/>
+      <c r="CK170" s="1"/>
+      <c r="CL170" s="1"/>
+    </row>
+    <row r="171" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD171" s="1"/>
+      <c r="CE171" s="1"/>
+      <c r="CF171" s="1"/>
+      <c r="CG171" s="1"/>
+      <c r="CH171" s="1"/>
+      <c r="CI171" s="1"/>
+      <c r="CJ171" s="1"/>
+      <c r="CK171" s="1"/>
+      <c r="CL171" s="1"/>
+    </row>
+    <row r="172" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD172" s="1"/>
+      <c r="CE172" s="1"/>
+      <c r="CF172" s="1"/>
+      <c r="CG172" s="1"/>
+      <c r="CH172" s="1"/>
+      <c r="CI172" s="1"/>
+      <c r="CJ172" s="1"/>
+      <c r="CK172" s="1"/>
+      <c r="CL172" s="1"/>
+    </row>
+    <row r="173" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD173" s="1"/>
+      <c r="CE173" s="1"/>
+      <c r="CF173" s="1"/>
+      <c r="CG173" s="1"/>
+      <c r="CH173" s="1"/>
+      <c r="CI173" s="1"/>
+      <c r="CJ173" s="1"/>
+      <c r="CK173" s="1"/>
+      <c r="CL173" s="1"/>
+    </row>
+    <row r="174" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD174" s="1"/>
+      <c r="CE174" s="1"/>
+      <c r="CF174" s="1"/>
+      <c r="CG174" s="1"/>
+      <c r="CH174" s="1"/>
+      <c r="CI174" s="1"/>
+      <c r="CJ174" s="1"/>
+      <c r="CK174" s="1"/>
+      <c r="CL174" s="1"/>
+    </row>
+    <row r="175" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD175" s="1"/>
+      <c r="CE175" s="1"/>
+      <c r="CF175" s="1"/>
+      <c r="CG175" s="1"/>
+      <c r="CH175" s="1"/>
+      <c r="CI175" s="1"/>
+      <c r="CJ175" s="1"/>
+      <c r="CK175" s="1"/>
+      <c r="CL175" s="1"/>
+    </row>
+    <row r="176" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD176" s="1"/>
+      <c r="CE176" s="1"/>
+      <c r="CF176" s="1"/>
+      <c r="CG176" s="1"/>
+      <c r="CH176" s="1"/>
+      <c r="CI176" s="1"/>
+      <c r="CJ176" s="1"/>
+      <c r="CK176" s="1"/>
+      <c r="CL176" s="1"/>
+    </row>
+    <row r="177" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD177" s="1"/>
+      <c r="CE177" s="1"/>
+      <c r="CF177" s="1"/>
+      <c r="CG177" s="1"/>
+      <c r="CH177" s="1"/>
+      <c r="CI177" s="1"/>
+      <c r="CJ177" s="1"/>
+      <c r="CK177" s="1"/>
+      <c r="CL177" s="1"/>
+    </row>
+    <row r="178" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD178" s="1"/>
+      <c r="CE178" s="1"/>
+      <c r="CF178" s="1"/>
+      <c r="CG178" s="1"/>
+      <c r="CH178" s="1"/>
+      <c r="CI178" s="1"/>
+      <c r="CJ178" s="1"/>
+      <c r="CK178" s="1"/>
+      <c r="CL178" s="1"/>
+    </row>
+    <row r="179" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD179" s="1"/>
+      <c r="CE179" s="1"/>
+      <c r="CF179" s="1"/>
+      <c r="CG179" s="1"/>
+      <c r="CH179" s="1"/>
+      <c r="CI179" s="1"/>
+      <c r="CJ179" s="1"/>
+      <c r="CK179" s="1"/>
+      <c r="CL179" s="1"/>
+    </row>
+    <row r="180" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD180" s="1"/>
+      <c r="CE180" s="1"/>
+      <c r="CF180" s="1"/>
+      <c r="CG180" s="1"/>
+      <c r="CH180" s="1"/>
+      <c r="CI180" s="1"/>
+      <c r="CJ180" s="1"/>
+      <c r="CK180" s="1"/>
+      <c r="CL180" s="1"/>
+    </row>
+    <row r="181" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD181" s="1"/>
+      <c r="CE181" s="1"/>
+      <c r="CF181" s="1"/>
+      <c r="CG181" s="1"/>
+      <c r="CH181" s="1"/>
+      <c r="CI181" s="1"/>
+      <c r="CJ181" s="1"/>
+      <c r="CK181" s="1"/>
+      <c r="CL181" s="1"/>
+    </row>
+    <row r="182" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD182" s="1"/>
+      <c r="CE182" s="1"/>
+      <c r="CF182" s="1"/>
+      <c r="CG182" s="1"/>
+      <c r="CH182" s="1"/>
+      <c r="CI182" s="1"/>
+      <c r="CJ182" s="1"/>
+      <c r="CK182" s="1"/>
+      <c r="CL182" s="1"/>
+    </row>
+    <row r="183" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD183" s="1"/>
+      <c r="CE183" s="1"/>
+      <c r="CF183" s="1"/>
+      <c r="CG183" s="1"/>
+      <c r="CH183" s="1"/>
+      <c r="CI183" s="1"/>
+      <c r="CJ183" s="1"/>
+      <c r="CK183" s="1"/>
+      <c r="CL183" s="1"/>
+    </row>
+    <row r="184" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD184" s="1"/>
+      <c r="CE184" s="1"/>
+      <c r="CF184" s="1"/>
+      <c r="CG184" s="1"/>
+      <c r="CH184" s="1"/>
+      <c r="CI184" s="1"/>
+      <c r="CJ184" s="1"/>
+      <c r="CK184" s="1"/>
+      <c r="CL184" s="1"/>
+    </row>
+    <row r="185" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD185" s="1"/>
+      <c r="CE185" s="1"/>
+      <c r="CF185" s="1"/>
+      <c r="CG185" s="1"/>
+      <c r="CH185" s="1"/>
+      <c r="CI185" s="1"/>
+      <c r="CJ185" s="1"/>
+      <c r="CK185" s="1"/>
+      <c r="CL185" s="1"/>
+    </row>
+    <row r="186" spans="82:90" x14ac:dyDescent="0.2">
+      <c r="CD186" s="1"/>
+      <c r="CE186" s="1"/>
+      <c r="CF186" s="1"/>
+      <c r="CG186" s="1"/>
+      <c r="CH186" s="1"/>
+      <c r="CI186" s="1"/>
+      <c r="CJ186" s="1"/>
+      <c r="CK186" s="1"/>
+      <c r="CL186" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="152">
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
     <mergeCell ref="BZ113:CC113"/>
     <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
     <mergeCell ref="BB134:BE134"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="F92:I92"/>
@@ -41447,132 +42142,24 @@
     <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="86" man="1"/>
-    <brk id="84" max="86" man="1"/>
-    <brk id="104" max="86" man="1"/>
+    <brk id="42" max="89" man="1"/>
+    <brk id="84" max="89" man="1"/>
+    <brk id="104" max="89" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\OneDrive\Desktop\PSA\NAP\NAP\Q1 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AAB531F-684E-4FD0-B07E-3BAB81057269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF1527-E7F9-44F0-9B9A-E03CED416DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CL$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CM$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of May 2022</t>
+    <t>As of August 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2022</t>
+    <t>Q1 2000 to Q2 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2022</t>
+    <t>Q1 2001 to Q2 2022</t>
   </si>
 </sst>
 </file>
@@ -636,9 +636,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -709,83 +709,63 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{BFB93667-75ED-437D-B07D-36D02BEF83D9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{AC4A21D9-4C27-449D-95FD-0E1761FABE3D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -23624,192 +23604,192 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV186"/>
+  <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" topLeftCell="A103" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BS1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CL100" sqref="CL100"/>
+      <selection pane="topRight" activeCell="CU33" sqref="CU33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="77" width="10.77734375" style="1" customWidth="1"/>
-    <col min="78" max="78" width="9.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="79" max="90" width="10.77734375" style="17" customWidth="1"/>
-    <col min="91" max="16384" width="7.77734375" style="1"/>
+    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
+    <col min="2" max="85" width="10.7265625" style="1" customWidth="1"/>
+    <col min="86" max="91" width="10.81640625" style="1" customWidth="1"/>
+    <col min="92" max="16384" width="7.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="35">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="35"/>
-      <c r="AD9" s="35">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="35"/>
-      <c r="AF9" s="35"/>
-      <c r="AG9" s="35"/>
-      <c r="AH9" s="35">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="35"/>
-      <c r="AJ9" s="35"/>
-      <c r="AK9" s="35"/>
-      <c r="AL9" s="35">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="35"/>
-      <c r="AN9" s="35"/>
-      <c r="AO9" s="35"/>
-      <c r="AP9" s="35">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="35"/>
-      <c r="AR9" s="35"/>
-      <c r="AS9" s="35"/>
-      <c r="AT9" s="35">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="35"/>
-      <c r="AV9" s="35"/>
-      <c r="AW9" s="35"/>
-      <c r="AX9" s="35">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="35"/>
-      <c r="AZ9" s="35"/>
-      <c r="BA9" s="35"/>
-      <c r="BB9" s="35">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="35"/>
-      <c r="BD9" s="35"/>
-      <c r="BE9" s="35"/>
-      <c r="BF9" s="35">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="35"/>
-      <c r="BH9" s="35"/>
-      <c r="BI9" s="35"/>
-      <c r="BJ9" s="35">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="35"/>
-      <c r="BL9" s="35"/>
-      <c r="BM9" s="35"/>
-      <c r="BN9" s="35">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="35"/>
-      <c r="BP9" s="35"/>
-      <c r="BQ9" s="35"/>
-      <c r="BR9" s="35">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="35"/>
-      <c r="BT9" s="35"/>
-      <c r="BU9" s="35"/>
-      <c r="BV9" s="35">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="35"/>
-      <c r="BX9" s="35"/>
-      <c r="BY9" s="35"/>
-      <c r="BZ9" s="38">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
-      <c r="CL9" s="27">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="21">
         <v>2022</v>
       </c>
+      <c r="CM9" s="21"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24041,50 +24021,53 @@
       <c r="BY10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ10" s="18" t="s">
+      <c r="BZ10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA10" s="18" t="s">
+      <c r="CA10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB10" s="18" t="s">
+      <c r="CB10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC10" s="18" t="s">
+      <c r="CC10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD10" s="18" t="s">
+      <c r="CD10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE10" s="18" t="s">
+      <c r="CE10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF10" s="18" t="s">
+      <c r="CF10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG10" s="18" t="s">
+      <c r="CG10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH10" s="18" t="s">
+      <c r="CH10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI10" s="18" t="s">
+      <c r="CI10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ10" s="18" t="s">
+      <c r="CJ10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK10" s="18" t="s">
+      <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="18" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24316,46 +24299,48 @@
       <c r="BY12" s="8">
         <v>105852.46370208971</v>
       </c>
-      <c r="BZ12" s="19">
+      <c r="BZ12" s="8">
         <v>120271.672411477</v>
       </c>
-      <c r="CA12" s="19">
+      <c r="CA12" s="8">
         <v>158432.34979964601</v>
       </c>
-      <c r="CB12" s="19">
+      <c r="CB12" s="8">
         <v>106841.57254965699</v>
       </c>
-      <c r="CC12" s="19">
+      <c r="CC12" s="8">
         <v>111034.10941864933</v>
       </c>
-      <c r="CD12" s="19">
+      <c r="CD12" s="8">
         <v>125531.84141481952</v>
       </c>
-      <c r="CE12" s="19">
+      <c r="CE12" s="8">
         <v>151135.77883026804</v>
       </c>
-      <c r="CF12" s="19">
+      <c r="CF12" s="8">
         <v>107649.44577173362</v>
       </c>
-      <c r="CG12" s="19">
+      <c r="CG12" s="8">
         <v>108952.01304205437</v>
       </c>
-      <c r="CH12" s="19">
+      <c r="CH12" s="8">
         <v>124853.99216919967</v>
       </c>
-      <c r="CI12" s="19">
+      <c r="CI12" s="8">
         <v>172485.32048363221</v>
       </c>
-      <c r="CJ12" s="19">
+      <c r="CJ12" s="8">
         <v>115903.47844910492</v>
       </c>
-      <c r="CK12" s="19">
+      <c r="CK12" s="8">
         <v>116866.99599831183</v>
       </c>
-      <c r="CL12" s="19">
-        <v>150439.12234080129</v>
-      </c>
-      <c r="CM12" s="9"/>
+      <c r="CL12" s="8">
+        <v>149985.37547241439</v>
+      </c>
+      <c r="CM12" s="8">
+        <v>202397.22981292126</v>
+      </c>
       <c r="CN12" s="9"/>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
@@ -24418,7 +24403,7 @@
       <c r="EU12" s="9"/>
       <c r="EV12" s="9"/>
     </row>
-    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24650,46 +24635,48 @@
       <c r="BY13" s="8">
         <v>2884.7741662110511</v>
       </c>
-      <c r="BZ13" s="19">
+      <c r="BZ13" s="8">
         <v>3204.9769337411699</v>
       </c>
-      <c r="CA13" s="19">
+      <c r="CA13" s="8">
         <v>3044.3534311151702</v>
       </c>
-      <c r="CB13" s="19">
+      <c r="CB13" s="8">
         <v>2378.4164361460798</v>
       </c>
-      <c r="CC13" s="19">
+      <c r="CC13" s="8">
         <v>2892.8555679168567</v>
       </c>
-      <c r="CD13" s="19">
+      <c r="CD13" s="8">
         <v>3403.0331981246345</v>
       </c>
-      <c r="CE13" s="19">
+      <c r="CE13" s="8">
         <v>3255.0540781011632</v>
       </c>
-      <c r="CF13" s="19">
+      <c r="CF13" s="8">
         <v>2503.1358558149795</v>
       </c>
-      <c r="CG13" s="19">
+      <c r="CG13" s="8">
         <v>2911.525149767946</v>
       </c>
-      <c r="CH13" s="19">
+      <c r="CH13" s="8">
         <v>3449.6526744900311</v>
       </c>
-      <c r="CI13" s="19">
+      <c r="CI13" s="8">
         <v>3073.8267670285459</v>
       </c>
-      <c r="CJ13" s="19">
+      <c r="CJ13" s="8">
         <v>2340.2614294095238</v>
       </c>
-      <c r="CK13" s="19">
+      <c r="CK13" s="8">
         <v>3131.4786591923739</v>
       </c>
-      <c r="CL13" s="19">
+      <c r="CL13" s="8">
         <v>3281.7999960750249</v>
       </c>
-      <c r="CM13" s="9"/>
+      <c r="CM13" s="8">
+        <v>3386.612565393008</v>
+      </c>
       <c r="CN13" s="9"/>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
@@ -24752,7 +24739,7 @@
       <c r="EU13" s="9"/>
       <c r="EV13" s="9"/>
     </row>
-    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -24984,46 +24971,48 @@
       <c r="BY14" s="8">
         <v>22843.454154843894</v>
       </c>
-      <c r="BZ14" s="19">
+      <c r="BZ14" s="8">
         <v>22898.2742361893</v>
       </c>
-      <c r="CA14" s="19">
+      <c r="CA14" s="8">
         <v>24086.906291442701</v>
       </c>
-      <c r="CB14" s="19">
+      <c r="CB14" s="8">
         <v>21061.333686186401</v>
       </c>
-      <c r="CC14" s="19">
+      <c r="CC14" s="8">
         <v>24562.950521247545</v>
       </c>
-      <c r="CD14" s="19">
+      <c r="CD14" s="8">
         <v>24082.454530053183</v>
       </c>
-      <c r="CE14" s="19">
+      <c r="CE14" s="8">
         <v>26611.262555469068</v>
       </c>
-      <c r="CF14" s="19">
+      <c r="CF14" s="8">
         <v>21913.487004171035</v>
       </c>
-      <c r="CG14" s="19">
+      <c r="CG14" s="8">
         <v>25327.158708572715</v>
       </c>
-      <c r="CH14" s="19">
+      <c r="CH14" s="8">
         <v>24459.720636902119</v>
       </c>
-      <c r="CI14" s="19">
+      <c r="CI14" s="8">
         <v>27594.712900774888</v>
       </c>
-      <c r="CJ14" s="19">
+      <c r="CJ14" s="8">
         <v>22021.1727915669</v>
       </c>
-      <c r="CK14" s="19">
+      <c r="CK14" s="8">
         <v>26136.660396856932</v>
       </c>
-      <c r="CL14" s="19">
-        <v>25497.844642572269</v>
-      </c>
-      <c r="CM14" s="9"/>
+      <c r="CL14" s="8">
+        <v>25630.053393726164</v>
+      </c>
+      <c r="CM14" s="8">
+        <v>28370.95140255084</v>
+      </c>
       <c r="CN14" s="9"/>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
@@ -25086,7 +25075,7 @@
       <c r="EU14" s="9"/>
       <c r="EV14" s="9"/>
     </row>
-    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25318,46 +25307,48 @@
       <c r="BY15" s="8">
         <v>1781.7702785368872</v>
       </c>
-      <c r="BZ15" s="19">
+      <c r="BZ15" s="8">
         <v>1818.12738450798</v>
       </c>
-      <c r="CA15" s="19">
+      <c r="CA15" s="8">
         <v>1584.99586406413</v>
       </c>
-      <c r="CB15" s="19">
+      <c r="CB15" s="8">
         <v>1890.1465170502299</v>
       </c>
-      <c r="CC15" s="19">
+      <c r="CC15" s="8">
         <v>1878.4419513351272</v>
       </c>
-      <c r="CD15" s="19">
+      <c r="CD15" s="8">
         <v>1720.0361209293665</v>
       </c>
-      <c r="CE15" s="19">
+      <c r="CE15" s="8">
         <v>1832.3919024482434</v>
       </c>
-      <c r="CF15" s="19">
+      <c r="CF15" s="8">
         <v>2093.3351905139893</v>
       </c>
-      <c r="CG15" s="19">
+      <c r="CG15" s="8">
         <v>2129.3934708287588</v>
       </c>
-      <c r="CH15" s="19">
+      <c r="CH15" s="8">
         <v>1865.4869028858584</v>
       </c>
-      <c r="CI15" s="19">
+      <c r="CI15" s="8">
         <v>2026.7605683540019</v>
       </c>
-      <c r="CJ15" s="19">
+      <c r="CJ15" s="8">
         <v>2273.6357528279777</v>
       </c>
-      <c r="CK15" s="19">
+      <c r="CK15" s="8">
         <v>2393.2311448656578</v>
       </c>
-      <c r="CL15" s="19">
-        <v>2032.3932095435107</v>
-      </c>
-      <c r="CM15" s="9"/>
+      <c r="CL15" s="8">
+        <v>2072.5541387360399</v>
+      </c>
+      <c r="CM15" s="8">
+        <v>2186.0946269786391</v>
+      </c>
       <c r="CN15" s="9"/>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
@@ -25420,7 +25411,7 @@
       <c r="EU15" s="9"/>
       <c r="EV15" s="9"/>
     </row>
-    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -25497,20 +25488,20 @@
       <c r="BW16" s="10"/>
       <c r="BX16" s="10"/>
       <c r="BY16" s="10"/>
-      <c r="BZ16" s="20"/>
-      <c r="CA16" s="20"/>
-      <c r="CB16" s="20"/>
-      <c r="CC16" s="20"/>
-      <c r="CD16" s="20"/>
-      <c r="CE16" s="20"/>
-      <c r="CF16" s="20"/>
-      <c r="CG16" s="20"/>
-      <c r="CH16" s="20"/>
-      <c r="CI16" s="20"/>
-      <c r="CJ16" s="20"/>
-      <c r="CK16" s="20"/>
-      <c r="CL16" s="20"/>
-      <c r="CM16" s="9"/>
+      <c r="BZ16" s="10"/>
+      <c r="CA16" s="10"/>
+      <c r="CB16" s="10"/>
+      <c r="CC16" s="10"/>
+      <c r="CD16" s="10"/>
+      <c r="CE16" s="10"/>
+      <c r="CF16" s="10"/>
+      <c r="CG16" s="10"/>
+      <c r="CH16" s="10"/>
+      <c r="CI16" s="10"/>
+      <c r="CJ16" s="10"/>
+      <c r="CK16" s="10"/>
+      <c r="CL16" s="10"/>
+      <c r="CM16" s="10"/>
       <c r="CN16" s="9"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
@@ -25573,7 +25564,7 @@
       <c r="EU16" s="9"/>
       <c r="EV16" s="9"/>
     </row>
-    <row r="17" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -25805,46 +25796,48 @@
       <c r="BY17" s="12">
         <v>133362.46230168155</v>
       </c>
-      <c r="BZ17" s="21">
+      <c r="BZ17" s="12">
         <v>148193.05096591543</v>
       </c>
-      <c r="CA17" s="21">
+      <c r="CA17" s="12">
         <v>187148.605386268</v>
       </c>
-      <c r="CB17" s="21">
+      <c r="CB17" s="12">
         <v>132171.46918903969</v>
       </c>
-      <c r="CC17" s="21">
+      <c r="CC17" s="12">
         <v>140368.35745914886</v>
       </c>
-      <c r="CD17" s="21">
+      <c r="CD17" s="12">
         <v>154737.36526392671</v>
       </c>
-      <c r="CE17" s="21">
+      <c r="CE17" s="12">
         <v>182834.48736628648</v>
       </c>
-      <c r="CF17" s="21">
+      <c r="CF17" s="12">
         <v>134159.40382223361</v>
       </c>
-      <c r="CG17" s="21">
+      <c r="CG17" s="12">
         <v>139320.09037122381</v>
       </c>
-      <c r="CH17" s="21">
+      <c r="CH17" s="12">
         <v>154628.8523834777</v>
       </c>
-      <c r="CI17" s="21">
+      <c r="CI17" s="12">
         <v>205180.62071978964</v>
       </c>
-      <c r="CJ17" s="21">
+      <c r="CJ17" s="12">
         <v>142538.54842290931</v>
       </c>
-      <c r="CK17" s="21">
+      <c r="CK17" s="12">
         <v>148528.36619922679</v>
       </c>
-      <c r="CL17" s="21">
-        <v>181251.1601889921</v>
-      </c>
-      <c r="CM17" s="9"/>
+      <c r="CL17" s="12">
+        <v>180969.78300095163</v>
+      </c>
+      <c r="CM17" s="12">
+        <v>236340.88840784374</v>
+      </c>
       <c r="CN17" s="9"/>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
@@ -25907,7 +25900,7 @@
       <c r="EU17" s="9"/>
       <c r="EV17" s="9"/>
     </row>
-    <row r="18" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -25985,26 +25978,27 @@
       <c r="BW18" s="13"/>
       <c r="BX18" s="13"/>
       <c r="BY18" s="13"/>
-      <c r="BZ18" s="22"/>
-      <c r="CA18" s="22"/>
-      <c r="CB18" s="22"/>
-      <c r="CC18" s="22"/>
-      <c r="CD18" s="22"/>
-      <c r="CE18" s="22"/>
-      <c r="CF18" s="22"/>
-      <c r="CG18" s="22"/>
-      <c r="CH18" s="22"/>
-      <c r="CI18" s="22"/>
-      <c r="CJ18" s="22"/>
-      <c r="CK18" s="22"/>
-      <c r="CL18" s="22"/>
+      <c r="BZ18" s="13"/>
+      <c r="CA18" s="13"/>
+      <c r="CB18" s="13"/>
+      <c r="CC18" s="13"/>
+      <c r="CD18" s="13"/>
+      <c r="CE18" s="13"/>
+      <c r="CF18" s="13"/>
+      <c r="CG18" s="13"/>
+      <c r="CH18" s="13"/>
+      <c r="CI18" s="13"/>
+      <c r="CJ18" s="13"/>
+      <c r="CK18" s="13"/>
+      <c r="CL18" s="13"/>
+      <c r="CM18" s="13"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26081,19 +26075,19 @@
       <c r="BW20" s="9"/>
       <c r="BX20" s="9"/>
       <c r="BY20" s="9"/>
-      <c r="BZ20" s="23"/>
-      <c r="CA20" s="23"/>
-      <c r="CB20" s="23"/>
-      <c r="CC20" s="23"/>
-      <c r="CD20" s="23"/>
-      <c r="CE20" s="23"/>
-      <c r="CF20" s="23"/>
-      <c r="CG20" s="23"/>
-      <c r="CH20" s="23"/>
-      <c r="CI20" s="23"/>
-      <c r="CJ20" s="23"/>
-      <c r="CK20" s="23"/>
-      <c r="CL20" s="23"/>
+      <c r="BZ20" s="9"/>
+      <c r="CA20" s="9"/>
+      <c r="CB20" s="9"/>
+      <c r="CC20" s="9"/>
+      <c r="CD20" s="9"/>
+      <c r="CE20" s="9"/>
+      <c r="CF20" s="9"/>
+      <c r="CG20" s="9"/>
+      <c r="CH20" s="9"/>
+      <c r="CI20" s="9"/>
+      <c r="CJ20" s="9"/>
+      <c r="CK20" s="9"/>
+      <c r="CL20" s="9"/>
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
@@ -26157,7 +26151,7 @@
       <c r="EU20" s="9"/>
       <c r="EV20" s="9"/>
     </row>
-    <row r="21" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26234,19 +26228,19 @@
       <c r="BW21" s="9"/>
       <c r="BX21" s="9"/>
       <c r="BY21" s="9"/>
-      <c r="BZ21" s="23"/>
-      <c r="CA21" s="23"/>
-      <c r="CB21" s="23"/>
-      <c r="CC21" s="23"/>
-      <c r="CD21" s="23"/>
-      <c r="CE21" s="23"/>
-      <c r="CF21" s="23"/>
-      <c r="CG21" s="23"/>
-      <c r="CH21" s="23"/>
-      <c r="CI21" s="23"/>
-      <c r="CJ21" s="23"/>
-      <c r="CK21" s="23"/>
-      <c r="CL21" s="23"/>
+      <c r="BZ21" s="9"/>
+      <c r="CA21" s="9"/>
+      <c r="CB21" s="9"/>
+      <c r="CC21" s="9"/>
+      <c r="CD21" s="9"/>
+      <c r="CE21" s="9"/>
+      <c r="CF21" s="9"/>
+      <c r="CG21" s="9"/>
+      <c r="CH21" s="9"/>
+      <c r="CI21" s="9"/>
+      <c r="CJ21" s="9"/>
+      <c r="CK21" s="9"/>
+      <c r="CL21" s="9"/>
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
@@ -26310,175 +26304,176 @@
       <c r="EU21" s="9"/>
       <c r="EV21" s="9"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="35">
+      <c r="B30" s="21">
         <v>2000</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21">
         <v>2001</v>
       </c>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="35">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21">
         <v>2002</v>
       </c>
-      <c r="K30" s="36"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="35">
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="21">
         <v>2003</v>
       </c>
-      <c r="O30" s="36"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="36"/>
-      <c r="R30" s="35">
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="21">
         <v>2004</v>
       </c>
-      <c r="S30" s="36"/>
-      <c r="T30" s="36"/>
-      <c r="U30" s="36"/>
-      <c r="V30" s="35">
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="21">
         <v>2005</v>
       </c>
-      <c r="W30" s="36"/>
-      <c r="X30" s="36"/>
-      <c r="Y30" s="36"/>
-      <c r="Z30" s="35">
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="21">
         <v>2006</v>
       </c>
-      <c r="AA30" s="36"/>
-      <c r="AB30" s="36"/>
-      <c r="AC30" s="36"/>
-      <c r="AD30" s="35">
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="21">
         <v>2007</v>
       </c>
-      <c r="AE30" s="36"/>
-      <c r="AF30" s="36"/>
-      <c r="AG30" s="36"/>
-      <c r="AH30" s="35">
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="21">
         <v>2008</v>
       </c>
-      <c r="AI30" s="36"/>
-      <c r="AJ30" s="36"/>
-      <c r="AK30" s="36"/>
-      <c r="AL30" s="35">
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="21">
         <v>2009</v>
       </c>
-      <c r="AM30" s="36"/>
-      <c r="AN30" s="36"/>
-      <c r="AO30" s="36"/>
-      <c r="AP30" s="35">
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="36"/>
-      <c r="AR30" s="36"/>
-      <c r="AS30" s="36"/>
-      <c r="AT30" s="35">
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="21">
         <v>2011</v>
       </c>
-      <c r="AU30" s="36"/>
-      <c r="AV30" s="36"/>
-      <c r="AW30" s="36"/>
-      <c r="AX30" s="35">
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="21">
         <v>2012</v>
       </c>
-      <c r="AY30" s="36"/>
-      <c r="AZ30" s="36"/>
-      <c r="BA30" s="36"/>
-      <c r="BB30" s="35">
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="21">
         <v>2013</v>
       </c>
-      <c r="BC30" s="36"/>
-      <c r="BD30" s="36"/>
-      <c r="BE30" s="36"/>
-      <c r="BF30" s="35">
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="21">
         <v>2014</v>
       </c>
-      <c r="BG30" s="36"/>
-      <c r="BH30" s="36"/>
-      <c r="BI30" s="36"/>
-      <c r="BJ30" s="35">
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="21">
         <v>2015</v>
       </c>
-      <c r="BK30" s="36"/>
-      <c r="BL30" s="36"/>
-      <c r="BM30" s="36"/>
-      <c r="BN30" s="35">
+      <c r="BK30" s="22"/>
+      <c r="BL30" s="22"/>
+      <c r="BM30" s="22"/>
+      <c r="BN30" s="21">
         <v>2016</v>
       </c>
-      <c r="BO30" s="36"/>
-      <c r="BP30" s="36"/>
-      <c r="BQ30" s="36"/>
-      <c r="BR30" s="35">
+      <c r="BO30" s="22"/>
+      <c r="BP30" s="22"/>
+      <c r="BQ30" s="22"/>
+      <c r="BR30" s="21">
         <v>2017</v>
       </c>
-      <c r="BS30" s="36"/>
-      <c r="BT30" s="36"/>
-      <c r="BU30" s="36"/>
-      <c r="BV30" s="35">
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="22"/>
+      <c r="BU30" s="22"/>
+      <c r="BV30" s="21">
         <v>2018</v>
       </c>
-      <c r="BW30" s="36"/>
-      <c r="BX30" s="36"/>
-      <c r="BY30" s="36"/>
-      <c r="BZ30" s="38">
+      <c r="BW30" s="22"/>
+      <c r="BX30" s="22"/>
+      <c r="BY30" s="22"/>
+      <c r="BZ30" s="21">
         <v>2019</v>
       </c>
-      <c r="CA30" s="39"/>
-      <c r="CB30" s="39"/>
-      <c r="CC30" s="39"/>
-      <c r="CD30" s="38">
+      <c r="CA30" s="22"/>
+      <c r="CB30" s="22"/>
+      <c r="CC30" s="22"/>
+      <c r="CD30" s="21">
         <v>2020</v>
       </c>
-      <c r="CE30" s="38"/>
-      <c r="CF30" s="38"/>
-      <c r="CG30" s="38"/>
-      <c r="CH30" s="38">
+      <c r="CE30" s="22"/>
+      <c r="CF30" s="22"/>
+      <c r="CG30" s="22"/>
+      <c r="CH30" s="21">
         <v>2021</v>
       </c>
-      <c r="CI30" s="38"/>
-      <c r="CJ30" s="38"/>
-      <c r="CK30" s="38"/>
-      <c r="CL30" s="27">
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="21">
         <v>2022</v>
       </c>
+      <c r="CM30" s="21"/>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26710,50 +26705,53 @@
       <c r="BY31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ31" s="18" t="s">
+      <c r="BZ31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA31" s="18" t="s">
+      <c r="CA31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB31" s="18" t="s">
+      <c r="CB31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC31" s="18" t="s">
+      <c r="CC31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD31" s="18" t="s">
+      <c r="CD31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE31" s="18" t="s">
+      <c r="CE31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF31" s="18" t="s">
+      <c r="CF31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG31" s="18" t="s">
+      <c r="CG31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH31" s="18" t="s">
+      <c r="CH31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI31" s="18" t="s">
+      <c r="CI31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ31" s="18" t="s">
+      <c r="CJ31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK31" s="18" t="s">
+      <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="18" t="s">
+      <c r="CL31" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM31" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -26985,46 +26983,48 @@
       <c r="BY33" s="8">
         <v>108390.35450855801</v>
       </c>
-      <c r="BZ33" s="19">
+      <c r="BZ33" s="8">
         <v>102431.50392162605</v>
       </c>
-      <c r="CA33" s="19">
+      <c r="CA33" s="8">
         <v>125941.7515986575</v>
       </c>
-      <c r="CB33" s="19">
+      <c r="CB33" s="8">
         <v>140881.36133726753</v>
       </c>
-      <c r="CC33" s="19">
+      <c r="CC33" s="8">
         <v>114322.37498963406</v>
       </c>
-      <c r="CD33" s="19">
+      <c r="CD33" s="8">
         <v>108001.76254983651</v>
       </c>
-      <c r="CE33" s="19">
+      <c r="CE33" s="8">
         <v>114253.15663416451</v>
       </c>
-      <c r="CF33" s="19">
+      <c r="CF33" s="8">
         <v>140594.97464340663</v>
       </c>
-      <c r="CG33" s="19">
+      <c r="CG33" s="8">
         <v>114844.72759182457</v>
       </c>
-      <c r="CH33" s="19">
+      <c r="CH33" s="8">
         <v>109060.05275456735</v>
       </c>
-      <c r="CI33" s="19">
+      <c r="CI33" s="8">
         <v>127275.53889486621</v>
       </c>
-      <c r="CJ33" s="19">
+      <c r="CJ33" s="8">
         <v>145871.51281960148</v>
       </c>
-      <c r="CK33" s="19">
+      <c r="CK33" s="8">
         <v>119933.59702556206</v>
       </c>
-      <c r="CL33" s="19">
-        <v>116448.15745941042</v>
-      </c>
-      <c r="CM33" s="9"/>
+      <c r="CL33" s="8">
+        <v>116095.45299468466</v>
+      </c>
+      <c r="CM33" s="8">
+        <v>133220.86801271921</v>
+      </c>
       <c r="CN33" s="9"/>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
@@ -27087,7 +27087,7 @@
       <c r="EU33" s="9"/>
       <c r="EV33" s="9"/>
     </row>
-    <row r="34" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -27319,46 +27319,48 @@
       <c r="BY34" s="8">
         <v>2761.6625347379131</v>
       </c>
-      <c r="BZ34" s="19">
+      <c r="BZ34" s="8">
         <v>3047.4329345269971</v>
       </c>
-      <c r="CA34" s="19">
+      <c r="CA34" s="8">
         <v>2913.7389677677497</v>
       </c>
-      <c r="CB34" s="19">
+      <c r="CB34" s="8">
         <v>2432.0914819390237</v>
       </c>
-      <c r="CC34" s="19">
+      <c r="CC34" s="8">
         <v>2830.6406920104287</v>
       </c>
-      <c r="CD34" s="19">
+      <c r="CD34" s="8">
         <v>3217.1062961332796</v>
       </c>
-      <c r="CE34" s="19">
+      <c r="CE34" s="8">
         <v>3044.3831458931741</v>
       </c>
-      <c r="CF34" s="19">
+      <c r="CF34" s="8">
         <v>2500.9892765183431</v>
       </c>
-      <c r="CG34" s="19">
+      <c r="CG34" s="8">
         <v>2796.3648387952212</v>
       </c>
-      <c r="CH34" s="19">
+      <c r="CH34" s="8">
         <v>3313.5325010148181</v>
       </c>
-      <c r="CI34" s="19">
+      <c r="CI34" s="8">
         <v>2832.3672064673701</v>
       </c>
-      <c r="CJ34" s="19">
+      <c r="CJ34" s="8">
         <v>2303.6990384853302</v>
       </c>
-      <c r="CK34" s="19">
+      <c r="CK34" s="8">
         <v>2957.4612432783179</v>
       </c>
-      <c r="CL34" s="19">
+      <c r="CL34" s="8">
         <v>2995.4632546905109</v>
       </c>
-      <c r="CM34" s="9"/>
+      <c r="CM34" s="8">
+        <v>2954.8050504315738</v>
+      </c>
       <c r="CN34" s="9"/>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
@@ -27421,7 +27423,7 @@
       <c r="EU34" s="9"/>
       <c r="EV34" s="9"/>
     </row>
-    <row r="35" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27653,46 +27655,48 @@
       <c r="BY35" s="8">
         <v>22381.984121684269</v>
       </c>
-      <c r="BZ35" s="19">
+      <c r="BZ35" s="8">
         <v>22279.914573627942</v>
       </c>
-      <c r="CA35" s="19">
+      <c r="CA35" s="8">
         <v>21784.566819635125</v>
       </c>
-      <c r="CB35" s="19">
+      <c r="CB35" s="8">
         <v>21876.764303855827</v>
       </c>
-      <c r="CC35" s="19">
+      <c r="CC35" s="8">
         <v>23583.718351503543</v>
       </c>
-      <c r="CD35" s="19">
+      <c r="CD35" s="8">
         <v>23071.881126262087</v>
       </c>
-      <c r="CE35" s="19">
+      <c r="CE35" s="8">
         <v>23516.389678873442</v>
       </c>
-      <c r="CF35" s="19">
+      <c r="CF35" s="8">
         <v>22293.84788494472</v>
       </c>
-      <c r="CG35" s="19">
+      <c r="CG35" s="8">
         <v>23965.395967115615</v>
       </c>
-      <c r="CH35" s="19">
+      <c r="CH35" s="8">
         <v>23321.373401767531</v>
       </c>
-      <c r="CI35" s="19">
+      <c r="CI35" s="8">
         <v>24043.473183797974</v>
       </c>
-      <c r="CJ35" s="19">
+      <c r="CJ35" s="8">
         <v>22139.93755930219</v>
       </c>
-      <c r="CK35" s="19">
+      <c r="CK35" s="8">
         <v>24719.955784756323</v>
       </c>
-      <c r="CL35" s="19">
-        <v>24063.471741691585</v>
-      </c>
-      <c r="CM35" s="9"/>
+      <c r="CL35" s="8">
+        <v>24188.243132842203</v>
+      </c>
+      <c r="CM35" s="8">
+        <v>26295.254077144506</v>
+      </c>
       <c r="CN35" s="9"/>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
@@ -27755,7 +27759,7 @@
       <c r="EU35" s="9"/>
       <c r="EV35" s="9"/>
     </row>
-    <row r="36" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -27987,46 +27991,48 @@
       <c r="BY36" s="8">
         <v>1741.1971204188453</v>
       </c>
-      <c r="BZ36" s="19">
+      <c r="BZ36" s="8">
         <v>1785.2554797105533</v>
       </c>
-      <c r="CA36" s="19">
+      <c r="CA36" s="8">
         <v>1555.8051581405723</v>
       </c>
-      <c r="CB36" s="19">
+      <c r="CB36" s="8">
         <v>1829.7199444468843</v>
       </c>
-      <c r="CC36" s="19">
+      <c r="CC36" s="8">
         <v>1815.3553965872513</v>
       </c>
-      <c r="CD36" s="19">
+      <c r="CD36" s="8">
         <v>1590.9291541957946</v>
       </c>
-      <c r="CE36" s="19">
+      <c r="CE36" s="8">
         <v>1663.1479108978665</v>
       </c>
-      <c r="CF36" s="19">
+      <c r="CF36" s="8">
         <v>1913.0425476003575</v>
       </c>
-      <c r="CG36" s="19">
+      <c r="CG36" s="8">
         <v>1944.9366148857139</v>
       </c>
-      <c r="CH36" s="19">
+      <c r="CH36" s="8">
         <v>1704.4969981261102</v>
       </c>
-      <c r="CI36" s="19">
+      <c r="CI36" s="8">
         <v>1815.2171287477922</v>
       </c>
-      <c r="CJ36" s="19">
+      <c r="CJ36" s="8">
         <v>2054.5974157759247</v>
       </c>
-      <c r="CK36" s="19">
+      <c r="CK36" s="8">
         <v>2158.6083456663318</v>
       </c>
-      <c r="CL36" s="19">
-        <v>1830.9098394516477</v>
-      </c>
-      <c r="CM36" s="9"/>
+      <c r="CL36" s="8">
+        <v>1867.0893740391693</v>
+      </c>
+      <c r="CM36" s="8">
+        <v>1930.5243929577609</v>
+      </c>
       <c r="CN36" s="9"/>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
@@ -28089,7 +28095,7 @@
       <c r="EU36" s="9"/>
       <c r="EV36" s="9"/>
     </row>
-    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -28166,20 +28172,20 @@
       <c r="BW37" s="10"/>
       <c r="BX37" s="10"/>
       <c r="BY37" s="10"/>
-      <c r="BZ37" s="20"/>
-      <c r="CA37" s="20"/>
-      <c r="CB37" s="20"/>
-      <c r="CC37" s="20"/>
-      <c r="CD37" s="20"/>
-      <c r="CE37" s="20"/>
-      <c r="CF37" s="20"/>
-      <c r="CG37" s="20"/>
-      <c r="CH37" s="20"/>
-      <c r="CI37" s="20"/>
-      <c r="CJ37" s="20"/>
-      <c r="CK37" s="20"/>
-      <c r="CL37" s="20"/>
-      <c r="CM37" s="9"/>
+      <c r="BZ37" s="10"/>
+      <c r="CA37" s="10"/>
+      <c r="CB37" s="10"/>
+      <c r="CC37" s="10"/>
+      <c r="CD37" s="10"/>
+      <c r="CE37" s="10"/>
+      <c r="CF37" s="10"/>
+      <c r="CG37" s="10"/>
+      <c r="CH37" s="10"/>
+      <c r="CI37" s="10"/>
+      <c r="CJ37" s="10"/>
+      <c r="CK37" s="10"/>
+      <c r="CL37" s="10"/>
+      <c r="CM37" s="10"/>
       <c r="CN37" s="9"/>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
@@ -28242,7 +28248,7 @@
       <c r="EU37" s="9"/>
       <c r="EV37" s="9"/>
     </row>
-    <row r="38" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
@@ -28474,46 +28480,48 @@
       <c r="BY38" s="12">
         <v>135275.19828539906</v>
       </c>
-      <c r="BZ38" s="21">
+      <c r="BZ38" s="12">
         <v>129544.10690949154</v>
       </c>
-      <c r="CA38" s="21">
+      <c r="CA38" s="12">
         <v>152195.86254420097</v>
       </c>
-      <c r="CB38" s="21">
+      <c r="CB38" s="12">
         <v>167019.93706750925</v>
       </c>
-      <c r="CC38" s="21">
+      <c r="CC38" s="12">
         <v>142552.08942973529</v>
       </c>
-      <c r="CD38" s="21">
+      <c r="CD38" s="12">
         <v>135881.67912642765</v>
       </c>
-      <c r="CE38" s="21">
+      <c r="CE38" s="12">
         <v>142477.07736982897</v>
       </c>
-      <c r="CF38" s="21">
+      <c r="CF38" s="12">
         <v>167302.85435247005</v>
       </c>
-      <c r="CG38" s="21">
+      <c r="CG38" s="12">
         <v>143551.42501262113</v>
       </c>
-      <c r="CH38" s="21">
+      <c r="CH38" s="12">
         <v>137399.45565547582</v>
       </c>
-      <c r="CI38" s="21">
+      <c r="CI38" s="12">
         <v>155966.59641387934</v>
       </c>
-      <c r="CJ38" s="21">
+      <c r="CJ38" s="12">
         <v>172369.74683316494</v>
       </c>
-      <c r="CK38" s="21">
+      <c r="CK38" s="12">
         <v>149769.62239926303</v>
       </c>
-      <c r="CL38" s="21">
-        <v>145338.00229524414</v>
-      </c>
-      <c r="CM38" s="9"/>
+      <c r="CL38" s="12">
+        <v>145146.24875625654</v>
+      </c>
+      <c r="CM38" s="12">
+        <v>164401.45153325304</v>
+      </c>
       <c r="CN38" s="9"/>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
@@ -28576,7 +28584,7 @@
       <c r="EU38" s="9"/>
       <c r="EV38" s="9"/>
     </row>
-    <row r="39" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -28654,26 +28662,27 @@
       <c r="BW39" s="13"/>
       <c r="BX39" s="13"/>
       <c r="BY39" s="13"/>
-      <c r="BZ39" s="22"/>
-      <c r="CA39" s="22"/>
-      <c r="CB39" s="22"/>
-      <c r="CC39" s="22"/>
-      <c r="CD39" s="22"/>
-      <c r="CE39" s="22"/>
-      <c r="CF39" s="22"/>
-      <c r="CG39" s="22"/>
-      <c r="CH39" s="22"/>
-      <c r="CI39" s="22"/>
-      <c r="CJ39" s="22"/>
-      <c r="CK39" s="22"/>
-      <c r="CL39" s="22"/>
+      <c r="BZ39" s="13"/>
+      <c r="CA39" s="13"/>
+      <c r="CB39" s="13"/>
+      <c r="CC39" s="13"/>
+      <c r="CD39" s="13"/>
+      <c r="CE39" s="13"/>
+      <c r="CF39" s="13"/>
+      <c r="CG39" s="13"/>
+      <c r="CH39" s="13"/>
+      <c r="CI39" s="13"/>
+      <c r="CJ39" s="13"/>
+      <c r="CK39" s="13"/>
+      <c r="CL39" s="13"/>
+      <c r="CM39" s="13"/>
     </row>
-    <row r="40" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28750,19 +28759,19 @@
       <c r="BW41" s="9"/>
       <c r="BX41" s="9"/>
       <c r="BY41" s="9"/>
-      <c r="BZ41" s="23"/>
-      <c r="CA41" s="23"/>
-      <c r="CB41" s="23"/>
-      <c r="CC41" s="23"/>
-      <c r="CD41" s="23"/>
-      <c r="CE41" s="23"/>
-      <c r="CF41" s="23"/>
-      <c r="CG41" s="23"/>
-      <c r="CH41" s="23"/>
-      <c r="CI41" s="23"/>
-      <c r="CJ41" s="23"/>
-      <c r="CK41" s="23"/>
-      <c r="CL41" s="23"/>
+      <c r="BZ41" s="9"/>
+      <c r="CA41" s="9"/>
+      <c r="CB41" s="9"/>
+      <c r="CC41" s="9"/>
+      <c r="CD41" s="9"/>
+      <c r="CE41" s="9"/>
+      <c r="CF41" s="9"/>
+      <c r="CG41" s="9"/>
+      <c r="CH41" s="9"/>
+      <c r="CI41" s="9"/>
+      <c r="CJ41" s="9"/>
+      <c r="CK41" s="9"/>
+      <c r="CL41" s="9"/>
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
@@ -28826,7 +28835,7 @@
       <c r="EU41" s="9"/>
       <c r="EV41" s="9"/>
     </row>
-    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -28903,19 +28912,19 @@
       <c r="BW42" s="9"/>
       <c r="BX42" s="9"/>
       <c r="BY42" s="9"/>
-      <c r="BZ42" s="23"/>
-      <c r="CA42" s="23"/>
-      <c r="CB42" s="23"/>
-      <c r="CC42" s="23"/>
-      <c r="CD42" s="23"/>
-      <c r="CE42" s="23"/>
-      <c r="CF42" s="23"/>
-      <c r="CG42" s="23"/>
-      <c r="CH42" s="23"/>
-      <c r="CI42" s="23"/>
-      <c r="CJ42" s="23"/>
-      <c r="CK42" s="23"/>
-      <c r="CL42" s="23"/>
+      <c r="BZ42" s="9"/>
+      <c r="CA42" s="9"/>
+      <c r="CB42" s="9"/>
+      <c r="CC42" s="9"/>
+      <c r="CD42" s="9"/>
+      <c r="CE42" s="9"/>
+      <c r="CF42" s="9"/>
+      <c r="CG42" s="9"/>
+      <c r="CH42" s="9"/>
+      <c r="CI42" s="9"/>
+      <c r="CJ42" s="9"/>
+      <c r="CK42" s="9"/>
+      <c r="CL42" s="9"/>
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
@@ -28979,191 +28988,174 @@
       <c r="EU42" s="9"/>
       <c r="EV42" s="9"/>
     </row>
-    <row r="43" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="CI48" s="28"/>
-      <c r="CJ48" s="28"/>
-      <c r="CK48" s="28"/>
-      <c r="CL48" s="28"/>
-      <c r="CM48" s="29"/>
     </row>
-    <row r="49" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CI49" s="28"/>
-      <c r="CJ49" s="28"/>
-      <c r="CK49" s="28"/>
-      <c r="CL49" s="28"/>
-      <c r="CM49" s="29"/>
     </row>
-    <row r="50" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CI50" s="28"/>
-      <c r="CJ50" s="28"/>
-      <c r="CK50" s="28"/>
-      <c r="CL50" s="28"/>
-      <c r="CM50" s="29"/>
+    <row r="51" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A51" s="4"/>
+      <c r="B51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC51" s="21"/>
+      <c r="BD51" s="21"/>
+      <c r="BE51" s="21"/>
+      <c r="BF51" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG51" s="21"/>
+      <c r="BH51" s="21"/>
+      <c r="BI51" s="21"/>
+      <c r="BJ51" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="21"/>
+      <c r="BM51" s="21"/>
+      <c r="BN51" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO51" s="21"/>
+      <c r="BP51" s="21"/>
+      <c r="BQ51" s="21"/>
+      <c r="BR51" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS51" s="21"/>
+      <c r="BT51" s="21"/>
+      <c r="BU51" s="21"/>
+      <c r="BV51" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW51" s="21"/>
+      <c r="BX51" s="21"/>
+      <c r="BY51" s="21"/>
+      <c r="BZ51" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA51" s="21"/>
+      <c r="CB51" s="21"/>
+      <c r="CC51" s="21"/>
+      <c r="CD51" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE51" s="21"/>
+      <c r="CF51" s="21"/>
+      <c r="CG51" s="21"/>
+      <c r="CH51" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI51" s="21"/>
+      <c r="CJ51" s="18"/>
+      <c r="CK51" s="18"/>
+      <c r="CL51" s="17"/>
+      <c r="CM51" s="17"/>
     </row>
-    <row r="51" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-      <c r="Z51" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA51" s="35"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="35"/>
-      <c r="AD51" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE51" s="35"/>
-      <c r="AF51" s="35"/>
-      <c r="AG51" s="35"/>
-      <c r="AH51" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI51" s="35"/>
-      <c r="AJ51" s="35"/>
-      <c r="AK51" s="35"/>
-      <c r="AL51" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM51" s="35"/>
-      <c r="AN51" s="35"/>
-      <c r="AO51" s="35"/>
-      <c r="AP51" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ51" s="35"/>
-      <c r="AR51" s="35"/>
-      <c r="AS51" s="35"/>
-      <c r="AT51" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU51" s="35"/>
-      <c r="AV51" s="35"/>
-      <c r="AW51" s="35"/>
-      <c r="AX51" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY51" s="35"/>
-      <c r="AZ51" s="35"/>
-      <c r="BA51" s="35"/>
-      <c r="BB51" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC51" s="35"/>
-      <c r="BD51" s="35"/>
-      <c r="BE51" s="35"/>
-      <c r="BF51" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG51" s="35"/>
-      <c r="BH51" s="35"/>
-      <c r="BI51" s="35"/>
-      <c r="BJ51" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK51" s="35"/>
-      <c r="BL51" s="35"/>
-      <c r="BM51" s="35"/>
-      <c r="BN51" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO51" s="35"/>
-      <c r="BP51" s="35"/>
-      <c r="BQ51" s="35"/>
-      <c r="BR51" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS51" s="35"/>
-      <c r="BT51" s="35"/>
-      <c r="BU51" s="35"/>
-      <c r="BV51" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW51" s="35"/>
-      <c r="BX51" s="35"/>
-      <c r="BY51" s="35"/>
-      <c r="BZ51" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA51" s="38"/>
-      <c r="CB51" s="38"/>
-      <c r="CC51" s="38"/>
-      <c r="CD51" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE51" s="38"/>
-      <c r="CF51" s="38"/>
-      <c r="CG51" s="38"/>
-      <c r="CH51" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI51" s="32"/>
-      <c r="CJ51" s="32"/>
-      <c r="CK51" s="32"/>
-      <c r="CL51" s="33"/>
-      <c r="CM51" s="29"/>
-    </row>
-    <row r="52" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29395,48 +29387,45 @@
       <c r="BY52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ52" s="25" t="s">
+      <c r="BZ52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA52" s="25" t="s">
+      <c r="CA52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB52" s="25" t="s">
+      <c r="CB52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC52" s="25" t="s">
+      <c r="CC52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD52" s="25" t="s">
+      <c r="CD52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE52" s="25" t="s">
+      <c r="CE52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF52" s="25" t="s">
+      <c r="CF52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG52" s="25" t="s">
+      <c r="CG52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH52" s="25" t="s">
+      <c r="CH52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI52" s="32"/>
-      <c r="CJ52" s="32"/>
-      <c r="CK52" s="32"/>
-      <c r="CL52" s="32"/>
-      <c r="CM52" s="29"/>
+      <c r="CI52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ52" s="5"/>
+      <c r="CK52" s="5"/>
+      <c r="CL52" s="5"/>
+      <c r="CM52" s="19"/>
     </row>
-    <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7"/>
-      <c r="CI53" s="28"/>
-      <c r="CJ53" s="28"/>
-      <c r="CK53" s="28"/>
-      <c r="CL53" s="28"/>
-      <c r="CM53" s="29"/>
     </row>
-    <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29668,38 +29657,40 @@
       <c r="BY54" s="15">
         <v>4.8951583509126522</v>
       </c>
-      <c r="BZ54" s="24">
+      <c r="BZ54" s="15">
         <v>4.3735726774849013</v>
       </c>
-      <c r="CA54" s="24">
+      <c r="CA54" s="15">
         <v>-4.6054804960004958</v>
       </c>
-      <c r="CB54" s="24">
+      <c r="CB54" s="15">
         <v>0.75614126860699571</v>
       </c>
-      <c r="CC54" s="24">
+      <c r="CC54" s="15">
         <v>-1.8751862715847949</v>
       </c>
-      <c r="CD54" s="24">
+      <c r="CD54" s="15">
         <v>-0.53998191851570709</v>
       </c>
-      <c r="CE54" s="24">
+      <c r="CE54" s="15">
         <v>14.126067181842245</v>
       </c>
-      <c r="CF54" s="24">
+      <c r="CF54" s="15">
         <v>7.6675106111309077</v>
       </c>
-      <c r="CG54" s="24">
+      <c r="CG54" s="15">
         <v>7.2646504963633589</v>
       </c>
-      <c r="CH54" s="24">
-        <v>20.492040123898605</v>
-      </c>
-      <c r="CI54" s="30"/>
-      <c r="CJ54" s="30"/>
-      <c r="CK54" s="30"/>
-      <c r="CL54" s="30"/>
-      <c r="CM54" s="31"/>
+      <c r="CH54" s="15">
+        <v>20.128618129532597</v>
+      </c>
+      <c r="CI54" s="15">
+        <v>17.341713048634475</v>
+      </c>
+      <c r="CJ54" s="15"/>
+      <c r="CK54" s="15"/>
+      <c r="CL54" s="15"/>
+      <c r="CM54" s="9"/>
       <c r="CN54" s="9"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
@@ -29758,7 +29749,7 @@
       <c r="EQ54" s="9"/>
       <c r="ER54" s="9"/>
     </row>
-    <row r="55" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -29990,38 +29981,40 @@
       <c r="BY55" s="15">
         <v>0.28013983903703377</v>
       </c>
-      <c r="BZ55" s="24">
+      <c r="BZ55" s="15">
         <v>6.1796471075463728</v>
       </c>
-      <c r="CA55" s="24">
+      <c r="CA55" s="15">
         <v>6.9210310745297221</v>
       </c>
-      <c r="CB55" s="24">
+      <c r="CB55" s="15">
         <v>5.2438007816239178</v>
       </c>
-      <c r="CC55" s="24">
+      <c r="CC55" s="15">
         <v>0.64536861287317038</v>
       </c>
-      <c r="CD55" s="24">
+      <c r="CD55" s="15">
         <v>1.3699389236369512</v>
       </c>
-      <c r="CE55" s="24">
+      <c r="CE55" s="15">
         <v>-5.567566827594348</v>
       </c>
-      <c r="CF55" s="24">
+      <c r="CF55" s="15">
         <v>-6.5068152824021013</v>
       </c>
-      <c r="CG55" s="24">
+      <c r="CG55" s="15">
         <v>7.5545804384330495</v>
       </c>
-      <c r="CH55" s="24">
+      <c r="CH55" s="15">
         <v>-4.8657848848455529</v>
       </c>
-      <c r="CI55" s="30"/>
-      <c r="CJ55" s="30"/>
-      <c r="CK55" s="30"/>
-      <c r="CL55" s="30"/>
-      <c r="CM55" s="31"/>
+      <c r="CI55" s="15">
+        <v>10.175778339871471</v>
+      </c>
+      <c r="CJ55" s="15"/>
+      <c r="CK55" s="15"/>
+      <c r="CL55" s="15"/>
+      <c r="CM55" s="9"/>
       <c r="CN55" s="9"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
@@ -30080,7 +30073,7 @@
       <c r="EQ55" s="9"/>
       <c r="ER55" s="9"/>
     </row>
-    <row r="56" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30312,38 +30305,40 @@
       <c r="BY56" s="15">
         <v>7.5273045606329134</v>
       </c>
-      <c r="BZ56" s="24">
+      <c r="BZ56" s="15">
         <v>5.1714827137163013</v>
       </c>
-      <c r="CA56" s="24">
+      <c r="CA56" s="15">
         <v>10.480201290620656</v>
       </c>
-      <c r="CB56" s="24">
+      <c r="CB56" s="15">
         <v>4.0460558228729013</v>
       </c>
-      <c r="CC56" s="24">
+      <c r="CC56" s="15">
         <v>3.1112230864289216</v>
       </c>
-      <c r="CD56" s="24">
+      <c r="CD56" s="15">
         <v>1.5665600297433855</v>
       </c>
-      <c r="CE56" s="24">
+      <c r="CE56" s="15">
         <v>3.6956170089859341</v>
       </c>
-      <c r="CF56" s="24">
+      <c r="CF56" s="15">
         <v>0.49141328979440857</v>
       </c>
-      <c r="CG56" s="24">
+      <c r="CG56" s="15">
         <v>3.1961804227578625</v>
       </c>
-      <c r="CH56" s="24">
-        <v>4.2442185709347058</v>
-      </c>
-      <c r="CI56" s="30"/>
-      <c r="CJ56" s="30"/>
-      <c r="CK56" s="30"/>
-      <c r="CL56" s="30"/>
-      <c r="CM56" s="31"/>
+      <c r="CH56" s="15">
+        <v>4.7847347653610512</v>
+      </c>
+      <c r="CI56" s="15">
+        <v>2.8129972019174545</v>
+      </c>
+      <c r="CJ56" s="15"/>
+      <c r="CK56" s="15"/>
+      <c r="CL56" s="15"/>
+      <c r="CM56" s="9"/>
       <c r="CN56" s="9"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
@@ -30402,7 +30397,7 @@
       <c r="EQ56" s="9"/>
       <c r="ER56" s="9"/>
     </row>
-    <row r="57" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30634,38 +30629,40 @@
       <c r="BY57" s="15">
         <v>5.4255968888212891</v>
       </c>
-      <c r="BZ57" s="24">
+      <c r="BZ57" s="15">
         <v>-5.3951810205619211</v>
       </c>
-      <c r="CA57" s="24">
+      <c r="CA57" s="15">
         <v>15.608623592856489</v>
       </c>
-      <c r="CB57" s="24">
+      <c r="CB57" s="15">
         <v>10.749890108035459</v>
       </c>
-      <c r="CC57" s="24">
+      <c r="CC57" s="15">
         <v>13.359556802661075</v>
       </c>
-      <c r="CD57" s="24">
+      <c r="CD57" s="15">
         <v>8.4562632253270493</v>
       </c>
-      <c r="CE57" s="24">
+      <c r="CE57" s="15">
         <v>10.607374200140484</v>
       </c>
-      <c r="CF57" s="24">
+      <c r="CF57" s="15">
         <v>8.6130765455539944</v>
       </c>
-      <c r="CG57" s="24">
+      <c r="CG57" s="15">
         <v>12.390273458207488</v>
       </c>
-      <c r="CH57" s="24">
-        <v>8.9470639756008268</v>
-      </c>
-      <c r="CI57" s="30"/>
-      <c r="CJ57" s="30"/>
-      <c r="CK57" s="30"/>
-      <c r="CL57" s="30"/>
-      <c r="CM57" s="31"/>
+      <c r="CH57" s="15">
+        <v>11.099902954550586</v>
+      </c>
+      <c r="CI57" s="15">
+        <v>7.8615136446056795</v>
+      </c>
+      <c r="CJ57" s="15"/>
+      <c r="CK57" s="15"/>
+      <c r="CL57" s="15"/>
+      <c r="CM57" s="9"/>
       <c r="CN57" s="9"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
@@ -30724,7 +30721,7 @@
       <c r="EQ57" s="9"/>
       <c r="ER57" s="9"/>
     </row>
-    <row r="58" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -30801,20 +30798,20 @@
       <c r="BW58" s="9"/>
       <c r="BX58" s="9"/>
       <c r="BY58" s="9"/>
-      <c r="BZ58" s="23"/>
-      <c r="CA58" s="23"/>
-      <c r="CB58" s="23"/>
-      <c r="CC58" s="23"/>
-      <c r="CD58" s="23"/>
-      <c r="CE58" s="23"/>
-      <c r="CF58" s="23"/>
-      <c r="CG58" s="23"/>
-      <c r="CH58" s="23"/>
-      <c r="CI58" s="30"/>
-      <c r="CJ58" s="30"/>
-      <c r="CK58" s="30"/>
-      <c r="CL58" s="30"/>
-      <c r="CM58" s="31"/>
+      <c r="BZ58" s="9"/>
+      <c r="CA58" s="9"/>
+      <c r="CB58" s="9"/>
+      <c r="CC58" s="9"/>
+      <c r="CD58" s="9"/>
+      <c r="CE58" s="9"/>
+      <c r="CF58" s="9"/>
+      <c r="CG58" s="9"/>
+      <c r="CH58" s="9"/>
+      <c r="CI58" s="9"/>
+      <c r="CJ58" s="9"/>
+      <c r="CK58" s="9"/>
+      <c r="CL58" s="9"/>
+      <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
       <c r="CP58" s="9"/>
@@ -30873,7 +30870,7 @@
       <c r="EQ58" s="9"/>
       <c r="ER58" s="9"/>
     </row>
-    <row r="59" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>15</v>
       </c>
@@ -31105,38 +31102,40 @@
       <c r="BY59" s="15">
         <v>5.2532736997755478</v>
       </c>
-      <c r="BZ59" s="24">
+      <c r="BZ59" s="15">
         <v>4.4160736656379811</v>
       </c>
-      <c r="CA59" s="24">
+      <c r="CA59" s="15">
         <v>-2.3051830982535648</v>
       </c>
-      <c r="CB59" s="24">
+      <c r="CB59" s="15">
         <v>1.5040573017696062</v>
       </c>
-      <c r="CC59" s="24">
+      <c r="CC59" s="15">
         <v>-0.74679728886199825</v>
       </c>
-      <c r="CD59" s="24">
+      <c r="CD59" s="15">
         <v>-7.012713462189879E-2</v>
       </c>
-      <c r="CE59" s="24">
+      <c r="CE59" s="15">
         <v>12.222055956399203</v>
       </c>
-      <c r="CF59" s="24">
+      <c r="CF59" s="15">
         <v>6.2456632647074173</v>
       </c>
-      <c r="CG59" s="24">
+      <c r="CG59" s="15">
         <v>6.6094385981714225</v>
       </c>
-      <c r="CH59" s="24">
-        <v>17.216908355169963</v>
-      </c>
-      <c r="CI59" s="30"/>
-      <c r="CJ59" s="30"/>
-      <c r="CK59" s="30"/>
-      <c r="CL59" s="30"/>
-      <c r="CM59" s="31"/>
+      <c r="CH59" s="15">
+        <v>17.034938959611964</v>
+      </c>
+      <c r="CI59" s="15">
+        <v>15.186749888338099</v>
+      </c>
+      <c r="CJ59" s="15"/>
+      <c r="CK59" s="15"/>
+      <c r="CL59" s="15"/>
+      <c r="CM59" s="9"/>
       <c r="CN59" s="9"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
@@ -31195,7 +31194,7 @@
       <c r="EQ59" s="9"/>
       <c r="ER59" s="9"/>
     </row>
-    <row r="60" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -31273,32 +31272,27 @@
       <c r="BW60" s="13"/>
       <c r="BX60" s="13"/>
       <c r="BY60" s="13"/>
-      <c r="BZ60" s="22"/>
-      <c r="CA60" s="22"/>
-      <c r="CB60" s="22"/>
-      <c r="CC60" s="22"/>
-      <c r="CD60" s="22"/>
-      <c r="CE60" s="22"/>
-      <c r="CF60" s="22"/>
-      <c r="CG60" s="22"/>
-      <c r="CH60" s="22"/>
-      <c r="CI60" s="34"/>
-      <c r="CJ60" s="34"/>
-      <c r="CK60" s="34"/>
-      <c r="CL60" s="34"/>
-      <c r="CM60" s="29"/>
+      <c r="BZ60" s="13"/>
+      <c r="CA60" s="13"/>
+      <c r="CB60" s="13"/>
+      <c r="CC60" s="13"/>
+      <c r="CD60" s="13"/>
+      <c r="CE60" s="13"/>
+      <c r="CF60" s="13"/>
+      <c r="CG60" s="13"/>
+      <c r="CH60" s="13"/>
+      <c r="CI60" s="13"/>
+      <c r="CJ60" s="13"/>
+      <c r="CK60" s="13"/>
+      <c r="CL60" s="13"/>
+      <c r="CM60" s="13"/>
     </row>
-    <row r="61" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CI61" s="28"/>
-      <c r="CJ61" s="28"/>
-      <c r="CK61" s="28"/>
-      <c r="CL61" s="28"/>
-      <c r="CM61" s="29"/>
     </row>
-    <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -31375,20 +31369,20 @@
       <c r="BW62" s="16"/>
       <c r="BX62" s="16"/>
       <c r="BY62" s="16"/>
-      <c r="BZ62" s="26"/>
-      <c r="CA62" s="26"/>
-      <c r="CB62" s="26"/>
-      <c r="CC62" s="26"/>
-      <c r="CD62" s="26"/>
-      <c r="CE62" s="26"/>
-      <c r="CF62" s="26"/>
-      <c r="CG62" s="26"/>
-      <c r="CH62" s="26"/>
-      <c r="CI62" s="30"/>
-      <c r="CJ62" s="30"/>
-      <c r="CK62" s="30"/>
-      <c r="CL62" s="30"/>
-      <c r="CM62" s="31"/>
+      <c r="BZ62" s="16"/>
+      <c r="CA62" s="16"/>
+      <c r="CB62" s="16"/>
+      <c r="CC62" s="16"/>
+      <c r="CD62" s="16"/>
+      <c r="CE62" s="16"/>
+      <c r="CF62" s="16"/>
+      <c r="CG62" s="16"/>
+      <c r="CH62" s="20"/>
+      <c r="CI62" s="20"/>
+      <c r="CJ62" s="20"/>
+      <c r="CK62" s="20"/>
+      <c r="CL62" s="20"/>
+      <c r="CM62" s="9"/>
       <c r="CN62" s="9"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
@@ -31447,7 +31441,7 @@
       <c r="EQ62" s="9"/>
       <c r="ER62" s="9"/>
     </row>
-    <row r="63" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31524,20 +31518,20 @@
       <c r="BW63" s="9"/>
       <c r="BX63" s="9"/>
       <c r="BY63" s="9"/>
-      <c r="BZ63" s="23"/>
-      <c r="CA63" s="23"/>
-      <c r="CB63" s="23"/>
-      <c r="CC63" s="23"/>
-      <c r="CD63" s="23"/>
-      <c r="CE63" s="23"/>
-      <c r="CF63" s="23"/>
-      <c r="CG63" s="23"/>
-      <c r="CH63" s="23"/>
-      <c r="CI63" s="30"/>
-      <c r="CJ63" s="30"/>
-      <c r="CK63" s="30"/>
-      <c r="CL63" s="30"/>
-      <c r="CM63" s="31"/>
+      <c r="BZ63" s="9"/>
+      <c r="CA63" s="9"/>
+      <c r="CB63" s="9"/>
+      <c r="CC63" s="9"/>
+      <c r="CD63" s="9"/>
+      <c r="CE63" s="9"/>
+      <c r="CF63" s="9"/>
+      <c r="CG63" s="9"/>
+      <c r="CH63" s="9"/>
+      <c r="CI63" s="9"/>
+      <c r="CJ63" s="9"/>
+      <c r="CK63" s="9"/>
+      <c r="CL63" s="9"/>
+      <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
       <c r="CP63" s="9"/>
@@ -31596,197 +31590,174 @@
       <c r="EQ63" s="9"/>
       <c r="ER63" s="9"/>
     </row>
-    <row r="64" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CI64" s="28"/>
-      <c r="CJ64" s="28"/>
-      <c r="CK64" s="28"/>
-      <c r="CL64" s="28"/>
-      <c r="CM64" s="29"/>
     </row>
-    <row r="65" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CI65" s="28"/>
-      <c r="CJ65" s="28"/>
-      <c r="CK65" s="28"/>
-      <c r="CL65" s="28"/>
-      <c r="CM65" s="29"/>
     </row>
-    <row r="66" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="CI69" s="28"/>
-      <c r="CJ69" s="28"/>
-      <c r="CK69" s="28"/>
-      <c r="CL69" s="28"/>
     </row>
-    <row r="70" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CI70" s="28"/>
-      <c r="CJ70" s="28"/>
-      <c r="CK70" s="28"/>
-      <c r="CL70" s="28"/>
     </row>
-    <row r="71" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CI71" s="28"/>
-      <c r="CJ71" s="28"/>
-      <c r="CK71" s="28"/>
-      <c r="CL71" s="28"/>
+    <row r="72" spans="1:148" x14ac:dyDescent="0.25">
+      <c r="A72" s="4"/>
+      <c r="B72" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE72" s="23"/>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="23"/>
+      <c r="AL72" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM72" s="23"/>
+      <c r="AN72" s="23"/>
+      <c r="AO72" s="23"/>
+      <c r="AP72" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ72" s="23"/>
+      <c r="AR72" s="23"/>
+      <c r="AS72" s="23"/>
+      <c r="AT72" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU72" s="23"/>
+      <c r="AV72" s="23"/>
+      <c r="AW72" s="23"/>
+      <c r="AX72" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY72" s="23"/>
+      <c r="AZ72" s="23"/>
+      <c r="BA72" s="23"/>
+      <c r="BB72" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC72" s="23"/>
+      <c r="BD72" s="23"/>
+      <c r="BE72" s="23"/>
+      <c r="BF72" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG72" s="23"/>
+      <c r="BH72" s="23"/>
+      <c r="BI72" s="23"/>
+      <c r="BJ72" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK72" s="23"/>
+      <c r="BL72" s="23"/>
+      <c r="BM72" s="23"/>
+      <c r="BN72" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO72" s="23"/>
+      <c r="BP72" s="23"/>
+      <c r="BQ72" s="23"/>
+      <c r="BR72" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="BS72" s="23"/>
+      <c r="BT72" s="23"/>
+      <c r="BU72" s="23"/>
+      <c r="BV72" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="BW72" s="23"/>
+      <c r="BX72" s="23"/>
+      <c r="BY72" s="23"/>
+      <c r="BZ72" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="CA72" s="23"/>
+      <c r="CB72" s="23"/>
+      <c r="CC72" s="23"/>
+      <c r="CD72" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="CE72" s="23"/>
+      <c r="CF72" s="23"/>
+      <c r="CG72" s="23"/>
+      <c r="CH72" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="CI72" s="21"/>
+      <c r="CJ72" s="18"/>
+      <c r="CK72" s="18"/>
+      <c r="CL72" s="17"/>
+      <c r="CM72" s="17"/>
     </row>
-    <row r="72" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="S72" s="37"/>
-      <c r="T72" s="37"/>
-      <c r="U72" s="37"/>
-      <c r="V72" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="W72" s="37"/>
-      <c r="X72" s="37"/>
-      <c r="Y72" s="37"/>
-      <c r="Z72" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA72" s="37"/>
-      <c r="AB72" s="37"/>
-      <c r="AC72" s="37"/>
-      <c r="AD72" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE72" s="37"/>
-      <c r="AF72" s="37"/>
-      <c r="AG72" s="37"/>
-      <c r="AH72" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="AI72" s="37"/>
-      <c r="AJ72" s="37"/>
-      <c r="AK72" s="37"/>
-      <c r="AL72" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM72" s="37"/>
-      <c r="AN72" s="37"/>
-      <c r="AO72" s="37"/>
-      <c r="AP72" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ72" s="37"/>
-      <c r="AR72" s="37"/>
-      <c r="AS72" s="37"/>
-      <c r="AT72" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="AU72" s="37"/>
-      <c r="AV72" s="37"/>
-      <c r="AW72" s="37"/>
-      <c r="AX72" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY72" s="37"/>
-      <c r="AZ72" s="37"/>
-      <c r="BA72" s="37"/>
-      <c r="BB72" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="BC72" s="37"/>
-      <c r="BD72" s="37"/>
-      <c r="BE72" s="37"/>
-      <c r="BF72" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="BG72" s="37"/>
-      <c r="BH72" s="37"/>
-      <c r="BI72" s="37"/>
-      <c r="BJ72" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK72" s="37"/>
-      <c r="BL72" s="37"/>
-      <c r="BM72" s="37"/>
-      <c r="BN72" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="BO72" s="37"/>
-      <c r="BP72" s="37"/>
-      <c r="BQ72" s="37"/>
-      <c r="BR72" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS72" s="37"/>
-      <c r="BT72" s="37"/>
-      <c r="BU72" s="37"/>
-      <c r="BV72" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="BW72" s="37"/>
-      <c r="BX72" s="37"/>
-      <c r="BY72" s="37"/>
-      <c r="BZ72" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="CA72" s="38"/>
-      <c r="CB72" s="38"/>
-      <c r="CC72" s="38"/>
-      <c r="CD72" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="CE72" s="38"/>
-      <c r="CF72" s="38"/>
-      <c r="CG72" s="38"/>
-      <c r="CH72" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="CI72" s="32"/>
-      <c r="CJ72" s="32"/>
-      <c r="CK72" s="32"/>
-      <c r="CL72" s="33"/>
-    </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -32018,46 +31989,45 @@
       <c r="BY73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="BZ73" s="25" t="s">
+      <c r="BZ73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CA73" s="25" t="s">
+      <c r="CA73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CB73" s="25" t="s">
+      <c r="CB73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CC73" s="25" t="s">
+      <c r="CC73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD73" s="25" t="s">
+      <c r="CD73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CE73" s="25" t="s">
+      <c r="CE73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CF73" s="25" t="s">
+      <c r="CF73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CG73" s="25" t="s">
+      <c r="CG73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CH73" s="25" t="s">
+      <c r="CH73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CI73" s="32"/>
-      <c r="CJ73" s="32"/>
-      <c r="CK73" s="32"/>
-      <c r="CL73" s="32"/>
+      <c r="CI73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CJ73" s="5"/>
+      <c r="CK73" s="5"/>
+      <c r="CL73" s="5"/>
+      <c r="CM73" s="19"/>
     </row>
-    <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="7"/>
-      <c r="CI74" s="28"/>
-      <c r="CJ74" s="28"/>
-      <c r="CK74" s="28"/>
-      <c r="CL74" s="28"/>
     </row>
-    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32289,37 +32259,39 @@
       <c r="BY75" s="15">
         <v>5.4728305926960275</v>
       </c>
-      <c r="BZ75" s="24">
+      <c r="BZ75" s="15">
         <v>5.4380326510410839</v>
       </c>
-      <c r="CA75" s="24">
+      <c r="CA75" s="15">
         <v>-9.2809531518518185</v>
       </c>
-      <c r="CB75" s="24">
+      <c r="CB75" s="15">
         <v>-0.20328217383936931</v>
       </c>
-      <c r="CC75" s="24">
+      <c r="CC75" s="15">
         <v>0.45691195816905861</v>
       </c>
-      <c r="CD75" s="24">
+      <c r="CD75" s="15">
         <v>0.97988234612607528</v>
       </c>
-      <c r="CE75" s="24">
+      <c r="CE75" s="15">
         <v>11.397831486091036</v>
       </c>
-      <c r="CF75" s="24">
+      <c r="CF75" s="15">
         <v>3.7530062433439184</v>
       </c>
-      <c r="CG75" s="24">
+      <c r="CG75" s="15">
         <v>4.4310866858634483</v>
       </c>
-      <c r="CH75" s="24">
-        <v>6.774345434684065</v>
-      </c>
-      <c r="CI75" s="30"/>
-      <c r="CJ75" s="30"/>
-      <c r="CK75" s="30"/>
-      <c r="CL75" s="30"/>
+      <c r="CH75" s="15">
+        <v>6.4509415339730509</v>
+      </c>
+      <c r="CI75" s="15">
+        <v>4.6712268276184972</v>
+      </c>
+      <c r="CJ75" s="15"/>
+      <c r="CK75" s="15"/>
+      <c r="CL75" s="15"/>
       <c r="CM75" s="9"/>
       <c r="CN75" s="9"/>
       <c r="CO75" s="9"/>
@@ -32379,7 +32351,7 @@
       <c r="EQ75" s="9"/>
       <c r="ER75" s="9"/>
     </row>
-    <row r="76" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -32611,37 +32583,39 @@
       <c r="BY76" s="15">
         <v>2.497704060683219</v>
       </c>
-      <c r="BZ76" s="24">
+      <c r="BZ76" s="15">
         <v>5.5677471908866778</v>
       </c>
-      <c r="CA76" s="24">
+      <c r="CA76" s="15">
         <v>4.4837296535699096</v>
       </c>
-      <c r="CB76" s="24">
+      <c r="CB76" s="15">
         <v>2.8328619663759298</v>
       </c>
-      <c r="CC76" s="24">
+      <c r="CC76" s="15">
         <v>-1.2108867547884898</v>
       </c>
-      <c r="CD76" s="24">
+      <c r="CD76" s="15">
         <v>2.9972962036546704</v>
       </c>
-      <c r="CE76" s="24">
+      <c r="CE76" s="15">
         <v>-6.9641674278682757</v>
       </c>
-      <c r="CF76" s="24">
+      <c r="CF76" s="15">
         <v>-7.8884879629577256</v>
       </c>
-      <c r="CG76" s="24">
+      <c r="CG76" s="15">
         <v>5.7609222605052821</v>
       </c>
-      <c r="CH76" s="24">
+      <c r="CH76" s="15">
         <v>-9.5990984312631156</v>
       </c>
-      <c r="CI76" s="30"/>
-      <c r="CJ76" s="30"/>
-      <c r="CK76" s="30"/>
-      <c r="CL76" s="30"/>
+      <c r="CI76" s="15">
+        <v>4.3228096867041756</v>
+      </c>
+      <c r="CJ76" s="15"/>
+      <c r="CK76" s="15"/>
+      <c r="CL76" s="15"/>
       <c r="CM76" s="9"/>
       <c r="CN76" s="9"/>
       <c r="CO76" s="9"/>
@@ -32701,7 +32675,7 @@
       <c r="EQ76" s="9"/>
       <c r="ER76" s="9"/>
     </row>
-    <row r="77" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -32933,37 +32907,39 @@
       <c r="BY77" s="15">
         <v>5.3692032988934386</v>
       </c>
-      <c r="BZ77" s="24">
+      <c r="BZ77" s="15">
         <v>3.5546211365261371</v>
       </c>
-      <c r="CA77" s="24">
+      <c r="CA77" s="15">
         <v>7.9497695482169064</v>
       </c>
-      <c r="CB77" s="24">
+      <c r="CB77" s="15">
         <v>1.9065140314894649</v>
       </c>
-      <c r="CC77" s="24">
+      <c r="CC77" s="15">
         <v>1.618394563246369</v>
       </c>
-      <c r="CD77" s="24">
+      <c r="CD77" s="15">
         <v>1.0813694563528884</v>
       </c>
-      <c r="CE77" s="24">
+      <c r="CE77" s="15">
         <v>2.2413453430653476</v>
       </c>
-      <c r="CF77" s="24">
+      <c r="CF77" s="15">
         <v>-0.69037129183278978</v>
       </c>
-      <c r="CG77" s="24">
+      <c r="CG77" s="15">
         <v>3.1485389128395269</v>
       </c>
-      <c r="CH77" s="24">
-        <v>3.1820524766685025</v>
-      </c>
-      <c r="CI77" s="30"/>
-      <c r="CJ77" s="30"/>
-      <c r="CK77" s="30"/>
-      <c r="CL77" s="30"/>
+      <c r="CH77" s="15">
+        <v>3.7170612388075313</v>
+      </c>
+      <c r="CI77" s="15">
+        <v>9.3654559644233331</v>
+      </c>
+      <c r="CJ77" s="15"/>
+      <c r="CK77" s="15"/>
+      <c r="CL77" s="15"/>
       <c r="CM77" s="9"/>
       <c r="CN77" s="9"/>
       <c r="CO77" s="9"/>
@@ -33023,7 +32999,7 @@
       <c r="EQ77" s="9"/>
       <c r="ER77" s="9"/>
     </row>
-    <row r="78" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33255,37 +33231,39 @@
       <c r="BY78" s="15">
         <v>4.2590396744147654</v>
       </c>
-      <c r="BZ78" s="24">
+      <c r="BZ78" s="15">
         <v>-10.885070944930817</v>
       </c>
-      <c r="CA78" s="24">
+      <c r="CA78" s="15">
         <v>6.8994984491236266</v>
       </c>
-      <c r="CB78" s="24">
+      <c r="CB78" s="15">
         <v>4.55384461465556</v>
       </c>
-      <c r="CC78" s="24">
+      <c r="CC78" s="15">
         <v>7.138063353438497</v>
       </c>
-      <c r="CD78" s="24">
+      <c r="CD78" s="15">
         <v>7.1384601652940063</v>
       </c>
-      <c r="CE78" s="24">
+      <c r="CE78" s="15">
         <v>9.1434572267135081</v>
       </c>
-      <c r="CF78" s="24">
+      <c r="CF78" s="15">
         <v>7.3994626179709257</v>
       </c>
-      <c r="CG78" s="24">
+      <c r="CG78" s="15">
         <v>10.986051120908826</v>
       </c>
-      <c r="CH78" s="24">
-        <v>7.4164308569926192</v>
-      </c>
-      <c r="CI78" s="30"/>
-      <c r="CJ78" s="30"/>
-      <c r="CK78" s="30"/>
-      <c r="CL78" s="30"/>
+      <c r="CH78" s="15">
+        <v>9.539023893372061</v>
+      </c>
+      <c r="CI78" s="15">
+        <v>6.3522573902501875</v>
+      </c>
+      <c r="CJ78" s="15"/>
+      <c r="CK78" s="15"/>
+      <c r="CL78" s="15"/>
       <c r="CM78" s="9"/>
       <c r="CN78" s="9"/>
       <c r="CO78" s="9"/>
@@ -33345,7 +33323,7 @@
       <c r="EQ78" s="9"/>
       <c r="ER78" s="9"/>
     </row>
-    <row r="79" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33422,19 +33400,19 @@
       <c r="BW79" s="9"/>
       <c r="BX79" s="9"/>
       <c r="BY79" s="9"/>
-      <c r="BZ79" s="23"/>
-      <c r="CA79" s="23"/>
-      <c r="CB79" s="23"/>
-      <c r="CC79" s="23"/>
-      <c r="CD79" s="23"/>
-      <c r="CE79" s="23"/>
-      <c r="CF79" s="23"/>
-      <c r="CG79" s="23"/>
-      <c r="CH79" s="23"/>
-      <c r="CI79" s="30"/>
-      <c r="CJ79" s="30"/>
-      <c r="CK79" s="30"/>
-      <c r="CL79" s="30"/>
+      <c r="BZ79" s="9"/>
+      <c r="CA79" s="9"/>
+      <c r="CB79" s="9"/>
+      <c r="CC79" s="9"/>
+      <c r="CD79" s="9"/>
+      <c r="CE79" s="9"/>
+      <c r="CF79" s="9"/>
+      <c r="CG79" s="9"/>
+      <c r="CH79" s="9"/>
+      <c r="CI79" s="9"/>
+      <c r="CJ79" s="9"/>
+      <c r="CK79" s="9"/>
+      <c r="CL79" s="9"/>
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
@@ -33494,7 +33472,7 @@
       <c r="EQ79" s="9"/>
       <c r="ER79" s="9"/>
     </row>
-    <row r="80" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>15</v>
       </c>
@@ -33726,37 +33704,39 @@
       <c r="BY80" s="15">
         <v>5.3793239533707293</v>
       </c>
-      <c r="BZ80" s="24">
+      <c r="BZ80" s="15">
         <v>4.8922119022859079</v>
       </c>
-      <c r="CA80" s="24">
+      <c r="CA80" s="15">
         <v>-6.3857091854579409</v>
       </c>
-      <c r="CB80" s="24">
+      <c r="CB80" s="15">
         <v>0.16939132532809253</v>
       </c>
-      <c r="CC80" s="24">
+      <c r="CC80" s="15">
         <v>0.70103187324967564</v>
       </c>
-      <c r="CD80" s="24">
+      <c r="CD80" s="15">
         <v>1.1169839369117511</v>
       </c>
-      <c r="CE80" s="24">
+      <c r="CE80" s="15">
         <v>9.4678521577443036</v>
       </c>
-      <c r="CF80" s="24">
+      <c r="CF80" s="15">
         <v>3.0285750355580205</v>
       </c>
-      <c r="CG80" s="24">
+      <c r="CG80" s="15">
         <v>4.3316862832223393</v>
       </c>
-      <c r="CH80" s="24">
-        <v>5.777713311815404</v>
-      </c>
-      <c r="CI80" s="30"/>
-      <c r="CJ80" s="30"/>
-      <c r="CK80" s="30"/>
-      <c r="CL80" s="30"/>
+      <c r="CH80" s="15">
+        <v>5.6381541424774753</v>
+      </c>
+      <c r="CI80" s="15">
+        <v>5.4081164257701886</v>
+      </c>
+      <c r="CJ80" s="15"/>
+      <c r="CK80" s="15"/>
+      <c r="CL80" s="15"/>
       <c r="CM80" s="9"/>
       <c r="CN80" s="9"/>
       <c r="CO80" s="9"/>
@@ -33816,7 +33796,7 @@
       <c r="EQ80" s="9"/>
       <c r="ER80" s="9"/>
     </row>
-    <row r="81" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -33894,30 +33874,27 @@
       <c r="BW81" s="13"/>
       <c r="BX81" s="13"/>
       <c r="BY81" s="13"/>
-      <c r="BZ81" s="22"/>
-      <c r="CA81" s="22"/>
-      <c r="CB81" s="22"/>
-      <c r="CC81" s="22"/>
-      <c r="CD81" s="22"/>
-      <c r="CE81" s="22"/>
-      <c r="CF81" s="22"/>
-      <c r="CG81" s="22"/>
-      <c r="CH81" s="22"/>
-      <c r="CI81" s="34"/>
-      <c r="CJ81" s="34"/>
-      <c r="CK81" s="34"/>
-      <c r="CL81" s="34"/>
+      <c r="BZ81" s="13"/>
+      <c r="CA81" s="13"/>
+      <c r="CB81" s="13"/>
+      <c r="CC81" s="13"/>
+      <c r="CD81" s="13"/>
+      <c r="CE81" s="13"/>
+      <c r="CF81" s="13"/>
+      <c r="CG81" s="13"/>
+      <c r="CH81" s="13"/>
+      <c r="CI81" s="13"/>
+      <c r="CJ81" s="13"/>
+      <c r="CK81" s="13"/>
+      <c r="CL81" s="13"/>
+      <c r="CM81" s="13"/>
     </row>
-    <row r="82" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CI82" s="28"/>
-      <c r="CJ82" s="28"/>
-      <c r="CK82" s="28"/>
-      <c r="CL82" s="28"/>
     </row>
-    <row r="83" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -33994,19 +33971,19 @@
       <c r="BW83" s="9"/>
       <c r="BX83" s="9"/>
       <c r="BY83" s="9"/>
-      <c r="BZ83" s="23"/>
-      <c r="CA83" s="23"/>
-      <c r="CB83" s="23"/>
-      <c r="CC83" s="23"/>
-      <c r="CD83" s="23"/>
-      <c r="CE83" s="23"/>
-      <c r="CF83" s="23"/>
-      <c r="CG83" s="23"/>
-      <c r="CH83" s="23"/>
-      <c r="CI83" s="30"/>
-      <c r="CJ83" s="30"/>
-      <c r="CK83" s="30"/>
-      <c r="CL83" s="30"/>
+      <c r="BZ83" s="9"/>
+      <c r="CA83" s="9"/>
+      <c r="CB83" s="9"/>
+      <c r="CC83" s="9"/>
+      <c r="CD83" s="9"/>
+      <c r="CE83" s="9"/>
+      <c r="CF83" s="9"/>
+      <c r="CG83" s="9"/>
+      <c r="CH83" s="9"/>
+      <c r="CI83" s="9"/>
+      <c r="CJ83" s="9"/>
+      <c r="CK83" s="9"/>
+      <c r="CL83" s="9"/>
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
@@ -34066,7 +34043,7 @@
       <c r="EQ83" s="9"/>
       <c r="ER83" s="9"/>
     </row>
-    <row r="84" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -34143,19 +34120,19 @@
       <c r="BW84" s="16"/>
       <c r="BX84" s="16"/>
       <c r="BY84" s="16"/>
-      <c r="BZ84" s="26"/>
-      <c r="CA84" s="23"/>
-      <c r="CB84" s="23"/>
-      <c r="CC84" s="23"/>
-      <c r="CD84" s="23"/>
-      <c r="CE84" s="23"/>
-      <c r="CF84" s="23"/>
-      <c r="CG84" s="23"/>
-      <c r="CH84" s="23"/>
-      <c r="CI84" s="30"/>
-      <c r="CJ84" s="30"/>
-      <c r="CK84" s="30"/>
-      <c r="CL84" s="30"/>
+      <c r="BZ84" s="16"/>
+      <c r="CA84" s="16"/>
+      <c r="CB84" s="16"/>
+      <c r="CC84" s="16"/>
+      <c r="CD84" s="16"/>
+      <c r="CE84" s="16"/>
+      <c r="CF84" s="16"/>
+      <c r="CG84" s="16"/>
+      <c r="CH84" s="9"/>
+      <c r="CI84" s="9"/>
+      <c r="CJ84" s="9"/>
+      <c r="CK84" s="9"/>
+      <c r="CL84" s="9"/>
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
@@ -34215,188 +34192,171 @@
       <c r="EQ84" s="9"/>
       <c r="ER84" s="9"/>
     </row>
-    <row r="85" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CI85" s="28"/>
-      <c r="CJ85" s="28"/>
-      <c r="CK85" s="28"/>
-      <c r="CL85" s="28"/>
     </row>
-    <row r="86" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="CI86" s="28"/>
-      <c r="CJ86" s="28"/>
-      <c r="CK86" s="28"/>
-      <c r="CL86" s="28"/>
     </row>
-    <row r="87" spans="1:152" x14ac:dyDescent="0.2">
-      <c r="CI87" s="28"/>
-      <c r="CJ87" s="28"/>
-      <c r="CK87" s="28"/>
-      <c r="CL87" s="28"/>
-    </row>
-    <row r="88" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="CI88" s="28"/>
-      <c r="CJ88" s="28"/>
-      <c r="CK88" s="28"/>
-      <c r="CL88" s="28"/>
     </row>
-    <row r="89" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="90" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="35">
+      <c r="B92" s="21">
         <v>2000</v>
       </c>
-      <c r="C92" s="36"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="36"/>
-      <c r="F92" s="35">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21">
         <v>2001</v>
       </c>
-      <c r="G92" s="36"/>
-      <c r="H92" s="36"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="35">
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="21">
         <v>2002</v>
       </c>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="36"/>
-      <c r="N92" s="35">
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="21">
         <v>2003</v>
       </c>
-      <c r="O92" s="36"/>
-      <c r="P92" s="36"/>
-      <c r="Q92" s="36"/>
-      <c r="R92" s="35">
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="21">
         <v>2004</v>
       </c>
-      <c r="S92" s="36"/>
-      <c r="T92" s="36"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="35">
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="21">
         <v>2005</v>
       </c>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="35">
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="21">
         <v>2006</v>
       </c>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="35">
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="21">
         <v>2007</v>
       </c>
-      <c r="AE92" s="36"/>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="35">
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="21">
         <v>2008</v>
       </c>
-      <c r="AI92" s="36"/>
-      <c r="AJ92" s="36"/>
-      <c r="AK92" s="36"/>
-      <c r="AL92" s="35">
+      <c r="AI92" s="22"/>
+      <c r="AJ92" s="22"/>
+      <c r="AK92" s="22"/>
+      <c r="AL92" s="21">
         <v>2009</v>
       </c>
-      <c r="AM92" s="36"/>
-      <c r="AN92" s="36"/>
-      <c r="AO92" s="36"/>
-      <c r="AP92" s="35">
+      <c r="AM92" s="22"/>
+      <c r="AN92" s="22"/>
+      <c r="AO92" s="22"/>
+      <c r="AP92" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="36"/>
-      <c r="AR92" s="36"/>
-      <c r="AS92" s="36"/>
-      <c r="AT92" s="35">
+      <c r="AQ92" s="22"/>
+      <c r="AR92" s="22"/>
+      <c r="AS92" s="22"/>
+      <c r="AT92" s="21">
         <v>2011</v>
       </c>
-      <c r="AU92" s="36"/>
-      <c r="AV92" s="36"/>
-      <c r="AW92" s="36"/>
-      <c r="AX92" s="35">
+      <c r="AU92" s="22"/>
+      <c r="AV92" s="22"/>
+      <c r="AW92" s="22"/>
+      <c r="AX92" s="21">
         <v>2012</v>
       </c>
-      <c r="AY92" s="36"/>
-      <c r="AZ92" s="36"/>
-      <c r="BA92" s="36"/>
-      <c r="BB92" s="35">
+      <c r="AY92" s="22"/>
+      <c r="AZ92" s="22"/>
+      <c r="BA92" s="22"/>
+      <c r="BB92" s="21">
         <v>2013</v>
       </c>
-      <c r="BC92" s="36"/>
-      <c r="BD92" s="36"/>
-      <c r="BE92" s="36"/>
-      <c r="BF92" s="35">
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22"/>
+      <c r="BF92" s="21">
         <v>2014</v>
       </c>
-      <c r="BG92" s="36"/>
-      <c r="BH92" s="36"/>
-      <c r="BI92" s="36"/>
-      <c r="BJ92" s="35">
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="22"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="21">
         <v>2015</v>
       </c>
-      <c r="BK92" s="36"/>
-      <c r="BL92" s="36"/>
-      <c r="BM92" s="36"/>
-      <c r="BN92" s="35">
+      <c r="BK92" s="22"/>
+      <c r="BL92" s="22"/>
+      <c r="BM92" s="22"/>
+      <c r="BN92" s="21">
         <v>2016</v>
       </c>
-      <c r="BO92" s="36"/>
-      <c r="BP92" s="36"/>
-      <c r="BQ92" s="36"/>
-      <c r="BR92" s="35">
+      <c r="BO92" s="22"/>
+      <c r="BP92" s="22"/>
+      <c r="BQ92" s="22"/>
+      <c r="BR92" s="21">
         <v>2017</v>
       </c>
-      <c r="BS92" s="36"/>
-      <c r="BT92" s="36"/>
-      <c r="BU92" s="36"/>
-      <c r="BV92" s="35">
+      <c r="BS92" s="22"/>
+      <c r="BT92" s="22"/>
+      <c r="BU92" s="22"/>
+      <c r="BV92" s="21">
         <v>2018</v>
       </c>
-      <c r="BW92" s="36"/>
-      <c r="BX92" s="36"/>
-      <c r="BY92" s="36"/>
-      <c r="BZ92" s="38">
+      <c r="BW92" s="22"/>
+      <c r="BX92" s="22"/>
+      <c r="BY92" s="22"/>
+      <c r="BZ92" s="21">
         <v>2019</v>
       </c>
-      <c r="CA92" s="39"/>
-      <c r="CB92" s="39"/>
-      <c r="CC92" s="39"/>
-      <c r="CD92" s="38">
+      <c r="CA92" s="22"/>
+      <c r="CB92" s="22"/>
+      <c r="CC92" s="22"/>
+      <c r="CD92" s="21">
         <v>2020</v>
       </c>
-      <c r="CE92" s="38"/>
-      <c r="CF92" s="38"/>
-      <c r="CG92" s="38"/>
-      <c r="CH92" s="38">
+      <c r="CE92" s="22"/>
+      <c r="CF92" s="22"/>
+      <c r="CG92" s="22"/>
+      <c r="CH92" s="21">
         <v>2021</v>
       </c>
-      <c r="CI92" s="38"/>
-      <c r="CJ92" s="38"/>
-      <c r="CK92" s="38"/>
-      <c r="CL92" s="27">
+      <c r="CI92" s="21"/>
+      <c r="CJ92" s="21"/>
+      <c r="CK92" s="21"/>
+      <c r="CL92" s="21">
         <v>2022</v>
       </c>
+      <c r="CM92" s="21"/>
     </row>
-    <row r="93" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34628,50 +34588,53 @@
       <c r="BY93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ93" s="18" t="s">
+      <c r="BZ93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA93" s="18" t="s">
+      <c r="CA93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB93" s="18" t="s">
+      <c r="CB93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC93" s="18" t="s">
+      <c r="CC93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD93" s="18" t="s">
+      <c r="CD93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE93" s="18" t="s">
+      <c r="CE93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF93" s="18" t="s">
+      <c r="CF93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG93" s="18" t="s">
+      <c r="CG93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH93" s="18" t="s">
+      <c r="CH93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI93" s="18" t="s">
+      <c r="CI93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ93" s="18" t="s">
+      <c r="CJ93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK93" s="18" t="s">
+      <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="18" t="s">
+      <c r="CL93" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM93" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -34903,46 +34866,48 @@
       <c r="BY95" s="15">
         <v>97.658563976494861</v>
       </c>
-      <c r="BZ95" s="24">
+      <c r="BZ95" s="15">
         <v>117.41668120337381</v>
       </c>
-      <c r="CA95" s="24">
+      <c r="CA95" s="15">
         <v>125.79811523070387</v>
       </c>
-      <c r="CB95" s="24">
+      <c r="CB95" s="15">
         <v>75.83797568074327</v>
       </c>
-      <c r="CC95" s="24">
+      <c r="CC95" s="15">
         <v>97.12369029135121</v>
       </c>
-      <c r="CD95" s="24">
+      <c r="CD95" s="15">
         <v>116.23128961149492</v>
       </c>
-      <c r="CE95" s="24">
+      <c r="CE95" s="15">
         <v>132.28149075495628</v>
       </c>
-      <c r="CF95" s="24">
+      <c r="CF95" s="15">
         <v>76.567065106535054</v>
       </c>
-      <c r="CG95" s="24">
+      <c r="CG95" s="15">
         <v>94.868972504585685</v>
       </c>
-      <c r="CH95" s="24">
+      <c r="CH95" s="15">
         <v>114.48187399118133</v>
       </c>
-      <c r="CI95" s="24">
+      <c r="CI95" s="15">
         <v>135.521186538531</v>
       </c>
-      <c r="CJ95" s="24">
+      <c r="CJ95" s="15">
         <v>79.455869215836628</v>
       </c>
-      <c r="CK95" s="24">
+      <c r="CK95" s="15">
         <v>97.443084253867056</v>
       </c>
-      <c r="CL95" s="24">
-        <v>129.18978335336811</v>
-      </c>
-      <c r="CM95" s="9"/>
+      <c r="CL95" s="15">
+        <v>129.1914296413326</v>
+      </c>
+      <c r="CM95" s="15">
+        <v>151.92607046637579</v>
+      </c>
       <c r="CN95" s="9"/>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
@@ -35005,7 +34970,7 @@
       <c r="EU95" s="9"/>
       <c r="EV95" s="9"/>
     </row>
-    <row r="96" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -35237,46 +35202,48 @@
       <c r="BY96" s="15">
         <v>104.45788107433704</v>
       </c>
-      <c r="BZ96" s="24">
+      <c r="BZ96" s="15">
         <v>105.16972818102808</v>
       </c>
-      <c r="CA96" s="24">
+      <c r="CA96" s="15">
         <v>104.48270983750771</v>
       </c>
-      <c r="CB96" s="24">
+      <c r="CB96" s="15">
         <v>97.793049883545066</v>
       </c>
-      <c r="CC96" s="24">
+      <c r="CC96" s="15">
         <v>102.1979079182332</v>
       </c>
-      <c r="CD96" s="24">
+      <c r="CD96" s="15">
         <v>105.77932106921133</v>
       </c>
-      <c r="CE96" s="24">
+      <c r="CE96" s="15">
         <v>106.91998746912591</v>
       </c>
-      <c r="CF96" s="24">
+      <c r="CF96" s="15">
         <v>100.0858292083373</v>
       </c>
-      <c r="CG96" s="24">
+      <c r="CG96" s="15">
         <v>104.11821481142425</v>
       </c>
-      <c r="CH96" s="24">
+      <c r="CH96" s="15">
         <v>104.10800779631782</v>
       </c>
-      <c r="CI96" s="24">
+      <c r="CI96" s="15">
         <v>108.52500904578446</v>
       </c>
-      <c r="CJ96" s="24">
+      <c r="CJ96" s="15">
         <v>101.58711664646233</v>
       </c>
-      <c r="CK96" s="24">
+      <c r="CK96" s="15">
         <v>105.88401340202043</v>
       </c>
-      <c r="CL96" s="24">
+      <c r="CL96" s="15">
         <v>109.55901364959652</v>
       </c>
-      <c r="CM96" s="9"/>
+      <c r="CM96" s="15">
+        <v>114.61373957305119</v>
+      </c>
       <c r="CN96" s="9"/>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
@@ -35339,7 +35306,7 @@
       <c r="EU96" s="9"/>
       <c r="EV96" s="9"/>
     </row>
-    <row r="97" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35571,46 +35538,48 @@
       <c r="BY97" s="15">
         <v>102.06179233552642</v>
       </c>
-      <c r="BZ97" s="24">
+      <c r="BZ97" s="15">
         <v>102.77541307673275</v>
       </c>
-      <c r="CA97" s="24">
+      <c r="CA97" s="15">
         <v>110.5686722663331</v>
       </c>
-      <c r="CB97" s="24">
+      <c r="CB97" s="15">
         <v>96.272617804243993</v>
       </c>
-      <c r="CC97" s="24">
+      <c r="CC97" s="15">
         <v>104.1521534269916</v>
       </c>
-      <c r="CD97" s="24">
+      <c r="CD97" s="15">
         <v>104.38010840234777</v>
       </c>
-      <c r="CE97" s="24">
+      <c r="CE97" s="15">
         <v>113.16049325112172</v>
       </c>
-      <c r="CF97" s="24">
+      <c r="CF97" s="15">
         <v>98.293875141085223</v>
       </c>
-      <c r="CG97" s="24">
+      <c r="CG97" s="15">
         <v>105.68220422197763</v>
       </c>
-      <c r="CH97" s="24">
+      <c r="CH97" s="15">
         <v>104.88113292267904</v>
       </c>
-      <c r="CI97" s="24">
+      <c r="CI97" s="15">
         <v>114.77007789111752</v>
       </c>
-      <c r="CJ97" s="24">
+      <c r="CJ97" s="15">
         <v>99.46357225526414</v>
       </c>
-      <c r="CK97" s="24">
+      <c r="CK97" s="15">
         <v>105.73101596312007</v>
       </c>
-      <c r="CL97" s="24">
-        <v>105.96078951648333</v>
-      </c>
-      <c r="CM97" s="9"/>
+      <c r="CL97" s="15">
+        <v>105.96078951648336</v>
+      </c>
+      <c r="CM97" s="15">
+        <v>107.89380973204021</v>
+      </c>
       <c r="CN97" s="9"/>
       <c r="CO97" s="9"/>
       <c r="CP97" s="9"/>
@@ -35673,7 +35642,7 @@
       <c r="EU97" s="9"/>
       <c r="EV97" s="9"/>
     </row>
-    <row r="98" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -35905,46 +35874,48 @@
       <c r="BY98" s="15">
         <v>102.3301875268598</v>
       </c>
-      <c r="BZ98" s="24">
+      <c r="BZ98" s="15">
         <v>101.84129975631029</v>
       </c>
-      <c r="CA98" s="24">
+      <c r="CA98" s="15">
         <v>101.87624432087918</v>
       </c>
-      <c r="CB98" s="24">
+      <c r="CB98" s="15">
         <v>103.30250390431266</v>
       </c>
-      <c r="CC98" s="24">
+      <c r="CC98" s="15">
         <v>103.47516276242517</v>
       </c>
-      <c r="CD98" s="24">
+      <c r="CD98" s="15">
         <v>108.11519270943492</v>
       </c>
-      <c r="CE98" s="24">
+      <c r="CE98" s="15">
         <v>110.17612386976508</v>
       </c>
-      <c r="CF98" s="24">
+      <c r="CF98" s="15">
         <v>109.42439273709743</v>
       </c>
-      <c r="CG98" s="24">
+      <c r="CG98" s="15">
         <v>109.48395204919743</v>
       </c>
-      <c r="CH98" s="24">
+      <c r="CH98" s="15">
         <v>109.44500957976091</v>
       </c>
-      <c r="CI98" s="24">
+      <c r="CI98" s="15">
         <v>111.65389177173203</v>
       </c>
-      <c r="CJ98" s="24">
+      <c r="CJ98" s="15">
         <v>110.66088837502663</v>
       </c>
-      <c r="CK98" s="24">
+      <c r="CK98" s="15">
         <v>110.86916946607566</v>
       </c>
-      <c r="CL98" s="24">
-        <v>111.00454898162582</v>
-      </c>
-      <c r="CM98" s="9"/>
+      <c r="CL98" s="15">
+        <v>111.00454898162577</v>
+      </c>
+      <c r="CM98" s="15">
+        <v>113.23838408637346</v>
+      </c>
       <c r="CN98" s="9"/>
       <c r="CO98" s="9"/>
       <c r="CP98" s="9"/>
@@ -36007,7 +35978,7 @@
       <c r="EU98" s="9"/>
       <c r="EV98" s="9"/>
     </row>
-    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -36084,20 +36055,20 @@
       <c r="BW99" s="15"/>
       <c r="BX99" s="15"/>
       <c r="BY99" s="15"/>
-      <c r="BZ99" s="24"/>
-      <c r="CA99" s="24"/>
-      <c r="CB99" s="24"/>
-      <c r="CC99" s="24"/>
-      <c r="CD99" s="24"/>
-      <c r="CE99" s="24"/>
-      <c r="CF99" s="24"/>
-      <c r="CG99" s="24"/>
-      <c r="CH99" s="24"/>
-      <c r="CI99" s="24"/>
-      <c r="CJ99" s="24"/>
-      <c r="CK99" s="24"/>
-      <c r="CL99" s="24"/>
-      <c r="CM99" s="9"/>
+      <c r="BZ99" s="15"/>
+      <c r="CA99" s="15"/>
+      <c r="CB99" s="15"/>
+      <c r="CC99" s="15"/>
+      <c r="CD99" s="15"/>
+      <c r="CE99" s="15"/>
+      <c r="CF99" s="15"/>
+      <c r="CG99" s="15"/>
+      <c r="CH99" s="15"/>
+      <c r="CI99" s="15"/>
+      <c r="CJ99" s="15"/>
+      <c r="CK99" s="15"/>
+      <c r="CL99" s="15"/>
+      <c r="CM99" s="15"/>
       <c r="CN99" s="9"/>
       <c r="CO99" s="9"/>
       <c r="CP99" s="9"/>
@@ -36160,7 +36131,7 @@
       <c r="EU99" s="9"/>
       <c r="EV99" s="9"/>
     </row>
-    <row r="100" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>15</v>
       </c>
@@ -36392,46 +36363,48 @@
       <c r="BY100" s="15">
         <v>98.586040894442391</v>
       </c>
-      <c r="BZ100" s="24">
+      <c r="BZ100" s="15">
         <v>114.3958258706846</v>
       </c>
-      <c r="CA100" s="24">
+      <c r="CA100" s="15">
         <v>122.96563274308197</v>
       </c>
-      <c r="CB100" s="24">
+      <c r="CB100" s="15">
         <v>79.135144887293393</v>
       </c>
-      <c r="CC100" s="24">
+      <c r="CC100" s="15">
         <v>98.468116476354552</v>
       </c>
-      <c r="CD100" s="24">
+      <c r="CD100" s="15">
         <v>113.87654778681036</v>
       </c>
-      <c r="CE100" s="24">
+      <c r="CE100" s="15">
         <v>128.32554593445334</v>
       </c>
-      <c r="CF100" s="24">
+      <c r="CF100" s="15">
         <v>80.189548672964932</v>
       </c>
-      <c r="CG100" s="24">
+      <c r="CG100" s="15">
         <v>97.052391057054777</v>
       </c>
-      <c r="CH100" s="24">
+      <c r="CH100" s="15">
         <v>112.53963972841639</v>
       </c>
-      <c r="CI100" s="24">
+      <c r="CI100" s="15">
         <v>131.55420804036396</v>
       </c>
-      <c r="CJ100" s="24">
+      <c r="CJ100" s="15">
         <v>82.693483654571381</v>
       </c>
-      <c r="CK100" s="24">
+      <c r="CK100" s="15">
         <v>99.171222988913442</v>
       </c>
-      <c r="CL100" s="24">
-        <v>124.71009462534985</v>
-      </c>
-      <c r="CM100" s="9"/>
+      <c r="CL100" s="15">
+        <v>124.68099213838686</v>
+      </c>
+      <c r="CM100" s="15">
+        <v>143.7583951988646</v>
+      </c>
       <c r="CN100" s="9"/>
       <c r="CO100" s="9"/>
       <c r="CP100" s="9"/>
@@ -36494,7 +36467,7 @@
       <c r="EU100" s="9"/>
       <c r="EV100" s="9"/>
     </row>
-    <row r="101" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -36572,194 +36545,196 @@
       <c r="BW101" s="13"/>
       <c r="BX101" s="13"/>
       <c r="BY101" s="13"/>
-      <c r="BZ101" s="22"/>
-      <c r="CA101" s="22"/>
-      <c r="CB101" s="22"/>
-      <c r="CC101" s="22"/>
-      <c r="CD101" s="22"/>
-      <c r="CE101" s="22"/>
-      <c r="CF101" s="22"/>
-      <c r="CG101" s="22"/>
-      <c r="CH101" s="22"/>
-      <c r="CI101" s="22"/>
-      <c r="CJ101" s="22"/>
-      <c r="CK101" s="22"/>
-      <c r="CL101" s="22"/>
+      <c r="BZ101" s="13"/>
+      <c r="CA101" s="13"/>
+      <c r="CB101" s="13"/>
+      <c r="CC101" s="13"/>
+      <c r="CD101" s="13"/>
+      <c r="CE101" s="13"/>
+      <c r="CF101" s="13"/>
+      <c r="CG101" s="13"/>
+      <c r="CH101" s="13"/>
+      <c r="CI101" s="13"/>
+      <c r="CJ101" s="13"/>
+      <c r="CK101" s="13"/>
+      <c r="CL101" s="13"/>
+      <c r="CM101" s="13"/>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="111" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="35">
+      <c r="B113" s="21">
         <v>2000</v>
       </c>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="35">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="21">
         <v>2001</v>
       </c>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="35">
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="21">
         <v>2002</v>
       </c>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="35">
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="21">
         <v>2003</v>
       </c>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="35">
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="21">
         <v>2004</v>
       </c>
-      <c r="S113" s="36"/>
-      <c r="T113" s="36"/>
-      <c r="U113" s="36"/>
-      <c r="V113" s="35">
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="21">
         <v>2005</v>
       </c>
-      <c r="W113" s="36"/>
-      <c r="X113" s="36"/>
-      <c r="Y113" s="36"/>
-      <c r="Z113" s="35">
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="21">
         <v>2006</v>
       </c>
-      <c r="AA113" s="36"/>
-      <c r="AB113" s="36"/>
-      <c r="AC113" s="36"/>
-      <c r="AD113" s="35">
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="22"/>
+      <c r="AD113" s="21">
         <v>2007</v>
       </c>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="36"/>
-      <c r="AH113" s="35">
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="21">
         <v>2008</v>
       </c>
-      <c r="AI113" s="36"/>
-      <c r="AJ113" s="36"/>
-      <c r="AK113" s="36"/>
-      <c r="AL113" s="35">
+      <c r="AI113" s="22"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="21">
         <v>2009</v>
       </c>
-      <c r="AM113" s="36"/>
-      <c r="AN113" s="36"/>
-      <c r="AO113" s="36"/>
-      <c r="AP113" s="35">
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="22"/>
+      <c r="AP113" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="36"/>
-      <c r="AR113" s="36"/>
-      <c r="AS113" s="36"/>
-      <c r="AT113" s="35">
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="22"/>
+      <c r="AT113" s="21">
         <v>2011</v>
       </c>
-      <c r="AU113" s="36"/>
-      <c r="AV113" s="36"/>
-      <c r="AW113" s="36"/>
-      <c r="AX113" s="35">
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="21">
         <v>2012</v>
       </c>
-      <c r="AY113" s="36"/>
-      <c r="AZ113" s="36"/>
-      <c r="BA113" s="36"/>
-      <c r="BB113" s="35">
+      <c r="AY113" s="22"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="21">
         <v>2013</v>
       </c>
-      <c r="BC113" s="36"/>
-      <c r="BD113" s="36"/>
-      <c r="BE113" s="36"/>
-      <c r="BF113" s="35">
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="21">
         <v>2014</v>
       </c>
-      <c r="BG113" s="36"/>
-      <c r="BH113" s="36"/>
-      <c r="BI113" s="36"/>
-      <c r="BJ113" s="35">
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="21">
         <v>2015</v>
       </c>
-      <c r="BK113" s="36"/>
-      <c r="BL113" s="36"/>
-      <c r="BM113" s="36"/>
-      <c r="BN113" s="35">
+      <c r="BK113" s="22"/>
+      <c r="BL113" s="22"/>
+      <c r="BM113" s="22"/>
+      <c r="BN113" s="21">
         <v>2016</v>
       </c>
-      <c r="BO113" s="36"/>
-      <c r="BP113" s="36"/>
-      <c r="BQ113" s="36"/>
-      <c r="BR113" s="35">
+      <c r="BO113" s="22"/>
+      <c r="BP113" s="22"/>
+      <c r="BQ113" s="22"/>
+      <c r="BR113" s="21">
         <v>2017</v>
       </c>
-      <c r="BS113" s="36"/>
-      <c r="BT113" s="36"/>
-      <c r="BU113" s="36"/>
-      <c r="BV113" s="35">
+      <c r="BS113" s="22"/>
+      <c r="BT113" s="22"/>
+      <c r="BU113" s="22"/>
+      <c r="BV113" s="21">
         <v>2018</v>
       </c>
-      <c r="BW113" s="36"/>
-      <c r="BX113" s="36"/>
-      <c r="BY113" s="36"/>
-      <c r="BZ113" s="38">
+      <c r="BW113" s="22"/>
+      <c r="BX113" s="22"/>
+      <c r="BY113" s="22"/>
+      <c r="BZ113" s="21">
         <v>2019</v>
       </c>
-      <c r="CA113" s="39"/>
-      <c r="CB113" s="39"/>
-      <c r="CC113" s="39"/>
-      <c r="CD113" s="38">
+      <c r="CA113" s="22"/>
+      <c r="CB113" s="22"/>
+      <c r="CC113" s="22"/>
+      <c r="CD113" s="21">
         <v>2020</v>
       </c>
-      <c r="CE113" s="38"/>
-      <c r="CF113" s="38"/>
-      <c r="CG113" s="38"/>
-      <c r="CH113" s="38">
+      <c r="CE113" s="22"/>
+      <c r="CF113" s="22"/>
+      <c r="CG113" s="22"/>
+      <c r="CH113" s="21">
         <v>2021</v>
       </c>
-      <c r="CI113" s="38"/>
-      <c r="CJ113" s="38"/>
-      <c r="CK113" s="38"/>
-      <c r="CL113" s="27">
+      <c r="CI113" s="21"/>
+      <c r="CJ113" s="21"/>
+      <c r="CK113" s="21"/>
+      <c r="CL113" s="21">
         <v>2022</v>
       </c>
+      <c r="CM113" s="21"/>
     </row>
-    <row r="114" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -36991,50 +36966,53 @@
       <c r="BY114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ114" s="18" t="s">
+      <c r="BZ114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA114" s="18" t="s">
+      <c r="CA114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB114" s="18" t="s">
+      <c r="CB114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC114" s="18" t="s">
+      <c r="CC114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD114" s="18" t="s">
+      <c r="CD114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE114" s="18" t="s">
+      <c r="CE114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF114" s="18" t="s">
+      <c r="CF114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG114" s="18" t="s">
+      <c r="CG114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH114" s="18" t="s">
+      <c r="CH114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI114" s="18" t="s">
+      <c r="CI114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ114" s="18" t="s">
+      <c r="CJ114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK114" s="18" t="s">
+      <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="18" t="s">
+      <c r="CL114" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM114" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37266,46 +37244,48 @@
       <c r="BY116" s="15">
         <v>79.372007591340804</v>
       </c>
-      <c r="BZ116" s="24">
+      <c r="BZ116" s="15">
         <v>81.158780136822756</v>
       </c>
-      <c r="CA116" s="24">
+      <c r="CA116" s="15">
         <v>84.655907252232694</v>
       </c>
-      <c r="CB116" s="24">
+      <c r="CB116" s="15">
         <v>80.835579119458572</v>
       </c>
-      <c r="CC116" s="24">
+      <c r="CC116" s="15">
         <v>79.101951058281344</v>
       </c>
-      <c r="CD116" s="24">
+      <c r="CD116" s="15">
         <v>81.1257456792721</v>
       </c>
-      <c r="CE116" s="24">
+      <c r="CE116" s="15">
         <v>82.662620716345501</v>
       </c>
-      <c r="CF116" s="24">
+      <c r="CF116" s="15">
         <v>80.239955384993578</v>
       </c>
-      <c r="CG116" s="24">
+      <c r="CG116" s="15">
         <v>78.202657457189048</v>
       </c>
-      <c r="CH116" s="24">
+      <c r="CH116" s="15">
         <v>80.744304988802014</v>
       </c>
-      <c r="CI116" s="24">
+      <c r="CI116" s="15">
         <v>84.065112912974058</v>
       </c>
-      <c r="CJ116" s="24">
+      <c r="CJ116" s="15">
         <v>81.313777733460142</v>
       </c>
-      <c r="CK116" s="24">
+      <c r="CK116" s="15">
         <v>78.68328386616308</v>
       </c>
-      <c r="CL116" s="24">
-        <v>83.000363795705994</v>
-      </c>
-      <c r="CM116" s="9"/>
+      <c r="CL116" s="15">
+        <v>82.878684488241717</v>
+      </c>
+      <c r="CM116" s="15">
+        <v>85.637839129915051</v>
+      </c>
       <c r="CN116" s="9"/>
       <c r="CO116" s="9"/>
       <c r="CP116" s="9"/>
@@ -37368,7 +37348,7 @@
       <c r="EU116" s="9"/>
       <c r="EV116" s="9"/>
     </row>
-    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -37600,46 +37580,48 @@
       <c r="BY117" s="15">
         <v>2.1631080563624816</v>
       </c>
-      <c r="BZ117" s="24">
+      <c r="BZ117" s="15">
         <v>2.1627039276479425</v>
       </c>
-      <c r="CA117" s="24">
+      <c r="CA117" s="15">
         <v>1.6267037763021179</v>
       </c>
-      <c r="CB117" s="24">
+      <c r="CB117" s="15">
         <v>1.7994930757290164</v>
       </c>
-      <c r="CC117" s="24">
+      <c r="CC117" s="15">
         <v>2.0609029130790812</v>
       </c>
-      <c r="CD117" s="24">
+      <c r="CD117" s="15">
         <v>2.199231706136572</v>
       </c>
-      <c r="CE117" s="24">
+      <c r="CE117" s="15">
         <v>1.7803282766779449</v>
       </c>
-      <c r="CF117" s="24">
+      <c r="CF117" s="15">
         <v>1.8657923220438064</v>
       </c>
-      <c r="CG117" s="24">
+      <c r="CG117" s="15">
         <v>2.0898099778790509</v>
       </c>
-      <c r="CH117" s="24">
+      <c r="CH117" s="15">
         <v>2.2309243206015226</v>
       </c>
-      <c r="CI117" s="24">
+      <c r="CI117" s="15">
         <v>1.4981077434337227</v>
       </c>
-      <c r="CJ117" s="24">
+      <c r="CJ117" s="15">
         <v>1.6418445783985467</v>
       </c>
-      <c r="CK117" s="24">
+      <c r="CK117" s="15">
         <v>2.1083371071300965</v>
       </c>
-      <c r="CL117" s="24">
-        <v>1.8106366837338115</v>
-      </c>
-      <c r="CM117" s="9"/>
+      <c r="CL117" s="15">
+        <v>1.8134519153718429</v>
+      </c>
+      <c r="CM117" s="15">
+        <v>1.4329355314721803</v>
+      </c>
       <c r="CN117" s="9"/>
       <c r="CO117" s="9"/>
       <c r="CP117" s="9"/>
@@ -37702,7 +37684,7 @@
       <c r="EU117" s="9"/>
       <c r="EV117" s="9"/>
     </row>
-    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -37934,46 +37916,48 @@
       <c r="BY118" s="15">
         <v>17.128848523484304</v>
       </c>
-      <c r="BZ118" s="24">
+      <c r="BZ118" s="15">
         <v>15.451651806167298</v>
       </c>
-      <c r="CA118" s="24">
+      <c r="CA118" s="15">
         <v>12.870470630399938</v>
       </c>
-      <c r="CB118" s="24">
+      <c r="CB118" s="15">
         <v>15.934856300994277</v>
       </c>
-      <c r="CC118" s="24">
+      <c r="CC118" s="15">
         <v>17.498922809861941</v>
       </c>
-      <c r="CD118" s="24">
+      <c r="CD118" s="15">
         <v>15.563438403502031</v>
       </c>
-      <c r="CE118" s="24">
+      <c r="CE118" s="15">
         <v>14.554837513863927</v>
       </c>
-      <c r="CF118" s="24">
+      <c r="CF118" s="15">
         <v>16.333917995944027</v>
       </c>
-      <c r="CG118" s="24">
+      <c r="CG118" s="15">
         <v>18.179114470201331</v>
       </c>
-      <c r="CH118" s="24">
+      <c r="CH118" s="15">
         <v>15.818341958745386</v>
       </c>
-      <c r="CI118" s="24">
+      <c r="CI118" s="15">
         <v>13.448985973417216</v>
       </c>
-      <c r="CJ118" s="24">
+      <c r="CJ118" s="15">
         <v>15.44927532601951</v>
       </c>
-      <c r="CK118" s="24">
+      <c r="CK118" s="15">
         <v>17.597083348913181</v>
       </c>
-      <c r="CL118" s="24">
-        <v>14.067686306661681</v>
-      </c>
-      <c r="CM118" s="9"/>
+      <c r="CL118" s="15">
+        <v>14.162614867914932</v>
+      </c>
+      <c r="CM118" s="15">
+        <v>12.004250129411487</v>
+      </c>
       <c r="CN118" s="9"/>
       <c r="CO118" s="9"/>
       <c r="CP118" s="9"/>
@@ -38036,7 +38020,7 @@
       <c r="EU118" s="9"/>
       <c r="EV118" s="9"/>
     </row>
-    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38268,46 +38252,48 @@
       <c r="BY119" s="15">
         <v>1.3360358288123937</v>
       </c>
-      <c r="BZ119" s="24">
+      <c r="BZ119" s="15">
         <v>1.2268641293620113</v>
       </c>
-      <c r="CA119" s="24">
+      <c r="CA119" s="15">
         <v>0.84691834106524899</v>
       </c>
-      <c r="CB119" s="24">
+      <c r="CB119" s="15">
         <v>1.4300715038181402</v>
       </c>
-      <c r="CC119" s="24">
+      <c r="CC119" s="15">
         <v>1.3382232187776413</v>
       </c>
-      <c r="CD119" s="24">
+      <c r="CD119" s="15">
         <v>1.111584211089286</v>
       </c>
-      <c r="CE119" s="24">
+      <c r="CE119" s="15">
         <v>1.0022134931126374</v>
       </c>
-      <c r="CF119" s="24">
+      <c r="CF119" s="15">
         <v>1.5603342970185969</v>
       </c>
-      <c r="CG119" s="24">
+      <c r="CG119" s="15">
         <v>1.5284180947305639</v>
       </c>
-      <c r="CH119" s="24">
+      <c r="CH119" s="15">
         <v>1.2064287318510736</v>
       </c>
-      <c r="CI119" s="24">
+      <c r="CI119" s="15">
         <v>0.98779337017500368</v>
       </c>
-      <c r="CJ119" s="24">
+      <c r="CJ119" s="15">
         <v>1.5951023621218179</v>
       </c>
-      <c r="CK119" s="24">
+      <c r="CK119" s="15">
         <v>1.6112956777936445</v>
       </c>
-      <c r="CL119" s="24">
-        <v>1.1213132138985027</v>
-      </c>
-      <c r="CM119" s="9"/>
+      <c r="CL119" s="15">
+        <v>1.1452487284715047</v>
+      </c>
+      <c r="CM119" s="15">
+        <v>0.92497520920128951</v>
+      </c>
       <c r="CN119" s="9"/>
       <c r="CO119" s="9"/>
       <c r="CP119" s="9"/>
@@ -38370,7 +38356,7 @@
       <c r="EU119" s="9"/>
       <c r="EV119" s="9"/>
     </row>
-    <row r="120" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -38447,19 +38433,19 @@
       <c r="BW120" s="9"/>
       <c r="BX120" s="9"/>
       <c r="BY120" s="9"/>
-      <c r="BZ120" s="23"/>
-      <c r="CA120" s="23"/>
-      <c r="CB120" s="23"/>
-      <c r="CC120" s="23"/>
-      <c r="CD120" s="23"/>
-      <c r="CE120" s="23"/>
-      <c r="CF120" s="23"/>
-      <c r="CG120" s="23"/>
-      <c r="CH120" s="23"/>
-      <c r="CI120" s="23"/>
-      <c r="CJ120" s="23"/>
-      <c r="CK120" s="23"/>
-      <c r="CL120" s="23"/>
+      <c r="BZ120" s="9"/>
+      <c r="CA120" s="9"/>
+      <c r="CB120" s="9"/>
+      <c r="CC120" s="9"/>
+      <c r="CD120" s="9"/>
+      <c r="CE120" s="9"/>
+      <c r="CF120" s="9"/>
+      <c r="CG120" s="9"/>
+      <c r="CH120" s="9"/>
+      <c r="CI120" s="9"/>
+      <c r="CJ120" s="9"/>
+      <c r="CK120" s="9"/>
+      <c r="CL120" s="9"/>
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
@@ -38523,7 +38509,7 @@
       <c r="EU120" s="9"/>
       <c r="EV120" s="9"/>
     </row>
-    <row r="121" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>15</v>
       </c>
@@ -38755,46 +38741,48 @@
       <c r="BY121" s="15">
         <v>100</v>
       </c>
-      <c r="BZ121" s="24">
+      <c r="BZ121" s="15">
         <v>100</v>
       </c>
-      <c r="CA121" s="24">
+      <c r="CA121" s="15">
         <v>100</v>
       </c>
-      <c r="CB121" s="24">
+      <c r="CB121" s="15">
         <v>100</v>
       </c>
-      <c r="CC121" s="24">
+      <c r="CC121" s="15">
         <v>100</v>
       </c>
-      <c r="CD121" s="24">
+      <c r="CD121" s="15">
         <v>100</v>
       </c>
-      <c r="CE121" s="24">
+      <c r="CE121" s="15">
         <v>100</v>
       </c>
-      <c r="CF121" s="24">
+      <c r="CF121" s="15">
         <v>100</v>
       </c>
-      <c r="CG121" s="24">
+      <c r="CG121" s="15">
         <v>100</v>
       </c>
-      <c r="CH121" s="24">
+      <c r="CH121" s="15">
         <v>100</v>
       </c>
-      <c r="CI121" s="24">
+      <c r="CI121" s="15">
         <v>100</v>
       </c>
-      <c r="CJ121" s="24">
+      <c r="CJ121" s="15">
         <v>100</v>
       </c>
-      <c r="CK121" s="24">
+      <c r="CK121" s="15">
         <v>100</v>
       </c>
-      <c r="CL121" s="24">
+      <c r="CL121" s="15">
         <v>100</v>
       </c>
-      <c r="CM121" s="9"/>
+      <c r="CM121" s="15">
+        <v>100</v>
+      </c>
       <c r="CN121" s="9"/>
       <c r="CO121" s="9"/>
       <c r="CP121" s="9"/>
@@ -38857,7 +38845,7 @@
       <c r="EU121" s="9"/>
       <c r="EV121" s="9"/>
     </row>
-    <row r="122" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -38935,26 +38923,27 @@
       <c r="BW122" s="13"/>
       <c r="BX122" s="13"/>
       <c r="BY122" s="13"/>
-      <c r="BZ122" s="22"/>
-      <c r="CA122" s="22"/>
-      <c r="CB122" s="22"/>
-      <c r="CC122" s="22"/>
-      <c r="CD122" s="22"/>
-      <c r="CE122" s="22"/>
-      <c r="CF122" s="22"/>
-      <c r="CG122" s="22"/>
-      <c r="CH122" s="22"/>
-      <c r="CI122" s="22"/>
-      <c r="CJ122" s="22"/>
-      <c r="CK122" s="22"/>
-      <c r="CL122" s="22"/>
+      <c r="BZ122" s="13"/>
+      <c r="CA122" s="13"/>
+      <c r="CB122" s="13"/>
+      <c r="CC122" s="13"/>
+      <c r="CD122" s="13"/>
+      <c r="CE122" s="13"/>
+      <c r="CF122" s="13"/>
+      <c r="CG122" s="13"/>
+      <c r="CH122" s="13"/>
+      <c r="CI122" s="13"/>
+      <c r="CJ122" s="13"/>
+      <c r="CK122" s="13"/>
+      <c r="CL122" s="13"/>
+      <c r="CM122" s="13"/>
     </row>
-    <row r="123" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -39031,19 +39020,19 @@
       <c r="BW124" s="9"/>
       <c r="BX124" s="9"/>
       <c r="BY124" s="9"/>
-      <c r="BZ124" s="23"/>
-      <c r="CA124" s="23"/>
-      <c r="CB124" s="23"/>
-      <c r="CC124" s="23"/>
-      <c r="CD124" s="23"/>
-      <c r="CE124" s="23"/>
-      <c r="CF124" s="23"/>
-      <c r="CG124" s="23"/>
-      <c r="CH124" s="23"/>
-      <c r="CI124" s="23"/>
-      <c r="CJ124" s="23"/>
-      <c r="CK124" s="23"/>
-      <c r="CL124" s="23"/>
+      <c r="BZ124" s="9"/>
+      <c r="CA124" s="9"/>
+      <c r="CB124" s="9"/>
+      <c r="CC124" s="9"/>
+      <c r="CD124" s="9"/>
+      <c r="CE124" s="9"/>
+      <c r="CF124" s="9"/>
+      <c r="CG124" s="9"/>
+      <c r="CH124" s="9"/>
+      <c r="CI124" s="9"/>
+      <c r="CJ124" s="9"/>
+      <c r="CK124" s="9"/>
+      <c r="CL124" s="9"/>
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
@@ -39107,7 +39096,7 @@
       <c r="EU124" s="9"/>
       <c r="EV124" s="9"/>
     </row>
-    <row r="125" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -39184,19 +39173,19 @@
       <c r="BW125" s="9"/>
       <c r="BX125" s="9"/>
       <c r="BY125" s="9"/>
-      <c r="BZ125" s="23"/>
-      <c r="CA125" s="23"/>
-      <c r="CB125" s="23"/>
-      <c r="CC125" s="23"/>
-      <c r="CD125" s="23"/>
-      <c r="CE125" s="23"/>
-      <c r="CF125" s="23"/>
-      <c r="CG125" s="23"/>
-      <c r="CH125" s="23"/>
-      <c r="CI125" s="23"/>
-      <c r="CJ125" s="23"/>
-      <c r="CK125" s="23"/>
-      <c r="CL125" s="23"/>
+      <c r="BZ125" s="9"/>
+      <c r="CA125" s="9"/>
+      <c r="CB125" s="9"/>
+      <c r="CC125" s="9"/>
+      <c r="CD125" s="9"/>
+      <c r="CE125" s="9"/>
+      <c r="CF125" s="9"/>
+      <c r="CG125" s="9"/>
+      <c r="CH125" s="9"/>
+      <c r="CI125" s="9"/>
+      <c r="CJ125" s="9"/>
+      <c r="CK125" s="9"/>
+      <c r="CL125" s="9"/>
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
@@ -39260,175 +39249,176 @@
       <c r="EU125" s="9"/>
       <c r="EV125" s="9"/>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="132" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="35">
+      <c r="B134" s="21">
         <v>2000</v>
       </c>
-      <c r="C134" s="36"/>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="35">
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="21">
         <v>2001</v>
       </c>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36"/>
-      <c r="J134" s="35">
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="21">
         <v>2002</v>
       </c>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="36"/>
-      <c r="N134" s="35">
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="21">
         <v>2003</v>
       </c>
-      <c r="O134" s="36"/>
-      <c r="P134" s="36"/>
-      <c r="Q134" s="36"/>
-      <c r="R134" s="35">
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="21">
         <v>2004</v>
       </c>
-      <c r="S134" s="36"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="35">
+      <c r="S134" s="22"/>
+      <c r="T134" s="22"/>
+      <c r="U134" s="22"/>
+      <c r="V134" s="21">
         <v>2005</v>
       </c>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="35">
+      <c r="W134" s="22"/>
+      <c r="X134" s="22"/>
+      <c r="Y134" s="22"/>
+      <c r="Z134" s="21">
         <v>2006</v>
       </c>
-      <c r="AA134" s="36"/>
-      <c r="AB134" s="36"/>
-      <c r="AC134" s="36"/>
-      <c r="AD134" s="35">
+      <c r="AA134" s="22"/>
+      <c r="AB134" s="22"/>
+      <c r="AC134" s="22"/>
+      <c r="AD134" s="21">
         <v>2007</v>
       </c>
-      <c r="AE134" s="36"/>
-      <c r="AF134" s="36"/>
-      <c r="AG134" s="36"/>
-      <c r="AH134" s="35">
+      <c r="AE134" s="22"/>
+      <c r="AF134" s="22"/>
+      <c r="AG134" s="22"/>
+      <c r="AH134" s="21">
         <v>2008</v>
       </c>
-      <c r="AI134" s="36"/>
-      <c r="AJ134" s="36"/>
-      <c r="AK134" s="36"/>
-      <c r="AL134" s="35">
+      <c r="AI134" s="22"/>
+      <c r="AJ134" s="22"/>
+      <c r="AK134" s="22"/>
+      <c r="AL134" s="21">
         <v>2009</v>
       </c>
-      <c r="AM134" s="36"/>
-      <c r="AN134" s="36"/>
-      <c r="AO134" s="36"/>
-      <c r="AP134" s="35">
+      <c r="AM134" s="22"/>
+      <c r="AN134" s="22"/>
+      <c r="AO134" s="22"/>
+      <c r="AP134" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="36"/>
-      <c r="AR134" s="36"/>
-      <c r="AS134" s="36"/>
-      <c r="AT134" s="35">
+      <c r="AQ134" s="22"/>
+      <c r="AR134" s="22"/>
+      <c r="AS134" s="22"/>
+      <c r="AT134" s="21">
         <v>2011</v>
       </c>
-      <c r="AU134" s="36"/>
-      <c r="AV134" s="36"/>
-      <c r="AW134" s="36"/>
-      <c r="AX134" s="35">
+      <c r="AU134" s="22"/>
+      <c r="AV134" s="22"/>
+      <c r="AW134" s="22"/>
+      <c r="AX134" s="21">
         <v>2012</v>
       </c>
-      <c r="AY134" s="36"/>
-      <c r="AZ134" s="36"/>
-      <c r="BA134" s="36"/>
-      <c r="BB134" s="35">
+      <c r="AY134" s="22"/>
+      <c r="AZ134" s="22"/>
+      <c r="BA134" s="22"/>
+      <c r="BB134" s="21">
         <v>2013</v>
       </c>
-      <c r="BC134" s="36"/>
-      <c r="BD134" s="36"/>
-      <c r="BE134" s="36"/>
-      <c r="BF134" s="35">
+      <c r="BC134" s="22"/>
+      <c r="BD134" s="22"/>
+      <c r="BE134" s="22"/>
+      <c r="BF134" s="21">
         <v>2014</v>
       </c>
-      <c r="BG134" s="36"/>
-      <c r="BH134" s="36"/>
-      <c r="BI134" s="36"/>
-      <c r="BJ134" s="35">
+      <c r="BG134" s="22"/>
+      <c r="BH134" s="22"/>
+      <c r="BI134" s="22"/>
+      <c r="BJ134" s="21">
         <v>2015</v>
       </c>
-      <c r="BK134" s="36"/>
-      <c r="BL134" s="36"/>
-      <c r="BM134" s="36"/>
-      <c r="BN134" s="35">
+      <c r="BK134" s="22"/>
+      <c r="BL134" s="22"/>
+      <c r="BM134" s="22"/>
+      <c r="BN134" s="21">
         <v>2016</v>
       </c>
-      <c r="BO134" s="36"/>
-      <c r="BP134" s="36"/>
-      <c r="BQ134" s="36"/>
-      <c r="BR134" s="35">
+      <c r="BO134" s="22"/>
+      <c r="BP134" s="22"/>
+      <c r="BQ134" s="22"/>
+      <c r="BR134" s="21">
         <v>2017</v>
       </c>
-      <c r="BS134" s="36"/>
-      <c r="BT134" s="36"/>
-      <c r="BU134" s="36"/>
-      <c r="BV134" s="35">
+      <c r="BS134" s="22"/>
+      <c r="BT134" s="22"/>
+      <c r="BU134" s="22"/>
+      <c r="BV134" s="21">
         <v>2018</v>
       </c>
-      <c r="BW134" s="36"/>
-      <c r="BX134" s="36"/>
-      <c r="BY134" s="36"/>
-      <c r="BZ134" s="38">
+      <c r="BW134" s="22"/>
+      <c r="BX134" s="22"/>
+      <c r="BY134" s="22"/>
+      <c r="BZ134" s="21">
         <v>2019</v>
       </c>
-      <c r="CA134" s="39"/>
-      <c r="CB134" s="39"/>
-      <c r="CC134" s="39"/>
-      <c r="CD134" s="38">
+      <c r="CA134" s="22"/>
+      <c r="CB134" s="22"/>
+      <c r="CC134" s="22"/>
+      <c r="CD134" s="21">
         <v>2020</v>
       </c>
-      <c r="CE134" s="38"/>
-      <c r="CF134" s="38"/>
-      <c r="CG134" s="38"/>
-      <c r="CH134" s="38">
+      <c r="CE134" s="22"/>
+      <c r="CF134" s="22"/>
+      <c r="CG134" s="22"/>
+      <c r="CH134" s="21">
         <v>2021</v>
       </c>
-      <c r="CI134" s="38"/>
-      <c r="CJ134" s="38"/>
-      <c r="CK134" s="38"/>
-      <c r="CL134" s="27">
+      <c r="CI134" s="21"/>
+      <c r="CJ134" s="21"/>
+      <c r="CK134" s="21"/>
+      <c r="CL134" s="21">
         <v>2022</v>
       </c>
+      <c r="CM134" s="21"/>
     </row>
-    <row r="135" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -39660,50 +39650,53 @@
       <c r="BY135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="BZ135" s="18" t="s">
+      <c r="BZ135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CA135" s="18" t="s">
+      <c r="CA135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CB135" s="18" t="s">
+      <c r="CB135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CC135" s="18" t="s">
+      <c r="CC135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CD135" s="18" t="s">
+      <c r="CD135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CE135" s="18" t="s">
+      <c r="CE135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CF135" s="18" t="s">
+      <c r="CF135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CG135" s="18" t="s">
+      <c r="CG135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CH135" s="18" t="s">
+      <c r="CH135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CI135" s="18" t="s">
+      <c r="CI135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CJ135" s="18" t="s">
+      <c r="CJ135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CK135" s="18" t="s">
+      <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="18" t="s">
+      <c r="CL135" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="CM135" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -39935,46 +39928,48 @@
       <c r="BY137" s="15">
         <v>80.12581454870957</v>
       </c>
-      <c r="BZ137" s="24">
+      <c r="BZ137" s="15">
         <v>79.070755409346233</v>
       </c>
-      <c r="CA137" s="24">
+      <c r="CA137" s="15">
         <v>82.749786684957556</v>
       </c>
-      <c r="CB137" s="24">
+      <c r="CB137" s="15">
         <v>84.350026596120358</v>
       </c>
-      <c r="CC137" s="24">
+      <c r="CC137" s="15">
         <v>80.196912894766228</v>
       </c>
-      <c r="CD137" s="24">
+      <c r="CD137" s="15">
         <v>79.482210732286447</v>
       </c>
-      <c r="CE137" s="24">
+      <c r="CE137" s="15">
         <v>80.190553275876525</v>
       </c>
-      <c r="CF137" s="24">
+      <c r="CF137" s="15">
         <v>84.036207981965546</v>
       </c>
-      <c r="CG137" s="24">
+      <c r="CG137" s="15">
         <v>80.002499161347487</v>
       </c>
-      <c r="CH137" s="24">
+      <c r="CH137" s="15">
         <v>79.374443104077145</v>
       </c>
-      <c r="CI137" s="24">
+      <c r="CI137" s="15">
         <v>81.604357485062152</v>
       </c>
-      <c r="CJ137" s="24">
+      <c r="CJ137" s="15">
         <v>84.627096981693171</v>
       </c>
-      <c r="CK137" s="24">
+      <c r="CK137" s="15">
         <v>80.078720306737068</v>
       </c>
-      <c r="CL137" s="24">
-        <v>80.122304985900399</v>
-      </c>
-      <c r="CM137" s="9"/>
+      <c r="CL137" s="15">
+        <v>79.985155654723982</v>
+      </c>
+      <c r="CM137" s="15">
+        <v>81.033875778020715</v>
+      </c>
       <c r="CN137" s="9"/>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
@@ -40037,7 +40032,7 @@
       <c r="EU137" s="9"/>
       <c r="EV137" s="9"/>
     </row>
-    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -40269,46 +40264,48 @@
       <c r="BY138" s="15">
         <v>2.0415143128538982</v>
       </c>
-      <c r="BZ138" s="24">
+      <c r="BZ138" s="15">
         <v>2.3524288423680622</v>
       </c>
-      <c r="CA138" s="24">
+      <c r="CA138" s="15">
         <v>1.9144666083951771</v>
       </c>
-      <c r="CB138" s="24">
+      <c r="CB138" s="15">
         <v>1.4561683620776216</v>
       </c>
-      <c r="CC138" s="24">
+      <c r="CC138" s="15">
         <v>1.9856886723541622</v>
       </c>
-      <c r="CD138" s="24">
+      <c r="CD138" s="15">
         <v>2.3675791444555268</v>
       </c>
-      <c r="CE138" s="24">
+      <c r="CE138" s="15">
         <v>2.1367529444689848</v>
       </c>
-      <c r="CF138" s="24">
+      <c r="CF138" s="15">
         <v>1.494887392207495</v>
       </c>
-      <c r="CG138" s="24">
+      <c r="CG138" s="15">
         <v>1.9479882129692292</v>
       </c>
-      <c r="CH138" s="24">
+      <c r="CH138" s="15">
         <v>2.4116052608850076</v>
       </c>
-      <c r="CI138" s="24">
+      <c r="CI138" s="15">
         <v>1.8160088580450169</v>
       </c>
-      <c r="CJ138" s="24">
+      <c r="CJ138" s="15">
         <v>1.3364868724411707</v>
       </c>
-      <c r="CK138" s="24">
+      <c r="CK138" s="15">
         <v>1.9746736326771102</v>
       </c>
-      <c r="CL138" s="24">
-        <v>2.06103235725329</v>
-      </c>
-      <c r="CM138" s="9"/>
+      <c r="CL138" s="15">
+        <v>2.0637551988827347</v>
+      </c>
+      <c r="CM138" s="15">
+        <v>1.7973108040557133</v>
+      </c>
       <c r="CN138" s="9"/>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
@@ -40371,7 +40368,7 @@
       <c r="EU138" s="9"/>
       <c r="EV138" s="9"/>
     </row>
-    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -40603,46 +40600,48 @@
       <c r="BY139" s="15">
         <v>16.545519360070358</v>
       </c>
-      <c r="BZ139" s="24">
+      <c r="BZ139" s="15">
         <v>17.198709462865981</v>
       </c>
-      <c r="CA139" s="24">
+      <c r="CA139" s="15">
         <v>14.313507907160364</v>
       </c>
-      <c r="CB139" s="24">
+      <c r="CB139" s="15">
         <v>13.098295142461506</v>
       </c>
-      <c r="CC139" s="24">
+      <c r="CC139" s="15">
         <v>16.54393032459064</v>
       </c>
-      <c r="CD139" s="24">
+      <c r="CD139" s="15">
         <v>16.979390654125964</v>
       </c>
-      <c r="CE139" s="24">
+      <c r="CE139" s="15">
         <v>16.505384664672583</v>
       </c>
-      <c r="CF139" s="24">
+      <c r="CF139" s="15">
         <v>13.325443831326703</v>
       </c>
-      <c r="CG139" s="24">
+      <c r="CG139" s="15">
         <v>16.694641634528228</v>
       </c>
-      <c r="CH139" s="24">
+      <c r="CH139" s="15">
         <v>16.973410331584599</v>
       </c>
-      <c r="CI139" s="24">
+      <c r="CI139" s="15">
         <v>15.415783723327033</v>
       </c>
-      <c r="CJ139" s="24">
+      <c r="CJ139" s="15">
         <v>12.844445133826893</v>
       </c>
-      <c r="CK139" s="24">
+      <c r="CK139" s="15">
         <v>16.505320230331279</v>
       </c>
-      <c r="CL139" s="24">
-        <v>16.556902779500369</v>
-      </c>
-      <c r="CM139" s="9"/>
+      <c r="CL139" s="15">
+        <v>16.664738730837897</v>
+      </c>
+      <c r="CM139" s="15">
+        <v>15.99453887536135</v>
+      </c>
       <c r="CN139" s="9"/>
       <c r="CO139" s="9"/>
       <c r="CP139" s="9"/>
@@ -40705,7 +40704,7 @@
       <c r="EU139" s="9"/>
       <c r="EV139" s="9"/>
     </row>
-    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -40937,46 +40936,48 @@
       <c r="BY140" s="15">
         <v>1.2871517783661468</v>
       </c>
-      <c r="BZ140" s="24">
+      <c r="BZ140" s="15">
         <v>1.3781062854197268</v>
       </c>
-      <c r="CA140" s="24">
+      <c r="CA140" s="15">
         <v>1.0222387994869</v>
       </c>
-      <c r="CB140" s="24">
+      <c r="CB140" s="15">
         <v>1.0955098993405283</v>
       </c>
-      <c r="CC140" s="24">
+      <c r="CC140" s="15">
         <v>1.2734681082889703</v>
       </c>
-      <c r="CD140" s="24">
+      <c r="CD140" s="15">
         <v>1.1708194691320786</v>
       </c>
-      <c r="CE140" s="24">
+      <c r="CE140" s="15">
         <v>1.1673091149819272</v>
       </c>
-      <c r="CF140" s="24">
+      <c r="CF140" s="15">
         <v>1.1434607945002544</v>
       </c>
-      <c r="CG140" s="24">
+      <c r="CG140" s="15">
         <v>1.3548709911550609</v>
       </c>
-      <c r="CH140" s="24">
+      <c r="CH140" s="15">
         <v>1.2405413034532502</v>
       </c>
-      <c r="CI140" s="24">
+      <c r="CI140" s="15">
         <v>1.1638499335658117</v>
       </c>
-      <c r="CJ140" s="24">
+      <c r="CJ140" s="15">
         <v>1.1919710120387601</v>
       </c>
-      <c r="CK140" s="24">
+      <c r="CK140" s="15">
         <v>1.4412858302545561</v>
       </c>
-      <c r="CL140" s="24">
-        <v>1.2597598773459679</v>
-      </c>
-      <c r="CM140" s="9"/>
+      <c r="CL140" s="15">
+        <v>1.2863504155553924</v>
+      </c>
+      <c r="CM140" s="15">
+        <v>1.1742745425622223</v>
+      </c>
       <c r="CN140" s="9"/>
       <c r="CO140" s="9"/>
       <c r="CP140" s="9"/>
@@ -41039,7 +41040,7 @@
       <c r="EU140" s="9"/>
       <c r="EV140" s="9"/>
     </row>
-    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -41116,19 +41117,19 @@
       <c r="BW141" s="9"/>
       <c r="BX141" s="9"/>
       <c r="BY141" s="9"/>
-      <c r="BZ141" s="23"/>
-      <c r="CA141" s="23"/>
-      <c r="CB141" s="23"/>
-      <c r="CC141" s="23"/>
-      <c r="CD141" s="23"/>
-      <c r="CE141" s="23"/>
-      <c r="CF141" s="23"/>
-      <c r="CG141" s="23"/>
-      <c r="CH141" s="23"/>
-      <c r="CI141" s="23"/>
-      <c r="CJ141" s="23"/>
-      <c r="CK141" s="23"/>
-      <c r="CL141" s="23"/>
+      <c r="BZ141" s="9"/>
+      <c r="CA141" s="9"/>
+      <c r="CB141" s="9"/>
+      <c r="CC141" s="9"/>
+      <c r="CD141" s="9"/>
+      <c r="CE141" s="9"/>
+      <c r="CF141" s="9"/>
+      <c r="CG141" s="9"/>
+      <c r="CH141" s="9"/>
+      <c r="CI141" s="9"/>
+      <c r="CJ141" s="9"/>
+      <c r="CK141" s="9"/>
+      <c r="CL141" s="9"/>
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
@@ -41192,7 +41193,7 @@
       <c r="EU141" s="9"/>
       <c r="EV141" s="9"/>
     </row>
-    <row r="142" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A142" s="11" t="s">
         <v>15</v>
       </c>
@@ -41424,46 +41425,48 @@
       <c r="BY142" s="15">
         <v>100</v>
       </c>
-      <c r="BZ142" s="24">
+      <c r="BZ142" s="15">
         <v>100</v>
       </c>
-      <c r="CA142" s="24">
+      <c r="CA142" s="15">
         <v>100</v>
       </c>
-      <c r="CB142" s="24">
+      <c r="CB142" s="15">
         <v>100</v>
       </c>
-      <c r="CC142" s="24">
+      <c r="CC142" s="15">
         <v>100</v>
       </c>
-      <c r="CD142" s="24">
+      <c r="CD142" s="15">
         <v>100</v>
       </c>
-      <c r="CE142" s="24">
+      <c r="CE142" s="15">
         <v>100</v>
       </c>
-      <c r="CF142" s="24">
+      <c r="CF142" s="15">
         <v>100</v>
       </c>
-      <c r="CG142" s="24">
+      <c r="CG142" s="15">
         <v>100</v>
       </c>
-      <c r="CH142" s="24">
+      <c r="CH142" s="15">
         <v>100</v>
       </c>
-      <c r="CI142" s="24">
+      <c r="CI142" s="15">
         <v>100</v>
       </c>
-      <c r="CJ142" s="24">
+      <c r="CJ142" s="15">
         <v>100</v>
       </c>
-      <c r="CK142" s="24">
+      <c r="CK142" s="15">
         <v>100</v>
       </c>
-      <c r="CL142" s="24">
+      <c r="CL142" s="15">
         <v>100</v>
       </c>
-      <c r="CM142" s="9"/>
+      <c r="CM142" s="15">
+        <v>100</v>
+      </c>
       <c r="CN142" s="9"/>
       <c r="CO142" s="9"/>
       <c r="CP142" s="9"/>
@@ -41526,7 +41529,7 @@
       <c r="EU142" s="9"/>
       <c r="EV142" s="9"/>
     </row>
-    <row r="143" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -41604,520 +41607,42 @@
       <c r="BW143" s="13"/>
       <c r="BX143" s="13"/>
       <c r="BY143" s="13"/>
-      <c r="BZ143" s="22"/>
-      <c r="CA143" s="22"/>
-      <c r="CB143" s="22"/>
-      <c r="CC143" s="22"/>
-      <c r="CD143" s="22"/>
-      <c r="CE143" s="22"/>
-      <c r="CF143" s="22"/>
-      <c r="CG143" s="22"/>
-      <c r="CH143" s="22"/>
-      <c r="CI143" s="22"/>
-      <c r="CJ143" s="22"/>
-      <c r="CK143" s="22"/>
-      <c r="CL143" s="22"/>
+      <c r="BZ143" s="13"/>
+      <c r="CA143" s="13"/>
+      <c r="CB143" s="13"/>
+      <c r="CC143" s="13"/>
+      <c r="CD143" s="13"/>
+      <c r="CE143" s="13"/>
+      <c r="CF143" s="13"/>
+      <c r="CG143" s="13"/>
+      <c r="CH143" s="13"/>
+      <c r="CI143" s="13"/>
+      <c r="CJ143" s="13"/>
+      <c r="CK143" s="13"/>
+      <c r="CL143" s="13"/>
+      <c r="CM143" s="13"/>
     </row>
-    <row r="144" spans="1:152" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:152" x14ac:dyDescent="0.25">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD153" s="1"/>
-      <c r="CE153" s="1"/>
-      <c r="CF153" s="1"/>
-      <c r="CG153" s="1"/>
-      <c r="CH153" s="1"/>
-      <c r="CI153" s="1"/>
-      <c r="CJ153" s="1"/>
-      <c r="CK153" s="1"/>
-      <c r="CL153" s="1"/>
-    </row>
-    <row r="154" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD154" s="1"/>
-      <c r="CE154" s="1"/>
-      <c r="CF154" s="1"/>
-      <c r="CG154" s="1"/>
-      <c r="CH154" s="1"/>
-      <c r="CI154" s="1"/>
-      <c r="CJ154" s="1"/>
-      <c r="CK154" s="1"/>
-      <c r="CL154" s="1"/>
-    </row>
-    <row r="155" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD155" s="1"/>
-      <c r="CE155" s="1"/>
-      <c r="CF155" s="1"/>
-      <c r="CG155" s="1"/>
-      <c r="CH155" s="1"/>
-      <c r="CI155" s="1"/>
-      <c r="CJ155" s="1"/>
-      <c r="CK155" s="1"/>
-      <c r="CL155" s="1"/>
-    </row>
-    <row r="156" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD156" s="1"/>
-      <c r="CE156" s="1"/>
-      <c r="CF156" s="1"/>
-      <c r="CG156" s="1"/>
-      <c r="CH156" s="1"/>
-      <c r="CI156" s="1"/>
-      <c r="CJ156" s="1"/>
-      <c r="CK156" s="1"/>
-      <c r="CL156" s="1"/>
-    </row>
-    <row r="157" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD157" s="1"/>
-      <c r="CE157" s="1"/>
-      <c r="CF157" s="1"/>
-      <c r="CG157" s="1"/>
-      <c r="CH157" s="1"/>
-      <c r="CI157" s="1"/>
-      <c r="CJ157" s="1"/>
-      <c r="CK157" s="1"/>
-      <c r="CL157" s="1"/>
-    </row>
-    <row r="158" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD158" s="1"/>
-      <c r="CE158" s="1"/>
-      <c r="CF158" s="1"/>
-      <c r="CG158" s="1"/>
-      <c r="CH158" s="1"/>
-      <c r="CI158" s="1"/>
-      <c r="CJ158" s="1"/>
-      <c r="CK158" s="1"/>
-      <c r="CL158" s="1"/>
-    </row>
-    <row r="159" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD159" s="1"/>
-      <c r="CE159" s="1"/>
-      <c r="CF159" s="1"/>
-      <c r="CG159" s="1"/>
-      <c r="CH159" s="1"/>
-      <c r="CI159" s="1"/>
-      <c r="CJ159" s="1"/>
-      <c r="CK159" s="1"/>
-      <c r="CL159" s="1"/>
-    </row>
-    <row r="160" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD160" s="1"/>
-      <c r="CE160" s="1"/>
-      <c r="CF160" s="1"/>
-      <c r="CG160" s="1"/>
-      <c r="CH160" s="1"/>
-      <c r="CI160" s="1"/>
-      <c r="CJ160" s="1"/>
-      <c r="CK160" s="1"/>
-      <c r="CL160" s="1"/>
-    </row>
-    <row r="161" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD161" s="1"/>
-      <c r="CE161" s="1"/>
-      <c r="CF161" s="1"/>
-      <c r="CG161" s="1"/>
-      <c r="CH161" s="1"/>
-      <c r="CI161" s="1"/>
-      <c r="CJ161" s="1"/>
-      <c r="CK161" s="1"/>
-      <c r="CL161" s="1"/>
-    </row>
-    <row r="162" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD162" s="1"/>
-      <c r="CE162" s="1"/>
-      <c r="CF162" s="1"/>
-      <c r="CG162" s="1"/>
-      <c r="CH162" s="1"/>
-      <c r="CI162" s="1"/>
-      <c r="CJ162" s="1"/>
-      <c r="CK162" s="1"/>
-      <c r="CL162" s="1"/>
-    </row>
-    <row r="163" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD163" s="1"/>
-      <c r="CE163" s="1"/>
-      <c r="CF163" s="1"/>
-      <c r="CG163" s="1"/>
-      <c r="CH163" s="1"/>
-      <c r="CI163" s="1"/>
-      <c r="CJ163" s="1"/>
-      <c r="CK163" s="1"/>
-      <c r="CL163" s="1"/>
-    </row>
-    <row r="164" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD164" s="1"/>
-      <c r="CE164" s="1"/>
-      <c r="CF164" s="1"/>
-      <c r="CG164" s="1"/>
-      <c r="CH164" s="1"/>
-      <c r="CI164" s="1"/>
-      <c r="CJ164" s="1"/>
-      <c r="CK164" s="1"/>
-      <c r="CL164" s="1"/>
-    </row>
-    <row r="165" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD165" s="1"/>
-      <c r="CE165" s="1"/>
-      <c r="CF165" s="1"/>
-      <c r="CG165" s="1"/>
-      <c r="CH165" s="1"/>
-      <c r="CI165" s="1"/>
-      <c r="CJ165" s="1"/>
-      <c r="CK165" s="1"/>
-      <c r="CL165" s="1"/>
-    </row>
-    <row r="166" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD166" s="1"/>
-      <c r="CE166" s="1"/>
-      <c r="CF166" s="1"/>
-      <c r="CG166" s="1"/>
-      <c r="CH166" s="1"/>
-      <c r="CI166" s="1"/>
-      <c r="CJ166" s="1"/>
-      <c r="CK166" s="1"/>
-      <c r="CL166" s="1"/>
-    </row>
-    <row r="167" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD167" s="1"/>
-      <c r="CE167" s="1"/>
-      <c r="CF167" s="1"/>
-      <c r="CG167" s="1"/>
-      <c r="CH167" s="1"/>
-      <c r="CI167" s="1"/>
-      <c r="CJ167" s="1"/>
-      <c r="CK167" s="1"/>
-      <c r="CL167" s="1"/>
-    </row>
-    <row r="168" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD168" s="1"/>
-      <c r="CE168" s="1"/>
-      <c r="CF168" s="1"/>
-      <c r="CG168" s="1"/>
-      <c r="CH168" s="1"/>
-      <c r="CI168" s="1"/>
-      <c r="CJ168" s="1"/>
-      <c r="CK168" s="1"/>
-      <c r="CL168" s="1"/>
-    </row>
-    <row r="169" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD169" s="1"/>
-      <c r="CE169" s="1"/>
-      <c r="CF169" s="1"/>
-      <c r="CG169" s="1"/>
-      <c r="CH169" s="1"/>
-      <c r="CI169" s="1"/>
-      <c r="CJ169" s="1"/>
-      <c r="CK169" s="1"/>
-      <c r="CL169" s="1"/>
-    </row>
-    <row r="170" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD170" s="1"/>
-      <c r="CE170" s="1"/>
-      <c r="CF170" s="1"/>
-      <c r="CG170" s="1"/>
-      <c r="CH170" s="1"/>
-      <c r="CI170" s="1"/>
-      <c r="CJ170" s="1"/>
-      <c r="CK170" s="1"/>
-      <c r="CL170" s="1"/>
-    </row>
-    <row r="171" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD171" s="1"/>
-      <c r="CE171" s="1"/>
-      <c r="CF171" s="1"/>
-      <c r="CG171" s="1"/>
-      <c r="CH171" s="1"/>
-      <c r="CI171" s="1"/>
-      <c r="CJ171" s="1"/>
-      <c r="CK171" s="1"/>
-      <c r="CL171" s="1"/>
-    </row>
-    <row r="172" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD172" s="1"/>
-      <c r="CE172" s="1"/>
-      <c r="CF172" s="1"/>
-      <c r="CG172" s="1"/>
-      <c r="CH172" s="1"/>
-      <c r="CI172" s="1"/>
-      <c r="CJ172" s="1"/>
-      <c r="CK172" s="1"/>
-      <c r="CL172" s="1"/>
-    </row>
-    <row r="173" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD173" s="1"/>
-      <c r="CE173" s="1"/>
-      <c r="CF173" s="1"/>
-      <c r="CG173" s="1"/>
-      <c r="CH173" s="1"/>
-      <c r="CI173" s="1"/>
-      <c r="CJ173" s="1"/>
-      <c r="CK173" s="1"/>
-      <c r="CL173" s="1"/>
-    </row>
-    <row r="174" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD174" s="1"/>
-      <c r="CE174" s="1"/>
-      <c r="CF174" s="1"/>
-      <c r="CG174" s="1"/>
-      <c r="CH174" s="1"/>
-      <c r="CI174" s="1"/>
-      <c r="CJ174" s="1"/>
-      <c r="CK174" s="1"/>
-      <c r="CL174" s="1"/>
-    </row>
-    <row r="175" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD175" s="1"/>
-      <c r="CE175" s="1"/>
-      <c r="CF175" s="1"/>
-      <c r="CG175" s="1"/>
-      <c r="CH175" s="1"/>
-      <c r="CI175" s="1"/>
-      <c r="CJ175" s="1"/>
-      <c r="CK175" s="1"/>
-      <c r="CL175" s="1"/>
-    </row>
-    <row r="176" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD176" s="1"/>
-      <c r="CE176" s="1"/>
-      <c r="CF176" s="1"/>
-      <c r="CG176" s="1"/>
-      <c r="CH176" s="1"/>
-      <c r="CI176" s="1"/>
-      <c r="CJ176" s="1"/>
-      <c r="CK176" s="1"/>
-      <c r="CL176" s="1"/>
-    </row>
-    <row r="177" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD177" s="1"/>
-      <c r="CE177" s="1"/>
-      <c r="CF177" s="1"/>
-      <c r="CG177" s="1"/>
-      <c r="CH177" s="1"/>
-      <c r="CI177" s="1"/>
-      <c r="CJ177" s="1"/>
-      <c r="CK177" s="1"/>
-      <c r="CL177" s="1"/>
-    </row>
-    <row r="178" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD178" s="1"/>
-      <c r="CE178" s="1"/>
-      <c r="CF178" s="1"/>
-      <c r="CG178" s="1"/>
-      <c r="CH178" s="1"/>
-      <c r="CI178" s="1"/>
-      <c r="CJ178" s="1"/>
-      <c r="CK178" s="1"/>
-      <c r="CL178" s="1"/>
-    </row>
-    <row r="179" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD179" s="1"/>
-      <c r="CE179" s="1"/>
-      <c r="CF179" s="1"/>
-      <c r="CG179" s="1"/>
-      <c r="CH179" s="1"/>
-      <c r="CI179" s="1"/>
-      <c r="CJ179" s="1"/>
-      <c r="CK179" s="1"/>
-      <c r="CL179" s="1"/>
-    </row>
-    <row r="180" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD180" s="1"/>
-      <c r="CE180" s="1"/>
-      <c r="CF180" s="1"/>
-      <c r="CG180" s="1"/>
-      <c r="CH180" s="1"/>
-      <c r="CI180" s="1"/>
-      <c r="CJ180" s="1"/>
-      <c r="CK180" s="1"/>
-      <c r="CL180" s="1"/>
-    </row>
-    <row r="181" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD181" s="1"/>
-      <c r="CE181" s="1"/>
-      <c r="CF181" s="1"/>
-      <c r="CG181" s="1"/>
-      <c r="CH181" s="1"/>
-      <c r="CI181" s="1"/>
-      <c r="CJ181" s="1"/>
-      <c r="CK181" s="1"/>
-      <c r="CL181" s="1"/>
-    </row>
-    <row r="182" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD182" s="1"/>
-      <c r="CE182" s="1"/>
-      <c r="CF182" s="1"/>
-      <c r="CG182" s="1"/>
-      <c r="CH182" s="1"/>
-      <c r="CI182" s="1"/>
-      <c r="CJ182" s="1"/>
-      <c r="CK182" s="1"/>
-      <c r="CL182" s="1"/>
-    </row>
-    <row r="183" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD183" s="1"/>
-      <c r="CE183" s="1"/>
-      <c r="CF183" s="1"/>
-      <c r="CG183" s="1"/>
-      <c r="CH183" s="1"/>
-      <c r="CI183" s="1"/>
-      <c r="CJ183" s="1"/>
-      <c r="CK183" s="1"/>
-      <c r="CL183" s="1"/>
-    </row>
-    <row r="184" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD184" s="1"/>
-      <c r="CE184" s="1"/>
-      <c r="CF184" s="1"/>
-      <c r="CG184" s="1"/>
-      <c r="CH184" s="1"/>
-      <c r="CI184" s="1"/>
-      <c r="CJ184" s="1"/>
-      <c r="CK184" s="1"/>
-      <c r="CL184" s="1"/>
-    </row>
-    <row r="185" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD185" s="1"/>
-      <c r="CE185" s="1"/>
-      <c r="CF185" s="1"/>
-      <c r="CG185" s="1"/>
-      <c r="CH185" s="1"/>
-      <c r="CI185" s="1"/>
-      <c r="CJ185" s="1"/>
-      <c r="CK185" s="1"/>
-      <c r="CL185" s="1"/>
-    </row>
-    <row r="186" spans="82:90" x14ac:dyDescent="0.2">
-      <c r="CD186" s="1"/>
-      <c r="CE186" s="1"/>
-      <c r="CF186" s="1"/>
-      <c r="CG186" s="1"/>
-      <c r="CH186" s="1"/>
-      <c r="CI186" s="1"/>
-      <c r="CJ186" s="1"/>
-      <c r="CK186" s="1"/>
-      <c r="CL186" s="1"/>
-    </row>
   </sheetData>
-  <mergeCells count="152">
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
+  <mergeCells count="159">
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
     <mergeCell ref="BZ134:CC134"/>
     <mergeCell ref="BR113:BU113"/>
     <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
     <mergeCell ref="BB134:BE134"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="F92:I92"/>
@@ -42142,24 +41667,136 @@
     <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CL9:CM9"/>
+    <mergeCell ref="CL30:CM30"/>
+    <mergeCell ref="CH51:CI51"/>
+    <mergeCell ref="CH72:CI72"/>
+    <mergeCell ref="CL92:CM92"/>
+    <mergeCell ref="CL113:CM113"/>
+    <mergeCell ref="CL134:CM134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="89" man="1"/>
-    <brk id="84" max="89" man="1"/>
-    <brk id="104" max="89" man="1"/>
+    <brk id="42" max="90" man="1"/>
+    <brk id="84" max="90" man="1"/>
+    <brk id="104" max="90" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\0. IAD activities\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EF1527-E7F9-44F0-9B9A-E03CED416DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364886F8-08C0-43FA-8D90-B8FA24144FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CM$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CN$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of August 2022</t>
+    <t>Q1 2000 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2022</t>
+    <t>Q1 2001 to Q3 2022</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2022</t>
+    <t>As of November 2022</t>
   </si>
 </sst>
 </file>
@@ -636,9 +636,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -712,11 +712,11 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -731,25 +731,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23609,187 +23603,187 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CU33" sqref="CU33"/>
+      <selection pane="topRight" activeCell="CO7" sqref="CO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.54296875" style="1" customWidth="1"/>
-    <col min="2" max="85" width="10.7265625" style="1" customWidth="1"/>
-    <col min="86" max="91" width="10.81640625" style="1" customWidth="1"/>
-    <col min="92" max="16384" width="7.81640625" style="1"/>
+    <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
+    <col min="2" max="92" width="10.77734375" style="1" customWidth="1"/>
+    <col min="93" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="21">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="21"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
     </row>
-    <row r="10" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -24063,11 +24057,14 @@
       <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN10" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="11" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -24339,9 +24336,11 @@
         <v>149985.37547241439</v>
       </c>
       <c r="CM12" s="8">
-        <v>202397.22981292126</v>
-      </c>
-      <c r="CN12" s="9"/>
+        <v>202873.10489213653</v>
+      </c>
+      <c r="CN12" s="8">
+        <v>131486.89805801457</v>
+      </c>
       <c r="CO12" s="9"/>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -24403,7 +24402,7 @@
       <c r="EU12" s="9"/>
       <c r="EV12" s="9"/>
     </row>
-    <row r="13" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -24677,7 +24676,9 @@
       <c r="CM13" s="8">
         <v>3386.612565393008</v>
       </c>
-      <c r="CN13" s="9"/>
+      <c r="CN13" s="8">
+        <v>2665.9136282366271</v>
+      </c>
       <c r="CO13" s="9"/>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
@@ -24739,7 +24740,7 @@
       <c r="EU13" s="9"/>
       <c r="EV13" s="9"/>
     </row>
-    <row r="14" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
@@ -25011,9 +25012,11 @@
         <v>25630.053393726164</v>
       </c>
       <c r="CM14" s="8">
-        <v>28370.95140255084</v>
-      </c>
-      <c r="CN14" s="9"/>
+        <v>27480.020419110937</v>
+      </c>
+      <c r="CN14" s="8">
+        <v>22908.899692452884</v>
+      </c>
       <c r="CO14" s="9"/>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25075,7 +25078,7 @@
       <c r="EU14" s="9"/>
       <c r="EV14" s="9"/>
     </row>
-    <row r="15" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
@@ -25347,9 +25350,11 @@
         <v>2072.5541387360399</v>
       </c>
       <c r="CM15" s="8">
-        <v>2186.0946269786391</v>
-      </c>
-      <c r="CN15" s="9"/>
+        <v>2260.0320458798492</v>
+      </c>
+      <c r="CN15" s="8">
+        <v>2525.1450378755867</v>
+      </c>
       <c r="CO15" s="9"/>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25411,7 +25416,7 @@
       <c r="EU15" s="9"/>
       <c r="EV15" s="9"/>
     </row>
-    <row r="16" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -25502,7 +25507,7 @@
       <c r="CK16" s="10"/>
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
-      <c r="CN16" s="9"/>
+      <c r="CN16" s="10"/>
       <c r="CO16" s="9"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
@@ -25564,7 +25569,7 @@
       <c r="EU16" s="9"/>
       <c r="EV16" s="9"/>
     </row>
-    <row r="17" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -25836,9 +25841,11 @@
         <v>180969.78300095163</v>
       </c>
       <c r="CM17" s="12">
-        <v>236340.88840784374</v>
-      </c>
-      <c r="CN17" s="9"/>
+        <v>235999.7699225203</v>
+      </c>
+      <c r="CN17" s="12">
+        <v>159586.85641657969</v>
+      </c>
       <c r="CO17" s="9"/>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -25900,7 +25907,7 @@
       <c r="EU17" s="9"/>
       <c r="EV17" s="9"/>
     </row>
-    <row r="18" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -25992,13 +25999,14 @@
       <c r="CK18" s="13"/>
       <c r="CL18" s="13"/>
       <c r="CM18" s="13"/>
+      <c r="CN18" s="13"/>
     </row>
-    <row r="19" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -26151,7 +26159,7 @@
       <c r="EU20" s="9"/>
       <c r="EV20" s="9"/>
     </row>
-    <row r="21" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -26304,176 +26312,177 @@
       <c r="EU21" s="9"/>
       <c r="EV21" s="9"/>
     </row>
-    <row r="22" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="21">
+      <c r="B30" s="19">
         <v>2000</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19">
         <v>2001</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19">
         <v>2002</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="19">
         <v>2003</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="21">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="19">
         <v>2004</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="21">
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="19">
         <v>2005</v>
       </c>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="21">
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="19">
         <v>2006</v>
       </c>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="21">
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="19">
         <v>2007</v>
       </c>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="21">
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="19">
         <v>2008</v>
       </c>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="21">
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="19">
         <v>2009</v>
       </c>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-      <c r="AP30" s="21">
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="22"/>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="21">
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="19">
         <v>2011</v>
       </c>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="22"/>
-      <c r="AX30" s="21">
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="19">
         <v>2012</v>
       </c>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="21">
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="19">
         <v>2013</v>
       </c>
-      <c r="BC30" s="22"/>
-      <c r="BD30" s="22"/>
-      <c r="BE30" s="22"/>
-      <c r="BF30" s="21">
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="19">
         <v>2014</v>
       </c>
-      <c r="BG30" s="22"/>
-      <c r="BH30" s="22"/>
-      <c r="BI30" s="22"/>
-      <c r="BJ30" s="21">
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="19">
         <v>2015</v>
       </c>
-      <c r="BK30" s="22"/>
-      <c r="BL30" s="22"/>
-      <c r="BM30" s="22"/>
-      <c r="BN30" s="21">
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="19">
         <v>2016</v>
       </c>
-      <c r="BO30" s="22"/>
-      <c r="BP30" s="22"/>
-      <c r="BQ30" s="22"/>
-      <c r="BR30" s="21">
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="19">
         <v>2017</v>
       </c>
-      <c r="BS30" s="22"/>
-      <c r="BT30" s="22"/>
-      <c r="BU30" s="22"/>
-      <c r="BV30" s="21">
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="BV30" s="19">
         <v>2018</v>
       </c>
-      <c r="BW30" s="22"/>
-      <c r="BX30" s="22"/>
-      <c r="BY30" s="22"/>
-      <c r="BZ30" s="21">
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="BZ30" s="19">
         <v>2019</v>
       </c>
-      <c r="CA30" s="22"/>
-      <c r="CB30" s="22"/>
-      <c r="CC30" s="22"/>
-      <c r="CD30" s="21">
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="19">
         <v>2020</v>
       </c>
-      <c r="CE30" s="22"/>
-      <c r="CF30" s="22"/>
-      <c r="CG30" s="22"/>
-      <c r="CH30" s="21">
+      <c r="CE30" s="20"/>
+      <c r="CF30" s="20"/>
+      <c r="CG30" s="20"/>
+      <c r="CH30" s="19">
         <v>2021</v>
       </c>
-      <c r="CI30" s="21"/>
-      <c r="CJ30" s="21"/>
-      <c r="CK30" s="21"/>
-      <c r="CL30" s="21">
+      <c r="CI30" s="19"/>
+      <c r="CJ30" s="19"/>
+      <c r="CK30" s="19"/>
+      <c r="CL30" s="19">
         <v>2022</v>
       </c>
-      <c r="CM30" s="21"/>
+      <c r="CM30" s="19"/>
+      <c r="CN30" s="19"/>
     </row>
-    <row r="31" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>4</v>
       </c>
@@ -26747,11 +26756,14 @@
       <c r="CM31" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN31" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="32" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>11</v>
       </c>
@@ -27023,9 +27035,11 @@
         <v>116095.45299468466</v>
       </c>
       <c r="CM33" s="8">
-        <v>133220.86801271921</v>
-      </c>
-      <c r="CN33" s="9"/>
+        <v>133533.30444124746</v>
+      </c>
+      <c r="CN33" s="8">
+        <v>151313.94010889303</v>
+      </c>
       <c r="CO33" s="9"/>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27087,7 +27101,7 @@
       <c r="EU33" s="9"/>
       <c r="EV33" s="9"/>
     </row>
-    <row r="34" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -27361,7 +27375,9 @@
       <c r="CM34" s="8">
         <v>2954.8050504315738</v>
       </c>
-      <c r="CN34" s="9"/>
+      <c r="CN34" s="8">
+        <v>2569.3227630156825</v>
+      </c>
       <c r="CO34" s="9"/>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
@@ -27423,7 +27439,7 @@
       <c r="EU34" s="9"/>
       <c r="EV34" s="9"/>
     </row>
-    <row r="35" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>13</v>
       </c>
@@ -27695,9 +27711,11 @@
         <v>24188.243132842203</v>
       </c>
       <c r="CM35" s="8">
-        <v>26295.254077144506</v>
-      </c>
-      <c r="CN35" s="9"/>
+        <v>25458.843483473862</v>
+      </c>
+      <c r="CN35" s="8">
+        <v>23022.360554228471</v>
+      </c>
       <c r="CO35" s="9"/>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -27759,7 +27777,7 @@
       <c r="EU35" s="9"/>
       <c r="EV35" s="9"/>
     </row>
-    <row r="36" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>14</v>
       </c>
@@ -28031,9 +28049,11 @@
         <v>1867.0893740391693</v>
       </c>
       <c r="CM36" s="8">
-        <v>1930.5243929577609</v>
-      </c>
-      <c r="CN36" s="9"/>
+        <v>1995.8179941493972</v>
+      </c>
+      <c r="CN36" s="8">
+        <v>2241.1038042216128</v>
+      </c>
       <c r="CO36" s="9"/>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28095,7 +28115,7 @@
       <c r="EU36" s="9"/>
       <c r="EV36" s="9"/>
     </row>
-    <row r="37" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -28186,7 +28206,7 @@
       <c r="CK37" s="10"/>
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
-      <c r="CN37" s="9"/>
+      <c r="CN37" s="10"/>
       <c r="CO37" s="9"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
@@ -28248,7 +28268,7 @@
       <c r="EU37" s="9"/>
       <c r="EV37" s="9"/>
     </row>
-    <row r="38" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>15</v>
       </c>
@@ -28520,9 +28540,11 @@
         <v>145146.24875625654</v>
       </c>
       <c r="CM38" s="12">
-        <v>164401.45153325304</v>
-      </c>
-      <c r="CN38" s="9"/>
+        <v>163942.77096930231</v>
+      </c>
+      <c r="CN38" s="12">
+        <v>179146.72723035881</v>
+      </c>
       <c r="CO38" s="9"/>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -28584,7 +28606,7 @@
       <c r="EU38" s="9"/>
       <c r="EV38" s="9"/>
     </row>
-    <row r="39" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -28676,13 +28698,14 @@
       <c r="CK39" s="13"/>
       <c r="CL39" s="13"/>
       <c r="CM39" s="13"/>
+      <c r="CN39" s="13"/>
     </row>
-    <row r="40" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -28835,7 +28858,7 @@
       <c r="EU41" s="9"/>
       <c r="EV41" s="9"/>
     </row>
-    <row r="42" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
@@ -28988,174 +29011,175 @@
       <c r="EU42" s="9"/>
       <c r="EV42" s="9"/>
     </row>
-    <row r="43" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="47" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21" t="s">
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21" t="s">
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21" t="s">
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21" t="s">
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21" t="s">
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="21" t="s">
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="21" t="s">
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="21"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21" t="s">
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21" t="s">
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21" t="s">
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21" t="s">
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="19"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21" t="s">
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="19"/>
+      <c r="BE51" s="19"/>
+      <c r="BF51" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
-      <c r="BI51" s="21"/>
-      <c r="BJ51" s="21" t="s">
+      <c r="BG51" s="19"/>
+      <c r="BH51" s="19"/>
+      <c r="BI51" s="19"/>
+      <c r="BJ51" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="21"/>
-      <c r="BL51" s="21"/>
-      <c r="BM51" s="21"/>
-      <c r="BN51" s="21" t="s">
+      <c r="BK51" s="19"/>
+      <c r="BL51" s="19"/>
+      <c r="BM51" s="19"/>
+      <c r="BN51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="21"/>
-      <c r="BP51" s="21"/>
-      <c r="BQ51" s="21"/>
-      <c r="BR51" s="21" t="s">
+      <c r="BO51" s="19"/>
+      <c r="BP51" s="19"/>
+      <c r="BQ51" s="19"/>
+      <c r="BR51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="21"/>
-      <c r="BT51" s="21"/>
-      <c r="BU51" s="21"/>
-      <c r="BV51" s="21" t="s">
+      <c r="BS51" s="19"/>
+      <c r="BT51" s="19"/>
+      <c r="BU51" s="19"/>
+      <c r="BV51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="21"/>
-      <c r="BX51" s="21"/>
-      <c r="BY51" s="21"/>
-      <c r="BZ51" s="21" t="s">
+      <c r="BW51" s="19"/>
+      <c r="BX51" s="19"/>
+      <c r="BY51" s="19"/>
+      <c r="BZ51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="21"/>
-      <c r="CB51" s="21"/>
-      <c r="CC51" s="21"/>
-      <c r="CD51" s="21" t="s">
+      <c r="CA51" s="19"/>
+      <c r="CB51" s="19"/>
+      <c r="CC51" s="19"/>
+      <c r="CD51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="21"/>
-      <c r="CF51" s="21"/>
-      <c r="CG51" s="21"/>
-      <c r="CH51" s="21" t="s">
+      <c r="CE51" s="19"/>
+      <c r="CF51" s="19"/>
+      <c r="CG51" s="19"/>
+      <c r="CH51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="21"/>
-      <c r="CJ51" s="18"/>
-      <c r="CK51" s="18"/>
-      <c r="CL51" s="17"/>
-      <c r="CM51" s="17"/>
+      <c r="CI51" s="19"/>
+      <c r="CJ51" s="19"/>
+      <c r="CK51" s="17"/>
+      <c r="CL51" s="19"/>
+      <c r="CM51" s="19"/>
+      <c r="CN51" s="17"/>
     </row>
-    <row r="52" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>4</v>
       </c>
@@ -29417,15 +29441,18 @@
       <c r="CI52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ52" s="5"/>
+      <c r="CJ52" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK52" s="5"/>
       <c r="CL52" s="5"/>
-      <c r="CM52" s="19"/>
+      <c r="CM52" s="5"/>
+      <c r="CN52" s="5"/>
     </row>
-    <row r="53" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
     </row>
-    <row r="54" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -29685,13 +29712,15 @@
         <v>20.128618129532597</v>
       </c>
       <c r="CI54" s="15">
-        <v>17.341713048634475</v>
-      </c>
-      <c r="CJ54" s="15"/>
+        <v>17.617606137902001</v>
+      </c>
+      <c r="CJ54" s="15">
+        <v>13.445169909850961</v>
+      </c>
       <c r="CK54" s="15"/>
       <c r="CL54" s="15"/>
-      <c r="CM54" s="9"/>
-      <c r="CN54" s="9"/>
+      <c r="CM54" s="15"/>
+      <c r="CN54" s="15"/>
       <c r="CO54" s="9"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
@@ -29749,7 +29778,7 @@
       <c r="EQ54" s="9"/>
       <c r="ER54" s="9"/>
     </row>
-    <row r="55" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -30011,11 +30040,13 @@
       <c r="CI55" s="15">
         <v>10.175778339871471</v>
       </c>
-      <c r="CJ55" s="15"/>
+      <c r="CJ55" s="15">
+        <v>13.915205999411313</v>
+      </c>
       <c r="CK55" s="15"/>
       <c r="CL55" s="15"/>
-      <c r="CM55" s="9"/>
-      <c r="CN55" s="9"/>
+      <c r="CM55" s="15"/>
+      <c r="CN55" s="15"/>
       <c r="CO55" s="9"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
@@ -30073,7 +30104,7 @@
       <c r="EQ55" s="9"/>
       <c r="ER55" s="9"/>
     </row>
-    <row r="56" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>13</v>
       </c>
@@ -30333,13 +30364,15 @@
         <v>4.7847347653610512</v>
       </c>
       <c r="CI56" s="15">
-        <v>2.8129972019174545</v>
-      </c>
-      <c r="CJ56" s="15"/>
+        <v>-0.41563208893082049</v>
+      </c>
+      <c r="CJ56" s="15">
+        <v>4.031242610411482</v>
+      </c>
       <c r="CK56" s="15"/>
       <c r="CL56" s="15"/>
-      <c r="CM56" s="9"/>
-      <c r="CN56" s="9"/>
+      <c r="CM56" s="15"/>
+      <c r="CN56" s="15"/>
       <c r="CO56" s="9"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
@@ -30397,7 +30430,7 @@
       <c r="EQ56" s="9"/>
       <c r="ER56" s="9"/>
     </row>
-    <row r="57" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
@@ -30657,13 +30690,15 @@
         <v>11.099902954550586</v>
       </c>
       <c r="CI57" s="15">
-        <v>7.8615136446056795</v>
-      </c>
-      <c r="CJ57" s="15"/>
+        <v>11.509572525150062</v>
+      </c>
+      <c r="CJ57" s="15">
+        <v>11.061986720378528</v>
+      </c>
       <c r="CK57" s="15"/>
       <c r="CL57" s="15"/>
-      <c r="CM57" s="9"/>
-      <c r="CN57" s="9"/>
+      <c r="CM57" s="15"/>
+      <c r="CN57" s="15"/>
       <c r="CO57" s="9"/>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
@@ -30721,7 +30756,7 @@
       <c r="EQ57" s="9"/>
       <c r="ER57" s="9"/>
     </row>
-    <row r="58" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -30870,7 +30905,7 @@
       <c r="EQ58" s="9"/>
       <c r="ER58" s="9"/>
     </row>
-    <row r="59" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>15</v>
       </c>
@@ -31130,13 +31165,15 @@
         <v>17.034938959611964</v>
       </c>
       <c r="CI59" s="15">
-        <v>15.186749888338099</v>
-      </c>
-      <c r="CJ59" s="15"/>
+        <v>15.020497108652208</v>
+      </c>
+      <c r="CJ59" s="15">
+        <v>11.960489413073262</v>
+      </c>
       <c r="CK59" s="15"/>
       <c r="CL59" s="15"/>
-      <c r="CM59" s="9"/>
-      <c r="CN59" s="9"/>
+      <c r="CM59" s="15"/>
+      <c r="CN59" s="15"/>
       <c r="CO59" s="9"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
@@ -31194,7 +31231,7 @@
       <c r="EQ59" s="9"/>
       <c r="ER59" s="9"/>
     </row>
-    <row r="60" spans="1:148" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:148" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -31286,13 +31323,14 @@
       <c r="CK60" s="13"/>
       <c r="CL60" s="13"/>
       <c r="CM60" s="13"/>
+      <c r="CN60" s="13"/>
     </row>
-    <row r="61" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
       <c r="C62" s="16"/>
       <c r="D62" s="16"/>
@@ -31377,13 +31415,13 @@
       <c r="CE62" s="16"/>
       <c r="CF62" s="16"/>
       <c r="CG62" s="16"/>
-      <c r="CH62" s="20"/>
-      <c r="CI62" s="20"/>
-      <c r="CJ62" s="20"/>
-      <c r="CK62" s="20"/>
-      <c r="CL62" s="20"/>
-      <c r="CM62" s="9"/>
-      <c r="CN62" s="9"/>
+      <c r="CH62" s="18"/>
+      <c r="CI62" s="18"/>
+      <c r="CJ62" s="18"/>
+      <c r="CK62" s="18"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="18"/>
       <c r="CO62" s="9"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
@@ -31441,7 +31479,7 @@
       <c r="EQ62" s="9"/>
       <c r="ER62" s="9"/>
     </row>
-    <row r="63" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -31590,174 +31628,175 @@
       <c r="EQ63" s="9"/>
       <c r="ER63" s="9"/>
     </row>
-    <row r="64" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="21" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="21" t="s">
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="21" t="s">
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="21" t="s">
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="21" t="s">
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="23"/>
-      <c r="Z72" s="21" t="s">
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="23"/>
-      <c r="AB72" s="23"/>
-      <c r="AC72" s="23"/>
-      <c r="AD72" s="21" t="s">
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="23"/>
-      <c r="AF72" s="23"/>
-      <c r="AG72" s="23"/>
-      <c r="AH72" s="21" t="s">
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="23"/>
-      <c r="AJ72" s="23"/>
-      <c r="AK72" s="23"/>
-      <c r="AL72" s="21" t="s">
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="23"/>
-      <c r="AN72" s="23"/>
-      <c r="AO72" s="23"/>
-      <c r="AP72" s="21" t="s">
+      <c r="AM72" s="21"/>
+      <c r="AN72" s="21"/>
+      <c r="AO72" s="21"/>
+      <c r="AP72" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="23"/>
-      <c r="AR72" s="23"/>
-      <c r="AS72" s="23"/>
-      <c r="AT72" s="21" t="s">
+      <c r="AQ72" s="21"/>
+      <c r="AR72" s="21"/>
+      <c r="AS72" s="21"/>
+      <c r="AT72" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="23"/>
-      <c r="AV72" s="23"/>
-      <c r="AW72" s="23"/>
-      <c r="AX72" s="21" t="s">
+      <c r="AU72" s="21"/>
+      <c r="AV72" s="21"/>
+      <c r="AW72" s="21"/>
+      <c r="AX72" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="23"/>
-      <c r="AZ72" s="23"/>
-      <c r="BA72" s="23"/>
-      <c r="BB72" s="21" t="s">
+      <c r="AY72" s="21"/>
+      <c r="AZ72" s="21"/>
+      <c r="BA72" s="21"/>
+      <c r="BB72" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="23"/>
-      <c r="BD72" s="23"/>
-      <c r="BE72" s="23"/>
-      <c r="BF72" s="21" t="s">
+      <c r="BC72" s="21"/>
+      <c r="BD72" s="21"/>
+      <c r="BE72" s="21"/>
+      <c r="BF72" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="23"/>
-      <c r="BH72" s="23"/>
-      <c r="BI72" s="23"/>
-      <c r="BJ72" s="21" t="s">
+      <c r="BG72" s="21"/>
+      <c r="BH72" s="21"/>
+      <c r="BI72" s="21"/>
+      <c r="BJ72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="23"/>
-      <c r="BL72" s="23"/>
-      <c r="BM72" s="23"/>
-      <c r="BN72" s="21" t="s">
+      <c r="BK72" s="21"/>
+      <c r="BL72" s="21"/>
+      <c r="BM72" s="21"/>
+      <c r="BN72" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="23"/>
-      <c r="BP72" s="23"/>
-      <c r="BQ72" s="23"/>
-      <c r="BR72" s="21" t="s">
+      <c r="BO72" s="21"/>
+      <c r="BP72" s="21"/>
+      <c r="BQ72" s="21"/>
+      <c r="BR72" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="23"/>
-      <c r="BT72" s="23"/>
-      <c r="BU72" s="23"/>
-      <c r="BV72" s="21" t="s">
+      <c r="BS72" s="21"/>
+      <c r="BT72" s="21"/>
+      <c r="BU72" s="21"/>
+      <c r="BV72" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="23"/>
-      <c r="BX72" s="23"/>
-      <c r="BY72" s="23"/>
-      <c r="BZ72" s="21" t="s">
+      <c r="BW72" s="21"/>
+      <c r="BX72" s="21"/>
+      <c r="BY72" s="21"/>
+      <c r="BZ72" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="23"/>
-      <c r="CB72" s="23"/>
-      <c r="CC72" s="23"/>
-      <c r="CD72" s="21" t="s">
+      <c r="CA72" s="21"/>
+      <c r="CB72" s="21"/>
+      <c r="CC72" s="21"/>
+      <c r="CD72" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="23"/>
-      <c r="CF72" s="23"/>
-      <c r="CG72" s="23"/>
-      <c r="CH72" s="21" t="s">
+      <c r="CE72" s="21"/>
+      <c r="CF72" s="21"/>
+      <c r="CG72" s="21"/>
+      <c r="CH72" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="21"/>
-      <c r="CJ72" s="18"/>
-      <c r="CK72" s="18"/>
-      <c r="CL72" s="17"/>
-      <c r="CM72" s="17"/>
+      <c r="CI72" s="19"/>
+      <c r="CJ72" s="19"/>
+      <c r="CK72" s="17"/>
+      <c r="CL72" s="19"/>
+      <c r="CM72" s="19"/>
+      <c r="CN72" s="17"/>
     </row>
-    <row r="73" spans="1:148" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
         <v>4</v>
       </c>
@@ -32019,15 +32058,18 @@
       <c r="CI73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CJ73" s="5"/>
+      <c r="CJ73" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="CK73" s="5"/>
       <c r="CL73" s="5"/>
-      <c r="CM73" s="19"/>
+      <c r="CM73" s="5"/>
+      <c r="CN73" s="5"/>
     </row>
-    <row r="74" spans="1:148" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
     </row>
-    <row r="75" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>11</v>
       </c>
@@ -32287,13 +32329,15 @@
         <v>6.4509415339730509</v>
       </c>
       <c r="CI75" s="15">
-        <v>4.6712268276184972</v>
-      </c>
-      <c r="CJ75" s="15"/>
+        <v>4.9167071699066582</v>
+      </c>
+      <c r="CJ75" s="15">
+        <v>3.7309733642250933</v>
+      </c>
       <c r="CK75" s="15"/>
       <c r="CL75" s="15"/>
-      <c r="CM75" s="9"/>
-      <c r="CN75" s="9"/>
+      <c r="CM75" s="15"/>
+      <c r="CN75" s="15"/>
       <c r="CO75" s="9"/>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
@@ -32351,7 +32395,7 @@
       <c r="EQ75" s="9"/>
       <c r="ER75" s="9"/>
     </row>
-    <row r="76" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>12</v>
       </c>
@@ -32613,11 +32657,13 @@
       <c r="CI76" s="15">
         <v>4.3228096867041756</v>
       </c>
-      <c r="CJ76" s="15"/>
+      <c r="CJ76" s="15">
+        <v>11.530313643096292</v>
+      </c>
       <c r="CK76" s="15"/>
       <c r="CL76" s="15"/>
-      <c r="CM76" s="9"/>
-      <c r="CN76" s="9"/>
+      <c r="CM76" s="15"/>
+      <c r="CN76" s="15"/>
       <c r="CO76" s="9"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
@@ -32675,7 +32721,7 @@
       <c r="EQ76" s="9"/>
       <c r="ER76" s="9"/>
     </row>
-    <row r="77" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>13</v>
       </c>
@@ -32935,13 +32981,15 @@
         <v>3.7170612388075313</v>
       </c>
       <c r="CI77" s="15">
-        <v>9.3654559644233331</v>
-      </c>
-      <c r="CJ77" s="15"/>
+        <v>5.8867131585200951</v>
+      </c>
+      <c r="CJ77" s="15">
+        <v>3.9856616242150551</v>
+      </c>
       <c r="CK77" s="15"/>
       <c r="CL77" s="15"/>
-      <c r="CM77" s="9"/>
-      <c r="CN77" s="9"/>
+      <c r="CM77" s="15"/>
+      <c r="CN77" s="15"/>
       <c r="CO77" s="9"/>
       <c r="CP77" s="9"/>
       <c r="CQ77" s="9"/>
@@ -32999,7 +33047,7 @@
       <c r="EQ77" s="9"/>
       <c r="ER77" s="9"/>
     </row>
-    <row r="78" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>14</v>
       </c>
@@ -33259,13 +33307,15 @@
         <v>9.539023893372061</v>
       </c>
       <c r="CI78" s="15">
-        <v>6.3522573902501875</v>
-      </c>
-      <c r="CJ78" s="15"/>
+        <v>9.9492706707869445</v>
+      </c>
+      <c r="CJ78" s="15">
+        <v>9.0775149921646943</v>
+      </c>
       <c r="CK78" s="15"/>
       <c r="CL78" s="15"/>
-      <c r="CM78" s="9"/>
-      <c r="CN78" s="9"/>
+      <c r="CM78" s="15"/>
+      <c r="CN78" s="15"/>
       <c r="CO78" s="9"/>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
@@ -33323,7 +33373,7 @@
       <c r="EQ78" s="9"/>
       <c r="ER78" s="9"/>
     </row>
-    <row r="79" spans="1:148" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9"/>
@@ -33472,7 +33522,7 @@
       <c r="EQ79" s="9"/>
       <c r="ER79" s="9"/>
     </row>
-    <row r="80" spans="1:148" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:148" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>15</v>
       </c>
@@ -33732,13 +33782,15 @@
         <v>5.6381541424774753</v>
       </c>
       <c r="CI80" s="15">
-        <v>5.4081164257701886</v>
-      </c>
-      <c r="CJ80" s="15"/>
+        <v>5.1140274512736568</v>
+      </c>
+      <c r="CJ80" s="15">
+        <v>3.9316530433575565</v>
+      </c>
       <c r="CK80" s="15"/>
       <c r="CL80" s="15"/>
-      <c r="CM80" s="9"/>
-      <c r="CN80" s="9"/>
+      <c r="CM80" s="15"/>
+      <c r="CN80" s="15"/>
       <c r="CO80" s="9"/>
       <c r="CP80" s="9"/>
       <c r="CQ80" s="9"/>
@@ -33796,7 +33848,7 @@
       <c r="EQ80" s="9"/>
       <c r="ER80" s="9"/>
     </row>
-    <row r="81" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -33888,13 +33940,14 @@
       <c r="CK81" s="13"/>
       <c r="CL81" s="13"/>
       <c r="CM81" s="13"/>
+      <c r="CN81" s="13"/>
     </row>
-    <row r="82" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
       <c r="D83" s="9"/>
@@ -34043,7 +34096,7 @@
       <c r="EQ83" s="9"/>
       <c r="ER83" s="9"/>
     </row>
-    <row r="84" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="16"/>
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
@@ -34192,171 +34245,172 @@
       <c r="EQ84" s="9"/>
       <c r="ER84" s="9"/>
     </row>
-    <row r="85" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="90" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="21">
+      <c r="B92" s="19">
         <v>2000</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="21">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="19">
         <v>2001</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="21">
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="19">
         <v>2002</v>
       </c>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="21">
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="19">
         <v>2003</v>
       </c>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="21">
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="19">
         <v>2004</v>
       </c>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="21">
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="19">
         <v>2005</v>
       </c>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="21">
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="19">
         <v>2006</v>
       </c>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="21">
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="19">
         <v>2007</v>
       </c>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="21">
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="19">
         <v>2008</v>
       </c>
-      <c r="AI92" s="22"/>
-      <c r="AJ92" s="22"/>
-      <c r="AK92" s="22"/>
-      <c r="AL92" s="21">
+      <c r="AI92" s="20"/>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="19">
         <v>2009</v>
       </c>
-      <c r="AM92" s="22"/>
-      <c r="AN92" s="22"/>
-      <c r="AO92" s="22"/>
-      <c r="AP92" s="21">
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="20"/>
+      <c r="AO92" s="20"/>
+      <c r="AP92" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="22"/>
-      <c r="AR92" s="22"/>
-      <c r="AS92" s="22"/>
-      <c r="AT92" s="21">
+      <c r="AQ92" s="20"/>
+      <c r="AR92" s="20"/>
+      <c r="AS92" s="20"/>
+      <c r="AT92" s="19">
         <v>2011</v>
       </c>
-      <c r="AU92" s="22"/>
-      <c r="AV92" s="22"/>
-      <c r="AW92" s="22"/>
-      <c r="AX92" s="21">
+      <c r="AU92" s="20"/>
+      <c r="AV92" s="20"/>
+      <c r="AW92" s="20"/>
+      <c r="AX92" s="19">
         <v>2012</v>
       </c>
-      <c r="AY92" s="22"/>
-      <c r="AZ92" s="22"/>
-      <c r="BA92" s="22"/>
-      <c r="BB92" s="21">
+      <c r="AY92" s="20"/>
+      <c r="AZ92" s="20"/>
+      <c r="BA92" s="20"/>
+      <c r="BB92" s="19">
         <v>2013</v>
       </c>
-      <c r="BC92" s="22"/>
-      <c r="BD92" s="22"/>
-      <c r="BE92" s="22"/>
-      <c r="BF92" s="21">
+      <c r="BC92" s="20"/>
+      <c r="BD92" s="20"/>
+      <c r="BE92" s="20"/>
+      <c r="BF92" s="19">
         <v>2014</v>
       </c>
-      <c r="BG92" s="22"/>
-      <c r="BH92" s="22"/>
-      <c r="BI92" s="22"/>
-      <c r="BJ92" s="21">
+      <c r="BG92" s="20"/>
+      <c r="BH92" s="20"/>
+      <c r="BI92" s="20"/>
+      <c r="BJ92" s="19">
         <v>2015</v>
       </c>
-      <c r="BK92" s="22"/>
-      <c r="BL92" s="22"/>
-      <c r="BM92" s="22"/>
-      <c r="BN92" s="21">
+      <c r="BK92" s="20"/>
+      <c r="BL92" s="20"/>
+      <c r="BM92" s="20"/>
+      <c r="BN92" s="19">
         <v>2016</v>
       </c>
-      <c r="BO92" s="22"/>
-      <c r="BP92" s="22"/>
-      <c r="BQ92" s="22"/>
-      <c r="BR92" s="21">
+      <c r="BO92" s="20"/>
+      <c r="BP92" s="20"/>
+      <c r="BQ92" s="20"/>
+      <c r="BR92" s="19">
         <v>2017</v>
       </c>
-      <c r="BS92" s="22"/>
-      <c r="BT92" s="22"/>
-      <c r="BU92" s="22"/>
-      <c r="BV92" s="21">
+      <c r="BS92" s="20"/>
+      <c r="BT92" s="20"/>
+      <c r="BU92" s="20"/>
+      <c r="BV92" s="19">
         <v>2018</v>
       </c>
-      <c r="BW92" s="22"/>
-      <c r="BX92" s="22"/>
-      <c r="BY92" s="22"/>
-      <c r="BZ92" s="21">
+      <c r="BW92" s="20"/>
+      <c r="BX92" s="20"/>
+      <c r="BY92" s="20"/>
+      <c r="BZ92" s="19">
         <v>2019</v>
       </c>
-      <c r="CA92" s="22"/>
-      <c r="CB92" s="22"/>
-      <c r="CC92" s="22"/>
-      <c r="CD92" s="21">
+      <c r="CA92" s="20"/>
+      <c r="CB92" s="20"/>
+      <c r="CC92" s="20"/>
+      <c r="CD92" s="19">
         <v>2020</v>
       </c>
-      <c r="CE92" s="22"/>
-      <c r="CF92" s="22"/>
-      <c r="CG92" s="22"/>
-      <c r="CH92" s="21">
+      <c r="CE92" s="20"/>
+      <c r="CF92" s="20"/>
+      <c r="CG92" s="20"/>
+      <c r="CH92" s="19">
         <v>2021</v>
       </c>
-      <c r="CI92" s="21"/>
-      <c r="CJ92" s="21"/>
-      <c r="CK92" s="21"/>
-      <c r="CL92" s="21">
+      <c r="CI92" s="19"/>
+      <c r="CJ92" s="19"/>
+      <c r="CK92" s="19"/>
+      <c r="CL92" s="19">
         <v>2022</v>
       </c>
-      <c r="CM92" s="21"/>
+      <c r="CM92" s="19"/>
+      <c r="CN92" s="19"/>
     </row>
-    <row r="93" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>4</v>
       </c>
@@ -34630,11 +34684,14 @@
       <c r="CM93" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN93" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="94" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
     </row>
-    <row r="95" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>11</v>
       </c>
@@ -34906,9 +34963,11 @@
         <v>129.1914296413326</v>
       </c>
       <c r="CM95" s="15">
-        <v>151.92607046637579</v>
-      </c>
-      <c r="CN95" s="9"/>
+        <v>151.9269711335553</v>
+      </c>
+      <c r="CN95" s="15">
+        <v>86.896751193835854</v>
+      </c>
       <c r="CO95" s="9"/>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -34970,7 +35029,7 @@
       <c r="EU95" s="9"/>
       <c r="EV95" s="9"/>
     </row>
-    <row r="96" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>12</v>
       </c>
@@ -35244,7 +35303,9 @@
       <c r="CM96" s="15">
         <v>114.61373957305119</v>
       </c>
-      <c r="CN96" s="9"/>
+      <c r="CN96" s="15">
+        <v>103.75939008564161</v>
+      </c>
       <c r="CO96" s="9"/>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
@@ -35306,7 +35367,7 @@
       <c r="EU96" s="9"/>
       <c r="EV96" s="9"/>
     </row>
-    <row r="97" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>13</v>
       </c>
@@ -35578,9 +35639,11 @@
         <v>105.96078951648336</v>
       </c>
       <c r="CM97" s="15">
-        <v>107.89380973204021</v>
-      </c>
-      <c r="CN97" s="9"/>
+        <v>107.93899745268902</v>
+      </c>
+      <c r="CN97" s="15">
+        <v>99.507171032664814</v>
+      </c>
       <c r="CO97" s="9"/>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
@@ -35642,7 +35705,7 @@
       <c r="EU97" s="9"/>
       <c r="EV97" s="9"/>
     </row>
-    <row r="98" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>14</v>
       </c>
@@ -35914,9 +35977,11 @@
         <v>111.00454898162577</v>
       </c>
       <c r="CM98" s="15">
-        <v>113.23838408637346</v>
-      </c>
-      <c r="CN98" s="9"/>
+        <v>113.23838408637347</v>
+      </c>
+      <c r="CN98" s="15">
+        <v>112.6741667708082</v>
+      </c>
       <c r="CO98" s="9"/>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
@@ -35978,7 +36043,7 @@
       <c r="EU98" s="9"/>
       <c r="EV98" s="9"/>
     </row>
-    <row r="99" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
       <c r="D99" s="15"/>
@@ -36069,7 +36134,7 @@
       <c r="CK99" s="15"/>
       <c r="CL99" s="15"/>
       <c r="CM99" s="15"/>
-      <c r="CN99" s="9"/>
+      <c r="CN99" s="15"/>
       <c r="CO99" s="9"/>
       <c r="CP99" s="9"/>
       <c r="CQ99" s="9"/>
@@ -36131,7 +36196,7 @@
       <c r="EU99" s="9"/>
       <c r="EV99" s="9"/>
     </row>
-    <row r="100" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>15</v>
       </c>
@@ -36403,9 +36468,11 @@
         <v>124.68099213838686</v>
       </c>
       <c r="CM100" s="15">
-        <v>143.7583951988646</v>
-      </c>
-      <c r="CN100" s="9"/>
+        <v>143.95253204955918</v>
+      </c>
+      <c r="CN100" s="15">
+        <v>89.081647699526357</v>
+      </c>
       <c r="CO100" s="9"/>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
@@ -36467,7 +36534,7 @@
       <c r="EU100" s="9"/>
       <c r="EV100" s="9"/>
     </row>
-    <row r="101" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -36559,182 +36626,184 @@
       <c r="CK101" s="13"/>
       <c r="CL101" s="13"/>
       <c r="CM101" s="13"/>
+      <c r="CN101" s="13"/>
     </row>
-    <row r="102" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="109" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="111" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="113" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="21">
+      <c r="B113" s="19">
         <v>2000</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="21">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="19">
         <v>2001</v>
       </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="21">
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="19">
         <v>2002</v>
       </c>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="21">
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="19">
         <v>2003</v>
       </c>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="21">
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="19">
         <v>2004</v>
       </c>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="21">
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="19">
         <v>2005</v>
       </c>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="21">
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="19">
         <v>2006</v>
       </c>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="21">
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="19">
         <v>2007</v>
       </c>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="21">
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="19">
         <v>2008</v>
       </c>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="21">
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+      <c r="AL113" s="19">
         <v>2009</v>
       </c>
-      <c r="AM113" s="22"/>
-      <c r="AN113" s="22"/>
-      <c r="AO113" s="22"/>
-      <c r="AP113" s="21">
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="20"/>
+      <c r="AO113" s="20"/>
+      <c r="AP113" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="22"/>
-      <c r="AR113" s="22"/>
-      <c r="AS113" s="22"/>
-      <c r="AT113" s="21">
+      <c r="AQ113" s="20"/>
+      <c r="AR113" s="20"/>
+      <c r="AS113" s="20"/>
+      <c r="AT113" s="19">
         <v>2011</v>
       </c>
-      <c r="AU113" s="22"/>
-      <c r="AV113" s="22"/>
-      <c r="AW113" s="22"/>
-      <c r="AX113" s="21">
+      <c r="AU113" s="20"/>
+      <c r="AV113" s="20"/>
+      <c r="AW113" s="20"/>
+      <c r="AX113" s="19">
         <v>2012</v>
       </c>
-      <c r="AY113" s="22"/>
-      <c r="AZ113" s="22"/>
-      <c r="BA113" s="22"/>
-      <c r="BB113" s="21">
+      <c r="AY113" s="20"/>
+      <c r="AZ113" s="20"/>
+      <c r="BA113" s="20"/>
+      <c r="BB113" s="19">
         <v>2013</v>
       </c>
-      <c r="BC113" s="22"/>
-      <c r="BD113" s="22"/>
-      <c r="BE113" s="22"/>
-      <c r="BF113" s="21">
+      <c r="BC113" s="20"/>
+      <c r="BD113" s="20"/>
+      <c r="BE113" s="20"/>
+      <c r="BF113" s="19">
         <v>2014</v>
       </c>
-      <c r="BG113" s="22"/>
-      <c r="BH113" s="22"/>
-      <c r="BI113" s="22"/>
-      <c r="BJ113" s="21">
+      <c r="BG113" s="20"/>
+      <c r="BH113" s="20"/>
+      <c r="BI113" s="20"/>
+      <c r="BJ113" s="19">
         <v>2015</v>
       </c>
-      <c r="BK113" s="22"/>
-      <c r="BL113" s="22"/>
-      <c r="BM113" s="22"/>
-      <c r="BN113" s="21">
+      <c r="BK113" s="20"/>
+      <c r="BL113" s="20"/>
+      <c r="BM113" s="20"/>
+      <c r="BN113" s="19">
         <v>2016</v>
       </c>
-      <c r="BO113" s="22"/>
-      <c r="BP113" s="22"/>
-      <c r="BQ113" s="22"/>
-      <c r="BR113" s="21">
+      <c r="BO113" s="20"/>
+      <c r="BP113" s="20"/>
+      <c r="BQ113" s="20"/>
+      <c r="BR113" s="19">
         <v>2017</v>
       </c>
-      <c r="BS113" s="22"/>
-      <c r="BT113" s="22"/>
-      <c r="BU113" s="22"/>
-      <c r="BV113" s="21">
+      <c r="BS113" s="20"/>
+      <c r="BT113" s="20"/>
+      <c r="BU113" s="20"/>
+      <c r="BV113" s="19">
         <v>2018</v>
       </c>
-      <c r="BW113" s="22"/>
-      <c r="BX113" s="22"/>
-      <c r="BY113" s="22"/>
-      <c r="BZ113" s="21">
+      <c r="BW113" s="20"/>
+      <c r="BX113" s="20"/>
+      <c r="BY113" s="20"/>
+      <c r="BZ113" s="19">
         <v>2019</v>
       </c>
-      <c r="CA113" s="22"/>
-      <c r="CB113" s="22"/>
-      <c r="CC113" s="22"/>
-      <c r="CD113" s="21">
+      <c r="CA113" s="20"/>
+      <c r="CB113" s="20"/>
+      <c r="CC113" s="20"/>
+      <c r="CD113" s="19">
         <v>2020</v>
       </c>
-      <c r="CE113" s="22"/>
-      <c r="CF113" s="22"/>
-      <c r="CG113" s="22"/>
-      <c r="CH113" s="21">
+      <c r="CE113" s="20"/>
+      <c r="CF113" s="20"/>
+      <c r="CG113" s="20"/>
+      <c r="CH113" s="19">
         <v>2021</v>
       </c>
-      <c r="CI113" s="21"/>
-      <c r="CJ113" s="21"/>
-      <c r="CK113" s="21"/>
-      <c r="CL113" s="21">
+      <c r="CI113" s="19"/>
+      <c r="CJ113" s="19"/>
+      <c r="CK113" s="19"/>
+      <c r="CL113" s="19">
         <v>2022</v>
       </c>
-      <c r="CM113" s="21"/>
+      <c r="CM113" s="19"/>
+      <c r="CN113" s="19"/>
     </row>
-    <row r="114" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
         <v>4</v>
       </c>
@@ -37008,11 +37077,14 @@
       <c r="CM114" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN114" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="115" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
     </row>
-    <row r="116" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>11</v>
       </c>
@@ -37284,9 +37356,11 @@
         <v>82.878684488241717</v>
       </c>
       <c r="CM116" s="15">
-        <v>85.637839129915051</v>
-      </c>
-      <c r="CN116" s="9"/>
+        <v>85.963263845020109</v>
+      </c>
+      <c r="CN116" s="15">
+        <v>82.39205972876988</v>
+      </c>
       <c r="CO116" s="9"/>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
@@ -37348,7 +37422,7 @@
       <c r="EU116" s="9"/>
       <c r="EV116" s="9"/>
     </row>
-    <row r="117" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>12</v>
       </c>
@@ -37620,9 +37694,11 @@
         <v>1.8134519153718429</v>
       </c>
       <c r="CM117" s="15">
-        <v>1.4329355314721803</v>
-      </c>
-      <c r="CN117" s="9"/>
+        <v>1.4350067233136909</v>
+      </c>
+      <c r="CN117" s="15">
+        <v>1.6705095194541737</v>
+      </c>
       <c r="CO117" s="9"/>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
@@ -37684,7 +37760,7 @@
       <c r="EU117" s="9"/>
       <c r="EV117" s="9"/>
     </row>
-    <row r="118" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>13</v>
       </c>
@@ -37956,9 +38032,11 @@
         <v>14.162614867914932</v>
       </c>
       <c r="CM118" s="15">
-        <v>12.004250129411487</v>
-      </c>
-      <c r="CN118" s="9"/>
+        <v>11.64408780065029</v>
+      </c>
+      <c r="CN118" s="15">
+        <v>14.355129367704524</v>
+      </c>
       <c r="CO118" s="9"/>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
@@ -38020,7 +38098,7 @@
       <c r="EU118" s="9"/>
       <c r="EV118" s="9"/>
     </row>
-    <row r="119" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>14</v>
       </c>
@@ -38292,9 +38370,11 @@
         <v>1.1452487284715047</v>
       </c>
       <c r="CM119" s="15">
-        <v>0.92497520920128951</v>
-      </c>
-      <c r="CN119" s="9"/>
+        <v>0.95764163101592303</v>
+      </c>
+      <c r="CN119" s="15">
+        <v>1.5823013840714055</v>
+      </c>
       <c r="CO119" s="9"/>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
@@ -38356,7 +38436,7 @@
       <c r="EU119" s="9"/>
       <c r="EV119" s="9"/>
     </row>
-    <row r="120" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
       <c r="D120" s="9"/>
@@ -38509,7 +38589,7 @@
       <c r="EU120" s="9"/>
       <c r="EV120" s="9"/>
     </row>
-    <row r="121" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>15</v>
       </c>
@@ -38783,7 +38863,9 @@
       <c r="CM121" s="15">
         <v>100</v>
       </c>
-      <c r="CN121" s="9"/>
+      <c r="CN121" s="15">
+        <v>100</v>
+      </c>
       <c r="CO121" s="9"/>
       <c r="CP121" s="9"/>
       <c r="CQ121" s="9"/>
@@ -38845,7 +38927,7 @@
       <c r="EU121" s="9"/>
       <c r="EV121" s="9"/>
     </row>
-    <row r="122" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -38937,13 +39019,14 @@
       <c r="CK122" s="13"/>
       <c r="CL122" s="13"/>
       <c r="CM122" s="13"/>
+      <c r="CN122" s="13"/>
     </row>
-    <row r="123" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -39096,7 +39179,7 @@
       <c r="EU124" s="9"/>
       <c r="EV124" s="9"/>
     </row>
-    <row r="125" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9"/>
@@ -39249,176 +39332,177 @@
       <c r="EU125" s="9"/>
       <c r="EV125" s="9"/>
     </row>
-    <row r="126" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="132" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="21">
+      <c r="B134" s="19">
         <v>2000</v>
       </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="21">
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="19">
         <v>2001</v>
       </c>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="21">
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="19">
         <v>2002</v>
       </c>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="21">
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="19">
         <v>2003</v>
       </c>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="21">
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="19">
         <v>2004</v>
       </c>
-      <c r="S134" s="22"/>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="21">
+      <c r="S134" s="20"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="19">
         <v>2005</v>
       </c>
-      <c r="W134" s="22"/>
-      <c r="X134" s="22"/>
-      <c r="Y134" s="22"/>
-      <c r="Z134" s="21">
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="19">
         <v>2006</v>
       </c>
-      <c r="AA134" s="22"/>
-      <c r="AB134" s="22"/>
-      <c r="AC134" s="22"/>
-      <c r="AD134" s="21">
+      <c r="AA134" s="20"/>
+      <c r="AB134" s="20"/>
+      <c r="AC134" s="20"/>
+      <c r="AD134" s="19">
         <v>2007</v>
       </c>
-      <c r="AE134" s="22"/>
-      <c r="AF134" s="22"/>
-      <c r="AG134" s="22"/>
-      <c r="AH134" s="21">
+      <c r="AE134" s="20"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="19">
         <v>2008</v>
       </c>
-      <c r="AI134" s="22"/>
-      <c r="AJ134" s="22"/>
-      <c r="AK134" s="22"/>
-      <c r="AL134" s="21">
+      <c r="AI134" s="20"/>
+      <c r="AJ134" s="20"/>
+      <c r="AK134" s="20"/>
+      <c r="AL134" s="19">
         <v>2009</v>
       </c>
-      <c r="AM134" s="22"/>
-      <c r="AN134" s="22"/>
-      <c r="AO134" s="22"/>
-      <c r="AP134" s="21">
+      <c r="AM134" s="20"/>
+      <c r="AN134" s="20"/>
+      <c r="AO134" s="20"/>
+      <c r="AP134" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="22"/>
-      <c r="AR134" s="22"/>
-      <c r="AS134" s="22"/>
-      <c r="AT134" s="21">
+      <c r="AQ134" s="20"/>
+      <c r="AR134" s="20"/>
+      <c r="AS134" s="20"/>
+      <c r="AT134" s="19">
         <v>2011</v>
       </c>
-      <c r="AU134" s="22"/>
-      <c r="AV134" s="22"/>
-      <c r="AW134" s="22"/>
-      <c r="AX134" s="21">
+      <c r="AU134" s="20"/>
+      <c r="AV134" s="20"/>
+      <c r="AW134" s="20"/>
+      <c r="AX134" s="19">
         <v>2012</v>
       </c>
-      <c r="AY134" s="22"/>
-      <c r="AZ134" s="22"/>
-      <c r="BA134" s="22"/>
-      <c r="BB134" s="21">
+      <c r="AY134" s="20"/>
+      <c r="AZ134" s="20"/>
+      <c r="BA134" s="20"/>
+      <c r="BB134" s="19">
         <v>2013</v>
       </c>
-      <c r="BC134" s="22"/>
-      <c r="BD134" s="22"/>
-      <c r="BE134" s="22"/>
-      <c r="BF134" s="21">
+      <c r="BC134" s="20"/>
+      <c r="BD134" s="20"/>
+      <c r="BE134" s="20"/>
+      <c r="BF134" s="19">
         <v>2014</v>
       </c>
-      <c r="BG134" s="22"/>
-      <c r="BH134" s="22"/>
-      <c r="BI134" s="22"/>
-      <c r="BJ134" s="21">
+      <c r="BG134" s="20"/>
+      <c r="BH134" s="20"/>
+      <c r="BI134" s="20"/>
+      <c r="BJ134" s="19">
         <v>2015</v>
       </c>
-      <c r="BK134" s="22"/>
-      <c r="BL134" s="22"/>
-      <c r="BM134" s="22"/>
-      <c r="BN134" s="21">
+      <c r="BK134" s="20"/>
+      <c r="BL134" s="20"/>
+      <c r="BM134" s="20"/>
+      <c r="BN134" s="19">
         <v>2016</v>
       </c>
-      <c r="BO134" s="22"/>
-      <c r="BP134" s="22"/>
-      <c r="BQ134" s="22"/>
-      <c r="BR134" s="21">
+      <c r="BO134" s="20"/>
+      <c r="BP134" s="20"/>
+      <c r="BQ134" s="20"/>
+      <c r="BR134" s="19">
         <v>2017</v>
       </c>
-      <c r="BS134" s="22"/>
-      <c r="BT134" s="22"/>
-      <c r="BU134" s="22"/>
-      <c r="BV134" s="21">
+      <c r="BS134" s="20"/>
+      <c r="BT134" s="20"/>
+      <c r="BU134" s="20"/>
+      <c r="BV134" s="19">
         <v>2018</v>
       </c>
-      <c r="BW134" s="22"/>
-      <c r="BX134" s="22"/>
-      <c r="BY134" s="22"/>
-      <c r="BZ134" s="21">
+      <c r="BW134" s="20"/>
+      <c r="BX134" s="20"/>
+      <c r="BY134" s="20"/>
+      <c r="BZ134" s="19">
         <v>2019</v>
       </c>
-      <c r="CA134" s="22"/>
-      <c r="CB134" s="22"/>
-      <c r="CC134" s="22"/>
-      <c r="CD134" s="21">
+      <c r="CA134" s="20"/>
+      <c r="CB134" s="20"/>
+      <c r="CC134" s="20"/>
+      <c r="CD134" s="19">
         <v>2020</v>
       </c>
-      <c r="CE134" s="22"/>
-      <c r="CF134" s="22"/>
-      <c r="CG134" s="22"/>
-      <c r="CH134" s="21">
+      <c r="CE134" s="20"/>
+      <c r="CF134" s="20"/>
+      <c r="CG134" s="20"/>
+      <c r="CH134" s="19">
         <v>2021</v>
       </c>
-      <c r="CI134" s="21"/>
-      <c r="CJ134" s="21"/>
-      <c r="CK134" s="21"/>
-      <c r="CL134" s="21">
+      <c r="CI134" s="19"/>
+      <c r="CJ134" s="19"/>
+      <c r="CK134" s="19"/>
+      <c r="CL134" s="19">
         <v>2022</v>
       </c>
-      <c r="CM134" s="21"/>
+      <c r="CM134" s="19"/>
+      <c r="CN134" s="19"/>
     </row>
-    <row r="135" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
         <v>4</v>
       </c>
@@ -39692,11 +39776,14 @@
       <c r="CM135" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="CN135" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="136" spans="1:152" ht="10.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
     </row>
-    <row r="137" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>11</v>
       </c>
@@ -39968,9 +40055,11 @@
         <v>79.985155654723982</v>
       </c>
       <c r="CM137" s="15">
-        <v>81.033875778020715</v>
-      </c>
-      <c r="CN137" s="9"/>
+        <v>81.45116960738153</v>
+      </c>
+      <c r="CN137" s="15">
+        <v>84.463692107712063</v>
+      </c>
       <c r="CO137" s="9"/>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -40032,7 +40121,7 @@
       <c r="EU137" s="9"/>
       <c r="EV137" s="9"/>
     </row>
-    <row r="138" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>12</v>
       </c>
@@ -40304,9 +40393,11 @@
         <v>2.0637551988827347</v>
       </c>
       <c r="CM138" s="15">
-        <v>1.7973108040557133</v>
-      </c>
-      <c r="CN138" s="9"/>
+        <v>1.8023393364412819</v>
+      </c>
+      <c r="CN138" s="15">
+        <v>1.4342002238823353</v>
+      </c>
       <c r="CO138" s="9"/>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -40368,7 +40459,7 @@
       <c r="EU138" s="9"/>
       <c r="EV138" s="9"/>
     </row>
-    <row r="139" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>13</v>
       </c>
@@ -40640,9 +40731,11 @@
         <v>16.664738730837897</v>
       </c>
       <c r="CM139" s="15">
-        <v>15.99453887536135</v>
-      </c>
-      <c r="CN139" s="9"/>
+        <v>15.529104048290693</v>
+      </c>
+      <c r="CN139" s="15">
+        <v>12.851119811206365</v>
+      </c>
       <c r="CO139" s="9"/>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
@@ -40704,7 +40797,7 @@
       <c r="EU139" s="9"/>
       <c r="EV139" s="9"/>
     </row>
-    <row r="140" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -40976,9 +41069,11 @@
         <v>1.2863504155553924</v>
       </c>
       <c r="CM140" s="15">
-        <v>1.1742745425622223</v>
-      </c>
-      <c r="CN140" s="9"/>
+        <v>1.2173870078864941</v>
+      </c>
+      <c r="CN140" s="15">
+        <v>1.2509878571992288</v>
+      </c>
       <c r="CO140" s="9"/>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
@@ -41040,7 +41135,7 @@
       <c r="EU140" s="9"/>
       <c r="EV140" s="9"/>
     </row>
-    <row r="141" spans="1:152" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:152" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9"/>
@@ -41193,7 +41288,7 @@
       <c r="EU141" s="9"/>
       <c r="EV141" s="9"/>
     </row>
-    <row r="142" spans="1:152" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:152" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>15</v>
       </c>
@@ -41467,7 +41562,9 @@
       <c r="CM142" s="15">
         <v>100</v>
       </c>
-      <c r="CN142" s="9"/>
+      <c r="CN142" s="15">
+        <v>100</v>
+      </c>
       <c r="CO142" s="9"/>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
@@ -41529,7 +41626,7 @@
       <c r="EU142" s="9"/>
       <c r="EV142" s="9"/>
     </row>
-    <row r="143" spans="1:152" ht="7.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:152" ht="7.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="13"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -41621,28 +41718,138 @@
       <c r="CK143" s="13"/>
       <c r="CL143" s="13"/>
       <c r="CM143" s="13"/>
+      <c r="CN143" s="13"/>
     </row>
-    <row r="144" spans="1:152" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
+  <mergeCells count="161">
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CL9:CN9"/>
+    <mergeCell ref="CL30:CN30"/>
+    <mergeCell ref="CH51:CJ51"/>
+    <mergeCell ref="CL51:CM51"/>
+    <mergeCell ref="CH72:CJ72"/>
+    <mergeCell ref="CL72:CM72"/>
+    <mergeCell ref="CL92:CN92"/>
+    <mergeCell ref="CL113:CN113"/>
+    <mergeCell ref="CL134:CN134"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
     <mergeCell ref="BB134:BE134"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="F92:I92"/>
@@ -41667,136 +41874,29 @@
     <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CL9:CM9"/>
-    <mergeCell ref="CL30:CM30"/>
-    <mergeCell ref="CH51:CI51"/>
-    <mergeCell ref="CH72:CI72"/>
-    <mergeCell ref="CL92:CM92"/>
-    <mergeCell ref="CL113:CM113"/>
-    <mergeCell ref="CL134:CM134"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="90" man="1"/>
-    <brk id="84" max="90" man="1"/>
-    <brk id="104" max="90" man="1"/>
+    <brk id="42" max="91" man="1"/>
+    <brk id="84" max="91" man="1"/>
+    <brk id="104" max="91" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2022\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{364886F8-08C0-43FA-8D90-B8FA24144FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18144D-FB4A-49B3-BD36-5BA90C1D3E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5235" yWindow="5235" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CN$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CO$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="53">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2022</t>
+    <t>As of January 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2022</t>
+    <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
-    <t>As of November 2022</t>
+    <t>Q1 2001 to Q4 2022</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="G_Gross Revenue"/>
@@ -15147,7 +15147,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Prod_Lev_Comp"/>
@@ -15170,7 +15170,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink11.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15199,7 +15199,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink12.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -15262,7 +15262,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink13.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15291,7 +15291,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink14.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -15322,7 +15322,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink15.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RETAILQ203-90days"/>
@@ -17716,7 +17716,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink16.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17804,7 +17804,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink17.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="notes-rev"/>
@@ -17825,7 +17825,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink18.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="t6a (2)"/>
@@ -17882,7 +17882,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet2"/>
@@ -17899,7 +17899,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="outline"/>
@@ -17940,7 +17940,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet3"/>
@@ -17987,7 +17987,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TABL1"/>
@@ -18016,7 +18016,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="TAB35"/>
@@ -22433,7 +22433,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Summary"/>
@@ -22476,7 +22476,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Steps"/>
@@ -22590,7 +22590,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="CAP93+"/>
@@ -23587,7 +23587,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23600,17 +23600,17 @@
   </sheetPr>
   <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO7" sqref="CO7"/>
+      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="92" width="10.77734375" style="1" customWidth="1"/>
-    <col min="93" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
+    <col min="94" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23625,7 +23625,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23635,7 +23635,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23782,6 +23782,7 @@
       </c>
       <c r="CM9" s="19"/>
       <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24059,6 +24060,9 @@
       </c>
       <c r="CN10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24339,9 +24343,11 @@
         <v>202873.10489213653</v>
       </c>
       <c r="CN12" s="8">
-        <v>131486.89805801457</v>
-      </c>
-      <c r="CO12" s="9"/>
+        <v>131907.75562707221</v>
+      </c>
+      <c r="CO12" s="8">
+        <v>134844.46879543504</v>
+      </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
@@ -24679,7 +24685,9 @@
       <c r="CN13" s="8">
         <v>2665.9136282366271</v>
       </c>
-      <c r="CO13" s="9"/>
+      <c r="CO13" s="8">
+        <v>3516.1748168786244</v>
+      </c>
       <c r="CP13" s="9"/>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
@@ -25015,9 +25023,11 @@
         <v>27480.020419110937</v>
       </c>
       <c r="CN14" s="8">
-        <v>22908.899692452884</v>
-      </c>
-      <c r="CO14" s="9"/>
+        <v>22916.09833188387</v>
+      </c>
+      <c r="CO14" s="8">
+        <v>27480.03908221054</v>
+      </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
@@ -25353,9 +25363,11 @@
         <v>2260.0320458798492</v>
       </c>
       <c r="CN15" s="8">
-        <v>2525.1450378755867</v>
-      </c>
-      <c r="CO15" s="9"/>
+        <v>2514.0559490343276</v>
+      </c>
+      <c r="CO15" s="8">
+        <v>2749.0496615957209</v>
+      </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
@@ -25508,7 +25520,7 @@
       <c r="CL16" s="10"/>
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
-      <c r="CO16" s="9"/>
+      <c r="CO16" s="10"/>
       <c r="CP16" s="9"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
@@ -25844,9 +25856,11 @@
         <v>235999.7699225203</v>
       </c>
       <c r="CN17" s="12">
-        <v>159586.85641657969</v>
-      </c>
-      <c r="CO17" s="9"/>
+        <v>160003.82353622702</v>
+      </c>
+      <c r="CO17" s="12">
+        <v>168589.73235611993</v>
+      </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
@@ -26000,6 +26014,7 @@
       <c r="CL18" s="13"/>
       <c r="CM18" s="13"/>
       <c r="CN18" s="13"/>
+      <c r="CO18" s="13"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26324,7 +26339,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26334,7 +26349,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26481,6 +26496,7 @@
       </c>
       <c r="CM30" s="19"/>
       <c r="CN30" s="19"/>
+      <c r="CO30" s="19"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26758,6 +26774,9 @@
       </c>
       <c r="CN31" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO31" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27038,9 +27057,11 @@
         <v>133533.30444124746</v>
       </c>
       <c r="CN33" s="8">
-        <v>151313.94010889303</v>
-      </c>
-      <c r="CO33" s="9"/>
+        <v>151798.25921550597</v>
+      </c>
+      <c r="CO33" s="8">
+        <v>125410.91950688182</v>
+      </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
@@ -27378,7 +27399,9 @@
       <c r="CN34" s="8">
         <v>2569.3227630156825</v>
       </c>
-      <c r="CO34" s="9"/>
+      <c r="CO34" s="8">
+        <v>3122.9425284071531</v>
+      </c>
       <c r="CP34" s="9"/>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
@@ -27714,9 +27737,11 @@
         <v>25458.843483473862</v>
       </c>
       <c r="CN35" s="8">
-        <v>23022.360554228471</v>
-      </c>
-      <c r="CO35" s="9"/>
+        <v>23029.594846346597</v>
+      </c>
+      <c r="CO35" s="8">
+        <v>27160.911321838888</v>
+      </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
@@ -28052,9 +28077,11 @@
         <v>1995.8179941493972</v>
       </c>
       <c r="CN36" s="8">
-        <v>2241.1038042216128</v>
-      </c>
-      <c r="CO36" s="9"/>
+        <v>2231.2620728300553</v>
+      </c>
+      <c r="CO36" s="8">
+        <v>2465.4949343484286</v>
+      </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
@@ -28207,7 +28234,7 @@
       <c r="CL37" s="10"/>
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
-      <c r="CO37" s="9"/>
+      <c r="CO37" s="10"/>
       <c r="CP37" s="9"/>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
@@ -28543,9 +28570,11 @@
         <v>163942.77096930231</v>
       </c>
       <c r="CN38" s="12">
-        <v>179146.72723035881</v>
-      </c>
-      <c r="CO38" s="9"/>
+        <v>179628.4388976983</v>
+      </c>
+      <c r="CO38" s="12">
+        <v>158160.26829147627</v>
+      </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
@@ -28699,6 +28728,7 @@
       <c r="CL39" s="13"/>
       <c r="CM39" s="13"/>
       <c r="CN39" s="13"/>
+      <c r="CO39" s="13"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29023,7 +29053,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29033,7 +29063,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29174,10 +29204,11 @@
       </c>
       <c r="CI51" s="19"/>
       <c r="CJ51" s="19"/>
-      <c r="CK51" s="17"/>
+      <c r="CK51" s="19"/>
       <c r="CL51" s="19"/>
       <c r="CM51" s="19"/>
       <c r="CN51" s="17"/>
+      <c r="CO51" s="17"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29444,10 +29475,13 @@
       <c r="CJ52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK52" s="5"/>
+      <c r="CK52" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL52" s="5"/>
       <c r="CM52" s="5"/>
       <c r="CN52" s="5"/>
+      <c r="CO52" s="5"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29715,13 +29749,15 @@
         <v>17.617606137902001</v>
       </c>
       <c r="CJ54" s="15">
-        <v>13.445169909850961</v>
-      </c>
-      <c r="CK54" s="15"/>
+        <v>13.808280296777326</v>
+      </c>
+      <c r="CK54" s="15">
+        <v>15.382848376955721</v>
+      </c>
       <c r="CL54" s="15"/>
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
-      <c r="CO54" s="9"/>
+      <c r="CO54" s="15"/>
       <c r="CP54" s="9"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
@@ -30043,11 +30079,13 @@
       <c r="CJ55" s="15">
         <v>13.915205999411313</v>
       </c>
-      <c r="CK55" s="15"/>
+      <c r="CK55" s="15">
+        <v>12.284808537876657</v>
+      </c>
       <c r="CL55" s="15"/>
       <c r="CM55" s="15"/>
       <c r="CN55" s="15"/>
-      <c r="CO55" s="9"/>
+      <c r="CO55" s="15"/>
       <c r="CP55" s="9"/>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
@@ -30367,13 +30405,15 @@
         <v>-0.41563208893082049</v>
       </c>
       <c r="CJ56" s="15">
-        <v>4.031242610411482</v>
-      </c>
-      <c r="CK56" s="15"/>
+        <v>4.0639322382488388</v>
+      </c>
+      <c r="CK56" s="15">
+        <v>5.1398253065076318</v>
+      </c>
       <c r="CL56" s="15"/>
       <c r="CM56" s="15"/>
       <c r="CN56" s="15"/>
-      <c r="CO56" s="9"/>
+      <c r="CO56" s="15"/>
       <c r="CP56" s="9"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
@@ -30693,13 +30733,15 @@
         <v>11.509572525150062</v>
       </c>
       <c r="CJ57" s="15">
-        <v>11.061986720378528</v>
-      </c>
-      <c r="CK57" s="15"/>
+        <v>10.5742617702643</v>
+      </c>
+      <c r="CK57" s="15">
+        <v>14.867703752452897</v>
+      </c>
       <c r="CL57" s="15"/>
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
-      <c r="CO57" s="9"/>
+      <c r="CO57" s="15"/>
       <c r="CP57" s="9"/>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
@@ -31168,13 +31210,15 @@
         <v>15.020497108652208</v>
       </c>
       <c r="CJ59" s="15">
-        <v>11.960489413073262</v>
-      </c>
-      <c r="CK59" s="15"/>
+        <v>12.253018784433351</v>
+      </c>
+      <c r="CK59" s="15">
+        <v>13.506757443210589</v>
+      </c>
       <c r="CL59" s="15"/>
       <c r="CM59" s="15"/>
       <c r="CN59" s="15"/>
-      <c r="CO59" s="9"/>
+      <c r="CO59" s="15"/>
       <c r="CP59" s="9"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
@@ -31324,6 +31368,7 @@
       <c r="CL60" s="13"/>
       <c r="CM60" s="13"/>
       <c r="CN60" s="13"/>
+      <c r="CO60" s="13"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31422,7 +31467,7 @@
       <c r="CL62" s="18"/>
       <c r="CM62" s="18"/>
       <c r="CN62" s="18"/>
-      <c r="CO62" s="9"/>
+      <c r="CO62" s="18"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -31640,7 +31685,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31650,7 +31695,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31791,10 +31836,11 @@
       </c>
       <c r="CI72" s="19"/>
       <c r="CJ72" s="19"/>
-      <c r="CK72" s="17"/>
+      <c r="CK72" s="19"/>
       <c r="CL72" s="19"/>
       <c r="CM72" s="19"/>
       <c r="CN72" s="17"/>
+      <c r="CO72" s="17"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32061,10 +32107,13 @@
       <c r="CJ73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CK73" s="5"/>
+      <c r="CK73" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="CL73" s="5"/>
       <c r="CM73" s="5"/>
       <c r="CN73" s="5"/>
+      <c r="CO73" s="5"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32332,13 +32381,15 @@
         <v>4.9167071699066582</v>
       </c>
       <c r="CJ75" s="15">
-        <v>3.7309733642250933</v>
-      </c>
-      <c r="CK75" s="15"/>
+        <v>4.0629909715367489</v>
+      </c>
+      <c r="CK75" s="15">
+        <v>4.56696256692139</v>
+      </c>
       <c r="CL75" s="15"/>
       <c r="CM75" s="15"/>
       <c r="CN75" s="15"/>
-      <c r="CO75" s="9"/>
+      <c r="CO75" s="15"/>
       <c r="CP75" s="9"/>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
@@ -32660,11 +32711,13 @@
       <c r="CJ76" s="15">
         <v>11.530313643096292</v>
       </c>
-      <c r="CK76" s="15"/>
+      <c r="CK76" s="15">
+        <v>5.5953830504098505</v>
+      </c>
       <c r="CL76" s="15"/>
       <c r="CM76" s="15"/>
       <c r="CN76" s="15"/>
-      <c r="CO76" s="9"/>
+      <c r="CO76" s="15"/>
       <c r="CP76" s="9"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
@@ -32984,13 +33037,15 @@
         <v>5.8867131585200951</v>
       </c>
       <c r="CJ77" s="15">
-        <v>3.9856616242150551</v>
-      </c>
-      <c r="CK77" s="15"/>
+        <v>4.0183369291871145</v>
+      </c>
+      <c r="CK77" s="15">
+        <v>9.8744332649162345</v>
+      </c>
       <c r="CL77" s="15"/>
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
-      <c r="CO77" s="9"/>
+      <c r="CO77" s="15"/>
       <c r="CP77" s="9"/>
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
@@ -33310,13 +33365,15 @@
         <v>9.9492706707869445</v>
       </c>
       <c r="CJ78" s="15">
-        <v>9.0775149921646943</v>
-      </c>
-      <c r="CK78" s="15"/>
+        <v>8.5985047823791092</v>
+      </c>
+      <c r="CK78" s="15">
+        <v>14.216872148123059</v>
+      </c>
       <c r="CL78" s="15"/>
       <c r="CM78" s="15"/>
       <c r="CN78" s="15"/>
-      <c r="CO78" s="9"/>
+      <c r="CO78" s="15"/>
       <c r="CP78" s="9"/>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
@@ -33785,13 +33842,15 @@
         <v>5.1140274512736568</v>
       </c>
       <c r="CJ80" s="15">
-        <v>3.9316530433575565</v>
-      </c>
-      <c r="CK80" s="15"/>
+        <v>4.2111172046675733</v>
+      </c>
+      <c r="CK80" s="15">
+        <v>5.602368329303161</v>
+      </c>
       <c r="CL80" s="15"/>
       <c r="CM80" s="15"/>
       <c r="CN80" s="15"/>
-      <c r="CO80" s="9"/>
+      <c r="CO80" s="15"/>
       <c r="CP80" s="9"/>
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
@@ -33941,6 +34000,7 @@
       <c r="CL81" s="13"/>
       <c r="CM81" s="13"/>
       <c r="CN81" s="13"/>
+      <c r="CO81" s="13"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34252,7 +34312,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34262,7 +34322,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34409,6 +34469,7 @@
       </c>
       <c r="CM92" s="19"/>
       <c r="CN92" s="19"/>
+      <c r="CO92" s="19"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34686,6 +34747,9 @@
       </c>
       <c r="CN93" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO93" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -34966,9 +35030,11 @@
         <v>151.9269711335553</v>
       </c>
       <c r="CN95" s="15">
-        <v>86.896751193835854</v>
-      </c>
-      <c r="CO95" s="9"/>
+        <v>86.89675119383584</v>
+      </c>
+      <c r="CO95" s="15">
+        <v>107.52211157182015</v>
+      </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
@@ -35306,7 +35372,9 @@
       <c r="CN96" s="15">
         <v>103.75939008564161</v>
       </c>
-      <c r="CO96" s="9"/>
+      <c r="CO96" s="15">
+        <v>112.59172350738194</v>
+      </c>
       <c r="CP96" s="9"/>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
@@ -35644,7 +35712,9 @@
       <c r="CN97" s="15">
         <v>99.507171032664814</v>
       </c>
-      <c r="CO97" s="9"/>
+      <c r="CO97" s="15">
+        <v>101.17495232980292</v>
+      </c>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
@@ -35980,9 +36050,11 @@
         <v>113.23838408637347</v>
       </c>
       <c r="CN98" s="15">
-        <v>112.6741667708082</v>
-      </c>
-      <c r="CO98" s="9"/>
+        <v>112.67416677080817</v>
+      </c>
+      <c r="CO98" s="15">
+        <v>111.50092516098513</v>
+      </c>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
@@ -36135,7 +36207,7 @@
       <c r="CL99" s="15"/>
       <c r="CM99" s="15"/>
       <c r="CN99" s="15"/>
-      <c r="CO99" s="9"/>
+      <c r="CO99" s="15"/>
       <c r="CP99" s="9"/>
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
@@ -36471,9 +36543,11 @@
         <v>143.95253204955918</v>
       </c>
       <c r="CN100" s="15">
-        <v>89.081647699526357</v>
-      </c>
-      <c r="CO100" s="9"/>
+        <v>89.074883976112574</v>
+      </c>
+      <c r="CO100" s="15">
+        <v>106.59423771678422</v>
+      </c>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
@@ -36627,6 +36701,7 @@
       <c r="CL101" s="13"/>
       <c r="CM101" s="13"/>
       <c r="CN101" s="13"/>
+      <c r="CO101" s="13"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -36645,7 +36720,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -36655,7 +36730,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -36802,6 +36877,7 @@
       </c>
       <c r="CM113" s="19"/>
       <c r="CN113" s="19"/>
+      <c r="CO113" s="19"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37079,6 +37155,9 @@
       </c>
       <c r="CN114" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO114" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37359,9 +37438,11 @@
         <v>85.963263845020109</v>
       </c>
       <c r="CN116" s="15">
-        <v>82.39205972876988</v>
-      </c>
-      <c r="CO116" s="9"/>
+        <v>82.440377180865624</v>
+      </c>
+      <c r="CO116" s="15">
+        <v>79.983796706312333</v>
+      </c>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
@@ -37697,9 +37778,11 @@
         <v>1.4350067233136909</v>
       </c>
       <c r="CN117" s="15">
-        <v>1.6705095194541737</v>
-      </c>
-      <c r="CO117" s="9"/>
+        <v>1.6661562013441686</v>
+      </c>
+      <c r="CO117" s="15">
+        <v>2.0856399543070894</v>
+      </c>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
@@ -38035,9 +38118,11 @@
         <v>11.64408780065029</v>
       </c>
       <c r="CN118" s="15">
-        <v>14.355129367704524</v>
-      </c>
-      <c r="CO118" s="9"/>
+        <v>14.322219197902703</v>
+      </c>
+      <c r="CO118" s="15">
+        <v>16.299948222328968</v>
+      </c>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
@@ -38373,9 +38458,11 @@
         <v>0.95764163101592303</v>
       </c>
       <c r="CN119" s="15">
-        <v>1.5823013840714055</v>
-      </c>
-      <c r="CO119" s="9"/>
+        <v>1.5712474198875077</v>
+      </c>
+      <c r="CO119" s="15">
+        <v>1.6306151170515981</v>
+      </c>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
@@ -38866,7 +38953,9 @@
       <c r="CN121" s="15">
         <v>100</v>
       </c>
-      <c r="CO121" s="9"/>
+      <c r="CO121" s="15">
+        <v>100</v>
+      </c>
       <c r="CP121" s="9"/>
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
@@ -39020,6 +39109,7 @@
       <c r="CL122" s="13"/>
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
+      <c r="CO122" s="13"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39344,7 +39434,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39354,7 +39444,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39501,6 +39591,7 @@
       </c>
       <c r="CM134" s="19"/>
       <c r="CN134" s="19"/>
+      <c r="CO134" s="19"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -39778,6 +39869,9 @@
       </c>
       <c r="CN135" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CO135" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40058,9 +40152,11 @@
         <v>81.45116960738153</v>
       </c>
       <c r="CN137" s="15">
-        <v>84.463692107712063</v>
-      </c>
-      <c r="CO137" s="9"/>
+        <v>84.506807578480306</v>
+      </c>
+      <c r="CO137" s="15">
+        <v>79.293567759862356</v>
+      </c>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
@@ -40396,9 +40492,11 @@
         <v>1.8023393364412819</v>
       </c>
       <c r="CN138" s="15">
-        <v>1.4342002238823353</v>
-      </c>
-      <c r="CO138" s="9"/>
+        <v>1.4303541125127515</v>
+      </c>
+      <c r="CO138" s="15">
+        <v>1.9745430139583657</v>
+      </c>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
@@ -40734,9 +40832,11 @@
         <v>15.529104048290693</v>
       </c>
       <c r="CN139" s="15">
-        <v>12.851119811206365</v>
-      </c>
-      <c r="CO139" s="9"/>
+        <v>12.82068417877994</v>
+      </c>
+      <c r="CO139" s="15">
+        <v>17.173030632309995</v>
+      </c>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
@@ -41072,9 +41172,11 @@
         <v>1.2173870078864941</v>
       </c>
       <c r="CN140" s="15">
-        <v>1.2509878571992288</v>
-      </c>
-      <c r="CO140" s="9"/>
+        <v>1.2421541302270072</v>
+      </c>
+      <c r="CO140" s="15">
+        <v>1.558858593869306</v>
+      </c>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
@@ -41565,7 +41667,9 @@
       <c r="CN142" s="15">
         <v>100</v>
       </c>
-      <c r="CO142" s="9"/>
+      <c r="CO142" s="15">
+        <v>100</v>
+      </c>
       <c r="CP142" s="9"/>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
@@ -41719,6 +41823,7 @@
       <c r="CL143" s="13"/>
       <c r="CM143" s="13"/>
       <c r="CN143" s="13"/>
+      <c r="CO143" s="13"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -41727,30 +41832,119 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CL9:CN9"/>
-    <mergeCell ref="CL30:CN30"/>
-    <mergeCell ref="CH51:CJ51"/>
-    <mergeCell ref="CL51:CM51"/>
-    <mergeCell ref="CH72:CJ72"/>
-    <mergeCell ref="CL72:CM72"/>
-    <mergeCell ref="CL92:CN92"/>
-    <mergeCell ref="CL113:CN113"/>
-    <mergeCell ref="CL134:CN134"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
     <mergeCell ref="CD134:CG134"/>
     <mergeCell ref="CD113:CG113"/>
     <mergeCell ref="CD92:CG92"/>
@@ -41775,128 +41969,39 @@
     <mergeCell ref="BV30:BY30"/>
     <mergeCell ref="R30:U30"/>
     <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CL51:CM51"/>
+    <mergeCell ref="CL72:CM72"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CL92:CO92"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="91" man="1"/>
-    <brk id="84" max="91" man="1"/>
-    <brk id="104" max="91" man="1"/>
+    <brk id="42" max="92" man="1"/>
+    <brk id="84" max="92" man="1"/>
+    <brk id="104" max="92" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B18144D-FB4A-49B3-BD36-5BA90C1D3E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F19FD-A0D8-4365-9051-40BAA2DA6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="5235" windowWidth="13830" windowHeight="9735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -622,13 +622,13 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>As of January 2023</t>
-  </si>
-  <si>
     <t>Q1 2000 to Q4 2022</t>
   </si>
   <si>
     <t>Q1 2001 to Q4 2022</t>
+  </si>
+  <si>
+    <t>As of April 2023</t>
   </si>
 </sst>
 </file>
@@ -716,7 +716,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,8 +742,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23587,7 +23585,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23600,10 +23598,10 @@
   </sheetPr>
   <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="40" zoomScaleNormal="55" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CB1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CH1" sqref="CH1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -23625,7 +23623,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23635,7 +23633,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23645,144 +23643,144 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="17">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+      <c r="Z9" s="17">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="17"/>
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="17"/>
+      <c r="AD9" s="17">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="17"/>
+      <c r="AF9" s="17"/>
+      <c r="AG9" s="17"/>
+      <c r="AH9" s="17">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="17"/>
+      <c r="AJ9" s="17"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="17">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="17"/>
+      <c r="AN9" s="17"/>
+      <c r="AO9" s="17"/>
+      <c r="AP9" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="17"/>
+      <c r="AR9" s="17"/>
+      <c r="AS9" s="17"/>
+      <c r="AT9" s="17">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="17"/>
+      <c r="AW9" s="17"/>
+      <c r="AX9" s="17">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="17"/>
+      <c r="AZ9" s="17"/>
+      <c r="BA9" s="17"/>
+      <c r="BB9" s="17">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="17"/>
+      <c r="BD9" s="17"/>
+      <c r="BE9" s="17"/>
+      <c r="BF9" s="17">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="17"/>
+      <c r="BH9" s="17"/>
+      <c r="BI9" s="17"/>
+      <c r="BJ9" s="17">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="17"/>
+      <c r="BL9" s="17"/>
+      <c r="BM9" s="17"/>
+      <c r="BN9" s="17">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="17"/>
+      <c r="BP9" s="17"/>
+      <c r="BQ9" s="17"/>
+      <c r="BR9" s="17">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="17"/>
+      <c r="BT9" s="17"/>
+      <c r="BU9" s="17"/>
+      <c r="BV9" s="17">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="17"/>
+      <c r="BX9" s="17"/>
+      <c r="BY9" s="17"/>
+      <c r="BZ9" s="17">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="17"/>
+      <c r="CB9" s="17"/>
+      <c r="CC9" s="17"/>
+      <c r="CD9" s="17">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="17"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="17"/>
+      <c r="CK9" s="17"/>
+      <c r="CL9" s="17">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="17"/>
+      <c r="CN9" s="17"/>
+      <c r="CO9" s="17"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24334,19 +24332,19 @@
         <v>115903.47844910492</v>
       </c>
       <c r="CK12" s="8">
-        <v>116866.99599831183</v>
+        <v>116947.88973451944</v>
       </c>
       <c r="CL12" s="8">
-        <v>149985.37547241439</v>
+        <v>149799.88109309287</v>
       </c>
       <c r="CM12" s="8">
-        <v>202873.10489213653</v>
+        <v>203560.9396497971</v>
       </c>
       <c r="CN12" s="8">
-        <v>131907.75562707221</v>
+        <v>131766.65399284259</v>
       </c>
       <c r="CO12" s="8">
-        <v>134844.46879543504</v>
+        <v>134659.95329141535</v>
       </c>
       <c r="CP12" s="9"/>
       <c r="CQ12" s="9"/>
@@ -25017,16 +25015,16 @@
         <v>26136.660396856932</v>
       </c>
       <c r="CL14" s="8">
-        <v>25630.053393726164</v>
+        <v>25706.956828065187</v>
       </c>
       <c r="CM14" s="8">
-        <v>27480.020419110937</v>
+        <v>27496.487837448705</v>
       </c>
       <c r="CN14" s="8">
-        <v>22916.09833188387</v>
+        <v>22943.754739326265</v>
       </c>
       <c r="CO14" s="8">
-        <v>27480.03908221054</v>
+        <v>27896.844107694811</v>
       </c>
       <c r="CP14" s="9"/>
       <c r="CQ14" s="9"/>
@@ -25354,19 +25352,19 @@
         <v>2273.6357528279777</v>
       </c>
       <c r="CK15" s="8">
-        <v>2393.2311448656578</v>
+        <v>2396.4928403397589</v>
       </c>
       <c r="CL15" s="8">
-        <v>2072.5541387360399</v>
+        <v>2091.9747789093585</v>
       </c>
       <c r="CM15" s="8">
-        <v>2260.0320458798492</v>
+        <v>2218.8726489597639</v>
       </c>
       <c r="CN15" s="8">
-        <v>2514.0559490343276</v>
+        <v>2478.9976749300654</v>
       </c>
       <c r="CO15" s="8">
-        <v>2749.0496615957209</v>
+        <v>2670.2517150843864</v>
       </c>
       <c r="CP15" s="9"/>
       <c r="CQ15" s="9"/>
@@ -25847,19 +25845,19 @@
         <v>142538.54842290931</v>
       </c>
       <c r="CK17" s="12">
-        <v>148528.36619922679</v>
+        <v>148612.52163090851</v>
       </c>
       <c r="CL17" s="12">
-        <v>180969.78300095163</v>
+        <v>180880.61269614243</v>
       </c>
       <c r="CM17" s="12">
-        <v>235999.7699225203</v>
+        <v>236662.9127015986</v>
       </c>
       <c r="CN17" s="12">
-        <v>160003.82353622702</v>
+        <v>159855.32003533552</v>
       </c>
       <c r="CO17" s="12">
-        <v>168589.73235611993</v>
+        <v>168743.22393107318</v>
       </c>
       <c r="CP17" s="9"/>
       <c r="CQ17" s="9"/>
@@ -26339,7 +26337,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26349,7 +26347,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26359,144 +26357,144 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="19">
+      <c r="B30" s="17">
         <v>2000</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="17">
         <v>2001</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="19">
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="17">
         <v>2002</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="19">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="17">
         <v>2003</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="19">
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
+      <c r="R30" s="17">
         <v>2004</v>
       </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="19">
+      <c r="S30" s="18"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="18"/>
+      <c r="V30" s="17">
         <v>2005</v>
       </c>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="19">
+      <c r="W30" s="18"/>
+      <c r="X30" s="18"/>
+      <c r="Y30" s="18"/>
+      <c r="Z30" s="17">
         <v>2006</v>
       </c>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="19">
+      <c r="AA30" s="18"/>
+      <c r="AB30" s="18"/>
+      <c r="AC30" s="18"/>
+      <c r="AD30" s="17">
         <v>2007</v>
       </c>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="19">
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="18"/>
+      <c r="AG30" s="18"/>
+      <c r="AH30" s="17">
         <v>2008</v>
       </c>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="19">
+      <c r="AI30" s="18"/>
+      <c r="AJ30" s="18"/>
+      <c r="AK30" s="18"/>
+      <c r="AL30" s="17">
         <v>2009</v>
       </c>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="19">
+      <c r="AM30" s="18"/>
+      <c r="AN30" s="18"/>
+      <c r="AO30" s="18"/>
+      <c r="AP30" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="19">
+      <c r="AQ30" s="18"/>
+      <c r="AR30" s="18"/>
+      <c r="AS30" s="18"/>
+      <c r="AT30" s="17">
         <v>2011</v>
       </c>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="19">
+      <c r="AU30" s="18"/>
+      <c r="AV30" s="18"/>
+      <c r="AW30" s="18"/>
+      <c r="AX30" s="17">
         <v>2012</v>
       </c>
-      <c r="AY30" s="20"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="20"/>
-      <c r="BB30" s="19">
+      <c r="AY30" s="18"/>
+      <c r="AZ30" s="18"/>
+      <c r="BA30" s="18"/>
+      <c r="BB30" s="17">
         <v>2013</v>
       </c>
-      <c r="BC30" s="20"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="19">
+      <c r="BC30" s="18"/>
+      <c r="BD30" s="18"/>
+      <c r="BE30" s="18"/>
+      <c r="BF30" s="17">
         <v>2014</v>
       </c>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="19">
+      <c r="BG30" s="18"/>
+      <c r="BH30" s="18"/>
+      <c r="BI30" s="18"/>
+      <c r="BJ30" s="17">
         <v>2015</v>
       </c>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="19">
+      <c r="BK30" s="18"/>
+      <c r="BL30" s="18"/>
+      <c r="BM30" s="18"/>
+      <c r="BN30" s="17">
         <v>2016</v>
       </c>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="20"/>
-      <c r="BR30" s="19">
+      <c r="BO30" s="18"/>
+      <c r="BP30" s="18"/>
+      <c r="BQ30" s="18"/>
+      <c r="BR30" s="17">
         <v>2017</v>
       </c>
-      <c r="BS30" s="20"/>
-      <c r="BT30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="BV30" s="19">
+      <c r="BS30" s="18"/>
+      <c r="BT30" s="18"/>
+      <c r="BU30" s="18"/>
+      <c r="BV30" s="17">
         <v>2018</v>
       </c>
-      <c r="BW30" s="20"/>
-      <c r="BX30" s="20"/>
-      <c r="BY30" s="20"/>
-      <c r="BZ30" s="19">
+      <c r="BW30" s="18"/>
+      <c r="BX30" s="18"/>
+      <c r="BY30" s="18"/>
+      <c r="BZ30" s="17">
         <v>2019</v>
       </c>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="19">
+      <c r="CA30" s="18"/>
+      <c r="CB30" s="18"/>
+      <c r="CC30" s="18"/>
+      <c r="CD30" s="17">
         <v>2020</v>
       </c>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="19">
+      <c r="CE30" s="18"/>
+      <c r="CF30" s="18"/>
+      <c r="CG30" s="18"/>
+      <c r="CH30" s="17">
         <v>2021</v>
       </c>
-      <c r="CI30" s="19"/>
-      <c r="CJ30" s="19"/>
-      <c r="CK30" s="19"/>
-      <c r="CL30" s="19">
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="18"/>
+      <c r="CL30" s="17">
         <v>2022</v>
       </c>
-      <c r="CM30" s="19"/>
-      <c r="CN30" s="19"/>
-      <c r="CO30" s="19"/>
+      <c r="CM30" s="18"/>
+      <c r="CN30" s="18"/>
+      <c r="CO30" s="18"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -27048,19 +27046,19 @@
         <v>145871.51281960148</v>
       </c>
       <c r="CK33" s="8">
-        <v>119933.59702556206</v>
+        <v>120016.61292978798</v>
       </c>
       <c r="CL33" s="8">
-        <v>116095.45299468466</v>
+        <v>115951.26534221484</v>
       </c>
       <c r="CM33" s="8">
-        <v>133533.30444124746</v>
+        <v>133986.84916411166</v>
       </c>
       <c r="CN33" s="8">
-        <v>151798.25921550597</v>
+        <v>151635.88072345522</v>
       </c>
       <c r="CO33" s="8">
-        <v>125410.91950688182</v>
+        <v>125236.38787257974</v>
       </c>
       <c r="CP33" s="9"/>
       <c r="CQ33" s="9"/>
@@ -27731,16 +27729,16 @@
         <v>24719.955784756323</v>
       </c>
       <c r="CL35" s="8">
-        <v>24188.243132842203</v>
+        <v>24260.820389665172</v>
       </c>
       <c r="CM35" s="8">
-        <v>25458.843483473862</v>
+        <v>25473.702528060967</v>
       </c>
       <c r="CN35" s="8">
-        <v>23029.594846346597</v>
+        <v>23057.388227622931</v>
       </c>
       <c r="CO35" s="8">
-        <v>27160.911321838888</v>
+        <v>27572.885603816438</v>
       </c>
       <c r="CP35" s="9"/>
       <c r="CQ35" s="9"/>
@@ -28068,19 +28066,19 @@
         <v>2054.5974157759247</v>
       </c>
       <c r="CK36" s="8">
-        <v>2158.6083456663318</v>
+        <v>2161.554211327069</v>
       </c>
       <c r="CL36" s="8">
-        <v>1867.0893740391693</v>
+        <v>1884.5847292759472</v>
       </c>
       <c r="CM36" s="8">
-        <v>1995.8179941493972</v>
+        <v>1959.4704276840453</v>
       </c>
       <c r="CN36" s="8">
-        <v>2231.2620728300553</v>
+        <v>2200.1473327711597</v>
       </c>
       <c r="CO36" s="8">
-        <v>2465.4949343484286</v>
+        <v>2394.8188892460926</v>
       </c>
       <c r="CP36" s="9"/>
       <c r="CQ36" s="9"/>
@@ -28561,19 +28559,19 @@
         <v>172369.74683316494</v>
       </c>
       <c r="CK38" s="12">
-        <v>149769.62239926303</v>
+        <v>149855.58416914969</v>
       </c>
       <c r="CL38" s="12">
-        <v>145146.24875625654</v>
+        <v>145092.13371584649</v>
       </c>
       <c r="CM38" s="12">
-        <v>163942.77096930231</v>
+        <v>164374.82717028825</v>
       </c>
       <c r="CN38" s="12">
-        <v>179628.4388976983</v>
+        <v>179462.739046865</v>
       </c>
       <c r="CO38" s="12">
-        <v>158160.26829147627</v>
+        <v>158327.0348940494</v>
       </c>
       <c r="CP38" s="9"/>
       <c r="CQ38" s="9"/>
@@ -29053,7 +29051,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29063,7 +29061,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29073,140 +29071,140 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19" t="s">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19" t="s">
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19" t="s">
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19" t="s">
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19" t="s">
+      <c r="W51" s="17"/>
+      <c r="X51" s="17"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19" t="s">
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19" t="s">
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19" t="s">
+      <c r="AI51" s="17"/>
+      <c r="AJ51" s="17"/>
+      <c r="AK51" s="17"/>
+      <c r="AL51" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="19" t="s">
+      <c r="AM51" s="17"/>
+      <c r="AN51" s="17"/>
+      <c r="AO51" s="17"/>
+      <c r="AP51" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="19"/>
-      <c r="AR51" s="19"/>
-      <c r="AS51" s="19"/>
-      <c r="AT51" s="19" t="s">
+      <c r="AQ51" s="17"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
+      <c r="AT51" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="19"/>
-      <c r="AV51" s="19"/>
-      <c r="AW51" s="19"/>
-      <c r="AX51" s="19" t="s">
+      <c r="AU51" s="17"/>
+      <c r="AV51" s="17"/>
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="19"/>
-      <c r="AZ51" s="19"/>
-      <c r="BA51" s="19"/>
-      <c r="BB51" s="19" t="s">
+      <c r="AY51" s="17"/>
+      <c r="AZ51" s="17"/>
+      <c r="BA51" s="17"/>
+      <c r="BB51" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="19"/>
-      <c r="BD51" s="19"/>
-      <c r="BE51" s="19"/>
-      <c r="BF51" s="19" t="s">
+      <c r="BC51" s="17"/>
+      <c r="BD51" s="17"/>
+      <c r="BE51" s="17"/>
+      <c r="BF51" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="19"/>
-      <c r="BH51" s="19"/>
-      <c r="BI51" s="19"/>
-      <c r="BJ51" s="19" t="s">
+      <c r="BG51" s="17"/>
+      <c r="BH51" s="17"/>
+      <c r="BI51" s="17"/>
+      <c r="BJ51" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="19"/>
-      <c r="BL51" s="19"/>
-      <c r="BM51" s="19"/>
-      <c r="BN51" s="19" t="s">
+      <c r="BK51" s="17"/>
+      <c r="BL51" s="17"/>
+      <c r="BM51" s="17"/>
+      <c r="BN51" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="19"/>
-      <c r="BP51" s="19"/>
-      <c r="BQ51" s="19"/>
-      <c r="BR51" s="19" t="s">
+      <c r="BO51" s="17"/>
+      <c r="BP51" s="17"/>
+      <c r="BQ51" s="17"/>
+      <c r="BR51" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="19"/>
-      <c r="BT51" s="19"/>
-      <c r="BU51" s="19"/>
-      <c r="BV51" s="19" t="s">
+      <c r="BS51" s="17"/>
+      <c r="BT51" s="17"/>
+      <c r="BU51" s="17"/>
+      <c r="BV51" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="19"/>
-      <c r="BX51" s="19"/>
-      <c r="BY51" s="19"/>
-      <c r="BZ51" s="19" t="s">
+      <c r="BW51" s="17"/>
+      <c r="BX51" s="17"/>
+      <c r="BY51" s="17"/>
+      <c r="BZ51" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="19"/>
-      <c r="CB51" s="19"/>
-      <c r="CC51" s="19"/>
-      <c r="CD51" s="19" t="s">
+      <c r="CA51" s="17"/>
+      <c r="CB51" s="17"/>
+      <c r="CC51" s="17"/>
+      <c r="CD51" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="19"/>
-      <c r="CF51" s="19"/>
-      <c r="CG51" s="19"/>
-      <c r="CH51" s="19" t="s">
+      <c r="CE51" s="17"/>
+      <c r="CF51" s="17"/>
+      <c r="CG51" s="17"/>
+      <c r="CH51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="19"/>
-      <c r="CJ51" s="19"/>
-      <c r="CK51" s="19"/>
-      <c r="CL51" s="19"/>
-      <c r="CM51" s="19"/>
+      <c r="CI51" s="17"/>
+      <c r="CJ51" s="17"/>
+      <c r="CK51" s="17"/>
+      <c r="CL51" s="17"/>
+      <c r="CM51" s="17"/>
       <c r="CN51" s="17"/>
       <c r="CO51" s="17"/>
     </row>
@@ -29740,19 +29738,19 @@
         <v>7.6675106111309077</v>
       </c>
       <c r="CG54" s="15">
-        <v>7.2646504963633589</v>
+        <v>7.3388976203484475</v>
       </c>
       <c r="CH54" s="15">
-        <v>20.128618129532597</v>
+        <v>19.9800490881277</v>
       </c>
       <c r="CI54" s="15">
-        <v>17.617606137902001</v>
+        <v>18.016384860480798</v>
       </c>
       <c r="CJ54" s="15">
-        <v>13.808280296777326</v>
+        <v>13.686539658689753</v>
       </c>
       <c r="CK54" s="15">
-        <v>15.382848376955721</v>
+        <v>15.145261361366707</v>
       </c>
       <c r="CL54" s="15"/>
       <c r="CM54" s="15"/>
@@ -30399,16 +30397,16 @@
         <v>3.1961804227578625</v>
       </c>
       <c r="CH56" s="15">
-        <v>4.7847347653610512</v>
+        <v>5.09914323911525</v>
       </c>
       <c r="CI56" s="15">
-        <v>-0.41563208893082049</v>
+        <v>-0.35595609810972917</v>
       </c>
       <c r="CJ56" s="15">
-        <v>4.0639322382488388</v>
+        <v>4.1895223133286947</v>
       </c>
       <c r="CK56" s="15">
-        <v>5.1398253065076318</v>
+        <v>6.734539471039497</v>
       </c>
       <c r="CL56" s="15"/>
       <c r="CM56" s="15"/>
@@ -30724,19 +30722,19 @@
         <v>8.6130765455539944</v>
       </c>
       <c r="CG57" s="15">
-        <v>12.390273458207488</v>
+        <v>12.54344831850382</v>
       </c>
       <c r="CH57" s="15">
-        <v>11.099902954550586</v>
+        <v>12.140952352607215</v>
       </c>
       <c r="CI57" s="15">
-        <v>11.509572525150062</v>
+        <v>9.4787753228188478</v>
       </c>
       <c r="CJ57" s="15">
-        <v>10.5742617702643</v>
+        <v>9.0323140743479229</v>
       </c>
       <c r="CK57" s="15">
-        <v>14.867703752452897</v>
+        <v>11.423312856875299</v>
       </c>
       <c r="CL57" s="15"/>
       <c r="CM57" s="15"/>
@@ -31201,19 +31199,19 @@
         <v>6.2456632647074173</v>
       </c>
       <c r="CG59" s="15">
-        <v>6.6094385981714225</v>
+        <v>6.6698429744946708</v>
       </c>
       <c r="CH59" s="15">
-        <v>17.034938959611964</v>
+        <v>16.977271646277686</v>
       </c>
       <c r="CI59" s="15">
-        <v>15.020497108652208</v>
+        <v>15.343696627569713</v>
       </c>
       <c r="CJ59" s="15">
-        <v>12.253018784433351</v>
+        <v>12.148833984928515</v>
       </c>
       <c r="CK59" s="15">
-        <v>13.506757443210589</v>
+        <v>13.545764568991657</v>
       </c>
       <c r="CL59" s="15"/>
       <c r="CM59" s="15"/>
@@ -31460,14 +31458,14 @@
       <c r="CE62" s="16"/>
       <c r="CF62" s="16"/>
       <c r="CG62" s="16"/>
-      <c r="CH62" s="18"/>
-      <c r="CI62" s="18"/>
-      <c r="CJ62" s="18"/>
-      <c r="CK62" s="18"/>
-      <c r="CL62" s="18"/>
-      <c r="CM62" s="18"/>
-      <c r="CN62" s="18"/>
-      <c r="CO62" s="18"/>
+      <c r="CH62" s="16"/>
+      <c r="CI62" s="16"/>
+      <c r="CJ62" s="16"/>
+      <c r="CK62" s="16"/>
+      <c r="CL62" s="16"/>
+      <c r="CM62" s="16"/>
+      <c r="CN62" s="16"/>
+      <c r="CO62" s="16"/>
       <c r="CP62" s="9"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
@@ -31685,7 +31683,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31695,7 +31693,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31705,142 +31703,142 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="19" t="s">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="19" t="s">
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="19" t="s">
+      <c r="K72" s="19"/>
+      <c r="L72" s="19"/>
+      <c r="M72" s="19"/>
+      <c r="N72" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="19" t="s">
+      <c r="O72" s="19"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="19"/>
+      <c r="R72" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="19" t="s">
+      <c r="S72" s="19"/>
+      <c r="T72" s="19"/>
+      <c r="U72" s="19"/>
+      <c r="V72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="19" t="s">
+      <c r="W72" s="19"/>
+      <c r="X72" s="19"/>
+      <c r="Y72" s="19"/>
+      <c r="Z72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
-      <c r="AD72" s="19" t="s">
+      <c r="AA72" s="19"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="19"/>
+      <c r="AD72" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="21"/>
-      <c r="AH72" s="19" t="s">
+      <c r="AE72" s="19"/>
+      <c r="AF72" s="19"/>
+      <c r="AG72" s="19"/>
+      <c r="AH72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="21"/>
-      <c r="AJ72" s="21"/>
-      <c r="AK72" s="21"/>
-      <c r="AL72" s="19" t="s">
+      <c r="AI72" s="19"/>
+      <c r="AJ72" s="19"/>
+      <c r="AK72" s="19"/>
+      <c r="AL72" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="21"/>
-      <c r="AN72" s="21"/>
-      <c r="AO72" s="21"/>
-      <c r="AP72" s="19" t="s">
+      <c r="AM72" s="19"/>
+      <c r="AN72" s="19"/>
+      <c r="AO72" s="19"/>
+      <c r="AP72" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="21"/>
-      <c r="AR72" s="21"/>
-      <c r="AS72" s="21"/>
-      <c r="AT72" s="19" t="s">
+      <c r="AQ72" s="19"/>
+      <c r="AR72" s="19"/>
+      <c r="AS72" s="19"/>
+      <c r="AT72" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="21"/>
-      <c r="AV72" s="21"/>
-      <c r="AW72" s="21"/>
-      <c r="AX72" s="19" t="s">
+      <c r="AU72" s="19"/>
+      <c r="AV72" s="19"/>
+      <c r="AW72" s="19"/>
+      <c r="AX72" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="21"/>
-      <c r="AZ72" s="21"/>
-      <c r="BA72" s="21"/>
-      <c r="BB72" s="19" t="s">
+      <c r="AY72" s="19"/>
+      <c r="AZ72" s="19"/>
+      <c r="BA72" s="19"/>
+      <c r="BB72" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="21"/>
-      <c r="BD72" s="21"/>
-      <c r="BE72" s="21"/>
-      <c r="BF72" s="19" t="s">
+      <c r="BC72" s="19"/>
+      <c r="BD72" s="19"/>
+      <c r="BE72" s="19"/>
+      <c r="BF72" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="21"/>
-      <c r="BH72" s="21"/>
-      <c r="BI72" s="21"/>
-      <c r="BJ72" s="19" t="s">
+      <c r="BG72" s="19"/>
+      <c r="BH72" s="19"/>
+      <c r="BI72" s="19"/>
+      <c r="BJ72" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="21"/>
-      <c r="BL72" s="21"/>
-      <c r="BM72" s="21"/>
-      <c r="BN72" s="19" t="s">
+      <c r="BK72" s="19"/>
+      <c r="BL72" s="19"/>
+      <c r="BM72" s="19"/>
+      <c r="BN72" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="21"/>
-      <c r="BP72" s="21"/>
-      <c r="BQ72" s="21"/>
-      <c r="BR72" s="19" t="s">
+      <c r="BO72" s="19"/>
+      <c r="BP72" s="19"/>
+      <c r="BQ72" s="19"/>
+      <c r="BR72" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="21"/>
-      <c r="BT72" s="21"/>
-      <c r="BU72" s="21"/>
-      <c r="BV72" s="19" t="s">
+      <c r="BS72" s="19"/>
+      <c r="BT72" s="19"/>
+      <c r="BU72" s="19"/>
+      <c r="BV72" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="21"/>
-      <c r="BX72" s="21"/>
-      <c r="BY72" s="21"/>
-      <c r="BZ72" s="19" t="s">
+      <c r="BW72" s="19"/>
+      <c r="BX72" s="19"/>
+      <c r="BY72" s="19"/>
+      <c r="BZ72" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="21"/>
-      <c r="CB72" s="21"/>
-      <c r="CC72" s="21"/>
-      <c r="CD72" s="19" t="s">
+      <c r="CA72" s="19"/>
+      <c r="CB72" s="19"/>
+      <c r="CC72" s="19"/>
+      <c r="CD72" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="21"/>
-      <c r="CF72" s="21"/>
-      <c r="CG72" s="21"/>
-      <c r="CH72" s="19" t="s">
+      <c r="CE72" s="19"/>
+      <c r="CF72" s="19"/>
+      <c r="CG72" s="19"/>
+      <c r="CH72" s="17" t="s">
         <v>49</v>
       </c>
       <c r="CI72" s="19"/>
       <c r="CJ72" s="19"/>
       <c r="CK72" s="19"/>
-      <c r="CL72" s="19"/>
+      <c r="CL72" s="17"/>
       <c r="CM72" s="19"/>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
+      <c r="CN72" s="19"/>
+      <c r="CO72" s="19"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32372,19 +32370,19 @@
         <v>3.7530062433439184</v>
       </c>
       <c r="CG75" s="15">
-        <v>4.4310866858634483</v>
+        <v>4.5033720279655114</v>
       </c>
       <c r="CH75" s="15">
-        <v>6.4509415339730509</v>
+        <v>6.318732123810463</v>
       </c>
       <c r="CI75" s="15">
-        <v>4.9167071699066582</v>
+        <v>5.2730558656594724</v>
       </c>
       <c r="CJ75" s="15">
-        <v>4.0629909715367489</v>
+        <v>3.9516748626460725</v>
       </c>
       <c r="CK75" s="15">
-        <v>4.56696256692139</v>
+        <v>4.3492103429426265</v>
       </c>
       <c r="CL75" s="15"/>
       <c r="CM75" s="15"/>
@@ -33031,16 +33029,16 @@
         <v>3.1485389128395269</v>
       </c>
       <c r="CH77" s="15">
-        <v>3.7170612388075313</v>
+        <v>4.0282661390192374</v>
       </c>
       <c r="CI77" s="15">
-        <v>5.8867131585200951</v>
+        <v>5.9485138995092086</v>
       </c>
       <c r="CJ77" s="15">
-        <v>4.0183369291871145</v>
+        <v>4.1438719773410924</v>
       </c>
       <c r="CK77" s="15">
-        <v>9.8744332649162345</v>
+        <v>11.540998875165414</v>
       </c>
       <c r="CL77" s="15"/>
       <c r="CM77" s="15"/>
@@ -33356,19 +33354,19 @@
         <v>7.3994626179709257</v>
       </c>
       <c r="CG78" s="15">
-        <v>10.986051120908826</v>
+        <v>11.13751444563573</v>
       </c>
       <c r="CH78" s="15">
-        <v>9.539023893372061</v>
+        <v>10.565447246185926</v>
       </c>
       <c r="CI78" s="15">
-        <v>9.9492706707869445</v>
+        <v>7.9468894740853671</v>
       </c>
       <c r="CJ78" s="15">
-        <v>8.5985047823791092</v>
+        <v>7.0841088321075034</v>
       </c>
       <c r="CK78" s="15">
-        <v>14.216872148123059</v>
+        <v>10.791525685391562</v>
       </c>
       <c r="CL78" s="15"/>
       <c r="CM78" s="15"/>
@@ -33833,19 +33831,19 @@
         <v>3.0285750355580205</v>
       </c>
       <c r="CG80" s="15">
-        <v>4.3316862832223393</v>
+        <v>4.3915684960802679</v>
       </c>
       <c r="CH80" s="15">
-        <v>5.6381541424774753</v>
+        <v>5.5987689497546427</v>
       </c>
       <c r="CI80" s="15">
-        <v>5.1140274512736568</v>
+        <v>5.3910458711918636</v>
       </c>
       <c r="CJ80" s="15">
-        <v>4.2111172046675733</v>
+        <v>4.1149867328895482</v>
       </c>
       <c r="CK80" s="15">
-        <v>5.602368329303161</v>
+        <v>5.6530764414741697</v>
       </c>
       <c r="CL80" s="15"/>
       <c r="CM80" s="15"/>
@@ -34241,14 +34239,14 @@
       <c r="CE84" s="16"/>
       <c r="CF84" s="16"/>
       <c r="CG84" s="16"/>
-      <c r="CH84" s="9"/>
-      <c r="CI84" s="9"/>
-      <c r="CJ84" s="9"/>
-      <c r="CK84" s="9"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
-      <c r="CO84" s="9"/>
+      <c r="CH84" s="16"/>
+      <c r="CI84" s="16"/>
+      <c r="CJ84" s="16"/>
+      <c r="CK84" s="16"/>
+      <c r="CL84" s="16"/>
+      <c r="CM84" s="16"/>
+      <c r="CN84" s="16"/>
+      <c r="CO84" s="16"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
@@ -34312,7 +34310,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34322,7 +34320,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34332,144 +34330,144 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="19">
+      <c r="B92" s="17">
         <v>2000</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="19">
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="17">
         <v>2001</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="19">
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="17">
         <v>2002</v>
       </c>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="19">
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="17">
         <v>2003</v>
       </c>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="19">
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="17">
         <v>2004</v>
       </c>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="19">
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="17">
         <v>2005</v>
       </c>
-      <c r="W92" s="20"/>
-      <c r="X92" s="20"/>
-      <c r="Y92" s="20"/>
-      <c r="Z92" s="19">
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="17">
         <v>2006</v>
       </c>
-      <c r="AA92" s="20"/>
-      <c r="AB92" s="20"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="19">
+      <c r="AA92" s="18"/>
+      <c r="AB92" s="18"/>
+      <c r="AC92" s="18"/>
+      <c r="AD92" s="17">
         <v>2007</v>
       </c>
-      <c r="AE92" s="20"/>
-      <c r="AF92" s="20"/>
-      <c r="AG92" s="20"/>
-      <c r="AH92" s="19">
+      <c r="AE92" s="18"/>
+      <c r="AF92" s="18"/>
+      <c r="AG92" s="18"/>
+      <c r="AH92" s="17">
         <v>2008</v>
       </c>
-      <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="20"/>
-      <c r="AL92" s="19">
+      <c r="AI92" s="18"/>
+      <c r="AJ92" s="18"/>
+      <c r="AK92" s="18"/>
+      <c r="AL92" s="17">
         <v>2009</v>
       </c>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
-      <c r="AP92" s="19">
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="18"/>
+      <c r="AO92" s="18"/>
+      <c r="AP92" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="20"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="20"/>
-      <c r="AT92" s="19">
+      <c r="AQ92" s="18"/>
+      <c r="AR92" s="18"/>
+      <c r="AS92" s="18"/>
+      <c r="AT92" s="17">
         <v>2011</v>
       </c>
-      <c r="AU92" s="20"/>
-      <c r="AV92" s="20"/>
-      <c r="AW92" s="20"/>
-      <c r="AX92" s="19">
+      <c r="AU92" s="18"/>
+      <c r="AV92" s="18"/>
+      <c r="AW92" s="18"/>
+      <c r="AX92" s="17">
         <v>2012</v>
       </c>
-      <c r="AY92" s="20"/>
-      <c r="AZ92" s="20"/>
-      <c r="BA92" s="20"/>
-      <c r="BB92" s="19">
+      <c r="AY92" s="18"/>
+      <c r="AZ92" s="18"/>
+      <c r="BA92" s="18"/>
+      <c r="BB92" s="17">
         <v>2013</v>
       </c>
-      <c r="BC92" s="20"/>
-      <c r="BD92" s="20"/>
-      <c r="BE92" s="20"/>
-      <c r="BF92" s="19">
+      <c r="BC92" s="18"/>
+      <c r="BD92" s="18"/>
+      <c r="BE92" s="18"/>
+      <c r="BF92" s="17">
         <v>2014</v>
       </c>
-      <c r="BG92" s="20"/>
-      <c r="BH92" s="20"/>
-      <c r="BI92" s="20"/>
-      <c r="BJ92" s="19">
+      <c r="BG92" s="18"/>
+      <c r="BH92" s="18"/>
+      <c r="BI92" s="18"/>
+      <c r="BJ92" s="17">
         <v>2015</v>
       </c>
-      <c r="BK92" s="20"/>
-      <c r="BL92" s="20"/>
-      <c r="BM92" s="20"/>
-      <c r="BN92" s="19">
+      <c r="BK92" s="18"/>
+      <c r="BL92" s="18"/>
+      <c r="BM92" s="18"/>
+      <c r="BN92" s="17">
         <v>2016</v>
       </c>
-      <c r="BO92" s="20"/>
-      <c r="BP92" s="20"/>
-      <c r="BQ92" s="20"/>
-      <c r="BR92" s="19">
+      <c r="BO92" s="18"/>
+      <c r="BP92" s="18"/>
+      <c r="BQ92" s="18"/>
+      <c r="BR92" s="17">
         <v>2017</v>
       </c>
-      <c r="BS92" s="20"/>
-      <c r="BT92" s="20"/>
-      <c r="BU92" s="20"/>
-      <c r="BV92" s="19">
+      <c r="BS92" s="18"/>
+      <c r="BT92" s="18"/>
+      <c r="BU92" s="18"/>
+      <c r="BV92" s="17">
         <v>2018</v>
       </c>
-      <c r="BW92" s="20"/>
-      <c r="BX92" s="20"/>
-      <c r="BY92" s="20"/>
-      <c r="BZ92" s="19">
+      <c r="BW92" s="18"/>
+      <c r="BX92" s="18"/>
+      <c r="BY92" s="18"/>
+      <c r="BZ92" s="17">
         <v>2019</v>
       </c>
-      <c r="CA92" s="20"/>
-      <c r="CB92" s="20"/>
-      <c r="CC92" s="20"/>
-      <c r="CD92" s="19">
+      <c r="CA92" s="18"/>
+      <c r="CB92" s="18"/>
+      <c r="CC92" s="18"/>
+      <c r="CD92" s="17">
         <v>2020</v>
       </c>
-      <c r="CE92" s="20"/>
-      <c r="CF92" s="20"/>
-      <c r="CG92" s="20"/>
-      <c r="CH92" s="19">
+      <c r="CE92" s="18"/>
+      <c r="CF92" s="18"/>
+      <c r="CG92" s="18"/>
+      <c r="CH92" s="17">
         <v>2021</v>
       </c>
-      <c r="CI92" s="19"/>
-      <c r="CJ92" s="19"/>
-      <c r="CK92" s="19"/>
-      <c r="CL92" s="19">
+      <c r="CI92" s="18"/>
+      <c r="CJ92" s="18"/>
+      <c r="CK92" s="18"/>
+      <c r="CL92" s="17">
         <v>2022</v>
       </c>
-      <c r="CM92" s="19"/>
-      <c r="CN92" s="19"/>
-      <c r="CO92" s="19"/>
+      <c r="CM92" s="18"/>
+      <c r="CN92" s="18"/>
+      <c r="CO92" s="18"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35021,19 +35019,19 @@
         <v>79.455869215836628</v>
       </c>
       <c r="CK95" s="15">
-        <v>97.443084253867056</v>
+        <v>97.443084652735706</v>
       </c>
       <c r="CL95" s="15">
-        <v>129.1914296413326</v>
+        <v>129.1921055375966</v>
       </c>
       <c r="CM95" s="15">
-        <v>151.9269711335553</v>
+        <v>151.92605910186657</v>
       </c>
       <c r="CN95" s="15">
-        <v>86.89675119383584</v>
+        <v>86.896751193835854</v>
       </c>
       <c r="CO95" s="15">
-        <v>107.52211157182015</v>
+        <v>107.52462249903239</v>
       </c>
       <c r="CP95" s="9"/>
       <c r="CQ95" s="9"/>
@@ -35707,13 +35705,13 @@
         <v>105.96078951648336</v>
       </c>
       <c r="CM97" s="15">
-        <v>107.93899745268902</v>
+        <v>107.94068042193517</v>
       </c>
       <c r="CN97" s="15">
-        <v>99.507171032664814</v>
+        <v>99.507171032664786</v>
       </c>
       <c r="CO97" s="15">
-        <v>101.17495232980292</v>
+        <v>101.17491694026226</v>
       </c>
       <c r="CP97" s="9"/>
       <c r="CQ97" s="9"/>
@@ -36041,19 +36039,19 @@
         <v>110.66088837502663</v>
       </c>
       <c r="CK98" s="15">
-        <v>110.86916946607566</v>
+        <v>110.86896769840675</v>
       </c>
       <c r="CL98" s="15">
-        <v>111.00454898162577</v>
+        <v>111.00454898162579</v>
       </c>
       <c r="CM98" s="15">
-        <v>113.23838408637347</v>
+        <v>113.23838408637346</v>
       </c>
       <c r="CN98" s="15">
-        <v>112.67416677080817</v>
+        <v>112.67416677080821</v>
       </c>
       <c r="CO98" s="15">
-        <v>111.50092516098513</v>
+        <v>111.50119648191861</v>
       </c>
       <c r="CP98" s="9"/>
       <c r="CQ98" s="9"/>
@@ -36534,19 +36532,19 @@
         <v>82.693483654571381</v>
       </c>
       <c r="CK100" s="15">
-        <v>99.171222988913442</v>
+        <v>99.170493014902888</v>
       </c>
       <c r="CL100" s="15">
-        <v>124.68099213838686</v>
+        <v>124.66603672007838</v>
       </c>
       <c r="CM100" s="15">
-        <v>143.95253204955918</v>
+        <v>143.97758876815226</v>
       </c>
       <c r="CN100" s="15">
-        <v>89.074883976112574</v>
+        <v>89.074378828905992</v>
       </c>
       <c r="CO100" s="15">
-        <v>106.59423771678422</v>
+        <v>106.57890741400809</v>
       </c>
       <c r="CP100" s="9"/>
       <c r="CQ100" s="9"/>
@@ -36720,7 +36718,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -36730,7 +36728,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -36740,144 +36738,144 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="19">
+      <c r="B113" s="17">
         <v>2000</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="19">
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="17">
         <v>2001</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="19">
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="17">
         <v>2002</v>
       </c>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="19">
+      <c r="K113" s="18"/>
+      <c r="L113" s="18"/>
+      <c r="M113" s="18"/>
+      <c r="N113" s="17">
         <v>2003</v>
       </c>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="19">
+      <c r="O113" s="18"/>
+      <c r="P113" s="18"/>
+      <c r="Q113" s="18"/>
+      <c r="R113" s="17">
         <v>2004</v>
       </c>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="19">
+      <c r="S113" s="18"/>
+      <c r="T113" s="18"/>
+      <c r="U113" s="18"/>
+      <c r="V113" s="17">
         <v>2005</v>
       </c>
-      <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="19">
+      <c r="W113" s="18"/>
+      <c r="X113" s="18"/>
+      <c r="Y113" s="18"/>
+      <c r="Z113" s="17">
         <v>2006</v>
       </c>
-      <c r="AA113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="19">
+      <c r="AA113" s="18"/>
+      <c r="AB113" s="18"/>
+      <c r="AC113" s="18"/>
+      <c r="AD113" s="17">
         <v>2007</v>
       </c>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
-      <c r="AH113" s="19">
+      <c r="AE113" s="18"/>
+      <c r="AF113" s="18"/>
+      <c r="AG113" s="18"/>
+      <c r="AH113" s="17">
         <v>2008</v>
       </c>
-      <c r="AI113" s="20"/>
-      <c r="AJ113" s="20"/>
-      <c r="AK113" s="20"/>
-      <c r="AL113" s="19">
+      <c r="AI113" s="18"/>
+      <c r="AJ113" s="18"/>
+      <c r="AK113" s="18"/>
+      <c r="AL113" s="17">
         <v>2009</v>
       </c>
-      <c r="AM113" s="20"/>
-      <c r="AN113" s="20"/>
-      <c r="AO113" s="20"/>
-      <c r="AP113" s="19">
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="18"/>
+      <c r="AO113" s="18"/>
+      <c r="AP113" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="20"/>
-      <c r="AR113" s="20"/>
-      <c r="AS113" s="20"/>
-      <c r="AT113" s="19">
+      <c r="AQ113" s="18"/>
+      <c r="AR113" s="18"/>
+      <c r="AS113" s="18"/>
+      <c r="AT113" s="17">
         <v>2011</v>
       </c>
-      <c r="AU113" s="20"/>
-      <c r="AV113" s="20"/>
-      <c r="AW113" s="20"/>
-      <c r="AX113" s="19">
+      <c r="AU113" s="18"/>
+      <c r="AV113" s="18"/>
+      <c r="AW113" s="18"/>
+      <c r="AX113" s="17">
         <v>2012</v>
       </c>
-      <c r="AY113" s="20"/>
-      <c r="AZ113" s="20"/>
-      <c r="BA113" s="20"/>
-      <c r="BB113" s="19">
+      <c r="AY113" s="18"/>
+      <c r="AZ113" s="18"/>
+      <c r="BA113" s="18"/>
+      <c r="BB113" s="17">
         <v>2013</v>
       </c>
-      <c r="BC113" s="20"/>
-      <c r="BD113" s="20"/>
-      <c r="BE113" s="20"/>
-      <c r="BF113" s="19">
+      <c r="BC113" s="18"/>
+      <c r="BD113" s="18"/>
+      <c r="BE113" s="18"/>
+      <c r="BF113" s="17">
         <v>2014</v>
       </c>
-      <c r="BG113" s="20"/>
-      <c r="BH113" s="20"/>
-      <c r="BI113" s="20"/>
-      <c r="BJ113" s="19">
+      <c r="BG113" s="18"/>
+      <c r="BH113" s="18"/>
+      <c r="BI113" s="18"/>
+      <c r="BJ113" s="17">
         <v>2015</v>
       </c>
-      <c r="BK113" s="20"/>
-      <c r="BL113" s="20"/>
-      <c r="BM113" s="20"/>
-      <c r="BN113" s="19">
+      <c r="BK113" s="18"/>
+      <c r="BL113" s="18"/>
+      <c r="BM113" s="18"/>
+      <c r="BN113" s="17">
         <v>2016</v>
       </c>
-      <c r="BO113" s="20"/>
-      <c r="BP113" s="20"/>
-      <c r="BQ113" s="20"/>
-      <c r="BR113" s="19">
+      <c r="BO113" s="18"/>
+      <c r="BP113" s="18"/>
+      <c r="BQ113" s="18"/>
+      <c r="BR113" s="17">
         <v>2017</v>
       </c>
-      <c r="BS113" s="20"/>
-      <c r="BT113" s="20"/>
-      <c r="BU113" s="20"/>
-      <c r="BV113" s="19">
+      <c r="BS113" s="18"/>
+      <c r="BT113" s="18"/>
+      <c r="BU113" s="18"/>
+      <c r="BV113" s="17">
         <v>2018</v>
       </c>
-      <c r="BW113" s="20"/>
-      <c r="BX113" s="20"/>
-      <c r="BY113" s="20"/>
-      <c r="BZ113" s="19">
+      <c r="BW113" s="18"/>
+      <c r="BX113" s="18"/>
+      <c r="BY113" s="18"/>
+      <c r="BZ113" s="17">
         <v>2019</v>
       </c>
-      <c r="CA113" s="20"/>
-      <c r="CB113" s="20"/>
-      <c r="CC113" s="20"/>
-      <c r="CD113" s="19">
+      <c r="CA113" s="18"/>
+      <c r="CB113" s="18"/>
+      <c r="CC113" s="18"/>
+      <c r="CD113" s="17">
         <v>2020</v>
       </c>
-      <c r="CE113" s="20"/>
-      <c r="CF113" s="20"/>
-      <c r="CG113" s="20"/>
-      <c r="CH113" s="19">
+      <c r="CE113" s="18"/>
+      <c r="CF113" s="18"/>
+      <c r="CG113" s="18"/>
+      <c r="CH113" s="17">
         <v>2021</v>
       </c>
-      <c r="CI113" s="19"/>
-      <c r="CJ113" s="19"/>
-      <c r="CK113" s="19"/>
-      <c r="CL113" s="19">
+      <c r="CI113" s="18"/>
+      <c r="CJ113" s="18"/>
+      <c r="CK113" s="18"/>
+      <c r="CL113" s="17">
         <v>2022</v>
       </c>
-      <c r="CM113" s="19"/>
-      <c r="CN113" s="19"/>
-      <c r="CO113" s="19"/>
+      <c r="CM113" s="18"/>
+      <c r="CN113" s="18"/>
+      <c r="CO113" s="18"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37429,19 +37427,19 @@
         <v>81.313777733460142</v>
       </c>
       <c r="CK116" s="15">
-        <v>78.68328386616308</v>
+        <v>78.693160206896422</v>
       </c>
       <c r="CL116" s="15">
-        <v>82.878684488241717</v>
+        <v>82.816991196695341</v>
       </c>
       <c r="CM116" s="15">
-        <v>85.963263845020109</v>
+        <v>86.013028964306372</v>
       </c>
       <c r="CN116" s="15">
-        <v>82.440377180865624</v>
+        <v>82.428694874662895</v>
       </c>
       <c r="CO116" s="15">
-        <v>79.983796706312333</v>
+        <v>79.801695235134375</v>
       </c>
       <c r="CP116" s="9"/>
       <c r="CQ116" s="9"/>
@@ -37769,19 +37767,19 @@
         <v>1.6418445783985467</v>
       </c>
       <c r="CK117" s="15">
-        <v>2.1083371071300965</v>
+        <v>2.1071432102939887</v>
       </c>
       <c r="CL117" s="15">
-        <v>1.8134519153718429</v>
+        <v>1.8143459086950642</v>
       </c>
       <c r="CM117" s="15">
-        <v>1.4350067233136909</v>
+        <v>1.4309857538443673</v>
       </c>
       <c r="CN117" s="15">
-        <v>1.6661562013441686</v>
+        <v>1.6677040386565398</v>
       </c>
       <c r="CO117" s="15">
-        <v>2.0856399543070894</v>
+        <v>2.0837428223576442</v>
       </c>
       <c r="CP117" s="9"/>
       <c r="CQ117" s="9"/>
@@ -38109,19 +38107,19 @@
         <v>15.44927532601951</v>
       </c>
       <c r="CK118" s="15">
-        <v>17.597083348913181</v>
+        <v>17.58711857522308</v>
       </c>
       <c r="CL118" s="15">
-        <v>14.162614867914932</v>
+        <v>14.21211286543449</v>
       </c>
       <c r="CM118" s="15">
-        <v>11.64408780065029</v>
+        <v>11.618418586827007</v>
       </c>
       <c r="CN118" s="15">
-        <v>14.322219197902703</v>
+        <v>14.352825251142482</v>
       </c>
       <c r="CO118" s="15">
-        <v>16.299948222328968</v>
+        <v>16.532127013935611</v>
       </c>
       <c r="CP118" s="9"/>
       <c r="CQ118" s="9"/>
@@ -38449,19 +38447,19 @@
         <v>1.5951023621218179</v>
       </c>
       <c r="CK119" s="15">
-        <v>1.6112956777936445</v>
+        <v>1.6125780075864986</v>
       </c>
       <c r="CL119" s="15">
-        <v>1.1452487284715047</v>
+        <v>1.1565500291751132</v>
       </c>
       <c r="CM119" s="15">
-        <v>0.95764163101592303</v>
+        <v>0.9375666950222471</v>
       </c>
       <c r="CN119" s="15">
-        <v>1.5712474198875077</v>
+        <v>1.5507758355380918</v>
       </c>
       <c r="CO119" s="15">
-        <v>1.6306151170515981</v>
+        <v>1.5824349285723665</v>
       </c>
       <c r="CP119" s="9"/>
       <c r="CQ119" s="9"/>
@@ -39434,7 +39432,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39444,7 +39442,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39454,144 +39452,144 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="19">
+      <c r="B134" s="17">
         <v>2000</v>
       </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="19">
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="17">
         <v>2001</v>
       </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="19">
+      <c r="G134" s="18"/>
+      <c r="H134" s="18"/>
+      <c r="I134" s="18"/>
+      <c r="J134" s="17">
         <v>2002</v>
       </c>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="19">
+      <c r="K134" s="18"/>
+      <c r="L134" s="18"/>
+      <c r="M134" s="18"/>
+      <c r="N134" s="17">
         <v>2003</v>
       </c>
-      <c r="O134" s="20"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="19">
+      <c r="O134" s="18"/>
+      <c r="P134" s="18"/>
+      <c r="Q134" s="18"/>
+      <c r="R134" s="17">
         <v>2004</v>
       </c>
-      <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
-      <c r="U134" s="20"/>
-      <c r="V134" s="19">
+      <c r="S134" s="18"/>
+      <c r="T134" s="18"/>
+      <c r="U134" s="18"/>
+      <c r="V134" s="17">
         <v>2005</v>
       </c>
-      <c r="W134" s="20"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="19">
+      <c r="W134" s="18"/>
+      <c r="X134" s="18"/>
+      <c r="Y134" s="18"/>
+      <c r="Z134" s="17">
         <v>2006</v>
       </c>
-      <c r="AA134" s="20"/>
-      <c r="AB134" s="20"/>
-      <c r="AC134" s="20"/>
-      <c r="AD134" s="19">
+      <c r="AA134" s="18"/>
+      <c r="AB134" s="18"/>
+      <c r="AC134" s="18"/>
+      <c r="AD134" s="17">
         <v>2007</v>
       </c>
-      <c r="AE134" s="20"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
-      <c r="AH134" s="19">
+      <c r="AE134" s="18"/>
+      <c r="AF134" s="18"/>
+      <c r="AG134" s="18"/>
+      <c r="AH134" s="17">
         <v>2008</v>
       </c>
-      <c r="AI134" s="20"/>
-      <c r="AJ134" s="20"/>
-      <c r="AK134" s="20"/>
-      <c r="AL134" s="19">
+      <c r="AI134" s="18"/>
+      <c r="AJ134" s="18"/>
+      <c r="AK134" s="18"/>
+      <c r="AL134" s="17">
         <v>2009</v>
       </c>
-      <c r="AM134" s="20"/>
-      <c r="AN134" s="20"/>
-      <c r="AO134" s="20"/>
-      <c r="AP134" s="19">
+      <c r="AM134" s="18"/>
+      <c r="AN134" s="18"/>
+      <c r="AO134" s="18"/>
+      <c r="AP134" s="17">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="20"/>
-      <c r="AR134" s="20"/>
-      <c r="AS134" s="20"/>
-      <c r="AT134" s="19">
+      <c r="AQ134" s="18"/>
+      <c r="AR134" s="18"/>
+      <c r="AS134" s="18"/>
+      <c r="AT134" s="17">
         <v>2011</v>
       </c>
-      <c r="AU134" s="20"/>
-      <c r="AV134" s="20"/>
-      <c r="AW134" s="20"/>
-      <c r="AX134" s="19">
+      <c r="AU134" s="18"/>
+      <c r="AV134" s="18"/>
+      <c r="AW134" s="18"/>
+      <c r="AX134" s="17">
         <v>2012</v>
       </c>
-      <c r="AY134" s="20"/>
-      <c r="AZ134" s="20"/>
-      <c r="BA134" s="20"/>
-      <c r="BB134" s="19">
+      <c r="AY134" s="18"/>
+      <c r="AZ134" s="18"/>
+      <c r="BA134" s="18"/>
+      <c r="BB134" s="17">
         <v>2013</v>
       </c>
-      <c r="BC134" s="20"/>
-      <c r="BD134" s="20"/>
-      <c r="BE134" s="20"/>
-      <c r="BF134" s="19">
+      <c r="BC134" s="18"/>
+      <c r="BD134" s="18"/>
+      <c r="BE134" s="18"/>
+      <c r="BF134" s="17">
         <v>2014</v>
       </c>
-      <c r="BG134" s="20"/>
-      <c r="BH134" s="20"/>
-      <c r="BI134" s="20"/>
-      <c r="BJ134" s="19">
+      <c r="BG134" s="18"/>
+      <c r="BH134" s="18"/>
+      <c r="BI134" s="18"/>
+      <c r="BJ134" s="17">
         <v>2015</v>
       </c>
-      <c r="BK134" s="20"/>
-      <c r="BL134" s="20"/>
-      <c r="BM134" s="20"/>
-      <c r="BN134" s="19">
+      <c r="BK134" s="18"/>
+      <c r="BL134" s="18"/>
+      <c r="BM134" s="18"/>
+      <c r="BN134" s="17">
         <v>2016</v>
       </c>
-      <c r="BO134" s="20"/>
-      <c r="BP134" s="20"/>
-      <c r="BQ134" s="20"/>
-      <c r="BR134" s="19">
+      <c r="BO134" s="18"/>
+      <c r="BP134" s="18"/>
+      <c r="BQ134" s="18"/>
+      <c r="BR134" s="17">
         <v>2017</v>
       </c>
-      <c r="BS134" s="20"/>
-      <c r="BT134" s="20"/>
-      <c r="BU134" s="20"/>
-      <c r="BV134" s="19">
+      <c r="BS134" s="18"/>
+      <c r="BT134" s="18"/>
+      <c r="BU134" s="18"/>
+      <c r="BV134" s="17">
         <v>2018</v>
       </c>
-      <c r="BW134" s="20"/>
-      <c r="BX134" s="20"/>
-      <c r="BY134" s="20"/>
-      <c r="BZ134" s="19">
+      <c r="BW134" s="18"/>
+      <c r="BX134" s="18"/>
+      <c r="BY134" s="18"/>
+      <c r="BZ134" s="17">
         <v>2019</v>
       </c>
-      <c r="CA134" s="20"/>
-      <c r="CB134" s="20"/>
-      <c r="CC134" s="20"/>
-      <c r="CD134" s="19">
+      <c r="CA134" s="18"/>
+      <c r="CB134" s="18"/>
+      <c r="CC134" s="18"/>
+      <c r="CD134" s="17">
         <v>2020</v>
       </c>
-      <c r="CE134" s="20"/>
-      <c r="CF134" s="20"/>
-      <c r="CG134" s="20"/>
-      <c r="CH134" s="19">
+      <c r="CE134" s="18"/>
+      <c r="CF134" s="18"/>
+      <c r="CG134" s="18"/>
+      <c r="CH134" s="17">
         <v>2021</v>
       </c>
-      <c r="CI134" s="19"/>
-      <c r="CJ134" s="19"/>
-      <c r="CK134" s="19"/>
-      <c r="CL134" s="19">
+      <c r="CI134" s="18"/>
+      <c r="CJ134" s="18"/>
+      <c r="CK134" s="18"/>
+      <c r="CL134" s="17">
         <v>2022</v>
       </c>
-      <c r="CM134" s="19"/>
-      <c r="CN134" s="19"/>
-      <c r="CO134" s="19"/>
+      <c r="CM134" s="18"/>
+      <c r="CN134" s="18"/>
+      <c r="CO134" s="18"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40143,19 +40141,19 @@
         <v>84.627096981693171</v>
       </c>
       <c r="CK137" s="15">
-        <v>80.078720306737068</v>
+        <v>80.088181962120998</v>
       </c>
       <c r="CL137" s="15">
-        <v>79.985155654723982</v>
+        <v>79.91561111734552</v>
       </c>
       <c r="CM137" s="15">
-        <v>81.45116960738153</v>
+        <v>81.512997744663537</v>
       </c>
       <c r="CN137" s="15">
-        <v>84.506807578480306</v>
+        <v>84.494353272885775</v>
       </c>
       <c r="CO137" s="15">
-        <v>79.293567759862356</v>
+        <v>79.099812584999441</v>
       </c>
       <c r="CP137" s="9"/>
       <c r="CQ137" s="9"/>
@@ -40483,19 +40481,19 @@
         <v>1.3364868724411707</v>
       </c>
       <c r="CK138" s="15">
-        <v>1.9746736326771102</v>
+        <v>1.9735408991766896</v>
       </c>
       <c r="CL138" s="15">
-        <v>2.0637551988827347</v>
+        <v>2.0645249180475429</v>
       </c>
       <c r="CM138" s="15">
-        <v>1.8023393364412819</v>
+        <v>1.7976019207432956</v>
       </c>
       <c r="CN138" s="15">
-        <v>1.4303541125127515</v>
+        <v>1.4316747736390716</v>
       </c>
       <c r="CO138" s="15">
-        <v>1.9745430139583657</v>
+        <v>1.9724632186139215</v>
       </c>
       <c r="CP138" s="9"/>
       <c r="CQ138" s="9"/>
@@ -40823,19 +40821,19 @@
         <v>12.844445133826893</v>
       </c>
       <c r="CK139" s="15">
-        <v>16.505320230331279</v>
+        <v>16.495852271246456</v>
       </c>
       <c r="CL139" s="15">
-        <v>16.664738730837897</v>
+        <v>16.720975678239324</v>
       </c>
       <c r="CM139" s="15">
-        <v>15.529104048290693</v>
+        <v>15.497325817213387</v>
       </c>
       <c r="CN139" s="15">
-        <v>12.82068417877994</v>
+        <v>12.848008645182727</v>
       </c>
       <c r="CO139" s="15">
-        <v>17.173030632309995</v>
+        <v>17.415146833431123</v>
       </c>
       <c r="CP139" s="9"/>
       <c r="CQ139" s="9"/>
@@ -41163,19 +41161,19 @@
         <v>1.1919710120387601</v>
       </c>
       <c r="CK140" s="15">
-        <v>1.4412858302545561</v>
+        <v>1.4424248674558646</v>
       </c>
       <c r="CL140" s="15">
-        <v>1.2863504155553924</v>
+        <v>1.2988882863676012</v>
       </c>
       <c r="CM140" s="15">
-        <v>1.2173870078864941</v>
+        <v>1.1920745173797704</v>
       </c>
       <c r="CN140" s="15">
-        <v>1.2421541302270072</v>
+        <v>1.2259633082924317</v>
       </c>
       <c r="CO140" s="15">
-        <v>1.558858593869306</v>
+        <v>1.512577362955529</v>
       </c>
       <c r="CP140" s="9"/>
       <c r="CQ140" s="9"/>
@@ -41986,13 +41984,13 @@
     <mergeCell ref="CH72:CK72"/>
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CL51:CM51"/>
-    <mergeCell ref="CL72:CM72"/>
     <mergeCell ref="CL9:CO9"/>
     <mergeCell ref="CL30:CO30"/>
     <mergeCell ref="CL92:CO92"/>
     <mergeCell ref="CL113:CO113"/>
     <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CL72:CO72"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of April 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072F19FD-A0D8-4365-9051-40BAA2DA6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814FE56-A82B-416C-84C8-30E71C71750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -622,13 +622,16 @@
     <t>2021 - 2022</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2022</t>
+    <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2022</t>
+    <t>As of May 2023</t>
   </si>
   <si>
-    <t>As of April 2023</t>
+    <t>Q1 2000 to Q1 2023</t>
+  </si>
+  <si>
+    <t>Q1 2001 to Q1 2023</t>
   </si>
 </sst>
 </file>
@@ -716,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -742,6 +745,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23601,14 +23608,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CO1048576"/>
+      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="94" width="10.77734375" style="1" customWidth="1"/>
+    <col min="95" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23623,7 +23630,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23633,7 +23640,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23643,144 +23650,147 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="17">
+      <c r="B9" s="19">
         <v>2000</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19">
         <v>2001</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19">
         <v>2002</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17">
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19">
         <v>2003</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19">
         <v>2004</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17">
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19">
         <v>2005</v>
       </c>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17">
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19">
         <v>2006</v>
       </c>
-      <c r="AA9" s="17"/>
-      <c r="AB9" s="17"/>
-      <c r="AC9" s="17"/>
-      <c r="AD9" s="17">
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19">
         <v>2007</v>
       </c>
-      <c r="AE9" s="17"/>
-      <c r="AF9" s="17"/>
-      <c r="AG9" s="17"/>
-      <c r="AH9" s="17">
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19">
         <v>2008</v>
       </c>
-      <c r="AI9" s="17"/>
-      <c r="AJ9" s="17"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="17">
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19">
         <v>2009</v>
       </c>
-      <c r="AM9" s="17"/>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="17"/>
-      <c r="AP9" s="17">
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="17"/>
-      <c r="AR9" s="17"/>
-      <c r="AS9" s="17"/>
-      <c r="AT9" s="17">
+      <c r="AQ9" s="19"/>
+      <c r="AR9" s="19"/>
+      <c r="AS9" s="19"/>
+      <c r="AT9" s="19">
         <v>2011</v>
       </c>
-      <c r="AU9" s="17"/>
-      <c r="AV9" s="17"/>
-      <c r="AW9" s="17"/>
-      <c r="AX9" s="17">
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="19"/>
+      <c r="AW9" s="19"/>
+      <c r="AX9" s="19">
         <v>2012</v>
       </c>
-      <c r="AY9" s="17"/>
-      <c r="AZ9" s="17"/>
-      <c r="BA9" s="17"/>
-      <c r="BB9" s="17">
+      <c r="AY9" s="19"/>
+      <c r="AZ9" s="19"/>
+      <c r="BA9" s="19"/>
+      <c r="BB9" s="19">
         <v>2013</v>
       </c>
-      <c r="BC9" s="17"/>
-      <c r="BD9" s="17"/>
-      <c r="BE9" s="17"/>
-      <c r="BF9" s="17">
+      <c r="BC9" s="19"/>
+      <c r="BD9" s="19"/>
+      <c r="BE9" s="19"/>
+      <c r="BF9" s="19">
         <v>2014</v>
       </c>
-      <c r="BG9" s="17"/>
-      <c r="BH9" s="17"/>
-      <c r="BI9" s="17"/>
-      <c r="BJ9" s="17">
+      <c r="BG9" s="19"/>
+      <c r="BH9" s="19"/>
+      <c r="BI9" s="19"/>
+      <c r="BJ9" s="19">
         <v>2015</v>
       </c>
-      <c r="BK9" s="17"/>
-      <c r="BL9" s="17"/>
-      <c r="BM9" s="17"/>
-      <c r="BN9" s="17">
+      <c r="BK9" s="19"/>
+      <c r="BL9" s="19"/>
+      <c r="BM9" s="19"/>
+      <c r="BN9" s="19">
         <v>2016</v>
       </c>
-      <c r="BO9" s="17"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="17"/>
-      <c r="BR9" s="17">
+      <c r="BO9" s="19"/>
+      <c r="BP9" s="19"/>
+      <c r="BQ9" s="19"/>
+      <c r="BR9" s="19">
         <v>2017</v>
       </c>
-      <c r="BS9" s="17"/>
-      <c r="BT9" s="17"/>
-      <c r="BU9" s="17"/>
-      <c r="BV9" s="17">
+      <c r="BS9" s="19"/>
+      <c r="BT9" s="19"/>
+      <c r="BU9" s="19"/>
+      <c r="BV9" s="19">
         <v>2018</v>
       </c>
-      <c r="BW9" s="17"/>
-      <c r="BX9" s="17"/>
-      <c r="BY9" s="17"/>
-      <c r="BZ9" s="17">
+      <c r="BW9" s="19"/>
+      <c r="BX9" s="19"/>
+      <c r="BY9" s="19"/>
+      <c r="BZ9" s="19">
         <v>2019</v>
       </c>
-      <c r="CA9" s="17"/>
-      <c r="CB9" s="17"/>
-      <c r="CC9" s="17"/>
-      <c r="CD9" s="17">
+      <c r="CA9" s="19"/>
+      <c r="CB9" s="19"/>
+      <c r="CC9" s="19"/>
+      <c r="CD9" s="19">
         <v>2020</v>
       </c>
-      <c r="CE9" s="17"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17">
+      <c r="CE9" s="19"/>
+      <c r="CF9" s="19"/>
+      <c r="CG9" s="19"/>
+      <c r="CH9" s="19">
         <v>2021</v>
       </c>
-      <c r="CI9" s="17"/>
-      <c r="CJ9" s="17"/>
-      <c r="CK9" s="17"/>
-      <c r="CL9" s="17">
+      <c r="CI9" s="19"/>
+      <c r="CJ9" s="19"/>
+      <c r="CK9" s="19"/>
+      <c r="CL9" s="19">
         <v>2022</v>
       </c>
-      <c r="CM9" s="17"/>
-      <c r="CN9" s="17"/>
-      <c r="CO9" s="17"/>
+      <c r="CM9" s="19"/>
+      <c r="CN9" s="19"/>
+      <c r="CO9" s="19"/>
+      <c r="CP9" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24061,6 +24071,9 @@
       </c>
       <c r="CO10" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP10" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24346,7 +24359,9 @@
       <c r="CO12" s="8">
         <v>134659.95329141535</v>
       </c>
-      <c r="CP12" s="9"/>
+      <c r="CP12" s="8">
+        <v>182904.72428720593</v>
+      </c>
       <c r="CQ12" s="9"/>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
@@ -24686,7 +24701,9 @@
       <c r="CO13" s="8">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="9"/>
+      <c r="CP13" s="8">
+        <v>4148.4410851851435</v>
+      </c>
       <c r="CQ13" s="9"/>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
@@ -25026,7 +25043,9 @@
       <c r="CO14" s="8">
         <v>27896.844107694811</v>
       </c>
-      <c r="CP14" s="9"/>
+      <c r="CP14" s="8">
+        <v>28821.057181792537</v>
+      </c>
       <c r="CQ14" s="9"/>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
@@ -25366,7 +25385,9 @@
       <c r="CO15" s="8">
         <v>2670.2517150843864</v>
       </c>
-      <c r="CP15" s="9"/>
+      <c r="CP15" s="8">
+        <v>2337.5244808479179</v>
+      </c>
       <c r="CQ15" s="9"/>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
@@ -25519,7 +25540,7 @@
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
-      <c r="CP16" s="9"/>
+      <c r="CP16" s="10"/>
       <c r="CQ16" s="9"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
@@ -25859,7 +25880,9 @@
       <c r="CO17" s="12">
         <v>168743.22393107318</v>
       </c>
-      <c r="CP17" s="9"/>
+      <c r="CP17" s="12">
+        <v>218211.74703503153</v>
+      </c>
       <c r="CQ17" s="9"/>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
@@ -26013,6 +26036,7 @@
       <c r="CM18" s="13"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="13"/>
+      <c r="CP18" s="13"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26337,7 +26361,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26347,7 +26371,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26357,144 +26381,147 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="17">
+      <c r="B30" s="19">
         <v>2000</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="17">
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="19">
         <v>2001</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="17">
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="19">
         <v>2002</v>
       </c>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="17">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="19">
         <v>2003</v>
       </c>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="17">
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
+      <c r="R30" s="19">
         <v>2004</v>
       </c>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="17">
+      <c r="S30" s="20"/>
+      <c r="T30" s="20"/>
+      <c r="U30" s="20"/>
+      <c r="V30" s="19">
         <v>2005</v>
       </c>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="17">
+      <c r="W30" s="20"/>
+      <c r="X30" s="20"/>
+      <c r="Y30" s="20"/>
+      <c r="Z30" s="19">
         <v>2006</v>
       </c>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="17">
+      <c r="AA30" s="20"/>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="19">
         <v>2007</v>
       </c>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="17">
+      <c r="AE30" s="20"/>
+      <c r="AF30" s="20"/>
+      <c r="AG30" s="20"/>
+      <c r="AH30" s="19">
         <v>2008</v>
       </c>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="17">
+      <c r="AI30" s="20"/>
+      <c r="AJ30" s="20"/>
+      <c r="AK30" s="20"/>
+      <c r="AL30" s="19">
         <v>2009</v>
       </c>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="18"/>
-      <c r="AP30" s="17">
+      <c r="AM30" s="20"/>
+      <c r="AN30" s="20"/>
+      <c r="AO30" s="20"/>
+      <c r="AP30" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="18"/>
-      <c r="AR30" s="18"/>
-      <c r="AS30" s="18"/>
-      <c r="AT30" s="17">
+      <c r="AQ30" s="20"/>
+      <c r="AR30" s="20"/>
+      <c r="AS30" s="20"/>
+      <c r="AT30" s="19">
         <v>2011</v>
       </c>
-      <c r="AU30" s="18"/>
-      <c r="AV30" s="18"/>
-      <c r="AW30" s="18"/>
-      <c r="AX30" s="17">
+      <c r="AU30" s="20"/>
+      <c r="AV30" s="20"/>
+      <c r="AW30" s="20"/>
+      <c r="AX30" s="19">
         <v>2012</v>
       </c>
-      <c r="AY30" s="18"/>
-      <c r="AZ30" s="18"/>
-      <c r="BA30" s="18"/>
-      <c r="BB30" s="17">
+      <c r="AY30" s="20"/>
+      <c r="AZ30" s="20"/>
+      <c r="BA30" s="20"/>
+      <c r="BB30" s="19">
         <v>2013</v>
       </c>
-      <c r="BC30" s="18"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="18"/>
-      <c r="BF30" s="17">
+      <c r="BC30" s="20"/>
+      <c r="BD30" s="20"/>
+      <c r="BE30" s="20"/>
+      <c r="BF30" s="19">
         <v>2014</v>
       </c>
-      <c r="BG30" s="18"/>
-      <c r="BH30" s="18"/>
-      <c r="BI30" s="18"/>
-      <c r="BJ30" s="17">
+      <c r="BG30" s="20"/>
+      <c r="BH30" s="20"/>
+      <c r="BI30" s="20"/>
+      <c r="BJ30" s="19">
         <v>2015</v>
       </c>
-      <c r="BK30" s="18"/>
-      <c r="BL30" s="18"/>
-      <c r="BM30" s="18"/>
-      <c r="BN30" s="17">
+      <c r="BK30" s="20"/>
+      <c r="BL30" s="20"/>
+      <c r="BM30" s="20"/>
+      <c r="BN30" s="19">
         <v>2016</v>
       </c>
-      <c r="BO30" s="18"/>
-      <c r="BP30" s="18"/>
-      <c r="BQ30" s="18"/>
-      <c r="BR30" s="17">
+      <c r="BO30" s="20"/>
+      <c r="BP30" s="20"/>
+      <c r="BQ30" s="20"/>
+      <c r="BR30" s="19">
         <v>2017</v>
       </c>
-      <c r="BS30" s="18"/>
-      <c r="BT30" s="18"/>
-      <c r="BU30" s="18"/>
-      <c r="BV30" s="17">
+      <c r="BS30" s="20"/>
+      <c r="BT30" s="20"/>
+      <c r="BU30" s="20"/>
+      <c r="BV30" s="19">
         <v>2018</v>
       </c>
-      <c r="BW30" s="18"/>
-      <c r="BX30" s="18"/>
-      <c r="BY30" s="18"/>
-      <c r="BZ30" s="17">
+      <c r="BW30" s="20"/>
+      <c r="BX30" s="20"/>
+      <c r="BY30" s="20"/>
+      <c r="BZ30" s="19">
         <v>2019</v>
       </c>
-      <c r="CA30" s="18"/>
-      <c r="CB30" s="18"/>
-      <c r="CC30" s="18"/>
-      <c r="CD30" s="17">
+      <c r="CA30" s="20"/>
+      <c r="CB30" s="20"/>
+      <c r="CC30" s="20"/>
+      <c r="CD30" s="19">
         <v>2020</v>
       </c>
-      <c r="CE30" s="18"/>
-      <c r="CF30" s="18"/>
-      <c r="CG30" s="18"/>
-      <c r="CH30" s="17">
+      <c r="CE30" s="19"/>
+      <c r="CF30" s="19"/>
+      <c r="CG30" s="19"/>
+      <c r="CH30" s="19">
         <v>2021</v>
       </c>
-      <c r="CI30" s="18"/>
-      <c r="CJ30" s="18"/>
-      <c r="CK30" s="18"/>
-      <c r="CL30" s="17">
+      <c r="CI30" s="19"/>
+      <c r="CJ30" s="19"/>
+      <c r="CK30" s="19"/>
+      <c r="CL30" s="19">
         <v>2022</v>
       </c>
-      <c r="CM30" s="18"/>
-      <c r="CN30" s="18"/>
-      <c r="CO30" s="18"/>
+      <c r="CM30" s="19"/>
+      <c r="CN30" s="19"/>
+      <c r="CO30" s="19"/>
+      <c r="CP30" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26775,6 +26802,9 @@
       </c>
       <c r="CO31" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP31" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27060,7 +27090,9 @@
       <c r="CO33" s="8">
         <v>125236.38787257974</v>
       </c>
-      <c r="CP33" s="9"/>
+      <c r="CP33" s="8">
+        <v>123867.27147280624</v>
+      </c>
       <c r="CQ33" s="9"/>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
@@ -27400,7 +27432,9 @@
       <c r="CO34" s="8">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="9"/>
+      <c r="CP34" s="8">
+        <v>3601.426196637979</v>
+      </c>
       <c r="CQ34" s="9"/>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
@@ -27740,7 +27774,9 @@
       <c r="CO35" s="8">
         <v>27572.885603816438</v>
       </c>
-      <c r="CP35" s="9"/>
+      <c r="CP35" s="8">
+        <v>25434.749252051017</v>
+      </c>
       <c r="CQ35" s="9"/>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
@@ -28080,7 +28116,9 @@
       <c r="CO36" s="8">
         <v>2394.8188892460926</v>
       </c>
-      <c r="CP36" s="9"/>
+      <c r="CP36" s="8">
+        <v>2035.2596655587577</v>
+      </c>
       <c r="CQ36" s="9"/>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
@@ -28233,7 +28271,7 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="9"/>
+      <c r="CP37" s="10"/>
       <c r="CQ37" s="9"/>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
@@ -28573,7 +28611,9 @@
       <c r="CO38" s="12">
         <v>158327.0348940494</v>
       </c>
-      <c r="CP38" s="9"/>
+      <c r="CP38" s="12">
+        <v>154938.70658705401</v>
+      </c>
       <c r="CQ38" s="9"/>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
@@ -28727,6 +28767,7 @@
       <c r="CM39" s="13"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="13"/>
+      <c r="CP39" s="13"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29051,7 +29092,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29061,7 +29102,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29071,142 +29112,145 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" t="s">
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17" t="s">
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17" t="s">
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17" t="s">
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17" t="s">
+      <c r="S51" s="19"/>
+      <c r="T51" s="19"/>
+      <c r="U51" s="19"/>
+      <c r="V51" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="17"/>
-      <c r="X51" s="17"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17" t="s">
+      <c r="W51" s="19"/>
+      <c r="X51" s="19"/>
+      <c r="Y51" s="19"/>
+      <c r="Z51" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17" t="s">
+      <c r="AA51" s="19"/>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="17" t="s">
+      <c r="AE51" s="19"/>
+      <c r="AF51" s="19"/>
+      <c r="AG51" s="19"/>
+      <c r="AH51" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="17"/>
-      <c r="AJ51" s="17"/>
-      <c r="AK51" s="17"/>
-      <c r="AL51" s="17" t="s">
+      <c r="AI51" s="19"/>
+      <c r="AJ51" s="19"/>
+      <c r="AK51" s="19"/>
+      <c r="AL51" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="17"/>
-      <c r="AN51" s="17"/>
-      <c r="AO51" s="17"/>
-      <c r="AP51" s="17" t="s">
+      <c r="AM51" s="19"/>
+      <c r="AN51" s="19"/>
+      <c r="AO51" s="19"/>
+      <c r="AP51" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="17"/>
-      <c r="AR51" s="17"/>
-      <c r="AS51" s="17"/>
-      <c r="AT51" s="17" t="s">
+      <c r="AQ51" s="19"/>
+      <c r="AR51" s="19"/>
+      <c r="AS51" s="19"/>
+      <c r="AT51" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="17"/>
-      <c r="AV51" s="17"/>
-      <c r="AW51" s="17"/>
-      <c r="AX51" s="17" t="s">
+      <c r="AU51" s="19"/>
+      <c r="AV51" s="19"/>
+      <c r="AW51" s="19"/>
+      <c r="AX51" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="17" t="s">
+      <c r="AY51" s="19"/>
+      <c r="AZ51" s="19"/>
+      <c r="BA51" s="19"/>
+      <c r="BB51" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="17"/>
-      <c r="BE51" s="17"/>
-      <c r="BF51" s="17" t="s">
+      <c r="BC51" s="19"/>
+      <c r="BD51" s="19"/>
+      <c r="BE51" s="19"/>
+      <c r="BF51" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="17"/>
-      <c r="BH51" s="17"/>
-      <c r="BI51" s="17"/>
-      <c r="BJ51" s="17" t="s">
+      <c r="BG51" s="19"/>
+      <c r="BH51" s="19"/>
+      <c r="BI51" s="19"/>
+      <c r="BJ51" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="17"/>
-      <c r="BL51" s="17"/>
-      <c r="BM51" s="17"/>
-      <c r="BN51" s="17" t="s">
+      <c r="BK51" s="19"/>
+      <c r="BL51" s="19"/>
+      <c r="BM51" s="19"/>
+      <c r="BN51" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="17"/>
-      <c r="BP51" s="17"/>
-      <c r="BQ51" s="17"/>
-      <c r="BR51" s="17" t="s">
+      <c r="BO51" s="19"/>
+      <c r="BP51" s="19"/>
+      <c r="BQ51" s="19"/>
+      <c r="BR51" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="17"/>
-      <c r="BT51" s="17"/>
-      <c r="BU51" s="17"/>
-      <c r="BV51" s="17" t="s">
+      <c r="BS51" s="19"/>
+      <c r="BT51" s="19"/>
+      <c r="BU51" s="19"/>
+      <c r="BV51" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="17"/>
-      <c r="BX51" s="17"/>
-      <c r="BY51" s="17"/>
-      <c r="BZ51" s="17" t="s">
+      <c r="BW51" s="19"/>
+      <c r="BX51" s="19"/>
+      <c r="BY51" s="19"/>
+      <c r="BZ51" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="17"/>
-      <c r="CB51" s="17"/>
-      <c r="CC51" s="17"/>
-      <c r="CD51" s="17" t="s">
+      <c r="CA51" s="19"/>
+      <c r="CB51" s="19"/>
+      <c r="CC51" s="19"/>
+      <c r="CD51" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="17"/>
-      <c r="CF51" s="17"/>
-      <c r="CG51" s="17"/>
-      <c r="CH51" s="17" t="s">
+      <c r="CE51" s="19"/>
+      <c r="CF51" s="19"/>
+      <c r="CG51" s="19"/>
+      <c r="CH51" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="17"/>
-      <c r="CJ51" s="17"/>
-      <c r="CK51" s="17"/>
-      <c r="CL51" s="17"/>
+      <c r="CI51" s="19"/>
+      <c r="CJ51" s="19"/>
+      <c r="CK51" s="19"/>
+      <c r="CL51" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="CM51" s="17"/>
       <c r="CN51" s="17"/>
       <c r="CO51" s="17"/>
+      <c r="CP51" s="17"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29476,10 +29520,13 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5"/>
+      <c r="CL52" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM52" s="5"/>
       <c r="CN52" s="5"/>
       <c r="CO52" s="5"/>
+      <c r="CP52" s="5"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29752,11 +29799,13 @@
       <c r="CK54" s="15">
         <v>15.145261361366707</v>
       </c>
-      <c r="CL54" s="15"/>
+      <c r="CL54" s="15">
+        <v>22.099378819626779</v>
+      </c>
       <c r="CM54" s="15"/>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
-      <c r="CP54" s="9"/>
+      <c r="CP54" s="15"/>
       <c r="CQ54" s="9"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
@@ -30080,11 +30129,13 @@
       <c r="CK55" s="15">
         <v>12.284808537876657</v>
       </c>
-      <c r="CL55" s="15"/>
+      <c r="CL55" s="15">
+        <v>26.40749253905193</v>
+      </c>
       <c r="CM55" s="15"/>
       <c r="CN55" s="15"/>
       <c r="CO55" s="15"/>
-      <c r="CP55" s="9"/>
+      <c r="CP55" s="15"/>
       <c r="CQ55" s="9"/>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
@@ -30408,11 +30459,13 @@
       <c r="CK56" s="15">
         <v>6.734539471039497</v>
       </c>
-      <c r="CL56" s="15"/>
+      <c r="CL56" s="15">
+        <v>12.113842858006336</v>
+      </c>
       <c r="CM56" s="15"/>
       <c r="CN56" s="15"/>
       <c r="CO56" s="15"/>
-      <c r="CP56" s="9"/>
+      <c r="CP56" s="15"/>
       <c r="CQ56" s="9"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
@@ -30736,11 +30789,13 @@
       <c r="CK57" s="15">
         <v>11.423312856875299</v>
       </c>
-      <c r="CL57" s="15"/>
+      <c r="CL57" s="15">
+        <v>11.737698963396468</v>
+      </c>
       <c r="CM57" s="15"/>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
-      <c r="CP57" s="9"/>
+      <c r="CP57" s="15"/>
       <c r="CQ57" s="9"/>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
@@ -31213,11 +31268,13 @@
       <c r="CK59" s="15">
         <v>13.545764568991657</v>
       </c>
-      <c r="CL59" s="15"/>
+      <c r="CL59" s="15">
+        <v>20.638549252152799</v>
+      </c>
       <c r="CM59" s="15"/>
       <c r="CN59" s="15"/>
       <c r="CO59" s="15"/>
-      <c r="CP59" s="9"/>
+      <c r="CP59" s="15"/>
       <c r="CQ59" s="9"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
@@ -31367,6 +31424,7 @@
       <c r="CM60" s="13"/>
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
+      <c r="CP60" s="13"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31454,19 +31512,19 @@
       <c r="CA62" s="16"/>
       <c r="CB62" s="16"/>
       <c r="CC62" s="16"/>
-      <c r="CD62" s="16"/>
-      <c r="CE62" s="16"/>
-      <c r="CF62" s="16"/>
-      <c r="CG62" s="16"/>
-      <c r="CH62" s="16"/>
-      <c r="CI62" s="16"/>
-      <c r="CJ62" s="16"/>
-      <c r="CK62" s="16"/>
-      <c r="CL62" s="16"/>
-      <c r="CM62" s="16"/>
-      <c r="CN62" s="16"/>
-      <c r="CO62" s="16"/>
-      <c r="CP62" s="9"/>
+      <c r="CD62" s="18"/>
+      <c r="CE62" s="18"/>
+      <c r="CF62" s="18"/>
+      <c r="CG62" s="18"/>
+      <c r="CH62" s="18"/>
+      <c r="CI62" s="18"/>
+      <c r="CJ62" s="18"/>
+      <c r="CK62" s="18"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="18"/>
+      <c r="CO62" s="18"/>
+      <c r="CP62" s="18"/>
       <c r="CQ62" s="9"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
@@ -31683,7 +31741,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31693,7 +31751,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31703,142 +31761,145 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="17" t="s">
+      <c r="B72" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="17" t="s">
+      <c r="C72" s="21"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="17" t="s">
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+      <c r="I72" s="21"/>
+      <c r="J72" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="17" t="s">
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="19"/>
-      <c r="P72" s="19"/>
-      <c r="Q72" s="19"/>
-      <c r="R72" s="17" t="s">
+      <c r="O72" s="21"/>
+      <c r="P72" s="21"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="19"/>
-      <c r="T72" s="19"/>
-      <c r="U72" s="19"/>
-      <c r="V72" s="17" t="s">
+      <c r="S72" s="21"/>
+      <c r="T72" s="21"/>
+      <c r="U72" s="21"/>
+      <c r="V72" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="19"/>
-      <c r="X72" s="19"/>
-      <c r="Y72" s="19"/>
-      <c r="Z72" s="17" t="s">
+      <c r="W72" s="21"/>
+      <c r="X72" s="21"/>
+      <c r="Y72" s="21"/>
+      <c r="Z72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="19"/>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="19"/>
-      <c r="AD72" s="17" t="s">
+      <c r="AA72" s="21"/>
+      <c r="AB72" s="21"/>
+      <c r="AC72" s="21"/>
+      <c r="AD72" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="19"/>
-      <c r="AF72" s="19"/>
-      <c r="AG72" s="19"/>
-      <c r="AH72" s="17" t="s">
+      <c r="AE72" s="21"/>
+      <c r="AF72" s="21"/>
+      <c r="AG72" s="21"/>
+      <c r="AH72" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="19"/>
-      <c r="AJ72" s="19"/>
-      <c r="AK72" s="19"/>
-      <c r="AL72" s="17" t="s">
+      <c r="AI72" s="21"/>
+      <c r="AJ72" s="21"/>
+      <c r="AK72" s="21"/>
+      <c r="AL72" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="19"/>
-      <c r="AN72" s="19"/>
-      <c r="AO72" s="19"/>
-      <c r="AP72" s="17" t="s">
+      <c r="AM72" s="21"/>
+      <c r="AN72" s="21"/>
+      <c r="AO72" s="21"/>
+      <c r="AP72" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="19"/>
-      <c r="AR72" s="19"/>
-      <c r="AS72" s="19"/>
-      <c r="AT72" s="17" t="s">
+      <c r="AQ72" s="21"/>
+      <c r="AR72" s="21"/>
+      <c r="AS72" s="21"/>
+      <c r="AT72" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="19"/>
-      <c r="AV72" s="19"/>
-      <c r="AW72" s="19"/>
-      <c r="AX72" s="17" t="s">
+      <c r="AU72" s="21"/>
+      <c r="AV72" s="21"/>
+      <c r="AW72" s="21"/>
+      <c r="AX72" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="19"/>
-      <c r="AZ72" s="19"/>
-      <c r="BA72" s="19"/>
-      <c r="BB72" s="17" t="s">
+      <c r="AY72" s="21"/>
+      <c r="AZ72" s="21"/>
+      <c r="BA72" s="21"/>
+      <c r="BB72" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="19"/>
-      <c r="BD72" s="19"/>
-      <c r="BE72" s="19"/>
-      <c r="BF72" s="17" t="s">
+      <c r="BC72" s="21"/>
+      <c r="BD72" s="21"/>
+      <c r="BE72" s="21"/>
+      <c r="BF72" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="19"/>
-      <c r="BH72" s="19"/>
-      <c r="BI72" s="19"/>
-      <c r="BJ72" s="17" t="s">
+      <c r="BG72" s="21"/>
+      <c r="BH72" s="21"/>
+      <c r="BI72" s="21"/>
+      <c r="BJ72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="19"/>
-      <c r="BL72" s="19"/>
-      <c r="BM72" s="19"/>
-      <c r="BN72" s="17" t="s">
+      <c r="BK72" s="21"/>
+      <c r="BL72" s="21"/>
+      <c r="BM72" s="21"/>
+      <c r="BN72" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="19"/>
-      <c r="BP72" s="19"/>
-      <c r="BQ72" s="19"/>
-      <c r="BR72" s="17" t="s">
+      <c r="BO72" s="21"/>
+      <c r="BP72" s="21"/>
+      <c r="BQ72" s="21"/>
+      <c r="BR72" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="19"/>
-      <c r="BT72" s="19"/>
-      <c r="BU72" s="19"/>
-      <c r="BV72" s="17" t="s">
+      <c r="BS72" s="21"/>
+      <c r="BT72" s="21"/>
+      <c r="BU72" s="21"/>
+      <c r="BV72" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="19"/>
-      <c r="BX72" s="19"/>
-      <c r="BY72" s="19"/>
-      <c r="BZ72" s="17" t="s">
+      <c r="BW72" s="21"/>
+      <c r="BX72" s="21"/>
+      <c r="BY72" s="21"/>
+      <c r="BZ72" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="19"/>
-      <c r="CB72" s="19"/>
-      <c r="CC72" s="19"/>
-      <c r="CD72" s="17" t="s">
+      <c r="CA72" s="21"/>
+      <c r="CB72" s="21"/>
+      <c r="CC72" s="21"/>
+      <c r="CD72" s="19" t="s">
         <v>48</v>
       </c>
       <c r="CE72" s="19"/>
       <c r="CF72" s="19"/>
       <c r="CG72" s="19"/>
-      <c r="CH72" s="17" t="s">
+      <c r="CH72" s="19" t="s">
         <v>49</v>
       </c>
       <c r="CI72" s="19"/>
       <c r="CJ72" s="19"/>
       <c r="CK72" s="19"/>
-      <c r="CL72" s="17"/>
-      <c r="CM72" s="19"/>
-      <c r="CN72" s="19"/>
-      <c r="CO72" s="19"/>
+      <c r="CL72" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="CM72" s="17"/>
+      <c r="CN72" s="17"/>
+      <c r="CO72" s="17"/>
+      <c r="CP72" s="17"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32108,10 +32169,13 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5"/>
+      <c r="CL73" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="CM73" s="5"/>
       <c r="CN73" s="5"/>
       <c r="CO73" s="5"/>
+      <c r="CP73" s="5"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32384,11 +32448,13 @@
       <c r="CK75" s="15">
         <v>4.3492103429426265</v>
       </c>
-      <c r="CL75" s="15"/>
+      <c r="CL75" s="15">
+        <v>6.8270114234875905</v>
+      </c>
       <c r="CM75" s="15"/>
       <c r="CN75" s="15"/>
       <c r="CO75" s="15"/>
-      <c r="CP75" s="9"/>
+      <c r="CP75" s="15"/>
       <c r="CQ75" s="9"/>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
@@ -32712,11 +32778,13 @@
       <c r="CK76" s="15">
         <v>5.5953830504098505</v>
       </c>
-      <c r="CL76" s="15"/>
+      <c r="CL76" s="15">
+        <v>20.229356544387841</v>
+      </c>
       <c r="CM76" s="15"/>
       <c r="CN76" s="15"/>
       <c r="CO76" s="15"/>
-      <c r="CP76" s="9"/>
+      <c r="CP76" s="15"/>
       <c r="CQ76" s="9"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
@@ -33040,11 +33108,13 @@
       <c r="CK77" s="15">
         <v>11.540998875165414</v>
       </c>
-      <c r="CL77" s="15"/>
+      <c r="CL77" s="15">
+        <v>4.8387846887730319</v>
+      </c>
       <c r="CM77" s="15"/>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
-      <c r="CP77" s="9"/>
+      <c r="CP77" s="15"/>
       <c r="CQ77" s="9"/>
       <c r="CR77" s="9"/>
       <c r="CS77" s="9"/>
@@ -33368,11 +33438,13 @@
       <c r="CK78" s="15">
         <v>10.791525685391562</v>
       </c>
-      <c r="CL78" s="15"/>
+      <c r="CL78" s="15">
+        <v>7.9951266686056215</v>
+      </c>
       <c r="CM78" s="15"/>
       <c r="CN78" s="15"/>
       <c r="CO78" s="15"/>
-      <c r="CP78" s="9"/>
+      <c r="CP78" s="15"/>
       <c r="CQ78" s="9"/>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
@@ -33845,11 +33917,13 @@
       <c r="CK80" s="15">
         <v>5.6530764414741697</v>
       </c>
-      <c r="CL80" s="15"/>
+      <c r="CL80" s="15">
+        <v>6.7864277814615264</v>
+      </c>
       <c r="CM80" s="15"/>
       <c r="CN80" s="15"/>
       <c r="CO80" s="15"/>
-      <c r="CP80" s="9"/>
+      <c r="CP80" s="15"/>
       <c r="CQ80" s="9"/>
       <c r="CR80" s="9"/>
       <c r="CS80" s="9"/>
@@ -33999,6 +34073,7 @@
       <c r="CM81" s="13"/>
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
+      <c r="CP81" s="13"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34235,18 +34310,18 @@
       <c r="CA84" s="16"/>
       <c r="CB84" s="16"/>
       <c r="CC84" s="16"/>
-      <c r="CD84" s="16"/>
-      <c r="CE84" s="16"/>
-      <c r="CF84" s="16"/>
-      <c r="CG84" s="16"/>
-      <c r="CH84" s="16"/>
-      <c r="CI84" s="16"/>
-      <c r="CJ84" s="16"/>
-      <c r="CK84" s="16"/>
-      <c r="CL84" s="16"/>
-      <c r="CM84" s="16"/>
-      <c r="CN84" s="16"/>
-      <c r="CO84" s="16"/>
+      <c r="CD84" s="9"/>
+      <c r="CE84" s="9"/>
+      <c r="CF84" s="9"/>
+      <c r="CG84" s="9"/>
+      <c r="CH84" s="9"/>
+      <c r="CI84" s="9"/>
+      <c r="CJ84" s="9"/>
+      <c r="CK84" s="9"/>
+      <c r="CL84" s="9"/>
+      <c r="CM84" s="9"/>
+      <c r="CN84" s="9"/>
+      <c r="CO84" s="9"/>
       <c r="CP84" s="9"/>
       <c r="CQ84" s="9"/>
       <c r="CR84" s="9"/>
@@ -34310,7 +34385,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34320,7 +34395,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34330,144 +34405,147 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="17">
+      <c r="B92" s="19">
         <v>2000</v>
       </c>
-      <c r="C92" s="18"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="17">
+      <c r="C92" s="20"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="19">
         <v>2001</v>
       </c>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="17">
+      <c r="G92" s="20"/>
+      <c r="H92" s="20"/>
+      <c r="I92" s="20"/>
+      <c r="J92" s="19">
         <v>2002</v>
       </c>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="17">
+      <c r="K92" s="20"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="19">
         <v>2003</v>
       </c>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="17">
+      <c r="O92" s="20"/>
+      <c r="P92" s="20"/>
+      <c r="Q92" s="20"/>
+      <c r="R92" s="19">
         <v>2004</v>
       </c>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="17">
+      <c r="S92" s="20"/>
+      <c r="T92" s="20"/>
+      <c r="U92" s="20"/>
+      <c r="V92" s="19">
         <v>2005</v>
       </c>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="17">
+      <c r="W92" s="20"/>
+      <c r="X92" s="20"/>
+      <c r="Y92" s="20"/>
+      <c r="Z92" s="19">
         <v>2006</v>
       </c>
-      <c r="AA92" s="18"/>
-      <c r="AB92" s="18"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="17">
+      <c r="AA92" s="20"/>
+      <c r="AB92" s="20"/>
+      <c r="AC92" s="20"/>
+      <c r="AD92" s="19">
         <v>2007</v>
       </c>
-      <c r="AE92" s="18"/>
-      <c r="AF92" s="18"/>
-      <c r="AG92" s="18"/>
-      <c r="AH92" s="17">
+      <c r="AE92" s="20"/>
+      <c r="AF92" s="20"/>
+      <c r="AG92" s="20"/>
+      <c r="AH92" s="19">
         <v>2008</v>
       </c>
-      <c r="AI92" s="18"/>
-      <c r="AJ92" s="18"/>
-      <c r="AK92" s="18"/>
-      <c r="AL92" s="17">
+      <c r="AI92" s="20"/>
+      <c r="AJ92" s="20"/>
+      <c r="AK92" s="20"/>
+      <c r="AL92" s="19">
         <v>2009</v>
       </c>
-      <c r="AM92" s="18"/>
-      <c r="AN92" s="18"/>
-      <c r="AO92" s="18"/>
-      <c r="AP92" s="17">
+      <c r="AM92" s="20"/>
+      <c r="AN92" s="20"/>
+      <c r="AO92" s="20"/>
+      <c r="AP92" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="18"/>
-      <c r="AR92" s="18"/>
-      <c r="AS92" s="18"/>
-      <c r="AT92" s="17">
+      <c r="AQ92" s="20"/>
+      <c r="AR92" s="20"/>
+      <c r="AS92" s="20"/>
+      <c r="AT92" s="19">
         <v>2011</v>
       </c>
-      <c r="AU92" s="18"/>
-      <c r="AV92" s="18"/>
-      <c r="AW92" s="18"/>
-      <c r="AX92" s="17">
+      <c r="AU92" s="20"/>
+      <c r="AV92" s="20"/>
+      <c r="AW92" s="20"/>
+      <c r="AX92" s="19">
         <v>2012</v>
       </c>
-      <c r="AY92" s="18"/>
-      <c r="AZ92" s="18"/>
-      <c r="BA92" s="18"/>
-      <c r="BB92" s="17">
+      <c r="AY92" s="20"/>
+      <c r="AZ92" s="20"/>
+      <c r="BA92" s="20"/>
+      <c r="BB92" s="19">
         <v>2013</v>
       </c>
-      <c r="BC92" s="18"/>
-      <c r="BD92" s="18"/>
-      <c r="BE92" s="18"/>
-      <c r="BF92" s="17">
+      <c r="BC92" s="20"/>
+      <c r="BD92" s="20"/>
+      <c r="BE92" s="20"/>
+      <c r="BF92" s="19">
         <v>2014</v>
       </c>
-      <c r="BG92" s="18"/>
-      <c r="BH92" s="18"/>
-      <c r="BI92" s="18"/>
-      <c r="BJ92" s="17">
+      <c r="BG92" s="20"/>
+      <c r="BH92" s="20"/>
+      <c r="BI92" s="20"/>
+      <c r="BJ92" s="19">
         <v>2015</v>
       </c>
-      <c r="BK92" s="18"/>
-      <c r="BL92" s="18"/>
-      <c r="BM92" s="18"/>
-      <c r="BN92" s="17">
+      <c r="BK92" s="20"/>
+      <c r="BL92" s="20"/>
+      <c r="BM92" s="20"/>
+      <c r="BN92" s="19">
         <v>2016</v>
       </c>
-      <c r="BO92" s="18"/>
-      <c r="BP92" s="18"/>
-      <c r="BQ92" s="18"/>
-      <c r="BR92" s="17">
+      <c r="BO92" s="20"/>
+      <c r="BP92" s="20"/>
+      <c r="BQ92" s="20"/>
+      <c r="BR92" s="19">
         <v>2017</v>
       </c>
-      <c r="BS92" s="18"/>
-      <c r="BT92" s="18"/>
-      <c r="BU92" s="18"/>
-      <c r="BV92" s="17">
+      <c r="BS92" s="20"/>
+      <c r="BT92" s="20"/>
+      <c r="BU92" s="20"/>
+      <c r="BV92" s="19">
         <v>2018</v>
       </c>
-      <c r="BW92" s="18"/>
-      <c r="BX92" s="18"/>
-      <c r="BY92" s="18"/>
-      <c r="BZ92" s="17">
+      <c r="BW92" s="20"/>
+      <c r="BX92" s="20"/>
+      <c r="BY92" s="20"/>
+      <c r="BZ92" s="19">
         <v>2019</v>
       </c>
-      <c r="CA92" s="18"/>
-      <c r="CB92" s="18"/>
-      <c r="CC92" s="18"/>
-      <c r="CD92" s="17">
+      <c r="CA92" s="20"/>
+      <c r="CB92" s="20"/>
+      <c r="CC92" s="20"/>
+      <c r="CD92" s="19">
         <v>2020</v>
       </c>
-      <c r="CE92" s="18"/>
-      <c r="CF92" s="18"/>
-      <c r="CG92" s="18"/>
-      <c r="CH92" s="17">
+      <c r="CE92" s="19"/>
+      <c r="CF92" s="19"/>
+      <c r="CG92" s="19"/>
+      <c r="CH92" s="19">
         <v>2021</v>
       </c>
-      <c r="CI92" s="18"/>
-      <c r="CJ92" s="18"/>
-      <c r="CK92" s="18"/>
-      <c r="CL92" s="17">
+      <c r="CI92" s="19"/>
+      <c r="CJ92" s="19"/>
+      <c r="CK92" s="19"/>
+      <c r="CL92" s="19">
         <v>2022</v>
       </c>
-      <c r="CM92" s="18"/>
-      <c r="CN92" s="18"/>
-      <c r="CO92" s="18"/>
+      <c r="CM92" s="19"/>
+      <c r="CN92" s="19"/>
+      <c r="CO92" s="19"/>
+      <c r="CP92" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34748,6 +34826,9 @@
       </c>
       <c r="CO93" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP93" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35033,7 +35114,9 @@
       <c r="CO95" s="15">
         <v>107.52462249903239</v>
       </c>
-      <c r="CP95" s="9"/>
+      <c r="CP95" s="15">
+        <v>147.66186589276793</v>
+      </c>
       <c r="CQ95" s="9"/>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
@@ -35373,7 +35456,9 @@
       <c r="CO96" s="15">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="9"/>
+      <c r="CP96" s="15">
+        <v>115.18884071698641</v>
+      </c>
       <c r="CQ96" s="9"/>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
@@ -35713,7 +35798,9 @@
       <c r="CO97" s="15">
         <v>101.17491694026226</v>
       </c>
-      <c r="CP97" s="9"/>
+      <c r="CP97" s="15">
+        <v>113.31370675678454</v>
+      </c>
       <c r="CQ97" s="9"/>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
@@ -36053,7 +36140,9 @@
       <c r="CO98" s="15">
         <v>111.50119648191861</v>
       </c>
-      <c r="CP98" s="9"/>
+      <c r="CP98" s="15">
+        <v>114.85141283955906</v>
+      </c>
       <c r="CQ98" s="9"/>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
@@ -36206,7 +36295,7 @@
       <c r="CM99" s="15"/>
       <c r="CN99" s="15"/>
       <c r="CO99" s="15"/>
-      <c r="CP99" s="9"/>
+      <c r="CP99" s="15"/>
       <c r="CQ99" s="9"/>
       <c r="CR99" s="9"/>
       <c r="CS99" s="9"/>
@@ -36546,7 +36635,9 @@
       <c r="CO100" s="15">
         <v>106.57890741400809</v>
       </c>
-      <c r="CP100" s="9"/>
+      <c r="CP100" s="15">
+        <v>140.83746524140943</v>
+      </c>
       <c r="CQ100" s="9"/>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
@@ -36700,6 +36791,7 @@
       <c r="CM101" s="13"/>
       <c r="CN101" s="13"/>
       <c r="CO101" s="13"/>
+      <c r="CP101" s="13"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -36718,7 +36810,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -36728,7 +36820,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -36738,144 +36830,147 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="17">
+      <c r="B113" s="19">
         <v>2000</v>
       </c>
-      <c r="C113" s="18"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="17">
+      <c r="C113" s="20"/>
+      <c r="D113" s="20"/>
+      <c r="E113" s="20"/>
+      <c r="F113" s="19">
         <v>2001</v>
       </c>
-      <c r="G113" s="18"/>
-      <c r="H113" s="18"/>
-      <c r="I113" s="18"/>
-      <c r="J113" s="17">
+      <c r="G113" s="20"/>
+      <c r="H113" s="20"/>
+      <c r="I113" s="20"/>
+      <c r="J113" s="19">
         <v>2002</v>
       </c>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-      <c r="N113" s="17">
+      <c r="K113" s="20"/>
+      <c r="L113" s="20"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="19">
         <v>2003</v>
       </c>
-      <c r="O113" s="18"/>
-      <c r="P113" s="18"/>
-      <c r="Q113" s="18"/>
-      <c r="R113" s="17">
+      <c r="O113" s="20"/>
+      <c r="P113" s="20"/>
+      <c r="Q113" s="20"/>
+      <c r="R113" s="19">
         <v>2004</v>
       </c>
-      <c r="S113" s="18"/>
-      <c r="T113" s="18"/>
-      <c r="U113" s="18"/>
-      <c r="V113" s="17">
+      <c r="S113" s="20"/>
+      <c r="T113" s="20"/>
+      <c r="U113" s="20"/>
+      <c r="V113" s="19">
         <v>2005</v>
       </c>
-      <c r="W113" s="18"/>
-      <c r="X113" s="18"/>
-      <c r="Y113" s="18"/>
-      <c r="Z113" s="17">
+      <c r="W113" s="20"/>
+      <c r="X113" s="20"/>
+      <c r="Y113" s="20"/>
+      <c r="Z113" s="19">
         <v>2006</v>
       </c>
-      <c r="AA113" s="18"/>
-      <c r="AB113" s="18"/>
-      <c r="AC113" s="18"/>
-      <c r="AD113" s="17">
+      <c r="AA113" s="20"/>
+      <c r="AB113" s="20"/>
+      <c r="AC113" s="20"/>
+      <c r="AD113" s="19">
         <v>2007</v>
       </c>
-      <c r="AE113" s="18"/>
-      <c r="AF113" s="18"/>
-      <c r="AG113" s="18"/>
-      <c r="AH113" s="17">
+      <c r="AE113" s="20"/>
+      <c r="AF113" s="20"/>
+      <c r="AG113" s="20"/>
+      <c r="AH113" s="19">
         <v>2008</v>
       </c>
-      <c r="AI113" s="18"/>
-      <c r="AJ113" s="18"/>
-      <c r="AK113" s="18"/>
-      <c r="AL113" s="17">
+      <c r="AI113" s="20"/>
+      <c r="AJ113" s="20"/>
+      <c r="AK113" s="20"/>
+      <c r="AL113" s="19">
         <v>2009</v>
       </c>
-      <c r="AM113" s="18"/>
-      <c r="AN113" s="18"/>
-      <c r="AO113" s="18"/>
-      <c r="AP113" s="17">
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="20"/>
+      <c r="AO113" s="20"/>
+      <c r="AP113" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="18"/>
-      <c r="AR113" s="18"/>
-      <c r="AS113" s="18"/>
-      <c r="AT113" s="17">
+      <c r="AQ113" s="20"/>
+      <c r="AR113" s="20"/>
+      <c r="AS113" s="20"/>
+      <c r="AT113" s="19">
         <v>2011</v>
       </c>
-      <c r="AU113" s="18"/>
-      <c r="AV113" s="18"/>
-      <c r="AW113" s="18"/>
-      <c r="AX113" s="17">
+      <c r="AU113" s="20"/>
+      <c r="AV113" s="20"/>
+      <c r="AW113" s="20"/>
+      <c r="AX113" s="19">
         <v>2012</v>
       </c>
-      <c r="AY113" s="18"/>
-      <c r="AZ113" s="18"/>
-      <c r="BA113" s="18"/>
-      <c r="BB113" s="17">
+      <c r="AY113" s="20"/>
+      <c r="AZ113" s="20"/>
+      <c r="BA113" s="20"/>
+      <c r="BB113" s="19">
         <v>2013</v>
       </c>
-      <c r="BC113" s="18"/>
-      <c r="BD113" s="18"/>
-      <c r="BE113" s="18"/>
-      <c r="BF113" s="17">
+      <c r="BC113" s="20"/>
+      <c r="BD113" s="20"/>
+      <c r="BE113" s="20"/>
+      <c r="BF113" s="19">
         <v>2014</v>
       </c>
-      <c r="BG113" s="18"/>
-      <c r="BH113" s="18"/>
-      <c r="BI113" s="18"/>
-      <c r="BJ113" s="17">
+      <c r="BG113" s="20"/>
+      <c r="BH113" s="20"/>
+      <c r="BI113" s="20"/>
+      <c r="BJ113" s="19">
         <v>2015</v>
       </c>
-      <c r="BK113" s="18"/>
-      <c r="BL113" s="18"/>
-      <c r="BM113" s="18"/>
-      <c r="BN113" s="17">
+      <c r="BK113" s="20"/>
+      <c r="BL113" s="20"/>
+      <c r="BM113" s="20"/>
+      <c r="BN113" s="19">
         <v>2016</v>
       </c>
-      <c r="BO113" s="18"/>
-      <c r="BP113" s="18"/>
-      <c r="BQ113" s="18"/>
-      <c r="BR113" s="17">
+      <c r="BO113" s="20"/>
+      <c r="BP113" s="20"/>
+      <c r="BQ113" s="20"/>
+      <c r="BR113" s="19">
         <v>2017</v>
       </c>
-      <c r="BS113" s="18"/>
-      <c r="BT113" s="18"/>
-      <c r="BU113" s="18"/>
-      <c r="BV113" s="17">
+      <c r="BS113" s="20"/>
+      <c r="BT113" s="20"/>
+      <c r="BU113" s="20"/>
+      <c r="BV113" s="19">
         <v>2018</v>
       </c>
-      <c r="BW113" s="18"/>
-      <c r="BX113" s="18"/>
-      <c r="BY113" s="18"/>
-      <c r="BZ113" s="17">
+      <c r="BW113" s="20"/>
+      <c r="BX113" s="20"/>
+      <c r="BY113" s="20"/>
+      <c r="BZ113" s="19">
         <v>2019</v>
       </c>
-      <c r="CA113" s="18"/>
-      <c r="CB113" s="18"/>
-      <c r="CC113" s="18"/>
-      <c r="CD113" s="17">
+      <c r="CA113" s="20"/>
+      <c r="CB113" s="20"/>
+      <c r="CC113" s="20"/>
+      <c r="CD113" s="19">
         <v>2020</v>
       </c>
-      <c r="CE113" s="18"/>
-      <c r="CF113" s="18"/>
-      <c r="CG113" s="18"/>
-      <c r="CH113" s="17">
+      <c r="CE113" s="19"/>
+      <c r="CF113" s="19"/>
+      <c r="CG113" s="19"/>
+      <c r="CH113" s="19">
         <v>2021</v>
       </c>
-      <c r="CI113" s="18"/>
-      <c r="CJ113" s="18"/>
-      <c r="CK113" s="18"/>
-      <c r="CL113" s="17">
+      <c r="CI113" s="19"/>
+      <c r="CJ113" s="19"/>
+      <c r="CK113" s="19"/>
+      <c r="CL113" s="19">
         <v>2022</v>
       </c>
-      <c r="CM113" s="18"/>
-      <c r="CN113" s="18"/>
-      <c r="CO113" s="18"/>
+      <c r="CM113" s="19"/>
+      <c r="CN113" s="19"/>
+      <c r="CO113" s="19"/>
+      <c r="CP113" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37156,6 +37251,9 @@
       </c>
       <c r="CO114" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP114" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37441,7 +37539,9 @@
       <c r="CO116" s="15">
         <v>79.801695235134375</v>
       </c>
-      <c r="CP116" s="9"/>
+      <c r="CP116" s="15">
+        <v>83.819834070547344</v>
+      </c>
       <c r="CQ116" s="9"/>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
@@ -37781,7 +37881,9 @@
       <c r="CO117" s="15">
         <v>2.0837428223576442</v>
       </c>
-      <c r="CP117" s="9"/>
+      <c r="CP117" s="15">
+        <v>1.9011080482844749</v>
+      </c>
       <c r="CQ117" s="9"/>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
@@ -38121,7 +38223,9 @@
       <c r="CO118" s="15">
         <v>16.532127013935611</v>
       </c>
-      <c r="CP118" s="9"/>
+      <c r="CP118" s="15">
+        <v>13.207839437335897</v>
+      </c>
       <c r="CQ118" s="9"/>
       <c r="CR118" s="9"/>
       <c r="CS118" s="9"/>
@@ -38461,7 +38565,9 @@
       <c r="CO119" s="15">
         <v>1.5824349285723665</v>
       </c>
-      <c r="CP119" s="9"/>
+      <c r="CP119" s="15">
+        <v>1.07121844383229</v>
+      </c>
       <c r="CQ119" s="9"/>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
@@ -38954,7 +39060,9 @@
       <c r="CO121" s="15">
         <v>100</v>
       </c>
-      <c r="CP121" s="9"/>
+      <c r="CP121" s="15">
+        <v>100</v>
+      </c>
       <c r="CQ121" s="9"/>
       <c r="CR121" s="9"/>
       <c r="CS121" s="9"/>
@@ -39108,6 +39216,7 @@
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
+      <c r="CP122" s="13"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39432,7 +39541,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39442,7 +39551,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39452,144 +39561,147 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="17">
+      <c r="B134" s="19">
         <v>2000</v>
       </c>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="17">
+      <c r="C134" s="20"/>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20"/>
+      <c r="F134" s="19">
         <v>2001</v>
       </c>
-      <c r="G134" s="18"/>
-      <c r="H134" s="18"/>
-      <c r="I134" s="18"/>
-      <c r="J134" s="17">
+      <c r="G134" s="20"/>
+      <c r="H134" s="20"/>
+      <c r="I134" s="20"/>
+      <c r="J134" s="19">
         <v>2002</v>
       </c>
-      <c r="K134" s="18"/>
-      <c r="L134" s="18"/>
-      <c r="M134" s="18"/>
-      <c r="N134" s="17">
+      <c r="K134" s="20"/>
+      <c r="L134" s="20"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="19">
         <v>2003</v>
       </c>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="17">
+      <c r="O134" s="20"/>
+      <c r="P134" s="20"/>
+      <c r="Q134" s="20"/>
+      <c r="R134" s="19">
         <v>2004</v>
       </c>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="17">
+      <c r="S134" s="20"/>
+      <c r="T134" s="20"/>
+      <c r="U134" s="20"/>
+      <c r="V134" s="19">
         <v>2005</v>
       </c>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
-      <c r="Z134" s="17">
+      <c r="W134" s="20"/>
+      <c r="X134" s="20"/>
+      <c r="Y134" s="20"/>
+      <c r="Z134" s="19">
         <v>2006</v>
       </c>
-      <c r="AA134" s="18"/>
-      <c r="AB134" s="18"/>
-      <c r="AC134" s="18"/>
-      <c r="AD134" s="17">
+      <c r="AA134" s="20"/>
+      <c r="AB134" s="20"/>
+      <c r="AC134" s="20"/>
+      <c r="AD134" s="19">
         <v>2007</v>
       </c>
-      <c r="AE134" s="18"/>
-      <c r="AF134" s="18"/>
-      <c r="AG134" s="18"/>
-      <c r="AH134" s="17">
+      <c r="AE134" s="20"/>
+      <c r="AF134" s="20"/>
+      <c r="AG134" s="20"/>
+      <c r="AH134" s="19">
         <v>2008</v>
       </c>
-      <c r="AI134" s="18"/>
-      <c r="AJ134" s="18"/>
-      <c r="AK134" s="18"/>
-      <c r="AL134" s="17">
+      <c r="AI134" s="20"/>
+      <c r="AJ134" s="20"/>
+      <c r="AK134" s="20"/>
+      <c r="AL134" s="19">
         <v>2009</v>
       </c>
-      <c r="AM134" s="18"/>
-      <c r="AN134" s="18"/>
-      <c r="AO134" s="18"/>
-      <c r="AP134" s="17">
+      <c r="AM134" s="20"/>
+      <c r="AN134" s="20"/>
+      <c r="AO134" s="20"/>
+      <c r="AP134" s="19">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="18"/>
-      <c r="AR134" s="18"/>
-      <c r="AS134" s="18"/>
-      <c r="AT134" s="17">
+      <c r="AQ134" s="20"/>
+      <c r="AR134" s="20"/>
+      <c r="AS134" s="20"/>
+      <c r="AT134" s="19">
         <v>2011</v>
       </c>
-      <c r="AU134" s="18"/>
-      <c r="AV134" s="18"/>
-      <c r="AW134" s="18"/>
-      <c r="AX134" s="17">
+      <c r="AU134" s="20"/>
+      <c r="AV134" s="20"/>
+      <c r="AW134" s="20"/>
+      <c r="AX134" s="19">
         <v>2012</v>
       </c>
-      <c r="AY134" s="18"/>
-      <c r="AZ134" s="18"/>
-      <c r="BA134" s="18"/>
-      <c r="BB134" s="17">
+      <c r="AY134" s="20"/>
+      <c r="AZ134" s="20"/>
+      <c r="BA134" s="20"/>
+      <c r="BB134" s="19">
         <v>2013</v>
       </c>
-      <c r="BC134" s="18"/>
-      <c r="BD134" s="18"/>
-      <c r="BE134" s="18"/>
-      <c r="BF134" s="17">
+      <c r="BC134" s="20"/>
+      <c r="BD134" s="20"/>
+      <c r="BE134" s="20"/>
+      <c r="BF134" s="19">
         <v>2014</v>
       </c>
-      <c r="BG134" s="18"/>
-      <c r="BH134" s="18"/>
-      <c r="BI134" s="18"/>
-      <c r="BJ134" s="17">
+      <c r="BG134" s="20"/>
+      <c r="BH134" s="20"/>
+      <c r="BI134" s="20"/>
+      <c r="BJ134" s="19">
         <v>2015</v>
       </c>
-      <c r="BK134" s="18"/>
-      <c r="BL134" s="18"/>
-      <c r="BM134" s="18"/>
-      <c r="BN134" s="17">
+      <c r="BK134" s="20"/>
+      <c r="BL134" s="20"/>
+      <c r="BM134" s="20"/>
+      <c r="BN134" s="19">
         <v>2016</v>
       </c>
-      <c r="BO134" s="18"/>
-      <c r="BP134" s="18"/>
-      <c r="BQ134" s="18"/>
-      <c r="BR134" s="17">
+      <c r="BO134" s="20"/>
+      <c r="BP134" s="20"/>
+      <c r="BQ134" s="20"/>
+      <c r="BR134" s="19">
         <v>2017</v>
       </c>
-      <c r="BS134" s="18"/>
-      <c r="BT134" s="18"/>
-      <c r="BU134" s="18"/>
-      <c r="BV134" s="17">
+      <c r="BS134" s="20"/>
+      <c r="BT134" s="20"/>
+      <c r="BU134" s="20"/>
+      <c r="BV134" s="19">
         <v>2018</v>
       </c>
-      <c r="BW134" s="18"/>
-      <c r="BX134" s="18"/>
-      <c r="BY134" s="18"/>
-      <c r="BZ134" s="17">
+      <c r="BW134" s="20"/>
+      <c r="BX134" s="20"/>
+      <c r="BY134" s="20"/>
+      <c r="BZ134" s="19">
         <v>2019</v>
       </c>
-      <c r="CA134" s="18"/>
-      <c r="CB134" s="18"/>
-      <c r="CC134" s="18"/>
-      <c r="CD134" s="17">
+      <c r="CA134" s="20"/>
+      <c r="CB134" s="20"/>
+      <c r="CC134" s="20"/>
+      <c r="CD134" s="19">
         <v>2020</v>
       </c>
-      <c r="CE134" s="18"/>
-      <c r="CF134" s="18"/>
-      <c r="CG134" s="18"/>
-      <c r="CH134" s="17">
+      <c r="CE134" s="19"/>
+      <c r="CF134" s="19"/>
+      <c r="CG134" s="19"/>
+      <c r="CH134" s="19">
         <v>2021</v>
       </c>
-      <c r="CI134" s="18"/>
-      <c r="CJ134" s="18"/>
-      <c r="CK134" s="18"/>
-      <c r="CL134" s="17">
+      <c r="CI134" s="19"/>
+      <c r="CJ134" s="19"/>
+      <c r="CK134" s="19"/>
+      <c r="CL134" s="19">
         <v>2022</v>
       </c>
-      <c r="CM134" s="18"/>
-      <c r="CN134" s="18"/>
-      <c r="CO134" s="18"/>
+      <c r="CM134" s="19"/>
+      <c r="CN134" s="19"/>
+      <c r="CO134" s="19"/>
+      <c r="CP134" s="17">
+        <v>2023</v>
+      </c>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -39870,6 +39982,9 @@
       </c>
       <c r="CO135" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="CP135" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40155,7 +40270,9 @@
       <c r="CO137" s="15">
         <v>79.099812584999441</v>
       </c>
-      <c r="CP137" s="9"/>
+      <c r="CP137" s="15">
+        <v>79.945982641342155</v>
+      </c>
       <c r="CQ137" s="9"/>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
@@ -40495,7 +40612,9 @@
       <c r="CO138" s="15">
         <v>1.9724632186139215</v>
       </c>
-      <c r="CP138" s="9"/>
+      <c r="CP138" s="15">
+        <v>2.3244199438404878</v>
+      </c>
       <c r="CQ138" s="9"/>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
@@ -40835,7 +40954,9 @@
       <c r="CO139" s="15">
         <v>17.415146833431123</v>
       </c>
-      <c r="CP139" s="9"/>
+      <c r="CP139" s="15">
+        <v>16.416007214930652</v>
+      </c>
       <c r="CQ139" s="9"/>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
@@ -41175,7 +41296,9 @@
       <c r="CO140" s="15">
         <v>1.512577362955529</v>
       </c>
-      <c r="CP140" s="9"/>
+      <c r="CP140" s="15">
+        <v>1.3135901998867046</v>
+      </c>
       <c r="CQ140" s="9"/>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
@@ -41668,7 +41791,9 @@
       <c r="CO142" s="15">
         <v>100</v>
       </c>
-      <c r="CP142" s="9"/>
+      <c r="CP142" s="15">
+        <v>100</v>
+      </c>
       <c r="CQ142" s="9"/>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
@@ -41822,6 +41947,7 @@
       <c r="CM143" s="13"/>
       <c r="CN143" s="13"/>
       <c r="CO143" s="13"/>
+      <c r="CP143" s="13"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -41829,9 +41955,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ92:CC92"/>
+  <mergeCells count="159">
     <mergeCell ref="BF134:BI134"/>
     <mergeCell ref="BJ134:BM134"/>
     <mergeCell ref="BN134:BQ134"/>
@@ -41841,7 +41965,6 @@
     <mergeCell ref="BF92:BI92"/>
     <mergeCell ref="BR134:BU134"/>
     <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BZ134:CC134"/>
     <mergeCell ref="BR113:BU113"/>
     <mergeCell ref="BV113:BY113"/>
     <mergeCell ref="BB134:BE134"/>
@@ -41909,9 +42032,16 @@
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="AD72:AG72"/>
     <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
     <mergeCell ref="BF30:BI30"/>
     <mergeCell ref="BJ30:BM30"/>
     <mergeCell ref="BN30:BQ30"/>
@@ -41923,29 +42053,15 @@
     <mergeCell ref="AT30:AW30"/>
     <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
     <mergeCell ref="N51:Q51"/>
     <mergeCell ref="R51:U51"/>
     <mergeCell ref="V51:Y51"/>
     <mergeCell ref="Z51:AC51"/>
     <mergeCell ref="AD51:AG51"/>
     <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -41962,13 +42078,14 @@
     <mergeCell ref="F30:I30"/>
     <mergeCell ref="J30:M30"/>
     <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BR30:BU30"/>
     <mergeCell ref="BV30:BY30"/>
     <mergeCell ref="R30:U30"/>
     <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
     <mergeCell ref="BR92:BU92"/>
     <mergeCell ref="BV92:BY92"/>
     <mergeCell ref="CD9:CG9"/>
@@ -41982,6 +42099,9 @@
     <mergeCell ref="BZ72:CC72"/>
     <mergeCell ref="CH51:CK51"/>
     <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="CL9:CO9"/>
@@ -41989,8 +42109,12 @@
     <mergeCell ref="CL92:CO92"/>
     <mergeCell ref="CL113:CO113"/>
     <mergeCell ref="CL134:CO134"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CL72:CO72"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ134:CC134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1814FE56-A82B-416C-84C8-30E71C71750E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF213BF5-74FF-4E05-9BCB-E17C5DCE6F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CO$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CQ$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of May 2023</t>
+    <t>As of August 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2023</t>
+    <t>Q1 2000 to Q2 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2023</t>
+    <t>Q1 2001 to Q2 2023</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -745,9 +745,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -23605,17 +23602,17 @@
   </sheetPr>
   <dimension ref="A1:EV144"/>
   <sheetViews>
-    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BM1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CD1" sqref="CD1:CP1048576"/>
+      <selection pane="topRight" activeCell="CO5" sqref="CO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="94" width="10.77734375" style="1" customWidth="1"/>
-    <col min="95" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="95" width="10.77734375" style="1" customWidth="1"/>
+    <col min="96" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23650,147 +23647,148 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <v>2000</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18">
         <v>2001</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18">
         <v>2002</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
         <v>2003</v>
       </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19">
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18">
         <v>2004</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19">
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18">
         <v>2005</v>
       </c>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
-      <c r="Z9" s="19">
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
+      <c r="Z9" s="18">
         <v>2006</v>
       </c>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="19"/>
-      <c r="AC9" s="19"/>
-      <c r="AD9" s="19">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="18"/>
+      <c r="AC9" s="18"/>
+      <c r="AD9" s="18">
         <v>2007</v>
       </c>
-      <c r="AE9" s="19"/>
-      <c r="AF9" s="19"/>
-      <c r="AG9" s="19"/>
-      <c r="AH9" s="19">
+      <c r="AE9" s="18"/>
+      <c r="AF9" s="18"/>
+      <c r="AG9" s="18"/>
+      <c r="AH9" s="18">
         <v>2008</v>
       </c>
-      <c r="AI9" s="19"/>
-      <c r="AJ9" s="19"/>
-      <c r="AK9" s="19"/>
-      <c r="AL9" s="19">
+      <c r="AI9" s="18"/>
+      <c r="AJ9" s="18"/>
+      <c r="AK9" s="18"/>
+      <c r="AL9" s="18">
         <v>2009</v>
       </c>
-      <c r="AM9" s="19"/>
-      <c r="AN9" s="19"/>
-      <c r="AO9" s="19"/>
-      <c r="AP9" s="19">
+      <c r="AM9" s="18"/>
+      <c r="AN9" s="18"/>
+      <c r="AO9" s="18"/>
+      <c r="AP9" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="19"/>
-      <c r="AR9" s="19"/>
-      <c r="AS9" s="19"/>
-      <c r="AT9" s="19">
+      <c r="AQ9" s="18"/>
+      <c r="AR9" s="18"/>
+      <c r="AS9" s="18"/>
+      <c r="AT9" s="18">
         <v>2011</v>
       </c>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="19"/>
-      <c r="AW9" s="19"/>
-      <c r="AX9" s="19">
+      <c r="AU9" s="18"/>
+      <c r="AV9" s="18"/>
+      <c r="AW9" s="18"/>
+      <c r="AX9" s="18">
         <v>2012</v>
       </c>
-      <c r="AY9" s="19"/>
-      <c r="AZ9" s="19"/>
-      <c r="BA9" s="19"/>
-      <c r="BB9" s="19">
+      <c r="AY9" s="18"/>
+      <c r="AZ9" s="18"/>
+      <c r="BA9" s="18"/>
+      <c r="BB9" s="18">
         <v>2013</v>
       </c>
-      <c r="BC9" s="19"/>
-      <c r="BD9" s="19"/>
-      <c r="BE9" s="19"/>
-      <c r="BF9" s="19">
+      <c r="BC9" s="18"/>
+      <c r="BD9" s="18"/>
+      <c r="BE9" s="18"/>
+      <c r="BF9" s="18">
         <v>2014</v>
       </c>
-      <c r="BG9" s="19"/>
-      <c r="BH9" s="19"/>
-      <c r="BI9" s="19"/>
-      <c r="BJ9" s="19">
+      <c r="BG9" s="18"/>
+      <c r="BH9" s="18"/>
+      <c r="BI9" s="18"/>
+      <c r="BJ9" s="18">
         <v>2015</v>
       </c>
-      <c r="BK9" s="19"/>
-      <c r="BL9" s="19"/>
-      <c r="BM9" s="19"/>
-      <c r="BN9" s="19">
+      <c r="BK9" s="18"/>
+      <c r="BL9" s="18"/>
+      <c r="BM9" s="18"/>
+      <c r="BN9" s="18">
         <v>2016</v>
       </c>
-      <c r="BO9" s="19"/>
-      <c r="BP9" s="19"/>
-      <c r="BQ9" s="19"/>
-      <c r="BR9" s="19">
+      <c r="BO9" s="18"/>
+      <c r="BP9" s="18"/>
+      <c r="BQ9" s="18"/>
+      <c r="BR9" s="18">
         <v>2017</v>
       </c>
-      <c r="BS9" s="19"/>
-      <c r="BT9" s="19"/>
-      <c r="BU9" s="19"/>
-      <c r="BV9" s="19">
+      <c r="BS9" s="18"/>
+      <c r="BT9" s="18"/>
+      <c r="BU9" s="18"/>
+      <c r="BV9" s="18">
         <v>2018</v>
       </c>
-      <c r="BW9" s="19"/>
-      <c r="BX9" s="19"/>
-      <c r="BY9" s="19"/>
-      <c r="BZ9" s="19">
+      <c r="BW9" s="18"/>
+      <c r="BX9" s="18"/>
+      <c r="BY9" s="18"/>
+      <c r="BZ9" s="18">
         <v>2019</v>
       </c>
-      <c r="CA9" s="19"/>
-      <c r="CB9" s="19"/>
-      <c r="CC9" s="19"/>
-      <c r="CD9" s="19">
+      <c r="CA9" s="18"/>
+      <c r="CB9" s="18"/>
+      <c r="CC9" s="18"/>
+      <c r="CD9" s="18">
         <v>2020</v>
       </c>
-      <c r="CE9" s="19"/>
-      <c r="CF9" s="19"/>
-      <c r="CG9" s="19"/>
-      <c r="CH9" s="19">
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="18"/>
+      <c r="CG9" s="18"/>
+      <c r="CH9" s="18">
         <v>2021</v>
       </c>
-      <c r="CI9" s="19"/>
-      <c r="CJ9" s="19"/>
-      <c r="CK9" s="19"/>
-      <c r="CL9" s="19">
+      <c r="CI9" s="18"/>
+      <c r="CJ9" s="18"/>
+      <c r="CK9" s="18"/>
+      <c r="CL9" s="18">
         <v>2022</v>
       </c>
-      <c r="CM9" s="19"/>
-      <c r="CN9" s="19"/>
-      <c r="CO9" s="19"/>
-      <c r="CP9" s="17">
+      <c r="CM9" s="18"/>
+      <c r="CN9" s="18"/>
+      <c r="CO9" s="18"/>
+      <c r="CP9" s="18">
         <v>2023</v>
       </c>
+      <c r="CQ9" s="20"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24074,6 +24072,9 @@
       </c>
       <c r="CP10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24360,9 +24361,11 @@
         <v>134659.95329141535</v>
       </c>
       <c r="CP12" s="8">
-        <v>182904.72428720593</v>
-      </c>
-      <c r="CQ12" s="9"/>
+        <v>182682.31286621009</v>
+      </c>
+      <c r="CQ12" s="8">
+        <v>236271.01400890452</v>
+      </c>
       <c r="CR12" s="9"/>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
@@ -24704,7 +24707,9 @@
       <c r="CP13" s="8">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="9"/>
+      <c r="CQ13" s="8">
+        <v>3791.0875155057865</v>
+      </c>
       <c r="CR13" s="9"/>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
@@ -25044,9 +25049,11 @@
         <v>27896.844107694811</v>
       </c>
       <c r="CP14" s="8">
-        <v>28821.057181792537</v>
-      </c>
-      <c r="CQ14" s="9"/>
+        <v>29722.327781706816</v>
+      </c>
+      <c r="CQ14" s="8">
+        <v>32442.056596486036</v>
+      </c>
       <c r="CR14" s="9"/>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
@@ -25386,9 +25393,11 @@
         <v>2670.2517150843864</v>
       </c>
       <c r="CP15" s="8">
-        <v>2337.5244808479179</v>
-      </c>
-      <c r="CQ15" s="9"/>
+        <v>2304.49992134892</v>
+      </c>
+      <c r="CQ15" s="8">
+        <v>2394.9576845110937</v>
+      </c>
       <c r="CR15" s="9"/>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
@@ -25541,7 +25550,7 @@
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
       <c r="CP16" s="10"/>
-      <c r="CQ16" s="9"/>
+      <c r="CQ16" s="10"/>
       <c r="CR16" s="9"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
@@ -25881,9 +25890,11 @@
         <v>168743.22393107318</v>
       </c>
       <c r="CP17" s="12">
-        <v>218211.74703503153</v>
-      </c>
-      <c r="CQ17" s="9"/>
+        <v>218857.58165445097</v>
+      </c>
+      <c r="CQ17" s="12">
+        <v>274899.1158054074</v>
+      </c>
       <c r="CR17" s="9"/>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
@@ -26037,6 +26048,7 @@
       <c r="CN18" s="13"/>
       <c r="CO18" s="13"/>
       <c r="CP18" s="13"/>
+      <c r="CQ18" s="13"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26381,147 +26393,148 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="19">
+      <c r="B30" s="18">
         <v>2000</v>
       </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="19">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="18">
         <v>2001</v>
       </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="19">
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="18">
         <v>2002</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="19">
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="18">
         <v>2003</v>
       </c>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="19">
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="18">
         <v>2004</v>
       </c>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="19">
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="18">
         <v>2005</v>
       </c>
-      <c r="W30" s="20"/>
-      <c r="X30" s="20"/>
-      <c r="Y30" s="20"/>
-      <c r="Z30" s="19">
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="18">
         <v>2006</v>
       </c>
-      <c r="AA30" s="20"/>
-      <c r="AB30" s="20"/>
-      <c r="AC30" s="20"/>
-      <c r="AD30" s="19">
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="18">
         <v>2007</v>
       </c>
-      <c r="AE30" s="20"/>
-      <c r="AF30" s="20"/>
-      <c r="AG30" s="20"/>
-      <c r="AH30" s="19">
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="18">
         <v>2008</v>
       </c>
-      <c r="AI30" s="20"/>
-      <c r="AJ30" s="20"/>
-      <c r="AK30" s="20"/>
-      <c r="AL30" s="19">
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="18">
         <v>2009</v>
       </c>
-      <c r="AM30" s="20"/>
-      <c r="AN30" s="20"/>
-      <c r="AO30" s="20"/>
-      <c r="AP30" s="19">
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="20"/>
-      <c r="AR30" s="20"/>
-      <c r="AS30" s="20"/>
-      <c r="AT30" s="19">
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+      <c r="AS30" s="19"/>
+      <c r="AT30" s="18">
         <v>2011</v>
       </c>
-      <c r="AU30" s="20"/>
-      <c r="AV30" s="20"/>
-      <c r="AW30" s="20"/>
-      <c r="AX30" s="19">
+      <c r="AU30" s="19"/>
+      <c r="AV30" s="19"/>
+      <c r="AW30" s="19"/>
+      <c r="AX30" s="18">
         <v>2012</v>
       </c>
-      <c r="AY30" s="20"/>
-      <c r="AZ30" s="20"/>
-      <c r="BA30" s="20"/>
-      <c r="BB30" s="19">
+      <c r="AY30" s="19"/>
+      <c r="AZ30" s="19"/>
+      <c r="BA30" s="19"/>
+      <c r="BB30" s="18">
         <v>2013</v>
       </c>
-      <c r="BC30" s="20"/>
-      <c r="BD30" s="20"/>
-      <c r="BE30" s="20"/>
-      <c r="BF30" s="19">
+      <c r="BC30" s="19"/>
+      <c r="BD30" s="19"/>
+      <c r="BE30" s="19"/>
+      <c r="BF30" s="18">
         <v>2014</v>
       </c>
-      <c r="BG30" s="20"/>
-      <c r="BH30" s="20"/>
-      <c r="BI30" s="20"/>
-      <c r="BJ30" s="19">
+      <c r="BG30" s="19"/>
+      <c r="BH30" s="19"/>
+      <c r="BI30" s="19"/>
+      <c r="BJ30" s="18">
         <v>2015</v>
       </c>
-      <c r="BK30" s="20"/>
-      <c r="BL30" s="20"/>
-      <c r="BM30" s="20"/>
-      <c r="BN30" s="19">
+      <c r="BK30" s="19"/>
+      <c r="BL30" s="19"/>
+      <c r="BM30" s="19"/>
+      <c r="BN30" s="18">
         <v>2016</v>
       </c>
-      <c r="BO30" s="20"/>
-      <c r="BP30" s="20"/>
-      <c r="BQ30" s="20"/>
-      <c r="BR30" s="19">
+      <c r="BO30" s="19"/>
+      <c r="BP30" s="19"/>
+      <c r="BQ30" s="19"/>
+      <c r="BR30" s="18">
         <v>2017</v>
       </c>
-      <c r="BS30" s="20"/>
-      <c r="BT30" s="20"/>
-      <c r="BU30" s="20"/>
-      <c r="BV30" s="19">
+      <c r="BS30" s="19"/>
+      <c r="BT30" s="19"/>
+      <c r="BU30" s="19"/>
+      <c r="BV30" s="18">
         <v>2018</v>
       </c>
-      <c r="BW30" s="20"/>
-      <c r="BX30" s="20"/>
-      <c r="BY30" s="20"/>
-      <c r="BZ30" s="19">
+      <c r="BW30" s="19"/>
+      <c r="BX30" s="19"/>
+      <c r="BY30" s="19"/>
+      <c r="BZ30" s="18">
         <v>2019</v>
       </c>
-      <c r="CA30" s="20"/>
-      <c r="CB30" s="20"/>
-      <c r="CC30" s="20"/>
-      <c r="CD30" s="19">
+      <c r="CA30" s="19"/>
+      <c r="CB30" s="19"/>
+      <c r="CC30" s="19"/>
+      <c r="CD30" s="18">
         <v>2020</v>
       </c>
-      <c r="CE30" s="19"/>
-      <c r="CF30" s="19"/>
-      <c r="CG30" s="19"/>
-      <c r="CH30" s="19">
+      <c r="CE30" s="18"/>
+      <c r="CF30" s="18"/>
+      <c r="CG30" s="18"/>
+      <c r="CH30" s="18">
         <v>2021</v>
       </c>
-      <c r="CI30" s="19"/>
-      <c r="CJ30" s="19"/>
-      <c r="CK30" s="19"/>
-      <c r="CL30" s="19">
+      <c r="CI30" s="18"/>
+      <c r="CJ30" s="18"/>
+      <c r="CK30" s="18"/>
+      <c r="CL30" s="18">
         <v>2022</v>
       </c>
-      <c r="CM30" s="19"/>
-      <c r="CN30" s="19"/>
-      <c r="CO30" s="19"/>
-      <c r="CP30" s="17">
+      <c r="CM30" s="18"/>
+      <c r="CN30" s="18"/>
+      <c r="CO30" s="18"/>
+      <c r="CP30" s="18">
         <v>2023</v>
       </c>
+      <c r="CQ30" s="20"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26805,6 +26818,9 @@
       </c>
       <c r="CP31" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ31" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27091,9 +27107,11 @@
         <v>125236.38787257974</v>
       </c>
       <c r="CP33" s="8">
-        <v>123867.27147280624</v>
-      </c>
-      <c r="CQ33" s="9"/>
+        <v>123716.66333692582</v>
+      </c>
+      <c r="CQ33" s="8">
+        <v>140081.35104596653</v>
+      </c>
       <c r="CR33" s="9"/>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
@@ -27435,7 +27453,9 @@
       <c r="CP34" s="8">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="9"/>
+      <c r="CQ34" s="8">
+        <v>3122.6829097258346</v>
+      </c>
       <c r="CR34" s="9"/>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
@@ -27775,9 +27795,11 @@
         <v>27572.885603816438</v>
       </c>
       <c r="CP35" s="8">
-        <v>25434.749252051017</v>
-      </c>
-      <c r="CQ35" s="9"/>
+        <v>26230.125756544647</v>
+      </c>
+      <c r="CQ35" s="8">
+        <v>26984.595222341573</v>
+      </c>
       <c r="CR35" s="9"/>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
@@ -28117,9 +28139,11 @@
         <v>2394.8188892460926</v>
       </c>
       <c r="CP36" s="8">
-        <v>2035.2596655587577</v>
-      </c>
-      <c r="CQ36" s="9"/>
+        <v>2006.5055051331201</v>
+      </c>
+      <c r="CQ36" s="8">
+        <v>2038.2808044885282</v>
+      </c>
       <c r="CR36" s="9"/>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
@@ -28272,7 +28296,7 @@
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
       <c r="CP37" s="10"/>
-      <c r="CQ37" s="9"/>
+      <c r="CQ37" s="10"/>
       <c r="CR37" s="9"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
@@ -28612,9 +28636,11 @@
         <v>158327.0348940494</v>
       </c>
       <c r="CP38" s="12">
-        <v>154938.70658705401</v>
-      </c>
-      <c r="CQ38" s="9"/>
+        <v>155554.72079524159</v>
+      </c>
+      <c r="CQ38" s="12">
+        <v>172226.90998252245</v>
+      </c>
       <c r="CR38" s="9"/>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
@@ -28768,6 +28794,7 @@
       <c r="CN39" s="13"/>
       <c r="CO39" s="13"/>
       <c r="CP39" s="13"/>
+      <c r="CQ39" s="13"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29112,145 +29139,146 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19" t="s">
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19" t="s">
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19" t="s">
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19" t="s">
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
+      <c r="Q51" s="18"/>
+      <c r="R51" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19" t="s">
+      <c r="S51" s="18"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="18"/>
+      <c r="V51" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="19"/>
-      <c r="X51" s="19"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19" t="s">
+      <c r="W51" s="18"/>
+      <c r="X51" s="18"/>
+      <c r="Y51" s="18"/>
+      <c r="Z51" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19" t="s">
+      <c r="AA51" s="18"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="19" t="s">
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
+      <c r="AG51" s="18"/>
+      <c r="AH51" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="19"/>
-      <c r="AJ51" s="19"/>
-      <c r="AK51" s="19"/>
-      <c r="AL51" s="19" t="s">
+      <c r="AI51" s="18"/>
+      <c r="AJ51" s="18"/>
+      <c r="AK51" s="18"/>
+      <c r="AL51" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="19"/>
-      <c r="AN51" s="19"/>
-      <c r="AO51" s="19"/>
-      <c r="AP51" s="19" t="s">
+      <c r="AM51" s="18"/>
+      <c r="AN51" s="18"/>
+      <c r="AO51" s="18"/>
+      <c r="AP51" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="19"/>
-      <c r="AR51" s="19"/>
-      <c r="AS51" s="19"/>
-      <c r="AT51" s="19" t="s">
+      <c r="AQ51" s="18"/>
+      <c r="AR51" s="18"/>
+      <c r="AS51" s="18"/>
+      <c r="AT51" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="19"/>
-      <c r="AV51" s="19"/>
-      <c r="AW51" s="19"/>
-      <c r="AX51" s="19" t="s">
+      <c r="AU51" s="18"/>
+      <c r="AV51" s="18"/>
+      <c r="AW51" s="18"/>
+      <c r="AX51" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="19"/>
-      <c r="AZ51" s="19"/>
-      <c r="BA51" s="19"/>
-      <c r="BB51" s="19" t="s">
+      <c r="AY51" s="18"/>
+      <c r="AZ51" s="18"/>
+      <c r="BA51" s="18"/>
+      <c r="BB51" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="19"/>
-      <c r="BD51" s="19"/>
-      <c r="BE51" s="19"/>
-      <c r="BF51" s="19" t="s">
+      <c r="BC51" s="18"/>
+      <c r="BD51" s="18"/>
+      <c r="BE51" s="18"/>
+      <c r="BF51" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="19"/>
-      <c r="BH51" s="19"/>
-      <c r="BI51" s="19"/>
-      <c r="BJ51" s="19" t="s">
+      <c r="BG51" s="18"/>
+      <c r="BH51" s="18"/>
+      <c r="BI51" s="18"/>
+      <c r="BJ51" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="19"/>
-      <c r="BL51" s="19"/>
-      <c r="BM51" s="19"/>
-      <c r="BN51" s="19" t="s">
+      <c r="BK51" s="18"/>
+      <c r="BL51" s="18"/>
+      <c r="BM51" s="18"/>
+      <c r="BN51" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="19"/>
-      <c r="BP51" s="19"/>
-      <c r="BQ51" s="19"/>
-      <c r="BR51" s="19" t="s">
+      <c r="BO51" s="18"/>
+      <c r="BP51" s="18"/>
+      <c r="BQ51" s="18"/>
+      <c r="BR51" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="19"/>
-      <c r="BT51" s="19"/>
-      <c r="BU51" s="19"/>
-      <c r="BV51" s="19" t="s">
+      <c r="BS51" s="18"/>
+      <c r="BT51" s="18"/>
+      <c r="BU51" s="18"/>
+      <c r="BV51" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="19"/>
-      <c r="BX51" s="19"/>
-      <c r="BY51" s="19"/>
-      <c r="BZ51" s="19" t="s">
+      <c r="BW51" s="18"/>
+      <c r="BX51" s="18"/>
+      <c r="BY51" s="18"/>
+      <c r="BZ51" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="19"/>
-      <c r="CB51" s="19"/>
-      <c r="CC51" s="19"/>
-      <c r="CD51" s="19" t="s">
+      <c r="CA51" s="18"/>
+      <c r="CB51" s="18"/>
+      <c r="CC51" s="18"/>
+      <c r="CD51" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="19"/>
-      <c r="CF51" s="19"/>
-      <c r="CG51" s="19"/>
-      <c r="CH51" s="19" t="s">
+      <c r="CE51" s="18"/>
+      <c r="CF51" s="18"/>
+      <c r="CG51" s="18"/>
+      <c r="CH51" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="19"/>
-      <c r="CJ51" s="19"/>
-      <c r="CK51" s="19"/>
-      <c r="CL51" s="17" t="s">
+      <c r="CI51" s="18"/>
+      <c r="CJ51" s="18"/>
+      <c r="CK51" s="18"/>
+      <c r="CL51" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="17"/>
-      <c r="CN51" s="17"/>
-      <c r="CO51" s="17"/>
-      <c r="CP51" s="17"/>
+      <c r="CM51" s="18"/>
+      <c r="CN51" s="18"/>
+      <c r="CO51" s="18"/>
+      <c r="CP51" s="18"/>
+      <c r="CQ51" s="20"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29523,10 +29551,13 @@
       <c r="CL52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5"/>
+      <c r="CM52" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN52" s="5"/>
       <c r="CO52" s="5"/>
       <c r="CP52" s="5"/>
+      <c r="CQ52" s="5"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29800,13 +29831,15 @@
         <v>15.145261361366707</v>
       </c>
       <c r="CL54" s="15">
-        <v>22.099378819626779</v>
-      </c>
-      <c r="CM54" s="15"/>
+        <v>21.950906458118283</v>
+      </c>
+      <c r="CM54" s="15">
+        <v>16.068934646981532</v>
+      </c>
       <c r="CN54" s="15"/>
       <c r="CO54" s="15"/>
       <c r="CP54" s="15"/>
-      <c r="CQ54" s="9"/>
+      <c r="CQ54" s="15"/>
       <c r="CR54" s="9"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
@@ -30132,11 +30165,13 @@
       <c r="CL55" s="15">
         <v>26.40749253905193</v>
       </c>
-      <c r="CM55" s="15"/>
+      <c r="CM55" s="15">
+        <v>11.943348768206079</v>
+      </c>
       <c r="CN55" s="15"/>
       <c r="CO55" s="15"/>
       <c r="CP55" s="15"/>
-      <c r="CQ55" s="9"/>
+      <c r="CQ55" s="15"/>
       <c r="CR55" s="9"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
@@ -30460,13 +30495,15 @@
         <v>6.734539471039497</v>
       </c>
       <c r="CL56" s="15">
-        <v>12.113842858006336</v>
-      </c>
-      <c r="CM56" s="15"/>
+        <v>15.619783315845098</v>
+      </c>
+      <c r="CM56" s="15">
+        <v>17.986183501958891</v>
+      </c>
       <c r="CN56" s="15"/>
       <c r="CO56" s="15"/>
       <c r="CP56" s="15"/>
-      <c r="CQ56" s="9"/>
+      <c r="CQ56" s="15"/>
       <c r="CR56" s="9"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
@@ -30790,13 +30827,15 @@
         <v>11.423312856875299</v>
       </c>
       <c r="CL57" s="15">
-        <v>11.737698963396468</v>
-      </c>
-      <c r="CM57" s="15"/>
+        <v>10.159068100733066</v>
+      </c>
+      <c r="CM57" s="15">
+        <v>7.935788276712529</v>
+      </c>
       <c r="CN57" s="15"/>
       <c r="CO57" s="15"/>
       <c r="CP57" s="15"/>
-      <c r="CQ57" s="9"/>
+      <c r="CQ57" s="15"/>
       <c r="CR57" s="9"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
@@ -31269,13 +31308,15 @@
         <v>13.545764568991657</v>
       </c>
       <c r="CL59" s="15">
-        <v>20.638549252152799</v>
-      </c>
-      <c r="CM59" s="15"/>
+        <v>20.995599468753042</v>
+      </c>
+      <c r="CM59" s="15">
+        <v>16.156398426490995</v>
+      </c>
       <c r="CN59" s="15"/>
       <c r="CO59" s="15"/>
       <c r="CP59" s="15"/>
-      <c r="CQ59" s="9"/>
+      <c r="CQ59" s="15"/>
       <c r="CR59" s="9"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
@@ -31425,6 +31466,7 @@
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
       <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31512,20 +31554,20 @@
       <c r="CA62" s="16"/>
       <c r="CB62" s="16"/>
       <c r="CC62" s="16"/>
-      <c r="CD62" s="18"/>
-      <c r="CE62" s="18"/>
-      <c r="CF62" s="18"/>
-      <c r="CG62" s="18"/>
-      <c r="CH62" s="18"/>
-      <c r="CI62" s="18"/>
-      <c r="CJ62" s="18"/>
-      <c r="CK62" s="18"/>
-      <c r="CL62" s="18"/>
-      <c r="CM62" s="18"/>
-      <c r="CN62" s="18"/>
-      <c r="CO62" s="18"/>
-      <c r="CP62" s="18"/>
-      <c r="CQ62" s="9"/>
+      <c r="CD62" s="17"/>
+      <c r="CE62" s="17"/>
+      <c r="CF62" s="17"/>
+      <c r="CG62" s="17"/>
+      <c r="CH62" s="17"/>
+      <c r="CI62" s="17"/>
+      <c r="CJ62" s="17"/>
+      <c r="CK62" s="17"/>
+      <c r="CL62" s="17"/>
+      <c r="CM62" s="17"/>
+      <c r="CN62" s="17"/>
+      <c r="CO62" s="17"/>
+      <c r="CP62" s="17"/>
+      <c r="CQ62" s="17"/>
       <c r="CR62" s="9"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
@@ -31761,145 +31803,146 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="21"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="19" t="s">
+      <c r="C72" s="20"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="20"/>
+      <c r="F72" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="19" t="s">
+      <c r="G72" s="20"/>
+      <c r="H72" s="20"/>
+      <c r="I72" s="20"/>
+      <c r="J72" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="21"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="19" t="s">
+      <c r="K72" s="20"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="21"/>
-      <c r="P72" s="21"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="19" t="s">
+      <c r="O72" s="20"/>
+      <c r="P72" s="20"/>
+      <c r="Q72" s="20"/>
+      <c r="R72" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="21"/>
-      <c r="T72" s="21"/>
-      <c r="U72" s="21"/>
-      <c r="V72" s="19" t="s">
+      <c r="S72" s="20"/>
+      <c r="T72" s="20"/>
+      <c r="U72" s="20"/>
+      <c r="V72" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="21"/>
-      <c r="X72" s="21"/>
-      <c r="Y72" s="21"/>
-      <c r="Z72" s="19" t="s">
+      <c r="W72" s="20"/>
+      <c r="X72" s="20"/>
+      <c r="Y72" s="20"/>
+      <c r="Z72" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="21"/>
-      <c r="AB72" s="21"/>
-      <c r="AC72" s="21"/>
-      <c r="AD72" s="19" t="s">
+      <c r="AA72" s="20"/>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="20"/>
+      <c r="AD72" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="21"/>
-      <c r="AF72" s="21"/>
-      <c r="AG72" s="21"/>
-      <c r="AH72" s="19" t="s">
+      <c r="AE72" s="20"/>
+      <c r="AF72" s="20"/>
+      <c r="AG72" s="20"/>
+      <c r="AH72" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="21"/>
-      <c r="AJ72" s="21"/>
-      <c r="AK72" s="21"/>
-      <c r="AL72" s="19" t="s">
+      <c r="AI72" s="20"/>
+      <c r="AJ72" s="20"/>
+      <c r="AK72" s="20"/>
+      <c r="AL72" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="21"/>
-      <c r="AN72" s="21"/>
-      <c r="AO72" s="21"/>
-      <c r="AP72" s="19" t="s">
+      <c r="AM72" s="20"/>
+      <c r="AN72" s="20"/>
+      <c r="AO72" s="20"/>
+      <c r="AP72" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="21"/>
-      <c r="AR72" s="21"/>
-      <c r="AS72" s="21"/>
-      <c r="AT72" s="19" t="s">
+      <c r="AQ72" s="20"/>
+      <c r="AR72" s="20"/>
+      <c r="AS72" s="20"/>
+      <c r="AT72" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="21"/>
-      <c r="AV72" s="21"/>
-      <c r="AW72" s="21"/>
-      <c r="AX72" s="19" t="s">
+      <c r="AU72" s="20"/>
+      <c r="AV72" s="20"/>
+      <c r="AW72" s="20"/>
+      <c r="AX72" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="21"/>
-      <c r="AZ72" s="21"/>
-      <c r="BA72" s="21"/>
-      <c r="BB72" s="19" t="s">
+      <c r="AY72" s="20"/>
+      <c r="AZ72" s="20"/>
+      <c r="BA72" s="20"/>
+      <c r="BB72" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="21"/>
-      <c r="BD72" s="21"/>
-      <c r="BE72" s="21"/>
-      <c r="BF72" s="19" t="s">
+      <c r="BC72" s="20"/>
+      <c r="BD72" s="20"/>
+      <c r="BE72" s="20"/>
+      <c r="BF72" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="21"/>
-      <c r="BH72" s="21"/>
-      <c r="BI72" s="21"/>
-      <c r="BJ72" s="19" t="s">
+      <c r="BG72" s="20"/>
+      <c r="BH72" s="20"/>
+      <c r="BI72" s="20"/>
+      <c r="BJ72" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="21"/>
-      <c r="BL72" s="21"/>
-      <c r="BM72" s="21"/>
-      <c r="BN72" s="19" t="s">
+      <c r="BK72" s="20"/>
+      <c r="BL72" s="20"/>
+      <c r="BM72" s="20"/>
+      <c r="BN72" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="21"/>
-      <c r="BP72" s="21"/>
-      <c r="BQ72" s="21"/>
-      <c r="BR72" s="19" t="s">
+      <c r="BO72" s="20"/>
+      <c r="BP72" s="20"/>
+      <c r="BQ72" s="20"/>
+      <c r="BR72" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="21"/>
-      <c r="BT72" s="21"/>
-      <c r="BU72" s="21"/>
-      <c r="BV72" s="19" t="s">
+      <c r="BS72" s="20"/>
+      <c r="BT72" s="20"/>
+      <c r="BU72" s="20"/>
+      <c r="BV72" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="21"/>
-      <c r="BX72" s="21"/>
-      <c r="BY72" s="21"/>
-      <c r="BZ72" s="19" t="s">
+      <c r="BW72" s="20"/>
+      <c r="BX72" s="20"/>
+      <c r="BY72" s="20"/>
+      <c r="BZ72" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="21"/>
-      <c r="CB72" s="21"/>
-      <c r="CC72" s="21"/>
-      <c r="CD72" s="19" t="s">
+      <c r="CA72" s="20"/>
+      <c r="CB72" s="20"/>
+      <c r="CC72" s="20"/>
+      <c r="CD72" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="19"/>
-      <c r="CF72" s="19"/>
-      <c r="CG72" s="19"/>
-      <c r="CH72" s="19" t="s">
+      <c r="CE72" s="18"/>
+      <c r="CF72" s="18"/>
+      <c r="CG72" s="18"/>
+      <c r="CH72" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="19"/>
-      <c r="CJ72" s="19"/>
-      <c r="CK72" s="19"/>
-      <c r="CL72" s="17" t="s">
+      <c r="CI72" s="18"/>
+      <c r="CJ72" s="18"/>
+      <c r="CK72" s="18"/>
+      <c r="CL72" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="17"/>
-      <c r="CN72" s="17"/>
-      <c r="CO72" s="17"/>
-      <c r="CP72" s="17"/>
+      <c r="CM72" s="18"/>
+      <c r="CN72" s="18"/>
+      <c r="CO72" s="18"/>
+      <c r="CP72" s="18"/>
+      <c r="CQ72" s="20"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32172,10 +32215,13 @@
       <c r="CL73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5"/>
+      <c r="CM73" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="CN73" s="5"/>
       <c r="CO73" s="5"/>
       <c r="CP73" s="5"/>
+      <c r="CQ73" s="5"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32449,13 +32495,15 @@
         <v>4.3492103429426265</v>
       </c>
       <c r="CL75" s="15">
-        <v>6.8270114234875905</v>
-      </c>
-      <c r="CM75" s="15"/>
+        <v>6.6971222537265334</v>
+      </c>
+      <c r="CM75" s="15">
+        <v>4.5485821331540564</v>
+      </c>
       <c r="CN75" s="15"/>
       <c r="CO75" s="15"/>
       <c r="CP75" s="15"/>
-      <c r="CQ75" s="9"/>
+      <c r="CQ75" s="15"/>
       <c r="CR75" s="9"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
@@ -32781,11 +32829,13 @@
       <c r="CL76" s="15">
         <v>20.229356544387841</v>
       </c>
-      <c r="CM76" s="15"/>
+      <c r="CM76" s="15">
+        <v>5.6815206563201457</v>
+      </c>
       <c r="CN76" s="15"/>
       <c r="CO76" s="15"/>
       <c r="CP76" s="15"/>
-      <c r="CQ76" s="9"/>
+      <c r="CQ76" s="15"/>
       <c r="CR76" s="9"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
@@ -33109,13 +33159,15 @@
         <v>11.540998875165414</v>
       </c>
       <c r="CL77" s="15">
-        <v>4.8387846887730319</v>
-      </c>
-      <c r="CM77" s="15"/>
+        <v>8.1172249546778659</v>
+      </c>
+      <c r="CM77" s="15">
+        <v>5.9311860638093634</v>
+      </c>
       <c r="CN77" s="15"/>
       <c r="CO77" s="15"/>
       <c r="CP77" s="15"/>
-      <c r="CQ77" s="9"/>
+      <c r="CQ77" s="15"/>
       <c r="CR77" s="9"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
@@ -33439,13 +33491,15 @@
         <v>10.791525685391562</v>
       </c>
       <c r="CL78" s="15">
-        <v>7.9951266686056215</v>
-      </c>
-      <c r="CM78" s="15"/>
+        <v>6.46937088915152</v>
+      </c>
+      <c r="CM78" s="15">
+        <v>4.0220243026393092</v>
+      </c>
       <c r="CN78" s="15"/>
       <c r="CO78" s="15"/>
       <c r="CP78" s="15"/>
-      <c r="CQ78" s="9"/>
+      <c r="CQ78" s="15"/>
       <c r="CR78" s="9"/>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
@@ -33918,13 +33972,15 @@
         <v>5.6530764414741697</v>
       </c>
       <c r="CL80" s="15">
-        <v>6.7864277814615264</v>
-      </c>
-      <c r="CM80" s="15"/>
+        <v>7.2109953940613991</v>
+      </c>
+      <c r="CM80" s="15">
+        <v>4.7769375319857659</v>
+      </c>
       <c r="CN80" s="15"/>
       <c r="CO80" s="15"/>
       <c r="CP80" s="15"/>
-      <c r="CQ80" s="9"/>
+      <c r="CQ80" s="15"/>
       <c r="CR80" s="9"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
@@ -34074,6 +34130,7 @@
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
       <c r="CP81" s="13"/>
+      <c r="CQ81" s="13"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34405,147 +34462,148 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="19">
+      <c r="B92" s="18">
         <v>2000</v>
       </c>
-      <c r="C92" s="20"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="19">
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="18">
         <v>2001</v>
       </c>
-      <c r="G92" s="20"/>
-      <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
-      <c r="J92" s="19">
+      <c r="G92" s="19"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="18">
         <v>2002</v>
       </c>
-      <c r="K92" s="20"/>
-      <c r="L92" s="20"/>
-      <c r="M92" s="20"/>
-      <c r="N92" s="19">
+      <c r="K92" s="19"/>
+      <c r="L92" s="19"/>
+      <c r="M92" s="19"/>
+      <c r="N92" s="18">
         <v>2003</v>
       </c>
-      <c r="O92" s="20"/>
-      <c r="P92" s="20"/>
-      <c r="Q92" s="20"/>
-      <c r="R92" s="19">
+      <c r="O92" s="19"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="19"/>
+      <c r="R92" s="18">
         <v>2004</v>
       </c>
-      <c r="S92" s="20"/>
-      <c r="T92" s="20"/>
-      <c r="U92" s="20"/>
-      <c r="V92" s="19">
+      <c r="S92" s="19"/>
+      <c r="T92" s="19"/>
+      <c r="U92" s="19"/>
+      <c r="V92" s="18">
         <v>2005</v>
       </c>
-      <c r="W92" s="20"/>
-      <c r="X92" s="20"/>
-      <c r="Y92" s="20"/>
-      <c r="Z92" s="19">
+      <c r="W92" s="19"/>
+      <c r="X92" s="19"/>
+      <c r="Y92" s="19"/>
+      <c r="Z92" s="18">
         <v>2006</v>
       </c>
-      <c r="AA92" s="20"/>
-      <c r="AB92" s="20"/>
-      <c r="AC92" s="20"/>
-      <c r="AD92" s="19">
+      <c r="AA92" s="19"/>
+      <c r="AB92" s="19"/>
+      <c r="AC92" s="19"/>
+      <c r="AD92" s="18">
         <v>2007</v>
       </c>
-      <c r="AE92" s="20"/>
-      <c r="AF92" s="20"/>
-      <c r="AG92" s="20"/>
-      <c r="AH92" s="19">
+      <c r="AE92" s="19"/>
+      <c r="AF92" s="19"/>
+      <c r="AG92" s="19"/>
+      <c r="AH92" s="18">
         <v>2008</v>
       </c>
-      <c r="AI92" s="20"/>
-      <c r="AJ92" s="20"/>
-      <c r="AK92" s="20"/>
-      <c r="AL92" s="19">
+      <c r="AI92" s="19"/>
+      <c r="AJ92" s="19"/>
+      <c r="AK92" s="19"/>
+      <c r="AL92" s="18">
         <v>2009</v>
       </c>
-      <c r="AM92" s="20"/>
-      <c r="AN92" s="20"/>
-      <c r="AO92" s="20"/>
-      <c r="AP92" s="19">
+      <c r="AM92" s="19"/>
+      <c r="AN92" s="19"/>
+      <c r="AO92" s="19"/>
+      <c r="AP92" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="20"/>
-      <c r="AR92" s="20"/>
-      <c r="AS92" s="20"/>
-      <c r="AT92" s="19">
+      <c r="AQ92" s="19"/>
+      <c r="AR92" s="19"/>
+      <c r="AS92" s="19"/>
+      <c r="AT92" s="18">
         <v>2011</v>
       </c>
-      <c r="AU92" s="20"/>
-      <c r="AV92" s="20"/>
-      <c r="AW92" s="20"/>
-      <c r="AX92" s="19">
+      <c r="AU92" s="19"/>
+      <c r="AV92" s="19"/>
+      <c r="AW92" s="19"/>
+      <c r="AX92" s="18">
         <v>2012</v>
       </c>
-      <c r="AY92" s="20"/>
-      <c r="AZ92" s="20"/>
-      <c r="BA92" s="20"/>
-      <c r="BB92" s="19">
+      <c r="AY92" s="19"/>
+      <c r="AZ92" s="19"/>
+      <c r="BA92" s="19"/>
+      <c r="BB92" s="18">
         <v>2013</v>
       </c>
-      <c r="BC92" s="20"/>
-      <c r="BD92" s="20"/>
-      <c r="BE92" s="20"/>
-      <c r="BF92" s="19">
+      <c r="BC92" s="19"/>
+      <c r="BD92" s="19"/>
+      <c r="BE92" s="19"/>
+      <c r="BF92" s="18">
         <v>2014</v>
       </c>
-      <c r="BG92" s="20"/>
-      <c r="BH92" s="20"/>
-      <c r="BI92" s="20"/>
-      <c r="BJ92" s="19">
+      <c r="BG92" s="19"/>
+      <c r="BH92" s="19"/>
+      <c r="BI92" s="19"/>
+      <c r="BJ92" s="18">
         <v>2015</v>
       </c>
-      <c r="BK92" s="20"/>
-      <c r="BL92" s="20"/>
-      <c r="BM92" s="20"/>
-      <c r="BN92" s="19">
+      <c r="BK92" s="19"/>
+      <c r="BL92" s="19"/>
+      <c r="BM92" s="19"/>
+      <c r="BN92" s="18">
         <v>2016</v>
       </c>
-      <c r="BO92" s="20"/>
-      <c r="BP92" s="20"/>
-      <c r="BQ92" s="20"/>
-      <c r="BR92" s="19">
+      <c r="BO92" s="19"/>
+      <c r="BP92" s="19"/>
+      <c r="BQ92" s="19"/>
+      <c r="BR92" s="18">
         <v>2017</v>
       </c>
-      <c r="BS92" s="20"/>
-      <c r="BT92" s="20"/>
-      <c r="BU92" s="20"/>
-      <c r="BV92" s="19">
+      <c r="BS92" s="19"/>
+      <c r="BT92" s="19"/>
+      <c r="BU92" s="19"/>
+      <c r="BV92" s="18">
         <v>2018</v>
       </c>
-      <c r="BW92" s="20"/>
-      <c r="BX92" s="20"/>
-      <c r="BY92" s="20"/>
-      <c r="BZ92" s="19">
+      <c r="BW92" s="19"/>
+      <c r="BX92" s="19"/>
+      <c r="BY92" s="19"/>
+      <c r="BZ92" s="18">
         <v>2019</v>
       </c>
-      <c r="CA92" s="20"/>
-      <c r="CB92" s="20"/>
-      <c r="CC92" s="20"/>
-      <c r="CD92" s="19">
+      <c r="CA92" s="19"/>
+      <c r="CB92" s="19"/>
+      <c r="CC92" s="19"/>
+      <c r="CD92" s="18">
         <v>2020</v>
       </c>
-      <c r="CE92" s="19"/>
-      <c r="CF92" s="19"/>
-      <c r="CG92" s="19"/>
-      <c r="CH92" s="19">
+      <c r="CE92" s="18"/>
+      <c r="CF92" s="18"/>
+      <c r="CG92" s="18"/>
+      <c r="CH92" s="18">
         <v>2021</v>
       </c>
-      <c r="CI92" s="19"/>
-      <c r="CJ92" s="19"/>
-      <c r="CK92" s="19"/>
-      <c r="CL92" s="19">
+      <c r="CI92" s="18"/>
+      <c r="CJ92" s="18"/>
+      <c r="CK92" s="18"/>
+      <c r="CL92" s="18">
         <v>2022</v>
       </c>
-      <c r="CM92" s="19"/>
-      <c r="CN92" s="19"/>
-      <c r="CO92" s="19"/>
-      <c r="CP92" s="17">
+      <c r="CM92" s="18"/>
+      <c r="CN92" s="18"/>
+      <c r="CO92" s="18"/>
+      <c r="CP92" s="18">
         <v>2023</v>
       </c>
+      <c r="CQ92" s="20"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34829,6 +34887,9 @@
       </c>
       <c r="CP93" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ93" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35115,9 +35176,11 @@
         <v>107.52462249903239</v>
       </c>
       <c r="CP95" s="15">
-        <v>147.66186589276793</v>
-      </c>
-      <c r="CQ95" s="9"/>
+        <v>147.66184921161283</v>
+      </c>
+      <c r="CQ95" s="15">
+        <v>168.66700117089403</v>
+      </c>
       <c r="CR95" s="9"/>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
@@ -35459,7 +35522,9 @@
       <c r="CP96" s="15">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="9"/>
+      <c r="CQ96" s="15">
+        <v>121.40481839184358</v>
+      </c>
       <c r="CR96" s="9"/>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
@@ -35801,7 +35866,9 @@
       <c r="CP97" s="15">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="9"/>
+      <c r="CQ97" s="15">
+        <v>120.22435885799769</v>
+      </c>
       <c r="CR97" s="9"/>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
@@ -36141,9 +36208,11 @@
         <v>111.50119648191861</v>
       </c>
       <c r="CP98" s="15">
-        <v>114.85141283955906</v>
-      </c>
-      <c r="CQ98" s="9"/>
+        <v>114.85141283955909</v>
+      </c>
+      <c r="CQ98" s="15">
+        <v>117.49890786574264</v>
+      </c>
       <c r="CR98" s="9"/>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
@@ -36296,7 +36365,7 @@
       <c r="CN99" s="15"/>
       <c r="CO99" s="15"/>
       <c r="CP99" s="15"/>
-      <c r="CQ99" s="9"/>
+      <c r="CQ99" s="15"/>
       <c r="CR99" s="9"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
@@ -36636,9 +36705,11 @@
         <v>106.57890741400809</v>
       </c>
       <c r="CP100" s="15">
-        <v>140.83746524140943</v>
-      </c>
-      <c r="CQ100" s="9"/>
+        <v>140.69491464841857</v>
+      </c>
+      <c r="CQ100" s="15">
+        <v>159.61449684796884</v>
+      </c>
       <c r="CR100" s="9"/>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
@@ -36792,6 +36863,7 @@
       <c r="CN101" s="13"/>
       <c r="CO101" s="13"/>
       <c r="CP101" s="13"/>
+      <c r="CQ101" s="13"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -36830,147 +36902,148 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="19">
+      <c r="B113" s="18">
         <v>2000</v>
       </c>
-      <c r="C113" s="20"/>
-      <c r="D113" s="20"/>
-      <c r="E113" s="20"/>
-      <c r="F113" s="19">
+      <c r="C113" s="19"/>
+      <c r="D113" s="19"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="18">
         <v>2001</v>
       </c>
-      <c r="G113" s="20"/>
-      <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
-      <c r="J113" s="19">
+      <c r="G113" s="19"/>
+      <c r="H113" s="19"/>
+      <c r="I113" s="19"/>
+      <c r="J113" s="18">
         <v>2002</v>
       </c>
-      <c r="K113" s="20"/>
-      <c r="L113" s="20"/>
-      <c r="M113" s="20"/>
-      <c r="N113" s="19">
+      <c r="K113" s="19"/>
+      <c r="L113" s="19"/>
+      <c r="M113" s="19"/>
+      <c r="N113" s="18">
         <v>2003</v>
       </c>
-      <c r="O113" s="20"/>
-      <c r="P113" s="20"/>
-      <c r="Q113" s="20"/>
-      <c r="R113" s="19">
+      <c r="O113" s="19"/>
+      <c r="P113" s="19"/>
+      <c r="Q113" s="19"/>
+      <c r="R113" s="18">
         <v>2004</v>
       </c>
-      <c r="S113" s="20"/>
-      <c r="T113" s="20"/>
-      <c r="U113" s="20"/>
-      <c r="V113" s="19">
+      <c r="S113" s="19"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="19"/>
+      <c r="V113" s="18">
         <v>2005</v>
       </c>
-      <c r="W113" s="20"/>
-      <c r="X113" s="20"/>
-      <c r="Y113" s="20"/>
-      <c r="Z113" s="19">
+      <c r="W113" s="19"/>
+      <c r="X113" s="19"/>
+      <c r="Y113" s="19"/>
+      <c r="Z113" s="18">
         <v>2006</v>
       </c>
-      <c r="AA113" s="20"/>
-      <c r="AB113" s="20"/>
-      <c r="AC113" s="20"/>
-      <c r="AD113" s="19">
+      <c r="AA113" s="19"/>
+      <c r="AB113" s="19"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="18">
         <v>2007</v>
       </c>
-      <c r="AE113" s="20"/>
-      <c r="AF113" s="20"/>
-      <c r="AG113" s="20"/>
-      <c r="AH113" s="19">
+      <c r="AE113" s="19"/>
+      <c r="AF113" s="19"/>
+      <c r="AG113" s="19"/>
+      <c r="AH113" s="18">
         <v>2008</v>
       </c>
-      <c r="AI113" s="20"/>
-      <c r="AJ113" s="20"/>
-      <c r="AK113" s="20"/>
-      <c r="AL113" s="19">
+      <c r="AI113" s="19"/>
+      <c r="AJ113" s="19"/>
+      <c r="AK113" s="19"/>
+      <c r="AL113" s="18">
         <v>2009</v>
       </c>
-      <c r="AM113" s="20"/>
-      <c r="AN113" s="20"/>
-      <c r="AO113" s="20"/>
-      <c r="AP113" s="19">
+      <c r="AM113" s="19"/>
+      <c r="AN113" s="19"/>
+      <c r="AO113" s="19"/>
+      <c r="AP113" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="20"/>
-      <c r="AR113" s="20"/>
-      <c r="AS113" s="20"/>
-      <c r="AT113" s="19">
+      <c r="AQ113" s="19"/>
+      <c r="AR113" s="19"/>
+      <c r="AS113" s="19"/>
+      <c r="AT113" s="18">
         <v>2011</v>
       </c>
-      <c r="AU113" s="20"/>
-      <c r="AV113" s="20"/>
-      <c r="AW113" s="20"/>
-      <c r="AX113" s="19">
+      <c r="AU113" s="19"/>
+      <c r="AV113" s="19"/>
+      <c r="AW113" s="19"/>
+      <c r="AX113" s="18">
         <v>2012</v>
       </c>
-      <c r="AY113" s="20"/>
-      <c r="AZ113" s="20"/>
-      <c r="BA113" s="20"/>
-      <c r="BB113" s="19">
+      <c r="AY113" s="19"/>
+      <c r="AZ113" s="19"/>
+      <c r="BA113" s="19"/>
+      <c r="BB113" s="18">
         <v>2013</v>
       </c>
-      <c r="BC113" s="20"/>
-      <c r="BD113" s="20"/>
-      <c r="BE113" s="20"/>
-      <c r="BF113" s="19">
+      <c r="BC113" s="19"/>
+      <c r="BD113" s="19"/>
+      <c r="BE113" s="19"/>
+      <c r="BF113" s="18">
         <v>2014</v>
       </c>
-      <c r="BG113" s="20"/>
-      <c r="BH113" s="20"/>
-      <c r="BI113" s="20"/>
-      <c r="BJ113" s="19">
+      <c r="BG113" s="19"/>
+      <c r="BH113" s="19"/>
+      <c r="BI113" s="19"/>
+      <c r="BJ113" s="18">
         <v>2015</v>
       </c>
-      <c r="BK113" s="20"/>
-      <c r="BL113" s="20"/>
-      <c r="BM113" s="20"/>
-      <c r="BN113" s="19">
+      <c r="BK113" s="19"/>
+      <c r="BL113" s="19"/>
+      <c r="BM113" s="19"/>
+      <c r="BN113" s="18">
         <v>2016</v>
       </c>
-      <c r="BO113" s="20"/>
-      <c r="BP113" s="20"/>
-      <c r="BQ113" s="20"/>
-      <c r="BR113" s="19">
+      <c r="BO113" s="19"/>
+      <c r="BP113" s="19"/>
+      <c r="BQ113" s="19"/>
+      <c r="BR113" s="18">
         <v>2017</v>
       </c>
-      <c r="BS113" s="20"/>
-      <c r="BT113" s="20"/>
-      <c r="BU113" s="20"/>
-      <c r="BV113" s="19">
+      <c r="BS113" s="19"/>
+      <c r="BT113" s="19"/>
+      <c r="BU113" s="19"/>
+      <c r="BV113" s="18">
         <v>2018</v>
       </c>
-      <c r="BW113" s="20"/>
-      <c r="BX113" s="20"/>
-      <c r="BY113" s="20"/>
-      <c r="BZ113" s="19">
+      <c r="BW113" s="19"/>
+      <c r="BX113" s="19"/>
+      <c r="BY113" s="19"/>
+      <c r="BZ113" s="18">
         <v>2019</v>
       </c>
-      <c r="CA113" s="20"/>
-      <c r="CB113" s="20"/>
-      <c r="CC113" s="20"/>
-      <c r="CD113" s="19">
+      <c r="CA113" s="19"/>
+      <c r="CB113" s="19"/>
+      <c r="CC113" s="19"/>
+      <c r="CD113" s="18">
         <v>2020</v>
       </c>
-      <c r="CE113" s="19"/>
-      <c r="CF113" s="19"/>
-      <c r="CG113" s="19"/>
-      <c r="CH113" s="19">
+      <c r="CE113" s="18"/>
+      <c r="CF113" s="18"/>
+      <c r="CG113" s="18"/>
+      <c r="CH113" s="18">
         <v>2021</v>
       </c>
-      <c r="CI113" s="19"/>
-      <c r="CJ113" s="19"/>
-      <c r="CK113" s="19"/>
-      <c r="CL113" s="19">
+      <c r="CI113" s="18"/>
+      <c r="CJ113" s="18"/>
+      <c r="CK113" s="18"/>
+      <c r="CL113" s="18">
         <v>2022</v>
       </c>
-      <c r="CM113" s="19"/>
-      <c r="CN113" s="19"/>
-      <c r="CO113" s="19"/>
-      <c r="CP113" s="17">
+      <c r="CM113" s="18"/>
+      <c r="CN113" s="18"/>
+      <c r="CO113" s="18"/>
+      <c r="CP113" s="18">
         <v>2023</v>
       </c>
+      <c r="CQ113" s="20"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37254,6 +37327,9 @@
       </c>
       <c r="CP114" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ114" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37540,9 +37616,11 @@
         <v>79.801695235134375</v>
       </c>
       <c r="CP116" s="15">
-        <v>83.819834070547344</v>
-      </c>
-      <c r="CQ116" s="9"/>
+        <v>83.470863328208949</v>
+      </c>
+      <c r="CQ116" s="15">
+        <v>85.948262625971296</v>
+      </c>
       <c r="CR116" s="9"/>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
@@ -37882,9 +37960,11 @@
         <v>2.0837428223576442</v>
       </c>
       <c r="CP117" s="15">
-        <v>1.9011080482844749</v>
-      </c>
-      <c r="CQ117" s="9"/>
+        <v>1.8954980009488629</v>
+      </c>
+      <c r="CQ117" s="15">
+        <v>1.3790831972662221</v>
+      </c>
       <c r="CR117" s="9"/>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
@@ -38224,9 +38304,11 @@
         <v>16.532127013935611</v>
       </c>
       <c r="CP118" s="15">
-        <v>13.207839437335897</v>
-      </c>
-      <c r="CQ118" s="9"/>
+        <v>13.580670844035319</v>
+      </c>
+      <c r="CQ118" s="15">
+        <v>11.801440867292847</v>
+      </c>
       <c r="CR118" s="9"/>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
@@ -38566,9 +38648,11 @@
         <v>1.5824349285723665</v>
       </c>
       <c r="CP119" s="15">
-        <v>1.07121844383229</v>
-      </c>
-      <c r="CQ119" s="9"/>
+        <v>1.0529678268068592</v>
+      </c>
+      <c r="CQ119" s="15">
+        <v>0.87121330946964937</v>
+      </c>
       <c r="CR119" s="9"/>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
@@ -39063,7 +39147,9 @@
       <c r="CP121" s="15">
         <v>100</v>
       </c>
-      <c r="CQ121" s="9"/>
+      <c r="CQ121" s="15">
+        <v>100</v>
+      </c>
       <c r="CR121" s="9"/>
       <c r="CS121" s="9"/>
       <c r="CT121" s="9"/>
@@ -39217,6 +39303,7 @@
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
       <c r="CP122" s="13"/>
+      <c r="CQ122" s="13"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39561,147 +39648,148 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="19">
+      <c r="B134" s="18">
         <v>2000</v>
       </c>
-      <c r="C134" s="20"/>
-      <c r="D134" s="20"/>
-      <c r="E134" s="20"/>
-      <c r="F134" s="19">
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="18">
         <v>2001</v>
       </c>
-      <c r="G134" s="20"/>
-      <c r="H134" s="20"/>
-      <c r="I134" s="20"/>
-      <c r="J134" s="19">
+      <c r="G134" s="19"/>
+      <c r="H134" s="19"/>
+      <c r="I134" s="19"/>
+      <c r="J134" s="18">
         <v>2002</v>
       </c>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-      <c r="N134" s="19">
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+      <c r="N134" s="18">
         <v>2003</v>
       </c>
-      <c r="O134" s="20"/>
-      <c r="P134" s="20"/>
-      <c r="Q134" s="20"/>
-      <c r="R134" s="19">
+      <c r="O134" s="19"/>
+      <c r="P134" s="19"/>
+      <c r="Q134" s="19"/>
+      <c r="R134" s="18">
         <v>2004</v>
       </c>
-      <c r="S134" s="20"/>
-      <c r="T134" s="20"/>
-      <c r="U134" s="20"/>
-      <c r="V134" s="19">
+      <c r="S134" s="19"/>
+      <c r="T134" s="19"/>
+      <c r="U134" s="19"/>
+      <c r="V134" s="18">
         <v>2005</v>
       </c>
-      <c r="W134" s="20"/>
-      <c r="X134" s="20"/>
-      <c r="Y134" s="20"/>
-      <c r="Z134" s="19">
+      <c r="W134" s="19"/>
+      <c r="X134" s="19"/>
+      <c r="Y134" s="19"/>
+      <c r="Z134" s="18">
         <v>2006</v>
       </c>
-      <c r="AA134" s="20"/>
-      <c r="AB134" s="20"/>
-      <c r="AC134" s="20"/>
-      <c r="AD134" s="19">
+      <c r="AA134" s="19"/>
+      <c r="AB134" s="19"/>
+      <c r="AC134" s="19"/>
+      <c r="AD134" s="18">
         <v>2007</v>
       </c>
-      <c r="AE134" s="20"/>
-      <c r="AF134" s="20"/>
-      <c r="AG134" s="20"/>
-      <c r="AH134" s="19">
+      <c r="AE134" s="19"/>
+      <c r="AF134" s="19"/>
+      <c r="AG134" s="19"/>
+      <c r="AH134" s="18">
         <v>2008</v>
       </c>
-      <c r="AI134" s="20"/>
-      <c r="AJ134" s="20"/>
-      <c r="AK134" s="20"/>
-      <c r="AL134" s="19">
+      <c r="AI134" s="19"/>
+      <c r="AJ134" s="19"/>
+      <c r="AK134" s="19"/>
+      <c r="AL134" s="18">
         <v>2009</v>
       </c>
-      <c r="AM134" s="20"/>
-      <c r="AN134" s="20"/>
-      <c r="AO134" s="20"/>
-      <c r="AP134" s="19">
+      <c r="AM134" s="19"/>
+      <c r="AN134" s="19"/>
+      <c r="AO134" s="19"/>
+      <c r="AP134" s="18">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="20"/>
-      <c r="AR134" s="20"/>
-      <c r="AS134" s="20"/>
-      <c r="AT134" s="19">
+      <c r="AQ134" s="19"/>
+      <c r="AR134" s="19"/>
+      <c r="AS134" s="19"/>
+      <c r="AT134" s="18">
         <v>2011</v>
       </c>
-      <c r="AU134" s="20"/>
-      <c r="AV134" s="20"/>
-      <c r="AW134" s="20"/>
-      <c r="AX134" s="19">
+      <c r="AU134" s="19"/>
+      <c r="AV134" s="19"/>
+      <c r="AW134" s="19"/>
+      <c r="AX134" s="18">
         <v>2012</v>
       </c>
-      <c r="AY134" s="20"/>
-      <c r="AZ134" s="20"/>
-      <c r="BA134" s="20"/>
-      <c r="BB134" s="19">
+      <c r="AY134" s="19"/>
+      <c r="AZ134" s="19"/>
+      <c r="BA134" s="19"/>
+      <c r="BB134" s="18">
         <v>2013</v>
       </c>
-      <c r="BC134" s="20"/>
-      <c r="BD134" s="20"/>
-      <c r="BE134" s="20"/>
-      <c r="BF134" s="19">
+      <c r="BC134" s="19"/>
+      <c r="BD134" s="19"/>
+      <c r="BE134" s="19"/>
+      <c r="BF134" s="18">
         <v>2014</v>
       </c>
-      <c r="BG134" s="20"/>
-      <c r="BH134" s="20"/>
-      <c r="BI134" s="20"/>
-      <c r="BJ134" s="19">
+      <c r="BG134" s="19"/>
+      <c r="BH134" s="19"/>
+      <c r="BI134" s="19"/>
+      <c r="BJ134" s="18">
         <v>2015</v>
       </c>
-      <c r="BK134" s="20"/>
-      <c r="BL134" s="20"/>
-      <c r="BM134" s="20"/>
-      <c r="BN134" s="19">
+      <c r="BK134" s="19"/>
+      <c r="BL134" s="19"/>
+      <c r="BM134" s="19"/>
+      <c r="BN134" s="18">
         <v>2016</v>
       </c>
-      <c r="BO134" s="20"/>
-      <c r="BP134" s="20"/>
-      <c r="BQ134" s="20"/>
-      <c r="BR134" s="19">
+      <c r="BO134" s="19"/>
+      <c r="BP134" s="19"/>
+      <c r="BQ134" s="19"/>
+      <c r="BR134" s="18">
         <v>2017</v>
       </c>
-      <c r="BS134" s="20"/>
-      <c r="BT134" s="20"/>
-      <c r="BU134" s="20"/>
-      <c r="BV134" s="19">
+      <c r="BS134" s="19"/>
+      <c r="BT134" s="19"/>
+      <c r="BU134" s="19"/>
+      <c r="BV134" s="18">
         <v>2018</v>
       </c>
-      <c r="BW134" s="20"/>
-      <c r="BX134" s="20"/>
-      <c r="BY134" s="20"/>
-      <c r="BZ134" s="19">
+      <c r="BW134" s="19"/>
+      <c r="BX134" s="19"/>
+      <c r="BY134" s="19"/>
+      <c r="BZ134" s="18">
         <v>2019</v>
       </c>
-      <c r="CA134" s="20"/>
-      <c r="CB134" s="20"/>
-      <c r="CC134" s="20"/>
-      <c r="CD134" s="19">
+      <c r="CA134" s="19"/>
+      <c r="CB134" s="19"/>
+      <c r="CC134" s="19"/>
+      <c r="CD134" s="18">
         <v>2020</v>
       </c>
-      <c r="CE134" s="19"/>
-      <c r="CF134" s="19"/>
-      <c r="CG134" s="19"/>
-      <c r="CH134" s="19">
+      <c r="CE134" s="18"/>
+      <c r="CF134" s="18"/>
+      <c r="CG134" s="18"/>
+      <c r="CH134" s="18">
         <v>2021</v>
       </c>
-      <c r="CI134" s="19"/>
-      <c r="CJ134" s="19"/>
-      <c r="CK134" s="19"/>
-      <c r="CL134" s="19">
+      <c r="CI134" s="18"/>
+      <c r="CJ134" s="18"/>
+      <c r="CK134" s="18"/>
+      <c r="CL134" s="18">
         <v>2022</v>
       </c>
-      <c r="CM134" s="19"/>
-      <c r="CN134" s="19"/>
-      <c r="CO134" s="19"/>
-      <c r="CP134" s="17">
+      <c r="CM134" s="18"/>
+      <c r="CN134" s="18"/>
+      <c r="CO134" s="18"/>
+      <c r="CP134" s="18">
         <v>2023</v>
       </c>
+      <c r="CQ134" s="20"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -39985,6 +40073,9 @@
       </c>
       <c r="CP135" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CQ135" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40271,9 +40362,11 @@
         <v>79.099812584999441</v>
       </c>
       <c r="CP137" s="15">
-        <v>79.945982641342155</v>
-      </c>
-      <c r="CQ137" s="9"/>
+        <v>79.532567513508923</v>
+      </c>
+      <c r="CQ137" s="15">
+        <v>81.335344784495035</v>
+      </c>
       <c r="CR137" s="9"/>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
@@ -40613,9 +40706,11 @@
         <v>1.9724632186139215</v>
       </c>
       <c r="CP138" s="15">
-        <v>2.3244199438404878</v>
-      </c>
-      <c r="CQ138" s="9"/>
+        <v>2.3152149791574481</v>
+      </c>
+      <c r="CQ138" s="15">
+        <v>1.8131213699663564</v>
+      </c>
       <c r="CR138" s="9"/>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
@@ -40955,9 +41050,11 @@
         <v>17.415146833431123</v>
       </c>
       <c r="CP139" s="15">
-        <v>16.416007214930652</v>
-      </c>
-      <c r="CQ139" s="9"/>
+        <v>16.862314189147401</v>
+      </c>
+      <c r="CQ139" s="15">
+        <v>15.668048172657784</v>
+      </c>
       <c r="CR139" s="9"/>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
@@ -41297,9 +41394,11 @@
         <v>1.512577362955529</v>
       </c>
       <c r="CP140" s="15">
-        <v>1.3135901998867046</v>
-      </c>
-      <c r="CQ140" s="9"/>
+        <v>1.289903318186213</v>
+      </c>
+      <c r="CQ140" s="15">
+        <v>1.1834856728808363</v>
+      </c>
       <c r="CR140" s="9"/>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
@@ -41794,7 +41893,9 @@
       <c r="CP142" s="15">
         <v>100</v>
       </c>
-      <c r="CQ142" s="9"/>
+      <c r="CQ142" s="15">
+        <v>100</v>
+      </c>
       <c r="CR142" s="9"/>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
@@ -41948,6 +42049,7 @@
       <c r="CN143" s="13"/>
       <c r="CO143" s="13"/>
       <c r="CP143" s="13"/>
+      <c r="CQ143" s="13"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -41955,18 +42057,138 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="159">
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
+  <mergeCells count="168">
+    <mergeCell ref="CP9:CQ9"/>
+    <mergeCell ref="CP30:CQ30"/>
+    <mergeCell ref="CP92:CQ92"/>
+    <mergeCell ref="CP113:CQ113"/>
+    <mergeCell ref="CP134:CQ134"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CP51:CQ51"/>
+    <mergeCell ref="CL72:CO72"/>
+    <mergeCell ref="CP72:CQ72"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CL92:CO92"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
     <mergeCell ref="BB134:BE134"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="F92:I92"/>
@@ -41991,139 +42213,28 @@
     <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
     <mergeCell ref="BR92:BU92"/>
     <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
-    <mergeCell ref="CL92:CO92"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ134:CC134"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="92" man="1"/>
-    <brk id="84" max="92" man="1"/>
-    <brk id="104" max="92" man="1"/>
+    <brk id="42" max="94" man="1"/>
+    <brk id="84" max="94" man="1"/>
+    <brk id="104" max="94" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF213BF5-74FF-4E05-9BCB-E17C5DCE6F55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F2D79-C868-4D26-B784-0CCB1AA82C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="390" windowWidth="28770" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CQ$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CR$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of August 2023</t>
+    <t>As of November 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2023</t>
+    <t>Q1 2000 to Q3 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2023</t>
+    <t>Q1 2001 to Q3 2023</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,13 +746,31 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23605,14 +23623,15 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO5" sqref="CO5"/>
+      <selection pane="topRight" activeCell="CT7" sqref="CT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="95" width="10.77734375" style="1" customWidth="1"/>
-    <col min="96" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="10.77734375" style="1" customWidth="1"/>
+    <col min="90" max="96" width="9.6640625" style="19" customWidth="1"/>
+    <col min="97" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23647,148 +23666,149 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="18">
+      <c r="B9" s="31">
         <v>2000</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31">
         <v>2001</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18">
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31">
         <v>2002</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31">
         <v>2003</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18">
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31">
         <v>2004</v>
       </c>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18">
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31">
         <v>2005</v>
       </c>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18">
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31">
         <v>2006</v>
       </c>
-      <c r="AA9" s="18"/>
-      <c r="AB9" s="18"/>
-      <c r="AC9" s="18"/>
-      <c r="AD9" s="18">
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31">
         <v>2007</v>
       </c>
-      <c r="AE9" s="18"/>
-      <c r="AF9" s="18"/>
-      <c r="AG9" s="18"/>
-      <c r="AH9" s="18">
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31">
         <v>2008</v>
       </c>
-      <c r="AI9" s="18"/>
-      <c r="AJ9" s="18"/>
-      <c r="AK9" s="18"/>
-      <c r="AL9" s="18">
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31">
         <v>2009</v>
       </c>
-      <c r="AM9" s="18"/>
-      <c r="AN9" s="18"/>
-      <c r="AO9" s="18"/>
-      <c r="AP9" s="18">
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="18"/>
-      <c r="AR9" s="18"/>
-      <c r="AS9" s="18"/>
-      <c r="AT9" s="18">
+      <c r="AQ9" s="31"/>
+      <c r="AR9" s="31"/>
+      <c r="AS9" s="31"/>
+      <c r="AT9" s="31">
         <v>2011</v>
       </c>
-      <c r="AU9" s="18"/>
-      <c r="AV9" s="18"/>
-      <c r="AW9" s="18"/>
-      <c r="AX9" s="18">
+      <c r="AU9" s="31"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31">
         <v>2012</v>
       </c>
-      <c r="AY9" s="18"/>
-      <c r="AZ9" s="18"/>
-      <c r="BA9" s="18"/>
-      <c r="BB9" s="18">
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31">
         <v>2013</v>
       </c>
-      <c r="BC9" s="18"/>
-      <c r="BD9" s="18"/>
-      <c r="BE9" s="18"/>
-      <c r="BF9" s="18">
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31">
         <v>2014</v>
       </c>
-      <c r="BG9" s="18"/>
-      <c r="BH9" s="18"/>
-      <c r="BI9" s="18"/>
-      <c r="BJ9" s="18">
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="31"/>
+      <c r="BI9" s="31"/>
+      <c r="BJ9" s="31">
         <v>2015</v>
       </c>
-      <c r="BK9" s="18"/>
-      <c r="BL9" s="18"/>
-      <c r="BM9" s="18"/>
-      <c r="BN9" s="18">
+      <c r="BK9" s="31"/>
+      <c r="BL9" s="31"/>
+      <c r="BM9" s="31"/>
+      <c r="BN9" s="31">
         <v>2016</v>
       </c>
-      <c r="BO9" s="18"/>
-      <c r="BP9" s="18"/>
-      <c r="BQ9" s="18"/>
-      <c r="BR9" s="18">
+      <c r="BO9" s="31"/>
+      <c r="BP9" s="31"/>
+      <c r="BQ9" s="31"/>
+      <c r="BR9" s="31">
         <v>2017</v>
       </c>
-      <c r="BS9" s="18"/>
-      <c r="BT9" s="18"/>
-      <c r="BU9" s="18"/>
-      <c r="BV9" s="18">
+      <c r="BS9" s="31"/>
+      <c r="BT9" s="31"/>
+      <c r="BU9" s="31"/>
+      <c r="BV9" s="31">
         <v>2018</v>
       </c>
-      <c r="BW9" s="18"/>
-      <c r="BX9" s="18"/>
-      <c r="BY9" s="18"/>
-      <c r="BZ9" s="18">
+      <c r="BW9" s="31"/>
+      <c r="BX9" s="31"/>
+      <c r="BY9" s="31"/>
+      <c r="BZ9" s="31">
         <v>2019</v>
       </c>
-      <c r="CA9" s="18"/>
-      <c r="CB9" s="18"/>
-      <c r="CC9" s="18"/>
-      <c r="CD9" s="18">
+      <c r="CA9" s="31"/>
+      <c r="CB9" s="31"/>
+      <c r="CC9" s="31"/>
+      <c r="CD9" s="31">
         <v>2020</v>
       </c>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="18"/>
-      <c r="CG9" s="18"/>
-      <c r="CH9" s="18">
+      <c r="CE9" s="31"/>
+      <c r="CF9" s="31"/>
+      <c r="CG9" s="31"/>
+      <c r="CH9" s="31">
         <v>2021</v>
       </c>
-      <c r="CI9" s="18"/>
-      <c r="CJ9" s="18"/>
-      <c r="CK9" s="18"/>
-      <c r="CL9" s="18">
+      <c r="CI9" s="31"/>
+      <c r="CJ9" s="31"/>
+      <c r="CK9" s="31"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="18"/>
-      <c r="CN9" s="18"/>
-      <c r="CO9" s="18"/>
-      <c r="CP9" s="18">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="20"/>
+      <c r="CQ9" s="30"/>
+      <c r="CR9" s="30"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24058,23 +24078,26 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CR10" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24348,25 +24371,27 @@
       <c r="CK12" s="8">
         <v>116947.88973451944</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="21">
         <v>149799.88109309287</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="21">
         <v>203560.9396497971</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="21">
         <v>131766.65399284259</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="21">
         <v>134659.95329141535</v>
       </c>
-      <c r="CP12" s="8">
+      <c r="CP12" s="21">
         <v>182682.31286621009</v>
       </c>
-      <c r="CQ12" s="8">
-        <v>236271.01400890452</v>
-      </c>
-      <c r="CR12" s="9"/>
+      <c r="CQ12" s="21">
+        <v>235633.79343278782</v>
+      </c>
+      <c r="CR12" s="21">
+        <v>141971.95773990842</v>
+      </c>
       <c r="CS12" s="9"/>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
@@ -24692,25 +24717,27 @@
       <c r="CK13" s="8">
         <v>3131.4786591923739</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="21">
         <v>3281.7999960750249</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="21">
         <v>3386.612565393008</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="21">
         <v>2665.9136282366271</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="21">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="8">
+      <c r="CP13" s="21">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="8">
+      <c r="CQ13" s="21">
         <v>3791.0875155057865</v>
       </c>
-      <c r="CR13" s="9"/>
+      <c r="CR13" s="21">
+        <v>2916.7486740041568</v>
+      </c>
       <c r="CS13" s="9"/>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
@@ -25036,25 +25063,27 @@
       <c r="CK14" s="8">
         <v>26136.660396856932</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="21">
         <v>25706.956828065187</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="21">
         <v>27496.487837448705</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="21">
         <v>22943.754739326265</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="21">
         <v>27896.844107694811</v>
       </c>
-      <c r="CP14" s="8">
+      <c r="CP14" s="21">
         <v>29722.327781706816</v>
       </c>
-      <c r="CQ14" s="8">
-        <v>32442.056596486036</v>
-      </c>
-      <c r="CR14" s="9"/>
+      <c r="CQ14" s="21">
+        <v>32870.014408591611</v>
+      </c>
+      <c r="CR14" s="21">
+        <v>26492.903741237227</v>
+      </c>
       <c r="CS14" s="9"/>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
@@ -25380,25 +25409,27 @@
       <c r="CK15" s="8">
         <v>2396.4928403397589</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CL15" s="21">
         <v>2091.9747789093585</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="21">
         <v>2218.8726489597639</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="21">
         <v>2478.9976749300654</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CO15" s="21">
         <v>2670.2517150843864</v>
       </c>
-      <c r="CP15" s="8">
+      <c r="CP15" s="21">
         <v>2304.49992134892</v>
       </c>
-      <c r="CQ15" s="8">
-        <v>2394.9576845110937</v>
-      </c>
-      <c r="CR15" s="9"/>
+      <c r="CQ15" s="21">
+        <v>2357.2866011283268</v>
+      </c>
+      <c r="CR15" s="21">
+        <v>2644.4949254504786</v>
+      </c>
       <c r="CS15" s="9"/>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
@@ -25545,13 +25576,13 @@
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
       <c r="CK16" s="10"/>
-      <c r="CL16" s="10"/>
-      <c r="CM16" s="10"/>
-      <c r="CN16" s="10"/>
-      <c r="CO16" s="10"/>
-      <c r="CP16" s="10"/>
-      <c r="CQ16" s="10"/>
-      <c r="CR16" s="9"/>
+      <c r="CL16" s="22"/>
+      <c r="CM16" s="22"/>
+      <c r="CN16" s="22"/>
+      <c r="CO16" s="22"/>
+      <c r="CP16" s="22"/>
+      <c r="CQ16" s="22"/>
+      <c r="CR16" s="22"/>
       <c r="CS16" s="9"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
@@ -25877,25 +25908,27 @@
       <c r="CK17" s="12">
         <v>148612.52163090851</v>
       </c>
-      <c r="CL17" s="12">
+      <c r="CL17" s="23">
         <v>180880.61269614243</v>
       </c>
-      <c r="CM17" s="12">
+      <c r="CM17" s="23">
         <v>236662.9127015986</v>
       </c>
-      <c r="CN17" s="12">
+      <c r="CN17" s="23">
         <v>159855.32003533552</v>
       </c>
-      <c r="CO17" s="12">
+      <c r="CO17" s="23">
         <v>168743.22393107318</v>
       </c>
-      <c r="CP17" s="12">
+      <c r="CP17" s="23">
         <v>218857.58165445097</v>
       </c>
-      <c r="CQ17" s="12">
-        <v>274899.1158054074</v>
-      </c>
-      <c r="CR17" s="9"/>
+      <c r="CQ17" s="23">
+        <v>274652.18195801356</v>
+      </c>
+      <c r="CR17" s="23">
+        <v>174026.1050806003</v>
+      </c>
       <c r="CS17" s="9"/>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
@@ -26043,12 +26076,13 @@
       <c r="CI18" s="13"/>
       <c r="CJ18" s="13"/>
       <c r="CK18" s="13"/>
-      <c r="CL18" s="13"/>
-      <c r="CM18" s="13"/>
-      <c r="CN18" s="13"/>
-      <c r="CO18" s="13"/>
-      <c r="CP18" s="13"/>
-      <c r="CQ18" s="13"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26144,13 +26178,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
+      <c r="CL20" s="25"/>
+      <c r="CM20" s="25"/>
+      <c r="CN20" s="25"/>
+      <c r="CO20" s="25"/>
+      <c r="CP20" s="25"/>
+      <c r="CQ20" s="25"/>
+      <c r="CR20" s="25"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26297,13 +26331,13 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
+      <c r="CL21" s="25"/>
+      <c r="CM21" s="25"/>
+      <c r="CN21" s="25"/>
+      <c r="CO21" s="25"/>
+      <c r="CP21" s="25"/>
+      <c r="CQ21" s="25"/>
+      <c r="CR21" s="25"/>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
@@ -26393,148 +26427,149 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="18">
+      <c r="B30" s="31">
         <v>2000</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18">
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="31">
         <v>2001</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="18">
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="31">
         <v>2002</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="18">
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="31">
         <v>2003</v>
       </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
-      <c r="R30" s="18">
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="Q30" s="32"/>
+      <c r="R30" s="31">
         <v>2004</v>
       </c>
-      <c r="S30" s="19"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="18">
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="31">
         <v>2005</v>
       </c>
-      <c r="W30" s="19"/>
-      <c r="X30" s="19"/>
-      <c r="Y30" s="19"/>
-      <c r="Z30" s="18">
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="31">
         <v>2006</v>
       </c>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="18">
+      <c r="AA30" s="32"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="32"/>
+      <c r="AD30" s="31">
         <v>2007</v>
       </c>
-      <c r="AE30" s="19"/>
-      <c r="AF30" s="19"/>
-      <c r="AG30" s="19"/>
-      <c r="AH30" s="18">
+      <c r="AE30" s="32"/>
+      <c r="AF30" s="32"/>
+      <c r="AG30" s="32"/>
+      <c r="AH30" s="31">
         <v>2008</v>
       </c>
-      <c r="AI30" s="19"/>
-      <c r="AJ30" s="19"/>
-      <c r="AK30" s="19"/>
-      <c r="AL30" s="18">
+      <c r="AI30" s="32"/>
+      <c r="AJ30" s="32"/>
+      <c r="AK30" s="32"/>
+      <c r="AL30" s="31">
         <v>2009</v>
       </c>
-      <c r="AM30" s="19"/>
-      <c r="AN30" s="19"/>
-      <c r="AO30" s="19"/>
-      <c r="AP30" s="18">
+      <c r="AM30" s="32"/>
+      <c r="AN30" s="32"/>
+      <c r="AO30" s="32"/>
+      <c r="AP30" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="19"/>
-      <c r="AR30" s="19"/>
-      <c r="AS30" s="19"/>
-      <c r="AT30" s="18">
+      <c r="AQ30" s="32"/>
+      <c r="AR30" s="32"/>
+      <c r="AS30" s="32"/>
+      <c r="AT30" s="31">
         <v>2011</v>
       </c>
-      <c r="AU30" s="19"/>
-      <c r="AV30" s="19"/>
-      <c r="AW30" s="19"/>
-      <c r="AX30" s="18">
+      <c r="AU30" s="32"/>
+      <c r="AV30" s="32"/>
+      <c r="AW30" s="32"/>
+      <c r="AX30" s="31">
         <v>2012</v>
       </c>
-      <c r="AY30" s="19"/>
-      <c r="AZ30" s="19"/>
-      <c r="BA30" s="19"/>
-      <c r="BB30" s="18">
+      <c r="AY30" s="32"/>
+      <c r="AZ30" s="32"/>
+      <c r="BA30" s="32"/>
+      <c r="BB30" s="31">
         <v>2013</v>
       </c>
-      <c r="BC30" s="19"/>
-      <c r="BD30" s="19"/>
-      <c r="BE30" s="19"/>
-      <c r="BF30" s="18">
+      <c r="BC30" s="32"/>
+      <c r="BD30" s="32"/>
+      <c r="BE30" s="32"/>
+      <c r="BF30" s="31">
         <v>2014</v>
       </c>
-      <c r="BG30" s="19"/>
-      <c r="BH30" s="19"/>
-      <c r="BI30" s="19"/>
-      <c r="BJ30" s="18">
+      <c r="BG30" s="32"/>
+      <c r="BH30" s="32"/>
+      <c r="BI30" s="32"/>
+      <c r="BJ30" s="31">
         <v>2015</v>
       </c>
-      <c r="BK30" s="19"/>
-      <c r="BL30" s="19"/>
-      <c r="BM30" s="19"/>
-      <c r="BN30" s="18">
+      <c r="BK30" s="32"/>
+      <c r="BL30" s="32"/>
+      <c r="BM30" s="32"/>
+      <c r="BN30" s="31">
         <v>2016</v>
       </c>
-      <c r="BO30" s="19"/>
-      <c r="BP30" s="19"/>
-      <c r="BQ30" s="19"/>
-      <c r="BR30" s="18">
+      <c r="BO30" s="32"/>
+      <c r="BP30" s="32"/>
+      <c r="BQ30" s="32"/>
+      <c r="BR30" s="31">
         <v>2017</v>
       </c>
-      <c r="BS30" s="19"/>
-      <c r="BT30" s="19"/>
-      <c r="BU30" s="19"/>
-      <c r="BV30" s="18">
+      <c r="BS30" s="32"/>
+      <c r="BT30" s="32"/>
+      <c r="BU30" s="32"/>
+      <c r="BV30" s="31">
         <v>2018</v>
       </c>
-      <c r="BW30" s="19"/>
-      <c r="BX30" s="19"/>
-      <c r="BY30" s="19"/>
-      <c r="BZ30" s="18">
+      <c r="BW30" s="32"/>
+      <c r="BX30" s="32"/>
+      <c r="BY30" s="32"/>
+      <c r="BZ30" s="31">
         <v>2019</v>
       </c>
-      <c r="CA30" s="19"/>
-      <c r="CB30" s="19"/>
-      <c r="CC30" s="19"/>
-      <c r="CD30" s="18">
+      <c r="CA30" s="32"/>
+      <c r="CB30" s="32"/>
+      <c r="CC30" s="32"/>
+      <c r="CD30" s="31">
         <v>2020</v>
       </c>
-      <c r="CE30" s="18"/>
-      <c r="CF30" s="18"/>
-      <c r="CG30" s="18"/>
-      <c r="CH30" s="18">
+      <c r="CE30" s="31"/>
+      <c r="CF30" s="31"/>
+      <c r="CG30" s="31"/>
+      <c r="CH30" s="31">
         <v>2021</v>
       </c>
-      <c r="CI30" s="18"/>
-      <c r="CJ30" s="18"/>
-      <c r="CK30" s="18"/>
-      <c r="CL30" s="18">
+      <c r="CI30" s="31"/>
+      <c r="CJ30" s="31"/>
+      <c r="CK30" s="31"/>
+      <c r="CL30" s="30">
         <v>2022</v>
       </c>
-      <c r="CM30" s="18"/>
-      <c r="CN30" s="18"/>
-      <c r="CO30" s="18"/>
-      <c r="CP30" s="18">
+      <c r="CM30" s="30"/>
+      <c r="CN30" s="30"/>
+      <c r="CO30" s="30"/>
+      <c r="CP30" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="20"/>
+      <c r="CQ30" s="30"/>
+      <c r="CR30" s="30"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26804,23 +26839,26 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="6" t="s">
+      <c r="CL31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="6" t="s">
+      <c r="CM31" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="6" t="s">
+      <c r="CN31" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="6" t="s">
+      <c r="CO31" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CR31" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27094,25 +27132,27 @@
       <c r="CK33" s="8">
         <v>120016.61292978798</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="21">
         <v>115951.26534221484</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="21">
         <v>133986.84916411166</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="21">
         <v>151635.88072345522</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="21">
         <v>125236.38787257974</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CP33" s="21">
         <v>123716.66333692582</v>
       </c>
-      <c r="CQ33" s="8">
-        <v>140081.35104596653</v>
-      </c>
-      <c r="CR33" s="9"/>
+      <c r="CQ33" s="21">
+        <v>139703.55303468215</v>
+      </c>
+      <c r="CR33" s="21">
+        <v>163097.95746672025</v>
+      </c>
       <c r="CS33" s="9"/>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
@@ -27438,25 +27478,27 @@
       <c r="CK34" s="8">
         <v>2957.4612432783179</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="21">
         <v>2995.4632546905109</v>
       </c>
-      <c r="CM34" s="8">
+      <c r="CM34" s="21">
         <v>2954.8050504315738</v>
       </c>
-      <c r="CN34" s="8">
+      <c r="CN34" s="21">
         <v>2569.3227630156825</v>
       </c>
-      <c r="CO34" s="8">
+      <c r="CO34" s="21">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="8">
+      <c r="CP34" s="21">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="8">
+      <c r="CQ34" s="21">
         <v>3122.6829097258346</v>
       </c>
-      <c r="CR34" s="9"/>
+      <c r="CR34" s="21">
+        <v>2606.3242432707143</v>
+      </c>
       <c r="CS34" s="9"/>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
@@ -27782,25 +27824,27 @@
       <c r="CK35" s="8">
         <v>24719.955784756323</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="21">
         <v>24260.820389665172</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CM35" s="21">
         <v>25473.702528060967</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CN35" s="21">
         <v>23057.388227622931</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CO35" s="21">
         <v>27572.885603816438</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CP35" s="21">
         <v>26230.125756544647</v>
       </c>
-      <c r="CQ35" s="8">
-        <v>26984.595222341573</v>
-      </c>
-      <c r="CR35" s="9"/>
+      <c r="CQ35" s="21">
+        <v>27345.509365607686</v>
+      </c>
+      <c r="CR35" s="21">
+        <v>24033.125554222195</v>
+      </c>
       <c r="CS35" s="9"/>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
@@ -28126,25 +28170,27 @@
       <c r="CK36" s="8">
         <v>2161.554211327069</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="21">
         <v>1884.5847292759472</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="21">
         <v>1959.4704276840453</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="21">
         <v>2200.1473327711597</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="21">
         <v>2394.8188892460926</v>
       </c>
-      <c r="CP36" s="8">
+      <c r="CP36" s="21">
         <v>2006.5055051331201</v>
       </c>
-      <c r="CQ36" s="8">
-        <v>2038.2808044885282</v>
-      </c>
-      <c r="CR36" s="9"/>
+      <c r="CQ36" s="21">
+        <v>2006.2200099951788</v>
+      </c>
+      <c r="CR36" s="21">
+        <v>2262.6833544419646</v>
+      </c>
       <c r="CS36" s="9"/>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
@@ -28291,13 +28337,13 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="10"/>
-      <c r="CM37" s="10"/>
-      <c r="CN37" s="10"/>
-      <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="9"/>
+      <c r="CL37" s="22"/>
+      <c r="CM37" s="22"/>
+      <c r="CN37" s="22"/>
+      <c r="CO37" s="22"/>
+      <c r="CP37" s="22"/>
+      <c r="CQ37" s="22"/>
+      <c r="CR37" s="22"/>
       <c r="CS37" s="9"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
@@ -28623,25 +28669,27 @@
       <c r="CK38" s="12">
         <v>149855.58416914969</v>
       </c>
-      <c r="CL38" s="12">
+      <c r="CL38" s="23">
         <v>145092.13371584649</v>
       </c>
-      <c r="CM38" s="12">
+      <c r="CM38" s="23">
         <v>164374.82717028825</v>
       </c>
-      <c r="CN38" s="12">
+      <c r="CN38" s="23">
         <v>179462.739046865</v>
       </c>
-      <c r="CO38" s="12">
+      <c r="CO38" s="23">
         <v>158327.0348940494</v>
       </c>
-      <c r="CP38" s="12">
+      <c r="CP38" s="23">
         <v>155554.72079524159</v>
       </c>
-      <c r="CQ38" s="12">
-        <v>172226.90998252245</v>
-      </c>
-      <c r="CR38" s="9"/>
+      <c r="CQ38" s="23">
+        <v>172177.96532001087</v>
+      </c>
+      <c r="CR38" s="23">
+        <v>192000.09061865514</v>
+      </c>
       <c r="CS38" s="9"/>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
@@ -28789,12 +28837,13 @@
       <c r="CI39" s="13"/>
       <c r="CJ39" s="13"/>
       <c r="CK39" s="13"/>
-      <c r="CL39" s="13"/>
-      <c r="CM39" s="13"/>
-      <c r="CN39" s="13"/>
-      <c r="CO39" s="13"/>
-      <c r="CP39" s="13"/>
-      <c r="CQ39" s="13"/>
+      <c r="CL39" s="24"/>
+      <c r="CM39" s="24"/>
+      <c r="CN39" s="24"/>
+      <c r="CO39" s="24"/>
+      <c r="CP39" s="24"/>
+      <c r="CQ39" s="24"/>
+      <c r="CR39" s="24"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -28890,13 +28939,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
+      <c r="CL41" s="25"/>
+      <c r="CM41" s="25"/>
+      <c r="CN41" s="25"/>
+      <c r="CO41" s="25"/>
+      <c r="CP41" s="25"/>
+      <c r="CQ41" s="25"/>
+      <c r="CR41" s="25"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -29043,13 +29092,13 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="9"/>
-      <c r="CM42" s="9"/>
-      <c r="CN42" s="9"/>
-      <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
+      <c r="CL42" s="25"/>
+      <c r="CM42" s="25"/>
+      <c r="CN42" s="25"/>
+      <c r="CO42" s="25"/>
+      <c r="CP42" s="25"/>
+      <c r="CQ42" s="25"/>
+      <c r="CR42" s="25"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -29139,146 +29188,147 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18" t="s">
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18" t="s">
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="18"/>
-      <c r="P51" s="18"/>
-      <c r="Q51" s="18"/>
-      <c r="R51" s="18" t="s">
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="18"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18" t="s">
+      <c r="S51" s="31"/>
+      <c r="T51" s="31"/>
+      <c r="U51" s="31"/>
+      <c r="V51" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="18"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="18"/>
-      <c r="Z51" s="18" t="s">
+      <c r="W51" s="31"/>
+      <c r="X51" s="31"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="18"/>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18" t="s">
+      <c r="AA51" s="31"/>
+      <c r="AB51" s="31"/>
+      <c r="AC51" s="31"/>
+      <c r="AD51" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="18"/>
-      <c r="AF51" s="18"/>
-      <c r="AG51" s="18"/>
-      <c r="AH51" s="18" t="s">
+      <c r="AE51" s="31"/>
+      <c r="AF51" s="31"/>
+      <c r="AG51" s="31"/>
+      <c r="AH51" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="18"/>
-      <c r="AJ51" s="18"/>
-      <c r="AK51" s="18"/>
-      <c r="AL51" s="18" t="s">
+      <c r="AI51" s="31"/>
+      <c r="AJ51" s="31"/>
+      <c r="AK51" s="31"/>
+      <c r="AL51" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="18"/>
-      <c r="AN51" s="18"/>
-      <c r="AO51" s="18"/>
-      <c r="AP51" s="18" t="s">
+      <c r="AM51" s="31"/>
+      <c r="AN51" s="31"/>
+      <c r="AO51" s="31"/>
+      <c r="AP51" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="18"/>
-      <c r="AR51" s="18"/>
-      <c r="AS51" s="18"/>
-      <c r="AT51" s="18" t="s">
+      <c r="AQ51" s="31"/>
+      <c r="AR51" s="31"/>
+      <c r="AS51" s="31"/>
+      <c r="AT51" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="18"/>
-      <c r="AV51" s="18"/>
-      <c r="AW51" s="18"/>
-      <c r="AX51" s="18" t="s">
+      <c r="AU51" s="31"/>
+      <c r="AV51" s="31"/>
+      <c r="AW51" s="31"/>
+      <c r="AX51" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="18"/>
-      <c r="AZ51" s="18"/>
-      <c r="BA51" s="18"/>
-      <c r="BB51" s="18" t="s">
+      <c r="AY51" s="31"/>
+      <c r="AZ51" s="31"/>
+      <c r="BA51" s="31"/>
+      <c r="BB51" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="18"/>
-      <c r="BD51" s="18"/>
-      <c r="BE51" s="18"/>
-      <c r="BF51" s="18" t="s">
+      <c r="BC51" s="31"/>
+      <c r="BD51" s="31"/>
+      <c r="BE51" s="31"/>
+      <c r="BF51" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="18"/>
-      <c r="BH51" s="18"/>
-      <c r="BI51" s="18"/>
-      <c r="BJ51" s="18" t="s">
+      <c r="BG51" s="31"/>
+      <c r="BH51" s="31"/>
+      <c r="BI51" s="31"/>
+      <c r="BJ51" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="18"/>
-      <c r="BL51" s="18"/>
-      <c r="BM51" s="18"/>
-      <c r="BN51" s="18" t="s">
+      <c r="BK51" s="31"/>
+      <c r="BL51" s="31"/>
+      <c r="BM51" s="31"/>
+      <c r="BN51" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="18"/>
-      <c r="BP51" s="18"/>
-      <c r="BQ51" s="18"/>
-      <c r="BR51" s="18" t="s">
+      <c r="BO51" s="31"/>
+      <c r="BP51" s="31"/>
+      <c r="BQ51" s="31"/>
+      <c r="BR51" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="18"/>
-      <c r="BT51" s="18"/>
-      <c r="BU51" s="18"/>
-      <c r="BV51" s="18" t="s">
+      <c r="BS51" s="31"/>
+      <c r="BT51" s="31"/>
+      <c r="BU51" s="31"/>
+      <c r="BV51" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="18"/>
-      <c r="BX51" s="18"/>
-      <c r="BY51" s="18"/>
-      <c r="BZ51" s="18" t="s">
+      <c r="BW51" s="31"/>
+      <c r="BX51" s="31"/>
+      <c r="BY51" s="31"/>
+      <c r="BZ51" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="18"/>
-      <c r="CB51" s="18"/>
-      <c r="CC51" s="18"/>
-      <c r="CD51" s="18" t="s">
+      <c r="CA51" s="31"/>
+      <c r="CB51" s="31"/>
+      <c r="CC51" s="31"/>
+      <c r="CD51" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="18"/>
-      <c r="CF51" s="18"/>
-      <c r="CG51" s="18"/>
-      <c r="CH51" s="18" t="s">
+      <c r="CE51" s="31"/>
+      <c r="CF51" s="31"/>
+      <c r="CG51" s="31"/>
+      <c r="CH51" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="18"/>
-      <c r="CJ51" s="18"/>
-      <c r="CK51" s="18"/>
-      <c r="CL51" s="18" t="s">
+      <c r="CI51" s="31"/>
+      <c r="CJ51" s="31"/>
+      <c r="CK51" s="31"/>
+      <c r="CL51" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="18"/>
-      <c r="CN51" s="18"/>
-      <c r="CO51" s="18"/>
+      <c r="CM51" s="30"/>
+      <c r="CN51" s="30"/>
+      <c r="CO51" s="26"/>
       <c r="CP51" s="18"/>
-      <c r="CQ51" s="20"/>
+      <c r="CQ51" s="18"/>
+      <c r="CR51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29548,16 +29598,19 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5" t="s">
+      <c r="CL52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5" t="s">
+      <c r="CM52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="5"/>
-      <c r="CO52" s="5"/>
-      <c r="CP52" s="5"/>
-      <c r="CQ52" s="5"/>
+      <c r="CN52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO52" s="27"/>
+      <c r="CP52" s="27"/>
+      <c r="CQ52" s="27"/>
+      <c r="CR52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29830,17 +29883,19 @@
       <c r="CK54" s="15">
         <v>15.145261361366707</v>
       </c>
-      <c r="CL54" s="15">
+      <c r="CL54" s="28">
         <v>21.950906458118283</v>
       </c>
-      <c r="CM54" s="15">
-        <v>16.068934646981532</v>
-      </c>
-      <c r="CN54" s="15"/>
-      <c r="CO54" s="15"/>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
-      <c r="CR54" s="9"/>
+      <c r="CM54" s="28">
+        <v>15.7558978840284</v>
+      </c>
+      <c r="CN54" s="28">
+        <v>7.7449820859989131</v>
+      </c>
+      <c r="CO54" s="28"/>
+      <c r="CP54" s="28"/>
+      <c r="CQ54" s="28"/>
+      <c r="CR54" s="28"/>
       <c r="CS54" s="9"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
@@ -30162,17 +30217,19 @@
       <c r="CK55" s="15">
         <v>12.284808537876657</v>
       </c>
-      <c r="CL55" s="15">
+      <c r="CL55" s="28">
         <v>26.40749253905193</v>
       </c>
-      <c r="CM55" s="15">
+      <c r="CM55" s="28">
         <v>11.943348768206079</v>
       </c>
-      <c r="CN55" s="15"/>
-      <c r="CO55" s="15"/>
-      <c r="CP55" s="15"/>
-      <c r="CQ55" s="15"/>
-      <c r="CR55" s="9"/>
+      <c r="CN55" s="28">
+        <v>9.4089712101230134</v>
+      </c>
+      <c r="CO55" s="28"/>
+      <c r="CP55" s="28"/>
+      <c r="CQ55" s="28"/>
+      <c r="CR55" s="28"/>
       <c r="CS55" s="9"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
@@ -30494,17 +30551,19 @@
       <c r="CK56" s="15">
         <v>6.734539471039497</v>
       </c>
-      <c r="CL56" s="15">
+      <c r="CL56" s="28">
         <v>15.619783315845098</v>
       </c>
-      <c r="CM56" s="15">
-        <v>17.986183501958891</v>
-      </c>
-      <c r="CN56" s="15"/>
-      <c r="CO56" s="15"/>
-      <c r="CP56" s="15"/>
-      <c r="CQ56" s="15"/>
-      <c r="CR56" s="9"/>
+      <c r="CM56" s="28">
+        <v>19.542592504576021</v>
+      </c>
+      <c r="CN56" s="28">
+        <v>15.468911005344822</v>
+      </c>
+      <c r="CO56" s="28"/>
+      <c r="CP56" s="28"/>
+      <c r="CQ56" s="28"/>
+      <c r="CR56" s="28"/>
       <c r="CS56" s="9"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
@@ -30826,17 +30885,19 @@
       <c r="CK57" s="15">
         <v>11.423312856875299</v>
       </c>
-      <c r="CL57" s="15">
+      <c r="CL57" s="28">
         <v>10.159068100733066</v>
       </c>
-      <c r="CM57" s="15">
-        <v>7.935788276712529</v>
-      </c>
-      <c r="CN57" s="15"/>
-      <c r="CO57" s="15"/>
-      <c r="CP57" s="15"/>
-      <c r="CQ57" s="15"/>
-      <c r="CR57" s="9"/>
+      <c r="CM57" s="28">
+        <v>6.2380304806340661</v>
+      </c>
+      <c r="CN57" s="28">
+        <v>6.6759744147433224</v>
+      </c>
+      <c r="CO57" s="28"/>
+      <c r="CP57" s="28"/>
+      <c r="CQ57" s="28"/>
+      <c r="CR57" s="28"/>
       <c r="CS57" s="9"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
@@ -30979,13 +31040,13 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="9"/>
-      <c r="CM58" s="9"/>
-      <c r="CN58" s="9"/>
-      <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
+      <c r="CL58" s="25"/>
+      <c r="CM58" s="25"/>
+      <c r="CN58" s="25"/>
+      <c r="CO58" s="25"/>
+      <c r="CP58" s="25"/>
+      <c r="CQ58" s="25"/>
+      <c r="CR58" s="25"/>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
@@ -31307,17 +31368,19 @@
       <c r="CK59" s="15">
         <v>13.545764568991657</v>
       </c>
-      <c r="CL59" s="15">
+      <c r="CL59" s="28">
         <v>20.995599468753042</v>
       </c>
-      <c r="CM59" s="15">
-        <v>16.156398426490995</v>
-      </c>
-      <c r="CN59" s="15"/>
-      <c r="CO59" s="15"/>
-      <c r="CP59" s="15"/>
-      <c r="CQ59" s="15"/>
-      <c r="CR59" s="9"/>
+      <c r="CM59" s="28">
+        <v>16.052058526092154</v>
+      </c>
+      <c r="CN59" s="28">
+        <v>8.8647566074950674</v>
+      </c>
+      <c r="CO59" s="28"/>
+      <c r="CP59" s="28"/>
+      <c r="CQ59" s="28"/>
+      <c r="CR59" s="28"/>
       <c r="CS59" s="9"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
@@ -31461,12 +31524,13 @@
       <c r="CI60" s="13"/>
       <c r="CJ60" s="13"/>
       <c r="CK60" s="13"/>
-      <c r="CL60" s="13"/>
-      <c r="CM60" s="13"/>
-      <c r="CN60" s="13"/>
-      <c r="CO60" s="13"/>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
+      <c r="CL60" s="24"/>
+      <c r="CM60" s="24"/>
+      <c r="CN60" s="24"/>
+      <c r="CO60" s="24"/>
+      <c r="CP60" s="24"/>
+      <c r="CQ60" s="24"/>
+      <c r="CR60" s="24"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31562,13 +31626,13 @@
       <c r="CI62" s="17"/>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="17"/>
-      <c r="CL62" s="17"/>
-      <c r="CM62" s="17"/>
-      <c r="CN62" s="17"/>
-      <c r="CO62" s="17"/>
-      <c r="CP62" s="17"/>
-      <c r="CQ62" s="17"/>
-      <c r="CR62" s="9"/>
+      <c r="CL62" s="29"/>
+      <c r="CM62" s="29"/>
+      <c r="CN62" s="29"/>
+      <c r="CO62" s="29"/>
+      <c r="CP62" s="29"/>
+      <c r="CQ62" s="29"/>
+      <c r="CR62" s="29"/>
       <c r="CS62" s="9"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
@@ -31711,13 +31775,13 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="9"/>
-      <c r="CM63" s="9"/>
-      <c r="CN63" s="9"/>
-      <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
+      <c r="CL63" s="25"/>
+      <c r="CM63" s="25"/>
+      <c r="CN63" s="25"/>
+      <c r="CO63" s="25"/>
+      <c r="CP63" s="25"/>
+      <c r="CQ63" s="25"/>
+      <c r="CR63" s="25"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -31803,146 +31867,147 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="18" t="s">
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="18" t="s">
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="18" t="s">
+      <c r="K72" s="30"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="18" t="s">
+      <c r="O72" s="30"/>
+      <c r="P72" s="30"/>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="18" t="s">
+      <c r="S72" s="30"/>
+      <c r="T72" s="30"/>
+      <c r="U72" s="30"/>
+      <c r="V72" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="20"/>
-      <c r="X72" s="20"/>
-      <c r="Y72" s="20"/>
-      <c r="Z72" s="18" t="s">
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="20"/>
-      <c r="AB72" s="20"/>
-      <c r="AC72" s="20"/>
-      <c r="AD72" s="18" t="s">
+      <c r="AA72" s="30"/>
+      <c r="AB72" s="30"/>
+      <c r="AC72" s="30"/>
+      <c r="AD72" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="20"/>
-      <c r="AF72" s="20"/>
-      <c r="AG72" s="20"/>
-      <c r="AH72" s="18" t="s">
+      <c r="AE72" s="30"/>
+      <c r="AF72" s="30"/>
+      <c r="AG72" s="30"/>
+      <c r="AH72" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="20"/>
-      <c r="AJ72" s="20"/>
-      <c r="AK72" s="20"/>
-      <c r="AL72" s="18" t="s">
+      <c r="AI72" s="30"/>
+      <c r="AJ72" s="30"/>
+      <c r="AK72" s="30"/>
+      <c r="AL72" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="20"/>
-      <c r="AN72" s="20"/>
-      <c r="AO72" s="20"/>
-      <c r="AP72" s="18" t="s">
+      <c r="AM72" s="30"/>
+      <c r="AN72" s="30"/>
+      <c r="AO72" s="30"/>
+      <c r="AP72" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="20"/>
-      <c r="AR72" s="20"/>
-      <c r="AS72" s="20"/>
-      <c r="AT72" s="18" t="s">
+      <c r="AQ72" s="30"/>
+      <c r="AR72" s="30"/>
+      <c r="AS72" s="30"/>
+      <c r="AT72" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="20"/>
-      <c r="AV72" s="20"/>
-      <c r="AW72" s="20"/>
-      <c r="AX72" s="18" t="s">
+      <c r="AU72" s="30"/>
+      <c r="AV72" s="30"/>
+      <c r="AW72" s="30"/>
+      <c r="AX72" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="20"/>
-      <c r="AZ72" s="20"/>
-      <c r="BA72" s="20"/>
-      <c r="BB72" s="18" t="s">
+      <c r="AY72" s="30"/>
+      <c r="AZ72" s="30"/>
+      <c r="BA72" s="30"/>
+      <c r="BB72" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="20"/>
-      <c r="BD72" s="20"/>
-      <c r="BE72" s="20"/>
-      <c r="BF72" s="18" t="s">
+      <c r="BC72" s="30"/>
+      <c r="BD72" s="30"/>
+      <c r="BE72" s="30"/>
+      <c r="BF72" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="20"/>
-      <c r="BH72" s="20"/>
-      <c r="BI72" s="20"/>
-      <c r="BJ72" s="18" t="s">
+      <c r="BG72" s="30"/>
+      <c r="BH72" s="30"/>
+      <c r="BI72" s="30"/>
+      <c r="BJ72" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="20"/>
-      <c r="BL72" s="20"/>
-      <c r="BM72" s="20"/>
-      <c r="BN72" s="18" t="s">
+      <c r="BK72" s="30"/>
+      <c r="BL72" s="30"/>
+      <c r="BM72" s="30"/>
+      <c r="BN72" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="20"/>
-      <c r="BP72" s="20"/>
-      <c r="BQ72" s="20"/>
-      <c r="BR72" s="18" t="s">
+      <c r="BO72" s="30"/>
+      <c r="BP72" s="30"/>
+      <c r="BQ72" s="30"/>
+      <c r="BR72" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="20"/>
-      <c r="BT72" s="20"/>
-      <c r="BU72" s="20"/>
-      <c r="BV72" s="18" t="s">
+      <c r="BS72" s="30"/>
+      <c r="BT72" s="30"/>
+      <c r="BU72" s="30"/>
+      <c r="BV72" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="20"/>
-      <c r="BX72" s="20"/>
-      <c r="BY72" s="20"/>
-      <c r="BZ72" s="18" t="s">
+      <c r="BW72" s="30"/>
+      <c r="BX72" s="30"/>
+      <c r="BY72" s="30"/>
+      <c r="BZ72" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="20"/>
-      <c r="CB72" s="20"/>
-      <c r="CC72" s="20"/>
-      <c r="CD72" s="18" t="s">
+      <c r="CA72" s="30"/>
+      <c r="CB72" s="30"/>
+      <c r="CC72" s="30"/>
+      <c r="CD72" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="18"/>
-      <c r="CF72" s="18"/>
-      <c r="CG72" s="18"/>
-      <c r="CH72" s="18" t="s">
+      <c r="CE72" s="31"/>
+      <c r="CF72" s="31"/>
+      <c r="CG72" s="31"/>
+      <c r="CH72" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="18"/>
-      <c r="CJ72" s="18"/>
-      <c r="CK72" s="18"/>
-      <c r="CL72" s="18" t="s">
+      <c r="CI72" s="31"/>
+      <c r="CJ72" s="31"/>
+      <c r="CK72" s="31"/>
+      <c r="CL72" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="18"/>
-      <c r="CN72" s="18"/>
-      <c r="CO72" s="18"/>
+      <c r="CM72" s="30"/>
+      <c r="CN72" s="30"/>
+      <c r="CO72" s="26"/>
       <c r="CP72" s="18"/>
-      <c r="CQ72" s="20"/>
+      <c r="CQ72" s="18"/>
+      <c r="CR72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32212,16 +32277,19 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5" t="s">
+      <c r="CL73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5" t="s">
+      <c r="CM73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="5"/>
-      <c r="CO73" s="5"/>
-      <c r="CP73" s="5"/>
-      <c r="CQ73" s="5"/>
+      <c r="CN73" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CO73" s="27"/>
+      <c r="CP73" s="27"/>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32494,17 +32562,19 @@
       <c r="CK75" s="15">
         <v>4.3492103429426265</v>
       </c>
-      <c r="CL75" s="15">
+      <c r="CL75" s="28">
         <v>6.6971222537265334</v>
       </c>
-      <c r="CM75" s="15">
-        <v>4.5485821331540564</v>
-      </c>
-      <c r="CN75" s="15"/>
-      <c r="CO75" s="15"/>
-      <c r="CP75" s="15"/>
-      <c r="CQ75" s="15"/>
-      <c r="CR75" s="9"/>
+      <c r="CM75" s="28">
+        <v>4.266615646412049</v>
+      </c>
+      <c r="CN75" s="28">
+        <v>7.5589475845554688</v>
+      </c>
+      <c r="CO75" s="28"/>
+      <c r="CP75" s="28"/>
+      <c r="CQ75" s="28"/>
+      <c r="CR75" s="28"/>
       <c r="CS75" s="9"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
@@ -32826,17 +32896,19 @@
       <c r="CK76" s="15">
         <v>5.5953830504098505</v>
       </c>
-      <c r="CL76" s="15">
+      <c r="CL76" s="28">
         <v>20.229356544387841</v>
       </c>
-      <c r="CM76" s="15">
+      <c r="CM76" s="28">
         <v>5.6815206563201457</v>
       </c>
-      <c r="CN76" s="15"/>
-      <c r="CO76" s="15"/>
-      <c r="CP76" s="15"/>
-      <c r="CQ76" s="15"/>
-      <c r="CR76" s="9"/>
+      <c r="CN76" s="28">
+        <v>1.4401258101026713</v>
+      </c>
+      <c r="CO76" s="28"/>
+      <c r="CP76" s="28"/>
+      <c r="CQ76" s="28"/>
+      <c r="CR76" s="28"/>
       <c r="CS76" s="9"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
@@ -33158,17 +33230,19 @@
       <c r="CK77" s="15">
         <v>11.540998875165414</v>
       </c>
-      <c r="CL77" s="15">
+      <c r="CL77" s="28">
         <v>8.1172249546778659</v>
       </c>
-      <c r="CM77" s="15">
-        <v>5.9311860638093634</v>
-      </c>
-      <c r="CN77" s="15"/>
-      <c r="CO77" s="15"/>
-      <c r="CP77" s="15"/>
-      <c r="CQ77" s="15"/>
-      <c r="CR77" s="9"/>
+      <c r="CM77" s="28">
+        <v>7.3479967644467905</v>
+      </c>
+      <c r="CN77" s="28">
+        <v>4.2317773243299257</v>
+      </c>
+      <c r="CO77" s="28"/>
+      <c r="CP77" s="28"/>
+      <c r="CQ77" s="28"/>
+      <c r="CR77" s="28"/>
       <c r="CS77" s="9"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
@@ -33490,17 +33564,19 @@
       <c r="CK78" s="15">
         <v>10.791525685391562</v>
       </c>
-      <c r="CL78" s="15">
+      <c r="CL78" s="28">
         <v>6.46937088915152</v>
       </c>
-      <c r="CM78" s="15">
-        <v>4.0220243026393092</v>
-      </c>
-      <c r="CN78" s="15"/>
-      <c r="CO78" s="15"/>
-      <c r="CP78" s="15"/>
-      <c r="CQ78" s="15"/>
-      <c r="CR78" s="9"/>
+      <c r="CM78" s="28">
+        <v>2.3858273975784385</v>
+      </c>
+      <c r="CN78" s="28">
+        <v>2.8423560885824344</v>
+      </c>
+      <c r="CO78" s="28"/>
+      <c r="CP78" s="28"/>
+      <c r="CQ78" s="28"/>
+      <c r="CR78" s="28"/>
       <c r="CS78" s="9"/>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
@@ -33643,13 +33719,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
+      <c r="CL79" s="25"/>
+      <c r="CM79" s="25"/>
+      <c r="CN79" s="25"/>
+      <c r="CO79" s="25"/>
+      <c r="CP79" s="25"/>
+      <c r="CQ79" s="25"/>
+      <c r="CR79" s="25"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -33971,17 +34047,19 @@
       <c r="CK80" s="15">
         <v>5.6530764414741697</v>
       </c>
-      <c r="CL80" s="15">
+      <c r="CL80" s="28">
         <v>7.2109953940613991</v>
       </c>
-      <c r="CM80" s="15">
-        <v>4.7769375319857659</v>
-      </c>
-      <c r="CN80" s="15"/>
-      <c r="CO80" s="15"/>
-      <c r="CP80" s="15"/>
-      <c r="CQ80" s="15"/>
-      <c r="CR80" s="9"/>
+      <c r="CM80" s="28">
+        <v>4.7471612801385703</v>
+      </c>
+      <c r="CN80" s="28">
+        <v>6.9860471529503059</v>
+      </c>
+      <c r="CO80" s="28"/>
+      <c r="CP80" s="28"/>
+      <c r="CQ80" s="28"/>
+      <c r="CR80" s="28"/>
       <c r="CS80" s="9"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
@@ -34125,12 +34203,13 @@
       <c r="CI81" s="13"/>
       <c r="CJ81" s="13"/>
       <c r="CK81" s="13"/>
-      <c r="CL81" s="13"/>
-      <c r="CM81" s="13"/>
-      <c r="CN81" s="13"/>
-      <c r="CO81" s="13"/>
-      <c r="CP81" s="13"/>
-      <c r="CQ81" s="13"/>
+      <c r="CL81" s="24"/>
+      <c r="CM81" s="24"/>
+      <c r="CN81" s="24"/>
+      <c r="CO81" s="24"/>
+      <c r="CP81" s="24"/>
+      <c r="CQ81" s="24"/>
+      <c r="CR81" s="24"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34226,13 +34305,13 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
-      <c r="CN83" s="9"/>
-      <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
+      <c r="CL83" s="25"/>
+      <c r="CM83" s="25"/>
+      <c r="CN83" s="25"/>
+      <c r="CO83" s="25"/>
+      <c r="CP83" s="25"/>
+      <c r="CQ83" s="25"/>
+      <c r="CR83" s="25"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
@@ -34375,13 +34454,13 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
-      <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
+      <c r="CL84" s="25"/>
+      <c r="CM84" s="25"/>
+      <c r="CN84" s="25"/>
+      <c r="CO84" s="25"/>
+      <c r="CP84" s="25"/>
+      <c r="CQ84" s="25"/>
+      <c r="CR84" s="25"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -34462,148 +34541,149 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="18">
+      <c r="B92" s="31">
         <v>2000</v>
       </c>
-      <c r="C92" s="19"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="18">
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="31">
         <v>2001</v>
       </c>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="18">
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="31">
         <v>2002</v>
       </c>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="18">
+      <c r="K92" s="32"/>
+      <c r="L92" s="32"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="31">
         <v>2003</v>
       </c>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="18">
+      <c r="O92" s="32"/>
+      <c r="P92" s="32"/>
+      <c r="Q92" s="32"/>
+      <c r="R92" s="31">
         <v>2004</v>
       </c>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="18">
+      <c r="S92" s="32"/>
+      <c r="T92" s="32"/>
+      <c r="U92" s="32"/>
+      <c r="V92" s="31">
         <v>2005</v>
       </c>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="18">
+      <c r="W92" s="32"/>
+      <c r="X92" s="32"/>
+      <c r="Y92" s="32"/>
+      <c r="Z92" s="31">
         <v>2006</v>
       </c>
-      <c r="AA92" s="19"/>
-      <c r="AB92" s="19"/>
-      <c r="AC92" s="19"/>
-      <c r="AD92" s="18">
+      <c r="AA92" s="32"/>
+      <c r="AB92" s="32"/>
+      <c r="AC92" s="32"/>
+      <c r="AD92" s="31">
         <v>2007</v>
       </c>
-      <c r="AE92" s="19"/>
-      <c r="AF92" s="19"/>
-      <c r="AG92" s="19"/>
-      <c r="AH92" s="18">
+      <c r="AE92" s="32"/>
+      <c r="AF92" s="32"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="31">
         <v>2008</v>
       </c>
-      <c r="AI92" s="19"/>
-      <c r="AJ92" s="19"/>
-      <c r="AK92" s="19"/>
-      <c r="AL92" s="18">
+      <c r="AI92" s="32"/>
+      <c r="AJ92" s="32"/>
+      <c r="AK92" s="32"/>
+      <c r="AL92" s="31">
         <v>2009</v>
       </c>
-      <c r="AM92" s="19"/>
-      <c r="AN92" s="19"/>
-      <c r="AO92" s="19"/>
-      <c r="AP92" s="18">
+      <c r="AM92" s="32"/>
+      <c r="AN92" s="32"/>
+      <c r="AO92" s="32"/>
+      <c r="AP92" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="19"/>
-      <c r="AR92" s="19"/>
-      <c r="AS92" s="19"/>
-      <c r="AT92" s="18">
+      <c r="AQ92" s="32"/>
+      <c r="AR92" s="32"/>
+      <c r="AS92" s="32"/>
+      <c r="AT92" s="31">
         <v>2011</v>
       </c>
-      <c r="AU92" s="19"/>
-      <c r="AV92" s="19"/>
-      <c r="AW92" s="19"/>
-      <c r="AX92" s="18">
+      <c r="AU92" s="32"/>
+      <c r="AV92" s="32"/>
+      <c r="AW92" s="32"/>
+      <c r="AX92" s="31">
         <v>2012</v>
       </c>
-      <c r="AY92" s="19"/>
-      <c r="AZ92" s="19"/>
-      <c r="BA92" s="19"/>
-      <c r="BB92" s="18">
+      <c r="AY92" s="32"/>
+      <c r="AZ92" s="32"/>
+      <c r="BA92" s="32"/>
+      <c r="BB92" s="31">
         <v>2013</v>
       </c>
-      <c r="BC92" s="19"/>
-      <c r="BD92" s="19"/>
-      <c r="BE92" s="19"/>
-      <c r="BF92" s="18">
+      <c r="BC92" s="32"/>
+      <c r="BD92" s="32"/>
+      <c r="BE92" s="32"/>
+      <c r="BF92" s="31">
         <v>2014</v>
       </c>
-      <c r="BG92" s="19"/>
-      <c r="BH92" s="19"/>
-      <c r="BI92" s="19"/>
-      <c r="BJ92" s="18">
+      <c r="BG92" s="32"/>
+      <c r="BH92" s="32"/>
+      <c r="BI92" s="32"/>
+      <c r="BJ92" s="31">
         <v>2015</v>
       </c>
-      <c r="BK92" s="19"/>
-      <c r="BL92" s="19"/>
-      <c r="BM92" s="19"/>
-      <c r="BN92" s="18">
+      <c r="BK92" s="32"/>
+      <c r="BL92" s="32"/>
+      <c r="BM92" s="32"/>
+      <c r="BN92" s="31">
         <v>2016</v>
       </c>
-      <c r="BO92" s="19"/>
-      <c r="BP92" s="19"/>
-      <c r="BQ92" s="19"/>
-      <c r="BR92" s="18">
+      <c r="BO92" s="32"/>
+      <c r="BP92" s="32"/>
+      <c r="BQ92" s="32"/>
+      <c r="BR92" s="31">
         <v>2017</v>
       </c>
-      <c r="BS92" s="19"/>
-      <c r="BT92" s="19"/>
-      <c r="BU92" s="19"/>
-      <c r="BV92" s="18">
+      <c r="BS92" s="32"/>
+      <c r="BT92" s="32"/>
+      <c r="BU92" s="32"/>
+      <c r="BV92" s="31">
         <v>2018</v>
       </c>
-      <c r="BW92" s="19"/>
-      <c r="BX92" s="19"/>
-      <c r="BY92" s="19"/>
-      <c r="BZ92" s="18">
+      <c r="BW92" s="32"/>
+      <c r="BX92" s="32"/>
+      <c r="BY92" s="32"/>
+      <c r="BZ92" s="31">
         <v>2019</v>
       </c>
-      <c r="CA92" s="19"/>
-      <c r="CB92" s="19"/>
-      <c r="CC92" s="19"/>
-      <c r="CD92" s="18">
+      <c r="CA92" s="32"/>
+      <c r="CB92" s="32"/>
+      <c r="CC92" s="32"/>
+      <c r="CD92" s="31">
         <v>2020</v>
       </c>
-      <c r="CE92" s="18"/>
-      <c r="CF92" s="18"/>
-      <c r="CG92" s="18"/>
-      <c r="CH92" s="18">
+      <c r="CE92" s="31"/>
+      <c r="CF92" s="31"/>
+      <c r="CG92" s="31"/>
+      <c r="CH92" s="31">
         <v>2021</v>
       </c>
-      <c r="CI92" s="18"/>
-      <c r="CJ92" s="18"/>
-      <c r="CK92" s="18"/>
-      <c r="CL92" s="18">
+      <c r="CI92" s="31"/>
+      <c r="CJ92" s="31"/>
+      <c r="CK92" s="31"/>
+      <c r="CL92" s="30">
         <v>2022</v>
       </c>
-      <c r="CM92" s="18"/>
-      <c r="CN92" s="18"/>
-      <c r="CO92" s="18"/>
-      <c r="CP92" s="18">
+      <c r="CM92" s="30"/>
+      <c r="CN92" s="30"/>
+      <c r="CO92" s="30"/>
+      <c r="CP92" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="20"/>
+      <c r="CQ92" s="30"/>
+      <c r="CR92" s="30"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34873,23 +34953,26 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="6" t="s">
+      <c r="CL93" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="6" t="s">
+      <c r="CM93" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="6" t="s">
+      <c r="CN93" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="6" t="s">
+      <c r="CO93" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CR93" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35163,25 +35246,27 @@
       <c r="CK95" s="15">
         <v>97.443084652735706</v>
       </c>
-      <c r="CL95" s="15">
+      <c r="CL95" s="28">
         <v>129.1921055375966</v>
       </c>
-      <c r="CM95" s="15">
+      <c r="CM95" s="28">
         <v>151.92605910186657</v>
       </c>
-      <c r="CN95" s="15">
+      <c r="CN95" s="28">
         <v>86.896751193835854</v>
       </c>
-      <c r="CO95" s="15">
+      <c r="CO95" s="28">
         <v>107.52462249903239</v>
       </c>
-      <c r="CP95" s="15">
+      <c r="CP95" s="28">
         <v>147.66184921161283</v>
       </c>
-      <c r="CQ95" s="15">
-        <v>168.66700117089403</v>
-      </c>
-      <c r="CR95" s="9"/>
+      <c r="CQ95" s="28">
+        <v>168.66700117089397</v>
+      </c>
+      <c r="CR95" s="28">
+        <v>87.047048255572093</v>
+      </c>
       <c r="CS95" s="9"/>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
@@ -35507,25 +35592,27 @@
       <c r="CK96" s="15">
         <v>105.88401340202043</v>
       </c>
-      <c r="CL96" s="15">
+      <c r="CL96" s="28">
         <v>109.55901364959652</v>
       </c>
-      <c r="CM96" s="15">
+      <c r="CM96" s="28">
         <v>114.61373957305119</v>
       </c>
-      <c r="CN96" s="15">
+      <c r="CN96" s="28">
         <v>103.75939008564161</v>
       </c>
-      <c r="CO96" s="15">
+      <c r="CO96" s="28">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="15">
+      <c r="CP96" s="28">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="15">
+      <c r="CQ96" s="28">
         <v>121.40481839184358</v>
       </c>
-      <c r="CR96" s="9"/>
+      <c r="CR96" s="28">
+        <v>111.91043023656513</v>
+      </c>
       <c r="CS96" s="9"/>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
@@ -35851,25 +35938,27 @@
       <c r="CK97" s="15">
         <v>105.73101596312007</v>
       </c>
-      <c r="CL97" s="15">
+      <c r="CL97" s="28">
         <v>105.96078951648336</v>
       </c>
-      <c r="CM97" s="15">
+      <c r="CM97" s="28">
         <v>107.94068042193517</v>
       </c>
-      <c r="CN97" s="15">
+      <c r="CN97" s="28">
         <v>99.507171032664786</v>
       </c>
-      <c r="CO97" s="15">
+      <c r="CO97" s="28">
         <v>101.17491694026226</v>
       </c>
-      <c r="CP97" s="15">
+      <c r="CP97" s="28">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="15">
-        <v>120.22435885799769</v>
-      </c>
-      <c r="CR97" s="9"/>
+      <c r="CQ97" s="28">
+        <v>120.20260427085725</v>
+      </c>
+      <c r="CR97" s="28">
+        <v>110.23494918072731</v>
+      </c>
       <c r="CS97" s="9"/>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
@@ -36195,25 +36284,27 @@
       <c r="CK98" s="15">
         <v>110.86896769840675</v>
       </c>
-      <c r="CL98" s="15">
+      <c r="CL98" s="28">
         <v>111.00454898162579</v>
       </c>
-      <c r="CM98" s="15">
+      <c r="CM98" s="28">
         <v>113.23838408637346</v>
       </c>
-      <c r="CN98" s="15">
+      <c r="CN98" s="28">
         <v>112.67416677080821</v>
       </c>
-      <c r="CO98" s="15">
+      <c r="CO98" s="28">
         <v>111.50119648191861</v>
       </c>
-      <c r="CP98" s="15">
+      <c r="CP98" s="28">
         <v>114.85141283955909</v>
       </c>
-      <c r="CQ98" s="15">
-        <v>117.49890786574264</v>
-      </c>
-      <c r="CR98" s="9"/>
+      <c r="CQ98" s="28">
+        <v>117.49890786574258</v>
+      </c>
+      <c r="CR98" s="28">
+        <v>116.8742820447662</v>
+      </c>
       <c r="CS98" s="9"/>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
@@ -36360,13 +36451,13 @@
       <c r="CI99" s="15"/>
       <c r="CJ99" s="15"/>
       <c r="CK99" s="15"/>
-      <c r="CL99" s="15"/>
-      <c r="CM99" s="15"/>
-      <c r="CN99" s="15"/>
-      <c r="CO99" s="15"/>
-      <c r="CP99" s="15"/>
-      <c r="CQ99" s="15"/>
-      <c r="CR99" s="9"/>
+      <c r="CL99" s="28"/>
+      <c r="CM99" s="28"/>
+      <c r="CN99" s="28"/>
+      <c r="CO99" s="28"/>
+      <c r="CP99" s="28"/>
+      <c r="CQ99" s="28"/>
+      <c r="CR99" s="28"/>
       <c r="CS99" s="9"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
@@ -36692,25 +36783,27 @@
       <c r="CK100" s="15">
         <v>99.170493014902888</v>
       </c>
-      <c r="CL100" s="15">
+      <c r="CL100" s="28">
         <v>124.66603672007838</v>
       </c>
-      <c r="CM100" s="15">
+      <c r="CM100" s="28">
         <v>143.97758876815226</v>
       </c>
-      <c r="CN100" s="15">
+      <c r="CN100" s="28">
         <v>89.074378828905992</v>
       </c>
-      <c r="CO100" s="15">
+      <c r="CO100" s="28">
         <v>106.57890741400809</v>
       </c>
-      <c r="CP100" s="15">
+      <c r="CP100" s="28">
         <v>140.69491464841857</v>
       </c>
-      <c r="CQ100" s="15">
-        <v>159.61449684796884</v>
-      </c>
-      <c r="CR100" s="9"/>
+      <c r="CQ100" s="28">
+        <v>159.51645232161013</v>
+      </c>
+      <c r="CR100" s="28">
+        <v>90.638553617271867</v>
+      </c>
       <c r="CS100" s="9"/>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
@@ -36858,12 +36951,13 @@
       <c r="CI101" s="13"/>
       <c r="CJ101" s="13"/>
       <c r="CK101" s="13"/>
-      <c r="CL101" s="13"/>
-      <c r="CM101" s="13"/>
-      <c r="CN101" s="13"/>
-      <c r="CO101" s="13"/>
-      <c r="CP101" s="13"/>
-      <c r="CQ101" s="13"/>
+      <c r="CL101" s="24"/>
+      <c r="CM101" s="24"/>
+      <c r="CN101" s="24"/>
+      <c r="CO101" s="24"/>
+      <c r="CP101" s="24"/>
+      <c r="CQ101" s="24"/>
+      <c r="CR101" s="24"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -36902,148 +36996,149 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="18">
+      <c r="B113" s="31">
         <v>2000</v>
       </c>
-      <c r="C113" s="19"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
-      <c r="F113" s="18">
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="31">
         <v>2001</v>
       </c>
-      <c r="G113" s="19"/>
-      <c r="H113" s="19"/>
-      <c r="I113" s="19"/>
-      <c r="J113" s="18">
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="31">
         <v>2002</v>
       </c>
-      <c r="K113" s="19"/>
-      <c r="L113" s="19"/>
-      <c r="M113" s="19"/>
-      <c r="N113" s="18">
+      <c r="K113" s="32"/>
+      <c r="L113" s="32"/>
+      <c r="M113" s="32"/>
+      <c r="N113" s="31">
         <v>2003</v>
       </c>
-      <c r="O113" s="19"/>
-      <c r="P113" s="19"/>
-      <c r="Q113" s="19"/>
-      <c r="R113" s="18">
+      <c r="O113" s="32"/>
+      <c r="P113" s="32"/>
+      <c r="Q113" s="32"/>
+      <c r="R113" s="31">
         <v>2004</v>
       </c>
-      <c r="S113" s="19"/>
-      <c r="T113" s="19"/>
-      <c r="U113" s="19"/>
-      <c r="V113" s="18">
+      <c r="S113" s="32"/>
+      <c r="T113" s="32"/>
+      <c r="U113" s="32"/>
+      <c r="V113" s="31">
         <v>2005</v>
       </c>
-      <c r="W113" s="19"/>
-      <c r="X113" s="19"/>
-      <c r="Y113" s="19"/>
-      <c r="Z113" s="18">
+      <c r="W113" s="32"/>
+      <c r="X113" s="32"/>
+      <c r="Y113" s="32"/>
+      <c r="Z113" s="31">
         <v>2006</v>
       </c>
-      <c r="AA113" s="19"/>
-      <c r="AB113" s="19"/>
-      <c r="AC113" s="19"/>
-      <c r="AD113" s="18">
+      <c r="AA113" s="32"/>
+      <c r="AB113" s="32"/>
+      <c r="AC113" s="32"/>
+      <c r="AD113" s="31">
         <v>2007</v>
       </c>
-      <c r="AE113" s="19"/>
-      <c r="AF113" s="19"/>
-      <c r="AG113" s="19"/>
-      <c r="AH113" s="18">
+      <c r="AE113" s="32"/>
+      <c r="AF113" s="32"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="31">
         <v>2008</v>
       </c>
-      <c r="AI113" s="19"/>
-      <c r="AJ113" s="19"/>
-      <c r="AK113" s="19"/>
-      <c r="AL113" s="18">
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="32"/>
+      <c r="AK113" s="32"/>
+      <c r="AL113" s="31">
         <v>2009</v>
       </c>
-      <c r="AM113" s="19"/>
-      <c r="AN113" s="19"/>
-      <c r="AO113" s="19"/>
-      <c r="AP113" s="18">
+      <c r="AM113" s="32"/>
+      <c r="AN113" s="32"/>
+      <c r="AO113" s="32"/>
+      <c r="AP113" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="19"/>
-      <c r="AR113" s="19"/>
-      <c r="AS113" s="19"/>
-      <c r="AT113" s="18">
+      <c r="AQ113" s="32"/>
+      <c r="AR113" s="32"/>
+      <c r="AS113" s="32"/>
+      <c r="AT113" s="31">
         <v>2011</v>
       </c>
-      <c r="AU113" s="19"/>
-      <c r="AV113" s="19"/>
-      <c r="AW113" s="19"/>
-      <c r="AX113" s="18">
+      <c r="AU113" s="32"/>
+      <c r="AV113" s="32"/>
+      <c r="AW113" s="32"/>
+      <c r="AX113" s="31">
         <v>2012</v>
       </c>
-      <c r="AY113" s="19"/>
-      <c r="AZ113" s="19"/>
-      <c r="BA113" s="19"/>
-      <c r="BB113" s="18">
+      <c r="AY113" s="32"/>
+      <c r="AZ113" s="32"/>
+      <c r="BA113" s="32"/>
+      <c r="BB113" s="31">
         <v>2013</v>
       </c>
-      <c r="BC113" s="19"/>
-      <c r="BD113" s="19"/>
-      <c r="BE113" s="19"/>
-      <c r="BF113" s="18">
+      <c r="BC113" s="32"/>
+      <c r="BD113" s="32"/>
+      <c r="BE113" s="32"/>
+      <c r="BF113" s="31">
         <v>2014</v>
       </c>
-      <c r="BG113" s="19"/>
-      <c r="BH113" s="19"/>
-      <c r="BI113" s="19"/>
-      <c r="BJ113" s="18">
+      <c r="BG113" s="32"/>
+      <c r="BH113" s="32"/>
+      <c r="BI113" s="32"/>
+      <c r="BJ113" s="31">
         <v>2015</v>
       </c>
-      <c r="BK113" s="19"/>
-      <c r="BL113" s="19"/>
-      <c r="BM113" s="19"/>
-      <c r="BN113" s="18">
+      <c r="BK113" s="32"/>
+      <c r="BL113" s="32"/>
+      <c r="BM113" s="32"/>
+      <c r="BN113" s="31">
         <v>2016</v>
       </c>
-      <c r="BO113" s="19"/>
-      <c r="BP113" s="19"/>
-      <c r="BQ113" s="19"/>
-      <c r="BR113" s="18">
+      <c r="BO113" s="32"/>
+      <c r="BP113" s="32"/>
+      <c r="BQ113" s="32"/>
+      <c r="BR113" s="31">
         <v>2017</v>
       </c>
-      <c r="BS113" s="19"/>
-      <c r="BT113" s="19"/>
-      <c r="BU113" s="19"/>
-      <c r="BV113" s="18">
+      <c r="BS113" s="32"/>
+      <c r="BT113" s="32"/>
+      <c r="BU113" s="32"/>
+      <c r="BV113" s="31">
         <v>2018</v>
       </c>
-      <c r="BW113" s="19"/>
-      <c r="BX113" s="19"/>
-      <c r="BY113" s="19"/>
-      <c r="BZ113" s="18">
+      <c r="BW113" s="32"/>
+      <c r="BX113" s="32"/>
+      <c r="BY113" s="32"/>
+      <c r="BZ113" s="31">
         <v>2019</v>
       </c>
-      <c r="CA113" s="19"/>
-      <c r="CB113" s="19"/>
-      <c r="CC113" s="19"/>
-      <c r="CD113" s="18">
+      <c r="CA113" s="32"/>
+      <c r="CB113" s="32"/>
+      <c r="CC113" s="32"/>
+      <c r="CD113" s="31">
         <v>2020</v>
       </c>
-      <c r="CE113" s="18"/>
-      <c r="CF113" s="18"/>
-      <c r="CG113" s="18"/>
-      <c r="CH113" s="18">
+      <c r="CE113" s="31"/>
+      <c r="CF113" s="31"/>
+      <c r="CG113" s="31"/>
+      <c r="CH113" s="31">
         <v>2021</v>
       </c>
-      <c r="CI113" s="18"/>
-      <c r="CJ113" s="18"/>
-      <c r="CK113" s="18"/>
-      <c r="CL113" s="18">
+      <c r="CI113" s="31"/>
+      <c r="CJ113" s="31"/>
+      <c r="CK113" s="31"/>
+      <c r="CL113" s="30">
         <v>2022</v>
       </c>
-      <c r="CM113" s="18"/>
-      <c r="CN113" s="18"/>
-      <c r="CO113" s="18"/>
-      <c r="CP113" s="18">
+      <c r="CM113" s="30"/>
+      <c r="CN113" s="30"/>
+      <c r="CO113" s="30"/>
+      <c r="CP113" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="20"/>
+      <c r="CQ113" s="30"/>
+      <c r="CR113" s="30"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37313,23 +37408,26 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="6" t="s">
+      <c r="CL114" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="6" t="s">
+      <c r="CM114" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="6" t="s">
+      <c r="CN114" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="6" t="s">
+      <c r="CO114" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CR114" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37603,25 +37701,27 @@
       <c r="CK116" s="15">
         <v>78.693160206896422</v>
       </c>
-      <c r="CL116" s="15">
+      <c r="CL116" s="28">
         <v>82.816991196695341</v>
       </c>
-      <c r="CM116" s="15">
+      <c r="CM116" s="28">
         <v>86.013028964306372</v>
       </c>
-      <c r="CN116" s="15">
+      <c r="CN116" s="28">
         <v>82.428694874662895</v>
       </c>
-      <c r="CO116" s="15">
+      <c r="CO116" s="28">
         <v>79.801695235134375</v>
       </c>
-      <c r="CP116" s="15">
+      <c r="CP116" s="28">
         <v>83.470863328208949</v>
       </c>
-      <c r="CQ116" s="15">
-        <v>85.948262625971296</v>
-      </c>
-      <c r="CR116" s="9"/>
+      <c r="CQ116" s="28">
+        <v>85.793526835628583</v>
+      </c>
+      <c r="CR116" s="28">
+        <v>81.580839652852092</v>
+      </c>
       <c r="CS116" s="9"/>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
@@ -37947,25 +38047,27 @@
       <c r="CK117" s="15">
         <v>2.1071432102939887</v>
       </c>
-      <c r="CL117" s="15">
+      <c r="CL117" s="28">
         <v>1.8143459086950642</v>
       </c>
-      <c r="CM117" s="15">
+      <c r="CM117" s="28">
         <v>1.4309857538443673</v>
       </c>
-      <c r="CN117" s="15">
+      <c r="CN117" s="28">
         <v>1.6677040386565398</v>
       </c>
-      <c r="CO117" s="15">
+      <c r="CO117" s="28">
         <v>2.0837428223576442</v>
       </c>
-      <c r="CP117" s="15">
+      <c r="CP117" s="28">
         <v>1.8954980009488629</v>
       </c>
-      <c r="CQ117" s="15">
-        <v>1.3790831972662221</v>
-      </c>
-      <c r="CR117" s="9"/>
+      <c r="CQ117" s="28">
+        <v>1.380323101196165</v>
+      </c>
+      <c r="CR117" s="28">
+        <v>1.6760408863102823</v>
+      </c>
       <c r="CS117" s="9"/>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
@@ -38291,25 +38393,27 @@
       <c r="CK118" s="15">
         <v>17.58711857522308</v>
       </c>
-      <c r="CL118" s="15">
+      <c r="CL118" s="28">
         <v>14.21211286543449</v>
       </c>
-      <c r="CM118" s="15">
+      <c r="CM118" s="28">
         <v>11.618418586827007</v>
       </c>
-      <c r="CN118" s="15">
+      <c r="CN118" s="28">
         <v>14.352825251142482</v>
       </c>
-      <c r="CO118" s="15">
+      <c r="CO118" s="28">
         <v>16.532127013935611</v>
       </c>
-      <c r="CP118" s="15">
+      <c r="CP118" s="28">
         <v>13.580670844035319</v>
       </c>
-      <c r="CQ118" s="15">
-        <v>11.801440867292847</v>
-      </c>
-      <c r="CR118" s="9"/>
+      <c r="CQ118" s="28">
+        <v>11.967869388205512</v>
+      </c>
+      <c r="CR118" s="28">
+        <v>15.223522774911856</v>
+      </c>
       <c r="CS118" s="9"/>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
@@ -38635,25 +38739,27 @@
       <c r="CK119" s="15">
         <v>1.6125780075864986</v>
       </c>
-      <c r="CL119" s="15">
+      <c r="CL119" s="28">
         <v>1.1565500291751132</v>
       </c>
-      <c r="CM119" s="15">
+      <c r="CM119" s="28">
         <v>0.9375666950222471</v>
       </c>
-      <c r="CN119" s="15">
+      <c r="CN119" s="28">
         <v>1.5507758355380918</v>
       </c>
-      <c r="CO119" s="15">
+      <c r="CO119" s="28">
         <v>1.5824349285723665</v>
       </c>
-      <c r="CP119" s="15">
+      <c r="CP119" s="28">
         <v>1.0529678268068592</v>
       </c>
-      <c r="CQ119" s="15">
-        <v>0.87121330946964937</v>
-      </c>
-      <c r="CR119" s="9"/>
+      <c r="CQ119" s="28">
+        <v>0.85828067496972893</v>
+      </c>
+      <c r="CR119" s="28">
+        <v>1.5195966859257575</v>
+      </c>
       <c r="CS119" s="9"/>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
@@ -38800,13 +38906,13 @@
       <c r="CI120" s="9"/>
       <c r="CJ120" s="9"/>
       <c r="CK120" s="9"/>
-      <c r="CL120" s="9"/>
-      <c r="CM120" s="9"/>
-      <c r="CN120" s="9"/>
-      <c r="CO120" s="9"/>
-      <c r="CP120" s="9"/>
-      <c r="CQ120" s="9"/>
-      <c r="CR120" s="9"/>
+      <c r="CL120" s="25"/>
+      <c r="CM120" s="25"/>
+      <c r="CN120" s="25"/>
+      <c r="CO120" s="25"/>
+      <c r="CP120" s="25"/>
+      <c r="CQ120" s="25"/>
+      <c r="CR120" s="25"/>
       <c r="CS120" s="9"/>
       <c r="CT120" s="9"/>
       <c r="CU120" s="9"/>
@@ -39132,25 +39238,27 @@
       <c r="CK121" s="15">
         <v>100</v>
       </c>
-      <c r="CL121" s="15">
+      <c r="CL121" s="28">
         <v>100</v>
       </c>
-      <c r="CM121" s="15">
+      <c r="CM121" s="28">
         <v>100</v>
       </c>
-      <c r="CN121" s="15">
+      <c r="CN121" s="28">
         <v>100</v>
       </c>
-      <c r="CO121" s="15">
+      <c r="CO121" s="28">
         <v>100</v>
       </c>
-      <c r="CP121" s="15">
+      <c r="CP121" s="28">
         <v>100</v>
       </c>
-      <c r="CQ121" s="15">
+      <c r="CQ121" s="28">
         <v>100</v>
       </c>
-      <c r="CR121" s="9"/>
+      <c r="CR121" s="28">
+        <v>100</v>
+      </c>
       <c r="CS121" s="9"/>
       <c r="CT121" s="9"/>
       <c r="CU121" s="9"/>
@@ -39298,12 +39406,13 @@
       <c r="CI122" s="13"/>
       <c r="CJ122" s="13"/>
       <c r="CK122" s="13"/>
-      <c r="CL122" s="13"/>
-      <c r="CM122" s="13"/>
-      <c r="CN122" s="13"/>
-      <c r="CO122" s="13"/>
-      <c r="CP122" s="13"/>
-      <c r="CQ122" s="13"/>
+      <c r="CL122" s="24"/>
+      <c r="CM122" s="24"/>
+      <c r="CN122" s="24"/>
+      <c r="CO122" s="24"/>
+      <c r="CP122" s="24"/>
+      <c r="CQ122" s="24"/>
+      <c r="CR122" s="24"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39399,13 +39508,13 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="9"/>
-      <c r="CM124" s="9"/>
-      <c r="CN124" s="9"/>
-      <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
+      <c r="CL124" s="25"/>
+      <c r="CM124" s="25"/>
+      <c r="CN124" s="25"/>
+      <c r="CO124" s="25"/>
+      <c r="CP124" s="25"/>
+      <c r="CQ124" s="25"/>
+      <c r="CR124" s="25"/>
       <c r="CS124" s="9"/>
       <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
@@ -39552,13 +39661,13 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="9"/>
-      <c r="CM125" s="9"/>
-      <c r="CN125" s="9"/>
-      <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
+      <c r="CL125" s="25"/>
+      <c r="CM125" s="25"/>
+      <c r="CN125" s="25"/>
+      <c r="CO125" s="25"/>
+      <c r="CP125" s="25"/>
+      <c r="CQ125" s="25"/>
+      <c r="CR125" s="25"/>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
@@ -39648,148 +39757,149 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="18">
+      <c r="B134" s="31">
         <v>2000</v>
       </c>
-      <c r="C134" s="19"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
-      <c r="F134" s="18">
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="31">
         <v>2001</v>
       </c>
-      <c r="G134" s="19"/>
-      <c r="H134" s="19"/>
-      <c r="I134" s="19"/>
-      <c r="J134" s="18">
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="31">
         <v>2002</v>
       </c>
-      <c r="K134" s="19"/>
-      <c r="L134" s="19"/>
-      <c r="M134" s="19"/>
-      <c r="N134" s="18">
+      <c r="K134" s="32"/>
+      <c r="L134" s="32"/>
+      <c r="M134" s="32"/>
+      <c r="N134" s="31">
         <v>2003</v>
       </c>
-      <c r="O134" s="19"/>
-      <c r="P134" s="19"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="18">
+      <c r="O134" s="32"/>
+      <c r="P134" s="32"/>
+      <c r="Q134" s="32"/>
+      <c r="R134" s="31">
         <v>2004</v>
       </c>
-      <c r="S134" s="19"/>
-      <c r="T134" s="19"/>
-      <c r="U134" s="19"/>
-      <c r="V134" s="18">
+      <c r="S134" s="32"/>
+      <c r="T134" s="32"/>
+      <c r="U134" s="32"/>
+      <c r="V134" s="31">
         <v>2005</v>
       </c>
-      <c r="W134" s="19"/>
-      <c r="X134" s="19"/>
-      <c r="Y134" s="19"/>
-      <c r="Z134" s="18">
+      <c r="W134" s="32"/>
+      <c r="X134" s="32"/>
+      <c r="Y134" s="32"/>
+      <c r="Z134" s="31">
         <v>2006</v>
       </c>
-      <c r="AA134" s="19"/>
-      <c r="AB134" s="19"/>
-      <c r="AC134" s="19"/>
-      <c r="AD134" s="18">
+      <c r="AA134" s="32"/>
+      <c r="AB134" s="32"/>
+      <c r="AC134" s="32"/>
+      <c r="AD134" s="31">
         <v>2007</v>
       </c>
-      <c r="AE134" s="19"/>
-      <c r="AF134" s="19"/>
-      <c r="AG134" s="19"/>
-      <c r="AH134" s="18">
+      <c r="AE134" s="32"/>
+      <c r="AF134" s="32"/>
+      <c r="AG134" s="32"/>
+      <c r="AH134" s="31">
         <v>2008</v>
       </c>
-      <c r="AI134" s="19"/>
-      <c r="AJ134" s="19"/>
-      <c r="AK134" s="19"/>
-      <c r="AL134" s="18">
+      <c r="AI134" s="32"/>
+      <c r="AJ134" s="32"/>
+      <c r="AK134" s="32"/>
+      <c r="AL134" s="31">
         <v>2009</v>
       </c>
-      <c r="AM134" s="19"/>
-      <c r="AN134" s="19"/>
-      <c r="AO134" s="19"/>
-      <c r="AP134" s="18">
+      <c r="AM134" s="32"/>
+      <c r="AN134" s="32"/>
+      <c r="AO134" s="32"/>
+      <c r="AP134" s="31">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="19"/>
-      <c r="AR134" s="19"/>
-      <c r="AS134" s="19"/>
-      <c r="AT134" s="18">
+      <c r="AQ134" s="32"/>
+      <c r="AR134" s="32"/>
+      <c r="AS134" s="32"/>
+      <c r="AT134" s="31">
         <v>2011</v>
       </c>
-      <c r="AU134" s="19"/>
-      <c r="AV134" s="19"/>
-      <c r="AW134" s="19"/>
-      <c r="AX134" s="18">
+      <c r="AU134" s="32"/>
+      <c r="AV134" s="32"/>
+      <c r="AW134" s="32"/>
+      <c r="AX134" s="31">
         <v>2012</v>
       </c>
-      <c r="AY134" s="19"/>
-      <c r="AZ134" s="19"/>
-      <c r="BA134" s="19"/>
-      <c r="BB134" s="18">
+      <c r="AY134" s="32"/>
+      <c r="AZ134" s="32"/>
+      <c r="BA134" s="32"/>
+      <c r="BB134" s="31">
         <v>2013</v>
       </c>
-      <c r="BC134" s="19"/>
-      <c r="BD134" s="19"/>
-      <c r="BE134" s="19"/>
-      <c r="BF134" s="18">
+      <c r="BC134" s="32"/>
+      <c r="BD134" s="32"/>
+      <c r="BE134" s="32"/>
+      <c r="BF134" s="31">
         <v>2014</v>
       </c>
-      <c r="BG134" s="19"/>
-      <c r="BH134" s="19"/>
-      <c r="BI134" s="19"/>
-      <c r="BJ134" s="18">
+      <c r="BG134" s="32"/>
+      <c r="BH134" s="32"/>
+      <c r="BI134" s="32"/>
+      <c r="BJ134" s="31">
         <v>2015</v>
       </c>
-      <c r="BK134" s="19"/>
-      <c r="BL134" s="19"/>
-      <c r="BM134" s="19"/>
-      <c r="BN134" s="18">
+      <c r="BK134" s="32"/>
+      <c r="BL134" s="32"/>
+      <c r="BM134" s="32"/>
+      <c r="BN134" s="31">
         <v>2016</v>
       </c>
-      <c r="BO134" s="19"/>
-      <c r="BP134" s="19"/>
-      <c r="BQ134" s="19"/>
-      <c r="BR134" s="18">
+      <c r="BO134" s="32"/>
+      <c r="BP134" s="32"/>
+      <c r="BQ134" s="32"/>
+      <c r="BR134" s="31">
         <v>2017</v>
       </c>
-      <c r="BS134" s="19"/>
-      <c r="BT134" s="19"/>
-      <c r="BU134" s="19"/>
-      <c r="BV134" s="18">
+      <c r="BS134" s="32"/>
+      <c r="BT134" s="32"/>
+      <c r="BU134" s="32"/>
+      <c r="BV134" s="31">
         <v>2018</v>
       </c>
-      <c r="BW134" s="19"/>
-      <c r="BX134" s="19"/>
-      <c r="BY134" s="19"/>
-      <c r="BZ134" s="18">
+      <c r="BW134" s="32"/>
+      <c r="BX134" s="32"/>
+      <c r="BY134" s="32"/>
+      <c r="BZ134" s="31">
         <v>2019</v>
       </c>
-      <c r="CA134" s="19"/>
-      <c r="CB134" s="19"/>
-      <c r="CC134" s="19"/>
-      <c r="CD134" s="18">
+      <c r="CA134" s="32"/>
+      <c r="CB134" s="32"/>
+      <c r="CC134" s="32"/>
+      <c r="CD134" s="31">
         <v>2020</v>
       </c>
-      <c r="CE134" s="18"/>
-      <c r="CF134" s="18"/>
-      <c r="CG134" s="18"/>
-      <c r="CH134" s="18">
+      <c r="CE134" s="31"/>
+      <c r="CF134" s="31"/>
+      <c r="CG134" s="31"/>
+      <c r="CH134" s="31">
         <v>2021</v>
       </c>
-      <c r="CI134" s="18"/>
-      <c r="CJ134" s="18"/>
-      <c r="CK134" s="18"/>
-      <c r="CL134" s="18">
+      <c r="CI134" s="31"/>
+      <c r="CJ134" s="31"/>
+      <c r="CK134" s="31"/>
+      <c r="CL134" s="30">
         <v>2022</v>
       </c>
-      <c r="CM134" s="18"/>
-      <c r="CN134" s="18"/>
-      <c r="CO134" s="18"/>
-      <c r="CP134" s="18">
+      <c r="CM134" s="30"/>
+      <c r="CN134" s="30"/>
+      <c r="CO134" s="30"/>
+      <c r="CP134" s="30">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="20"/>
+      <c r="CQ134" s="30"/>
+      <c r="CR134" s="30"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40059,23 +40169,26 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="6" t="s">
+      <c r="CL135" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="6" t="s">
+      <c r="CM135" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="6" t="s">
+      <c r="CN135" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="6" t="s">
+      <c r="CO135" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="20" t="s">
         <v>8</v>
+      </c>
+      <c r="CR135" s="20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40349,25 +40462,27 @@
       <c r="CK137" s="15">
         <v>80.088181962120998</v>
       </c>
-      <c r="CL137" s="15">
+      <c r="CL137" s="28">
         <v>79.91561111734552</v>
       </c>
-      <c r="CM137" s="15">
+      <c r="CM137" s="28">
         <v>81.512997744663537</v>
       </c>
-      <c r="CN137" s="15">
+      <c r="CN137" s="28">
         <v>84.494353272885775</v>
       </c>
-      <c r="CO137" s="15">
+      <c r="CO137" s="28">
         <v>79.099812584999441</v>
       </c>
-      <c r="CP137" s="15">
+      <c r="CP137" s="28">
         <v>79.532567513508923</v>
       </c>
-      <c r="CQ137" s="15">
-        <v>81.335344784495035</v>
-      </c>
-      <c r="CR137" s="9"/>
+      <c r="CQ137" s="28">
+        <v>81.139042835724297</v>
+      </c>
+      <c r="CR137" s="28">
+        <v>84.946812754719247</v>
+      </c>
       <c r="CS137" s="9"/>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
@@ -40693,25 +40808,27 @@
       <c r="CK138" s="15">
         <v>1.9735408991766896</v>
       </c>
-      <c r="CL138" s="15">
+      <c r="CL138" s="28">
         <v>2.0645249180475429</v>
       </c>
-      <c r="CM138" s="15">
+      <c r="CM138" s="28">
         <v>1.7976019207432956</v>
       </c>
-      <c r="CN138" s="15">
+      <c r="CN138" s="28">
         <v>1.4316747736390716</v>
       </c>
-      <c r="CO138" s="15">
+      <c r="CO138" s="28">
         <v>1.9724632186139215</v>
       </c>
-      <c r="CP138" s="15">
+      <c r="CP138" s="28">
         <v>2.3152149791574481</v>
       </c>
-      <c r="CQ138" s="15">
-        <v>1.8131213699663564</v>
-      </c>
-      <c r="CR138" s="9"/>
+      <c r="CQ138" s="28">
+        <v>1.8136367821062351</v>
+      </c>
+      <c r="CR138" s="28">
+        <v>1.3574599026868783</v>
+      </c>
       <c r="CS138" s="9"/>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
@@ -41037,25 +41154,27 @@
       <c r="CK139" s="15">
         <v>16.495852271246456</v>
       </c>
-      <c r="CL139" s="15">
+      <c r="CL139" s="28">
         <v>16.720975678239324</v>
       </c>
-      <c r="CM139" s="15">
+      <c r="CM139" s="28">
         <v>15.497325817213387</v>
       </c>
-      <c r="CN139" s="15">
+      <c r="CN139" s="28">
         <v>12.848008645182727</v>
       </c>
-      <c r="CO139" s="15">
+      <c r="CO139" s="28">
         <v>17.415146833431123</v>
       </c>
-      <c r="CP139" s="15">
+      <c r="CP139" s="28">
         <v>16.862314189147401</v>
       </c>
-      <c r="CQ139" s="15">
-        <v>15.668048172657784</v>
-      </c>
-      <c r="CR139" s="9"/>
+      <c r="CQ139" s="28">
+        <v>15.882119012606044</v>
+      </c>
+      <c r="CR139" s="28">
+        <v>12.517246985031935</v>
+      </c>
       <c r="CS139" s="9"/>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
@@ -41381,25 +41500,27 @@
       <c r="CK140" s="15">
         <v>1.4424248674558646</v>
       </c>
-      <c r="CL140" s="15">
+      <c r="CL140" s="28">
         <v>1.2988882863676012</v>
       </c>
-      <c r="CM140" s="15">
+      <c r="CM140" s="28">
         <v>1.1920745173797704</v>
       </c>
-      <c r="CN140" s="15">
+      <c r="CN140" s="28">
         <v>1.2259633082924317</v>
       </c>
-      <c r="CO140" s="15">
+      <c r="CO140" s="28">
         <v>1.512577362955529</v>
       </c>
-      <c r="CP140" s="15">
+      <c r="CP140" s="28">
         <v>1.289903318186213</v>
       </c>
-      <c r="CQ140" s="15">
-        <v>1.1834856728808363</v>
-      </c>
-      <c r="CR140" s="9"/>
+      <c r="CQ140" s="28">
+        <v>1.1652013695634094</v>
+      </c>
+      <c r="CR140" s="28">
+        <v>1.178480357561934</v>
+      </c>
       <c r="CS140" s="9"/>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
@@ -41546,13 +41667,13 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="9"/>
-      <c r="CM141" s="9"/>
-      <c r="CN141" s="9"/>
-      <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
+      <c r="CL141" s="25"/>
+      <c r="CM141" s="25"/>
+      <c r="CN141" s="25"/>
+      <c r="CO141" s="25"/>
+      <c r="CP141" s="25"/>
+      <c r="CQ141" s="25"/>
+      <c r="CR141" s="25"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
@@ -41878,25 +41999,27 @@
       <c r="CK142" s="15">
         <v>100</v>
       </c>
-      <c r="CL142" s="15">
+      <c r="CL142" s="28">
         <v>100</v>
       </c>
-      <c r="CM142" s="15">
+      <c r="CM142" s="28">
         <v>100</v>
       </c>
-      <c r="CN142" s="15">
+      <c r="CN142" s="28">
         <v>100</v>
       </c>
-      <c r="CO142" s="15">
+      <c r="CO142" s="28">
         <v>100</v>
       </c>
-      <c r="CP142" s="15">
+      <c r="CP142" s="28">
         <v>100</v>
       </c>
-      <c r="CQ142" s="15">
+      <c r="CQ142" s="28">
         <v>100</v>
       </c>
-      <c r="CR142" s="9"/>
+      <c r="CR142" s="28">
+        <v>100</v>
+      </c>
       <c r="CS142" s="9"/>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
@@ -42044,12 +42167,13 @@
       <c r="CI143" s="13"/>
       <c r="CJ143" s="13"/>
       <c r="CK143" s="13"/>
-      <c r="CL143" s="13"/>
-      <c r="CM143" s="13"/>
-      <c r="CN143" s="13"/>
-      <c r="CO143" s="13"/>
-      <c r="CP143" s="13"/>
-      <c r="CQ143" s="13"/>
+      <c r="CL143" s="24"/>
+      <c r="CM143" s="24"/>
+      <c r="CN143" s="24"/>
+      <c r="CO143" s="24"/>
+      <c r="CP143" s="24"/>
+      <c r="CQ143" s="24"/>
+      <c r="CR143" s="24"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -42057,16 +42181,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="168">
-    <mergeCell ref="CP9:CQ9"/>
-    <mergeCell ref="CP30:CQ30"/>
-    <mergeCell ref="CP92:CQ92"/>
-    <mergeCell ref="CP113:CQ113"/>
-    <mergeCell ref="CP134:CQ134"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CP51:CQ51"/>
-    <mergeCell ref="CL72:CO72"/>
-    <mergeCell ref="CP72:CQ72"/>
+  <mergeCells count="166">
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="CL9:CO9"/>
@@ -42091,9 +42206,6 @@
     <mergeCell ref="BZ72:CC72"/>
     <mergeCell ref="CH51:CK51"/>
     <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42157,7 +42269,6 @@
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="AD72:AG72"/>
     <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BN72:BQ72"/>
     <mergeCell ref="BB51:BE51"/>
     <mergeCell ref="BF51:BI51"/>
     <mergeCell ref="BJ51:BM51"/>
@@ -42213,6 +42324,13 @@
     <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
+    <mergeCell ref="CP9:CR9"/>
+    <mergeCell ref="CP30:CR30"/>
+    <mergeCell ref="CL51:CN51"/>
+    <mergeCell ref="CL72:CN72"/>
+    <mergeCell ref="CP92:CR92"/>
+    <mergeCell ref="CP113:CR113"/>
+    <mergeCell ref="CP134:CR134"/>
     <mergeCell ref="BF134:BI134"/>
     <mergeCell ref="BJ134:BM134"/>
     <mergeCell ref="BN134:BQ134"/>
@@ -42226,15 +42344,19 @@
     <mergeCell ref="BV113:BY113"/>
     <mergeCell ref="BR92:BU92"/>
     <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="94" man="1"/>
-    <brk id="84" max="94" man="1"/>
-    <brk id="104" max="94" man="1"/>
+    <brk id="42" max="95" man="1"/>
+    <brk id="84" max="95" man="1"/>
+    <brk id="104" max="95" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2023\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F2D79-C868-4D26-B784-0CCB1AA82C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF317DB-73E5-4221-B7DA-A2691B9CB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CR$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CS$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="54">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,13 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>As of November 2023</t>
+    <t>Q1 2000 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2023</t>
+    <t>Q1 2001 to Q4 2023</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2023</t>
+    <t>As of January 2024</t>
   </si>
 </sst>
 </file>
@@ -719,7 +719,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,31 +746,20 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -23319,9 +23308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -23359,7 +23348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -23465,7 +23454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -23607,7 +23596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -23623,15 +23612,14 @@
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CT7" sqref="CT7"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="89" width="10.77734375" style="1" customWidth="1"/>
-    <col min="90" max="96" width="9.6640625" style="19" customWidth="1"/>
-    <col min="97" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="97" width="10.77734375" style="1" customWidth="1"/>
+    <col min="98" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23646,7 +23634,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23656,7 +23644,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23666,149 +23654,150 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="31">
+      <c r="B9" s="21">
         <v>2000</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21">
         <v>2001</v>
       </c>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31">
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21">
         <v>2002</v>
       </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31">
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21">
         <v>2003</v>
       </c>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21">
         <v>2004</v>
       </c>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31">
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21">
         <v>2005</v>
       </c>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31">
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21">
         <v>2006</v>
       </c>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="21"/>
+      <c r="AC9" s="21"/>
+      <c r="AD9" s="21">
         <v>2007</v>
       </c>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31">
+      <c r="AE9" s="21"/>
+      <c r="AF9" s="21"/>
+      <c r="AG9" s="21"/>
+      <c r="AH9" s="21">
         <v>2008</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31">
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="21"/>
+      <c r="AK9" s="21"/>
+      <c r="AL9" s="21">
         <v>2009</v>
       </c>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31">
+      <c r="AM9" s="21"/>
+      <c r="AN9" s="21"/>
+      <c r="AO9" s="21"/>
+      <c r="AP9" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-      <c r="AS9" s="31"/>
-      <c r="AT9" s="31">
+      <c r="AQ9" s="21"/>
+      <c r="AR9" s="21"/>
+      <c r="AS9" s="21"/>
+      <c r="AT9" s="21">
         <v>2011</v>
       </c>
-      <c r="AU9" s="31"/>
-      <c r="AV9" s="31"/>
-      <c r="AW9" s="31"/>
-      <c r="AX9" s="31">
+      <c r="AU9" s="21"/>
+      <c r="AV9" s="21"/>
+      <c r="AW9" s="21"/>
+      <c r="AX9" s="21">
         <v>2012</v>
       </c>
-      <c r="AY9" s="31"/>
-      <c r="AZ9" s="31"/>
-      <c r="BA9" s="31"/>
-      <c r="BB9" s="31">
+      <c r="AY9" s="21"/>
+      <c r="AZ9" s="21"/>
+      <c r="BA9" s="21"/>
+      <c r="BB9" s="21">
         <v>2013</v>
       </c>
-      <c r="BC9" s="31"/>
-      <c r="BD9" s="31"/>
-      <c r="BE9" s="31"/>
-      <c r="BF9" s="31">
+      <c r="BC9" s="21"/>
+      <c r="BD9" s="21"/>
+      <c r="BE9" s="21"/>
+      <c r="BF9" s="21">
         <v>2014</v>
       </c>
-      <c r="BG9" s="31"/>
-      <c r="BH9" s="31"/>
-      <c r="BI9" s="31"/>
-      <c r="BJ9" s="31">
+      <c r="BG9" s="21"/>
+      <c r="BH9" s="21"/>
+      <c r="BI9" s="21"/>
+      <c r="BJ9" s="21">
         <v>2015</v>
       </c>
-      <c r="BK9" s="31"/>
-      <c r="BL9" s="31"/>
-      <c r="BM9" s="31"/>
-      <c r="BN9" s="31">
+      <c r="BK9" s="21"/>
+      <c r="BL9" s="21"/>
+      <c r="BM9" s="21"/>
+      <c r="BN9" s="21">
         <v>2016</v>
       </c>
-      <c r="BO9" s="31"/>
-      <c r="BP9" s="31"/>
-      <c r="BQ9" s="31"/>
-      <c r="BR9" s="31">
+      <c r="BO9" s="21"/>
+      <c r="BP9" s="21"/>
+      <c r="BQ9" s="21"/>
+      <c r="BR9" s="21">
         <v>2017</v>
       </c>
-      <c r="BS9" s="31"/>
-      <c r="BT9" s="31"/>
-      <c r="BU9" s="31"/>
-      <c r="BV9" s="31">
+      <c r="BS9" s="21"/>
+      <c r="BT9" s="21"/>
+      <c r="BU9" s="21"/>
+      <c r="BV9" s="21">
         <v>2018</v>
       </c>
-      <c r="BW9" s="31"/>
-      <c r="BX9" s="31"/>
-      <c r="BY9" s="31"/>
-      <c r="BZ9" s="31">
+      <c r="BW9" s="21"/>
+      <c r="BX9" s="21"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="21">
         <v>2019</v>
       </c>
-      <c r="CA9" s="31"/>
-      <c r="CB9" s="31"/>
-      <c r="CC9" s="31"/>
-      <c r="CD9" s="31">
+      <c r="CA9" s="21"/>
+      <c r="CB9" s="21"/>
+      <c r="CC9" s="21"/>
+      <c r="CD9" s="21">
         <v>2020</v>
       </c>
-      <c r="CE9" s="31"/>
-      <c r="CF9" s="31"/>
-      <c r="CG9" s="31"/>
-      <c r="CH9" s="31">
+      <c r="CE9" s="21"/>
+      <c r="CF9" s="21"/>
+      <c r="CG9" s="21"/>
+      <c r="CH9" s="21">
         <v>2021</v>
       </c>
-      <c r="CI9" s="31"/>
-      <c r="CJ9" s="31"/>
-      <c r="CK9" s="31"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="21"/>
+      <c r="CJ9" s="21"/>
+      <c r="CK9" s="21"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="30">
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="19"/>
+      <c r="CP9" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="30"/>
-      <c r="CR9" s="30"/>
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24078,26 +24067,29 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="20" t="s">
+      <c r="CL10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="20" t="s">
+      <c r="CM10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="20" t="s">
+      <c r="CN10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="20" t="s">
+      <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="20" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="20" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="20" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS10" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24371,28 +24363,30 @@
       <c r="CK12" s="8">
         <v>116947.88973451944</v>
       </c>
-      <c r="CL12" s="21">
+      <c r="CL12" s="8">
         <v>149799.88109309287</v>
       </c>
-      <c r="CM12" s="21">
+      <c r="CM12" s="8">
         <v>203560.9396497971</v>
       </c>
-      <c r="CN12" s="21">
+      <c r="CN12" s="8">
         <v>131766.65399284259</v>
       </c>
-      <c r="CO12" s="21">
+      <c r="CO12" s="8">
         <v>134659.95329141535</v>
       </c>
-      <c r="CP12" s="21">
+      <c r="CP12" s="8">
         <v>182682.31286621009</v>
       </c>
-      <c r="CQ12" s="21">
+      <c r="CQ12" s="8">
         <v>235633.79343278782</v>
       </c>
-      <c r="CR12" s="21">
-        <v>141971.95773990842</v>
-      </c>
-      <c r="CS12" s="9"/>
+      <c r="CR12" s="8">
+        <v>141526.58899583213</v>
+      </c>
+      <c r="CS12" s="8">
+        <v>141599.04650645677</v>
+      </c>
       <c r="CT12" s="9"/>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
@@ -24717,28 +24711,30 @@
       <c r="CK13" s="8">
         <v>3131.4786591923739</v>
       </c>
-      <c r="CL13" s="21">
+      <c r="CL13" s="8">
         <v>3281.7999960750249</v>
       </c>
-      <c r="CM13" s="21">
+      <c r="CM13" s="8">
         <v>3386.612565393008</v>
       </c>
-      <c r="CN13" s="21">
+      <c r="CN13" s="8">
         <v>2665.9136282366271</v>
       </c>
-      <c r="CO13" s="21">
+      <c r="CO13" s="8">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="21">
+      <c r="CP13" s="8">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="21">
+      <c r="CQ13" s="8">
         <v>3791.0875155057865</v>
       </c>
-      <c r="CR13" s="21">
+      <c r="CR13" s="8">
         <v>2916.7486740041568</v>
       </c>
-      <c r="CS13" s="9"/>
+      <c r="CS13" s="8">
+        <v>3406.4832763381028</v>
+      </c>
       <c r="CT13" s="9"/>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
@@ -25063,28 +25059,30 @@
       <c r="CK14" s="8">
         <v>26136.660396856932</v>
       </c>
-      <c r="CL14" s="21">
+      <c r="CL14" s="8">
         <v>25706.956828065187</v>
       </c>
-      <c r="CM14" s="21">
+      <c r="CM14" s="8">
         <v>27496.487837448705</v>
       </c>
-      <c r="CN14" s="21">
+      <c r="CN14" s="8">
         <v>22943.754739326265</v>
       </c>
-      <c r="CO14" s="21">
+      <c r="CO14" s="8">
         <v>27896.844107694811</v>
       </c>
-      <c r="CP14" s="21">
+      <c r="CP14" s="8">
         <v>29722.327781706816</v>
       </c>
-      <c r="CQ14" s="21">
+      <c r="CQ14" s="8">
         <v>32870.014408591611</v>
       </c>
-      <c r="CR14" s="21">
-        <v>26492.903741237227</v>
-      </c>
-      <c r="CS14" s="9"/>
+      <c r="CR14" s="8">
+        <v>26513.241547742189</v>
+      </c>
+      <c r="CS14" s="8">
+        <v>32430.367190301022</v>
+      </c>
       <c r="CT14" s="9"/>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
@@ -25409,28 +25407,30 @@
       <c r="CK15" s="8">
         <v>2396.4928403397589</v>
       </c>
-      <c r="CL15" s="21">
+      <c r="CL15" s="8">
         <v>2091.9747789093585</v>
       </c>
-      <c r="CM15" s="21">
+      <c r="CM15" s="8">
         <v>2218.8726489597639</v>
       </c>
-      <c r="CN15" s="21">
+      <c r="CN15" s="8">
         <v>2478.9976749300654</v>
       </c>
-      <c r="CO15" s="21">
+      <c r="CO15" s="8">
         <v>2670.2517150843864</v>
       </c>
-      <c r="CP15" s="21">
+      <c r="CP15" s="8">
         <v>2304.49992134892</v>
       </c>
-      <c r="CQ15" s="21">
+      <c r="CQ15" s="8">
         <v>2357.2866011283268</v>
       </c>
-      <c r="CR15" s="21">
-        <v>2644.4949254504786</v>
-      </c>
-      <c r="CS15" s="9"/>
+      <c r="CR15" s="8">
+        <v>2634.5240339515221</v>
+      </c>
+      <c r="CS15" s="8">
+        <v>2980.0320558318435</v>
+      </c>
       <c r="CT15" s="9"/>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
@@ -25576,14 +25576,14 @@
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
       <c r="CK16" s="10"/>
-      <c r="CL16" s="22"/>
-      <c r="CM16" s="22"/>
-      <c r="CN16" s="22"/>
-      <c r="CO16" s="22"/>
-      <c r="CP16" s="22"/>
-      <c r="CQ16" s="22"/>
-      <c r="CR16" s="22"/>
-      <c r="CS16" s="9"/>
+      <c r="CL16" s="10"/>
+      <c r="CM16" s="10"/>
+      <c r="CN16" s="10"/>
+      <c r="CO16" s="10"/>
+      <c r="CP16" s="10"/>
+      <c r="CQ16" s="10"/>
+      <c r="CR16" s="10"/>
+      <c r="CS16" s="10"/>
       <c r="CT16" s="9"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
@@ -25908,28 +25908,30 @@
       <c r="CK17" s="12">
         <v>148612.52163090851</v>
       </c>
-      <c r="CL17" s="23">
+      <c r="CL17" s="12">
         <v>180880.61269614243</v>
       </c>
-      <c r="CM17" s="23">
+      <c r="CM17" s="12">
         <v>236662.9127015986</v>
       </c>
-      <c r="CN17" s="23">
+      <c r="CN17" s="12">
         <v>159855.32003533552</v>
       </c>
-      <c r="CO17" s="23">
+      <c r="CO17" s="12">
         <v>168743.22393107318</v>
       </c>
-      <c r="CP17" s="23">
+      <c r="CP17" s="12">
         <v>218857.58165445097</v>
       </c>
-      <c r="CQ17" s="23">
+      <c r="CQ17" s="12">
         <v>274652.18195801356</v>
       </c>
-      <c r="CR17" s="23">
-        <v>174026.1050806003</v>
-      </c>
-      <c r="CS17" s="9"/>
+      <c r="CR17" s="12">
+        <v>173591.10325153</v>
+      </c>
+      <c r="CS17" s="12">
+        <v>180415.92902892773</v>
+      </c>
       <c r="CT17" s="9"/>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
@@ -26076,13 +26078,14 @@
       <c r="CI18" s="13"/>
       <c r="CJ18" s="13"/>
       <c r="CK18" s="13"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
+      <c r="CL18" s="13"/>
+      <c r="CM18" s="13"/>
+      <c r="CN18" s="13"/>
+      <c r="CO18" s="13"/>
+      <c r="CP18" s="13"/>
+      <c r="CQ18" s="13"/>
+      <c r="CR18" s="13"/>
+      <c r="CS18" s="13"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26178,13 +26181,13 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="25"/>
-      <c r="CM20" s="25"/>
-      <c r="CN20" s="25"/>
-      <c r="CO20" s="25"/>
-      <c r="CP20" s="25"/>
-      <c r="CQ20" s="25"/>
-      <c r="CR20" s="25"/>
+      <c r="CL20" s="9"/>
+      <c r="CM20" s="9"/>
+      <c r="CN20" s="9"/>
+      <c r="CO20" s="9"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
       <c r="CS20" s="9"/>
       <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
@@ -26331,13 +26334,13 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="25"/>
-      <c r="CM21" s="25"/>
-      <c r="CN21" s="25"/>
-      <c r="CO21" s="25"/>
-      <c r="CP21" s="25"/>
-      <c r="CQ21" s="25"/>
-      <c r="CR21" s="25"/>
+      <c r="CL21" s="9"/>
+      <c r="CM21" s="9"/>
+      <c r="CN21" s="9"/>
+      <c r="CO21" s="9"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
       <c r="CS21" s="9"/>
       <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
@@ -26407,7 +26410,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26417,7 +26420,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26427,149 +26430,150 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="31">
+      <c r="B30" s="21">
         <v>2000</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="31">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="21">
         <v>2001</v>
       </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="31">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="21">
         <v>2002</v>
       </c>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="31">
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="21">
         <v>2003</v>
       </c>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="31">
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="21">
         <v>2004</v>
       </c>
-      <c r="S30" s="32"/>
-      <c r="T30" s="32"/>
-      <c r="U30" s="32"/>
-      <c r="V30" s="31">
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="21">
         <v>2005</v>
       </c>
-      <c r="W30" s="32"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="31">
+      <c r="W30" s="22"/>
+      <c r="X30" s="22"/>
+      <c r="Y30" s="22"/>
+      <c r="Z30" s="21">
         <v>2006</v>
       </c>
-      <c r="AA30" s="32"/>
-      <c r="AB30" s="32"/>
-      <c r="AC30" s="32"/>
-      <c r="AD30" s="31">
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="21">
         <v>2007</v>
       </c>
-      <c r="AE30" s="32"/>
-      <c r="AF30" s="32"/>
-      <c r="AG30" s="32"/>
-      <c r="AH30" s="31">
+      <c r="AE30" s="22"/>
+      <c r="AF30" s="22"/>
+      <c r="AG30" s="22"/>
+      <c r="AH30" s="21">
         <v>2008</v>
       </c>
-      <c r="AI30" s="32"/>
-      <c r="AJ30" s="32"/>
-      <c r="AK30" s="32"/>
-      <c r="AL30" s="31">
+      <c r="AI30" s="22"/>
+      <c r="AJ30" s="22"/>
+      <c r="AK30" s="22"/>
+      <c r="AL30" s="21">
         <v>2009</v>
       </c>
-      <c r="AM30" s="32"/>
-      <c r="AN30" s="32"/>
-      <c r="AO30" s="32"/>
-      <c r="AP30" s="31">
+      <c r="AM30" s="22"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="22"/>
+      <c r="AP30" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="32"/>
-      <c r="AR30" s="32"/>
-      <c r="AS30" s="32"/>
-      <c r="AT30" s="31">
+      <c r="AQ30" s="22"/>
+      <c r="AR30" s="22"/>
+      <c r="AS30" s="22"/>
+      <c r="AT30" s="21">
         <v>2011</v>
       </c>
-      <c r="AU30" s="32"/>
-      <c r="AV30" s="32"/>
-      <c r="AW30" s="32"/>
-      <c r="AX30" s="31">
+      <c r="AU30" s="22"/>
+      <c r="AV30" s="22"/>
+      <c r="AW30" s="22"/>
+      <c r="AX30" s="21">
         <v>2012</v>
       </c>
-      <c r="AY30" s="32"/>
-      <c r="AZ30" s="32"/>
-      <c r="BA30" s="32"/>
-      <c r="BB30" s="31">
+      <c r="AY30" s="22"/>
+      <c r="AZ30" s="22"/>
+      <c r="BA30" s="22"/>
+      <c r="BB30" s="21">
         <v>2013</v>
       </c>
-      <c r="BC30" s="32"/>
-      <c r="BD30" s="32"/>
-      <c r="BE30" s="32"/>
-      <c r="BF30" s="31">
+      <c r="BC30" s="22"/>
+      <c r="BD30" s="22"/>
+      <c r="BE30" s="22"/>
+      <c r="BF30" s="21">
         <v>2014</v>
       </c>
-      <c r="BG30" s="32"/>
-      <c r="BH30" s="32"/>
-      <c r="BI30" s="32"/>
-      <c r="BJ30" s="31">
+      <c r="BG30" s="22"/>
+      <c r="BH30" s="22"/>
+      <c r="BI30" s="22"/>
+      <c r="BJ30" s="21">
         <v>2015</v>
       </c>
-      <c r="BK30" s="32"/>
-      <c r="BL30" s="32"/>
-      <c r="BM30" s="32"/>
-      <c r="BN30" s="31">
+      <c r="BK30" s="22"/>
+      <c r="BL30" s="22"/>
+      <c r="BM30" s="22"/>
+      <c r="BN30" s="21">
         <v>2016</v>
       </c>
-      <c r="BO30" s="32"/>
-      <c r="BP30" s="32"/>
-      <c r="BQ30" s="32"/>
-      <c r="BR30" s="31">
+      <c r="BO30" s="22"/>
+      <c r="BP30" s="22"/>
+      <c r="BQ30" s="22"/>
+      <c r="BR30" s="21">
         <v>2017</v>
       </c>
-      <c r="BS30" s="32"/>
-      <c r="BT30" s="32"/>
-      <c r="BU30" s="32"/>
-      <c r="BV30" s="31">
+      <c r="BS30" s="22"/>
+      <c r="BT30" s="22"/>
+      <c r="BU30" s="22"/>
+      <c r="BV30" s="21">
         <v>2018</v>
       </c>
-      <c r="BW30" s="32"/>
-      <c r="BX30" s="32"/>
-      <c r="BY30" s="32"/>
-      <c r="BZ30" s="31">
+      <c r="BW30" s="22"/>
+      <c r="BX30" s="22"/>
+      <c r="BY30" s="22"/>
+      <c r="BZ30" s="21">
         <v>2019</v>
       </c>
-      <c r="CA30" s="32"/>
-      <c r="CB30" s="32"/>
-      <c r="CC30" s="32"/>
-      <c r="CD30" s="31">
+      <c r="CA30" s="22"/>
+      <c r="CB30" s="22"/>
+      <c r="CC30" s="22"/>
+      <c r="CD30" s="21">
         <v>2020</v>
       </c>
-      <c r="CE30" s="31"/>
-      <c r="CF30" s="31"/>
-      <c r="CG30" s="31"/>
-      <c r="CH30" s="31">
+      <c r="CE30" s="21"/>
+      <c r="CF30" s="21"/>
+      <c r="CG30" s="21"/>
+      <c r="CH30" s="21">
         <v>2021</v>
       </c>
-      <c r="CI30" s="31"/>
-      <c r="CJ30" s="31"/>
-      <c r="CK30" s="31"/>
-      <c r="CL30" s="30">
+      <c r="CI30" s="21"/>
+      <c r="CJ30" s="21"/>
+      <c r="CK30" s="21"/>
+      <c r="CL30" s="20">
         <v>2022</v>
       </c>
-      <c r="CM30" s="30"/>
-      <c r="CN30" s="30"/>
-      <c r="CO30" s="30"/>
-      <c r="CP30" s="30">
+      <c r="CM30" s="20"/>
+      <c r="CN30" s="20"/>
+      <c r="CO30" s="20"/>
+      <c r="CP30" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="30"/>
-      <c r="CR30" s="30"/>
+      <c r="CQ30" s="20"/>
+      <c r="CR30" s="20"/>
+      <c r="CS30" s="20"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26839,26 +26843,29 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="20" t="s">
+      <c r="CL31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="20" t="s">
+      <c r="CM31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="20" t="s">
+      <c r="CN31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="20" t="s">
+      <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="20" t="s">
+      <c r="CP31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="20" t="s">
+      <c r="CQ31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="20" t="s">
+      <c r="CR31" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS31" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27132,28 +27139,30 @@
       <c r="CK33" s="8">
         <v>120016.61292978798</v>
       </c>
-      <c r="CL33" s="21">
+      <c r="CL33" s="8">
         <v>115951.26534221484</v>
       </c>
-      <c r="CM33" s="21">
+      <c r="CM33" s="8">
         <v>133986.84916411166</v>
       </c>
-      <c r="CN33" s="21">
+      <c r="CN33" s="8">
         <v>151635.88072345522</v>
       </c>
-      <c r="CO33" s="21">
+      <c r="CO33" s="8">
         <v>125236.38787257974</v>
       </c>
-      <c r="CP33" s="21">
+      <c r="CP33" s="8">
         <v>123716.66333692582</v>
       </c>
-      <c r="CQ33" s="21">
+      <c r="CQ33" s="8">
         <v>139703.55303468215</v>
       </c>
-      <c r="CR33" s="21">
-        <v>163097.95746672025</v>
-      </c>
-      <c r="CS33" s="9"/>
+      <c r="CR33" s="8">
+        <v>162586.31605784822</v>
+      </c>
+      <c r="CS33" s="8">
+        <v>134358.96636929648</v>
+      </c>
       <c r="CT33" s="9"/>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
@@ -27478,28 +27487,30 @@
       <c r="CK34" s="8">
         <v>2957.4612432783179</v>
       </c>
-      <c r="CL34" s="21">
+      <c r="CL34" s="8">
         <v>2995.4632546905109</v>
       </c>
-      <c r="CM34" s="21">
+      <c r="CM34" s="8">
         <v>2954.8050504315738</v>
       </c>
-      <c r="CN34" s="21">
+      <c r="CN34" s="8">
         <v>2569.3227630156825</v>
       </c>
-      <c r="CO34" s="21">
+      <c r="CO34" s="8">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="21">
+      <c r="CP34" s="8">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="21">
+      <c r="CQ34" s="8">
         <v>3122.6829097258346</v>
       </c>
-      <c r="CR34" s="21">
+      <c r="CR34" s="8">
         <v>2606.3242432707143</v>
       </c>
-      <c r="CS34" s="9"/>
+      <c r="CS34" s="8">
+        <v>2860.8272327730051</v>
+      </c>
       <c r="CT34" s="9"/>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
@@ -27824,28 +27835,30 @@
       <c r="CK35" s="8">
         <v>24719.955784756323</v>
       </c>
-      <c r="CL35" s="21">
+      <c r="CL35" s="8">
         <v>24260.820389665172</v>
       </c>
-      <c r="CM35" s="21">
+      <c r="CM35" s="8">
         <v>25473.702528060967</v>
       </c>
-      <c r="CN35" s="21">
+      <c r="CN35" s="8">
         <v>23057.388227622931</v>
       </c>
-      <c r="CO35" s="21">
+      <c r="CO35" s="8">
         <v>27572.885603816438</v>
       </c>
-      <c r="CP35" s="21">
+      <c r="CP35" s="8">
         <v>26230.125756544647</v>
       </c>
-      <c r="CQ35" s="21">
+      <c r="CQ35" s="8">
         <v>27345.509365607686</v>
       </c>
-      <c r="CR35" s="21">
-        <v>24033.125554222195</v>
-      </c>
-      <c r="CS35" s="9"/>
+      <c r="CR35" s="8">
+        <v>24051.575062890832</v>
+      </c>
+      <c r="CS35" s="8">
+        <v>28710.121855429043</v>
+      </c>
       <c r="CT35" s="9"/>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
@@ -28170,28 +28183,30 @@
       <c r="CK36" s="8">
         <v>2161.554211327069</v>
       </c>
-      <c r="CL36" s="21">
+      <c r="CL36" s="8">
         <v>1884.5847292759472</v>
       </c>
-      <c r="CM36" s="21">
+      <c r="CM36" s="8">
         <v>1959.4704276840453</v>
       </c>
-      <c r="CN36" s="21">
+      <c r="CN36" s="8">
         <v>2200.1473327711597</v>
       </c>
-      <c r="CO36" s="21">
+      <c r="CO36" s="8">
         <v>2394.8188892460926</v>
       </c>
-      <c r="CP36" s="21">
+      <c r="CP36" s="8">
         <v>2006.5055051331201</v>
       </c>
-      <c r="CQ36" s="21">
+      <c r="CQ36" s="8">
         <v>2006.2200099951788</v>
       </c>
-      <c r="CR36" s="21">
-        <v>2262.6833544419646</v>
-      </c>
-      <c r="CS36" s="9"/>
+      <c r="CR36" s="8">
+        <v>2254.1520579715079</v>
+      </c>
+      <c r="CS36" s="8">
+        <v>2580.4184912628625</v>
+      </c>
       <c r="CT36" s="9"/>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
@@ -28337,14 +28352,14 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="22"/>
-      <c r="CM37" s="22"/>
-      <c r="CN37" s="22"/>
-      <c r="CO37" s="22"/>
-      <c r="CP37" s="22"/>
-      <c r="CQ37" s="22"/>
-      <c r="CR37" s="22"/>
-      <c r="CS37" s="9"/>
+      <c r="CL37" s="10"/>
+      <c r="CM37" s="10"/>
+      <c r="CN37" s="10"/>
+      <c r="CO37" s="10"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
+      <c r="CS37" s="10"/>
       <c r="CT37" s="9"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
@@ -28669,28 +28684,30 @@
       <c r="CK38" s="12">
         <v>149855.58416914969</v>
       </c>
-      <c r="CL38" s="23">
+      <c r="CL38" s="12">
         <v>145092.13371584649</v>
       </c>
-      <c r="CM38" s="23">
+      <c r="CM38" s="12">
         <v>164374.82717028825</v>
       </c>
-      <c r="CN38" s="23">
+      <c r="CN38" s="12">
         <v>179462.739046865</v>
       </c>
-      <c r="CO38" s="23">
+      <c r="CO38" s="12">
         <v>158327.0348940494</v>
       </c>
-      <c r="CP38" s="23">
+      <c r="CP38" s="12">
         <v>155554.72079524159</v>
       </c>
-      <c r="CQ38" s="23">
+      <c r="CQ38" s="12">
         <v>172177.96532001087</v>
       </c>
-      <c r="CR38" s="23">
-        <v>192000.09061865514</v>
-      </c>
-      <c r="CS38" s="9"/>
+      <c r="CR38" s="12">
+        <v>191498.36742198127</v>
+      </c>
+      <c r="CS38" s="12">
+        <v>168510.3339487614</v>
+      </c>
       <c r="CT38" s="9"/>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
@@ -28837,13 +28854,14 @@
       <c r="CI39" s="13"/>
       <c r="CJ39" s="13"/>
       <c r="CK39" s="13"/>
-      <c r="CL39" s="24"/>
-      <c r="CM39" s="24"/>
-      <c r="CN39" s="24"/>
-      <c r="CO39" s="24"/>
-      <c r="CP39" s="24"/>
-      <c r="CQ39" s="24"/>
-      <c r="CR39" s="24"/>
+      <c r="CL39" s="13"/>
+      <c r="CM39" s="13"/>
+      <c r="CN39" s="13"/>
+      <c r="CO39" s="13"/>
+      <c r="CP39" s="13"/>
+      <c r="CQ39" s="13"/>
+      <c r="CR39" s="13"/>
+      <c r="CS39" s="13"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -28939,13 +28957,13 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="25"/>
-      <c r="CM41" s="25"/>
-      <c r="CN41" s="25"/>
-      <c r="CO41" s="25"/>
-      <c r="CP41" s="25"/>
-      <c r="CQ41" s="25"/>
-      <c r="CR41" s="25"/>
+      <c r="CL41" s="9"/>
+      <c r="CM41" s="9"/>
+      <c r="CN41" s="9"/>
+      <c r="CO41" s="9"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
       <c r="CS41" s="9"/>
       <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
@@ -29092,13 +29110,13 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="25"/>
-      <c r="CM42" s="25"/>
-      <c r="CN42" s="25"/>
-      <c r="CO42" s="25"/>
-      <c r="CP42" s="25"/>
-      <c r="CQ42" s="25"/>
-      <c r="CR42" s="25"/>
+      <c r="CL42" s="9"/>
+      <c r="CM42" s="9"/>
+      <c r="CN42" s="9"/>
+      <c r="CO42" s="9"/>
+      <c r="CP42" s="9"/>
+      <c r="CQ42" s="9"/>
+      <c r="CR42" s="9"/>
       <c r="CS42" s="9"/>
       <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
@@ -29168,7 +29186,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29178,7 +29196,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29188,147 +29206,148 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31" t="s">
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31" t="s">
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31" t="s">
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31" t="s">
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31" t="s">
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31" t="s">
+      <c r="W51" s="21"/>
+      <c r="X51" s="21"/>
+      <c r="Y51" s="21"/>
+      <c r="Z51" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31" t="s">
+      <c r="AA51" s="21"/>
+      <c r="AB51" s="21"/>
+      <c r="AC51" s="21"/>
+      <c r="AD51" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31" t="s">
+      <c r="AE51" s="21"/>
+      <c r="AF51" s="21"/>
+      <c r="AG51" s="21"/>
+      <c r="AH51" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-      <c r="AL51" s="31" t="s">
+      <c r="AI51" s="21"/>
+      <c r="AJ51" s="21"/>
+      <c r="AK51" s="21"/>
+      <c r="AL51" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31" t="s">
+      <c r="AM51" s="21"/>
+      <c r="AN51" s="21"/>
+      <c r="AO51" s="21"/>
+      <c r="AP51" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="31"/>
-      <c r="AR51" s="31"/>
-      <c r="AS51" s="31"/>
-      <c r="AT51" s="31" t="s">
+      <c r="AQ51" s="21"/>
+      <c r="AR51" s="21"/>
+      <c r="AS51" s="21"/>
+      <c r="AT51" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="31"/>
-      <c r="AV51" s="31"/>
-      <c r="AW51" s="31"/>
-      <c r="AX51" s="31" t="s">
+      <c r="AU51" s="21"/>
+      <c r="AV51" s="21"/>
+      <c r="AW51" s="21"/>
+      <c r="AX51" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="31"/>
-      <c r="AZ51" s="31"/>
-      <c r="BA51" s="31"/>
-      <c r="BB51" s="31" t="s">
+      <c r="AY51" s="21"/>
+      <c r="AZ51" s="21"/>
+      <c r="BA51" s="21"/>
+      <c r="BB51" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="31"/>
-      <c r="BD51" s="31"/>
-      <c r="BE51" s="31"/>
-      <c r="BF51" s="31" t="s">
+      <c r="BC51" s="21"/>
+      <c r="BD51" s="21"/>
+      <c r="BE51" s="21"/>
+      <c r="BF51" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="31"/>
-      <c r="BH51" s="31"/>
-      <c r="BI51" s="31"/>
-      <c r="BJ51" s="31" t="s">
+      <c r="BG51" s="21"/>
+      <c r="BH51" s="21"/>
+      <c r="BI51" s="21"/>
+      <c r="BJ51" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="31"/>
-      <c r="BL51" s="31"/>
-      <c r="BM51" s="31"/>
-      <c r="BN51" s="31" t="s">
+      <c r="BK51" s="21"/>
+      <c r="BL51" s="21"/>
+      <c r="BM51" s="21"/>
+      <c r="BN51" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="31"/>
-      <c r="BP51" s="31"/>
-      <c r="BQ51" s="31"/>
-      <c r="BR51" s="31" t="s">
+      <c r="BO51" s="21"/>
+      <c r="BP51" s="21"/>
+      <c r="BQ51" s="21"/>
+      <c r="BR51" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="31"/>
-      <c r="BT51" s="31"/>
-      <c r="BU51" s="31"/>
-      <c r="BV51" s="31" t="s">
+      <c r="BS51" s="21"/>
+      <c r="BT51" s="21"/>
+      <c r="BU51" s="21"/>
+      <c r="BV51" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="31"/>
-      <c r="BX51" s="31"/>
-      <c r="BY51" s="31"/>
-      <c r="BZ51" s="31" t="s">
+      <c r="BW51" s="21"/>
+      <c r="BX51" s="21"/>
+      <c r="BY51" s="21"/>
+      <c r="BZ51" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="31"/>
-      <c r="CB51" s="31"/>
-      <c r="CC51" s="31"/>
-      <c r="CD51" s="31" t="s">
+      <c r="CA51" s="21"/>
+      <c r="CB51" s="21"/>
+      <c r="CC51" s="21"/>
+      <c r="CD51" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="31"/>
-      <c r="CF51" s="31"/>
-      <c r="CG51" s="31"/>
-      <c r="CH51" s="31" t="s">
+      <c r="CE51" s="21"/>
+      <c r="CF51" s="21"/>
+      <c r="CG51" s="21"/>
+      <c r="CH51" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="31"/>
-      <c r="CJ51" s="31"/>
-      <c r="CK51" s="31"/>
-      <c r="CL51" s="30" t="s">
+      <c r="CI51" s="21"/>
+      <c r="CJ51" s="21"/>
+      <c r="CK51" s="21"/>
+      <c r="CL51" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="30"/>
-      <c r="CN51" s="30"/>
-      <c r="CO51" s="26"/>
-      <c r="CP51" s="18"/>
-      <c r="CQ51" s="18"/>
-      <c r="CR51" s="18"/>
+      <c r="CM51" s="20"/>
+      <c r="CN51" s="20"/>
+      <c r="CO51" s="20"/>
+      <c r="CP51" s="19"/>
+      <c r="CQ51" s="19"/>
+      <c r="CR51" s="19"/>
+      <c r="CS51" s="19"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29598,19 +29617,22 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="27" t="s">
+      <c r="CL52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="27" t="s">
+      <c r="CM52" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="27" t="s">
+      <c r="CN52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO52" s="27"/>
-      <c r="CP52" s="27"/>
-      <c r="CQ52" s="27"/>
-      <c r="CR52" s="27"/>
+      <c r="CO52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP52" s="5"/>
+      <c r="CQ52" s="5"/>
+      <c r="CR52" s="5"/>
+      <c r="CS52" s="5"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29883,20 +29905,22 @@
       <c r="CK54" s="15">
         <v>15.145261361366707</v>
       </c>
-      <c r="CL54" s="28">
+      <c r="CL54" s="15">
         <v>21.950906458118283</v>
       </c>
-      <c r="CM54" s="28">
+      <c r="CM54" s="15">
         <v>15.7558978840284</v>
       </c>
-      <c r="CN54" s="28">
-        <v>7.7449820859989131</v>
-      </c>
-      <c r="CO54" s="28"/>
-      <c r="CP54" s="28"/>
-      <c r="CQ54" s="28"/>
-      <c r="CR54" s="28"/>
-      <c r="CS54" s="9"/>
+      <c r="CN54" s="15">
+        <v>7.4069840185208733</v>
+      </c>
+      <c r="CO54" s="15">
+        <v>5.1530488801111005</v>
+      </c>
+      <c r="CP54" s="15"/>
+      <c r="CQ54" s="15"/>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
       <c r="CT54" s="9"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
@@ -30217,20 +30241,22 @@
       <c r="CK55" s="15">
         <v>12.284808537876657</v>
       </c>
-      <c r="CL55" s="28">
+      <c r="CL55" s="15">
         <v>26.40749253905193</v>
       </c>
-      <c r="CM55" s="28">
+      <c r="CM55" s="15">
         <v>11.943348768206079</v>
       </c>
-      <c r="CN55" s="28">
+      <c r="CN55" s="15">
         <v>9.4089712101230134</v>
       </c>
-      <c r="CO55" s="28"/>
-      <c r="CP55" s="28"/>
-      <c r="CQ55" s="28"/>
-      <c r="CR55" s="28"/>
-      <c r="CS55" s="9"/>
+      <c r="CO55" s="15">
+        <v>-3.1196270451051333</v>
+      </c>
+      <c r="CP55" s="15"/>
+      <c r="CQ55" s="15"/>
+      <c r="CR55" s="15"/>
+      <c r="CS55" s="15"/>
       <c r="CT55" s="9"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
@@ -30551,20 +30577,22 @@
       <c r="CK56" s="15">
         <v>6.734539471039497</v>
       </c>
-      <c r="CL56" s="28">
+      <c r="CL56" s="15">
         <v>15.619783315845098</v>
       </c>
-      <c r="CM56" s="28">
+      <c r="CM56" s="15">
         <v>19.542592504576021</v>
       </c>
-      <c r="CN56" s="28">
-        <v>15.468911005344822</v>
-      </c>
-      <c r="CO56" s="28"/>
-      <c r="CP56" s="28"/>
-      <c r="CQ56" s="28"/>
-      <c r="CR56" s="28"/>
-      <c r="CS56" s="9"/>
+      <c r="CN56" s="15">
+        <v>15.557553020289731</v>
+      </c>
+      <c r="CO56" s="15">
+        <v>16.251024901256585</v>
+      </c>
+      <c r="CP56" s="15"/>
+      <c r="CQ56" s="15"/>
+      <c r="CR56" s="15"/>
+      <c r="CS56" s="15"/>
       <c r="CT56" s="9"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
@@ -30885,20 +30913,22 @@
       <c r="CK57" s="15">
         <v>11.423312856875299</v>
       </c>
-      <c r="CL57" s="28">
+      <c r="CL57" s="15">
         <v>10.159068100733066</v>
       </c>
-      <c r="CM57" s="28">
+      <c r="CM57" s="15">
         <v>6.2380304806340661</v>
       </c>
-      <c r="CN57" s="28">
-        <v>6.6759744147433224</v>
-      </c>
-      <c r="CO57" s="28"/>
-      <c r="CP57" s="28"/>
-      <c r="CQ57" s="28"/>
-      <c r="CR57" s="28"/>
-      <c r="CS57" s="9"/>
+      <c r="CN57" s="15">
+        <v>6.273759777763587</v>
+      </c>
+      <c r="CO57" s="15">
+        <v>11.601166249514705</v>
+      </c>
+      <c r="CP57" s="15"/>
+      <c r="CQ57" s="15"/>
+      <c r="CR57" s="15"/>
+      <c r="CS57" s="15"/>
       <c r="CT57" s="9"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
@@ -31040,13 +31070,13 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="25"/>
-      <c r="CM58" s="25"/>
-      <c r="CN58" s="25"/>
-      <c r="CO58" s="25"/>
-      <c r="CP58" s="25"/>
-      <c r="CQ58" s="25"/>
-      <c r="CR58" s="25"/>
+      <c r="CL58" s="9"/>
+      <c r="CM58" s="9"/>
+      <c r="CN58" s="9"/>
+      <c r="CO58" s="9"/>
+      <c r="CP58" s="9"/>
+      <c r="CQ58" s="9"/>
+      <c r="CR58" s="9"/>
       <c r="CS58" s="9"/>
       <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
@@ -31368,20 +31398,22 @@
       <c r="CK59" s="15">
         <v>13.545764568991657</v>
       </c>
-      <c r="CL59" s="28">
+      <c r="CL59" s="15">
         <v>20.995599468753042</v>
       </c>
-      <c r="CM59" s="28">
+      <c r="CM59" s="15">
         <v>16.052058526092154</v>
       </c>
-      <c r="CN59" s="28">
-        <v>8.8647566074950674</v>
-      </c>
-      <c r="CO59" s="28"/>
-      <c r="CP59" s="28"/>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="28"/>
-      <c r="CS59" s="9"/>
+      <c r="CN59" s="15">
+        <v>8.5926343978781858</v>
+      </c>
+      <c r="CO59" s="15">
+        <v>6.9174363425831729</v>
+      </c>
+      <c r="CP59" s="15"/>
+      <c r="CQ59" s="15"/>
+      <c r="CR59" s="15"/>
+      <c r="CS59" s="15"/>
       <c r="CT59" s="9"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
@@ -31524,13 +31556,14 @@
       <c r="CI60" s="13"/>
       <c r="CJ60" s="13"/>
       <c r="CK60" s="13"/>
-      <c r="CL60" s="24"/>
-      <c r="CM60" s="24"/>
-      <c r="CN60" s="24"/>
-      <c r="CO60" s="24"/>
-      <c r="CP60" s="24"/>
-      <c r="CQ60" s="24"/>
-      <c r="CR60" s="24"/>
+      <c r="CL60" s="13"/>
+      <c r="CM60" s="13"/>
+      <c r="CN60" s="13"/>
+      <c r="CO60" s="13"/>
+      <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
+      <c r="CR60" s="13"/>
+      <c r="CS60" s="13"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31626,14 +31659,14 @@
       <c r="CI62" s="17"/>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="17"/>
-      <c r="CL62" s="29"/>
-      <c r="CM62" s="29"/>
-      <c r="CN62" s="29"/>
-      <c r="CO62" s="29"/>
-      <c r="CP62" s="29"/>
-      <c r="CQ62" s="29"/>
-      <c r="CR62" s="29"/>
-      <c r="CS62" s="9"/>
+      <c r="CL62" s="18"/>
+      <c r="CM62" s="18"/>
+      <c r="CN62" s="18"/>
+      <c r="CO62" s="18"/>
+      <c r="CP62" s="18"/>
+      <c r="CQ62" s="18"/>
+      <c r="CR62" s="18"/>
+      <c r="CS62" s="18"/>
       <c r="CT62" s="9"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
@@ -31775,13 +31808,13 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="25"/>
-      <c r="CM63" s="25"/>
-      <c r="CN63" s="25"/>
-      <c r="CO63" s="25"/>
-      <c r="CP63" s="25"/>
-      <c r="CQ63" s="25"/>
-      <c r="CR63" s="25"/>
+      <c r="CL63" s="9"/>
+      <c r="CM63" s="9"/>
+      <c r="CN63" s="9"/>
+      <c r="CO63" s="9"/>
+      <c r="CP63" s="9"/>
+      <c r="CQ63" s="9"/>
+      <c r="CR63" s="9"/>
       <c r="CS63" s="9"/>
       <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
@@ -31847,7 +31880,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31857,7 +31890,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31867,147 +31900,148 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="31" t="s">
+      <c r="B72" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="30"/>
-      <c r="F72" s="31" t="s">
+      <c r="C72" s="23"/>
+      <c r="D72" s="23"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="30"/>
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="31" t="s">
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="31" t="s">
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="30"/>
-      <c r="P72" s="30"/>
-      <c r="Q72" s="30"/>
-      <c r="R72" s="31" t="s">
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="30"/>
-      <c r="T72" s="30"/>
-      <c r="U72" s="30"/>
-      <c r="V72" s="31" t="s">
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="30"/>
-      <c r="X72" s="30"/>
-      <c r="Y72" s="30"/>
-      <c r="Z72" s="31" t="s">
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="30"/>
-      <c r="AB72" s="30"/>
-      <c r="AC72" s="30"/>
-      <c r="AD72" s="31" t="s">
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="30"/>
-      <c r="AF72" s="30"/>
-      <c r="AG72" s="30"/>
-      <c r="AH72" s="31" t="s">
+      <c r="AE72" s="23"/>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="30"/>
-      <c r="AJ72" s="30"/>
-      <c r="AK72" s="30"/>
-      <c r="AL72" s="31" t="s">
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="23"/>
+      <c r="AL72" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="30"/>
-      <c r="AN72" s="30"/>
-      <c r="AO72" s="30"/>
-      <c r="AP72" s="31" t="s">
+      <c r="AM72" s="23"/>
+      <c r="AN72" s="23"/>
+      <c r="AO72" s="23"/>
+      <c r="AP72" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="30"/>
-      <c r="AR72" s="30"/>
-      <c r="AS72" s="30"/>
-      <c r="AT72" s="31" t="s">
+      <c r="AQ72" s="23"/>
+      <c r="AR72" s="23"/>
+      <c r="AS72" s="23"/>
+      <c r="AT72" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="30"/>
-      <c r="AV72" s="30"/>
-      <c r="AW72" s="30"/>
-      <c r="AX72" s="31" t="s">
+      <c r="AU72" s="23"/>
+      <c r="AV72" s="23"/>
+      <c r="AW72" s="23"/>
+      <c r="AX72" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="30"/>
-      <c r="AZ72" s="30"/>
-      <c r="BA72" s="30"/>
-      <c r="BB72" s="31" t="s">
+      <c r="AY72" s="23"/>
+      <c r="AZ72" s="23"/>
+      <c r="BA72" s="23"/>
+      <c r="BB72" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="30"/>
-      <c r="BD72" s="30"/>
-      <c r="BE72" s="30"/>
-      <c r="BF72" s="31" t="s">
+      <c r="BC72" s="23"/>
+      <c r="BD72" s="23"/>
+      <c r="BE72" s="23"/>
+      <c r="BF72" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="30"/>
-      <c r="BH72" s="30"/>
-      <c r="BI72" s="30"/>
-      <c r="BJ72" s="31" t="s">
+      <c r="BG72" s="23"/>
+      <c r="BH72" s="23"/>
+      <c r="BI72" s="23"/>
+      <c r="BJ72" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="30"/>
-      <c r="BL72" s="30"/>
-      <c r="BM72" s="30"/>
-      <c r="BN72" s="31" t="s">
+      <c r="BK72" s="23"/>
+      <c r="BL72" s="23"/>
+      <c r="BM72" s="23"/>
+      <c r="BN72" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="30"/>
-      <c r="BP72" s="30"/>
-      <c r="BQ72" s="30"/>
-      <c r="BR72" s="31" t="s">
+      <c r="BO72" s="23"/>
+      <c r="BP72" s="23"/>
+      <c r="BQ72" s="23"/>
+      <c r="BR72" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="30"/>
-      <c r="BT72" s="30"/>
-      <c r="BU72" s="30"/>
-      <c r="BV72" s="31" t="s">
+      <c r="BS72" s="23"/>
+      <c r="BT72" s="23"/>
+      <c r="BU72" s="23"/>
+      <c r="BV72" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="30"/>
-      <c r="BX72" s="30"/>
-      <c r="BY72" s="30"/>
-      <c r="BZ72" s="31" t="s">
+      <c r="BW72" s="23"/>
+      <c r="BX72" s="23"/>
+      <c r="BY72" s="23"/>
+      <c r="BZ72" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="30"/>
-      <c r="CB72" s="30"/>
-      <c r="CC72" s="30"/>
-      <c r="CD72" s="31" t="s">
+      <c r="CA72" s="23"/>
+      <c r="CB72" s="23"/>
+      <c r="CC72" s="23"/>
+      <c r="CD72" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="31"/>
-      <c r="CF72" s="31"/>
-      <c r="CG72" s="31"/>
-      <c r="CH72" s="31" t="s">
+      <c r="CE72" s="21"/>
+      <c r="CF72" s="21"/>
+      <c r="CG72" s="21"/>
+      <c r="CH72" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="31"/>
-      <c r="CJ72" s="31"/>
-      <c r="CK72" s="31"/>
-      <c r="CL72" s="30" t="s">
+      <c r="CI72" s="21"/>
+      <c r="CJ72" s="21"/>
+      <c r="CK72" s="21"/>
+      <c r="CL72" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="30"/>
-      <c r="CN72" s="30"/>
-      <c r="CO72" s="26"/>
-      <c r="CP72" s="18"/>
-      <c r="CQ72" s="18"/>
-      <c r="CR72" s="18"/>
+      <c r="CM72" s="20"/>
+      <c r="CN72" s="20"/>
+      <c r="CO72" s="20"/>
+      <c r="CP72" s="19"/>
+      <c r="CQ72" s="19"/>
+      <c r="CR72" s="19"/>
+      <c r="CS72" s="19"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32277,19 +32311,22 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="27" t="s">
+      <c r="CL73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="27" t="s">
+      <c r="CM73" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="27" t="s">
+      <c r="CN73" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CO73" s="27"/>
-      <c r="CP73" s="27"/>
-      <c r="CQ73" s="27"/>
-      <c r="CR73" s="27"/>
+      <c r="CO73" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="CP73" s="5"/>
+      <c r="CQ73" s="5"/>
+      <c r="CR73" s="5"/>
+      <c r="CS73" s="5"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32562,20 +32599,22 @@
       <c r="CK75" s="15">
         <v>4.3492103429426265</v>
       </c>
-      <c r="CL75" s="28">
+      <c r="CL75" s="15">
         <v>6.6971222537265334</v>
       </c>
-      <c r="CM75" s="28">
+      <c r="CM75" s="15">
         <v>4.266615646412049</v>
       </c>
-      <c r="CN75" s="28">
-        <v>7.5589475845554688</v>
-      </c>
-      <c r="CO75" s="28"/>
-      <c r="CP75" s="28"/>
-      <c r="CQ75" s="28"/>
-      <c r="CR75" s="28"/>
-      <c r="CS75" s="9"/>
+      <c r="CN75" s="15">
+        <v>7.2215331108629783</v>
+      </c>
+      <c r="CO75" s="15">
+        <v>7.2842874596466487</v>
+      </c>
+      <c r="CP75" s="15"/>
+      <c r="CQ75" s="15"/>
+      <c r="CR75" s="15"/>
+      <c r="CS75" s="15"/>
       <c r="CT75" s="9"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
@@ -32896,20 +32935,22 @@
       <c r="CK76" s="15">
         <v>5.5953830504098505</v>
       </c>
-      <c r="CL76" s="28">
+      <c r="CL76" s="15">
         <v>20.229356544387841</v>
       </c>
-      <c r="CM76" s="28">
+      <c r="CM76" s="15">
         <v>5.6815206563201457</v>
       </c>
-      <c r="CN76" s="28">
+      <c r="CN76" s="15">
         <v>1.4401258101026713</v>
       </c>
-      <c r="CO76" s="28"/>
-      <c r="CP76" s="28"/>
-      <c r="CQ76" s="28"/>
-      <c r="CR76" s="28"/>
-      <c r="CS76" s="9"/>
+      <c r="CO76" s="15">
+        <v>-8.3932154770660787</v>
+      </c>
+      <c r="CP76" s="15"/>
+      <c r="CQ76" s="15"/>
+      <c r="CR76" s="15"/>
+      <c r="CS76" s="15"/>
       <c r="CT76" s="9"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
@@ -33230,20 +33271,22 @@
       <c r="CK77" s="15">
         <v>11.540998875165414</v>
       </c>
-      <c r="CL77" s="28">
+      <c r="CL77" s="15">
         <v>8.1172249546778659</v>
       </c>
-      <c r="CM77" s="28">
+      <c r="CM77" s="15">
         <v>7.3479967644467905</v>
       </c>
-      <c r="CN77" s="28">
-        <v>4.2317773243299257</v>
-      </c>
-      <c r="CO77" s="28"/>
-      <c r="CP77" s="28"/>
-      <c r="CQ77" s="28"/>
-      <c r="CR77" s="28"/>
-      <c r="CS77" s="9"/>
+      <c r="CN77" s="15">
+        <v>4.3117929292479715</v>
+      </c>
+      <c r="CO77" s="15">
+        <v>4.1244731072151524</v>
+      </c>
+      <c r="CP77" s="15"/>
+      <c r="CQ77" s="15"/>
+      <c r="CR77" s="15"/>
+      <c r="CS77" s="15"/>
       <c r="CT77" s="9"/>
       <c r="CU77" s="9"/>
       <c r="CV77" s="9"/>
@@ -33564,20 +33607,22 @@
       <c r="CK78" s="15">
         <v>10.791525685391562</v>
       </c>
-      <c r="CL78" s="28">
+      <c r="CL78" s="15">
         <v>6.46937088915152</v>
       </c>
-      <c r="CM78" s="28">
+      <c r="CM78" s="15">
         <v>2.3858273975784385</v>
       </c>
-      <c r="CN78" s="28">
-        <v>2.8423560885824344</v>
-      </c>
-      <c r="CO78" s="28"/>
-      <c r="CP78" s="28"/>
-      <c r="CQ78" s="28"/>
-      <c r="CR78" s="28"/>
-      <c r="CS78" s="9"/>
+      <c r="CN78" s="15">
+        <v>2.4545958534662162</v>
+      </c>
+      <c r="CO78" s="15">
+        <v>7.7500475234349722</v>
+      </c>
+      <c r="CP78" s="15"/>
+      <c r="CQ78" s="15"/>
+      <c r="CR78" s="15"/>
+      <c r="CS78" s="15"/>
       <c r="CT78" s="9"/>
       <c r="CU78" s="9"/>
       <c r="CV78" s="9"/>
@@ -33719,13 +33764,13 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="25"/>
-      <c r="CM79" s="25"/>
-      <c r="CN79" s="25"/>
-      <c r="CO79" s="25"/>
-      <c r="CP79" s="25"/>
-      <c r="CQ79" s="25"/>
-      <c r="CR79" s="25"/>
+      <c r="CL79" s="9"/>
+      <c r="CM79" s="9"/>
+      <c r="CN79" s="9"/>
+      <c r="CO79" s="9"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
       <c r="CS79" s="9"/>
       <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
@@ -34047,20 +34092,22 @@
       <c r="CK80" s="15">
         <v>5.6530764414741697</v>
       </c>
-      <c r="CL80" s="28">
+      <c r="CL80" s="15">
         <v>7.2109953940613991</v>
       </c>
-      <c r="CM80" s="28">
+      <c r="CM80" s="15">
         <v>4.7471612801385703</v>
       </c>
-      <c r="CN80" s="28">
-        <v>6.9860471529503059</v>
-      </c>
-      <c r="CO80" s="28"/>
-      <c r="CP80" s="28"/>
-      <c r="CQ80" s="28"/>
-      <c r="CR80" s="28"/>
-      <c r="CS80" s="9"/>
+      <c r="CN80" s="15">
+        <v>6.7064775891853827</v>
+      </c>
+      <c r="CO80" s="15">
+        <v>6.4318131527736568</v>
+      </c>
+      <c r="CP80" s="15"/>
+      <c r="CQ80" s="15"/>
+      <c r="CR80" s="15"/>
+      <c r="CS80" s="15"/>
       <c r="CT80" s="9"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
@@ -34203,13 +34250,14 @@
       <c r="CI81" s="13"/>
       <c r="CJ81" s="13"/>
       <c r="CK81" s="13"/>
-      <c r="CL81" s="24"/>
-      <c r="CM81" s="24"/>
-      <c r="CN81" s="24"/>
-      <c r="CO81" s="24"/>
-      <c r="CP81" s="24"/>
-      <c r="CQ81" s="24"/>
-      <c r="CR81" s="24"/>
+      <c r="CL81" s="13"/>
+      <c r="CM81" s="13"/>
+      <c r="CN81" s="13"/>
+      <c r="CO81" s="13"/>
+      <c r="CP81" s="13"/>
+      <c r="CQ81" s="13"/>
+      <c r="CR81" s="13"/>
+      <c r="CS81" s="13"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34305,13 +34353,13 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="25"/>
-      <c r="CM83" s="25"/>
-      <c r="CN83" s="25"/>
-      <c r="CO83" s="25"/>
-      <c r="CP83" s="25"/>
-      <c r="CQ83" s="25"/>
-      <c r="CR83" s="25"/>
+      <c r="CL83" s="9"/>
+      <c r="CM83" s="9"/>
+      <c r="CN83" s="9"/>
+      <c r="CO83" s="9"/>
+      <c r="CP83" s="9"/>
+      <c r="CQ83" s="9"/>
+      <c r="CR83" s="9"/>
       <c r="CS83" s="9"/>
       <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
@@ -34454,13 +34502,13 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="25"/>
-      <c r="CM84" s="25"/>
-      <c r="CN84" s="25"/>
-      <c r="CO84" s="25"/>
-      <c r="CP84" s="25"/>
-      <c r="CQ84" s="25"/>
-      <c r="CR84" s="25"/>
+      <c r="CL84" s="9"/>
+      <c r="CM84" s="9"/>
+      <c r="CN84" s="9"/>
+      <c r="CO84" s="9"/>
+      <c r="CP84" s="9"/>
+      <c r="CQ84" s="9"/>
+      <c r="CR84" s="9"/>
       <c r="CS84" s="9"/>
       <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
@@ -34521,7 +34569,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34531,7 +34579,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34541,149 +34589,150 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="31">
+      <c r="B92" s="21">
         <v>2000</v>
       </c>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="32"/>
-      <c r="F92" s="31">
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="21">
         <v>2001</v>
       </c>
-      <c r="G92" s="32"/>
-      <c r="H92" s="32"/>
-      <c r="I92" s="32"/>
-      <c r="J92" s="31">
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+      <c r="I92" s="22"/>
+      <c r="J92" s="21">
         <v>2002</v>
       </c>
-      <c r="K92" s="32"/>
-      <c r="L92" s="32"/>
-      <c r="M92" s="32"/>
-      <c r="N92" s="31">
+      <c r="K92" s="22"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="21">
         <v>2003</v>
       </c>
-      <c r="O92" s="32"/>
-      <c r="P92" s="32"/>
-      <c r="Q92" s="32"/>
-      <c r="R92" s="31">
+      <c r="O92" s="22"/>
+      <c r="P92" s="22"/>
+      <c r="Q92" s="22"/>
+      <c r="R92" s="21">
         <v>2004</v>
       </c>
-      <c r="S92" s="32"/>
-      <c r="T92" s="32"/>
-      <c r="U92" s="32"/>
-      <c r="V92" s="31">
+      <c r="S92" s="22"/>
+      <c r="T92" s="22"/>
+      <c r="U92" s="22"/>
+      <c r="V92" s="21">
         <v>2005</v>
       </c>
-      <c r="W92" s="32"/>
-      <c r="X92" s="32"/>
-      <c r="Y92" s="32"/>
-      <c r="Z92" s="31">
+      <c r="W92" s="22"/>
+      <c r="X92" s="22"/>
+      <c r="Y92" s="22"/>
+      <c r="Z92" s="21">
         <v>2006</v>
       </c>
-      <c r="AA92" s="32"/>
-      <c r="AB92" s="32"/>
-      <c r="AC92" s="32"/>
-      <c r="AD92" s="31">
+      <c r="AA92" s="22"/>
+      <c r="AB92" s="22"/>
+      <c r="AC92" s="22"/>
+      <c r="AD92" s="21">
         <v>2007</v>
       </c>
-      <c r="AE92" s="32"/>
-      <c r="AF92" s="32"/>
-      <c r="AG92" s="32"/>
-      <c r="AH92" s="31">
+      <c r="AE92" s="22"/>
+      <c r="AF92" s="22"/>
+      <c r="AG92" s="22"/>
+      <c r="AH92" s="21">
         <v>2008</v>
       </c>
-      <c r="AI92" s="32"/>
-      <c r="AJ92" s="32"/>
-      <c r="AK92" s="32"/>
-      <c r="AL92" s="31">
+      <c r="AI92" s="22"/>
+      <c r="AJ92" s="22"/>
+      <c r="AK92" s="22"/>
+      <c r="AL92" s="21">
         <v>2009</v>
       </c>
-      <c r="AM92" s="32"/>
-      <c r="AN92" s="32"/>
-      <c r="AO92" s="32"/>
-      <c r="AP92" s="31">
+      <c r="AM92" s="22"/>
+      <c r="AN92" s="22"/>
+      <c r="AO92" s="22"/>
+      <c r="AP92" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="32"/>
-      <c r="AR92" s="32"/>
-      <c r="AS92" s="32"/>
-      <c r="AT92" s="31">
+      <c r="AQ92" s="22"/>
+      <c r="AR92" s="22"/>
+      <c r="AS92" s="22"/>
+      <c r="AT92" s="21">
         <v>2011</v>
       </c>
-      <c r="AU92" s="32"/>
-      <c r="AV92" s="32"/>
-      <c r="AW92" s="32"/>
-      <c r="AX92" s="31">
+      <c r="AU92" s="22"/>
+      <c r="AV92" s="22"/>
+      <c r="AW92" s="22"/>
+      <c r="AX92" s="21">
         <v>2012</v>
       </c>
-      <c r="AY92" s="32"/>
-      <c r="AZ92" s="32"/>
-      <c r="BA92" s="32"/>
-      <c r="BB92" s="31">
+      <c r="AY92" s="22"/>
+      <c r="AZ92" s="22"/>
+      <c r="BA92" s="22"/>
+      <c r="BB92" s="21">
         <v>2013</v>
       </c>
-      <c r="BC92" s="32"/>
-      <c r="BD92" s="32"/>
-      <c r="BE92" s="32"/>
-      <c r="BF92" s="31">
+      <c r="BC92" s="22"/>
+      <c r="BD92" s="22"/>
+      <c r="BE92" s="22"/>
+      <c r="BF92" s="21">
         <v>2014</v>
       </c>
-      <c r="BG92" s="32"/>
-      <c r="BH92" s="32"/>
-      <c r="BI92" s="32"/>
-      <c r="BJ92" s="31">
+      <c r="BG92" s="22"/>
+      <c r="BH92" s="22"/>
+      <c r="BI92" s="22"/>
+      <c r="BJ92" s="21">
         <v>2015</v>
       </c>
-      <c r="BK92" s="32"/>
-      <c r="BL92" s="32"/>
-      <c r="BM92" s="32"/>
-      <c r="BN92" s="31">
+      <c r="BK92" s="22"/>
+      <c r="BL92" s="22"/>
+      <c r="BM92" s="22"/>
+      <c r="BN92" s="21">
         <v>2016</v>
       </c>
-      <c r="BO92" s="32"/>
-      <c r="BP92" s="32"/>
-      <c r="BQ92" s="32"/>
-      <c r="BR92" s="31">
+      <c r="BO92" s="22"/>
+      <c r="BP92" s="22"/>
+      <c r="BQ92" s="22"/>
+      <c r="BR92" s="21">
         <v>2017</v>
       </c>
-      <c r="BS92" s="32"/>
-      <c r="BT92" s="32"/>
-      <c r="BU92" s="32"/>
-      <c r="BV92" s="31">
+      <c r="BS92" s="22"/>
+      <c r="BT92" s="22"/>
+      <c r="BU92" s="22"/>
+      <c r="BV92" s="21">
         <v>2018</v>
       </c>
-      <c r="BW92" s="32"/>
-      <c r="BX92" s="32"/>
-      <c r="BY92" s="32"/>
-      <c r="BZ92" s="31">
+      <c r="BW92" s="22"/>
+      <c r="BX92" s="22"/>
+      <c r="BY92" s="22"/>
+      <c r="BZ92" s="21">
         <v>2019</v>
       </c>
-      <c r="CA92" s="32"/>
-      <c r="CB92" s="32"/>
-      <c r="CC92" s="32"/>
-      <c r="CD92" s="31">
+      <c r="CA92" s="22"/>
+      <c r="CB92" s="22"/>
+      <c r="CC92" s="22"/>
+      <c r="CD92" s="21">
         <v>2020</v>
       </c>
-      <c r="CE92" s="31"/>
-      <c r="CF92" s="31"/>
-      <c r="CG92" s="31"/>
-      <c r="CH92" s="31">
+      <c r="CE92" s="21"/>
+      <c r="CF92" s="21"/>
+      <c r="CG92" s="21"/>
+      <c r="CH92" s="21">
         <v>2021</v>
       </c>
-      <c r="CI92" s="31"/>
-      <c r="CJ92" s="31"/>
-      <c r="CK92" s="31"/>
-      <c r="CL92" s="30">
+      <c r="CI92" s="21"/>
+      <c r="CJ92" s="21"/>
+      <c r="CK92" s="21"/>
+      <c r="CL92" s="20">
         <v>2022</v>
       </c>
-      <c r="CM92" s="30"/>
-      <c r="CN92" s="30"/>
-      <c r="CO92" s="30"/>
-      <c r="CP92" s="30">
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
+      <c r="CP92" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="30"/>
-      <c r="CR92" s="30"/>
+      <c r="CQ92" s="20"/>
+      <c r="CR92" s="20"/>
+      <c r="CS92" s="20"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -34953,26 +35002,29 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="20" t="s">
+      <c r="CL93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="20" t="s">
+      <c r="CM93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="20" t="s">
+      <c r="CN93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="20" t="s">
+      <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="20" t="s">
+      <c r="CP93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="20" t="s">
+      <c r="CQ93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="20" t="s">
+      <c r="CR93" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS93" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35246,28 +35298,30 @@
       <c r="CK95" s="15">
         <v>97.443084652735706</v>
       </c>
-      <c r="CL95" s="28">
+      <c r="CL95" s="15">
         <v>129.1921055375966</v>
       </c>
-      <c r="CM95" s="28">
+      <c r="CM95" s="15">
         <v>151.92605910186657</v>
       </c>
-      <c r="CN95" s="28">
+      <c r="CN95" s="15">
         <v>86.896751193835854</v>
       </c>
-      <c r="CO95" s="28">
+      <c r="CO95" s="15">
         <v>107.52462249903239</v>
       </c>
-      <c r="CP95" s="28">
+      <c r="CP95" s="15">
         <v>147.66184921161283</v>
       </c>
-      <c r="CQ95" s="28">
+      <c r="CQ95" s="15">
         <v>168.66700117089397</v>
       </c>
-      <c r="CR95" s="28">
-        <v>87.047048255572093</v>
-      </c>
-      <c r="CS95" s="9"/>
+      <c r="CR95" s="15">
+        <v>87.047048255572108</v>
+      </c>
+      <c r="CS95" s="15">
+        <v>105.38860958282481</v>
+      </c>
       <c r="CT95" s="9"/>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
@@ -35592,28 +35646,30 @@
       <c r="CK96" s="15">
         <v>105.88401340202043</v>
       </c>
-      <c r="CL96" s="28">
+      <c r="CL96" s="15">
         <v>109.55901364959652</v>
       </c>
-      <c r="CM96" s="28">
+      <c r="CM96" s="15">
         <v>114.61373957305119</v>
       </c>
-      <c r="CN96" s="28">
+      <c r="CN96" s="15">
         <v>103.75939008564161</v>
       </c>
-      <c r="CO96" s="28">
+      <c r="CO96" s="15">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="28">
+      <c r="CP96" s="15">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="28">
+      <c r="CQ96" s="15">
         <v>121.40481839184358</v>
       </c>
-      <c r="CR96" s="28">
+      <c r="CR96" s="15">
         <v>111.91043023656513</v>
       </c>
-      <c r="CS96" s="9"/>
+      <c r="CS96" s="15">
+        <v>119.07336581930508</v>
+      </c>
       <c r="CT96" s="9"/>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
@@ -35938,28 +35994,30 @@
       <c r="CK97" s="15">
         <v>105.73101596312007</v>
       </c>
-      <c r="CL97" s="28">
+      <c r="CL97" s="15">
         <v>105.96078951648336</v>
       </c>
-      <c r="CM97" s="28">
+      <c r="CM97" s="15">
         <v>107.94068042193517</v>
       </c>
-      <c r="CN97" s="28">
+      <c r="CN97" s="15">
         <v>99.507171032664786</v>
       </c>
-      <c r="CO97" s="28">
+      <c r="CO97" s="15">
         <v>101.17491694026226</v>
       </c>
-      <c r="CP97" s="28">
+      <c r="CP97" s="15">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="28">
+      <c r="CQ97" s="15">
         <v>120.20260427085725</v>
       </c>
-      <c r="CR97" s="28">
-        <v>110.23494918072731</v>
-      </c>
-      <c r="CS97" s="9"/>
+      <c r="CR97" s="15">
+        <v>110.2349491807273</v>
+      </c>
+      <c r="CS97" s="15">
+        <v>112.95795731416753</v>
+      </c>
       <c r="CT97" s="9"/>
       <c r="CU97" s="9"/>
       <c r="CV97" s="9"/>
@@ -36284,28 +36342,30 @@
       <c r="CK98" s="15">
         <v>110.86896769840675</v>
       </c>
-      <c r="CL98" s="28">
+      <c r="CL98" s="15">
         <v>111.00454898162579</v>
       </c>
-      <c r="CM98" s="28">
+      <c r="CM98" s="15">
         <v>113.23838408637346</v>
       </c>
-      <c r="CN98" s="28">
+      <c r="CN98" s="15">
         <v>112.67416677080821</v>
       </c>
-      <c r="CO98" s="28">
+      <c r="CO98" s="15">
         <v>111.50119648191861</v>
       </c>
-      <c r="CP98" s="28">
+      <c r="CP98" s="15">
         <v>114.85141283955909</v>
       </c>
-      <c r="CQ98" s="28">
+      <c r="CQ98" s="15">
         <v>117.49890786574258</v>
       </c>
-      <c r="CR98" s="28">
-        <v>116.8742820447662</v>
-      </c>
-      <c r="CS98" s="9"/>
+      <c r="CR98" s="15">
+        <v>116.87428204476622</v>
+      </c>
+      <c r="CS98" s="15">
+        <v>115.48638586810813</v>
+      </c>
       <c r="CT98" s="9"/>
       <c r="CU98" s="9"/>
       <c r="CV98" s="9"/>
@@ -36451,14 +36511,14 @@
       <c r="CI99" s="15"/>
       <c r="CJ99" s="15"/>
       <c r="CK99" s="15"/>
-      <c r="CL99" s="28"/>
-      <c r="CM99" s="28"/>
-      <c r="CN99" s="28"/>
-      <c r="CO99" s="28"/>
-      <c r="CP99" s="28"/>
-      <c r="CQ99" s="28"/>
-      <c r="CR99" s="28"/>
-      <c r="CS99" s="9"/>
+      <c r="CL99" s="15"/>
+      <c r="CM99" s="15"/>
+      <c r="CN99" s="15"/>
+      <c r="CO99" s="15"/>
+      <c r="CP99" s="15"/>
+      <c r="CQ99" s="15"/>
+      <c r="CR99" s="15"/>
+      <c r="CS99" s="15"/>
       <c r="CT99" s="9"/>
       <c r="CU99" s="9"/>
       <c r="CV99" s="9"/>
@@ -36783,28 +36843,30 @@
       <c r="CK100" s="15">
         <v>99.170493014902888</v>
       </c>
-      <c r="CL100" s="28">
+      <c r="CL100" s="15">
         <v>124.66603672007838</v>
       </c>
-      <c r="CM100" s="28">
+      <c r="CM100" s="15">
         <v>143.97758876815226</v>
       </c>
-      <c r="CN100" s="28">
+      <c r="CN100" s="15">
         <v>89.074378828905992</v>
       </c>
-      <c r="CO100" s="28">
+      <c r="CO100" s="15">
         <v>106.57890741400809</v>
       </c>
-      <c r="CP100" s="28">
+      <c r="CP100" s="15">
         <v>140.69491464841857</v>
       </c>
-      <c r="CQ100" s="28">
+      <c r="CQ100" s="15">
         <v>159.51645232161013</v>
       </c>
-      <c r="CR100" s="28">
-        <v>90.638553617271867</v>
-      </c>
-      <c r="CS100" s="9"/>
+      <c r="CR100" s="15">
+        <v>90.648868493488905</v>
+      </c>
+      <c r="CS100" s="15">
+        <v>107.06520176014038</v>
+      </c>
       <c r="CT100" s="9"/>
       <c r="CU100" s="9"/>
       <c r="CV100" s="9"/>
@@ -36951,13 +37013,14 @@
       <c r="CI101" s="13"/>
       <c r="CJ101" s="13"/>
       <c r="CK101" s="13"/>
-      <c r="CL101" s="24"/>
-      <c r="CM101" s="24"/>
-      <c r="CN101" s="24"/>
-      <c r="CO101" s="24"/>
-      <c r="CP101" s="24"/>
-      <c r="CQ101" s="24"/>
-      <c r="CR101" s="24"/>
+      <c r="CL101" s="13"/>
+      <c r="CM101" s="13"/>
+      <c r="CN101" s="13"/>
+      <c r="CO101" s="13"/>
+      <c r="CP101" s="13"/>
+      <c r="CQ101" s="13"/>
+      <c r="CR101" s="13"/>
+      <c r="CS101" s="13"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -36976,7 +37039,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -36986,7 +37049,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -36996,149 +37059,150 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="31">
+      <c r="B113" s="21">
         <v>2000</v>
       </c>
-      <c r="C113" s="32"/>
-      <c r="D113" s="32"/>
-      <c r="E113" s="32"/>
-      <c r="F113" s="31">
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="21">
         <v>2001</v>
       </c>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="32"/>
-      <c r="J113" s="31">
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+      <c r="I113" s="22"/>
+      <c r="J113" s="21">
         <v>2002</v>
       </c>
-      <c r="K113" s="32"/>
-      <c r="L113" s="32"/>
-      <c r="M113" s="32"/>
-      <c r="N113" s="31">
+      <c r="K113" s="22"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="22"/>
+      <c r="N113" s="21">
         <v>2003</v>
       </c>
-      <c r="O113" s="32"/>
-      <c r="P113" s="32"/>
-      <c r="Q113" s="32"/>
-      <c r="R113" s="31">
+      <c r="O113" s="22"/>
+      <c r="P113" s="22"/>
+      <c r="Q113" s="22"/>
+      <c r="R113" s="21">
         <v>2004</v>
       </c>
-      <c r="S113" s="32"/>
-      <c r="T113" s="32"/>
-      <c r="U113" s="32"/>
-      <c r="V113" s="31">
+      <c r="S113" s="22"/>
+      <c r="T113" s="22"/>
+      <c r="U113" s="22"/>
+      <c r="V113" s="21">
         <v>2005</v>
       </c>
-      <c r="W113" s="32"/>
-      <c r="X113" s="32"/>
-      <c r="Y113" s="32"/>
-      <c r="Z113" s="31">
+      <c r="W113" s="22"/>
+      <c r="X113" s="22"/>
+      <c r="Y113" s="22"/>
+      <c r="Z113" s="21">
         <v>2006</v>
       </c>
-      <c r="AA113" s="32"/>
-      <c r="AB113" s="32"/>
-      <c r="AC113" s="32"/>
-      <c r="AD113" s="31">
+      <c r="AA113" s="22"/>
+      <c r="AB113" s="22"/>
+      <c r="AC113" s="22"/>
+      <c r="AD113" s="21">
         <v>2007</v>
       </c>
-      <c r="AE113" s="32"/>
-      <c r="AF113" s="32"/>
-      <c r="AG113" s="32"/>
-      <c r="AH113" s="31">
+      <c r="AE113" s="22"/>
+      <c r="AF113" s="22"/>
+      <c r="AG113" s="22"/>
+      <c r="AH113" s="21">
         <v>2008</v>
       </c>
-      <c r="AI113" s="32"/>
-      <c r="AJ113" s="32"/>
-      <c r="AK113" s="32"/>
-      <c r="AL113" s="31">
+      <c r="AI113" s="22"/>
+      <c r="AJ113" s="22"/>
+      <c r="AK113" s="22"/>
+      <c r="AL113" s="21">
         <v>2009</v>
       </c>
-      <c r="AM113" s="32"/>
-      <c r="AN113" s="32"/>
-      <c r="AO113" s="32"/>
-      <c r="AP113" s="31">
+      <c r="AM113" s="22"/>
+      <c r="AN113" s="22"/>
+      <c r="AO113" s="22"/>
+      <c r="AP113" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="32"/>
-      <c r="AR113" s="32"/>
-      <c r="AS113" s="32"/>
-      <c r="AT113" s="31">
+      <c r="AQ113" s="22"/>
+      <c r="AR113" s="22"/>
+      <c r="AS113" s="22"/>
+      <c r="AT113" s="21">
         <v>2011</v>
       </c>
-      <c r="AU113" s="32"/>
-      <c r="AV113" s="32"/>
-      <c r="AW113" s="32"/>
-      <c r="AX113" s="31">
+      <c r="AU113" s="22"/>
+      <c r="AV113" s="22"/>
+      <c r="AW113" s="22"/>
+      <c r="AX113" s="21">
         <v>2012</v>
       </c>
-      <c r="AY113" s="32"/>
-      <c r="AZ113" s="32"/>
-      <c r="BA113" s="32"/>
-      <c r="BB113" s="31">
+      <c r="AY113" s="22"/>
+      <c r="AZ113" s="22"/>
+      <c r="BA113" s="22"/>
+      <c r="BB113" s="21">
         <v>2013</v>
       </c>
-      <c r="BC113" s="32"/>
-      <c r="BD113" s="32"/>
-      <c r="BE113" s="32"/>
-      <c r="BF113" s="31">
+      <c r="BC113" s="22"/>
+      <c r="BD113" s="22"/>
+      <c r="BE113" s="22"/>
+      <c r="BF113" s="21">
         <v>2014</v>
       </c>
-      <c r="BG113" s="32"/>
-      <c r="BH113" s="32"/>
-      <c r="BI113" s="32"/>
-      <c r="BJ113" s="31">
+      <c r="BG113" s="22"/>
+      <c r="BH113" s="22"/>
+      <c r="BI113" s="22"/>
+      <c r="BJ113" s="21">
         <v>2015</v>
       </c>
-      <c r="BK113" s="32"/>
-      <c r="BL113" s="32"/>
-      <c r="BM113" s="32"/>
-      <c r="BN113" s="31">
+      <c r="BK113" s="22"/>
+      <c r="BL113" s="22"/>
+      <c r="BM113" s="22"/>
+      <c r="BN113" s="21">
         <v>2016</v>
       </c>
-      <c r="BO113" s="32"/>
-      <c r="BP113" s="32"/>
-      <c r="BQ113" s="32"/>
-      <c r="BR113" s="31">
+      <c r="BO113" s="22"/>
+      <c r="BP113" s="22"/>
+      <c r="BQ113" s="22"/>
+      <c r="BR113" s="21">
         <v>2017</v>
       </c>
-      <c r="BS113" s="32"/>
-      <c r="BT113" s="32"/>
-      <c r="BU113" s="32"/>
-      <c r="BV113" s="31">
+      <c r="BS113" s="22"/>
+      <c r="BT113" s="22"/>
+      <c r="BU113" s="22"/>
+      <c r="BV113" s="21">
         <v>2018</v>
       </c>
-      <c r="BW113" s="32"/>
-      <c r="BX113" s="32"/>
-      <c r="BY113" s="32"/>
-      <c r="BZ113" s="31">
+      <c r="BW113" s="22"/>
+      <c r="BX113" s="22"/>
+      <c r="BY113" s="22"/>
+      <c r="BZ113" s="21">
         <v>2019</v>
       </c>
-      <c r="CA113" s="32"/>
-      <c r="CB113" s="32"/>
-      <c r="CC113" s="32"/>
-      <c r="CD113" s="31">
+      <c r="CA113" s="22"/>
+      <c r="CB113" s="22"/>
+      <c r="CC113" s="22"/>
+      <c r="CD113" s="21">
         <v>2020</v>
       </c>
-      <c r="CE113" s="31"/>
-      <c r="CF113" s="31"/>
-      <c r="CG113" s="31"/>
-      <c r="CH113" s="31">
+      <c r="CE113" s="21"/>
+      <c r="CF113" s="21"/>
+      <c r="CG113" s="21"/>
+      <c r="CH113" s="21">
         <v>2021</v>
       </c>
-      <c r="CI113" s="31"/>
-      <c r="CJ113" s="31"/>
-      <c r="CK113" s="31"/>
-      <c r="CL113" s="30">
+      <c r="CI113" s="21"/>
+      <c r="CJ113" s="21"/>
+      <c r="CK113" s="21"/>
+      <c r="CL113" s="20">
         <v>2022</v>
       </c>
-      <c r="CM113" s="30"/>
-      <c r="CN113" s="30"/>
-      <c r="CO113" s="30"/>
-      <c r="CP113" s="30">
+      <c r="CM113" s="20"/>
+      <c r="CN113" s="20"/>
+      <c r="CO113" s="20"/>
+      <c r="CP113" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="30"/>
-      <c r="CR113" s="30"/>
+      <c r="CQ113" s="20"/>
+      <c r="CR113" s="20"/>
+      <c r="CS113" s="20"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37408,26 +37472,29 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="20" t="s">
+      <c r="CL114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="20" t="s">
+      <c r="CM114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="20" t="s">
+      <c r="CN114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="20" t="s">
+      <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="20" t="s">
+      <c r="CP114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="20" t="s">
+      <c r="CQ114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="20" t="s">
+      <c r="CR114" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS114" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37701,28 +37768,30 @@
       <c r="CK116" s="15">
         <v>78.693160206896422</v>
       </c>
-      <c r="CL116" s="28">
+      <c r="CL116" s="15">
         <v>82.816991196695341</v>
       </c>
-      <c r="CM116" s="28">
+      <c r="CM116" s="15">
         <v>86.013028964306372</v>
       </c>
-      <c r="CN116" s="28">
+      <c r="CN116" s="15">
         <v>82.428694874662895</v>
       </c>
-      <c r="CO116" s="28">
+      <c r="CO116" s="15">
         <v>79.801695235134375</v>
       </c>
-      <c r="CP116" s="28">
+      <c r="CP116" s="15">
         <v>83.470863328208949</v>
       </c>
-      <c r="CQ116" s="28">
+      <c r="CQ116" s="15">
         <v>85.793526835628583</v>
       </c>
-      <c r="CR116" s="28">
-        <v>81.580839652852092</v>
-      </c>
-      <c r="CS116" s="9"/>
+      <c r="CR116" s="15">
+        <v>81.528711060014956</v>
+      </c>
+      <c r="CS116" s="15">
+        <v>78.484780844241811</v>
+      </c>
       <c r="CT116" s="9"/>
       <c r="CU116" s="9"/>
       <c r="CV116" s="9"/>
@@ -38047,28 +38116,30 @@
       <c r="CK117" s="15">
         <v>2.1071432102939887</v>
       </c>
-      <c r="CL117" s="28">
+      <c r="CL117" s="15">
         <v>1.8143459086950642</v>
       </c>
-      <c r="CM117" s="28">
+      <c r="CM117" s="15">
         <v>1.4309857538443673</v>
       </c>
-      <c r="CN117" s="28">
+      <c r="CN117" s="15">
         <v>1.6677040386565398</v>
       </c>
-      <c r="CO117" s="28">
+      <c r="CO117" s="15">
         <v>2.0837428223576442</v>
       </c>
-      <c r="CP117" s="28">
+      <c r="CP117" s="15">
         <v>1.8954980009488629</v>
       </c>
-      <c r="CQ117" s="28">
+      <c r="CQ117" s="15">
         <v>1.380323101196165</v>
       </c>
-      <c r="CR117" s="28">
-        <v>1.6760408863102823</v>
-      </c>
-      <c r="CS117" s="9"/>
+      <c r="CR117" s="15">
+        <v>1.6802408760418137</v>
+      </c>
+      <c r="CS117" s="15">
+        <v>1.8881277804422194</v>
+      </c>
       <c r="CT117" s="9"/>
       <c r="CU117" s="9"/>
       <c r="CV117" s="9"/>
@@ -38393,28 +38464,30 @@
       <c r="CK118" s="15">
         <v>17.58711857522308</v>
       </c>
-      <c r="CL118" s="28">
+      <c r="CL118" s="15">
         <v>14.21211286543449</v>
       </c>
-      <c r="CM118" s="28">
+      <c r="CM118" s="15">
         <v>11.618418586827007</v>
       </c>
-      <c r="CN118" s="28">
+      <c r="CN118" s="15">
         <v>14.352825251142482</v>
       </c>
-      <c r="CO118" s="28">
+      <c r="CO118" s="15">
         <v>16.532127013935611</v>
       </c>
-      <c r="CP118" s="28">
+      <c r="CP118" s="15">
         <v>13.580670844035319</v>
       </c>
-      <c r="CQ118" s="28">
+      <c r="CQ118" s="15">
         <v>11.967869388205512</v>
       </c>
-      <c r="CR118" s="28">
-        <v>15.223522774911856</v>
-      </c>
-      <c r="CS118" s="9"/>
+      <c r="CR118" s="15">
+        <v>15.273387317162815</v>
+      </c>
+      <c r="CS118" s="15">
+        <v>17.975334752787358</v>
+      </c>
       <c r="CT118" s="9"/>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
@@ -38739,28 +38812,30 @@
       <c r="CK119" s="15">
         <v>1.6125780075864986</v>
       </c>
-      <c r="CL119" s="28">
+      <c r="CL119" s="15">
         <v>1.1565500291751132</v>
       </c>
-      <c r="CM119" s="28">
+      <c r="CM119" s="15">
         <v>0.9375666950222471</v>
       </c>
-      <c r="CN119" s="28">
+      <c r="CN119" s="15">
         <v>1.5507758355380918</v>
       </c>
-      <c r="CO119" s="28">
+      <c r="CO119" s="15">
         <v>1.5824349285723665</v>
       </c>
-      <c r="CP119" s="28">
+      <c r="CP119" s="15">
         <v>1.0529678268068592</v>
       </c>
-      <c r="CQ119" s="28">
+      <c r="CQ119" s="15">
         <v>0.85828067496972893</v>
       </c>
-      <c r="CR119" s="28">
-        <v>1.5195966859257575</v>
-      </c>
-      <c r="CS119" s="9"/>
+      <c r="CR119" s="15">
+        <v>1.5176607467804095</v>
+      </c>
+      <c r="CS119" s="15">
+        <v>1.6517566225286173</v>
+      </c>
       <c r="CT119" s="9"/>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
@@ -38906,13 +38981,13 @@
       <c r="CI120" s="9"/>
       <c r="CJ120" s="9"/>
       <c r="CK120" s="9"/>
-      <c r="CL120" s="25"/>
-      <c r="CM120" s="25"/>
-      <c r="CN120" s="25"/>
-      <c r="CO120" s="25"/>
-      <c r="CP120" s="25"/>
-      <c r="CQ120" s="25"/>
-      <c r="CR120" s="25"/>
+      <c r="CL120" s="9"/>
+      <c r="CM120" s="9"/>
+      <c r="CN120" s="9"/>
+      <c r="CO120" s="9"/>
+      <c r="CP120" s="9"/>
+      <c r="CQ120" s="9"/>
+      <c r="CR120" s="9"/>
       <c r="CS120" s="9"/>
       <c r="CT120" s="9"/>
       <c r="CU120" s="9"/>
@@ -39238,28 +39313,30 @@
       <c r="CK121" s="15">
         <v>100</v>
       </c>
-      <c r="CL121" s="28">
+      <c r="CL121" s="15">
         <v>100</v>
       </c>
-      <c r="CM121" s="28">
+      <c r="CM121" s="15">
         <v>100</v>
       </c>
-      <c r="CN121" s="28">
+      <c r="CN121" s="15">
         <v>100</v>
       </c>
-      <c r="CO121" s="28">
+      <c r="CO121" s="15">
         <v>100</v>
       </c>
-      <c r="CP121" s="28">
+      <c r="CP121" s="15">
         <v>100</v>
       </c>
-      <c r="CQ121" s="28">
+      <c r="CQ121" s="15">
         <v>100</v>
       </c>
-      <c r="CR121" s="28">
+      <c r="CR121" s="15">
         <v>100</v>
       </c>
-      <c r="CS121" s="9"/>
+      <c r="CS121" s="15">
+        <v>100</v>
+      </c>
       <c r="CT121" s="9"/>
       <c r="CU121" s="9"/>
       <c r="CV121" s="9"/>
@@ -39406,13 +39483,14 @@
       <c r="CI122" s="13"/>
       <c r="CJ122" s="13"/>
       <c r="CK122" s="13"/>
-      <c r="CL122" s="24"/>
-      <c r="CM122" s="24"/>
-      <c r="CN122" s="24"/>
-      <c r="CO122" s="24"/>
-      <c r="CP122" s="24"/>
-      <c r="CQ122" s="24"/>
-      <c r="CR122" s="24"/>
+      <c r="CL122" s="13"/>
+      <c r="CM122" s="13"/>
+      <c r="CN122" s="13"/>
+      <c r="CO122" s="13"/>
+      <c r="CP122" s="13"/>
+      <c r="CQ122" s="13"/>
+      <c r="CR122" s="13"/>
+      <c r="CS122" s="13"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39508,13 +39586,13 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="25"/>
-      <c r="CM124" s="25"/>
-      <c r="CN124" s="25"/>
-      <c r="CO124" s="25"/>
-      <c r="CP124" s="25"/>
-      <c r="CQ124" s="25"/>
-      <c r="CR124" s="25"/>
+      <c r="CL124" s="9"/>
+      <c r="CM124" s="9"/>
+      <c r="CN124" s="9"/>
+      <c r="CO124" s="9"/>
+      <c r="CP124" s="9"/>
+      <c r="CQ124" s="9"/>
+      <c r="CR124" s="9"/>
       <c r="CS124" s="9"/>
       <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
@@ -39661,13 +39739,13 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="25"/>
-      <c r="CM125" s="25"/>
-      <c r="CN125" s="25"/>
-      <c r="CO125" s="25"/>
-      <c r="CP125" s="25"/>
-      <c r="CQ125" s="25"/>
-      <c r="CR125" s="25"/>
+      <c r="CL125" s="9"/>
+      <c r="CM125" s="9"/>
+      <c r="CN125" s="9"/>
+      <c r="CO125" s="9"/>
+      <c r="CP125" s="9"/>
+      <c r="CQ125" s="9"/>
+      <c r="CR125" s="9"/>
       <c r="CS125" s="9"/>
       <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
@@ -39737,7 +39815,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39747,7 +39825,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39757,149 +39835,150 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="31">
+      <c r="B134" s="21">
         <v>2000</v>
       </c>
-      <c r="C134" s="32"/>
-      <c r="D134" s="32"/>
-      <c r="E134" s="32"/>
-      <c r="F134" s="31">
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+      <c r="E134" s="22"/>
+      <c r="F134" s="21">
         <v>2001</v>
       </c>
-      <c r="G134" s="32"/>
-      <c r="H134" s="32"/>
-      <c r="I134" s="32"/>
-      <c r="J134" s="31">
+      <c r="G134" s="22"/>
+      <c r="H134" s="22"/>
+      <c r="I134" s="22"/>
+      <c r="J134" s="21">
         <v>2002</v>
       </c>
-      <c r="K134" s="32"/>
-      <c r="L134" s="32"/>
-      <c r="M134" s="32"/>
-      <c r="N134" s="31">
+      <c r="K134" s="22"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="22"/>
+      <c r="N134" s="21">
         <v>2003</v>
       </c>
-      <c r="O134" s="32"/>
-      <c r="P134" s="32"/>
-      <c r="Q134" s="32"/>
-      <c r="R134" s="31">
+      <c r="O134" s="22"/>
+      <c r="P134" s="22"/>
+      <c r="Q134" s="22"/>
+      <c r="R134" s="21">
         <v>2004</v>
       </c>
-      <c r="S134" s="32"/>
-      <c r="T134" s="32"/>
-      <c r="U134" s="32"/>
-      <c r="V134" s="31">
+      <c r="S134" s="22"/>
+      <c r="T134" s="22"/>
+      <c r="U134" s="22"/>
+      <c r="V134" s="21">
         <v>2005</v>
       </c>
-      <c r="W134" s="32"/>
-      <c r="X134" s="32"/>
-      <c r="Y134" s="32"/>
-      <c r="Z134" s="31">
+      <c r="W134" s="22"/>
+      <c r="X134" s="22"/>
+      <c r="Y134" s="22"/>
+      <c r="Z134" s="21">
         <v>2006</v>
       </c>
-      <c r="AA134" s="32"/>
-      <c r="AB134" s="32"/>
-      <c r="AC134" s="32"/>
-      <c r="AD134" s="31">
+      <c r="AA134" s="22"/>
+      <c r="AB134" s="22"/>
+      <c r="AC134" s="22"/>
+      <c r="AD134" s="21">
         <v>2007</v>
       </c>
-      <c r="AE134" s="32"/>
-      <c r="AF134" s="32"/>
-      <c r="AG134" s="32"/>
-      <c r="AH134" s="31">
+      <c r="AE134" s="22"/>
+      <c r="AF134" s="22"/>
+      <c r="AG134" s="22"/>
+      <c r="AH134" s="21">
         <v>2008</v>
       </c>
-      <c r="AI134" s="32"/>
-      <c r="AJ134" s="32"/>
-      <c r="AK134" s="32"/>
-      <c r="AL134" s="31">
+      <c r="AI134" s="22"/>
+      <c r="AJ134" s="22"/>
+      <c r="AK134" s="22"/>
+      <c r="AL134" s="21">
         <v>2009</v>
       </c>
-      <c r="AM134" s="32"/>
-      <c r="AN134" s="32"/>
-      <c r="AO134" s="32"/>
-      <c r="AP134" s="31">
+      <c r="AM134" s="22"/>
+      <c r="AN134" s="22"/>
+      <c r="AO134" s="22"/>
+      <c r="AP134" s="21">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="32"/>
-      <c r="AR134" s="32"/>
-      <c r="AS134" s="32"/>
-      <c r="AT134" s="31">
+      <c r="AQ134" s="22"/>
+      <c r="AR134" s="22"/>
+      <c r="AS134" s="22"/>
+      <c r="AT134" s="21">
         <v>2011</v>
       </c>
-      <c r="AU134" s="32"/>
-      <c r="AV134" s="32"/>
-      <c r="AW134" s="32"/>
-      <c r="AX134" s="31">
+      <c r="AU134" s="22"/>
+      <c r="AV134" s="22"/>
+      <c r="AW134" s="22"/>
+      <c r="AX134" s="21">
         <v>2012</v>
       </c>
-      <c r="AY134" s="32"/>
-      <c r="AZ134" s="32"/>
-      <c r="BA134" s="32"/>
-      <c r="BB134" s="31">
+      <c r="AY134" s="22"/>
+      <c r="AZ134" s="22"/>
+      <c r="BA134" s="22"/>
+      <c r="BB134" s="21">
         <v>2013</v>
       </c>
-      <c r="BC134" s="32"/>
-      <c r="BD134" s="32"/>
-      <c r="BE134" s="32"/>
-      <c r="BF134" s="31">
+      <c r="BC134" s="22"/>
+      <c r="BD134" s="22"/>
+      <c r="BE134" s="22"/>
+      <c r="BF134" s="21">
         <v>2014</v>
       </c>
-      <c r="BG134" s="32"/>
-      <c r="BH134" s="32"/>
-      <c r="BI134" s="32"/>
-      <c r="BJ134" s="31">
+      <c r="BG134" s="22"/>
+      <c r="BH134" s="22"/>
+      <c r="BI134" s="22"/>
+      <c r="BJ134" s="21">
         <v>2015</v>
       </c>
-      <c r="BK134" s="32"/>
-      <c r="BL134" s="32"/>
-      <c r="BM134" s="32"/>
-      <c r="BN134" s="31">
+      <c r="BK134" s="22"/>
+      <c r="BL134" s="22"/>
+      <c r="BM134" s="22"/>
+      <c r="BN134" s="21">
         <v>2016</v>
       </c>
-      <c r="BO134" s="32"/>
-      <c r="BP134" s="32"/>
-      <c r="BQ134" s="32"/>
-      <c r="BR134" s="31">
+      <c r="BO134" s="22"/>
+      <c r="BP134" s="22"/>
+      <c r="BQ134" s="22"/>
+      <c r="BR134" s="21">
         <v>2017</v>
       </c>
-      <c r="BS134" s="32"/>
-      <c r="BT134" s="32"/>
-      <c r="BU134" s="32"/>
-      <c r="BV134" s="31">
+      <c r="BS134" s="22"/>
+      <c r="BT134" s="22"/>
+      <c r="BU134" s="22"/>
+      <c r="BV134" s="21">
         <v>2018</v>
       </c>
-      <c r="BW134" s="32"/>
-      <c r="BX134" s="32"/>
-      <c r="BY134" s="32"/>
-      <c r="BZ134" s="31">
+      <c r="BW134" s="22"/>
+      <c r="BX134" s="22"/>
+      <c r="BY134" s="22"/>
+      <c r="BZ134" s="21">
         <v>2019</v>
       </c>
-      <c r="CA134" s="32"/>
-      <c r="CB134" s="32"/>
-      <c r="CC134" s="32"/>
-      <c r="CD134" s="31">
+      <c r="CA134" s="22"/>
+      <c r="CB134" s="22"/>
+      <c r="CC134" s="22"/>
+      <c r="CD134" s="21">
         <v>2020</v>
       </c>
-      <c r="CE134" s="31"/>
-      <c r="CF134" s="31"/>
-      <c r="CG134" s="31"/>
-      <c r="CH134" s="31">
+      <c r="CE134" s="21"/>
+      <c r="CF134" s="21"/>
+      <c r="CG134" s="21"/>
+      <c r="CH134" s="21">
         <v>2021</v>
       </c>
-      <c r="CI134" s="31"/>
-      <c r="CJ134" s="31"/>
-      <c r="CK134" s="31"/>
-      <c r="CL134" s="30">
+      <c r="CI134" s="21"/>
+      <c r="CJ134" s="21"/>
+      <c r="CK134" s="21"/>
+      <c r="CL134" s="20">
         <v>2022</v>
       </c>
-      <c r="CM134" s="30"/>
-      <c r="CN134" s="30"/>
-      <c r="CO134" s="30"/>
-      <c r="CP134" s="30">
+      <c r="CM134" s="20"/>
+      <c r="CN134" s="20"/>
+      <c r="CO134" s="20"/>
+      <c r="CP134" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="30"/>
-      <c r="CR134" s="30"/>
+      <c r="CQ134" s="20"/>
+      <c r="CR134" s="20"/>
+      <c r="CS134" s="20"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40169,26 +40248,29 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="20" t="s">
+      <c r="CL135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="20" t="s">
+      <c r="CM135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="20" t="s">
+      <c r="CN135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="20" t="s">
+      <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="20" t="s">
+      <c r="CP135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="20" t="s">
+      <c r="CQ135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="20" t="s">
+      <c r="CR135" s="6" t="s">
         <v>10</v>
+      </c>
+      <c r="CS135" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40462,28 +40544,30 @@
       <c r="CK137" s="15">
         <v>80.088181962120998</v>
       </c>
-      <c r="CL137" s="28">
+      <c r="CL137" s="15">
         <v>79.91561111734552</v>
       </c>
-      <c r="CM137" s="28">
+      <c r="CM137" s="15">
         <v>81.512997744663537</v>
       </c>
-      <c r="CN137" s="28">
+      <c r="CN137" s="15">
         <v>84.494353272885775</v>
       </c>
-      <c r="CO137" s="28">
+      <c r="CO137" s="15">
         <v>79.099812584999441</v>
       </c>
-      <c r="CP137" s="28">
+      <c r="CP137" s="15">
         <v>79.532567513508923</v>
       </c>
-      <c r="CQ137" s="28">
+      <c r="CQ137" s="15">
         <v>81.139042835724297</v>
       </c>
-      <c r="CR137" s="28">
-        <v>84.946812754719247</v>
-      </c>
-      <c r="CS137" s="9"/>
+      <c r="CR137" s="15">
+        <v>84.902194335462326</v>
+      </c>
+      <c r="CS137" s="15">
+        <v>79.733368999286853</v>
+      </c>
       <c r="CT137" s="9"/>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
@@ -40808,28 +40892,30 @@
       <c r="CK138" s="15">
         <v>1.9735408991766896</v>
       </c>
-      <c r="CL138" s="28">
+      <c r="CL138" s="15">
         <v>2.0645249180475429</v>
       </c>
-      <c r="CM138" s="28">
+      <c r="CM138" s="15">
         <v>1.7976019207432956</v>
       </c>
-      <c r="CN138" s="28">
+      <c r="CN138" s="15">
         <v>1.4316747736390716</v>
       </c>
-      <c r="CO138" s="28">
+      <c r="CO138" s="15">
         <v>1.9724632186139215</v>
       </c>
-      <c r="CP138" s="28">
+      <c r="CP138" s="15">
         <v>2.3152149791574481</v>
       </c>
-      <c r="CQ138" s="28">
+      <c r="CQ138" s="15">
         <v>1.8136367821062351</v>
       </c>
-      <c r="CR138" s="28">
-        <v>1.3574599026868783</v>
-      </c>
-      <c r="CS138" s="9"/>
+      <c r="CR138" s="15">
+        <v>1.3610164297262546</v>
+      </c>
+      <c r="CS138" s="15">
+        <v>1.6977161968255852</v>
+      </c>
       <c r="CT138" s="9"/>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
@@ -41154,28 +41240,30 @@
       <c r="CK139" s="15">
         <v>16.495852271246456</v>
       </c>
-      <c r="CL139" s="28">
+      <c r="CL139" s="15">
         <v>16.720975678239324</v>
       </c>
-      <c r="CM139" s="28">
+      <c r="CM139" s="15">
         <v>15.497325817213387</v>
       </c>
-      <c r="CN139" s="28">
+      <c r="CN139" s="15">
         <v>12.848008645182727</v>
       </c>
-      <c r="CO139" s="28">
+      <c r="CO139" s="15">
         <v>17.415146833431123</v>
       </c>
-      <c r="CP139" s="28">
+      <c r="CP139" s="15">
         <v>16.862314189147401</v>
       </c>
-      <c r="CQ139" s="28">
+      <c r="CQ139" s="15">
         <v>15.882119012606044</v>
       </c>
-      <c r="CR139" s="28">
-        <v>12.517246985031935</v>
-      </c>
-      <c r="CS139" s="9"/>
+      <c r="CR139" s="15">
+        <v>12.559676297339575</v>
+      </c>
+      <c r="CS139" s="15">
+        <v>17.037603085018439</v>
+      </c>
       <c r="CT139" s="9"/>
       <c r="CU139" s="9"/>
       <c r="CV139" s="9"/>
@@ -41500,28 +41588,30 @@
       <c r="CK140" s="15">
         <v>1.4424248674558646</v>
       </c>
-      <c r="CL140" s="28">
+      <c r="CL140" s="15">
         <v>1.2988882863676012</v>
       </c>
-      <c r="CM140" s="28">
+      <c r="CM140" s="15">
         <v>1.1920745173797704</v>
       </c>
-      <c r="CN140" s="28">
+      <c r="CN140" s="15">
         <v>1.2259633082924317</v>
       </c>
-      <c r="CO140" s="28">
+      <c r="CO140" s="15">
         <v>1.512577362955529</v>
       </c>
-      <c r="CP140" s="28">
+      <c r="CP140" s="15">
         <v>1.289903318186213</v>
       </c>
-      <c r="CQ140" s="28">
+      <c r="CQ140" s="15">
         <v>1.1652013695634094</v>
       </c>
-      <c r="CR140" s="28">
-        <v>1.178480357561934</v>
-      </c>
-      <c r="CS140" s="9"/>
+      <c r="CR140" s="15">
+        <v>1.1771129374718436</v>
+      </c>
+      <c r="CS140" s="15">
+        <v>1.5313117188691141</v>
+      </c>
       <c r="CT140" s="9"/>
       <c r="CU140" s="9"/>
       <c r="CV140" s="9"/>
@@ -41667,13 +41757,13 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="25"/>
-      <c r="CM141" s="25"/>
-      <c r="CN141" s="25"/>
-      <c r="CO141" s="25"/>
-      <c r="CP141" s="25"/>
-      <c r="CQ141" s="25"/>
-      <c r="CR141" s="25"/>
+      <c r="CL141" s="9"/>
+      <c r="CM141" s="9"/>
+      <c r="CN141" s="9"/>
+      <c r="CO141" s="9"/>
+      <c r="CP141" s="9"/>
+      <c r="CQ141" s="9"/>
+      <c r="CR141" s="9"/>
       <c r="CS141" s="9"/>
       <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
@@ -41999,28 +42089,30 @@
       <c r="CK142" s="15">
         <v>100</v>
       </c>
-      <c r="CL142" s="28">
+      <c r="CL142" s="15">
         <v>100</v>
       </c>
-      <c r="CM142" s="28">
+      <c r="CM142" s="15">
         <v>100</v>
       </c>
-      <c r="CN142" s="28">
+      <c r="CN142" s="15">
         <v>100</v>
       </c>
-      <c r="CO142" s="28">
+      <c r="CO142" s="15">
         <v>100</v>
       </c>
-      <c r="CP142" s="28">
+      <c r="CP142" s="15">
         <v>100</v>
       </c>
-      <c r="CQ142" s="28">
+      <c r="CQ142" s="15">
         <v>100</v>
       </c>
-      <c r="CR142" s="28">
+      <c r="CR142" s="15">
         <v>100</v>
       </c>
-      <c r="CS142" s="9"/>
+      <c r="CS142" s="15">
+        <v>100</v>
+      </c>
       <c r="CT142" s="9"/>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
@@ -42167,13 +42259,14 @@
       <c r="CI143" s="13"/>
       <c r="CJ143" s="13"/>
       <c r="CK143" s="13"/>
-      <c r="CL143" s="24"/>
-      <c r="CM143" s="24"/>
-      <c r="CN143" s="24"/>
-      <c r="CO143" s="24"/>
-      <c r="CP143" s="24"/>
-      <c r="CQ143" s="24"/>
-      <c r="CR143" s="24"/>
+      <c r="CL143" s="13"/>
+      <c r="CM143" s="13"/>
+      <c r="CN143" s="13"/>
+      <c r="CO143" s="13"/>
+      <c r="CP143" s="13"/>
+      <c r="CQ143" s="13"/>
+      <c r="CR143" s="13"/>
+      <c r="CS143" s="13"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -42181,14 +42274,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="166">
+  <mergeCells count="154">
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
-    <mergeCell ref="CL92:CO92"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
     <mergeCell ref="BZ30:CC30"/>
     <mergeCell ref="BV51:BY51"/>
     <mergeCell ref="CD134:CG134"/>
@@ -42249,6 +42337,10 @@
     <mergeCell ref="AT30:AW30"/>
     <mergeCell ref="AX30:BA30"/>
     <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
     <mergeCell ref="AP9:AS9"/>
     <mergeCell ref="AT9:AW9"/>
     <mergeCell ref="AX9:BA9"/>
@@ -42260,6 +42352,7 @@
     <mergeCell ref="AD30:AG30"/>
     <mergeCell ref="AH30:AK30"/>
     <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ72:BM72"/>
     <mergeCell ref="B72:E72"/>
     <mergeCell ref="F72:I72"/>
     <mergeCell ref="J72:M72"/>
@@ -42269,27 +42362,6 @@
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="AD72:AG72"/>
     <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
     <mergeCell ref="AP113:AS113"/>
     <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="AX113:BA113"/>
@@ -42300,6 +42372,28 @@
     <mergeCell ref="AH92:AK92"/>
     <mergeCell ref="AL92:AO92"/>
     <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="BB134:BE134"/>
     <mergeCell ref="B92:E92"/>
     <mergeCell ref="F92:I92"/>
@@ -42320,17 +42414,6 @@
     <mergeCell ref="AD134:AG134"/>
     <mergeCell ref="AH134:AK134"/>
     <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="CP9:CR9"/>
-    <mergeCell ref="CP30:CR30"/>
-    <mergeCell ref="CL51:CN51"/>
-    <mergeCell ref="CL72:CN72"/>
-    <mergeCell ref="CP92:CR92"/>
-    <mergeCell ref="CP113:CR113"/>
-    <mergeCell ref="CP134:CR134"/>
     <mergeCell ref="BF134:BI134"/>
     <mergeCell ref="BJ134:BM134"/>
     <mergeCell ref="BN134:BQ134"/>
@@ -42344,19 +42427,17 @@
     <mergeCell ref="BV113:BY113"/>
     <mergeCell ref="BR92:BU92"/>
     <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="95" man="1"/>
-    <brk id="84" max="95" man="1"/>
-    <brk id="104" max="95" man="1"/>
+    <brk id="42" max="96" man="1"/>
+    <brk id="84" max="96" man="1"/>
+    <brk id="104" max="96" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF317DB-73E5-4221-B7DA-A2691B9CB219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195DA23-80D9-4B66-9C98-3BF185AFA3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CS$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CT$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -625,13 +625,16 @@
     <t>2022 - 2023</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2023</t>
+    <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2023</t>
+    <t>Q1 2000 to Q1 2024</t>
   </si>
   <si>
-    <t>As of January 2024</t>
+    <t>Q1 2001 to Q1 2024</t>
+  </si>
+  <si>
+    <t>As of May 2024</t>
   </si>
 </sst>
 </file>
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -746,13 +749,26 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23610,16 +23626,17 @@
   <dimension ref="A1:EV144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="DM13" sqref="DM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="97" width="10.77734375" style="1" customWidth="1"/>
-    <col min="98" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
+    <col min="94" max="98" width="9.6640625" style="19" customWidth="1"/>
+    <col min="99" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23634,7 +23651,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23644,7 +23661,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23654,150 +23671,153 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="21">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="21"/>
-      <c r="AC9" s="21"/>
-      <c r="AD9" s="21">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="21"/>
-      <c r="AF9" s="21"/>
-      <c r="AG9" s="21"/>
-      <c r="AH9" s="21">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="21"/>
-      <c r="AJ9" s="21"/>
-      <c r="AK9" s="21"/>
-      <c r="AL9" s="21">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="21"/>
-      <c r="AN9" s="21"/>
-      <c r="AO9" s="21"/>
-      <c r="AP9" s="21">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="21"/>
-      <c r="AR9" s="21"/>
-      <c r="AS9" s="21"/>
-      <c r="AT9" s="21">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="21"/>
-      <c r="AV9" s="21"/>
-      <c r="AW9" s="21"/>
-      <c r="AX9" s="21">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="21"/>
-      <c r="AZ9" s="21"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="21"/>
-      <c r="BE9" s="21"/>
-      <c r="BF9" s="21">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="21"/>
-      <c r="BH9" s="21"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="21"/>
-      <c r="BL9" s="21"/>
-      <c r="BM9" s="21"/>
-      <c r="BN9" s="21">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="21"/>
-      <c r="BP9" s="21"/>
-      <c r="BQ9" s="21"/>
-      <c r="BR9" s="21">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="21"/>
-      <c r="BT9" s="21"/>
-      <c r="BU9" s="21"/>
-      <c r="BV9" s="21">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="21"/>
-      <c r="BX9" s="21"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="21">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="21"/>
-      <c r="CB9" s="21"/>
-      <c r="CC9" s="21"/>
-      <c r="CD9" s="21">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="21"/>
-      <c r="CF9" s="21"/>
-      <c r="CG9" s="21"/>
-      <c r="CH9" s="21">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="21"/>
-      <c r="CJ9" s="21"/>
-      <c r="CK9" s="21"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="19"/>
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
       <c r="CP9" s="20">
         <v>2023</v>
       </c>
       <c r="CQ9" s="20"/>
       <c r="CR9" s="20"/>
       <c r="CS9" s="20"/>
+      <c r="CT9" s="20">
+        <v>2024</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24079,17 +24099,20 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CT10" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24373,21 +24396,23 @@
         <v>131766.65399284259</v>
       </c>
       <c r="CO12" s="8">
-        <v>134659.95329141535</v>
-      </c>
-      <c r="CP12" s="8">
-        <v>182682.31286621009</v>
-      </c>
-      <c r="CQ12" s="8">
-        <v>235633.79343278782</v>
-      </c>
-      <c r="CR12" s="8">
-        <v>141526.58899583213</v>
-      </c>
-      <c r="CS12" s="8">
-        <v>141599.04650645677</v>
-      </c>
-      <c r="CT12" s="9"/>
+        <v>134636.44569636678</v>
+      </c>
+      <c r="CP12" s="22">
+        <v>182012.63828418974</v>
+      </c>
+      <c r="CQ12" s="22">
+        <v>235292.64875110882</v>
+      </c>
+      <c r="CR12" s="22">
+        <v>140898.63667681278</v>
+      </c>
+      <c r="CS12" s="22">
+        <v>140008.62763998186</v>
+      </c>
+      <c r="CT12" s="22">
+        <v>185134.46180923458</v>
+      </c>
       <c r="CU12" s="9"/>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
@@ -24723,19 +24748,21 @@
       <c r="CO13" s="8">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="8">
+      <c r="CP13" s="22">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="8">
+      <c r="CQ13" s="22">
         <v>3791.0875155057865</v>
       </c>
-      <c r="CR13" s="8">
+      <c r="CR13" s="22">
         <v>2916.7486740041568</v>
       </c>
-      <c r="CS13" s="8">
+      <c r="CS13" s="22">
         <v>3406.4832763381028</v>
       </c>
-      <c r="CT13" s="9"/>
+      <c r="CT13" s="22">
+        <v>4019.0251951414548</v>
+      </c>
       <c r="CU13" s="9"/>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
@@ -25069,21 +25096,23 @@
         <v>22943.754739326265</v>
       </c>
       <c r="CO14" s="8">
-        <v>27896.844107694811</v>
-      </c>
-      <c r="CP14" s="8">
-        <v>29722.327781706816</v>
-      </c>
-      <c r="CQ14" s="8">
-        <v>32870.014408591611</v>
-      </c>
-      <c r="CR14" s="8">
-        <v>26513.241547742189</v>
-      </c>
-      <c r="CS14" s="8">
-        <v>32430.367190301022</v>
-      </c>
-      <c r="CT14" s="9"/>
+        <v>27897.368896503729</v>
+      </c>
+      <c r="CP14" s="22">
+        <v>29753.224998787417</v>
+      </c>
+      <c r="CQ14" s="22">
+        <v>32867.774477905201</v>
+      </c>
+      <c r="CR14" s="22">
+        <v>26513.962323032938</v>
+      </c>
+      <c r="CS14" s="22">
+        <v>32512.235543939976</v>
+      </c>
+      <c r="CT14" s="22">
+        <v>34477.73815108485</v>
+      </c>
       <c r="CU14" s="9"/>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
@@ -25417,21 +25446,23 @@
         <v>2478.9976749300654</v>
       </c>
       <c r="CO15" s="8">
-        <v>2670.2517150843864</v>
-      </c>
-      <c r="CP15" s="8">
+        <v>2655.3354367934808</v>
+      </c>
+      <c r="CP15" s="22">
         <v>2304.49992134892</v>
       </c>
-      <c r="CQ15" s="8">
+      <c r="CQ15" s="22">
         <v>2357.2866011283268</v>
       </c>
-      <c r="CR15" s="8">
+      <c r="CR15" s="22">
         <v>2634.5240339515221</v>
       </c>
-      <c r="CS15" s="8">
-        <v>2980.0320558318435</v>
-      </c>
-      <c r="CT15" s="9"/>
+      <c r="CS15" s="22">
+        <v>2941.4129278523587</v>
+      </c>
+      <c r="CT15" s="22">
+        <v>2698.0670883050825</v>
+      </c>
       <c r="CU15" s="9"/>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
@@ -25580,11 +25611,11 @@
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
-      <c r="CP16" s="10"/>
-      <c r="CQ16" s="10"/>
-      <c r="CR16" s="10"/>
-      <c r="CS16" s="10"/>
-      <c r="CT16" s="9"/>
+      <c r="CP16" s="23"/>
+      <c r="CQ16" s="23"/>
+      <c r="CR16" s="23"/>
+      <c r="CS16" s="23"/>
+      <c r="CT16" s="23"/>
       <c r="CU16" s="9"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
@@ -25918,21 +25949,23 @@
         <v>159855.32003533552</v>
       </c>
       <c r="CO17" s="12">
-        <v>168743.22393107318</v>
-      </c>
-      <c r="CP17" s="12">
-        <v>218857.58165445097</v>
-      </c>
-      <c r="CQ17" s="12">
-        <v>274652.18195801356</v>
-      </c>
-      <c r="CR17" s="12">
-        <v>173591.10325153</v>
-      </c>
-      <c r="CS17" s="12">
-        <v>180415.92902892773</v>
-      </c>
-      <c r="CT17" s="9"/>
+        <v>168705.32484654261</v>
+      </c>
+      <c r="CP17" s="24">
+        <v>218218.80428951123</v>
+      </c>
+      <c r="CQ17" s="24">
+        <v>274308.79734564817</v>
+      </c>
+      <c r="CR17" s="24">
+        <v>172963.87170780139</v>
+      </c>
+      <c r="CS17" s="24">
+        <v>178868.75938811232</v>
+      </c>
+      <c r="CT17" s="24">
+        <v>226329.29224376596</v>
+      </c>
       <c r="CU17" s="9"/>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
@@ -26082,10 +26115,11 @@
       <c r="CM18" s="13"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="13"/>
-      <c r="CP18" s="13"/>
-      <c r="CQ18" s="13"/>
-      <c r="CR18" s="13"/>
-      <c r="CS18" s="13"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26185,11 +26219,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
+      <c r="CP20" s="26"/>
+      <c r="CQ20" s="26"/>
+      <c r="CR20" s="26"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="26"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26338,11 +26372,11 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
+      <c r="CP21" s="26"/>
+      <c r="CQ21" s="26"/>
+      <c r="CR21" s="26"/>
+      <c r="CS21" s="26"/>
+      <c r="CT21" s="26"/>
       <c r="CU21" s="9"/>
       <c r="CV21" s="9"/>
       <c r="CW21" s="9"/>
@@ -26410,7 +26444,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26420,7 +26454,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26430,150 +26464,153 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="21">
+      <c r="B30" s="30">
         <v>2000</v>
       </c>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30">
         <v>2001</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="21">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="30">
         <v>2002</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21">
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="30">
         <v>2003</v>
       </c>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="21">
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="30">
         <v>2004</v>
       </c>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
-      <c r="U30" s="22"/>
-      <c r="V30" s="21">
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="30">
         <v>2005</v>
       </c>
-      <c r="W30" s="22"/>
-      <c r="X30" s="22"/>
-      <c r="Y30" s="22"/>
-      <c r="Z30" s="21">
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="30">
         <v>2006</v>
       </c>
-      <c r="AA30" s="22"/>
-      <c r="AB30" s="22"/>
-      <c r="AC30" s="22"/>
-      <c r="AD30" s="21">
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="30">
         <v>2007</v>
       </c>
-      <c r="AE30" s="22"/>
-      <c r="AF30" s="22"/>
-      <c r="AG30" s="22"/>
-      <c r="AH30" s="21">
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="30">
         <v>2008</v>
       </c>
-      <c r="AI30" s="22"/>
-      <c r="AJ30" s="22"/>
-      <c r="AK30" s="22"/>
-      <c r="AL30" s="21">
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="30">
         <v>2009</v>
       </c>
-      <c r="AM30" s="22"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="22"/>
-      <c r="AP30" s="21">
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="22"/>
-      <c r="AR30" s="22"/>
-      <c r="AS30" s="22"/>
-      <c r="AT30" s="21">
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="30">
         <v>2011</v>
       </c>
-      <c r="AU30" s="22"/>
-      <c r="AV30" s="22"/>
-      <c r="AW30" s="22"/>
-      <c r="AX30" s="21">
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="30">
         <v>2012</v>
       </c>
-      <c r="AY30" s="22"/>
-      <c r="AZ30" s="22"/>
-      <c r="BA30" s="22"/>
-      <c r="BB30" s="21">
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="30">
         <v>2013</v>
       </c>
-      <c r="BC30" s="22"/>
-      <c r="BD30" s="22"/>
-      <c r="BE30" s="22"/>
-      <c r="BF30" s="21">
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="30">
         <v>2014</v>
       </c>
-      <c r="BG30" s="22"/>
-      <c r="BH30" s="22"/>
-      <c r="BI30" s="22"/>
-      <c r="BJ30" s="21">
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="30">
         <v>2015</v>
       </c>
-      <c r="BK30" s="22"/>
-      <c r="BL30" s="22"/>
-      <c r="BM30" s="22"/>
-      <c r="BN30" s="21">
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="30">
         <v>2016</v>
       </c>
-      <c r="BO30" s="22"/>
-      <c r="BP30" s="22"/>
-      <c r="BQ30" s="22"/>
-      <c r="BR30" s="21">
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
+      <c r="BR30" s="30">
         <v>2017</v>
       </c>
-      <c r="BS30" s="22"/>
-      <c r="BT30" s="22"/>
-      <c r="BU30" s="22"/>
-      <c r="BV30" s="21">
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="30">
         <v>2018</v>
       </c>
-      <c r="BW30" s="22"/>
-      <c r="BX30" s="22"/>
-      <c r="BY30" s="22"/>
-      <c r="BZ30" s="21">
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="31"/>
+      <c r="BY30" s="31"/>
+      <c r="BZ30" s="30">
         <v>2019</v>
       </c>
-      <c r="CA30" s="22"/>
-      <c r="CB30" s="22"/>
-      <c r="CC30" s="22"/>
-      <c r="CD30" s="21">
+      <c r="CA30" s="31"/>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
+      <c r="CD30" s="30">
         <v>2020</v>
       </c>
-      <c r="CE30" s="21"/>
-      <c r="CF30" s="21"/>
-      <c r="CG30" s="21"/>
-      <c r="CH30" s="21">
+      <c r="CE30" s="30"/>
+      <c r="CF30" s="30"/>
+      <c r="CG30" s="30"/>
+      <c r="CH30" s="30">
         <v>2021</v>
       </c>
-      <c r="CI30" s="21"/>
-      <c r="CJ30" s="21"/>
-      <c r="CK30" s="21"/>
-      <c r="CL30" s="20">
+      <c r="CI30" s="30"/>
+      <c r="CJ30" s="30"/>
+      <c r="CK30" s="30"/>
+      <c r="CL30" s="30">
         <v>2022</v>
       </c>
-      <c r="CM30" s="20"/>
-      <c r="CN30" s="20"/>
-      <c r="CO30" s="20"/>
+      <c r="CM30" s="30"/>
+      <c r="CN30" s="30"/>
+      <c r="CO30" s="30"/>
       <c r="CP30" s="20">
         <v>2023</v>
       </c>
       <c r="CQ30" s="20"/>
       <c r="CR30" s="20"/>
       <c r="CS30" s="20"/>
+      <c r="CT30" s="20">
+        <v>2024</v>
+      </c>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26855,17 +26892,20 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="6" t="s">
+      <c r="CR31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="6" t="s">
+      <c r="CS31" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CT31" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27149,21 +27189,23 @@
         <v>151635.88072345522</v>
       </c>
       <c r="CO33" s="8">
-        <v>125236.38787257974</v>
-      </c>
-      <c r="CP33" s="8">
-        <v>123716.66333692582</v>
-      </c>
-      <c r="CQ33" s="8">
-        <v>139703.55303468215</v>
-      </c>
-      <c r="CR33" s="8">
-        <v>162586.31605784822</v>
-      </c>
-      <c r="CS33" s="8">
-        <v>134358.96636929648</v>
-      </c>
-      <c r="CT33" s="9"/>
+        <v>125214.52203908504</v>
+      </c>
+      <c r="CP33" s="22">
+        <v>123261.26812878699</v>
+      </c>
+      <c r="CQ33" s="22">
+        <v>139501.43065425381</v>
+      </c>
+      <c r="CR33" s="22">
+        <v>161864.921901925</v>
+      </c>
+      <c r="CS33" s="22">
+        <v>132849.85935620285</v>
+      </c>
+      <c r="CT33" s="22">
+        <v>131335.46550820442</v>
+      </c>
       <c r="CU33" s="9"/>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
@@ -27499,19 +27541,21 @@
       <c r="CO34" s="8">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="8">
+      <c r="CP34" s="22">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="8">
+      <c r="CQ34" s="22">
         <v>3122.6829097258346</v>
       </c>
-      <c r="CR34" s="8">
+      <c r="CR34" s="22">
         <v>2606.3242432707143</v>
       </c>
-      <c r="CS34" s="8">
+      <c r="CS34" s="22">
         <v>2860.8272327730051</v>
       </c>
-      <c r="CT34" s="9"/>
+      <c r="CT34" s="22">
+        <v>3116.9185281597283</v>
+      </c>
       <c r="CU34" s="9"/>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
@@ -27845,21 +27889,23 @@
         <v>23057.388227622931</v>
       </c>
       <c r="CO35" s="8">
-        <v>27572.885603816438</v>
-      </c>
-      <c r="CP35" s="8">
-        <v>26230.125756544647</v>
-      </c>
-      <c r="CQ35" s="8">
-        <v>27345.509365607686</v>
-      </c>
-      <c r="CR35" s="8">
-        <v>24051.575062890832</v>
-      </c>
-      <c r="CS35" s="8">
-        <v>28710.121855429043</v>
-      </c>
-      <c r="CT35" s="9"/>
+        <v>27573.404310465623</v>
+      </c>
+      <c r="CP35" s="22">
+        <v>26257.392728886236</v>
+      </c>
+      <c r="CQ35" s="22">
+        <v>27343.620341405316</v>
+      </c>
+      <c r="CR35" s="22">
+        <v>24052.228916587959</v>
+      </c>
+      <c r="CS35" s="22">
+        <v>28782.598704177344</v>
+      </c>
+      <c r="CT35" s="22">
+        <v>28091.28735502599</v>
+      </c>
       <c r="CU35" s="9"/>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
@@ -28193,21 +28239,23 @@
         <v>2200.1473327711597</v>
       </c>
       <c r="CO36" s="8">
-        <v>2394.8188892460926</v>
-      </c>
-      <c r="CP36" s="8">
+        <v>2381.4317702289782</v>
+      </c>
+      <c r="CP36" s="22">
         <v>2006.5055051331201</v>
       </c>
-      <c r="CQ36" s="8">
+      <c r="CQ36" s="22">
         <v>2006.2200099951788</v>
       </c>
-      <c r="CR36" s="8">
+      <c r="CR36" s="22">
         <v>2254.1520579715079</v>
       </c>
-      <c r="CS36" s="8">
-        <v>2580.4184912628625</v>
-      </c>
-      <c r="CT36" s="9"/>
+      <c r="CS36" s="22">
+        <v>2546.9543260567502</v>
+      </c>
+      <c r="CT36" s="22">
+        <v>2284.3851079682959</v>
+      </c>
       <c r="CU36" s="9"/>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
@@ -28356,11 +28404,11 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
-      <c r="CS37" s="10"/>
-      <c r="CT37" s="9"/>
+      <c r="CP37" s="23"/>
+      <c r="CQ37" s="23"/>
+      <c r="CR37" s="23"/>
+      <c r="CS37" s="23"/>
+      <c r="CT37" s="23"/>
       <c r="CU37" s="9"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
@@ -28694,21 +28742,23 @@
         <v>179462.739046865</v>
       </c>
       <c r="CO38" s="12">
-        <v>158327.0348940494</v>
-      </c>
-      <c r="CP38" s="12">
-        <v>155554.72079524159</v>
-      </c>
-      <c r="CQ38" s="12">
-        <v>172177.96532001087</v>
-      </c>
-      <c r="CR38" s="12">
-        <v>191498.36742198127</v>
-      </c>
-      <c r="CS38" s="12">
-        <v>168510.3339487614</v>
-      </c>
-      <c r="CT38" s="9"/>
+        <v>158292.30064818679</v>
+      </c>
+      <c r="CP38" s="24">
+        <v>155126.59255944434</v>
+      </c>
+      <c r="CQ38" s="24">
+        <v>171973.95391538015</v>
+      </c>
+      <c r="CR38" s="24">
+        <v>190777.62711975517</v>
+      </c>
+      <c r="CS38" s="24">
+        <v>167040.23961920995</v>
+      </c>
+      <c r="CT38" s="24">
+        <v>164828.05649935844</v>
+      </c>
       <c r="CU38" s="9"/>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
@@ -28858,10 +28908,11 @@
       <c r="CM39" s="13"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="13"/>
-      <c r="CP39" s="13"/>
-      <c r="CQ39" s="13"/>
-      <c r="CR39" s="13"/>
-      <c r="CS39" s="13"/>
+      <c r="CP39" s="25"/>
+      <c r="CQ39" s="25"/>
+      <c r="CR39" s="25"/>
+      <c r="CS39" s="25"/>
+      <c r="CT39" s="25"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -28961,11 +29012,11 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
-      <c r="CS41" s="9"/>
-      <c r="CT41" s="9"/>
+      <c r="CP41" s="26"/>
+      <c r="CQ41" s="26"/>
+      <c r="CR41" s="26"/>
+      <c r="CS41" s="26"/>
+      <c r="CT41" s="26"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -29114,11 +29165,11 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
-      <c r="CS42" s="9"/>
-      <c r="CT42" s="9"/>
+      <c r="CP42" s="26"/>
+      <c r="CQ42" s="26"/>
+      <c r="CR42" s="26"/>
+      <c r="CS42" s="26"/>
+      <c r="CT42" s="26"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -29186,7 +29237,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29196,7 +29247,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29206,148 +29257,151 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21" t="s">
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21" t="s">
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21" t="s">
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21" t="s">
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="21"/>
-      <c r="X51" s="21"/>
-      <c r="Y51" s="21"/>
-      <c r="Z51" s="21" t="s">
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="21"/>
-      <c r="AB51" s="21"/>
-      <c r="AC51" s="21"/>
-      <c r="AD51" s="21" t="s">
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="21"/>
-      <c r="AF51" s="21"/>
-      <c r="AG51" s="21"/>
-      <c r="AH51" s="21" t="s">
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="21"/>
-      <c r="AJ51" s="21"/>
-      <c r="AK51" s="21"/>
-      <c r="AL51" s="21" t="s">
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="21"/>
-      <c r="AN51" s="21"/>
-      <c r="AO51" s="21"/>
-      <c r="AP51" s="21" t="s">
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="21"/>
-      <c r="AR51" s="21"/>
-      <c r="AS51" s="21"/>
-      <c r="AT51" s="21" t="s">
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="21"/>
-      <c r="AV51" s="21"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21" t="s">
+      <c r="AU51" s="30"/>
+      <c r="AV51" s="30"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="21"/>
-      <c r="AZ51" s="21"/>
-      <c r="BA51" s="21"/>
-      <c r="BB51" s="21" t="s">
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="30"/>
+      <c r="BA51" s="30"/>
+      <c r="BB51" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="21"/>
-      <c r="BD51" s="21"/>
-      <c r="BE51" s="21"/>
-      <c r="BF51" s="21" t="s">
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="30"/>
+      <c r="BE51" s="30"/>
+      <c r="BF51" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="21"/>
-      <c r="BH51" s="21"/>
-      <c r="BI51" s="21"/>
-      <c r="BJ51" s="21" t="s">
+      <c r="BG51" s="30"/>
+      <c r="BH51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="21"/>
-      <c r="BL51" s="21"/>
-      <c r="BM51" s="21"/>
-      <c r="BN51" s="21" t="s">
+      <c r="BK51" s="30"/>
+      <c r="BL51" s="30"/>
+      <c r="BM51" s="30"/>
+      <c r="BN51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="21"/>
-      <c r="BP51" s="21"/>
-      <c r="BQ51" s="21"/>
-      <c r="BR51" s="21" t="s">
+      <c r="BO51" s="30"/>
+      <c r="BP51" s="30"/>
+      <c r="BQ51" s="30"/>
+      <c r="BR51" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="21"/>
-      <c r="BT51" s="21"/>
-      <c r="BU51" s="21"/>
-      <c r="BV51" s="21" t="s">
+      <c r="BS51" s="30"/>
+      <c r="BT51" s="30"/>
+      <c r="BU51" s="30"/>
+      <c r="BV51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="21"/>
-      <c r="BX51" s="21"/>
-      <c r="BY51" s="21"/>
-      <c r="BZ51" s="21" t="s">
+      <c r="BW51" s="30"/>
+      <c r="BX51" s="30"/>
+      <c r="BY51" s="30"/>
+      <c r="BZ51" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="21"/>
-      <c r="CB51" s="21"/>
-      <c r="CC51" s="21"/>
-      <c r="CD51" s="21" t="s">
+      <c r="CA51" s="30"/>
+      <c r="CB51" s="30"/>
+      <c r="CC51" s="30"/>
+      <c r="CD51" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="21"/>
-      <c r="CF51" s="21"/>
-      <c r="CG51" s="21"/>
-      <c r="CH51" s="21" t="s">
+      <c r="CE51" s="30"/>
+      <c r="CF51" s="30"/>
+      <c r="CG51" s="30"/>
+      <c r="CH51" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="21"/>
-      <c r="CJ51" s="21"/>
-      <c r="CK51" s="21"/>
-      <c r="CL51" s="20" t="s">
+      <c r="CI51" s="30"/>
+      <c r="CJ51" s="30"/>
+      <c r="CK51" s="30"/>
+      <c r="CL51" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="20"/>
-      <c r="CN51" s="20"/>
-      <c r="CO51" s="20"/>
-      <c r="CP51" s="19"/>
-      <c r="CQ51" s="19"/>
-      <c r="CR51" s="19"/>
-      <c r="CS51" s="19"/>
+      <c r="CM51" s="30"/>
+      <c r="CN51" s="30"/>
+      <c r="CO51" s="30"/>
+      <c r="CP51" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQ51" s="18"/>
+      <c r="CR51" s="18"/>
+      <c r="CS51" s="18"/>
+      <c r="CT51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29629,10 +29683,13 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="5"/>
-      <c r="CQ52" s="5"/>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
+      <c r="CP52" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ52" s="27"/>
+      <c r="CR52" s="27"/>
+      <c r="CS52" s="27"/>
+      <c r="CT52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29903,25 +29960,27 @@
         <v>13.686539658689753</v>
       </c>
       <c r="CK54" s="15">
-        <v>15.145261361366707</v>
+        <v>15.125160447103141</v>
       </c>
       <c r="CL54" s="15">
-        <v>21.950906458118283</v>
+        <v>21.503860320875901</v>
       </c>
       <c r="CM54" s="15">
-        <v>15.7558978840284</v>
+        <v>15.588309405479478</v>
       </c>
       <c r="CN54" s="15">
-        <v>7.4069840185208733</v>
+        <v>6.9304201080086898</v>
       </c>
       <c r="CO54" s="15">
-        <v>5.1530488801111005</v>
-      </c>
-      <c r="CP54" s="15"/>
-      <c r="CQ54" s="15"/>
-      <c r="CR54" s="15"/>
-      <c r="CS54" s="15"/>
-      <c r="CT54" s="9"/>
+        <v>3.9901394572837035</v>
+      </c>
+      <c r="CP54" s="28">
+        <v>1.7151685478952885</v>
+      </c>
+      <c r="CQ54" s="28"/>
+      <c r="CR54" s="28"/>
+      <c r="CS54" s="28"/>
+      <c r="CT54" s="28"/>
       <c r="CU54" s="9"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
@@ -30253,11 +30312,13 @@
       <c r="CO55" s="15">
         <v>-3.1196270451051333</v>
       </c>
-      <c r="CP55" s="15"/>
-      <c r="CQ55" s="15"/>
-      <c r="CR55" s="15"/>
-      <c r="CS55" s="15"/>
-      <c r="CT55" s="9"/>
+      <c r="CP55" s="28">
+        <v>-3.1196270451051333</v>
+      </c>
+      <c r="CQ55" s="28"/>
+      <c r="CR55" s="28"/>
+      <c r="CS55" s="28"/>
+      <c r="CT55" s="28"/>
       <c r="CU55" s="9"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
@@ -30575,25 +30636,27 @@
         <v>4.1895223133286947</v>
       </c>
       <c r="CK56" s="15">
-        <v>6.734539471039497</v>
+        <v>6.7365473358582904</v>
       </c>
       <c r="CL56" s="15">
-        <v>15.619783315845098</v>
+        <v>15.739973415697236</v>
       </c>
       <c r="CM56" s="15">
-        <v>19.542592504576021</v>
+        <v>19.534446261682547</v>
       </c>
       <c r="CN56" s="15">
-        <v>15.557553020289731</v>
+        <v>15.560694508241198</v>
       </c>
       <c r="CO56" s="15">
-        <v>16.251024901256585</v>
-      </c>
-      <c r="CP56" s="15"/>
-      <c r="CQ56" s="15"/>
-      <c r="CR56" s="15"/>
-      <c r="CS56" s="15"/>
-      <c r="CT56" s="9"/>
+        <v>16.542300689921376</v>
+      </c>
+      <c r="CP56" s="28">
+        <v>15.878995142509694</v>
+      </c>
+      <c r="CQ56" s="28"/>
+      <c r="CR56" s="28"/>
+      <c r="CS56" s="28"/>
+      <c r="CT56" s="28"/>
       <c r="CU56" s="9"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
@@ -30911,7 +30974,7 @@
         <v>9.0323140743479229</v>
       </c>
       <c r="CK57" s="15">
-        <v>11.423312856875299</v>
+        <v>10.800891707109159</v>
       </c>
       <c r="CL57" s="15">
         <v>10.159068100733066</v>
@@ -30923,13 +30986,15 @@
         <v>6.273759777763587</v>
       </c>
       <c r="CO57" s="15">
-        <v>11.601166249514705</v>
-      </c>
-      <c r="CP57" s="15"/>
-      <c r="CQ57" s="15"/>
-      <c r="CR57" s="15"/>
-      <c r="CS57" s="15"/>
-      <c r="CT57" s="9"/>
+        <v>10.773685580166784</v>
+      </c>
+      <c r="CP57" s="28">
+        <v>17.078202663846966</v>
+      </c>
+      <c r="CQ57" s="28"/>
+      <c r="CR57" s="28"/>
+      <c r="CS57" s="28"/>
+      <c r="CT57" s="28"/>
       <c r="CU57" s="9"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
@@ -31074,11 +31139,11 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
-      <c r="CS58" s="9"/>
-      <c r="CT58" s="9"/>
+      <c r="CP58" s="26"/>
+      <c r="CQ58" s="26"/>
+      <c r="CR58" s="26"/>
+      <c r="CS58" s="26"/>
+      <c r="CT58" s="26"/>
       <c r="CU58" s="9"/>
       <c r="CV58" s="9"/>
       <c r="CW58" s="9"/>
@@ -31396,25 +31461,27 @@
         <v>12.148833984928515</v>
       </c>
       <c r="CK59" s="15">
-        <v>13.545764568991657</v>
+        <v>13.520262623318004</v>
       </c>
       <c r="CL59" s="15">
-        <v>20.995599468753042</v>
+        <v>20.642450861271925</v>
       </c>
       <c r="CM59" s="15">
-        <v>16.052058526092154</v>
+        <v>15.906964134898558</v>
       </c>
       <c r="CN59" s="15">
-        <v>8.5926343978781858</v>
+        <v>8.2002598784752792</v>
       </c>
       <c r="CO59" s="15">
-        <v>6.9174363425831729</v>
-      </c>
-      <c r="CP59" s="15"/>
-      <c r="CQ59" s="15"/>
-      <c r="CR59" s="15"/>
-      <c r="CS59" s="15"/>
-      <c r="CT59" s="9"/>
+        <v>6.0243709265339191</v>
+      </c>
+      <c r="CP59" s="28">
+        <v>3.7166769292230839</v>
+      </c>
+      <c r="CQ59" s="28"/>
+      <c r="CR59" s="28"/>
+      <c r="CS59" s="28"/>
+      <c r="CT59" s="28"/>
       <c r="CU59" s="9"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
@@ -31560,10 +31627,11 @@
       <c r="CM60" s="13"/>
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
-      <c r="CR60" s="13"/>
-      <c r="CS60" s="13"/>
+      <c r="CP60" s="25"/>
+      <c r="CQ60" s="25"/>
+      <c r="CR60" s="25"/>
+      <c r="CS60" s="25"/>
+      <c r="CT60" s="25"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31659,15 +31727,15 @@
       <c r="CI62" s="17"/>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="17"/>
-      <c r="CL62" s="18"/>
-      <c r="CM62" s="18"/>
-      <c r="CN62" s="18"/>
-      <c r="CO62" s="18"/>
-      <c r="CP62" s="18"/>
-      <c r="CQ62" s="18"/>
-      <c r="CR62" s="18"/>
-      <c r="CS62" s="18"/>
-      <c r="CT62" s="9"/>
+      <c r="CL62" s="17"/>
+      <c r="CM62" s="17"/>
+      <c r="CN62" s="17"/>
+      <c r="CO62" s="17"/>
+      <c r="CP62" s="29"/>
+      <c r="CQ62" s="29"/>
+      <c r="CR62" s="29"/>
+      <c r="CS62" s="29"/>
+      <c r="CT62" s="29"/>
       <c r="CU62" s="9"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
@@ -31812,11 +31880,11 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
-      <c r="CS63" s="9"/>
-      <c r="CT63" s="9"/>
+      <c r="CP63" s="26"/>
+      <c r="CQ63" s="26"/>
+      <c r="CR63" s="26"/>
+      <c r="CS63" s="26"/>
+      <c r="CT63" s="26"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -31880,7 +31948,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31890,7 +31958,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31900,148 +31968,151 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="21" t="s">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="21" t="s">
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="21" t="s">
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="21" t="s">
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="21" t="s">
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="23"/>
-      <c r="Z72" s="21" t="s">
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="23"/>
-      <c r="AB72" s="23"/>
-      <c r="AC72" s="23"/>
-      <c r="AD72" s="21" t="s">
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="23"/>
-      <c r="AF72" s="23"/>
-      <c r="AG72" s="23"/>
-      <c r="AH72" s="21" t="s">
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="23"/>
-      <c r="AJ72" s="23"/>
-      <c r="AK72" s="23"/>
-      <c r="AL72" s="21" t="s">
+      <c r="AI72" s="32"/>
+      <c r="AJ72" s="32"/>
+      <c r="AK72" s="32"/>
+      <c r="AL72" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="23"/>
-      <c r="AN72" s="23"/>
-      <c r="AO72" s="23"/>
-      <c r="AP72" s="21" t="s">
+      <c r="AM72" s="32"/>
+      <c r="AN72" s="32"/>
+      <c r="AO72" s="32"/>
+      <c r="AP72" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="23"/>
-      <c r="AR72" s="23"/>
-      <c r="AS72" s="23"/>
-      <c r="AT72" s="21" t="s">
+      <c r="AQ72" s="32"/>
+      <c r="AR72" s="32"/>
+      <c r="AS72" s="32"/>
+      <c r="AT72" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="23"/>
-      <c r="AV72" s="23"/>
-      <c r="AW72" s="23"/>
-      <c r="AX72" s="21" t="s">
+      <c r="AU72" s="32"/>
+      <c r="AV72" s="32"/>
+      <c r="AW72" s="32"/>
+      <c r="AX72" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="23"/>
-      <c r="AZ72" s="23"/>
-      <c r="BA72" s="23"/>
-      <c r="BB72" s="21" t="s">
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="32"/>
+      <c r="BA72" s="32"/>
+      <c r="BB72" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="23"/>
-      <c r="BD72" s="23"/>
-      <c r="BE72" s="23"/>
-      <c r="BF72" s="21" t="s">
+      <c r="BC72" s="32"/>
+      <c r="BD72" s="32"/>
+      <c r="BE72" s="32"/>
+      <c r="BF72" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="23"/>
-      <c r="BH72" s="23"/>
-      <c r="BI72" s="23"/>
-      <c r="BJ72" s="21" t="s">
+      <c r="BG72" s="32"/>
+      <c r="BH72" s="32"/>
+      <c r="BI72" s="32"/>
+      <c r="BJ72" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="23"/>
-      <c r="BL72" s="23"/>
-      <c r="BM72" s="23"/>
-      <c r="BN72" s="21" t="s">
+      <c r="BK72" s="32"/>
+      <c r="BL72" s="32"/>
+      <c r="BM72" s="32"/>
+      <c r="BN72" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="23"/>
-      <c r="BP72" s="23"/>
-      <c r="BQ72" s="23"/>
-      <c r="BR72" s="21" t="s">
+      <c r="BO72" s="32"/>
+      <c r="BP72" s="32"/>
+      <c r="BQ72" s="32"/>
+      <c r="BR72" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="23"/>
-      <c r="BT72" s="23"/>
-      <c r="BU72" s="23"/>
-      <c r="BV72" s="21" t="s">
+      <c r="BS72" s="32"/>
+      <c r="BT72" s="32"/>
+      <c r="BU72" s="32"/>
+      <c r="BV72" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="23"/>
-      <c r="BX72" s="23"/>
-      <c r="BY72" s="23"/>
-      <c r="BZ72" s="21" t="s">
+      <c r="BW72" s="32"/>
+      <c r="BX72" s="32"/>
+      <c r="BY72" s="32"/>
+      <c r="BZ72" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="23"/>
-      <c r="CB72" s="23"/>
-      <c r="CC72" s="23"/>
-      <c r="CD72" s="21" t="s">
+      <c r="CA72" s="32"/>
+      <c r="CB72" s="32"/>
+      <c r="CC72" s="32"/>
+      <c r="CD72" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="21"/>
-      <c r="CF72" s="21"/>
-      <c r="CG72" s="21"/>
-      <c r="CH72" s="21" t="s">
+      <c r="CE72" s="30"/>
+      <c r="CF72" s="30"/>
+      <c r="CG72" s="30"/>
+      <c r="CH72" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="21"/>
-      <c r="CJ72" s="21"/>
-      <c r="CK72" s="21"/>
-      <c r="CL72" s="20" t="s">
+      <c r="CI72" s="30"/>
+      <c r="CJ72" s="30"/>
+      <c r="CK72" s="30"/>
+      <c r="CL72" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="20"/>
-      <c r="CN72" s="20"/>
-      <c r="CO72" s="20"/>
-      <c r="CP72" s="19"/>
-      <c r="CQ72" s="19"/>
-      <c r="CR72" s="19"/>
-      <c r="CS72" s="19"/>
+      <c r="CM72" s="30"/>
+      <c r="CN72" s="30"/>
+      <c r="CO72" s="30"/>
+      <c r="CP72" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="CQ72" s="18"/>
+      <c r="CR72" s="18"/>
+      <c r="CS72" s="18"/>
+      <c r="CT72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32323,10 +32394,13 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="5"/>
-      <c r="CQ73" s="5"/>
-      <c r="CR73" s="5"/>
-      <c r="CS73" s="5"/>
+      <c r="CP73" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="CQ73" s="27"/>
+      <c r="CR73" s="27"/>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32597,25 +32671,27 @@
         <v>3.9516748626460725</v>
       </c>
       <c r="CK75" s="15">
-        <v>4.3492103429426265</v>
+        <v>4.3309913372892197</v>
       </c>
       <c r="CL75" s="15">
-        <v>6.6971222537265334</v>
+        <v>6.3043751743438321</v>
       </c>
       <c r="CM75" s="15">
-        <v>4.266615646412049</v>
+        <v>4.1157632443372876</v>
       </c>
       <c r="CN75" s="15">
-        <v>7.2215331108629783</v>
+        <v>6.7457920445128252</v>
       </c>
       <c r="CO75" s="15">
-        <v>7.2842874596466487</v>
-      </c>
-      <c r="CP75" s="15"/>
-      <c r="CQ75" s="15"/>
-      <c r="CR75" s="15"/>
-      <c r="CS75" s="15"/>
-      <c r="CT75" s="9"/>
+        <v>6.0978049452878054</v>
+      </c>
+      <c r="CP75" s="28">
+        <v>6.5504740475177243</v>
+      </c>
+      <c r="CQ75" s="28"/>
+      <c r="CR75" s="28"/>
+      <c r="CS75" s="28"/>
+      <c r="CT75" s="28"/>
       <c r="CU75" s="9"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
@@ -32947,11 +33023,13 @@
       <c r="CO76" s="15">
         <v>-8.3932154770660787</v>
       </c>
-      <c r="CP76" s="15"/>
-      <c r="CQ76" s="15"/>
-      <c r="CR76" s="15"/>
-      <c r="CS76" s="15"/>
-      <c r="CT76" s="9"/>
+      <c r="CP76" s="28">
+        <v>-13.453216643188483</v>
+      </c>
+      <c r="CQ76" s="28"/>
+      <c r="CR76" s="28"/>
+      <c r="CS76" s="28"/>
+      <c r="CT76" s="28"/>
       <c r="CU76" s="9"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
@@ -33269,25 +33347,27 @@
         <v>4.1438719773410924</v>
       </c>
       <c r="CK77" s="15">
-        <v>11.540998875165414</v>
+        <v>11.543097206787451</v>
       </c>
       <c r="CL77" s="15">
-        <v>8.1172249546778659</v>
+        <v>8.2296159286995021</v>
       </c>
       <c r="CM77" s="15">
-        <v>7.3479967644467905</v>
+        <v>7.3405811789020845</v>
       </c>
       <c r="CN77" s="15">
-        <v>4.3117929292479715</v>
+        <v>4.3146286957739761</v>
       </c>
       <c r="CO77" s="15">
-        <v>4.1244731072151524</v>
-      </c>
-      <c r="CP77" s="15"/>
-      <c r="CQ77" s="15"/>
-      <c r="CR77" s="15"/>
-      <c r="CS77" s="15"/>
-      <c r="CT77" s="9"/>
+        <v>4.3853648976262463</v>
+      </c>
+      <c r="CP77" s="28">
+        <v>6.984298270110628</v>
+      </c>
+      <c r="CQ77" s="28"/>
+      <c r="CR77" s="28"/>
+      <c r="CS77" s="28"/>
+      <c r="CT77" s="28"/>
       <c r="CU77" s="9"/>
       <c r="CV77" s="9"/>
       <c r="CW77" s="9"/>
@@ -33605,7 +33685,7 @@
         <v>7.0841088321075034</v>
       </c>
       <c r="CK78" s="15">
-        <v>10.791525685391562</v>
+        <v>10.172197289787931</v>
       </c>
       <c r="CL78" s="15">
         <v>6.46937088915152</v>
@@ -33617,13 +33697,15 @@
         <v>2.4545958534662162</v>
       </c>
       <c r="CO78" s="15">
-        <v>7.7500475234349722</v>
-      </c>
-      <c r="CP78" s="15"/>
-      <c r="CQ78" s="15"/>
-      <c r="CR78" s="15"/>
-      <c r="CS78" s="15"/>
-      <c r="CT78" s="9"/>
+        <v>6.9505478971525037</v>
+      </c>
+      <c r="CP78" s="28">
+        <v>13.84893298943328</v>
+      </c>
+      <c r="CQ78" s="28"/>
+      <c r="CR78" s="28"/>
+      <c r="CS78" s="28"/>
+      <c r="CT78" s="28"/>
       <c r="CU78" s="9"/>
       <c r="CV78" s="9"/>
       <c r="CW78" s="9"/>
@@ -33768,11 +33850,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
+      <c r="CP79" s="26"/>
+      <c r="CQ79" s="26"/>
+      <c r="CR79" s="26"/>
+      <c r="CS79" s="26"/>
+      <c r="CT79" s="26"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -34090,25 +34172,27 @@
         <v>4.1149867328895482</v>
       </c>
       <c r="CK80" s="15">
-        <v>5.6530764414741697</v>
+        <v>5.629897961969931</v>
       </c>
       <c r="CL80" s="15">
-        <v>7.2109953940613991</v>
+        <v>6.9159220328578925</v>
       </c>
       <c r="CM80" s="15">
-        <v>4.7471612801385703</v>
+        <v>4.6230477475844793</v>
       </c>
       <c r="CN80" s="15">
-        <v>6.7064775891853827</v>
+        <v>6.304867591447703</v>
       </c>
       <c r="CO80" s="15">
-        <v>6.4318131527736568</v>
-      </c>
-      <c r="CP80" s="15"/>
-      <c r="CQ80" s="15"/>
-      <c r="CR80" s="15"/>
-      <c r="CS80" s="15"/>
-      <c r="CT80" s="9"/>
+        <v>5.5264462865227699</v>
+      </c>
+      <c r="CP80" s="28">
+        <v>6.2539012685375042</v>
+      </c>
+      <c r="CQ80" s="28"/>
+      <c r="CR80" s="28"/>
+      <c r="CS80" s="28"/>
+      <c r="CT80" s="28"/>
       <c r="CU80" s="9"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
@@ -34254,10 +34338,11 @@
       <c r="CM81" s="13"/>
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
-      <c r="CP81" s="13"/>
-      <c r="CQ81" s="13"/>
-      <c r="CR81" s="13"/>
-      <c r="CS81" s="13"/>
+      <c r="CP81" s="25"/>
+      <c r="CQ81" s="25"/>
+      <c r="CR81" s="25"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="25"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34357,11 +34442,11 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
-      <c r="CS83" s="9"/>
-      <c r="CT83" s="9"/>
+      <c r="CP83" s="26"/>
+      <c r="CQ83" s="26"/>
+      <c r="CR83" s="26"/>
+      <c r="CS83" s="26"/>
+      <c r="CT83" s="26"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
@@ -34506,11 +34591,11 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
-      <c r="CS84" s="9"/>
-      <c r="CT84" s="9"/>
+      <c r="CP84" s="26"/>
+      <c r="CQ84" s="26"/>
+      <c r="CR84" s="26"/>
+      <c r="CS84" s="26"/>
+      <c r="CT84" s="26"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -34569,7 +34654,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34579,7 +34664,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34589,150 +34674,153 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="21">
+      <c r="B92" s="30">
         <v>2000</v>
       </c>
-      <c r="C92" s="22"/>
-      <c r="D92" s="22"/>
-      <c r="E92" s="22"/>
-      <c r="F92" s="21">
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="30">
         <v>2001</v>
       </c>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-      <c r="I92" s="22"/>
-      <c r="J92" s="21">
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="30">
         <v>2002</v>
       </c>
-      <c r="K92" s="22"/>
-      <c r="L92" s="22"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="21">
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="30">
         <v>2003</v>
       </c>
-      <c r="O92" s="22"/>
-      <c r="P92" s="22"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="21">
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="30">
         <v>2004</v>
       </c>
-      <c r="S92" s="22"/>
-      <c r="T92" s="22"/>
-      <c r="U92" s="22"/>
-      <c r="V92" s="21">
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+      <c r="V92" s="30">
         <v>2005</v>
       </c>
-      <c r="W92" s="22"/>
-      <c r="X92" s="22"/>
-      <c r="Y92" s="22"/>
-      <c r="Z92" s="21">
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="30">
         <v>2006</v>
       </c>
-      <c r="AA92" s="22"/>
-      <c r="AB92" s="22"/>
-      <c r="AC92" s="22"/>
-      <c r="AD92" s="21">
+      <c r="AA92" s="31"/>
+      <c r="AB92" s="31"/>
+      <c r="AC92" s="31"/>
+      <c r="AD92" s="30">
         <v>2007</v>
       </c>
-      <c r="AE92" s="22"/>
-      <c r="AF92" s="22"/>
-      <c r="AG92" s="22"/>
-      <c r="AH92" s="21">
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
+      <c r="AG92" s="31"/>
+      <c r="AH92" s="30">
         <v>2008</v>
       </c>
-      <c r="AI92" s="22"/>
-      <c r="AJ92" s="22"/>
-      <c r="AK92" s="22"/>
-      <c r="AL92" s="21">
+      <c r="AI92" s="31"/>
+      <c r="AJ92" s="31"/>
+      <c r="AK92" s="31"/>
+      <c r="AL92" s="30">
         <v>2009</v>
       </c>
-      <c r="AM92" s="22"/>
-      <c r="AN92" s="22"/>
-      <c r="AO92" s="22"/>
-      <c r="AP92" s="21">
+      <c r="AM92" s="31"/>
+      <c r="AN92" s="31"/>
+      <c r="AO92" s="31"/>
+      <c r="AP92" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="22"/>
-      <c r="AR92" s="22"/>
-      <c r="AS92" s="22"/>
-      <c r="AT92" s="21">
+      <c r="AQ92" s="31"/>
+      <c r="AR92" s="31"/>
+      <c r="AS92" s="31"/>
+      <c r="AT92" s="30">
         <v>2011</v>
       </c>
-      <c r="AU92" s="22"/>
-      <c r="AV92" s="22"/>
-      <c r="AW92" s="22"/>
-      <c r="AX92" s="21">
+      <c r="AU92" s="31"/>
+      <c r="AV92" s="31"/>
+      <c r="AW92" s="31"/>
+      <c r="AX92" s="30">
         <v>2012</v>
       </c>
-      <c r="AY92" s="22"/>
-      <c r="AZ92" s="22"/>
-      <c r="BA92" s="22"/>
-      <c r="BB92" s="21">
+      <c r="AY92" s="31"/>
+      <c r="AZ92" s="31"/>
+      <c r="BA92" s="31"/>
+      <c r="BB92" s="30">
         <v>2013</v>
       </c>
-      <c r="BC92" s="22"/>
-      <c r="BD92" s="22"/>
-      <c r="BE92" s="22"/>
-      <c r="BF92" s="21">
+      <c r="BC92" s="31"/>
+      <c r="BD92" s="31"/>
+      <c r="BE92" s="31"/>
+      <c r="BF92" s="30">
         <v>2014</v>
       </c>
-      <c r="BG92" s="22"/>
-      <c r="BH92" s="22"/>
-      <c r="BI92" s="22"/>
-      <c r="BJ92" s="21">
+      <c r="BG92" s="31"/>
+      <c r="BH92" s="31"/>
+      <c r="BI92" s="31"/>
+      <c r="BJ92" s="30">
         <v>2015</v>
       </c>
-      <c r="BK92" s="22"/>
-      <c r="BL92" s="22"/>
-      <c r="BM92" s="22"/>
-      <c r="BN92" s="21">
+      <c r="BK92" s="31"/>
+      <c r="BL92" s="31"/>
+      <c r="BM92" s="31"/>
+      <c r="BN92" s="30">
         <v>2016</v>
       </c>
-      <c r="BO92" s="22"/>
-      <c r="BP92" s="22"/>
-      <c r="BQ92" s="22"/>
-      <c r="BR92" s="21">
+      <c r="BO92" s="31"/>
+      <c r="BP92" s="31"/>
+      <c r="BQ92" s="31"/>
+      <c r="BR92" s="30">
         <v>2017</v>
       </c>
-      <c r="BS92" s="22"/>
-      <c r="BT92" s="22"/>
-      <c r="BU92" s="22"/>
-      <c r="BV92" s="21">
+      <c r="BS92" s="31"/>
+      <c r="BT92" s="31"/>
+      <c r="BU92" s="31"/>
+      <c r="BV92" s="30">
         <v>2018</v>
       </c>
-      <c r="BW92" s="22"/>
-      <c r="BX92" s="22"/>
-      <c r="BY92" s="22"/>
-      <c r="BZ92" s="21">
+      <c r="BW92" s="31"/>
+      <c r="BX92" s="31"/>
+      <c r="BY92" s="31"/>
+      <c r="BZ92" s="30">
         <v>2019</v>
       </c>
-      <c r="CA92" s="22"/>
-      <c r="CB92" s="22"/>
-      <c r="CC92" s="22"/>
-      <c r="CD92" s="21">
+      <c r="CA92" s="31"/>
+      <c r="CB92" s="31"/>
+      <c r="CC92" s="31"/>
+      <c r="CD92" s="30">
         <v>2020</v>
       </c>
-      <c r="CE92" s="21"/>
-      <c r="CF92" s="21"/>
-      <c r="CG92" s="21"/>
-      <c r="CH92" s="21">
+      <c r="CE92" s="30"/>
+      <c r="CF92" s="30"/>
+      <c r="CG92" s="30"/>
+      <c r="CH92" s="30">
         <v>2021</v>
       </c>
-      <c r="CI92" s="21"/>
-      <c r="CJ92" s="21"/>
-      <c r="CK92" s="21"/>
-      <c r="CL92" s="20">
+      <c r="CI92" s="30"/>
+      <c r="CJ92" s="30"/>
+      <c r="CK92" s="30"/>
+      <c r="CL92" s="30">
         <v>2022</v>
       </c>
-      <c r="CM92" s="20"/>
-      <c r="CN92" s="20"/>
-      <c r="CO92" s="20"/>
+      <c r="CM92" s="30"/>
+      <c r="CN92" s="30"/>
+      <c r="CO92" s="30"/>
       <c r="CP92" s="20">
         <v>2023</v>
       </c>
       <c r="CQ92" s="20"/>
       <c r="CR92" s="20"/>
       <c r="CS92" s="20"/>
+      <c r="CT92" s="20">
+        <v>2024</v>
+      </c>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35014,17 +35102,20 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="6" t="s">
+      <c r="CR93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="6" t="s">
+      <c r="CS93" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CT93" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35308,21 +35399,23 @@
         <v>86.896751193835854</v>
       </c>
       <c r="CO95" s="15">
-        <v>107.52462249903239</v>
-      </c>
-      <c r="CP95" s="15">
-        <v>147.66184921161283</v>
-      </c>
-      <c r="CQ95" s="15">
-        <v>168.66700117089397</v>
-      </c>
-      <c r="CR95" s="15">
+        <v>107.52462534205156</v>
+      </c>
+      <c r="CP95" s="28">
+        <v>147.66409679804494</v>
+      </c>
+      <c r="CQ95" s="28">
+        <v>168.6668356357348</v>
+      </c>
+      <c r="CR95" s="28">
         <v>87.047048255572108</v>
       </c>
-      <c r="CS95" s="15">
-        <v>105.38860958282481</v>
-      </c>
-      <c r="CT95" s="9"/>
+      <c r="CS95" s="28">
+        <v>105.38861562855297</v>
+      </c>
+      <c r="CT95" s="28">
+        <v>140.96303773916222</v>
+      </c>
       <c r="CU95" s="9"/>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
@@ -35658,19 +35751,21 @@
       <c r="CO96" s="15">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="15">
+      <c r="CP96" s="28">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="15">
+      <c r="CQ96" s="28">
         <v>121.40481839184358</v>
       </c>
-      <c r="CR96" s="15">
+      <c r="CR96" s="28">
         <v>111.91043023656513</v>
       </c>
-      <c r="CS96" s="15">
+      <c r="CS96" s="28">
         <v>119.07336581930508</v>
       </c>
-      <c r="CT96" s="9"/>
+      <c r="CT96" s="28">
+        <v>128.9422600825676</v>
+      </c>
       <c r="CU96" s="9"/>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
@@ -36004,21 +36099,23 @@
         <v>99.507171032664786</v>
       </c>
       <c r="CO97" s="15">
-        <v>101.17491694026226</v>
-      </c>
-      <c r="CP97" s="15">
+        <v>101.17491689597118</v>
+      </c>
+      <c r="CP97" s="28">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="15">
-        <v>120.20260427085725</v>
-      </c>
-      <c r="CR97" s="15">
-        <v>110.2349491807273</v>
-      </c>
-      <c r="CS97" s="15">
-        <v>112.95795731416753</v>
-      </c>
-      <c r="CT97" s="9"/>
+      <c r="CQ97" s="28">
+        <v>120.20271663929918</v>
+      </c>
+      <c r="CR97" s="28">
+        <v>110.23494918072731</v>
+      </c>
+      <c r="CS97" s="28">
+        <v>112.9579572647182</v>
+      </c>
+      <c r="CT97" s="28">
+        <v>122.7346319709204</v>
+      </c>
       <c r="CU97" s="9"/>
       <c r="CV97" s="9"/>
       <c r="CW97" s="9"/>
@@ -36352,21 +36449,23 @@
         <v>112.67416677080821</v>
       </c>
       <c r="CO98" s="15">
-        <v>111.50119648191861</v>
-      </c>
-      <c r="CP98" s="15">
+        <v>111.50163821565909</v>
+      </c>
+      <c r="CP98" s="28">
         <v>114.85141283955909</v>
       </c>
-      <c r="CQ98" s="15">
+      <c r="CQ98" s="28">
         <v>117.49890786574258</v>
       </c>
-      <c r="CR98" s="15">
+      <c r="CR98" s="28">
         <v>116.87428204476622</v>
       </c>
-      <c r="CS98" s="15">
-        <v>115.48638586810813</v>
-      </c>
-      <c r="CT98" s="9"/>
+      <c r="CS98" s="28">
+        <v>115.48746272204724</v>
+      </c>
+      <c r="CT98" s="28">
+        <v>118.10911736789906</v>
+      </c>
       <c r="CU98" s="9"/>
       <c r="CV98" s="9"/>
       <c r="CW98" s="9"/>
@@ -36515,11 +36614,11 @@
       <c r="CM99" s="15"/>
       <c r="CN99" s="15"/>
       <c r="CO99" s="15"/>
-      <c r="CP99" s="15"/>
-      <c r="CQ99" s="15"/>
-      <c r="CR99" s="15"/>
-      <c r="CS99" s="15"/>
-      <c r="CT99" s="9"/>
+      <c r="CP99" s="28"/>
+      <c r="CQ99" s="28"/>
+      <c r="CR99" s="28"/>
+      <c r="CS99" s="28"/>
+      <c r="CT99" s="28"/>
       <c r="CU99" s="9"/>
       <c r="CV99" s="9"/>
       <c r="CW99" s="9"/>
@@ -36853,21 +36952,23 @@
         <v>89.074378828905992</v>
       </c>
       <c r="CO100" s="15">
-        <v>106.57890741400809</v>
-      </c>
-      <c r="CP100" s="15">
-        <v>140.69491464841857</v>
-      </c>
-      <c r="CQ100" s="15">
-        <v>159.51645232161013</v>
-      </c>
-      <c r="CR100" s="15">
-        <v>90.648868493488905</v>
-      </c>
-      <c r="CS100" s="15">
-        <v>107.06520176014038</v>
-      </c>
-      <c r="CT100" s="9"/>
+        <v>106.57835166695779</v>
+      </c>
+      <c r="CP100" s="28">
+        <v>140.67143530268032</v>
+      </c>
+      <c r="CQ100" s="28">
+        <v>159.50601303300959</v>
+      </c>
+      <c r="CR100" s="28">
+        <v>90.662555310654056</v>
+      </c>
+      <c r="CS100" s="28">
+        <v>107.08123970359897</v>
+      </c>
+      <c r="CT100" s="28">
+        <v>137.31235873951283</v>
+      </c>
       <c r="CU100" s="9"/>
       <c r="CV100" s="9"/>
       <c r="CW100" s="9"/>
@@ -37017,10 +37118,11 @@
       <c r="CM101" s="13"/>
       <c r="CN101" s="13"/>
       <c r="CO101" s="13"/>
-      <c r="CP101" s="13"/>
-      <c r="CQ101" s="13"/>
-      <c r="CR101" s="13"/>
-      <c r="CS101" s="13"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="25"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37039,7 +37141,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -37049,7 +37151,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -37059,150 +37161,153 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="21">
+      <c r="B113" s="30">
         <v>2000</v>
       </c>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="21">
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="30">
         <v>2001</v>
       </c>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="21">
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="30">
         <v>2002</v>
       </c>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="21">
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="30">
         <v>2003</v>
       </c>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="21">
+      <c r="O113" s="31"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="30">
         <v>2004</v>
       </c>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="21">
+      <c r="S113" s="31"/>
+      <c r="T113" s="31"/>
+      <c r="U113" s="31"/>
+      <c r="V113" s="30">
         <v>2005</v>
       </c>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="21">
+      <c r="W113" s="31"/>
+      <c r="X113" s="31"/>
+      <c r="Y113" s="31"/>
+      <c r="Z113" s="30">
         <v>2006</v>
       </c>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="21">
+      <c r="AA113" s="31"/>
+      <c r="AB113" s="31"/>
+      <c r="AC113" s="31"/>
+      <c r="AD113" s="30">
         <v>2007</v>
       </c>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="21">
+      <c r="AE113" s="31"/>
+      <c r="AF113" s="31"/>
+      <c r="AG113" s="31"/>
+      <c r="AH113" s="30">
         <v>2008</v>
       </c>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-      <c r="AK113" s="22"/>
-      <c r="AL113" s="21">
+      <c r="AI113" s="31"/>
+      <c r="AJ113" s="31"/>
+      <c r="AK113" s="31"/>
+      <c r="AL113" s="30">
         <v>2009</v>
       </c>
-      <c r="AM113" s="22"/>
-      <c r="AN113" s="22"/>
-      <c r="AO113" s="22"/>
-      <c r="AP113" s="21">
+      <c r="AM113" s="31"/>
+      <c r="AN113" s="31"/>
+      <c r="AO113" s="31"/>
+      <c r="AP113" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="22"/>
-      <c r="AR113" s="22"/>
-      <c r="AS113" s="22"/>
-      <c r="AT113" s="21">
+      <c r="AQ113" s="31"/>
+      <c r="AR113" s="31"/>
+      <c r="AS113" s="31"/>
+      <c r="AT113" s="30">
         <v>2011</v>
       </c>
-      <c r="AU113" s="22"/>
-      <c r="AV113" s="22"/>
-      <c r="AW113" s="22"/>
-      <c r="AX113" s="21">
+      <c r="AU113" s="31"/>
+      <c r="AV113" s="31"/>
+      <c r="AW113" s="31"/>
+      <c r="AX113" s="30">
         <v>2012</v>
       </c>
-      <c r="AY113" s="22"/>
-      <c r="AZ113" s="22"/>
-      <c r="BA113" s="22"/>
-      <c r="BB113" s="21">
+      <c r="AY113" s="31"/>
+      <c r="AZ113" s="31"/>
+      <c r="BA113" s="31"/>
+      <c r="BB113" s="30">
         <v>2013</v>
       </c>
-      <c r="BC113" s="22"/>
-      <c r="BD113" s="22"/>
-      <c r="BE113" s="22"/>
-      <c r="BF113" s="21">
+      <c r="BC113" s="31"/>
+      <c r="BD113" s="31"/>
+      <c r="BE113" s="31"/>
+      <c r="BF113" s="30">
         <v>2014</v>
       </c>
-      <c r="BG113" s="22"/>
-      <c r="BH113" s="22"/>
-      <c r="BI113" s="22"/>
-      <c r="BJ113" s="21">
+      <c r="BG113" s="31"/>
+      <c r="BH113" s="31"/>
+      <c r="BI113" s="31"/>
+      <c r="BJ113" s="30">
         <v>2015</v>
       </c>
-      <c r="BK113" s="22"/>
-      <c r="BL113" s="22"/>
-      <c r="BM113" s="22"/>
-      <c r="BN113" s="21">
+      <c r="BK113" s="31"/>
+      <c r="BL113" s="31"/>
+      <c r="BM113" s="31"/>
+      <c r="BN113" s="30">
         <v>2016</v>
       </c>
-      <c r="BO113" s="22"/>
-      <c r="BP113" s="22"/>
-      <c r="BQ113" s="22"/>
-      <c r="BR113" s="21">
+      <c r="BO113" s="31"/>
+      <c r="BP113" s="31"/>
+      <c r="BQ113" s="31"/>
+      <c r="BR113" s="30">
         <v>2017</v>
       </c>
-      <c r="BS113" s="22"/>
-      <c r="BT113" s="22"/>
-      <c r="BU113" s="22"/>
-      <c r="BV113" s="21">
+      <c r="BS113" s="31"/>
+      <c r="BT113" s="31"/>
+      <c r="BU113" s="31"/>
+      <c r="BV113" s="30">
         <v>2018</v>
       </c>
-      <c r="BW113" s="22"/>
-      <c r="BX113" s="22"/>
-      <c r="BY113" s="22"/>
-      <c r="BZ113" s="21">
+      <c r="BW113" s="31"/>
+      <c r="BX113" s="31"/>
+      <c r="BY113" s="31"/>
+      <c r="BZ113" s="30">
         <v>2019</v>
       </c>
-      <c r="CA113" s="22"/>
-      <c r="CB113" s="22"/>
-      <c r="CC113" s="22"/>
-      <c r="CD113" s="21">
+      <c r="CA113" s="31"/>
+      <c r="CB113" s="31"/>
+      <c r="CC113" s="31"/>
+      <c r="CD113" s="30">
         <v>2020</v>
       </c>
-      <c r="CE113" s="21"/>
-      <c r="CF113" s="21"/>
-      <c r="CG113" s="21"/>
-      <c r="CH113" s="21">
+      <c r="CE113" s="30"/>
+      <c r="CF113" s="30"/>
+      <c r="CG113" s="30"/>
+      <c r="CH113" s="30">
         <v>2021</v>
       </c>
-      <c r="CI113" s="21"/>
-      <c r="CJ113" s="21"/>
-      <c r="CK113" s="21"/>
-      <c r="CL113" s="20">
+      <c r="CI113" s="30"/>
+      <c r="CJ113" s="30"/>
+      <c r="CK113" s="30"/>
+      <c r="CL113" s="30">
         <v>2022</v>
       </c>
-      <c r="CM113" s="20"/>
-      <c r="CN113" s="20"/>
-      <c r="CO113" s="20"/>
+      <c r="CM113" s="30"/>
+      <c r="CN113" s="30"/>
+      <c r="CO113" s="30"/>
       <c r="CP113" s="20">
         <v>2023</v>
       </c>
       <c r="CQ113" s="20"/>
       <c r="CR113" s="20"/>
       <c r="CS113" s="20"/>
+      <c r="CT113" s="20">
+        <v>2024</v>
+      </c>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37484,17 +37589,20 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="6" t="s">
+      <c r="CR114" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="6" t="s">
+      <c r="CS114" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CT114" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37778,21 +37886,23 @@
         <v>82.428694874662895</v>
       </c>
       <c r="CO116" s="15">
-        <v>79.801695235134375</v>
-      </c>
-      <c r="CP116" s="15">
-        <v>83.470863328208949</v>
-      </c>
-      <c r="CQ116" s="15">
-        <v>85.793526835628583</v>
-      </c>
-      <c r="CR116" s="15">
-        <v>81.528711060014956</v>
-      </c>
-      <c r="CS116" s="15">
-        <v>78.484780844241811</v>
-      </c>
-      <c r="CT116" s="9"/>
+        <v>79.805688302271733</v>
+      </c>
+      <c r="CP116" s="28">
+        <v>83.408319863540854</v>
+      </c>
+      <c r="CQ116" s="28">
+        <v>85.776559493505317</v>
+      </c>
+      <c r="CR116" s="28">
+        <v>81.461310553247557</v>
+      </c>
+      <c r="CS116" s="28">
+        <v>78.274500320197831</v>
+      </c>
+      <c r="CT116" s="28">
+        <v>81.798719014168583</v>
+      </c>
       <c r="CU116" s="9"/>
       <c r="CV116" s="9"/>
       <c r="CW116" s="9"/>
@@ -38126,21 +38236,23 @@
         <v>1.6677040386565398</v>
       </c>
       <c r="CO117" s="15">
-        <v>2.0837428223576442</v>
-      </c>
-      <c r="CP117" s="15">
-        <v>1.8954980009488629</v>
-      </c>
-      <c r="CQ117" s="15">
-        <v>1.380323101196165</v>
-      </c>
-      <c r="CR117" s="15">
-        <v>1.6802408760418137</v>
-      </c>
-      <c r="CS117" s="15">
-        <v>1.8881277804422194</v>
-      </c>
-      <c r="CT117" s="9"/>
+        <v>2.0842109281832095</v>
+      </c>
+      <c r="CP117" s="28">
+        <v>1.9010465659418612</v>
+      </c>
+      <c r="CQ117" s="28">
+        <v>1.3820510141090199</v>
+      </c>
+      <c r="CR117" s="28">
+        <v>1.6863340564737137</v>
+      </c>
+      <c r="CS117" s="28">
+        <v>1.9044596093757546</v>
+      </c>
+      <c r="CT117" s="28">
+        <v>1.7757423952056544</v>
+      </c>
       <c r="CU117" s="9"/>
       <c r="CV117" s="9"/>
       <c r="CW117" s="9"/>
@@ -38474,21 +38586,23 @@
         <v>14.352825251142482</v>
       </c>
       <c r="CO118" s="15">
-        <v>16.532127013935611</v>
-      </c>
-      <c r="CP118" s="15">
-        <v>13.580670844035319</v>
-      </c>
-      <c r="CQ118" s="15">
-        <v>11.967869388205512</v>
-      </c>
-      <c r="CR118" s="15">
-        <v>15.273387317162815</v>
-      </c>
-      <c r="CS118" s="15">
-        <v>17.975334752787358</v>
-      </c>
-      <c r="CT118" s="9"/>
+        <v>16.536151969049982</v>
+      </c>
+      <c r="CP118" s="28">
+        <v>13.634583461154781</v>
+      </c>
+      <c r="CQ118" s="28">
+        <v>11.982034406461093</v>
+      </c>
+      <c r="CR118" s="28">
+        <v>15.329191039285142</v>
+      </c>
+      <c r="CS118" s="28">
+        <v>18.176586931759505</v>
+      </c>
+      <c r="CT118" s="28">
+        <v>15.233440536698584</v>
+      </c>
       <c r="CU118" s="9"/>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
@@ -38822,21 +38936,23 @@
         <v>1.5507758355380918</v>
       </c>
       <c r="CO119" s="15">
-        <v>1.5824349285723665</v>
-      </c>
-      <c r="CP119" s="15">
-        <v>1.0529678268068592</v>
-      </c>
-      <c r="CQ119" s="15">
-        <v>0.85828067496972893</v>
-      </c>
-      <c r="CR119" s="15">
-        <v>1.5176607467804095</v>
-      </c>
-      <c r="CS119" s="15">
-        <v>1.6517566225286173</v>
-      </c>
-      <c r="CT119" s="9"/>
+        <v>1.5739488004950772</v>
+      </c>
+      <c r="CP119" s="28">
+        <v>1.0560501093624985</v>
+      </c>
+      <c r="CQ119" s="28">
+        <v>0.85935508592456178</v>
+      </c>
+      <c r="CR119" s="28">
+        <v>1.5231643509935922</v>
+      </c>
+      <c r="CS119" s="28">
+        <v>1.6444531386669001</v>
+      </c>
+      <c r="CT119" s="28">
+        <v>1.192098053927175</v>
+      </c>
       <c r="CU119" s="9"/>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
@@ -38985,11 +39101,11 @@
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
-      <c r="CP120" s="9"/>
-      <c r="CQ120" s="9"/>
-      <c r="CR120" s="9"/>
-      <c r="CS120" s="9"/>
-      <c r="CT120" s="9"/>
+      <c r="CP120" s="26"/>
+      <c r="CQ120" s="26"/>
+      <c r="CR120" s="26"/>
+      <c r="CS120" s="26"/>
+      <c r="CT120" s="26"/>
       <c r="CU120" s="9"/>
       <c r="CV120" s="9"/>
       <c r="CW120" s="9"/>
@@ -39325,19 +39441,21 @@
       <c r="CO121" s="15">
         <v>100</v>
       </c>
-      <c r="CP121" s="15">
+      <c r="CP121" s="28">
         <v>100</v>
       </c>
-      <c r="CQ121" s="15">
+      <c r="CQ121" s="28">
         <v>100</v>
       </c>
-      <c r="CR121" s="15">
+      <c r="CR121" s="28">
         <v>100</v>
       </c>
-      <c r="CS121" s="15">
+      <c r="CS121" s="28">
         <v>100</v>
       </c>
-      <c r="CT121" s="9"/>
+      <c r="CT121" s="28">
+        <v>100</v>
+      </c>
       <c r="CU121" s="9"/>
       <c r="CV121" s="9"/>
       <c r="CW121" s="9"/>
@@ -39487,10 +39605,11 @@
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
-      <c r="CP122" s="13"/>
-      <c r="CQ122" s="13"/>
-      <c r="CR122" s="13"/>
-      <c r="CS122" s="13"/>
+      <c r="CP122" s="25"/>
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39590,11 +39709,11 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
-      <c r="CS124" s="9"/>
-      <c r="CT124" s="9"/>
+      <c r="CP124" s="26"/>
+      <c r="CQ124" s="26"/>
+      <c r="CR124" s="26"/>
+      <c r="CS124" s="26"/>
+      <c r="CT124" s="26"/>
       <c r="CU124" s="9"/>
       <c r="CV124" s="9"/>
       <c r="CW124" s="9"/>
@@ -39743,11 +39862,11 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
-      <c r="CS125" s="9"/>
-      <c r="CT125" s="9"/>
+      <c r="CP125" s="26"/>
+      <c r="CQ125" s="26"/>
+      <c r="CR125" s="26"/>
+      <c r="CS125" s="26"/>
+      <c r="CT125" s="26"/>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
@@ -39815,7 +39934,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39825,7 +39944,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39835,150 +39954,153 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="21">
+      <c r="B134" s="30">
         <v>2000</v>
       </c>
-      <c r="C134" s="22"/>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="21">
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="30">
         <v>2001</v>
       </c>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="21">
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="30">
         <v>2002</v>
       </c>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="21">
+      <c r="K134" s="31"/>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
+      <c r="N134" s="30">
         <v>2003</v>
       </c>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="21">
+      <c r="O134" s="31"/>
+      <c r="P134" s="31"/>
+      <c r="Q134" s="31"/>
+      <c r="R134" s="30">
         <v>2004</v>
       </c>
-      <c r="S134" s="22"/>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="21">
+      <c r="S134" s="31"/>
+      <c r="T134" s="31"/>
+      <c r="U134" s="31"/>
+      <c r="V134" s="30">
         <v>2005</v>
       </c>
-      <c r="W134" s="22"/>
-      <c r="X134" s="22"/>
-      <c r="Y134" s="22"/>
-      <c r="Z134" s="21">
+      <c r="W134" s="31"/>
+      <c r="X134" s="31"/>
+      <c r="Y134" s="31"/>
+      <c r="Z134" s="30">
         <v>2006</v>
       </c>
-      <c r="AA134" s="22"/>
-      <c r="AB134" s="22"/>
-      <c r="AC134" s="22"/>
-      <c r="AD134" s="21">
+      <c r="AA134" s="31"/>
+      <c r="AB134" s="31"/>
+      <c r="AC134" s="31"/>
+      <c r="AD134" s="30">
         <v>2007</v>
       </c>
-      <c r="AE134" s="22"/>
-      <c r="AF134" s="22"/>
-      <c r="AG134" s="22"/>
-      <c r="AH134" s="21">
+      <c r="AE134" s="31"/>
+      <c r="AF134" s="31"/>
+      <c r="AG134" s="31"/>
+      <c r="AH134" s="30">
         <v>2008</v>
       </c>
-      <c r="AI134" s="22"/>
-      <c r="AJ134" s="22"/>
-      <c r="AK134" s="22"/>
-      <c r="AL134" s="21">
+      <c r="AI134" s="31"/>
+      <c r="AJ134" s="31"/>
+      <c r="AK134" s="31"/>
+      <c r="AL134" s="30">
         <v>2009</v>
       </c>
-      <c r="AM134" s="22"/>
-      <c r="AN134" s="22"/>
-      <c r="AO134" s="22"/>
-      <c r="AP134" s="21">
+      <c r="AM134" s="31"/>
+      <c r="AN134" s="31"/>
+      <c r="AO134" s="31"/>
+      <c r="AP134" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="22"/>
-      <c r="AR134" s="22"/>
-      <c r="AS134" s="22"/>
-      <c r="AT134" s="21">
+      <c r="AQ134" s="31"/>
+      <c r="AR134" s="31"/>
+      <c r="AS134" s="31"/>
+      <c r="AT134" s="30">
         <v>2011</v>
       </c>
-      <c r="AU134" s="22"/>
-      <c r="AV134" s="22"/>
-      <c r="AW134" s="22"/>
-      <c r="AX134" s="21">
+      <c r="AU134" s="31"/>
+      <c r="AV134" s="31"/>
+      <c r="AW134" s="31"/>
+      <c r="AX134" s="30">
         <v>2012</v>
       </c>
-      <c r="AY134" s="22"/>
-      <c r="AZ134" s="22"/>
-      <c r="BA134" s="22"/>
-      <c r="BB134" s="21">
+      <c r="AY134" s="31"/>
+      <c r="AZ134" s="31"/>
+      <c r="BA134" s="31"/>
+      <c r="BB134" s="30">
         <v>2013</v>
       </c>
-      <c r="BC134" s="22"/>
-      <c r="BD134" s="22"/>
-      <c r="BE134" s="22"/>
-      <c r="BF134" s="21">
+      <c r="BC134" s="31"/>
+      <c r="BD134" s="31"/>
+      <c r="BE134" s="31"/>
+      <c r="BF134" s="30">
         <v>2014</v>
       </c>
-      <c r="BG134" s="22"/>
-      <c r="BH134" s="22"/>
-      <c r="BI134" s="22"/>
-      <c r="BJ134" s="21">
+      <c r="BG134" s="31"/>
+      <c r="BH134" s="31"/>
+      <c r="BI134" s="31"/>
+      <c r="BJ134" s="30">
         <v>2015</v>
       </c>
-      <c r="BK134" s="22"/>
-      <c r="BL134" s="22"/>
-      <c r="BM134" s="22"/>
-      <c r="BN134" s="21">
+      <c r="BK134" s="31"/>
+      <c r="BL134" s="31"/>
+      <c r="BM134" s="31"/>
+      <c r="BN134" s="30">
         <v>2016</v>
       </c>
-      <c r="BO134" s="22"/>
-      <c r="BP134" s="22"/>
-      <c r="BQ134" s="22"/>
-      <c r="BR134" s="21">
+      <c r="BO134" s="31"/>
+      <c r="BP134" s="31"/>
+      <c r="BQ134" s="31"/>
+      <c r="BR134" s="30">
         <v>2017</v>
       </c>
-      <c r="BS134" s="22"/>
-      <c r="BT134" s="22"/>
-      <c r="BU134" s="22"/>
-      <c r="BV134" s="21">
+      <c r="BS134" s="31"/>
+      <c r="BT134" s="31"/>
+      <c r="BU134" s="31"/>
+      <c r="BV134" s="30">
         <v>2018</v>
       </c>
-      <c r="BW134" s="22"/>
-      <c r="BX134" s="22"/>
-      <c r="BY134" s="22"/>
-      <c r="BZ134" s="21">
+      <c r="BW134" s="31"/>
+      <c r="BX134" s="31"/>
+      <c r="BY134" s="31"/>
+      <c r="BZ134" s="30">
         <v>2019</v>
       </c>
-      <c r="CA134" s="22"/>
-      <c r="CB134" s="22"/>
-      <c r="CC134" s="22"/>
-      <c r="CD134" s="21">
+      <c r="CA134" s="31"/>
+      <c r="CB134" s="31"/>
+      <c r="CC134" s="31"/>
+      <c r="CD134" s="30">
         <v>2020</v>
       </c>
-      <c r="CE134" s="21"/>
-      <c r="CF134" s="21"/>
-      <c r="CG134" s="21"/>
-      <c r="CH134" s="21">
+      <c r="CE134" s="30"/>
+      <c r="CF134" s="30"/>
+      <c r="CG134" s="30"/>
+      <c r="CH134" s="30">
         <v>2021</v>
       </c>
-      <c r="CI134" s="21"/>
-      <c r="CJ134" s="21"/>
-      <c r="CK134" s="21"/>
-      <c r="CL134" s="20">
+      <c r="CI134" s="30"/>
+      <c r="CJ134" s="30"/>
+      <c r="CK134" s="30"/>
+      <c r="CL134" s="30">
         <v>2022</v>
       </c>
-      <c r="CM134" s="20"/>
-      <c r="CN134" s="20"/>
-      <c r="CO134" s="20"/>
+      <c r="CM134" s="30"/>
+      <c r="CN134" s="30"/>
+      <c r="CO134" s="30"/>
       <c r="CP134" s="20">
         <v>2023</v>
       </c>
       <c r="CQ134" s="20"/>
       <c r="CR134" s="20"/>
       <c r="CS134" s="20"/>
+      <c r="CT134" s="20">
+        <v>2024</v>
+      </c>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40260,17 +40382,20 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="6" t="s">
+      <c r="CR135" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="6" t="s">
+      <c r="CS135" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CT135" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40554,21 +40679,23 @@
         <v>84.494353272885775</v>
       </c>
       <c r="CO137" s="15">
-        <v>79.099812584999441</v>
-      </c>
-      <c r="CP137" s="15">
-        <v>79.532567513508923</v>
-      </c>
-      <c r="CQ137" s="15">
-        <v>81.139042835724297</v>
-      </c>
-      <c r="CR137" s="15">
-        <v>84.902194335462326</v>
-      </c>
-      <c r="CS137" s="15">
-        <v>79.733368999286853</v>
-      </c>
-      <c r="CT137" s="9"/>
+        <v>79.103355960048304</v>
+      </c>
+      <c r="CP137" s="28">
+        <v>79.458502952389296</v>
+      </c>
+      <c r="CQ137" s="28">
+        <v>81.117766660697669</v>
+      </c>
+      <c r="CR137" s="28">
+        <v>84.844813485555591</v>
+      </c>
+      <c r="CS137" s="28">
+        <v>79.531650373018778</v>
+      </c>
+      <c r="CT137" s="28">
+        <v>79.68028519993841</v>
+      </c>
       <c r="CU137" s="9"/>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
@@ -40902,21 +41029,23 @@
         <v>1.4316747736390716</v>
       </c>
       <c r="CO138" s="15">
-        <v>1.9724632186139215</v>
-      </c>
-      <c r="CP138" s="15">
-        <v>2.3152149791574481</v>
-      </c>
-      <c r="CQ138" s="15">
-        <v>1.8136367821062351</v>
-      </c>
-      <c r="CR138" s="15">
-        <v>1.3610164297262546</v>
-      </c>
-      <c r="CS138" s="15">
-        <v>1.6977161968255852</v>
-      </c>
-      <c r="CT138" s="9"/>
+        <v>1.9728960382906189</v>
+      </c>
+      <c r="CP138" s="28">
+        <v>2.3216046566986357</v>
+      </c>
+      <c r="CQ138" s="28">
+        <v>1.8157882857437542</v>
+      </c>
+      <c r="CR138" s="28">
+        <v>1.3661582244309336</v>
+      </c>
+      <c r="CS138" s="28">
+        <v>1.7126575244950766</v>
+      </c>
+      <c r="CT138" s="28">
+        <v>1.8910121215752247</v>
+      </c>
       <c r="CU138" s="9"/>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
@@ -41250,21 +41379,23 @@
         <v>12.848008645182727</v>
       </c>
       <c r="CO139" s="15">
-        <v>17.415146833431123</v>
-      </c>
-      <c r="CP139" s="15">
-        <v>16.862314189147401</v>
-      </c>
-      <c r="CQ139" s="15">
-        <v>15.882119012606044</v>
-      </c>
-      <c r="CR139" s="15">
-        <v>12.559676297339575</v>
-      </c>
-      <c r="CS139" s="15">
-        <v>17.037603085018439</v>
-      </c>
-      <c r="CT139" s="9"/>
+        <v>17.41929594652175</v>
+      </c>
+      <c r="CP139" s="28">
+        <v>16.926429115513791</v>
+      </c>
+      <c r="CQ139" s="28">
+        <v>15.899861414397529</v>
+      </c>
+      <c r="CR139" s="28">
+        <v>12.607468328290855</v>
+      </c>
+      <c r="CS139" s="28">
+        <v>17.230937150108883</v>
+      </c>
+      <c r="CT139" s="28">
+        <v>17.042782613368573</v>
+      </c>
       <c r="CU139" s="9"/>
       <c r="CV139" s="9"/>
       <c r="CW139" s="9"/>
@@ -41598,21 +41729,23 @@
         <v>1.2259633082924317</v>
       </c>
       <c r="CO140" s="15">
-        <v>1.512577362955529</v>
-      </c>
-      <c r="CP140" s="15">
-        <v>1.289903318186213</v>
-      </c>
-      <c r="CQ140" s="15">
-        <v>1.1652013695634094</v>
-      </c>
-      <c r="CR140" s="15">
-        <v>1.1771129374718436</v>
-      </c>
-      <c r="CS140" s="15">
-        <v>1.5313117188691141</v>
-      </c>
-      <c r="CT140" s="9"/>
+        <v>1.504452055139333</v>
+      </c>
+      <c r="CP140" s="28">
+        <v>1.2934632753982716</v>
+      </c>
+      <c r="CQ140" s="28">
+        <v>1.1665836391610442</v>
+      </c>
+      <c r="CR140" s="28">
+        <v>1.1815599617226231</v>
+      </c>
+      <c r="CS140" s="28">
+        <v>1.5247549523772628</v>
+      </c>
+      <c r="CT140" s="28">
+        <v>1.3859200651177899</v>
+      </c>
       <c r="CU140" s="9"/>
       <c r="CV140" s="9"/>
       <c r="CW140" s="9"/>
@@ -41761,11 +41894,11 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
-      <c r="CS141" s="9"/>
-      <c r="CT141" s="9"/>
+      <c r="CP141" s="26"/>
+      <c r="CQ141" s="26"/>
+      <c r="CR141" s="26"/>
+      <c r="CS141" s="26"/>
+      <c r="CT141" s="26"/>
       <c r="CU141" s="9"/>
       <c r="CV141" s="9"/>
       <c r="CW141" s="9"/>
@@ -42101,19 +42234,21 @@
       <c r="CO142" s="15">
         <v>100</v>
       </c>
-      <c r="CP142" s="15">
+      <c r="CP142" s="28">
         <v>100</v>
       </c>
-      <c r="CQ142" s="15">
+      <c r="CQ142" s="28">
         <v>100</v>
       </c>
-      <c r="CR142" s="15">
+      <c r="CR142" s="28">
         <v>100</v>
       </c>
-      <c r="CS142" s="15">
+      <c r="CS142" s="28">
         <v>100</v>
       </c>
-      <c r="CT142" s="9"/>
+      <c r="CT142" s="28">
+        <v>100</v>
+      </c>
       <c r="CU142" s="9"/>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
@@ -42263,10 +42398,11 @@
       <c r="CM143" s="13"/>
       <c r="CN143" s="13"/>
       <c r="CO143" s="13"/>
-      <c r="CP143" s="13"/>
-      <c r="CQ143" s="13"/>
-      <c r="CR143" s="13"/>
-      <c r="CS143" s="13"/>
+      <c r="CP143" s="25"/>
+      <c r="CQ143" s="25"/>
+      <c r="CR143" s="25"/>
+      <c r="CS143" s="25"/>
+      <c r="CT143" s="25"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -42274,7 +42410,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="154">
+  <mergeCells count="161">
     <mergeCell ref="CH113:CK113"/>
     <mergeCell ref="CH134:CK134"/>
     <mergeCell ref="BZ30:CC30"/>
@@ -42362,8 +42498,6 @@
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="AD72:AG72"/>
     <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="AX113:BA113"/>
     <mergeCell ref="BF72:BI72"/>
     <mergeCell ref="V92:Y92"/>
@@ -42381,8 +42515,6 @@
     <mergeCell ref="AX72:BA72"/>
     <mergeCell ref="BB72:BE72"/>
     <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
     <mergeCell ref="N113:Q113"/>
     <mergeCell ref="R113:U113"/>
     <mergeCell ref="V113:Y113"/>
@@ -42390,8 +42522,8 @@
     <mergeCell ref="AD113:AG113"/>
     <mergeCell ref="AH113:AK113"/>
     <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ92:CC92"/>
     <mergeCell ref="BB134:BE134"/>
@@ -42414,6 +42546,15 @@
     <mergeCell ref="AD134:AG134"/>
     <mergeCell ref="AH134:AK134"/>
     <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CL72:CO72"/>
+    <mergeCell ref="CL92:CO92"/>
     <mergeCell ref="BF134:BI134"/>
     <mergeCell ref="BJ134:BM134"/>
     <mergeCell ref="BN134:BQ134"/>
@@ -42429,15 +42570,17 @@
     <mergeCell ref="BV92:BY92"/>
     <mergeCell ref="BJ92:BM92"/>
     <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="CD92:CG92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="96" man="1"/>
-    <brk id="84" max="96" man="1"/>
-    <brk id="104" max="96" man="1"/>
+    <brk id="42" max="97" man="1"/>
+    <brk id="84" max="97" man="1"/>
+    <brk id="104" max="97" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7195DA23-80D9-4B66-9C98-3BF185AFA3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D01D5-6D83-42F2-9E03-05CCA4EEDA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -628,13 +628,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2024</t>
+    <t>As of August 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2024</t>
+    <t>Q1 2000 to Q2 2024</t>
   </si>
   <si>
-    <t>As of May 2024</t>
+    <t>Q1 2001 to Q2 2024</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,26 +749,12 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23626,17 +23612,17 @@
   <dimension ref="A1:EV144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CO1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="DM13" sqref="DM13"/>
+      <selection pane="topRight" activeCell="CO1" sqref="CO1:CO1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="98" width="9.6640625" style="19" customWidth="1"/>
-    <col min="99" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="99" width="10.6640625" style="1" customWidth="1"/>
+    <col min="100" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23651,7 +23637,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23661,7 +23647,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23671,153 +23657,154 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="20">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="20"/>
+      <c r="AB9" s="20"/>
+      <c r="AC9" s="20"/>
+      <c r="AD9" s="20">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="20"/>
+      <c r="AF9" s="20"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="20">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="20"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="20"/>
+      <c r="AL9" s="20">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="20"/>
+      <c r="AN9" s="20"/>
+      <c r="AO9" s="20"/>
+      <c r="AP9" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="20"/>
+      <c r="AR9" s="20"/>
+      <c r="AS9" s="20"/>
+      <c r="AT9" s="20">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="20"/>
+      <c r="AV9" s="20"/>
+      <c r="AW9" s="20"/>
+      <c r="AX9" s="20">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="20"/>
+      <c r="AZ9" s="20"/>
+      <c r="BA9" s="20"/>
+      <c r="BB9" s="20">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="20"/>
+      <c r="BD9" s="20"/>
+      <c r="BE9" s="20"/>
+      <c r="BF9" s="20">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="20"/>
+      <c r="BH9" s="20"/>
+      <c r="BI9" s="20"/>
+      <c r="BJ9" s="20">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="20"/>
+      <c r="BL9" s="20"/>
+      <c r="BM9" s="20"/>
+      <c r="BN9" s="20">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="20"/>
+      <c r="BP9" s="20"/>
+      <c r="BQ9" s="20"/>
+      <c r="BR9" s="20">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="20"/>
+      <c r="BT9" s="20"/>
+      <c r="BU9" s="20"/>
+      <c r="BV9" s="20">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="20"/>
+      <c r="BX9" s="20"/>
+      <c r="BY9" s="20"/>
+      <c r="BZ9" s="20">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="20"/>
+      <c r="CB9" s="20"/>
+      <c r="CC9" s="20"/>
+      <c r="CD9" s="20">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="20"/>
+      <c r="CF9" s="20"/>
+      <c r="CG9" s="20"/>
+      <c r="CH9" s="20">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="20"/>
+      <c r="CJ9" s="20"/>
+      <c r="CK9" s="20"/>
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
-      <c r="CP9" s="20">
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
+      <c r="CP9" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="20"/>
-      <c r="CR9" s="20"/>
-      <c r="CS9" s="20"/>
-      <c r="CT9" s="20">
+      <c r="CQ9" s="19"/>
+      <c r="CR9" s="19"/>
+      <c r="CS9" s="19"/>
+      <c r="CT9" s="19">
         <v>2024</v>
       </c>
+      <c r="CU9" s="19"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24099,20 +24086,23 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="21" t="s">
+      <c r="CP10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="21" t="s">
+      <c r="CQ10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="21" t="s">
+      <c r="CR10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="21" t="s">
+      <c r="CS10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="21" t="s">
+      <c r="CT10" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU10" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24398,22 +24388,24 @@
       <c r="CO12" s="8">
         <v>134636.44569636678</v>
       </c>
-      <c r="CP12" s="22">
+      <c r="CP12" s="8">
         <v>182012.63828418974</v>
       </c>
-      <c r="CQ12" s="22">
+      <c r="CQ12" s="8">
         <v>235292.64875110882</v>
       </c>
-      <c r="CR12" s="22">
+      <c r="CR12" s="8">
         <v>140898.63667681278</v>
       </c>
-      <c r="CS12" s="22">
+      <c r="CS12" s="8">
         <v>140008.62763998186</v>
       </c>
-      <c r="CT12" s="22">
-        <v>185134.46180923458</v>
-      </c>
-      <c r="CU12" s="9"/>
+      <c r="CT12" s="8">
+        <v>186333.67762153904</v>
+      </c>
+      <c r="CU12" s="8">
+        <v>247012.69735790562</v>
+      </c>
       <c r="CV12" s="9"/>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
@@ -24748,22 +24740,24 @@
       <c r="CO13" s="8">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="22">
+      <c r="CP13" s="8">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="22">
+      <c r="CQ13" s="8">
         <v>3791.0875155057865</v>
       </c>
-      <c r="CR13" s="22">
+      <c r="CR13" s="8">
         <v>2916.7486740041568</v>
       </c>
-      <c r="CS13" s="22">
+      <c r="CS13" s="8">
         <v>3406.4832763381028</v>
       </c>
-      <c r="CT13" s="22">
-        <v>4019.0251951414548</v>
-      </c>
-      <c r="CU13" s="9"/>
+      <c r="CT13" s="8">
+        <v>4044.0419168270791</v>
+      </c>
+      <c r="CU13" s="8">
+        <v>3990.7833817943115</v>
+      </c>
       <c r="CV13" s="9"/>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
@@ -25098,22 +25092,24 @@
       <c r="CO14" s="8">
         <v>27897.368896503729</v>
       </c>
-      <c r="CP14" s="22">
+      <c r="CP14" s="8">
         <v>29753.224998787417</v>
       </c>
-      <c r="CQ14" s="22">
+      <c r="CQ14" s="8">
         <v>32867.774477905201</v>
       </c>
-      <c r="CR14" s="22">
+      <c r="CR14" s="8">
         <v>26513.962323032938</v>
       </c>
-      <c r="CS14" s="22">
+      <c r="CS14" s="8">
         <v>32512.235543939976</v>
       </c>
-      <c r="CT14" s="22">
-        <v>34477.73815108485</v>
-      </c>
-      <c r="CU14" s="9"/>
+      <c r="CT14" s="8">
+        <v>34413.510365703682</v>
+      </c>
+      <c r="CU14" s="8">
+        <v>37559.759234266479</v>
+      </c>
       <c r="CV14" s="9"/>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
@@ -25448,22 +25444,24 @@
       <c r="CO15" s="8">
         <v>2655.3354367934808</v>
       </c>
-      <c r="CP15" s="22">
+      <c r="CP15" s="8">
         <v>2304.49992134892</v>
       </c>
-      <c r="CQ15" s="22">
+      <c r="CQ15" s="8">
         <v>2357.2866011283268</v>
       </c>
-      <c r="CR15" s="22">
+      <c r="CR15" s="8">
         <v>2634.5240339515221</v>
       </c>
-      <c r="CS15" s="22">
+      <c r="CS15" s="8">
         <v>2941.4129278523587</v>
       </c>
-      <c r="CT15" s="22">
-        <v>2698.0670883050825</v>
-      </c>
-      <c r="CU15" s="9"/>
+      <c r="CT15" s="8">
+        <v>2805.8751371032754</v>
+      </c>
+      <c r="CU15" s="8">
+        <v>2510.5935857600221</v>
+      </c>
       <c r="CV15" s="9"/>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
@@ -25611,12 +25609,12 @@
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
-      <c r="CP16" s="23"/>
-      <c r="CQ16" s="23"/>
-      <c r="CR16" s="23"/>
-      <c r="CS16" s="23"/>
-      <c r="CT16" s="23"/>
-      <c r="CU16" s="9"/>
+      <c r="CP16" s="10"/>
+      <c r="CQ16" s="10"/>
+      <c r="CR16" s="10"/>
+      <c r="CS16" s="10"/>
+      <c r="CT16" s="10"/>
+      <c r="CU16" s="10"/>
       <c r="CV16" s="9"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
@@ -25951,22 +25949,24 @@
       <c r="CO17" s="12">
         <v>168705.32484654261</v>
       </c>
-      <c r="CP17" s="24">
+      <c r="CP17" s="12">
         <v>218218.80428951123</v>
       </c>
-      <c r="CQ17" s="24">
+      <c r="CQ17" s="12">
         <v>274308.79734564817</v>
       </c>
-      <c r="CR17" s="24">
+      <c r="CR17" s="12">
         <v>172963.87170780139</v>
       </c>
-      <c r="CS17" s="24">
+      <c r="CS17" s="12">
         <v>178868.75938811232</v>
       </c>
-      <c r="CT17" s="24">
-        <v>226329.29224376596</v>
-      </c>
-      <c r="CU17" s="9"/>
+      <c r="CT17" s="12">
+        <v>227597.10504117308</v>
+      </c>
+      <c r="CU17" s="12">
+        <v>291073.83355972648</v>
+      </c>
       <c r="CV17" s="9"/>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
@@ -26115,11 +26115,12 @@
       <c r="CM18" s="13"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="13"/>
-      <c r="CP18" s="25"/>
-      <c r="CQ18" s="25"/>
-      <c r="CR18" s="25"/>
-      <c r="CS18" s="25"/>
-      <c r="CT18" s="25"/>
+      <c r="CP18" s="13"/>
+      <c r="CQ18" s="13"/>
+      <c r="CR18" s="13"/>
+      <c r="CS18" s="13"/>
+      <c r="CT18" s="13"/>
+      <c r="CU18" s="13"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26219,11 +26220,11 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="26"/>
-      <c r="CQ20" s="26"/>
-      <c r="CR20" s="26"/>
-      <c r="CS20" s="26"/>
-      <c r="CT20" s="26"/>
+      <c r="CP20" s="9"/>
+      <c r="CQ20" s="9"/>
+      <c r="CR20" s="9"/>
+      <c r="CS20" s="9"/>
+      <c r="CT20" s="9"/>
       <c r="CU20" s="9"/>
       <c r="CV20" s="9"/>
       <c r="CW20" s="9"/>
@@ -26372,11 +26373,11 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="26"/>
-      <c r="CQ21" s="26"/>
-      <c r="CR21" s="26"/>
-      <c r="CS21" s="26"/>
-      <c r="CT21" s="26"/>
+      <c r="CP21" s="9"/>
+      <c r="CQ21" s="9"/>
+      <c r="CR21" s="9"/>
+      <c r="CS21" s="9"/>
+      <c r="CT21" s="9"/>
       <c r="CU21" s="9"/>
       <c r="CV21" s="9"/>
       <c r="CW21" s="9"/>
@@ -26444,7 +26445,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26454,7 +26455,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26464,153 +26465,154 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="30">
+      <c r="B30" s="20">
         <v>2000</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30">
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20">
         <v>2001</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="30">
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="20">
         <v>2002</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="30">
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="20">
         <v>2003</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="30">
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="20">
         <v>2004</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="30">
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="20">
         <v>2005</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="30">
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="20">
         <v>2006</v>
       </c>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="30">
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="21"/>
+      <c r="AC30" s="21"/>
+      <c r="AD30" s="20">
         <v>2007</v>
       </c>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="30">
+      <c r="AE30" s="21"/>
+      <c r="AF30" s="21"/>
+      <c r="AG30" s="21"/>
+      <c r="AH30" s="20">
         <v>2008</v>
       </c>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="30">
+      <c r="AI30" s="21"/>
+      <c r="AJ30" s="21"/>
+      <c r="AK30" s="21"/>
+      <c r="AL30" s="20">
         <v>2009</v>
       </c>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="30">
+      <c r="AM30" s="21"/>
+      <c r="AN30" s="21"/>
+      <c r="AO30" s="21"/>
+      <c r="AP30" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="30">
+      <c r="AQ30" s="21"/>
+      <c r="AR30" s="21"/>
+      <c r="AS30" s="21"/>
+      <c r="AT30" s="20">
         <v>2011</v>
       </c>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="30">
+      <c r="AU30" s="21"/>
+      <c r="AV30" s="21"/>
+      <c r="AW30" s="21"/>
+      <c r="AX30" s="20">
         <v>2012</v>
       </c>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="30">
+      <c r="AY30" s="21"/>
+      <c r="AZ30" s="21"/>
+      <c r="BA30" s="21"/>
+      <c r="BB30" s="20">
         <v>2013</v>
       </c>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="30">
+      <c r="BC30" s="21"/>
+      <c r="BD30" s="21"/>
+      <c r="BE30" s="21"/>
+      <c r="BF30" s="20">
         <v>2014</v>
       </c>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="30">
+      <c r="BG30" s="21"/>
+      <c r="BH30" s="21"/>
+      <c r="BI30" s="21"/>
+      <c r="BJ30" s="20">
         <v>2015</v>
       </c>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="30">
+      <c r="BK30" s="21"/>
+      <c r="BL30" s="21"/>
+      <c r="BM30" s="21"/>
+      <c r="BN30" s="20">
         <v>2016</v>
       </c>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
-      <c r="BR30" s="30">
+      <c r="BO30" s="21"/>
+      <c r="BP30" s="21"/>
+      <c r="BQ30" s="21"/>
+      <c r="BR30" s="20">
         <v>2017</v>
       </c>
-      <c r="BS30" s="31"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="30">
+      <c r="BS30" s="21"/>
+      <c r="BT30" s="21"/>
+      <c r="BU30" s="21"/>
+      <c r="BV30" s="20">
         <v>2018</v>
       </c>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
-      <c r="BZ30" s="30">
+      <c r="BW30" s="21"/>
+      <c r="BX30" s="21"/>
+      <c r="BY30" s="21"/>
+      <c r="BZ30" s="20">
         <v>2019</v>
       </c>
-      <c r="CA30" s="31"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-      <c r="CD30" s="30">
+      <c r="CA30" s="21"/>
+      <c r="CB30" s="21"/>
+      <c r="CC30" s="21"/>
+      <c r="CD30" s="20">
         <v>2020</v>
       </c>
-      <c r="CE30" s="30"/>
-      <c r="CF30" s="30"/>
-      <c r="CG30" s="30"/>
-      <c r="CH30" s="30">
+      <c r="CE30" s="20"/>
+      <c r="CF30" s="20"/>
+      <c r="CG30" s="20"/>
+      <c r="CH30" s="20">
         <v>2021</v>
       </c>
-      <c r="CI30" s="30"/>
-      <c r="CJ30" s="30"/>
-      <c r="CK30" s="30"/>
-      <c r="CL30" s="30">
+      <c r="CI30" s="20"/>
+      <c r="CJ30" s="20"/>
+      <c r="CK30" s="20"/>
+      <c r="CL30" s="20">
         <v>2022</v>
       </c>
-      <c r="CM30" s="30"/>
-      <c r="CN30" s="30"/>
-      <c r="CO30" s="30"/>
-      <c r="CP30" s="20">
+      <c r="CM30" s="20"/>
+      <c r="CN30" s="20"/>
+      <c r="CO30" s="20"/>
+      <c r="CP30" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="20"/>
-      <c r="CR30" s="20"/>
-      <c r="CS30" s="20"/>
-      <c r="CT30" s="20">
+      <c r="CQ30" s="19"/>
+      <c r="CR30" s="19"/>
+      <c r="CS30" s="19"/>
+      <c r="CT30" s="19">
         <v>2024</v>
       </c>
+      <c r="CU30" s="19"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26892,20 +26894,23 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="21" t="s">
+      <c r="CP31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="21" t="s">
+      <c r="CQ31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="21" t="s">
+      <c r="CR31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="21" t="s">
+      <c r="CS31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT31" s="21" t="s">
+      <c r="CT31" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU31" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27191,22 +27196,24 @@
       <c r="CO33" s="8">
         <v>125214.52203908504</v>
       </c>
-      <c r="CP33" s="22">
+      <c r="CP33" s="8">
         <v>123261.26812878699</v>
       </c>
-      <c r="CQ33" s="22">
+      <c r="CQ33" s="8">
         <v>139501.43065425381</v>
       </c>
-      <c r="CR33" s="22">
+      <c r="CR33" s="8">
         <v>161864.921901925</v>
       </c>
-      <c r="CS33" s="22">
+      <c r="CS33" s="8">
         <v>132849.85935620285</v>
       </c>
-      <c r="CT33" s="22">
-        <v>131335.46550820442</v>
-      </c>
-      <c r="CU33" s="9"/>
+      <c r="CT33" s="8">
+        <v>132229.52046055967</v>
+      </c>
+      <c r="CU33" s="8">
+        <v>153605.87482118729</v>
+      </c>
       <c r="CV33" s="9"/>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
@@ -27541,22 +27548,24 @@
       <c r="CO34" s="8">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="22">
+      <c r="CP34" s="8">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="22">
+      <c r="CQ34" s="8">
         <v>3122.6829097258346</v>
       </c>
-      <c r="CR34" s="22">
+      <c r="CR34" s="8">
         <v>2606.3242432707143</v>
       </c>
-      <c r="CS34" s="22">
+      <c r="CS34" s="8">
         <v>2860.8272327730051</v>
       </c>
-      <c r="CT34" s="22">
-        <v>3116.9185281597283</v>
-      </c>
-      <c r="CU34" s="9"/>
+      <c r="CT34" s="8">
+        <v>3136.320019703001</v>
+      </c>
+      <c r="CU34" s="8">
+        <v>2932.239078335529</v>
+      </c>
       <c r="CV34" s="9"/>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
@@ -27891,22 +27900,24 @@
       <c r="CO35" s="8">
         <v>27573.404310465623</v>
       </c>
-      <c r="CP35" s="22">
+      <c r="CP35" s="8">
         <v>26257.392728886236</v>
       </c>
-      <c r="CQ35" s="22">
+      <c r="CQ35" s="8">
         <v>27343.620341405316</v>
       </c>
-      <c r="CR35" s="22">
+      <c r="CR35" s="8">
         <v>24052.228916587959</v>
       </c>
-      <c r="CS35" s="22">
+      <c r="CS35" s="8">
         <v>28782.598704177344</v>
       </c>
-      <c r="CT35" s="22">
-        <v>28091.28735502599</v>
-      </c>
-      <c r="CU35" s="9"/>
+      <c r="CT35" s="8">
+        <v>28038.956741938411</v>
+      </c>
+      <c r="CU35" s="8">
+        <v>29031.071908196231</v>
+      </c>
       <c r="CV35" s="9"/>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
@@ -28241,22 +28252,24 @@
       <c r="CO36" s="8">
         <v>2381.4317702289782</v>
       </c>
-      <c r="CP36" s="22">
+      <c r="CP36" s="8">
         <v>2006.5055051331201</v>
       </c>
-      <c r="CQ36" s="22">
+      <c r="CQ36" s="8">
         <v>2006.2200099951788</v>
       </c>
-      <c r="CR36" s="22">
+      <c r="CR36" s="8">
         <v>2254.1520579715079</v>
       </c>
-      <c r="CS36" s="22">
+      <c r="CS36" s="8">
         <v>2546.9543260567502</v>
       </c>
-      <c r="CT36" s="22">
-        <v>2284.3851079682959</v>
-      </c>
-      <c r="CU36" s="9"/>
+      <c r="CT36" s="8">
+        <v>2375.6634539594706</v>
+      </c>
+      <c r="CU36" s="8">
+        <v>2083.012578617589</v>
+      </c>
       <c r="CV36" s="9"/>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
@@ -28404,12 +28417,12 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="23"/>
-      <c r="CQ37" s="23"/>
-      <c r="CR37" s="23"/>
-      <c r="CS37" s="23"/>
-      <c r="CT37" s="23"/>
-      <c r="CU37" s="9"/>
+      <c r="CP37" s="10"/>
+      <c r="CQ37" s="10"/>
+      <c r="CR37" s="10"/>
+      <c r="CS37" s="10"/>
+      <c r="CT37" s="10"/>
+      <c r="CU37" s="10"/>
       <c r="CV37" s="9"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
@@ -28744,22 +28757,24 @@
       <c r="CO38" s="12">
         <v>158292.30064818679</v>
       </c>
-      <c r="CP38" s="24">
+      <c r="CP38" s="12">
         <v>155126.59255944434</v>
       </c>
-      <c r="CQ38" s="24">
+      <c r="CQ38" s="12">
         <v>171973.95391538015</v>
       </c>
-      <c r="CR38" s="24">
+      <c r="CR38" s="12">
         <v>190777.62711975517</v>
       </c>
-      <c r="CS38" s="24">
+      <c r="CS38" s="12">
         <v>167040.23961920995</v>
       </c>
-      <c r="CT38" s="24">
-        <v>164828.05649935844</v>
-      </c>
-      <c r="CU38" s="9"/>
+      <c r="CT38" s="12">
+        <v>165780.46067616055</v>
+      </c>
+      <c r="CU38" s="12">
+        <v>187652.19838633662</v>
+      </c>
       <c r="CV38" s="9"/>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
@@ -28908,11 +28923,12 @@
       <c r="CM39" s="13"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="13"/>
-      <c r="CP39" s="25"/>
-      <c r="CQ39" s="25"/>
-      <c r="CR39" s="25"/>
-      <c r="CS39" s="25"/>
-      <c r="CT39" s="25"/>
+      <c r="CP39" s="13"/>
+      <c r="CQ39" s="13"/>
+      <c r="CR39" s="13"/>
+      <c r="CS39" s="13"/>
+      <c r="CT39" s="13"/>
+      <c r="CU39" s="13"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29012,11 +29028,11 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="26"/>
-      <c r="CQ41" s="26"/>
-      <c r="CR41" s="26"/>
-      <c r="CS41" s="26"/>
-      <c r="CT41" s="26"/>
+      <c r="CP41" s="9"/>
+      <c r="CQ41" s="9"/>
+      <c r="CR41" s="9"/>
+      <c r="CS41" s="9"/>
+      <c r="CT41" s="9"/>
       <c r="CU41" s="9"/>
       <c r="CV41" s="9"/>
       <c r="CW41" s="9"/>
@@ -29165,11 +29181,11 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="26"/>
-      <c r="CQ42" s="26"/>
-      <c r="CR42" s="26"/>
-      <c r="CS42" s="26"/>
-      <c r="CT42" s="26"/>
+      <c r="CP42" s="9"/>
+      <c r="CQ42" s="9"/>
+      <c r="CR42" s="9"/>
+      <c r="CS42" s="9"/>
+      <c r="CT42" s="9"/>
       <c r="CU42" s="9"/>
       <c r="CV42" s="9"/>
       <c r="CW42" s="9"/>
@@ -29237,7 +29253,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29247,7 +29263,7 @@
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
@@ -29257,151 +29273,152 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30" t="s">
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30" t="s">
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30" t="s">
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30" t="s">
+      <c r="O51" s="20"/>
+      <c r="P51" s="20"/>
+      <c r="Q51" s="20"/>
+      <c r="R51" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30" t="s">
+      <c r="S51" s="20"/>
+      <c r="T51" s="20"/>
+      <c r="U51" s="20"/>
+      <c r="V51" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30" t="s">
+      <c r="W51" s="20"/>
+      <c r="X51" s="20"/>
+      <c r="Y51" s="20"/>
+      <c r="Z51" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30" t="s">
+      <c r="AA51" s="20"/>
+      <c r="AB51" s="20"/>
+      <c r="AC51" s="20"/>
+      <c r="AD51" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30" t="s">
+      <c r="AE51" s="20"/>
+      <c r="AF51" s="20"/>
+      <c r="AG51" s="20"/>
+      <c r="AH51" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30" t="s">
+      <c r="AI51" s="20"/>
+      <c r="AJ51" s="20"/>
+      <c r="AK51" s="20"/>
+      <c r="AL51" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30" t="s">
+      <c r="AM51" s="20"/>
+      <c r="AN51" s="20"/>
+      <c r="AO51" s="20"/>
+      <c r="AP51" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30" t="s">
+      <c r="AQ51" s="20"/>
+      <c r="AR51" s="20"/>
+      <c r="AS51" s="20"/>
+      <c r="AT51" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="30" t="s">
+      <c r="AU51" s="20"/>
+      <c r="AV51" s="20"/>
+      <c r="AW51" s="20"/>
+      <c r="AX51" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="30"/>
-      <c r="AZ51" s="30"/>
-      <c r="BA51" s="30"/>
-      <c r="BB51" s="30" t="s">
+      <c r="AY51" s="20"/>
+      <c r="AZ51" s="20"/>
+      <c r="BA51" s="20"/>
+      <c r="BB51" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="30"/>
-      <c r="BD51" s="30"/>
-      <c r="BE51" s="30"/>
-      <c r="BF51" s="30" t="s">
+      <c r="BC51" s="20"/>
+      <c r="BD51" s="20"/>
+      <c r="BE51" s="20"/>
+      <c r="BF51" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="30"/>
-      <c r="BH51" s="30"/>
-      <c r="BI51" s="30"/>
-      <c r="BJ51" s="30" t="s">
+      <c r="BG51" s="20"/>
+      <c r="BH51" s="20"/>
+      <c r="BI51" s="20"/>
+      <c r="BJ51" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="30"/>
-      <c r="BL51" s="30"/>
-      <c r="BM51" s="30"/>
-      <c r="BN51" s="30" t="s">
+      <c r="BK51" s="20"/>
+      <c r="BL51" s="20"/>
+      <c r="BM51" s="20"/>
+      <c r="BN51" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="30"/>
-      <c r="BP51" s="30"/>
-      <c r="BQ51" s="30"/>
-      <c r="BR51" s="30" t="s">
+      <c r="BO51" s="20"/>
+      <c r="BP51" s="20"/>
+      <c r="BQ51" s="20"/>
+      <c r="BR51" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="30"/>
-      <c r="BT51" s="30"/>
-      <c r="BU51" s="30"/>
-      <c r="BV51" s="30" t="s">
+      <c r="BS51" s="20"/>
+      <c r="BT51" s="20"/>
+      <c r="BU51" s="20"/>
+      <c r="BV51" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="30"/>
-      <c r="BX51" s="30"/>
-      <c r="BY51" s="30"/>
-      <c r="BZ51" s="30" t="s">
+      <c r="BW51" s="20"/>
+      <c r="BX51" s="20"/>
+      <c r="BY51" s="20"/>
+      <c r="BZ51" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="30"/>
-      <c r="CB51" s="30"/>
-      <c r="CC51" s="30"/>
-      <c r="CD51" s="30" t="s">
+      <c r="CA51" s="20"/>
+      <c r="CB51" s="20"/>
+      <c r="CC51" s="20"/>
+      <c r="CD51" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="30"/>
-      <c r="CF51" s="30"/>
-      <c r="CG51" s="30"/>
-      <c r="CH51" s="30" t="s">
+      <c r="CE51" s="20"/>
+      <c r="CF51" s="20"/>
+      <c r="CG51" s="20"/>
+      <c r="CH51" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="30"/>
-      <c r="CJ51" s="30"/>
-      <c r="CK51" s="30"/>
-      <c r="CL51" s="30" t="s">
+      <c r="CI51" s="20"/>
+      <c r="CJ51" s="20"/>
+      <c r="CK51" s="20"/>
+      <c r="CL51" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="30"/>
-      <c r="CN51" s="30"/>
-      <c r="CO51" s="30"/>
-      <c r="CP51" s="20" t="s">
+      <c r="CM51" s="20"/>
+      <c r="CN51" s="20"/>
+      <c r="CO51" s="20"/>
+      <c r="CP51" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="CQ51" s="18"/>
+      <c r="CQ51" s="19"/>
       <c r="CR51" s="18"/>
       <c r="CS51" s="18"/>
-      <c r="CT51" s="18"/>
+      <c r="CT51" s="19"/>
+      <c r="CU51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29683,13 +29700,16 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="27" t="s">
+      <c r="CP52" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ52" s="27"/>
-      <c r="CR52" s="27"/>
-      <c r="CS52" s="27"/>
-      <c r="CT52" s="27"/>
+      <c r="CQ52" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR52" s="5"/>
+      <c r="CS52" s="5"/>
+      <c r="CT52" s="5"/>
+      <c r="CU52" s="5"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29974,14 +29994,16 @@
       <c r="CO54" s="15">
         <v>3.9901394572837035</v>
       </c>
-      <c r="CP54" s="28">
-        <v>1.7151685478952885</v>
-      </c>
-      <c r="CQ54" s="28"/>
-      <c r="CR54" s="28"/>
-      <c r="CS54" s="28"/>
-      <c r="CT54" s="28"/>
-      <c r="CU54" s="9"/>
+      <c r="CP54" s="15">
+        <v>2.3740325826179856</v>
+      </c>
+      <c r="CQ54" s="15">
+        <v>4.9810517536373169</v>
+      </c>
+      <c r="CR54" s="15"/>
+      <c r="CS54" s="15"/>
+      <c r="CT54" s="15"/>
+      <c r="CU54" s="15"/>
       <c r="CV54" s="9"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
@@ -30312,14 +30334,16 @@
       <c r="CO55" s="15">
         <v>-3.1196270451051333</v>
       </c>
-      <c r="CP55" s="28">
-        <v>-3.1196270451051333</v>
-      </c>
-      <c r="CQ55" s="28"/>
-      <c r="CR55" s="28"/>
-      <c r="CS55" s="28"/>
-      <c r="CT55" s="28"/>
-      <c r="CU55" s="9"/>
+      <c r="CP55" s="15">
+        <v>-2.5165879474796782</v>
+      </c>
+      <c r="CQ55" s="15">
+        <v>5.2675087417992046</v>
+      </c>
+      <c r="CR55" s="15"/>
+      <c r="CS55" s="15"/>
+      <c r="CT55" s="15"/>
+      <c r="CU55" s="15"/>
       <c r="CV55" s="9"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
@@ -30650,14 +30674,16 @@
       <c r="CO56" s="15">
         <v>16.542300689921376</v>
       </c>
-      <c r="CP56" s="28">
-        <v>15.878995142509694</v>
-      </c>
-      <c r="CQ56" s="28"/>
-      <c r="CR56" s="28"/>
-      <c r="CS56" s="28"/>
-      <c r="CT56" s="28"/>
-      <c r="CU56" s="9"/>
+      <c r="CP56" s="15">
+        <v>15.663126827784851</v>
+      </c>
+      <c r="CQ56" s="15">
+        <v>14.275334521098728</v>
+      </c>
+      <c r="CR56" s="15"/>
+      <c r="CS56" s="15"/>
+      <c r="CT56" s="15"/>
+      <c r="CU56" s="15"/>
       <c r="CV56" s="9"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
@@ -30988,14 +31014,16 @@
       <c r="CO57" s="15">
         <v>10.773685580166784</v>
       </c>
-      <c r="CP57" s="28">
-        <v>17.078202663846966</v>
-      </c>
-      <c r="CQ57" s="28"/>
-      <c r="CR57" s="28"/>
-      <c r="CS57" s="28"/>
-      <c r="CT57" s="28"/>
-      <c r="CU57" s="9"/>
+      <c r="CP57" s="15">
+        <v>21.756356383856129</v>
+      </c>
+      <c r="CQ57" s="15">
+        <v>6.5035360807766978</v>
+      </c>
+      <c r="CR57" s="15"/>
+      <c r="CS57" s="15"/>
+      <c r="CT57" s="15"/>
+      <c r="CU57" s="15"/>
       <c r="CV57" s="9"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
@@ -31139,11 +31167,11 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="26"/>
-      <c r="CQ58" s="26"/>
-      <c r="CR58" s="26"/>
-      <c r="CS58" s="26"/>
-      <c r="CT58" s="26"/>
+      <c r="CP58" s="9"/>
+      <c r="CQ58" s="9"/>
+      <c r="CR58" s="9"/>
+      <c r="CS58" s="9"/>
+      <c r="CT58" s="9"/>
       <c r="CU58" s="9"/>
       <c r="CV58" s="9"/>
       <c r="CW58" s="9"/>
@@ -31475,14 +31503,16 @@
       <c r="CO59" s="15">
         <v>6.0243709265339191</v>
       </c>
-      <c r="CP59" s="28">
-        <v>3.7166769292230839</v>
-      </c>
-      <c r="CQ59" s="28"/>
-      <c r="CR59" s="28"/>
-      <c r="CS59" s="28"/>
-      <c r="CT59" s="28"/>
-      <c r="CU59" s="9"/>
+      <c r="CP59" s="15">
+        <v>4.2976593067660929</v>
+      </c>
+      <c r="CQ59" s="15">
+        <v>6.1117384408758966</v>
+      </c>
+      <c r="CR59" s="15"/>
+      <c r="CS59" s="15"/>
+      <c r="CT59" s="15"/>
+      <c r="CU59" s="15"/>
       <c r="CV59" s="9"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
@@ -31627,11 +31657,12 @@
       <c r="CM60" s="13"/>
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
-      <c r="CP60" s="25"/>
-      <c r="CQ60" s="25"/>
-      <c r="CR60" s="25"/>
-      <c r="CS60" s="25"/>
-      <c r="CT60" s="25"/>
+      <c r="CP60" s="13"/>
+      <c r="CQ60" s="13"/>
+      <c r="CR60" s="13"/>
+      <c r="CS60" s="13"/>
+      <c r="CT60" s="13"/>
+      <c r="CU60" s="13"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31731,12 +31762,12 @@
       <c r="CM62" s="17"/>
       <c r="CN62" s="17"/>
       <c r="CO62" s="17"/>
-      <c r="CP62" s="29"/>
-      <c r="CQ62" s="29"/>
-      <c r="CR62" s="29"/>
-      <c r="CS62" s="29"/>
-      <c r="CT62" s="29"/>
-      <c r="CU62" s="9"/>
+      <c r="CP62" s="17"/>
+      <c r="CQ62" s="17"/>
+      <c r="CR62" s="17"/>
+      <c r="CS62" s="17"/>
+      <c r="CT62" s="17"/>
+      <c r="CU62" s="17"/>
       <c r="CV62" s="9"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
@@ -31880,11 +31911,11 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="26"/>
-      <c r="CQ63" s="26"/>
-      <c r="CR63" s="26"/>
-      <c r="CS63" s="26"/>
-      <c r="CT63" s="26"/>
+      <c r="CP63" s="9"/>
+      <c r="CQ63" s="9"/>
+      <c r="CR63" s="9"/>
+      <c r="CS63" s="9"/>
+      <c r="CT63" s="9"/>
       <c r="CU63" s="9"/>
       <c r="CV63" s="9"/>
       <c r="CW63" s="9"/>
@@ -31948,7 +31979,7 @@
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
@@ -31958,7 +31989,7 @@
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
@@ -31968,151 +31999,152 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="30" t="s">
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="30" t="s">
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="30" t="s">
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="30" t="s">
+      <c r="O72" s="22"/>
+      <c r="P72" s="22"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="30" t="s">
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="30" t="s">
+      <c r="W72" s="22"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="30" t="s">
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="22"/>
+      <c r="AD72" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="30" t="s">
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="22"/>
+      <c r="AG72" s="22"/>
+      <c r="AH72" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="30" t="s">
+      <c r="AI72" s="22"/>
+      <c r="AJ72" s="22"/>
+      <c r="AK72" s="22"/>
+      <c r="AL72" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="32"/>
-      <c r="AN72" s="32"/>
-      <c r="AO72" s="32"/>
-      <c r="AP72" s="30" t="s">
+      <c r="AM72" s="22"/>
+      <c r="AN72" s="22"/>
+      <c r="AO72" s="22"/>
+      <c r="AP72" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="32"/>
-      <c r="AR72" s="32"/>
-      <c r="AS72" s="32"/>
-      <c r="AT72" s="30" t="s">
+      <c r="AQ72" s="22"/>
+      <c r="AR72" s="22"/>
+      <c r="AS72" s="22"/>
+      <c r="AT72" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="32"/>
-      <c r="AV72" s="32"/>
-      <c r="AW72" s="32"/>
-      <c r="AX72" s="30" t="s">
+      <c r="AU72" s="22"/>
+      <c r="AV72" s="22"/>
+      <c r="AW72" s="22"/>
+      <c r="AX72" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="32"/>
-      <c r="AZ72" s="32"/>
-      <c r="BA72" s="32"/>
-      <c r="BB72" s="30" t="s">
+      <c r="AY72" s="22"/>
+      <c r="AZ72" s="22"/>
+      <c r="BA72" s="22"/>
+      <c r="BB72" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="32"/>
-      <c r="BD72" s="32"/>
-      <c r="BE72" s="32"/>
-      <c r="BF72" s="30" t="s">
+      <c r="BC72" s="22"/>
+      <c r="BD72" s="22"/>
+      <c r="BE72" s="22"/>
+      <c r="BF72" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="32"/>
-      <c r="BH72" s="32"/>
-      <c r="BI72" s="32"/>
-      <c r="BJ72" s="30" t="s">
+      <c r="BG72" s="22"/>
+      <c r="BH72" s="22"/>
+      <c r="BI72" s="22"/>
+      <c r="BJ72" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="32"/>
-      <c r="BL72" s="32"/>
-      <c r="BM72" s="32"/>
-      <c r="BN72" s="30" t="s">
+      <c r="BK72" s="22"/>
+      <c r="BL72" s="22"/>
+      <c r="BM72" s="22"/>
+      <c r="BN72" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="32"/>
-      <c r="BP72" s="32"/>
-      <c r="BQ72" s="32"/>
-      <c r="BR72" s="30" t="s">
+      <c r="BO72" s="22"/>
+      <c r="BP72" s="22"/>
+      <c r="BQ72" s="22"/>
+      <c r="BR72" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="32"/>
-      <c r="BT72" s="32"/>
-      <c r="BU72" s="32"/>
-      <c r="BV72" s="30" t="s">
+      <c r="BS72" s="22"/>
+      <c r="BT72" s="22"/>
+      <c r="BU72" s="22"/>
+      <c r="BV72" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="32"/>
-      <c r="BX72" s="32"/>
-      <c r="BY72" s="32"/>
-      <c r="BZ72" s="30" t="s">
+      <c r="BW72" s="22"/>
+      <c r="BX72" s="22"/>
+      <c r="BY72" s="22"/>
+      <c r="BZ72" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="32"/>
-      <c r="CB72" s="32"/>
-      <c r="CC72" s="32"/>
-      <c r="CD72" s="30" t="s">
+      <c r="CA72" s="22"/>
+      <c r="CB72" s="22"/>
+      <c r="CC72" s="22"/>
+      <c r="CD72" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="30"/>
-      <c r="CF72" s="30"/>
-      <c r="CG72" s="30"/>
-      <c r="CH72" s="30" t="s">
+      <c r="CE72" s="20"/>
+      <c r="CF72" s="20"/>
+      <c r="CG72" s="20"/>
+      <c r="CH72" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="30"/>
-      <c r="CJ72" s="30"/>
-      <c r="CK72" s="30"/>
-      <c r="CL72" s="30" t="s">
+      <c r="CI72" s="20"/>
+      <c r="CJ72" s="20"/>
+      <c r="CK72" s="20"/>
+      <c r="CL72" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="30"/>
-      <c r="CN72" s="30"/>
-      <c r="CO72" s="30"/>
-      <c r="CP72" s="20" t="s">
+      <c r="CM72" s="20"/>
+      <c r="CN72" s="20"/>
+      <c r="CO72" s="20"/>
+      <c r="CP72" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="CQ72" s="18"/>
+      <c r="CQ72" s="19"/>
       <c r="CR72" s="18"/>
       <c r="CS72" s="18"/>
-      <c r="CT72" s="18"/>
+      <c r="CT72" s="19"/>
+      <c r="CU72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32394,13 +32426,16 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="27" t="s">
+      <c r="CP73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="CQ73" s="27"/>
-      <c r="CR73" s="27"/>
-      <c r="CS73" s="27"/>
-      <c r="CT73" s="27"/>
+      <c r="CQ73" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="CR73" s="5"/>
+      <c r="CS73" s="5"/>
+      <c r="CT73" s="5"/>
+      <c r="CU73" s="5"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32685,14 +32720,16 @@
       <c r="CO75" s="15">
         <v>6.0978049452878054</v>
       </c>
-      <c r="CP75" s="28">
-        <v>6.5504740475177243</v>
-      </c>
-      <c r="CQ75" s="28"/>
-      <c r="CR75" s="28"/>
-      <c r="CS75" s="28"/>
-      <c r="CT75" s="28"/>
-      <c r="CU75" s="9"/>
+      <c r="CP75" s="15">
+        <v>7.275807289604046</v>
+      </c>
+      <c r="CQ75" s="15">
+        <v>10.110608974248095</v>
+      </c>
+      <c r="CR75" s="15"/>
+      <c r="CS75" s="15"/>
+      <c r="CT75" s="15"/>
+      <c r="CU75" s="15"/>
       <c r="CV75" s="9"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
@@ -33023,14 +33060,16 @@
       <c r="CO76" s="15">
         <v>-8.3932154770660787</v>
       </c>
-      <c r="CP76" s="28">
-        <v>-13.453216643188483</v>
-      </c>
-      <c r="CQ76" s="28"/>
-      <c r="CR76" s="28"/>
-      <c r="CS76" s="28"/>
-      <c r="CT76" s="28"/>
-      <c r="CU76" s="9"/>
+      <c r="CP76" s="15">
+        <v>-12.914499743717258</v>
+      </c>
+      <c r="CQ76" s="15">
+        <v>-6.098724619049662</v>
+      </c>
+      <c r="CR76" s="15"/>
+      <c r="CS76" s="15"/>
+      <c r="CT76" s="15"/>
+      <c r="CU76" s="15"/>
       <c r="CV76" s="9"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
@@ -33361,14 +33400,16 @@
       <c r="CO77" s="15">
         <v>4.3853648976262463</v>
       </c>
-      <c r="CP77" s="28">
-        <v>6.984298270110628</v>
-      </c>
-      <c r="CQ77" s="28"/>
-      <c r="CR77" s="28"/>
-      <c r="CS77" s="28"/>
-      <c r="CT77" s="28"/>
-      <c r="CU77" s="9"/>
+      <c r="CP77" s="15">
+        <v>6.7849996816029829</v>
+      </c>
+      <c r="CQ77" s="15">
+        <v>6.1712807072429712</v>
+      </c>
+      <c r="CR77" s="15"/>
+      <c r="CS77" s="15"/>
+      <c r="CT77" s="15"/>
+      <c r="CU77" s="15"/>
       <c r="CV77" s="9"/>
       <c r="CW77" s="9"/>
       <c r="CX77" s="9"/>
@@ -33699,14 +33740,16 @@
       <c r="CO78" s="15">
         <v>6.9505478971525037</v>
       </c>
-      <c r="CP78" s="28">
-        <v>13.84893298943328</v>
-      </c>
-      <c r="CQ78" s="28"/>
-      <c r="CR78" s="28"/>
-      <c r="CS78" s="28"/>
-      <c r="CT78" s="28"/>
-      <c r="CU78" s="9"/>
+      <c r="CP78" s="15">
+        <v>18.398053126789662</v>
+      </c>
+      <c r="CQ78" s="15">
+        <v>3.8277241897609571</v>
+      </c>
+      <c r="CR78" s="15"/>
+      <c r="CS78" s="15"/>
+      <c r="CT78" s="15"/>
+      <c r="CU78" s="15"/>
       <c r="CV78" s="9"/>
       <c r="CW78" s="9"/>
       <c r="CX78" s="9"/>
@@ -33850,11 +33893,11 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="26"/>
-      <c r="CQ79" s="26"/>
-      <c r="CR79" s="26"/>
-      <c r="CS79" s="26"/>
-      <c r="CT79" s="26"/>
+      <c r="CP79" s="9"/>
+      <c r="CQ79" s="9"/>
+      <c r="CR79" s="9"/>
+      <c r="CS79" s="9"/>
+      <c r="CT79" s="9"/>
       <c r="CU79" s="9"/>
       <c r="CV79" s="9"/>
       <c r="CW79" s="9"/>
@@ -34186,14 +34229,16 @@
       <c r="CO80" s="15">
         <v>5.5264462865227699</v>
       </c>
-      <c r="CP80" s="28">
-        <v>6.2539012685375042</v>
-      </c>
-      <c r="CQ80" s="28"/>
-      <c r="CR80" s="28"/>
-      <c r="CS80" s="28"/>
-      <c r="CT80" s="28"/>
-      <c r="CU80" s="9"/>
+      <c r="CP80" s="15">
+        <v>6.8678541447583683</v>
+      </c>
+      <c r="CQ80" s="15">
+        <v>9.1166389525887013</v>
+      </c>
+      <c r="CR80" s="15"/>
+      <c r="CS80" s="15"/>
+      <c r="CT80" s="15"/>
+      <c r="CU80" s="15"/>
       <c r="CV80" s="9"/>
       <c r="CW80" s="9"/>
       <c r="CX80" s="9"/>
@@ -34338,11 +34383,12 @@
       <c r="CM81" s="13"/>
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
-      <c r="CP81" s="25"/>
-      <c r="CQ81" s="25"/>
-      <c r="CR81" s="25"/>
-      <c r="CS81" s="25"/>
-      <c r="CT81" s="25"/>
+      <c r="CP81" s="13"/>
+      <c r="CQ81" s="13"/>
+      <c r="CR81" s="13"/>
+      <c r="CS81" s="13"/>
+      <c r="CT81" s="13"/>
+      <c r="CU81" s="13"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34442,11 +34488,11 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="26"/>
-      <c r="CQ83" s="26"/>
-      <c r="CR83" s="26"/>
-      <c r="CS83" s="26"/>
-      <c r="CT83" s="26"/>
+      <c r="CP83" s="9"/>
+      <c r="CQ83" s="9"/>
+      <c r="CR83" s="9"/>
+      <c r="CS83" s="9"/>
+      <c r="CT83" s="9"/>
       <c r="CU83" s="9"/>
       <c r="CV83" s="9"/>
       <c r="CW83" s="9"/>
@@ -34591,11 +34637,11 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="26"/>
-      <c r="CQ84" s="26"/>
-      <c r="CR84" s="26"/>
-      <c r="CS84" s="26"/>
-      <c r="CT84" s="26"/>
+      <c r="CP84" s="9"/>
+      <c r="CQ84" s="9"/>
+      <c r="CR84" s="9"/>
+      <c r="CS84" s="9"/>
+      <c r="CT84" s="9"/>
       <c r="CU84" s="9"/>
       <c r="CV84" s="9"/>
       <c r="CW84" s="9"/>
@@ -34654,7 +34700,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34664,7 +34710,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34674,153 +34720,154 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="30">
+      <c r="B92" s="20">
         <v>2000</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="30">
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="20">
         <v>2001</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30">
+      <c r="G92" s="21"/>
+      <c r="H92" s="21"/>
+      <c r="I92" s="21"/>
+      <c r="J92" s="20">
         <v>2002</v>
       </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="30">
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="20">
         <v>2003</v>
       </c>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="30">
+      <c r="O92" s="21"/>
+      <c r="P92" s="21"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="20">
         <v>2004</v>
       </c>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-      <c r="V92" s="30">
+      <c r="S92" s="21"/>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="20">
         <v>2005</v>
       </c>
-      <c r="W92" s="31"/>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="31"/>
-      <c r="Z92" s="30">
+      <c r="W92" s="21"/>
+      <c r="X92" s="21"/>
+      <c r="Y92" s="21"/>
+      <c r="Z92" s="20">
         <v>2006</v>
       </c>
-      <c r="AA92" s="31"/>
-      <c r="AB92" s="31"/>
-      <c r="AC92" s="31"/>
-      <c r="AD92" s="30">
+      <c r="AA92" s="21"/>
+      <c r="AB92" s="21"/>
+      <c r="AC92" s="21"/>
+      <c r="AD92" s="20">
         <v>2007</v>
       </c>
-      <c r="AE92" s="31"/>
-      <c r="AF92" s="31"/>
-      <c r="AG92" s="31"/>
-      <c r="AH92" s="30">
+      <c r="AE92" s="21"/>
+      <c r="AF92" s="21"/>
+      <c r="AG92" s="21"/>
+      <c r="AH92" s="20">
         <v>2008</v>
       </c>
-      <c r="AI92" s="31"/>
-      <c r="AJ92" s="31"/>
-      <c r="AK92" s="31"/>
-      <c r="AL92" s="30">
+      <c r="AI92" s="21"/>
+      <c r="AJ92" s="21"/>
+      <c r="AK92" s="21"/>
+      <c r="AL92" s="20">
         <v>2009</v>
       </c>
-      <c r="AM92" s="31"/>
-      <c r="AN92" s="31"/>
-      <c r="AO92" s="31"/>
-      <c r="AP92" s="30">
+      <c r="AM92" s="21"/>
+      <c r="AN92" s="21"/>
+      <c r="AO92" s="21"/>
+      <c r="AP92" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="31"/>
-      <c r="AR92" s="31"/>
-      <c r="AS92" s="31"/>
-      <c r="AT92" s="30">
+      <c r="AQ92" s="21"/>
+      <c r="AR92" s="21"/>
+      <c r="AS92" s="21"/>
+      <c r="AT92" s="20">
         <v>2011</v>
       </c>
-      <c r="AU92" s="31"/>
-      <c r="AV92" s="31"/>
-      <c r="AW92" s="31"/>
-      <c r="AX92" s="30">
+      <c r="AU92" s="21"/>
+      <c r="AV92" s="21"/>
+      <c r="AW92" s="21"/>
+      <c r="AX92" s="20">
         <v>2012</v>
       </c>
-      <c r="AY92" s="31"/>
-      <c r="AZ92" s="31"/>
-      <c r="BA92" s="31"/>
-      <c r="BB92" s="30">
+      <c r="AY92" s="21"/>
+      <c r="AZ92" s="21"/>
+      <c r="BA92" s="21"/>
+      <c r="BB92" s="20">
         <v>2013</v>
       </c>
-      <c r="BC92" s="31"/>
-      <c r="BD92" s="31"/>
-      <c r="BE92" s="31"/>
-      <c r="BF92" s="30">
+      <c r="BC92" s="21"/>
+      <c r="BD92" s="21"/>
+      <c r="BE92" s="21"/>
+      <c r="BF92" s="20">
         <v>2014</v>
       </c>
-      <c r="BG92" s="31"/>
-      <c r="BH92" s="31"/>
-      <c r="BI92" s="31"/>
-      <c r="BJ92" s="30">
+      <c r="BG92" s="21"/>
+      <c r="BH92" s="21"/>
+      <c r="BI92" s="21"/>
+      <c r="BJ92" s="20">
         <v>2015</v>
       </c>
-      <c r="BK92" s="31"/>
-      <c r="BL92" s="31"/>
-      <c r="BM92" s="31"/>
-      <c r="BN92" s="30">
+      <c r="BK92" s="21"/>
+      <c r="BL92" s="21"/>
+      <c r="BM92" s="21"/>
+      <c r="BN92" s="20">
         <v>2016</v>
       </c>
-      <c r="BO92" s="31"/>
-      <c r="BP92" s="31"/>
-      <c r="BQ92" s="31"/>
-      <c r="BR92" s="30">
+      <c r="BO92" s="21"/>
+      <c r="BP92" s="21"/>
+      <c r="BQ92" s="21"/>
+      <c r="BR92" s="20">
         <v>2017</v>
       </c>
-      <c r="BS92" s="31"/>
-      <c r="BT92" s="31"/>
-      <c r="BU92" s="31"/>
-      <c r="BV92" s="30">
+      <c r="BS92" s="21"/>
+      <c r="BT92" s="21"/>
+      <c r="BU92" s="21"/>
+      <c r="BV92" s="20">
         <v>2018</v>
       </c>
-      <c r="BW92" s="31"/>
-      <c r="BX92" s="31"/>
-      <c r="BY92" s="31"/>
-      <c r="BZ92" s="30">
+      <c r="BW92" s="21"/>
+      <c r="BX92" s="21"/>
+      <c r="BY92" s="21"/>
+      <c r="BZ92" s="20">
         <v>2019</v>
       </c>
-      <c r="CA92" s="31"/>
-      <c r="CB92" s="31"/>
-      <c r="CC92" s="31"/>
-      <c r="CD92" s="30">
+      <c r="CA92" s="21"/>
+      <c r="CB92" s="21"/>
+      <c r="CC92" s="21"/>
+      <c r="CD92" s="20">
         <v>2020</v>
       </c>
-      <c r="CE92" s="30"/>
-      <c r="CF92" s="30"/>
-      <c r="CG92" s="30"/>
-      <c r="CH92" s="30">
+      <c r="CE92" s="20"/>
+      <c r="CF92" s="20"/>
+      <c r="CG92" s="20"/>
+      <c r="CH92" s="20">
         <v>2021</v>
       </c>
-      <c r="CI92" s="30"/>
-      <c r="CJ92" s="30"/>
-      <c r="CK92" s="30"/>
-      <c r="CL92" s="30">
+      <c r="CI92" s="20"/>
+      <c r="CJ92" s="20"/>
+      <c r="CK92" s="20"/>
+      <c r="CL92" s="20">
         <v>2022</v>
       </c>
-      <c r="CM92" s="30"/>
-      <c r="CN92" s="30"/>
-      <c r="CO92" s="30"/>
-      <c r="CP92" s="20">
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
+      <c r="CP92" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="20"/>
-      <c r="CR92" s="20"/>
-      <c r="CS92" s="20"/>
-      <c r="CT92" s="20">
+      <c r="CQ92" s="19"/>
+      <c r="CR92" s="19"/>
+      <c r="CS92" s="19"/>
+      <c r="CT92" s="19">
         <v>2024</v>
       </c>
+      <c r="CU92" s="19"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35102,20 +35149,23 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="21" t="s">
+      <c r="CP93" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="21" t="s">
+      <c r="CQ93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="21" t="s">
+      <c r="CR93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="21" t="s">
+      <c r="CS93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT93" s="21" t="s">
+      <c r="CT93" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU93" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35401,22 +35451,24 @@
       <c r="CO95" s="15">
         <v>107.52462534205156</v>
       </c>
-      <c r="CP95" s="28">
+      <c r="CP95" s="15">
         <v>147.66409679804494</v>
       </c>
-      <c r="CQ95" s="28">
+      <c r="CQ95" s="15">
         <v>168.6668356357348</v>
       </c>
-      <c r="CR95" s="28">
+      <c r="CR95" s="15">
         <v>87.047048255572108</v>
       </c>
-      <c r="CS95" s="28">
+      <c r="CS95" s="15">
         <v>105.38861562855297</v>
       </c>
-      <c r="CT95" s="28">
-        <v>140.96303773916222</v>
-      </c>
-      <c r="CU95" s="9"/>
+      <c r="CT95" s="15">
+        <v>140.91685198020295</v>
+      </c>
+      <c r="CU95" s="15">
+        <v>160.80940761247138</v>
+      </c>
       <c r="CV95" s="9"/>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
@@ -35751,22 +35803,24 @@
       <c r="CO96" s="15">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="28">
+      <c r="CP96" s="15">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="28">
+      <c r="CQ96" s="15">
         <v>121.40481839184358</v>
       </c>
-      <c r="CR96" s="28">
+      <c r="CR96" s="15">
         <v>111.91043023656513</v>
       </c>
-      <c r="CS96" s="28">
+      <c r="CS96" s="15">
         <v>119.07336581930508</v>
       </c>
-      <c r="CT96" s="28">
-        <v>128.9422600825676</v>
-      </c>
-      <c r="CU96" s="9"/>
+      <c r="CT96" s="15">
+        <v>128.94226008256763</v>
+      </c>
+      <c r="CU96" s="15">
+        <v>136.10020449149937</v>
+      </c>
       <c r="CV96" s="9"/>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
@@ -36101,22 +36155,24 @@
       <c r="CO97" s="15">
         <v>101.17491689597118</v>
       </c>
-      <c r="CP97" s="28">
+      <c r="CP97" s="15">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="28">
+      <c r="CQ97" s="15">
         <v>120.20271663929918</v>
       </c>
-      <c r="CR97" s="28">
+      <c r="CR97" s="15">
         <v>110.23494918072731</v>
       </c>
-      <c r="CS97" s="28">
+      <c r="CS97" s="15">
         <v>112.9579572647182</v>
       </c>
-      <c r="CT97" s="28">
+      <c r="CT97" s="15">
         <v>122.7346319709204</v>
       </c>
-      <c r="CU97" s="9"/>
+      <c r="CU97" s="15">
+        <v>129.37778995222831</v>
+      </c>
       <c r="CV97" s="9"/>
       <c r="CW97" s="9"/>
       <c r="CX97" s="9"/>
@@ -36451,22 +36507,24 @@
       <c r="CO98" s="15">
         <v>111.50163821565909</v>
       </c>
-      <c r="CP98" s="28">
+      <c r="CP98" s="15">
         <v>114.85141283955909</v>
       </c>
-      <c r="CQ98" s="28">
+      <c r="CQ98" s="15">
         <v>117.49890786574258</v>
       </c>
-      <c r="CR98" s="28">
+      <c r="CR98" s="15">
         <v>116.87428204476622</v>
       </c>
-      <c r="CS98" s="28">
+      <c r="CS98" s="15">
         <v>115.48746272204724</v>
       </c>
-      <c r="CT98" s="28">
-        <v>118.10911736789906</v>
-      </c>
-      <c r="CU98" s="9"/>
+      <c r="CT98" s="15">
+        <v>118.10911736789905</v>
+      </c>
+      <c r="CU98" s="15">
+        <v>120.52704873372397</v>
+      </c>
       <c r="CV98" s="9"/>
       <c r="CW98" s="9"/>
       <c r="CX98" s="9"/>
@@ -36614,12 +36672,12 @@
       <c r="CM99" s="15"/>
       <c r="CN99" s="15"/>
       <c r="CO99" s="15"/>
-      <c r="CP99" s="28"/>
-      <c r="CQ99" s="28"/>
-      <c r="CR99" s="28"/>
-      <c r="CS99" s="28"/>
-      <c r="CT99" s="28"/>
-      <c r="CU99" s="9"/>
+      <c r="CP99" s="15"/>
+      <c r="CQ99" s="15"/>
+      <c r="CR99" s="15"/>
+      <c r="CS99" s="15"/>
+      <c r="CT99" s="15"/>
+      <c r="CU99" s="15"/>
       <c r="CV99" s="9"/>
       <c r="CW99" s="9"/>
       <c r="CX99" s="9"/>
@@ -36954,22 +37012,24 @@
       <c r="CO100" s="15">
         <v>106.57835166695779</v>
       </c>
-      <c r="CP100" s="28">
+      <c r="CP100" s="15">
         <v>140.67143530268032</v>
       </c>
-      <c r="CQ100" s="28">
+      <c r="CQ100" s="15">
         <v>159.50601303300959</v>
       </c>
-      <c r="CR100" s="28">
+      <c r="CR100" s="15">
         <v>90.662555310654056</v>
       </c>
-      <c r="CS100" s="28">
+      <c r="CS100" s="15">
         <v>107.08123970359897</v>
       </c>
-      <c r="CT100" s="28">
-        <v>137.31235873951283</v>
-      </c>
-      <c r="CU100" s="9"/>
+      <c r="CT100" s="15">
+        <v>137.28825707980545</v>
+      </c>
+      <c r="CU100" s="15">
+        <v>155.11346846066058</v>
+      </c>
       <c r="CV100" s="9"/>
       <c r="CW100" s="9"/>
       <c r="CX100" s="9"/>
@@ -37118,11 +37178,12 @@
       <c r="CM101" s="13"/>
       <c r="CN101" s="13"/>
       <c r="CO101" s="13"/>
-      <c r="CP101" s="25"/>
-      <c r="CQ101" s="25"/>
-      <c r="CR101" s="25"/>
-      <c r="CS101" s="25"/>
-      <c r="CT101" s="25"/>
+      <c r="CP101" s="13"/>
+      <c r="CQ101" s="13"/>
+      <c r="CR101" s="13"/>
+      <c r="CS101" s="13"/>
+      <c r="CT101" s="13"/>
+      <c r="CU101" s="13"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37141,7 +37202,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -37151,7 +37212,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -37161,153 +37222,154 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="30">
+      <c r="B113" s="20">
         <v>2000</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="30">
+      <c r="C113" s="21"/>
+      <c r="D113" s="21"/>
+      <c r="E113" s="21"/>
+      <c r="F113" s="20">
         <v>2001</v>
       </c>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="30">
+      <c r="G113" s="21"/>
+      <c r="H113" s="21"/>
+      <c r="I113" s="21"/>
+      <c r="J113" s="20">
         <v>2002</v>
       </c>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="30">
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="20">
         <v>2003</v>
       </c>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="30">
+      <c r="O113" s="21"/>
+      <c r="P113" s="21"/>
+      <c r="Q113" s="21"/>
+      <c r="R113" s="20">
         <v>2004</v>
       </c>
-      <c r="S113" s="31"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-      <c r="V113" s="30">
+      <c r="S113" s="21"/>
+      <c r="T113" s="21"/>
+      <c r="U113" s="21"/>
+      <c r="V113" s="20">
         <v>2005</v>
       </c>
-      <c r="W113" s="31"/>
-      <c r="X113" s="31"/>
-      <c r="Y113" s="31"/>
-      <c r="Z113" s="30">
+      <c r="W113" s="21"/>
+      <c r="X113" s="21"/>
+      <c r="Y113" s="21"/>
+      <c r="Z113" s="20">
         <v>2006</v>
       </c>
-      <c r="AA113" s="31"/>
-      <c r="AB113" s="31"/>
-      <c r="AC113" s="31"/>
-      <c r="AD113" s="30">
+      <c r="AA113" s="21"/>
+      <c r="AB113" s="21"/>
+      <c r="AC113" s="21"/>
+      <c r="AD113" s="20">
         <v>2007</v>
       </c>
-      <c r="AE113" s="31"/>
-      <c r="AF113" s="31"/>
-      <c r="AG113" s="31"/>
-      <c r="AH113" s="30">
+      <c r="AE113" s="21"/>
+      <c r="AF113" s="21"/>
+      <c r="AG113" s="21"/>
+      <c r="AH113" s="20">
         <v>2008</v>
       </c>
-      <c r="AI113" s="31"/>
-      <c r="AJ113" s="31"/>
-      <c r="AK113" s="31"/>
-      <c r="AL113" s="30">
+      <c r="AI113" s="21"/>
+      <c r="AJ113" s="21"/>
+      <c r="AK113" s="21"/>
+      <c r="AL113" s="20">
         <v>2009</v>
       </c>
-      <c r="AM113" s="31"/>
-      <c r="AN113" s="31"/>
-      <c r="AO113" s="31"/>
-      <c r="AP113" s="30">
+      <c r="AM113" s="21"/>
+      <c r="AN113" s="21"/>
+      <c r="AO113" s="21"/>
+      <c r="AP113" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="31"/>
-      <c r="AR113" s="31"/>
-      <c r="AS113" s="31"/>
-      <c r="AT113" s="30">
+      <c r="AQ113" s="21"/>
+      <c r="AR113" s="21"/>
+      <c r="AS113" s="21"/>
+      <c r="AT113" s="20">
         <v>2011</v>
       </c>
-      <c r="AU113" s="31"/>
-      <c r="AV113" s="31"/>
-      <c r="AW113" s="31"/>
-      <c r="AX113" s="30">
+      <c r="AU113" s="21"/>
+      <c r="AV113" s="21"/>
+      <c r="AW113" s="21"/>
+      <c r="AX113" s="20">
         <v>2012</v>
       </c>
-      <c r="AY113" s="31"/>
-      <c r="AZ113" s="31"/>
-      <c r="BA113" s="31"/>
-      <c r="BB113" s="30">
+      <c r="AY113" s="21"/>
+      <c r="AZ113" s="21"/>
+      <c r="BA113" s="21"/>
+      <c r="BB113" s="20">
         <v>2013</v>
       </c>
-      <c r="BC113" s="31"/>
-      <c r="BD113" s="31"/>
-      <c r="BE113" s="31"/>
-      <c r="BF113" s="30">
+      <c r="BC113" s="21"/>
+      <c r="BD113" s="21"/>
+      <c r="BE113" s="21"/>
+      <c r="BF113" s="20">
         <v>2014</v>
       </c>
-      <c r="BG113" s="31"/>
-      <c r="BH113" s="31"/>
-      <c r="BI113" s="31"/>
-      <c r="BJ113" s="30">
+      <c r="BG113" s="21"/>
+      <c r="BH113" s="21"/>
+      <c r="BI113" s="21"/>
+      <c r="BJ113" s="20">
         <v>2015</v>
       </c>
-      <c r="BK113" s="31"/>
-      <c r="BL113" s="31"/>
-      <c r="BM113" s="31"/>
-      <c r="BN113" s="30">
+      <c r="BK113" s="21"/>
+      <c r="BL113" s="21"/>
+      <c r="BM113" s="21"/>
+      <c r="BN113" s="20">
         <v>2016</v>
       </c>
-      <c r="BO113" s="31"/>
-      <c r="BP113" s="31"/>
-      <c r="BQ113" s="31"/>
-      <c r="BR113" s="30">
+      <c r="BO113" s="21"/>
+      <c r="BP113" s="21"/>
+      <c r="BQ113" s="21"/>
+      <c r="BR113" s="20">
         <v>2017</v>
       </c>
-      <c r="BS113" s="31"/>
-      <c r="BT113" s="31"/>
-      <c r="BU113" s="31"/>
-      <c r="BV113" s="30">
+      <c r="BS113" s="21"/>
+      <c r="BT113" s="21"/>
+      <c r="BU113" s="21"/>
+      <c r="BV113" s="20">
         <v>2018</v>
       </c>
-      <c r="BW113" s="31"/>
-      <c r="BX113" s="31"/>
-      <c r="BY113" s="31"/>
-      <c r="BZ113" s="30">
+      <c r="BW113" s="21"/>
+      <c r="BX113" s="21"/>
+      <c r="BY113" s="21"/>
+      <c r="BZ113" s="20">
         <v>2019</v>
       </c>
-      <c r="CA113" s="31"/>
-      <c r="CB113" s="31"/>
-      <c r="CC113" s="31"/>
-      <c r="CD113" s="30">
+      <c r="CA113" s="21"/>
+      <c r="CB113" s="21"/>
+      <c r="CC113" s="21"/>
+      <c r="CD113" s="20">
         <v>2020</v>
       </c>
-      <c r="CE113" s="30"/>
-      <c r="CF113" s="30"/>
-      <c r="CG113" s="30"/>
-      <c r="CH113" s="30">
+      <c r="CE113" s="20"/>
+      <c r="CF113" s="20"/>
+      <c r="CG113" s="20"/>
+      <c r="CH113" s="20">
         <v>2021</v>
       </c>
-      <c r="CI113" s="30"/>
-      <c r="CJ113" s="30"/>
-      <c r="CK113" s="30"/>
-      <c r="CL113" s="30">
+      <c r="CI113" s="20"/>
+      <c r="CJ113" s="20"/>
+      <c r="CK113" s="20"/>
+      <c r="CL113" s="20">
         <v>2022</v>
       </c>
-      <c r="CM113" s="30"/>
-      <c r="CN113" s="30"/>
-      <c r="CO113" s="30"/>
-      <c r="CP113" s="20">
+      <c r="CM113" s="20"/>
+      <c r="CN113" s="20"/>
+      <c r="CO113" s="20"/>
+      <c r="CP113" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="20"/>
-      <c r="CR113" s="20"/>
-      <c r="CS113" s="20"/>
-      <c r="CT113" s="20">
+      <c r="CQ113" s="19"/>
+      <c r="CR113" s="19"/>
+      <c r="CS113" s="19"/>
+      <c r="CT113" s="19">
         <v>2024</v>
       </c>
+      <c r="CU113" s="19"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37589,20 +37651,23 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="21" t="s">
+      <c r="CP114" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="21" t="s">
+      <c r="CQ114" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="21" t="s">
+      <c r="CR114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="21" t="s">
+      <c r="CS114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT114" s="21" t="s">
+      <c r="CT114" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU114" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37888,22 +37953,24 @@
       <c r="CO116" s="15">
         <v>79.805688302271733</v>
       </c>
-      <c r="CP116" s="28">
+      <c r="CP116" s="15">
         <v>83.408319863540854</v>
       </c>
-      <c r="CQ116" s="28">
+      <c r="CQ116" s="15">
         <v>85.776559493505317</v>
       </c>
-      <c r="CR116" s="28">
+      <c r="CR116" s="15">
         <v>81.461310553247557</v>
       </c>
-      <c r="CS116" s="28">
+      <c r="CS116" s="15">
         <v>78.274500320197831</v>
       </c>
-      <c r="CT116" s="28">
-        <v>81.798719014168583</v>
-      </c>
-      <c r="CU116" s="9"/>
+      <c r="CT116" s="15">
+        <v>81.869968244029579</v>
+      </c>
+      <c r="CU116" s="15">
+        <v>84.8625568080204</v>
+      </c>
       <c r="CV116" s="9"/>
       <c r="CW116" s="9"/>
       <c r="CX116" s="9"/>
@@ -38238,22 +38305,24 @@
       <c r="CO117" s="15">
         <v>2.0842109281832095</v>
       </c>
-      <c r="CP117" s="28">
+      <c r="CP117" s="15">
         <v>1.9010465659418612</v>
       </c>
-      <c r="CQ117" s="28">
+      <c r="CQ117" s="15">
         <v>1.3820510141090199</v>
       </c>
-      <c r="CR117" s="28">
+      <c r="CR117" s="15">
         <v>1.6863340564737137</v>
       </c>
-      <c r="CS117" s="28">
+      <c r="CS117" s="15">
         <v>1.9044596093757546</v>
       </c>
-      <c r="CT117" s="28">
-        <v>1.7757423952056544</v>
-      </c>
-      <c r="CU117" s="9"/>
+      <c r="CT117" s="15">
+        <v>1.7768424234110969</v>
+      </c>
+      <c r="CU117" s="15">
+        <v>1.3710553549209459</v>
+      </c>
       <c r="CV117" s="9"/>
       <c r="CW117" s="9"/>
       <c r="CX117" s="9"/>
@@ -38588,22 +38657,24 @@
       <c r="CO118" s="15">
         <v>16.536151969049982</v>
       </c>
-      <c r="CP118" s="28">
+      <c r="CP118" s="15">
         <v>13.634583461154781</v>
       </c>
-      <c r="CQ118" s="28">
+      <c r="CQ118" s="15">
         <v>11.982034406461093</v>
       </c>
-      <c r="CR118" s="28">
+      <c r="CR118" s="15">
         <v>15.329191039285142</v>
       </c>
-      <c r="CS118" s="28">
+      <c r="CS118" s="15">
         <v>18.176586931759505</v>
       </c>
-      <c r="CT118" s="28">
-        <v>15.233440536698584</v>
-      </c>
-      <c r="CU118" s="9"/>
+      <c r="CT118" s="15">
+        <v>15.12036383743904</v>
+      </c>
+      <c r="CU118" s="15">
+        <v>12.903859744080865</v>
+      </c>
       <c r="CV118" s="9"/>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
@@ -38938,22 +39009,24 @@
       <c r="CO119" s="15">
         <v>1.5739488004950772</v>
       </c>
-      <c r="CP119" s="28">
+      <c r="CP119" s="15">
         <v>1.0560501093624985</v>
       </c>
-      <c r="CQ119" s="28">
+      <c r="CQ119" s="15">
         <v>0.85935508592456178</v>
       </c>
-      <c r="CR119" s="28">
+      <c r="CR119" s="15">
         <v>1.5231643509935922</v>
       </c>
-      <c r="CS119" s="28">
+      <c r="CS119" s="15">
         <v>1.6444531386669001</v>
       </c>
-      <c r="CT119" s="28">
-        <v>1.192098053927175</v>
-      </c>
-      <c r="CU119" s="9"/>
+      <c r="CT119" s="15">
+        <v>1.2328254951202842</v>
+      </c>
+      <c r="CU119" s="15">
+        <v>0.86252809297777855</v>
+      </c>
       <c r="CV119" s="9"/>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
@@ -39101,11 +39174,11 @@
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
-      <c r="CP120" s="26"/>
-      <c r="CQ120" s="26"/>
-      <c r="CR120" s="26"/>
-      <c r="CS120" s="26"/>
-      <c r="CT120" s="26"/>
+      <c r="CP120" s="9"/>
+      <c r="CQ120" s="9"/>
+      <c r="CR120" s="9"/>
+      <c r="CS120" s="9"/>
+      <c r="CT120" s="9"/>
       <c r="CU120" s="9"/>
       <c r="CV120" s="9"/>
       <c r="CW120" s="9"/>
@@ -39441,22 +39514,24 @@
       <c r="CO121" s="15">
         <v>100</v>
       </c>
-      <c r="CP121" s="28">
+      <c r="CP121" s="15">
         <v>100</v>
       </c>
-      <c r="CQ121" s="28">
+      <c r="CQ121" s="15">
         <v>100</v>
       </c>
-      <c r="CR121" s="28">
+      <c r="CR121" s="15">
         <v>100</v>
       </c>
-      <c r="CS121" s="28">
+      <c r="CS121" s="15">
         <v>100</v>
       </c>
-      <c r="CT121" s="28">
+      <c r="CT121" s="15">
         <v>100</v>
       </c>
-      <c r="CU121" s="9"/>
+      <c r="CU121" s="15">
+        <v>100</v>
+      </c>
       <c r="CV121" s="9"/>
       <c r="CW121" s="9"/>
       <c r="CX121" s="9"/>
@@ -39605,11 +39680,12 @@
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
-      <c r="CP122" s="25"/>
-      <c r="CQ122" s="25"/>
-      <c r="CR122" s="25"/>
-      <c r="CS122" s="25"/>
-      <c r="CT122" s="25"/>
+      <c r="CP122" s="13"/>
+      <c r="CQ122" s="13"/>
+      <c r="CR122" s="13"/>
+      <c r="CS122" s="13"/>
+      <c r="CT122" s="13"/>
+      <c r="CU122" s="13"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39709,11 +39785,11 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="26"/>
-      <c r="CQ124" s="26"/>
-      <c r="CR124" s="26"/>
-      <c r="CS124" s="26"/>
-      <c r="CT124" s="26"/>
+      <c r="CP124" s="9"/>
+      <c r="CQ124" s="9"/>
+      <c r="CR124" s="9"/>
+      <c r="CS124" s="9"/>
+      <c r="CT124" s="9"/>
       <c r="CU124" s="9"/>
       <c r="CV124" s="9"/>
       <c r="CW124" s="9"/>
@@ -39862,11 +39938,11 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="26"/>
-      <c r="CQ125" s="26"/>
-      <c r="CR125" s="26"/>
-      <c r="CS125" s="26"/>
-      <c r="CT125" s="26"/>
+      <c r="CP125" s="9"/>
+      <c r="CQ125" s="9"/>
+      <c r="CR125" s="9"/>
+      <c r="CS125" s="9"/>
+      <c r="CT125" s="9"/>
       <c r="CU125" s="9"/>
       <c r="CV125" s="9"/>
       <c r="CW125" s="9"/>
@@ -39934,7 +40010,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -39944,7 +40020,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -39954,153 +40030,154 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="30">
+      <c r="B134" s="20">
         <v>2000</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="30">
+      <c r="C134" s="21"/>
+      <c r="D134" s="21"/>
+      <c r="E134" s="21"/>
+      <c r="F134" s="20">
         <v>2001</v>
       </c>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="30">
+      <c r="G134" s="21"/>
+      <c r="H134" s="21"/>
+      <c r="I134" s="21"/>
+      <c r="J134" s="20">
         <v>2002</v>
       </c>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="30">
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="20">
         <v>2003</v>
       </c>
-      <c r="O134" s="31"/>
-      <c r="P134" s="31"/>
-      <c r="Q134" s="31"/>
-      <c r="R134" s="30">
+      <c r="O134" s="21"/>
+      <c r="P134" s="21"/>
+      <c r="Q134" s="21"/>
+      <c r="R134" s="20">
         <v>2004</v>
       </c>
-      <c r="S134" s="31"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="31"/>
-      <c r="V134" s="30">
+      <c r="S134" s="21"/>
+      <c r="T134" s="21"/>
+      <c r="U134" s="21"/>
+      <c r="V134" s="20">
         <v>2005</v>
       </c>
-      <c r="W134" s="31"/>
-      <c r="X134" s="31"/>
-      <c r="Y134" s="31"/>
-      <c r="Z134" s="30">
+      <c r="W134" s="21"/>
+      <c r="X134" s="21"/>
+      <c r="Y134" s="21"/>
+      <c r="Z134" s="20">
         <v>2006</v>
       </c>
-      <c r="AA134" s="31"/>
-      <c r="AB134" s="31"/>
-      <c r="AC134" s="31"/>
-      <c r="AD134" s="30">
+      <c r="AA134" s="21"/>
+      <c r="AB134" s="21"/>
+      <c r="AC134" s="21"/>
+      <c r="AD134" s="20">
         <v>2007</v>
       </c>
-      <c r="AE134" s="31"/>
-      <c r="AF134" s="31"/>
-      <c r="AG134" s="31"/>
-      <c r="AH134" s="30">
+      <c r="AE134" s="21"/>
+      <c r="AF134" s="21"/>
+      <c r="AG134" s="21"/>
+      <c r="AH134" s="20">
         <v>2008</v>
       </c>
-      <c r="AI134" s="31"/>
-      <c r="AJ134" s="31"/>
-      <c r="AK134" s="31"/>
-      <c r="AL134" s="30">
+      <c r="AI134" s="21"/>
+      <c r="AJ134" s="21"/>
+      <c r="AK134" s="21"/>
+      <c r="AL134" s="20">
         <v>2009</v>
       </c>
-      <c r="AM134" s="31"/>
-      <c r="AN134" s="31"/>
-      <c r="AO134" s="31"/>
-      <c r="AP134" s="30">
+      <c r="AM134" s="21"/>
+      <c r="AN134" s="21"/>
+      <c r="AO134" s="21"/>
+      <c r="AP134" s="20">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="31"/>
-      <c r="AR134" s="31"/>
-      <c r="AS134" s="31"/>
-      <c r="AT134" s="30">
+      <c r="AQ134" s="21"/>
+      <c r="AR134" s="21"/>
+      <c r="AS134" s="21"/>
+      <c r="AT134" s="20">
         <v>2011</v>
       </c>
-      <c r="AU134" s="31"/>
-      <c r="AV134" s="31"/>
-      <c r="AW134" s="31"/>
-      <c r="AX134" s="30">
+      <c r="AU134" s="21"/>
+      <c r="AV134" s="21"/>
+      <c r="AW134" s="21"/>
+      <c r="AX134" s="20">
         <v>2012</v>
       </c>
-      <c r="AY134" s="31"/>
-      <c r="AZ134" s="31"/>
-      <c r="BA134" s="31"/>
-      <c r="BB134" s="30">
+      <c r="AY134" s="21"/>
+      <c r="AZ134" s="21"/>
+      <c r="BA134" s="21"/>
+      <c r="BB134" s="20">
         <v>2013</v>
       </c>
-      <c r="BC134" s="31"/>
-      <c r="BD134" s="31"/>
-      <c r="BE134" s="31"/>
-      <c r="BF134" s="30">
+      <c r="BC134" s="21"/>
+      <c r="BD134" s="21"/>
+      <c r="BE134" s="21"/>
+      <c r="BF134" s="20">
         <v>2014</v>
       </c>
-      <c r="BG134" s="31"/>
-      <c r="BH134" s="31"/>
-      <c r="BI134" s="31"/>
-      <c r="BJ134" s="30">
+      <c r="BG134" s="21"/>
+      <c r="BH134" s="21"/>
+      <c r="BI134" s="21"/>
+      <c r="BJ134" s="20">
         <v>2015</v>
       </c>
-      <c r="BK134" s="31"/>
-      <c r="BL134" s="31"/>
-      <c r="BM134" s="31"/>
-      <c r="BN134" s="30">
+      <c r="BK134" s="21"/>
+      <c r="BL134" s="21"/>
+      <c r="BM134" s="21"/>
+      <c r="BN134" s="20">
         <v>2016</v>
       </c>
-      <c r="BO134" s="31"/>
-      <c r="BP134" s="31"/>
-      <c r="BQ134" s="31"/>
-      <c r="BR134" s="30">
+      <c r="BO134" s="21"/>
+      <c r="BP134" s="21"/>
+      <c r="BQ134" s="21"/>
+      <c r="BR134" s="20">
         <v>2017</v>
       </c>
-      <c r="BS134" s="31"/>
-      <c r="BT134" s="31"/>
-      <c r="BU134" s="31"/>
-      <c r="BV134" s="30">
+      <c r="BS134" s="21"/>
+      <c r="BT134" s="21"/>
+      <c r="BU134" s="21"/>
+      <c r="BV134" s="20">
         <v>2018</v>
       </c>
-      <c r="BW134" s="31"/>
-      <c r="BX134" s="31"/>
-      <c r="BY134" s="31"/>
-      <c r="BZ134" s="30">
+      <c r="BW134" s="21"/>
+      <c r="BX134" s="21"/>
+      <c r="BY134" s="21"/>
+      <c r="BZ134" s="20">
         <v>2019</v>
       </c>
-      <c r="CA134" s="31"/>
-      <c r="CB134" s="31"/>
-      <c r="CC134" s="31"/>
-      <c r="CD134" s="30">
+      <c r="CA134" s="21"/>
+      <c r="CB134" s="21"/>
+      <c r="CC134" s="21"/>
+      <c r="CD134" s="20">
         <v>2020</v>
       </c>
-      <c r="CE134" s="30"/>
-      <c r="CF134" s="30"/>
-      <c r="CG134" s="30"/>
-      <c r="CH134" s="30">
+      <c r="CE134" s="20"/>
+      <c r="CF134" s="20"/>
+      <c r="CG134" s="20"/>
+      <c r="CH134" s="20">
         <v>2021</v>
       </c>
-      <c r="CI134" s="30"/>
-      <c r="CJ134" s="30"/>
-      <c r="CK134" s="30"/>
-      <c r="CL134" s="30">
+      <c r="CI134" s="20"/>
+      <c r="CJ134" s="20"/>
+      <c r="CK134" s="20"/>
+      <c r="CL134" s="20">
         <v>2022</v>
       </c>
-      <c r="CM134" s="30"/>
-      <c r="CN134" s="30"/>
-      <c r="CO134" s="30"/>
-      <c r="CP134" s="20">
+      <c r="CM134" s="20"/>
+      <c r="CN134" s="20"/>
+      <c r="CO134" s="20"/>
+      <c r="CP134" s="19">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="20"/>
-      <c r="CR134" s="20"/>
-      <c r="CS134" s="20"/>
-      <c r="CT134" s="20">
+      <c r="CQ134" s="19"/>
+      <c r="CR134" s="19"/>
+      <c r="CS134" s="19"/>
+      <c r="CT134" s="19">
         <v>2024</v>
       </c>
+      <c r="CU134" s="19"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40382,20 +40459,23 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="21" t="s">
+      <c r="CP135" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="21" t="s">
+      <c r="CQ135" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="21" t="s">
+      <c r="CR135" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="21" t="s">
+      <c r="CS135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CT135" s="21" t="s">
+      <c r="CT135" s="6" t="s">
         <v>7</v>
+      </c>
+      <c r="CU135" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40681,22 +40761,24 @@
       <c r="CO137" s="15">
         <v>79.103355960048304</v>
       </c>
-      <c r="CP137" s="28">
+      <c r="CP137" s="15">
         <v>79.458502952389296</v>
       </c>
-      <c r="CQ137" s="28">
+      <c r="CQ137" s="15">
         <v>81.117766660697669</v>
       </c>
-      <c r="CR137" s="28">
+      <c r="CR137" s="15">
         <v>84.844813485555591</v>
       </c>
-      <c r="CS137" s="28">
+      <c r="CS137" s="15">
         <v>79.531650373018778</v>
       </c>
-      <c r="CT137" s="28">
-        <v>79.68028519993841</v>
-      </c>
-      <c r="CU137" s="9"/>
+      <c r="CT137" s="15">
+        <v>79.761824717606444</v>
+      </c>
+      <c r="CU137" s="15">
+        <v>81.856688140122358</v>
+      </c>
       <c r="CV137" s="9"/>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
@@ -41031,22 +41113,24 @@
       <c r="CO138" s="15">
         <v>1.9728960382906189</v>
       </c>
-      <c r="CP138" s="28">
+      <c r="CP138" s="15">
         <v>2.3216046566986357</v>
       </c>
-      <c r="CQ138" s="28">
+      <c r="CQ138" s="15">
         <v>1.8157882857437542</v>
       </c>
-      <c r="CR138" s="28">
+      <c r="CR138" s="15">
         <v>1.3661582244309336</v>
       </c>
-      <c r="CS138" s="28">
+      <c r="CS138" s="15">
         <v>1.7126575244950766</v>
       </c>
-      <c r="CT138" s="28">
-        <v>1.8910121215752247</v>
-      </c>
-      <c r="CU138" s="9"/>
+      <c r="CT138" s="15">
+        <v>1.8918514322562789</v>
+      </c>
+      <c r="CU138" s="15">
+        <v>1.562592446851415</v>
+      </c>
       <c r="CV138" s="9"/>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
@@ -41381,22 +41465,24 @@
       <c r="CO139" s="15">
         <v>17.41929594652175</v>
       </c>
-      <c r="CP139" s="28">
+      <c r="CP139" s="15">
         <v>16.926429115513791</v>
       </c>
-      <c r="CQ139" s="28">
+      <c r="CQ139" s="15">
         <v>15.899861414397529</v>
       </c>
-      <c r="CR139" s="28">
+      <c r="CR139" s="15">
         <v>12.607468328290855</v>
       </c>
-      <c r="CS139" s="28">
+      <c r="CS139" s="15">
         <v>17.230937150108883</v>
       </c>
-      <c r="CT139" s="28">
-        <v>17.042782613368573</v>
-      </c>
-      <c r="CU139" s="9"/>
+      <c r="CT139" s="15">
+        <v>16.913306084189479</v>
+      </c>
+      <c r="CU139" s="15">
+        <v>15.470680417197846</v>
+      </c>
       <c r="CV139" s="9"/>
       <c r="CW139" s="9"/>
       <c r="CX139" s="9"/>
@@ -41731,22 +41817,24 @@
       <c r="CO140" s="15">
         <v>1.504452055139333</v>
       </c>
-      <c r="CP140" s="28">
+      <c r="CP140" s="15">
         <v>1.2934632753982716</v>
       </c>
-      <c r="CQ140" s="28">
+      <c r="CQ140" s="15">
         <v>1.1665836391610442</v>
       </c>
-      <c r="CR140" s="28">
+      <c r="CR140" s="15">
         <v>1.1815599617226231</v>
       </c>
-      <c r="CS140" s="28">
+      <c r="CS140" s="15">
         <v>1.5247549523772628</v>
       </c>
-      <c r="CT140" s="28">
-        <v>1.3859200651177899</v>
-      </c>
-      <c r="CU140" s="9"/>
+      <c r="CT140" s="15">
+        <v>1.4330177659477901</v>
+      </c>
+      <c r="CU140" s="15">
+        <v>1.1100389958283898</v>
+      </c>
       <c r="CV140" s="9"/>
       <c r="CW140" s="9"/>
       <c r="CX140" s="9"/>
@@ -41894,11 +41982,11 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="26"/>
-      <c r="CQ141" s="26"/>
-      <c r="CR141" s="26"/>
-      <c r="CS141" s="26"/>
-      <c r="CT141" s="26"/>
+      <c r="CP141" s="9"/>
+      <c r="CQ141" s="9"/>
+      <c r="CR141" s="9"/>
+      <c r="CS141" s="9"/>
+      <c r="CT141" s="9"/>
       <c r="CU141" s="9"/>
       <c r="CV141" s="9"/>
       <c r="CW141" s="9"/>
@@ -42234,22 +42322,24 @@
       <c r="CO142" s="15">
         <v>100</v>
       </c>
-      <c r="CP142" s="28">
+      <c r="CP142" s="15">
         <v>100</v>
       </c>
-      <c r="CQ142" s="28">
+      <c r="CQ142" s="15">
         <v>100</v>
       </c>
-      <c r="CR142" s="28">
+      <c r="CR142" s="15">
         <v>100</v>
       </c>
-      <c r="CS142" s="28">
+      <c r="CS142" s="15">
         <v>100</v>
       </c>
-      <c r="CT142" s="28">
+      <c r="CT142" s="15">
         <v>100</v>
       </c>
-      <c r="CU142" s="9"/>
+      <c r="CU142" s="15">
+        <v>100</v>
+      </c>
       <c r="CV142" s="9"/>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
@@ -42398,11 +42488,12 @@
       <c r="CM143" s="13"/>
       <c r="CN143" s="13"/>
       <c r="CO143" s="13"/>
-      <c r="CP143" s="25"/>
-      <c r="CQ143" s="25"/>
-      <c r="CR143" s="25"/>
-      <c r="CS143" s="25"/>
-      <c r="CT143" s="25"/>
+      <c r="CP143" s="13"/>
+      <c r="CQ143" s="13"/>
+      <c r="CR143" s="13"/>
+      <c r="CS143" s="13"/>
+      <c r="CT143" s="13"/>
+      <c r="CU143" s="13"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -42411,25 +42502,122 @@
     </row>
   </sheetData>
   <mergeCells count="161">
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="CL113:CO113"/>
+    <mergeCell ref="CL134:CO134"/>
+    <mergeCell ref="CL9:CO9"/>
+    <mergeCell ref="CL30:CO30"/>
+    <mergeCell ref="CL51:CO51"/>
+    <mergeCell ref="CL72:CO72"/>
+    <mergeCell ref="CL92:CO92"/>
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42454,124 +42642,27 @@
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
     <mergeCell ref="BZ9:CC9"/>
     <mergeCell ref="BZ92:CC92"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CL72:CO72"/>
-    <mergeCell ref="CL92:CO92"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="CD92:CG92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>

--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D01D5-6D83-42F2-9E03-05CCA4EEDA1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338E8C4-8B7F-4271-B998-E523E7516678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="975" windowWidth="28800" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CT$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CV$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -628,13 +628,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of August 2024</t>
+    <t>As of November 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q2 2024</t>
+    <t>Q1 2000 to Q3 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q2 2024</t>
+    <t>Q1 2001 to Q3 2024</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -749,12 +749,26 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23612,17 +23626,17 @@
   <dimension ref="A1:EV144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="BZ1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CO1" sqref="CO1:CO1048576"/>
+      <selection pane="topRight" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="99" width="10.6640625" style="1" customWidth="1"/>
-    <col min="100" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="100" width="10.109375" style="19" customWidth="1"/>
+    <col min="101" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23657,154 +23671,155 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="20">
+      <c r="B9" s="30">
         <v>2000</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30">
         <v>2001</v>
       </c>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20">
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30">
         <v>2002</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20">
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30">
         <v>2003</v>
       </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20">
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30">
         <v>2004</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20">
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+      <c r="V9" s="30">
         <v>2005</v>
       </c>
-      <c r="W9" s="20"/>
-      <c r="X9" s="20"/>
-      <c r="Y9" s="20"/>
-      <c r="Z9" s="20">
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30">
         <v>2006</v>
       </c>
-      <c r="AA9" s="20"/>
-      <c r="AB9" s="20"/>
-      <c r="AC9" s="20"/>
-      <c r="AD9" s="20">
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30">
         <v>2007</v>
       </c>
-      <c r="AE9" s="20"/>
-      <c r="AF9" s="20"/>
-      <c r="AG9" s="20"/>
-      <c r="AH9" s="20">
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="30">
         <v>2008</v>
       </c>
-      <c r="AI9" s="20"/>
-      <c r="AJ9" s="20"/>
-      <c r="AK9" s="20"/>
-      <c r="AL9" s="20">
+      <c r="AI9" s="30"/>
+      <c r="AJ9" s="30"/>
+      <c r="AK9" s="30"/>
+      <c r="AL9" s="30">
         <v>2009</v>
       </c>
-      <c r="AM9" s="20"/>
-      <c r="AN9" s="20"/>
-      <c r="AO9" s="20"/>
-      <c r="AP9" s="20">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="20"/>
-      <c r="AR9" s="20"/>
-      <c r="AS9" s="20"/>
-      <c r="AT9" s="20">
+      <c r="AQ9" s="30"/>
+      <c r="AR9" s="30"/>
+      <c r="AS9" s="30"/>
+      <c r="AT9" s="30">
         <v>2011</v>
       </c>
-      <c r="AU9" s="20"/>
-      <c r="AV9" s="20"/>
-      <c r="AW9" s="20"/>
-      <c r="AX9" s="20">
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="30"/>
+      <c r="AW9" s="30"/>
+      <c r="AX9" s="30">
         <v>2012</v>
       </c>
-      <c r="AY9" s="20"/>
-      <c r="AZ9" s="20"/>
-      <c r="BA9" s="20"/>
-      <c r="BB9" s="20">
+      <c r="AY9" s="30"/>
+      <c r="AZ9" s="30"/>
+      <c r="BA9" s="30"/>
+      <c r="BB9" s="30">
         <v>2013</v>
       </c>
-      <c r="BC9" s="20"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20">
+      <c r="BC9" s="30"/>
+      <c r="BD9" s="30"/>
+      <c r="BE9" s="30"/>
+      <c r="BF9" s="30">
         <v>2014</v>
       </c>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="20"/>
-      <c r="BJ9" s="20">
+      <c r="BG9" s="30"/>
+      <c r="BH9" s="30"/>
+      <c r="BI9" s="30"/>
+      <c r="BJ9" s="30">
         <v>2015</v>
       </c>
-      <c r="BK9" s="20"/>
-      <c r="BL9" s="20"/>
-      <c r="BM9" s="20"/>
-      <c r="BN9" s="20">
+      <c r="BK9" s="30"/>
+      <c r="BL9" s="30"/>
+      <c r="BM9" s="30"/>
+      <c r="BN9" s="30">
         <v>2016</v>
       </c>
-      <c r="BO9" s="20"/>
-      <c r="BP9" s="20"/>
-      <c r="BQ9" s="20"/>
-      <c r="BR9" s="20">
+      <c r="BO9" s="30"/>
+      <c r="BP9" s="30"/>
+      <c r="BQ9" s="30"/>
+      <c r="BR9" s="30">
         <v>2017</v>
       </c>
-      <c r="BS9" s="20"/>
-      <c r="BT9" s="20"/>
-      <c r="BU9" s="20"/>
-      <c r="BV9" s="20">
+      <c r="BS9" s="30"/>
+      <c r="BT9" s="30"/>
+      <c r="BU9" s="30"/>
+      <c r="BV9" s="30">
         <v>2018</v>
       </c>
-      <c r="BW9" s="20"/>
-      <c r="BX9" s="20"/>
-      <c r="BY9" s="20"/>
-      <c r="BZ9" s="20">
+      <c r="BW9" s="30"/>
+      <c r="BX9" s="30"/>
+      <c r="BY9" s="30"/>
+      <c r="BZ9" s="30">
         <v>2019</v>
       </c>
-      <c r="CA9" s="20"/>
-      <c r="CB9" s="20"/>
-      <c r="CC9" s="20"/>
-      <c r="CD9" s="20">
+      <c r="CA9" s="30"/>
+      <c r="CB9" s="30"/>
+      <c r="CC9" s="30"/>
+      <c r="CD9" s="30">
         <v>2020</v>
       </c>
-      <c r="CE9" s="20"/>
-      <c r="CF9" s="20"/>
-      <c r="CG9" s="20"/>
-      <c r="CH9" s="20">
+      <c r="CE9" s="30"/>
+      <c r="CF9" s="30"/>
+      <c r="CG9" s="30"/>
+      <c r="CH9" s="30">
         <v>2021</v>
       </c>
-      <c r="CI9" s="20"/>
-      <c r="CJ9" s="20"/>
-      <c r="CK9" s="20"/>
-      <c r="CL9" s="20">
+      <c r="CI9" s="30"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="30"/>
+      <c r="CL9" s="30">
         <v>2022</v>
       </c>
-      <c r="CM9" s="20"/>
-      <c r="CN9" s="20"/>
-      <c r="CO9" s="20"/>
-      <c r="CP9" s="19">
+      <c r="CM9" s="30"/>
+      <c r="CN9" s="30"/>
+      <c r="CO9" s="30"/>
+      <c r="CP9" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ9" s="19"/>
-      <c r="CR9" s="19"/>
-      <c r="CS9" s="19"/>
-      <c r="CT9" s="19">
+      <c r="CQ9" s="20"/>
+      <c r="CR9" s="20"/>
+      <c r="CS9" s="20"/>
+      <c r="CT9" s="20">
         <v>2024</v>
       </c>
-      <c r="CU9" s="19"/>
+      <c r="CU9" s="20"/>
+      <c r="CV9" s="20"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24086,23 +24101,26 @@
       <c r="CO10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP10" s="6" t="s">
+      <c r="CP10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ10" s="6" t="s">
+      <c r="CQ10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR10" s="6" t="s">
+      <c r="CR10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS10" s="6" t="s">
+      <c r="CS10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CT10" s="6" t="s">
+      <c r="CT10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CU10" s="6" t="s">
+      <c r="CU10" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CV10" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24388,25 +24406,27 @@
       <c r="CO12" s="8">
         <v>134636.44569636678</v>
       </c>
-      <c r="CP12" s="8">
+      <c r="CP12" s="22">
         <v>182012.63828418974</v>
       </c>
-      <c r="CQ12" s="8">
+      <c r="CQ12" s="22">
         <v>235292.64875110882</v>
       </c>
-      <c r="CR12" s="8">
+      <c r="CR12" s="22">
         <v>140898.63667681278</v>
       </c>
-      <c r="CS12" s="8">
+      <c r="CS12" s="22">
         <v>140008.62763998186</v>
       </c>
-      <c r="CT12" s="8">
+      <c r="CT12" s="22">
         <v>186333.67762153904</v>
       </c>
-      <c r="CU12" s="8">
-        <v>247012.69735790562</v>
-      </c>
-      <c r="CV12" s="9"/>
+      <c r="CU12" s="22">
+        <v>247742.35582213555</v>
+      </c>
+      <c r="CV12" s="22">
+        <v>152218.97196884826</v>
+      </c>
       <c r="CW12" s="9"/>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
@@ -24740,25 +24760,27 @@
       <c r="CO13" s="8">
         <v>3516.1748168786244</v>
       </c>
-      <c r="CP13" s="8">
+      <c r="CP13" s="22">
         <v>4148.4410851851435</v>
       </c>
-      <c r="CQ13" s="8">
+      <c r="CQ13" s="22">
         <v>3791.0875155057865</v>
       </c>
-      <c r="CR13" s="8">
+      <c r="CR13" s="22">
         <v>2916.7486740041568</v>
       </c>
-      <c r="CS13" s="8">
+      <c r="CS13" s="22">
         <v>3406.4832763381028</v>
       </c>
-      <c r="CT13" s="8">
+      <c r="CT13" s="22">
         <v>4044.0419168270791</v>
       </c>
-      <c r="CU13" s="8">
-        <v>3990.7833817943115</v>
-      </c>
-      <c r="CV13" s="9"/>
+      <c r="CU13" s="22">
+        <v>3570.7227179011898</v>
+      </c>
+      <c r="CV13" s="22">
+        <v>2749.1403741952581</v>
+      </c>
       <c r="CW13" s="9"/>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
@@ -25092,25 +25114,27 @@
       <c r="CO14" s="8">
         <v>27897.368896503729</v>
       </c>
-      <c r="CP14" s="8">
+      <c r="CP14" s="22">
         <v>29753.224998787417</v>
       </c>
-      <c r="CQ14" s="8">
+      <c r="CQ14" s="22">
         <v>32867.774477905201</v>
       </c>
-      <c r="CR14" s="8">
+      <c r="CR14" s="22">
         <v>26513.962323032938</v>
       </c>
-      <c r="CS14" s="8">
+      <c r="CS14" s="22">
         <v>32512.235543939976</v>
       </c>
-      <c r="CT14" s="8">
+      <c r="CT14" s="22">
         <v>34413.510365703682</v>
       </c>
-      <c r="CU14" s="8">
-        <v>37559.759234266479</v>
-      </c>
-      <c r="CV14" s="9"/>
+      <c r="CU14" s="22">
+        <v>36860.794103051332</v>
+      </c>
+      <c r="CV14" s="22">
+        <v>29786.501053066095</v>
+      </c>
       <c r="CW14" s="9"/>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
@@ -25444,25 +25468,27 @@
       <c r="CO15" s="8">
         <v>2655.3354367934808</v>
       </c>
-      <c r="CP15" s="8">
+      <c r="CP15" s="22">
         <v>2304.49992134892</v>
       </c>
-      <c r="CQ15" s="8">
+      <c r="CQ15" s="22">
         <v>2357.2866011283268</v>
       </c>
-      <c r="CR15" s="8">
+      <c r="CR15" s="22">
         <v>2634.5240339515221</v>
       </c>
-      <c r="CS15" s="8">
+      <c r="CS15" s="22">
         <v>2941.4129278523587</v>
       </c>
-      <c r="CT15" s="8">
+      <c r="CT15" s="22">
         <v>2805.8751371032754</v>
       </c>
-      <c r="CU15" s="8">
-        <v>2510.5935857600221</v>
-      </c>
-      <c r="CV15" s="9"/>
+      <c r="CU15" s="22">
+        <v>2534.0492119333121</v>
+      </c>
+      <c r="CV15" s="22">
+        <v>2832.279596921052</v>
+      </c>
       <c r="CW15" s="9"/>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
@@ -25609,13 +25635,13 @@
       <c r="CM16" s="10"/>
       <c r="CN16" s="10"/>
       <c r="CO16" s="10"/>
-      <c r="CP16" s="10"/>
-      <c r="CQ16" s="10"/>
-      <c r="CR16" s="10"/>
-      <c r="CS16" s="10"/>
-      <c r="CT16" s="10"/>
-      <c r="CU16" s="10"/>
-      <c r="CV16" s="9"/>
+      <c r="CP16" s="23"/>
+      <c r="CQ16" s="23"/>
+      <c r="CR16" s="23"/>
+      <c r="CS16" s="23"/>
+      <c r="CT16" s="23"/>
+      <c r="CU16" s="23"/>
+      <c r="CV16" s="23"/>
       <c r="CW16" s="9"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
@@ -25949,25 +25975,27 @@
       <c r="CO17" s="12">
         <v>168705.32484654261</v>
       </c>
-      <c r="CP17" s="12">
+      <c r="CP17" s="24">
         <v>218218.80428951123</v>
       </c>
-      <c r="CQ17" s="12">
+      <c r="CQ17" s="24">
         <v>274308.79734564817</v>
       </c>
-      <c r="CR17" s="12">
+      <c r="CR17" s="24">
         <v>172963.87170780139</v>
       </c>
-      <c r="CS17" s="12">
+      <c r="CS17" s="24">
         <v>178868.75938811232</v>
       </c>
-      <c r="CT17" s="12">
+      <c r="CT17" s="24">
         <v>227597.10504117308</v>
       </c>
-      <c r="CU17" s="12">
-        <v>291073.83355972648</v>
-      </c>
-      <c r="CV17" s="9"/>
+      <c r="CU17" s="24">
+        <v>290707.92185502144</v>
+      </c>
+      <c r="CV17" s="24">
+        <v>187586.89299303066</v>
+      </c>
       <c r="CW17" s="9"/>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
@@ -26115,12 +26143,13 @@
       <c r="CM18" s="13"/>
       <c r="CN18" s="13"/>
       <c r="CO18" s="13"/>
-      <c r="CP18" s="13"/>
-      <c r="CQ18" s="13"/>
-      <c r="CR18" s="13"/>
-      <c r="CS18" s="13"/>
-      <c r="CT18" s="13"/>
-      <c r="CU18" s="13"/>
+      <c r="CP18" s="25"/>
+      <c r="CQ18" s="25"/>
+      <c r="CR18" s="25"/>
+      <c r="CS18" s="25"/>
+      <c r="CT18" s="25"/>
+      <c r="CU18" s="25"/>
+      <c r="CV18" s="25"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26220,13 +26249,13 @@
       <c r="CM20" s="9"/>
       <c r="CN20" s="9"/>
       <c r="CO20" s="9"/>
-      <c r="CP20" s="9"/>
-      <c r="CQ20" s="9"/>
-      <c r="CR20" s="9"/>
-      <c r="CS20" s="9"/>
-      <c r="CT20" s="9"/>
-      <c r="CU20" s="9"/>
-      <c r="CV20" s="9"/>
+      <c r="CP20" s="26"/>
+      <c r="CQ20" s="26"/>
+      <c r="CR20" s="26"/>
+      <c r="CS20" s="26"/>
+      <c r="CT20" s="26"/>
+      <c r="CU20" s="26"/>
+      <c r="CV20" s="26"/>
       <c r="CW20" s="9"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
@@ -26373,13 +26402,13 @@
       <c r="CM21" s="9"/>
       <c r="CN21" s="9"/>
       <c r="CO21" s="9"/>
-      <c r="CP21" s="9"/>
-      <c r="CQ21" s="9"/>
-      <c r="CR21" s="9"/>
-      <c r="CS21" s="9"/>
-      <c r="CT21" s="9"/>
-      <c r="CU21" s="9"/>
-      <c r="CV21" s="9"/>
+      <c r="CP21" s="26"/>
+      <c r="CQ21" s="26"/>
+      <c r="CR21" s="26"/>
+      <c r="CS21" s="26"/>
+      <c r="CT21" s="26"/>
+      <c r="CU21" s="26"/>
+      <c r="CV21" s="26"/>
       <c r="CW21" s="9"/>
       <c r="CX21" s="9"/>
       <c r="CY21" s="9"/>
@@ -26465,154 +26494,155 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="20">
+      <c r="B30" s="30">
         <v>2000</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="20">
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="30">
         <v>2001</v>
       </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="20">
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="30">
         <v>2002</v>
       </c>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="20">
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="30">
         <v>2003</v>
       </c>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="20">
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="30">
         <v>2004</v>
       </c>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-      <c r="U30" s="21"/>
-      <c r="V30" s="20">
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="30">
         <v>2005</v>
       </c>
-      <c r="W30" s="21"/>
-      <c r="X30" s="21"/>
-      <c r="Y30" s="21"/>
-      <c r="Z30" s="20">
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="30">
         <v>2006</v>
       </c>
-      <c r="AA30" s="21"/>
-      <c r="AB30" s="21"/>
-      <c r="AC30" s="21"/>
-      <c r="AD30" s="20">
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="30">
         <v>2007</v>
       </c>
-      <c r="AE30" s="21"/>
-      <c r="AF30" s="21"/>
-      <c r="AG30" s="21"/>
-      <c r="AH30" s="20">
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="30">
         <v>2008</v>
       </c>
-      <c r="AI30" s="21"/>
-      <c r="AJ30" s="21"/>
-      <c r="AK30" s="21"/>
-      <c r="AL30" s="20">
+      <c r="AI30" s="31"/>
+      <c r="AJ30" s="31"/>
+      <c r="AK30" s="31"/>
+      <c r="AL30" s="30">
         <v>2009</v>
       </c>
-      <c r="AM30" s="21"/>
-      <c r="AN30" s="21"/>
-      <c r="AO30" s="21"/>
-      <c r="AP30" s="20">
+      <c r="AM30" s="31"/>
+      <c r="AN30" s="31"/>
+      <c r="AO30" s="31"/>
+      <c r="AP30" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="21"/>
-      <c r="AR30" s="21"/>
-      <c r="AS30" s="21"/>
-      <c r="AT30" s="20">
+      <c r="AQ30" s="31"/>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="31"/>
+      <c r="AT30" s="30">
         <v>2011</v>
       </c>
-      <c r="AU30" s="21"/>
-      <c r="AV30" s="21"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="20">
+      <c r="AU30" s="31"/>
+      <c r="AV30" s="31"/>
+      <c r="AW30" s="31"/>
+      <c r="AX30" s="30">
         <v>2012</v>
       </c>
-      <c r="AY30" s="21"/>
-      <c r="AZ30" s="21"/>
-      <c r="BA30" s="21"/>
-      <c r="BB30" s="20">
+      <c r="AY30" s="31"/>
+      <c r="AZ30" s="31"/>
+      <c r="BA30" s="31"/>
+      <c r="BB30" s="30">
         <v>2013</v>
       </c>
-      <c r="BC30" s="21"/>
-      <c r="BD30" s="21"/>
-      <c r="BE30" s="21"/>
-      <c r="BF30" s="20">
+      <c r="BC30" s="31"/>
+      <c r="BD30" s="31"/>
+      <c r="BE30" s="31"/>
+      <c r="BF30" s="30">
         <v>2014</v>
       </c>
-      <c r="BG30" s="21"/>
-      <c r="BH30" s="21"/>
-      <c r="BI30" s="21"/>
-      <c r="BJ30" s="20">
+      <c r="BG30" s="31"/>
+      <c r="BH30" s="31"/>
+      <c r="BI30" s="31"/>
+      <c r="BJ30" s="30">
         <v>2015</v>
       </c>
-      <c r="BK30" s="21"/>
-      <c r="BL30" s="21"/>
-      <c r="BM30" s="21"/>
-      <c r="BN30" s="20">
+      <c r="BK30" s="31"/>
+      <c r="BL30" s="31"/>
+      <c r="BM30" s="31"/>
+      <c r="BN30" s="30">
         <v>2016</v>
       </c>
-      <c r="BO30" s="21"/>
-      <c r="BP30" s="21"/>
-      <c r="BQ30" s="21"/>
-      <c r="BR30" s="20">
+      <c r="BO30" s="31"/>
+      <c r="BP30" s="31"/>
+      <c r="BQ30" s="31"/>
+      <c r="BR30" s="30">
         <v>2017</v>
       </c>
-      <c r="BS30" s="21"/>
-      <c r="BT30" s="21"/>
-      <c r="BU30" s="21"/>
-      <c r="BV30" s="20">
+      <c r="BS30" s="31"/>
+      <c r="BT30" s="31"/>
+      <c r="BU30" s="31"/>
+      <c r="BV30" s="30">
         <v>2018</v>
       </c>
-      <c r="BW30" s="21"/>
-      <c r="BX30" s="21"/>
-      <c r="BY30" s="21"/>
-      <c r="BZ30" s="20">
+      <c r="BW30" s="31"/>
+      <c r="BX30" s="31"/>
+      <c r="BY30" s="31"/>
+      <c r="BZ30" s="30">
         <v>2019</v>
       </c>
-      <c r="CA30" s="21"/>
-      <c r="CB30" s="21"/>
-      <c r="CC30" s="21"/>
-      <c r="CD30" s="20">
+      <c r="CA30" s="31"/>
+      <c r="CB30" s="31"/>
+      <c r="CC30" s="31"/>
+      <c r="CD30" s="30">
         <v>2020</v>
       </c>
-      <c r="CE30" s="20"/>
-      <c r="CF30" s="20"/>
-      <c r="CG30" s="20"/>
-      <c r="CH30" s="20">
+      <c r="CE30" s="30"/>
+      <c r="CF30" s="30"/>
+      <c r="CG30" s="30"/>
+      <c r="CH30" s="30">
         <v>2021</v>
       </c>
-      <c r="CI30" s="20"/>
-      <c r="CJ30" s="20"/>
-      <c r="CK30" s="20"/>
-      <c r="CL30" s="20">
+      <c r="CI30" s="30"/>
+      <c r="CJ30" s="30"/>
+      <c r="CK30" s="30"/>
+      <c r="CL30" s="30">
         <v>2022</v>
       </c>
-      <c r="CM30" s="20"/>
-      <c r="CN30" s="20"/>
-      <c r="CO30" s="20"/>
-      <c r="CP30" s="19">
+      <c r="CM30" s="30"/>
+      <c r="CN30" s="30"/>
+      <c r="CO30" s="30"/>
+      <c r="CP30" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ30" s="19"/>
-      <c r="CR30" s="19"/>
-      <c r="CS30" s="19"/>
-      <c r="CT30" s="19">
+      <c r="CQ30" s="20"/>
+      <c r="CR30" s="20"/>
+      <c r="CS30" s="20"/>
+      <c r="CT30" s="20">
         <v>2024</v>
       </c>
-      <c r="CU30" s="19"/>
+      <c r="CU30" s="20"/>
+      <c r="CV30" s="20"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26894,23 +26924,26 @@
       <c r="CO31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP31" s="6" t="s">
+      <c r="CP31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ31" s="6" t="s">
+      <c r="CQ31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR31" s="6" t="s">
+      <c r="CR31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS31" s="6" t="s">
+      <c r="CS31" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CT31" s="6" t="s">
+      <c r="CT31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CU31" s="6" t="s">
+      <c r="CU31" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CV31" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27196,25 +27229,27 @@
       <c r="CO33" s="8">
         <v>125214.52203908504</v>
       </c>
-      <c r="CP33" s="8">
+      <c r="CP33" s="22">
         <v>123261.26812878699</v>
       </c>
-      <c r="CQ33" s="8">
+      <c r="CQ33" s="22">
         <v>139501.43065425381</v>
       </c>
-      <c r="CR33" s="8">
+      <c r="CR33" s="22">
         <v>161864.921901925</v>
       </c>
-      <c r="CS33" s="8">
+      <c r="CS33" s="22">
         <v>132849.85935620285</v>
       </c>
-      <c r="CT33" s="8">
+      <c r="CT33" s="22">
         <v>132229.52046055967</v>
       </c>
-      <c r="CU33" s="8">
-        <v>153605.87482118729</v>
-      </c>
-      <c r="CV33" s="9"/>
+      <c r="CU33" s="22">
+        <v>154059.61597667262</v>
+      </c>
+      <c r="CV33" s="22">
+        <v>174869.76872774592</v>
+      </c>
       <c r="CW33" s="9"/>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
@@ -27548,25 +27583,27 @@
       <c r="CO34" s="8">
         <v>3122.9425284071531</v>
       </c>
-      <c r="CP34" s="8">
+      <c r="CP34" s="22">
         <v>3601.426196637979</v>
       </c>
-      <c r="CQ34" s="8">
+      <c r="CQ34" s="22">
         <v>3122.6829097258346</v>
       </c>
-      <c r="CR34" s="8">
+      <c r="CR34" s="22">
         <v>2606.3242432707143</v>
       </c>
-      <c r="CS34" s="8">
+      <c r="CS34" s="22">
         <v>2860.8272327730051</v>
       </c>
-      <c r="CT34" s="8">
+      <c r="CT34" s="22">
         <v>3136.320019703001</v>
       </c>
-      <c r="CU34" s="8">
+      <c r="CU34" s="22">
         <v>2932.239078335529</v>
       </c>
-      <c r="CV34" s="9"/>
+      <c r="CV34" s="22">
+        <v>2512.2591576883674</v>
+      </c>
       <c r="CW34" s="9"/>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
@@ -27900,25 +27937,27 @@
       <c r="CO35" s="8">
         <v>27573.404310465623</v>
       </c>
-      <c r="CP35" s="8">
+      <c r="CP35" s="22">
         <v>26257.392728886236</v>
       </c>
-      <c r="CQ35" s="8">
+      <c r="CQ35" s="22">
         <v>27343.620341405316</v>
       </c>
-      <c r="CR35" s="8">
+      <c r="CR35" s="22">
         <v>24052.228916587959</v>
       </c>
-      <c r="CS35" s="8">
+      <c r="CS35" s="22">
         <v>28782.598704177344</v>
       </c>
-      <c r="CT35" s="8">
+      <c r="CT35" s="22">
         <v>28038.956741938411</v>
       </c>
-      <c r="CU35" s="8">
-        <v>29031.071908196231</v>
-      </c>
-      <c r="CV35" s="9"/>
+      <c r="CU35" s="22">
+        <v>28490.676788464822</v>
+      </c>
+      <c r="CV35" s="22">
+        <v>25193.352253144767</v>
+      </c>
       <c r="CW35" s="9"/>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
@@ -28252,25 +28291,27 @@
       <c r="CO36" s="8">
         <v>2381.4317702289782</v>
       </c>
-      <c r="CP36" s="8">
+      <c r="CP36" s="22">
         <v>2006.5055051331201</v>
       </c>
-      <c r="CQ36" s="8">
+      <c r="CQ36" s="22">
         <v>2006.2200099951788</v>
       </c>
-      <c r="CR36" s="8">
+      <c r="CR36" s="22">
         <v>2254.1520579715079</v>
       </c>
-      <c r="CS36" s="8">
+      <c r="CS36" s="22">
         <v>2546.9543260567502</v>
       </c>
-      <c r="CT36" s="8">
+      <c r="CT36" s="22">
         <v>2375.6634539594706</v>
       </c>
-      <c r="CU36" s="8">
-        <v>2083.012578617589</v>
-      </c>
-      <c r="CV36" s="9"/>
+      <c r="CU36" s="22">
+        <v>2102.4734601539071</v>
+      </c>
+      <c r="CV36" s="22">
+        <v>2374.0002044938205</v>
+      </c>
       <c r="CW36" s="9"/>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
@@ -28417,13 +28458,13 @@
       <c r="CM37" s="10"/>
       <c r="CN37" s="10"/>
       <c r="CO37" s="10"/>
-      <c r="CP37" s="10"/>
-      <c r="CQ37" s="10"/>
-      <c r="CR37" s="10"/>
-      <c r="CS37" s="10"/>
-      <c r="CT37" s="10"/>
-      <c r="CU37" s="10"/>
-      <c r="CV37" s="9"/>
+      <c r="CP37" s="23"/>
+      <c r="CQ37" s="23"/>
+      <c r="CR37" s="23"/>
+      <c r="CS37" s="23"/>
+      <c r="CT37" s="23"/>
+      <c r="CU37" s="23"/>
+      <c r="CV37" s="23"/>
       <c r="CW37" s="9"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
@@ -28757,25 +28798,27 @@
       <c r="CO38" s="12">
         <v>158292.30064818679</v>
       </c>
-      <c r="CP38" s="12">
+      <c r="CP38" s="24">
         <v>155126.59255944434</v>
       </c>
-      <c r="CQ38" s="12">
+      <c r="CQ38" s="24">
         <v>171973.95391538015</v>
       </c>
-      <c r="CR38" s="12">
+      <c r="CR38" s="24">
         <v>190777.62711975517</v>
       </c>
-      <c r="CS38" s="12">
+      <c r="CS38" s="24">
         <v>167040.23961920995</v>
       </c>
-      <c r="CT38" s="12">
+      <c r="CT38" s="24">
         <v>165780.46067616055</v>
       </c>
-      <c r="CU38" s="12">
-        <v>187652.19838633662</v>
-      </c>
-      <c r="CV38" s="9"/>
+      <c r="CU38" s="24">
+        <v>187585.00530362688</v>
+      </c>
+      <c r="CV38" s="24">
+        <v>204949.38034307287</v>
+      </c>
       <c r="CW38" s="9"/>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
@@ -28923,12 +28966,13 @@
       <c r="CM39" s="13"/>
       <c r="CN39" s="13"/>
       <c r="CO39" s="13"/>
-      <c r="CP39" s="13"/>
-      <c r="CQ39" s="13"/>
-      <c r="CR39" s="13"/>
-      <c r="CS39" s="13"/>
-      <c r="CT39" s="13"/>
-      <c r="CU39" s="13"/>
+      <c r="CP39" s="25"/>
+      <c r="CQ39" s="25"/>
+      <c r="CR39" s="25"/>
+      <c r="CS39" s="25"/>
+      <c r="CT39" s="25"/>
+      <c r="CU39" s="25"/>
+      <c r="CV39" s="25"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29028,13 +29072,13 @@
       <c r="CM41" s="9"/>
       <c r="CN41" s="9"/>
       <c r="CO41" s="9"/>
-      <c r="CP41" s="9"/>
-      <c r="CQ41" s="9"/>
-      <c r="CR41" s="9"/>
-      <c r="CS41" s="9"/>
-      <c r="CT41" s="9"/>
-      <c r="CU41" s="9"/>
-      <c r="CV41" s="9"/>
+      <c r="CP41" s="26"/>
+      <c r="CQ41" s="26"/>
+      <c r="CR41" s="26"/>
+      <c r="CS41" s="26"/>
+      <c r="CT41" s="26"/>
+      <c r="CU41" s="26"/>
+      <c r="CV41" s="26"/>
       <c r="CW41" s="9"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
@@ -29181,13 +29225,13 @@
       <c r="CM42" s="9"/>
       <c r="CN42" s="9"/>
       <c r="CO42" s="9"/>
-      <c r="CP42" s="9"/>
-      <c r="CQ42" s="9"/>
-      <c r="CR42" s="9"/>
-      <c r="CS42" s="9"/>
-      <c r="CT42" s="9"/>
-      <c r="CU42" s="9"/>
-      <c r="CV42" s="9"/>
+      <c r="CP42" s="26"/>
+      <c r="CQ42" s="26"/>
+      <c r="CR42" s="26"/>
+      <c r="CS42" s="26"/>
+      <c r="CT42" s="26"/>
+      <c r="CU42" s="26"/>
+      <c r="CV42" s="26"/>
       <c r="CW42" s="9"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
@@ -29273,152 +29317,153 @@
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="20" t="s">
+      <c r="B51" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20" t="s">
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20" t="s">
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20" t="s">
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20" t="s">
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20" t="s">
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="20"/>
-      <c r="X51" s="20"/>
-      <c r="Y51" s="20"/>
-      <c r="Z51" s="20" t="s">
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="20"/>
-      <c r="AB51" s="20"/>
-      <c r="AC51" s="20"/>
-      <c r="AD51" s="20" t="s">
+      <c r="AA51" s="30"/>
+      <c r="AB51" s="30"/>
+      <c r="AC51" s="30"/>
+      <c r="AD51" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="20"/>
-      <c r="AF51" s="20"/>
-      <c r="AG51" s="20"/>
-      <c r="AH51" s="20" t="s">
+      <c r="AE51" s="30"/>
+      <c r="AF51" s="30"/>
+      <c r="AG51" s="30"/>
+      <c r="AH51" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="20"/>
-      <c r="AJ51" s="20"/>
-      <c r="AK51" s="20"/>
-      <c r="AL51" s="20" t="s">
+      <c r="AI51" s="30"/>
+      <c r="AJ51" s="30"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="20"/>
-      <c r="AN51" s="20"/>
-      <c r="AO51" s="20"/>
-      <c r="AP51" s="20" t="s">
+      <c r="AM51" s="30"/>
+      <c r="AN51" s="30"/>
+      <c r="AO51" s="30"/>
+      <c r="AP51" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="20"/>
-      <c r="AR51" s="20"/>
-      <c r="AS51" s="20"/>
-      <c r="AT51" s="20" t="s">
+      <c r="AQ51" s="30"/>
+      <c r="AR51" s="30"/>
+      <c r="AS51" s="30"/>
+      <c r="AT51" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="20"/>
-      <c r="AV51" s="20"/>
-      <c r="AW51" s="20"/>
-      <c r="AX51" s="20" t="s">
+      <c r="AU51" s="30"/>
+      <c r="AV51" s="30"/>
+      <c r="AW51" s="30"/>
+      <c r="AX51" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="20"/>
-      <c r="AZ51" s="20"/>
-      <c r="BA51" s="20"/>
-      <c r="BB51" s="20" t="s">
+      <c r="AY51" s="30"/>
+      <c r="AZ51" s="30"/>
+      <c r="BA51" s="30"/>
+      <c r="BB51" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="20"/>
-      <c r="BD51" s="20"/>
-      <c r="BE51" s="20"/>
-      <c r="BF51" s="20" t="s">
+      <c r="BC51" s="30"/>
+      <c r="BD51" s="30"/>
+      <c r="BE51" s="30"/>
+      <c r="BF51" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="20"/>
-      <c r="BH51" s="20"/>
-      <c r="BI51" s="20"/>
-      <c r="BJ51" s="20" t="s">
+      <c r="BG51" s="30"/>
+      <c r="BH51" s="30"/>
+      <c r="BI51" s="30"/>
+      <c r="BJ51" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="20"/>
-      <c r="BL51" s="20"/>
-      <c r="BM51" s="20"/>
-      <c r="BN51" s="20" t="s">
+      <c r="BK51" s="30"/>
+      <c r="BL51" s="30"/>
+      <c r="BM51" s="30"/>
+      <c r="BN51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="20"/>
-      <c r="BP51" s="20"/>
-      <c r="BQ51" s="20"/>
-      <c r="BR51" s="20" t="s">
+      <c r="BO51" s="30"/>
+      <c r="BP51" s="30"/>
+      <c r="BQ51" s="30"/>
+      <c r="BR51" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="20"/>
-      <c r="BT51" s="20"/>
-      <c r="BU51" s="20"/>
-      <c r="BV51" s="20" t="s">
+      <c r="BS51" s="30"/>
+      <c r="BT51" s="30"/>
+      <c r="BU51" s="30"/>
+      <c r="BV51" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="20"/>
-      <c r="BX51" s="20"/>
-      <c r="BY51" s="20"/>
-      <c r="BZ51" s="20" t="s">
+      <c r="BW51" s="30"/>
+      <c r="BX51" s="30"/>
+      <c r="BY51" s="30"/>
+      <c r="BZ51" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="20"/>
-      <c r="CB51" s="20"/>
-      <c r="CC51" s="20"/>
-      <c r="CD51" s="20" t="s">
+      <c r="CA51" s="30"/>
+      <c r="CB51" s="30"/>
+      <c r="CC51" s="30"/>
+      <c r="CD51" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="20"/>
-      <c r="CF51" s="20"/>
-      <c r="CG51" s="20"/>
-      <c r="CH51" s="20" t="s">
+      <c r="CE51" s="30"/>
+      <c r="CF51" s="30"/>
+      <c r="CG51" s="30"/>
+      <c r="CH51" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="20"/>
-      <c r="CJ51" s="20"/>
-      <c r="CK51" s="20"/>
-      <c r="CL51" s="20" t="s">
+      <c r="CI51" s="30"/>
+      <c r="CJ51" s="30"/>
+      <c r="CK51" s="30"/>
+      <c r="CL51" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="20"/>
-      <c r="CN51" s="20"/>
-      <c r="CO51" s="20"/>
-      <c r="CP51" s="19" t="s">
+      <c r="CM51" s="30"/>
+      <c r="CN51" s="30"/>
+      <c r="CO51" s="30"/>
+      <c r="CP51" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="CQ51" s="19"/>
-      <c r="CR51" s="18"/>
+      <c r="CQ51" s="20"/>
+      <c r="CR51" s="20"/>
       <c r="CS51" s="18"/>
-      <c r="CT51" s="19"/>
-      <c r="CU51" s="18"/>
+      <c r="CT51" s="20"/>
+      <c r="CU51" s="20"/>
+      <c r="CV51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29700,16 +29745,19 @@
       <c r="CO52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP52" s="5" t="s">
+      <c r="CP52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ52" s="5" t="s">
+      <c r="CQ52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR52" s="5"/>
-      <c r="CS52" s="5"/>
-      <c r="CT52" s="5"/>
-      <c r="CU52" s="5"/>
+      <c r="CR52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS52" s="27"/>
+      <c r="CT52" s="27"/>
+      <c r="CU52" s="27"/>
+      <c r="CV52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
@@ -29994,17 +30042,19 @@
       <c r="CO54" s="15">
         <v>3.9901394572837035</v>
       </c>
-      <c r="CP54" s="15">
+      <c r="CP54" s="28">
         <v>2.3740325826179856</v>
       </c>
-      <c r="CQ54" s="15">
-        <v>4.9810517536373169</v>
-      </c>
-      <c r="CR54" s="15"/>
-      <c r="CS54" s="15"/>
-      <c r="CT54" s="15"/>
-      <c r="CU54" s="15"/>
-      <c r="CV54" s="9"/>
+      <c r="CQ54" s="28">
+        <v>5.291158536872075</v>
+      </c>
+      <c r="CR54" s="28">
+        <v>8.0343824177671763</v>
+      </c>
+      <c r="CS54" s="28"/>
+      <c r="CT54" s="28"/>
+      <c r="CU54" s="28"/>
+      <c r="CV54" s="28"/>
       <c r="CW54" s="9"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
@@ -30334,17 +30384,19 @@
       <c r="CO55" s="15">
         <v>-3.1196270451051333</v>
       </c>
-      <c r="CP55" s="15">
+      <c r="CP55" s="28">
         <v>-2.5165879474796782</v>
       </c>
-      <c r="CQ55" s="15">
-        <v>5.2675087417992046</v>
-      </c>
-      <c r="CR55" s="15"/>
-      <c r="CS55" s="15"/>
-      <c r="CT55" s="15"/>
-      <c r="CU55" s="15"/>
-      <c r="CV55" s="9"/>
+      <c r="CQ55" s="28">
+        <v>-5.8127066891305219</v>
+      </c>
+      <c r="CR55" s="28">
+        <v>-5.7464087085296711</v>
+      </c>
+      <c r="CS55" s="28"/>
+      <c r="CT55" s="28"/>
+      <c r="CU55" s="28"/>
+      <c r="CV55" s="28"/>
       <c r="CW55" s="9"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
@@ -30674,17 +30726,19 @@
       <c r="CO56" s="15">
         <v>16.542300689921376</v>
       </c>
-      <c r="CP56" s="15">
+      <c r="CP56" s="28">
         <v>15.663126827784851</v>
       </c>
-      <c r="CQ56" s="15">
-        <v>14.275334521098728</v>
-      </c>
-      <c r="CR56" s="15"/>
-      <c r="CS56" s="15"/>
-      <c r="CT56" s="15"/>
-      <c r="CU56" s="15"/>
-      <c r="CV56" s="9"/>
+      <c r="CQ56" s="28">
+        <v>12.148737444424086</v>
+      </c>
+      <c r="CR56" s="28">
+        <v>12.342699631847438</v>
+      </c>
+      <c r="CS56" s="28"/>
+      <c r="CT56" s="28"/>
+      <c r="CU56" s="28"/>
+      <c r="CV56" s="28"/>
       <c r="CW56" s="9"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
@@ -31014,17 +31068,19 @@
       <c r="CO57" s="15">
         <v>10.773685580166784</v>
       </c>
-      <c r="CP57" s="15">
+      <c r="CP57" s="28">
         <v>21.756356383856129</v>
       </c>
-      <c r="CQ57" s="15">
-        <v>6.5035360807766978</v>
-      </c>
-      <c r="CR57" s="15"/>
-      <c r="CS57" s="15"/>
-      <c r="CT57" s="15"/>
-      <c r="CU57" s="15"/>
-      <c r="CV57" s="9"/>
+      <c r="CQ57" s="28">
+        <v>7.4985625727638165</v>
+      </c>
+      <c r="CR57" s="28">
+        <v>7.5063108334189792</v>
+      </c>
+      <c r="CS57" s="28"/>
+      <c r="CT57" s="28"/>
+      <c r="CU57" s="28"/>
+      <c r="CV57" s="28"/>
       <c r="CW57" s="9"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
@@ -31167,13 +31223,13 @@
       <c r="CM58" s="9"/>
       <c r="CN58" s="9"/>
       <c r="CO58" s="9"/>
-      <c r="CP58" s="9"/>
-      <c r="CQ58" s="9"/>
-      <c r="CR58" s="9"/>
-      <c r="CS58" s="9"/>
-      <c r="CT58" s="9"/>
-      <c r="CU58" s="9"/>
-      <c r="CV58" s="9"/>
+      <c r="CP58" s="26"/>
+      <c r="CQ58" s="26"/>
+      <c r="CR58" s="26"/>
+      <c r="CS58" s="26"/>
+      <c r="CT58" s="26"/>
+      <c r="CU58" s="26"/>
+      <c r="CV58" s="26"/>
       <c r="CW58" s="9"/>
       <c r="CX58" s="9"/>
       <c r="CY58" s="9"/>
@@ -31503,17 +31559,19 @@
       <c r="CO59" s="15">
         <v>6.0243709265339191</v>
       </c>
-      <c r="CP59" s="15">
+      <c r="CP59" s="28">
         <v>4.2976593067660929</v>
       </c>
-      <c r="CQ59" s="15">
-        <v>6.1117384408758966</v>
-      </c>
-      <c r="CR59" s="15"/>
-      <c r="CS59" s="15"/>
-      <c r="CT59" s="15"/>
-      <c r="CU59" s="15"/>
-      <c r="CV59" s="9"/>
+      <c r="CQ59" s="28">
+        <v>5.9783443579132722</v>
+      </c>
+      <c r="CR59" s="28">
+        <v>8.4543790219571804</v>
+      </c>
+      <c r="CS59" s="28"/>
+      <c r="CT59" s="28"/>
+      <c r="CU59" s="28"/>
+      <c r="CV59" s="28"/>
       <c r="CW59" s="9"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
@@ -31657,12 +31715,13 @@
       <c r="CM60" s="13"/>
       <c r="CN60" s="13"/>
       <c r="CO60" s="13"/>
-      <c r="CP60" s="13"/>
-      <c r="CQ60" s="13"/>
-      <c r="CR60" s="13"/>
-      <c r="CS60" s="13"/>
-      <c r="CT60" s="13"/>
-      <c r="CU60" s="13"/>
+      <c r="CP60" s="25"/>
+      <c r="CQ60" s="25"/>
+      <c r="CR60" s="25"/>
+      <c r="CS60" s="25"/>
+      <c r="CT60" s="25"/>
+      <c r="CU60" s="25"/>
+      <c r="CV60" s="25"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
@@ -31762,13 +31821,13 @@
       <c r="CM62" s="17"/>
       <c r="CN62" s="17"/>
       <c r="CO62" s="17"/>
-      <c r="CP62" s="17"/>
-      <c r="CQ62" s="17"/>
-      <c r="CR62" s="17"/>
-      <c r="CS62" s="17"/>
-      <c r="CT62" s="17"/>
-      <c r="CU62" s="17"/>
-      <c r="CV62" s="9"/>
+      <c r="CP62" s="29"/>
+      <c r="CQ62" s="29"/>
+      <c r="CR62" s="29"/>
+      <c r="CS62" s="29"/>
+      <c r="CT62" s="29"/>
+      <c r="CU62" s="29"/>
+      <c r="CV62" s="29"/>
       <c r="CW62" s="9"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
@@ -31911,13 +31970,13 @@
       <c r="CM63" s="9"/>
       <c r="CN63" s="9"/>
       <c r="CO63" s="9"/>
-      <c r="CP63" s="9"/>
-      <c r="CQ63" s="9"/>
-      <c r="CR63" s="9"/>
-      <c r="CS63" s="9"/>
-      <c r="CT63" s="9"/>
-      <c r="CU63" s="9"/>
-      <c r="CV63" s="9"/>
+      <c r="CP63" s="26"/>
+      <c r="CQ63" s="26"/>
+      <c r="CR63" s="26"/>
+      <c r="CS63" s="26"/>
+      <c r="CT63" s="26"/>
+      <c r="CU63" s="26"/>
+      <c r="CV63" s="26"/>
       <c r="CW63" s="9"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
@@ -31999,152 +32058,153 @@
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="20" t="s">
+      <c r="B72" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="20" t="s">
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="20" t="s">
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="20" t="s">
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="22"/>
-      <c r="P72" s="22"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="20" t="s">
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="20" t="s">
+      <c r="S72" s="32"/>
+      <c r="T72" s="32"/>
+      <c r="U72" s="32"/>
+      <c r="V72" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="22"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="20" t="s">
+      <c r="W72" s="32"/>
+      <c r="X72" s="32"/>
+      <c r="Y72" s="32"/>
+      <c r="Z72" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="22"/>
-      <c r="AD72" s="20" t="s">
+      <c r="AA72" s="32"/>
+      <c r="AB72" s="32"/>
+      <c r="AC72" s="32"/>
+      <c r="AD72" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="22"/>
-      <c r="AG72" s="22"/>
-      <c r="AH72" s="20" t="s">
+      <c r="AE72" s="32"/>
+      <c r="AF72" s="32"/>
+      <c r="AG72" s="32"/>
+      <c r="AH72" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="22"/>
-      <c r="AJ72" s="22"/>
-      <c r="AK72" s="22"/>
-      <c r="AL72" s="20" t="s">
+      <c r="AI72" s="32"/>
+      <c r="AJ72" s="32"/>
+      <c r="AK72" s="32"/>
+      <c r="AL72" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="22"/>
-      <c r="AN72" s="22"/>
-      <c r="AO72" s="22"/>
-      <c r="AP72" s="20" t="s">
+      <c r="AM72" s="32"/>
+      <c r="AN72" s="32"/>
+      <c r="AO72" s="32"/>
+      <c r="AP72" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="22"/>
-      <c r="AR72" s="22"/>
-      <c r="AS72" s="22"/>
-      <c r="AT72" s="20" t="s">
+      <c r="AQ72" s="32"/>
+      <c r="AR72" s="32"/>
+      <c r="AS72" s="32"/>
+      <c r="AT72" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="22"/>
-      <c r="AV72" s="22"/>
-      <c r="AW72" s="22"/>
-      <c r="AX72" s="20" t="s">
+      <c r="AU72" s="32"/>
+      <c r="AV72" s="32"/>
+      <c r="AW72" s="32"/>
+      <c r="AX72" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="22"/>
-      <c r="AZ72" s="22"/>
-      <c r="BA72" s="22"/>
-      <c r="BB72" s="20" t="s">
+      <c r="AY72" s="32"/>
+      <c r="AZ72" s="32"/>
+      <c r="BA72" s="32"/>
+      <c r="BB72" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="22"/>
-      <c r="BD72" s="22"/>
-      <c r="BE72" s="22"/>
-      <c r="BF72" s="20" t="s">
+      <c r="BC72" s="32"/>
+      <c r="BD72" s="32"/>
+      <c r="BE72" s="32"/>
+      <c r="BF72" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="22"/>
-      <c r="BH72" s="22"/>
-      <c r="BI72" s="22"/>
-      <c r="BJ72" s="20" t="s">
+      <c r="BG72" s="32"/>
+      <c r="BH72" s="32"/>
+      <c r="BI72" s="32"/>
+      <c r="BJ72" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="22"/>
-      <c r="BL72" s="22"/>
-      <c r="BM72" s="22"/>
-      <c r="BN72" s="20" t="s">
+      <c r="BK72" s="32"/>
+      <c r="BL72" s="32"/>
+      <c r="BM72" s="32"/>
+      <c r="BN72" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="22"/>
-      <c r="BP72" s="22"/>
-      <c r="BQ72" s="22"/>
-      <c r="BR72" s="20" t="s">
+      <c r="BO72" s="32"/>
+      <c r="BP72" s="32"/>
+      <c r="BQ72" s="32"/>
+      <c r="BR72" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="22"/>
-      <c r="BT72" s="22"/>
-      <c r="BU72" s="22"/>
-      <c r="BV72" s="20" t="s">
+      <c r="BS72" s="32"/>
+      <c r="BT72" s="32"/>
+      <c r="BU72" s="32"/>
+      <c r="BV72" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="22"/>
-      <c r="BX72" s="22"/>
-      <c r="BY72" s="22"/>
-      <c r="BZ72" s="20" t="s">
+      <c r="BW72" s="32"/>
+      <c r="BX72" s="32"/>
+      <c r="BY72" s="32"/>
+      <c r="BZ72" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="22"/>
-      <c r="CB72" s="22"/>
-      <c r="CC72" s="22"/>
-      <c r="CD72" s="20" t="s">
+      <c r="CA72" s="32"/>
+      <c r="CB72" s="32"/>
+      <c r="CC72" s="32"/>
+      <c r="CD72" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="20"/>
-      <c r="CF72" s="20"/>
-      <c r="CG72" s="20"/>
-      <c r="CH72" s="20" t="s">
+      <c r="CE72" s="30"/>
+      <c r="CF72" s="30"/>
+      <c r="CG72" s="30"/>
+      <c r="CH72" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="20"/>
-      <c r="CJ72" s="20"/>
-      <c r="CK72" s="20"/>
-      <c r="CL72" s="20" t="s">
+      <c r="CI72" s="30"/>
+      <c r="CJ72" s="30"/>
+      <c r="CK72" s="30"/>
+      <c r="CL72" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="20"/>
-      <c r="CN72" s="20"/>
-      <c r="CO72" s="20"/>
-      <c r="CP72" s="19" t="s">
+      <c r="CM72" s="30"/>
+      <c r="CN72" s="30"/>
+      <c r="CO72" s="30"/>
+      <c r="CP72" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="CQ72" s="19"/>
-      <c r="CR72" s="18"/>
+      <c r="CQ72" s="20"/>
+      <c r="CR72" s="20"/>
       <c r="CS72" s="18"/>
-      <c r="CT72" s="19"/>
-      <c r="CU72" s="18"/>
+      <c r="CT72" s="20"/>
+      <c r="CU72" s="20"/>
+      <c r="CV72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32426,16 +32486,19 @@
       <c r="CO73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CP73" s="5" t="s">
+      <c r="CP73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CQ73" s="5" t="s">
+      <c r="CQ73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CR73" s="5"/>
-      <c r="CS73" s="5"/>
-      <c r="CT73" s="5"/>
-      <c r="CU73" s="5"/>
+      <c r="CR73" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="CS73" s="27"/>
+      <c r="CT73" s="27"/>
+      <c r="CU73" s="27"/>
+      <c r="CV73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
@@ -32720,17 +32783,19 @@
       <c r="CO75" s="15">
         <v>6.0978049452878054</v>
       </c>
-      <c r="CP75" s="15">
+      <c r="CP75" s="28">
         <v>7.275807289604046</v>
       </c>
-      <c r="CQ75" s="15">
-        <v>10.110608974248095</v>
-      </c>
-      <c r="CR75" s="15"/>
-      <c r="CS75" s="15"/>
-      <c r="CT75" s="15"/>
-      <c r="CU75" s="15"/>
-      <c r="CV75" s="9"/>
+      <c r="CQ75" s="28">
+        <v>10.435868115575403</v>
+      </c>
+      <c r="CR75" s="28">
+        <v>8.0343824177672332</v>
+      </c>
+      <c r="CS75" s="28"/>
+      <c r="CT75" s="28"/>
+      <c r="CU75" s="28"/>
+      <c r="CV75" s="28"/>
       <c r="CW75" s="9"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
@@ -33060,17 +33125,19 @@
       <c r="CO76" s="15">
         <v>-8.3932154770660787</v>
       </c>
-      <c r="CP76" s="15">
+      <c r="CP76" s="28">
         <v>-12.914499743717258</v>
       </c>
-      <c r="CQ76" s="15">
+      <c r="CQ76" s="28">
         <v>-6.098724619049662</v>
       </c>
-      <c r="CR76" s="15"/>
-      <c r="CS76" s="15"/>
-      <c r="CT76" s="15"/>
-      <c r="CU76" s="15"/>
-      <c r="CV76" s="9"/>
+      <c r="CR76" s="28">
+        <v>-3.6091091054850182</v>
+      </c>
+      <c r="CS76" s="28"/>
+      <c r="CT76" s="28"/>
+      <c r="CU76" s="28"/>
+      <c r="CV76" s="28"/>
       <c r="CW76" s="9"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
@@ -33400,17 +33467,19 @@
       <c r="CO77" s="15">
         <v>4.3853648976262463</v>
       </c>
-      <c r="CP77" s="15">
+      <c r="CP77" s="28">
         <v>6.7849996816029829</v>
       </c>
-      <c r="CQ77" s="15">
-        <v>6.1712807072429712</v>
-      </c>
-      <c r="CR77" s="15"/>
-      <c r="CS77" s="15"/>
-      <c r="CT77" s="15"/>
-      <c r="CU77" s="15"/>
-      <c r="CV77" s="9"/>
+      <c r="CQ77" s="28">
+        <v>4.1949691838083538</v>
+      </c>
+      <c r="CR77" s="28">
+        <v>4.744355878676231</v>
+      </c>
+      <c r="CS77" s="28"/>
+      <c r="CT77" s="28"/>
+      <c r="CU77" s="28"/>
+      <c r="CV77" s="28"/>
       <c r="CW77" s="9"/>
       <c r="CX77" s="9"/>
       <c r="CY77" s="9"/>
@@ -33740,17 +33809,19 @@
       <c r="CO78" s="15">
         <v>6.9505478971525037</v>
       </c>
-      <c r="CP78" s="15">
+      <c r="CP78" s="28">
         <v>18.398053126789662</v>
       </c>
-      <c r="CQ78" s="15">
-        <v>3.8277241897609571</v>
-      </c>
-      <c r="CR78" s="15"/>
-      <c r="CS78" s="15"/>
-      <c r="CT78" s="15"/>
-      <c r="CU78" s="15"/>
-      <c r="CV78" s="9"/>
+      <c r="CQ78" s="28">
+        <v>4.7977514768661678</v>
+      </c>
+      <c r="CR78" s="28">
+        <v>5.316772934571361</v>
+      </c>
+      <c r="CS78" s="28"/>
+      <c r="CT78" s="28"/>
+      <c r="CU78" s="28"/>
+      <c r="CV78" s="28"/>
       <c r="CW78" s="9"/>
       <c r="CX78" s="9"/>
       <c r="CY78" s="9"/>
@@ -33893,13 +33964,13 @@
       <c r="CM79" s="9"/>
       <c r="CN79" s="9"/>
       <c r="CO79" s="9"/>
-      <c r="CP79" s="9"/>
-      <c r="CQ79" s="9"/>
-      <c r="CR79" s="9"/>
-      <c r="CS79" s="9"/>
-      <c r="CT79" s="9"/>
-      <c r="CU79" s="9"/>
-      <c r="CV79" s="9"/>
+      <c r="CP79" s="26"/>
+      <c r="CQ79" s="26"/>
+      <c r="CR79" s="26"/>
+      <c r="CS79" s="26"/>
+      <c r="CT79" s="26"/>
+      <c r="CU79" s="26"/>
+      <c r="CV79" s="26"/>
       <c r="CW79" s="9"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
@@ -34229,17 +34300,19 @@
       <c r="CO80" s="15">
         <v>5.5264462865227699</v>
       </c>
-      <c r="CP80" s="15">
+      <c r="CP80" s="28">
         <v>6.8678541447583683</v>
       </c>
-      <c r="CQ80" s="15">
-        <v>9.1166389525887013</v>
-      </c>
-      <c r="CR80" s="15"/>
-      <c r="CS80" s="15"/>
-      <c r="CT80" s="15"/>
-      <c r="CU80" s="15"/>
-      <c r="CV80" s="9"/>
+      <c r="CQ80" s="28">
+        <v>9.0775672901770861</v>
+      </c>
+      <c r="CR80" s="28">
+        <v>7.4284146612337167</v>
+      </c>
+      <c r="CS80" s="28"/>
+      <c r="CT80" s="28"/>
+      <c r="CU80" s="28"/>
+      <c r="CV80" s="28"/>
       <c r="CW80" s="9"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
@@ -34383,12 +34456,13 @@
       <c r="CM81" s="13"/>
       <c r="CN81" s="13"/>
       <c r="CO81" s="13"/>
-      <c r="CP81" s="13"/>
-      <c r="CQ81" s="13"/>
-      <c r="CR81" s="13"/>
-      <c r="CS81" s="13"/>
-      <c r="CT81" s="13"/>
-      <c r="CU81" s="13"/>
+      <c r="CP81" s="25"/>
+      <c r="CQ81" s="25"/>
+      <c r="CR81" s="25"/>
+      <c r="CS81" s="25"/>
+      <c r="CT81" s="25"/>
+      <c r="CU81" s="25"/>
+      <c r="CV81" s="25"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34488,13 +34562,13 @@
       <c r="CM83" s="9"/>
       <c r="CN83" s="9"/>
       <c r="CO83" s="9"/>
-      <c r="CP83" s="9"/>
-      <c r="CQ83" s="9"/>
-      <c r="CR83" s="9"/>
-      <c r="CS83" s="9"/>
-      <c r="CT83" s="9"/>
-      <c r="CU83" s="9"/>
-      <c r="CV83" s="9"/>
+      <c r="CP83" s="26"/>
+      <c r="CQ83" s="26"/>
+      <c r="CR83" s="26"/>
+      <c r="CS83" s="26"/>
+      <c r="CT83" s="26"/>
+      <c r="CU83" s="26"/>
+      <c r="CV83" s="26"/>
       <c r="CW83" s="9"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
@@ -34637,13 +34711,13 @@
       <c r="CM84" s="9"/>
       <c r="CN84" s="9"/>
       <c r="CO84" s="9"/>
-      <c r="CP84" s="9"/>
-      <c r="CQ84" s="9"/>
-      <c r="CR84" s="9"/>
-      <c r="CS84" s="9"/>
-      <c r="CT84" s="9"/>
-      <c r="CU84" s="9"/>
-      <c r="CV84" s="9"/>
+      <c r="CP84" s="26"/>
+      <c r="CQ84" s="26"/>
+      <c r="CR84" s="26"/>
+      <c r="CS84" s="26"/>
+      <c r="CT84" s="26"/>
+      <c r="CU84" s="26"/>
+      <c r="CV84" s="26"/>
       <c r="CW84" s="9"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
@@ -34720,154 +34794,155 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="20">
+      <c r="B92" s="30">
         <v>2000</v>
       </c>
-      <c r="C92" s="21"/>
-      <c r="D92" s="21"/>
-      <c r="E92" s="21"/>
-      <c r="F92" s="20">
+      <c r="C92" s="31"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="30">
         <v>2001</v>
       </c>
-      <c r="G92" s="21"/>
-      <c r="H92" s="21"/>
-      <c r="I92" s="21"/>
-      <c r="J92" s="20">
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="30">
         <v>2002</v>
       </c>
-      <c r="K92" s="21"/>
-      <c r="L92" s="21"/>
-      <c r="M92" s="21"/>
-      <c r="N92" s="20">
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="30">
         <v>2003</v>
       </c>
-      <c r="O92" s="21"/>
-      <c r="P92" s="21"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="20">
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="30">
         <v>2004</v>
       </c>
-      <c r="S92" s="21"/>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="20">
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+      <c r="V92" s="30">
         <v>2005</v>
       </c>
-      <c r="W92" s="21"/>
-      <c r="X92" s="21"/>
-      <c r="Y92" s="21"/>
-      <c r="Z92" s="20">
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="30">
         <v>2006</v>
       </c>
-      <c r="AA92" s="21"/>
-      <c r="AB92" s="21"/>
-      <c r="AC92" s="21"/>
-      <c r="AD92" s="20">
+      <c r="AA92" s="31"/>
+      <c r="AB92" s="31"/>
+      <c r="AC92" s="31"/>
+      <c r="AD92" s="30">
         <v>2007</v>
       </c>
-      <c r="AE92" s="21"/>
-      <c r="AF92" s="21"/>
-      <c r="AG92" s="21"/>
-      <c r="AH92" s="20">
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
+      <c r="AG92" s="31"/>
+      <c r="AH92" s="30">
         <v>2008</v>
       </c>
-      <c r="AI92" s="21"/>
-      <c r="AJ92" s="21"/>
-      <c r="AK92" s="21"/>
-      <c r="AL92" s="20">
+      <c r="AI92" s="31"/>
+      <c r="AJ92" s="31"/>
+      <c r="AK92" s="31"/>
+      <c r="AL92" s="30">
         <v>2009</v>
       </c>
-      <c r="AM92" s="21"/>
-      <c r="AN92" s="21"/>
-      <c r="AO92" s="21"/>
-      <c r="AP92" s="20">
+      <c r="AM92" s="31"/>
+      <c r="AN92" s="31"/>
+      <c r="AO92" s="31"/>
+      <c r="AP92" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="21"/>
-      <c r="AR92" s="21"/>
-      <c r="AS92" s="21"/>
-      <c r="AT92" s="20">
+      <c r="AQ92" s="31"/>
+      <c r="AR92" s="31"/>
+      <c r="AS92" s="31"/>
+      <c r="AT92" s="30">
         <v>2011</v>
       </c>
-      <c r="AU92" s="21"/>
-      <c r="AV92" s="21"/>
-      <c r="AW92" s="21"/>
-      <c r="AX92" s="20">
+      <c r="AU92" s="31"/>
+      <c r="AV92" s="31"/>
+      <c r="AW92" s="31"/>
+      <c r="AX92" s="30">
         <v>2012</v>
       </c>
-      <c r="AY92" s="21"/>
-      <c r="AZ92" s="21"/>
-      <c r="BA92" s="21"/>
-      <c r="BB92" s="20">
+      <c r="AY92" s="31"/>
+      <c r="AZ92" s="31"/>
+      <c r="BA92" s="31"/>
+      <c r="BB92" s="30">
         <v>2013</v>
       </c>
-      <c r="BC92" s="21"/>
-      <c r="BD92" s="21"/>
-      <c r="BE92" s="21"/>
-      <c r="BF92" s="20">
+      <c r="BC92" s="31"/>
+      <c r="BD92" s="31"/>
+      <c r="BE92" s="31"/>
+      <c r="BF92" s="30">
         <v>2014</v>
       </c>
-      <c r="BG92" s="21"/>
-      <c r="BH92" s="21"/>
-      <c r="BI92" s="21"/>
-      <c r="BJ92" s="20">
+      <c r="BG92" s="31"/>
+      <c r="BH92" s="31"/>
+      <c r="BI92" s="31"/>
+      <c r="BJ92" s="30">
         <v>2015</v>
       </c>
-      <c r="BK92" s="21"/>
-      <c r="BL92" s="21"/>
-      <c r="BM92" s="21"/>
-      <c r="BN92" s="20">
+      <c r="BK92" s="31"/>
+      <c r="BL92" s="31"/>
+      <c r="BM92" s="31"/>
+      <c r="BN92" s="30">
         <v>2016</v>
       </c>
-      <c r="BO92" s="21"/>
-      <c r="BP92" s="21"/>
-      <c r="BQ92" s="21"/>
-      <c r="BR92" s="20">
+      <c r="BO92" s="31"/>
+      <c r="BP92" s="31"/>
+      <c r="BQ92" s="31"/>
+      <c r="BR92" s="30">
         <v>2017</v>
       </c>
-      <c r="BS92" s="21"/>
-      <c r="BT92" s="21"/>
-      <c r="BU92" s="21"/>
-      <c r="BV92" s="20">
+      <c r="BS92" s="31"/>
+      <c r="BT92" s="31"/>
+      <c r="BU92" s="31"/>
+      <c r="BV92" s="30">
         <v>2018</v>
       </c>
-      <c r="BW92" s="21"/>
-      <c r="BX92" s="21"/>
-      <c r="BY92" s="21"/>
-      <c r="BZ92" s="20">
+      <c r="BW92" s="31"/>
+      <c r="BX92" s="31"/>
+      <c r="BY92" s="31"/>
+      <c r="BZ92" s="30">
         <v>2019</v>
       </c>
-      <c r="CA92" s="21"/>
-      <c r="CB92" s="21"/>
-      <c r="CC92" s="21"/>
-      <c r="CD92" s="20">
+      <c r="CA92" s="31"/>
+      <c r="CB92" s="31"/>
+      <c r="CC92" s="31"/>
+      <c r="CD92" s="30">
         <v>2020</v>
       </c>
-      <c r="CE92" s="20"/>
-      <c r="CF92" s="20"/>
-      <c r="CG92" s="20"/>
-      <c r="CH92" s="20">
+      <c r="CE92" s="30"/>
+      <c r="CF92" s="30"/>
+      <c r="CG92" s="30"/>
+      <c r="CH92" s="30">
         <v>2021</v>
       </c>
-      <c r="CI92" s="20"/>
-      <c r="CJ92" s="20"/>
-      <c r="CK92" s="20"/>
-      <c r="CL92" s="20">
+      <c r="CI92" s="30"/>
+      <c r="CJ92" s="30"/>
+      <c r="CK92" s="30"/>
+      <c r="CL92" s="30">
         <v>2022</v>
       </c>
-      <c r="CM92" s="20"/>
-      <c r="CN92" s="20"/>
-      <c r="CO92" s="20"/>
-      <c r="CP92" s="19">
+      <c r="CM92" s="30"/>
+      <c r="CN92" s="30"/>
+      <c r="CO92" s="30"/>
+      <c r="CP92" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ92" s="19"/>
-      <c r="CR92" s="19"/>
-      <c r="CS92" s="19"/>
-      <c r="CT92" s="19">
+      <c r="CQ92" s="20"/>
+      <c r="CR92" s="20"/>
+      <c r="CS92" s="20"/>
+      <c r="CT92" s="20">
         <v>2024</v>
       </c>
-      <c r="CU92" s="19"/>
+      <c r="CU92" s="20"/>
+      <c r="CV92" s="20"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35149,23 +35224,26 @@
       <c r="CO93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP93" s="6" t="s">
+      <c r="CP93" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ93" s="6" t="s">
+      <c r="CQ93" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR93" s="6" t="s">
+      <c r="CR93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS93" s="6" t="s">
+      <c r="CS93" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CT93" s="6" t="s">
+      <c r="CT93" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CU93" s="6" t="s">
+      <c r="CU93" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CV93" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35451,25 +35529,27 @@
       <c r="CO95" s="15">
         <v>107.52462534205156</v>
       </c>
-      <c r="CP95" s="15">
+      <c r="CP95" s="28">
         <v>147.66409679804494</v>
       </c>
-      <c r="CQ95" s="15">
+      <c r="CQ95" s="28">
         <v>168.6668356357348</v>
       </c>
-      <c r="CR95" s="15">
+      <c r="CR95" s="28">
         <v>87.047048255572108</v>
       </c>
-      <c r="CS95" s="15">
+      <c r="CS95" s="28">
         <v>105.38861562855297</v>
       </c>
-      <c r="CT95" s="15">
+      <c r="CT95" s="28">
         <v>140.91685198020295</v>
       </c>
-      <c r="CU95" s="15">
+      <c r="CU95" s="28">
         <v>160.80940761247138</v>
       </c>
-      <c r="CV95" s="9"/>
+      <c r="CV95" s="28">
+        <v>87.047048255572065</v>
+      </c>
       <c r="CW95" s="9"/>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
@@ -35803,25 +35883,27 @@
       <c r="CO96" s="15">
         <v>112.59172350738194</v>
       </c>
-      <c r="CP96" s="15">
+      <c r="CP96" s="28">
         <v>115.18884071698641</v>
       </c>
-      <c r="CQ96" s="15">
+      <c r="CQ96" s="28">
         <v>121.40481839184358</v>
       </c>
-      <c r="CR96" s="15">
+      <c r="CR96" s="28">
         <v>111.91043023656513</v>
       </c>
-      <c r="CS96" s="15">
+      <c r="CS96" s="28">
         <v>119.07336581930508</v>
       </c>
-      <c r="CT96" s="15">
+      <c r="CT96" s="28">
         <v>128.94226008256763</v>
       </c>
-      <c r="CU96" s="15">
-        <v>136.10020449149937</v>
-      </c>
-      <c r="CV96" s="9"/>
+      <c r="CU96" s="28">
+        <v>121.77461054533427</v>
+      </c>
+      <c r="CV96" s="28">
+        <v>109.42901196247823</v>
+      </c>
       <c r="CW96" s="9"/>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
@@ -36155,25 +36237,27 @@
       <c r="CO97" s="15">
         <v>101.17491689597118</v>
       </c>
-      <c r="CP97" s="15">
+      <c r="CP97" s="28">
         <v>113.31370675678454</v>
       </c>
-      <c r="CQ97" s="15">
+      <c r="CQ97" s="28">
         <v>120.20271663929918</v>
       </c>
-      <c r="CR97" s="15">
+      <c r="CR97" s="28">
         <v>110.23494918072731</v>
       </c>
-      <c r="CS97" s="15">
+      <c r="CS97" s="28">
         <v>112.9579572647182</v>
       </c>
-      <c r="CT97" s="15">
+      <c r="CT97" s="28">
         <v>122.7346319709204</v>
       </c>
-      <c r="CU97" s="15">
-        <v>129.37778995222831</v>
-      </c>
-      <c r="CV97" s="9"/>
+      <c r="CU97" s="28">
+        <v>129.37844325963982</v>
+      </c>
+      <c r="CV97" s="28">
+        <v>118.23159043611588</v>
+      </c>
       <c r="CW97" s="9"/>
       <c r="CX97" s="9"/>
       <c r="CY97" s="9"/>
@@ -36507,25 +36591,27 @@
       <c r="CO98" s="15">
         <v>111.50163821565909</v>
       </c>
-      <c r="CP98" s="15">
+      <c r="CP98" s="28">
         <v>114.85141283955909</v>
       </c>
-      <c r="CQ98" s="15">
+      <c r="CQ98" s="28">
         <v>117.49890786574258</v>
       </c>
-      <c r="CR98" s="15">
+      <c r="CR98" s="28">
         <v>116.87428204476622</v>
       </c>
-      <c r="CS98" s="15">
+      <c r="CS98" s="28">
         <v>115.48746272204724</v>
       </c>
-      <c r="CT98" s="15">
+      <c r="CT98" s="28">
         <v>118.10911736789905</v>
       </c>
-      <c r="CU98" s="15">
+      <c r="CU98" s="28">
         <v>120.52704873372397</v>
       </c>
-      <c r="CV98" s="9"/>
+      <c r="CV98" s="28">
+        <v>119.30410079829564</v>
+      </c>
       <c r="CW98" s="9"/>
       <c r="CX98" s="9"/>
       <c r="CY98" s="9"/>
@@ -36672,13 +36758,13 @@
       <c r="CM99" s="15"/>
       <c r="CN99" s="15"/>
       <c r="CO99" s="15"/>
-      <c r="CP99" s="15"/>
-      <c r="CQ99" s="15"/>
-      <c r="CR99" s="15"/>
-      <c r="CS99" s="15"/>
-      <c r="CT99" s="15"/>
-      <c r="CU99" s="15"/>
-      <c r="CV99" s="9"/>
+      <c r="CP99" s="28"/>
+      <c r="CQ99" s="28"/>
+      <c r="CR99" s="28"/>
+      <c r="CS99" s="28"/>
+      <c r="CT99" s="28"/>
+      <c r="CU99" s="28"/>
+      <c r="CV99" s="28"/>
       <c r="CW99" s="9"/>
       <c r="CX99" s="9"/>
       <c r="CY99" s="9"/>
@@ -37012,25 +37098,27 @@
       <c r="CO100" s="15">
         <v>106.57835166695779</v>
       </c>
-      <c r="CP100" s="15">
+      <c r="CP100" s="28">
         <v>140.67143530268032</v>
       </c>
-      <c r="CQ100" s="15">
+      <c r="CQ100" s="28">
         <v>159.50601303300959</v>
       </c>
-      <c r="CR100" s="15">
+      <c r="CR100" s="28">
         <v>90.662555310654056</v>
       </c>
-      <c r="CS100" s="15">
+      <c r="CS100" s="28">
         <v>107.08123970359897</v>
       </c>
-      <c r="CT100" s="15">
+      <c r="CT100" s="28">
         <v>137.28825707980545</v>
       </c>
-      <c r="CU100" s="15">
-        <v>155.11346846066058</v>
-      </c>
-      <c r="CV100" s="9"/>
+      <c r="CU100" s="28">
+        <v>154.97396574128024</v>
+      </c>
+      <c r="CV100" s="28">
+        <v>91.528402124964487</v>
+      </c>
       <c r="CW100" s="9"/>
       <c r="CX100" s="9"/>
       <c r="CY100" s="9"/>
@@ -37178,12 +37266,13 @@
       <c r="CM101" s="13"/>
       <c r="CN101" s="13"/>
       <c r="CO101" s="13"/>
-      <c r="CP101" s="13"/>
-      <c r="CQ101" s="13"/>
-      <c r="CR101" s="13"/>
-      <c r="CS101" s="13"/>
-      <c r="CT101" s="13"/>
-      <c r="CU101" s="13"/>
+      <c r="CP101" s="25"/>
+      <c r="CQ101" s="25"/>
+      <c r="CR101" s="25"/>
+      <c r="CS101" s="25"/>
+      <c r="CT101" s="25"/>
+      <c r="CU101" s="25"/>
+      <c r="CV101" s="25"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37222,154 +37311,155 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="20">
+      <c r="B113" s="30">
         <v>2000</v>
       </c>
-      <c r="C113" s="21"/>
-      <c r="D113" s="21"/>
-      <c r="E113" s="21"/>
-      <c r="F113" s="20">
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="30">
         <v>2001</v>
       </c>
-      <c r="G113" s="21"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="21"/>
-      <c r="J113" s="20">
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="30">
         <v>2002</v>
       </c>
-      <c r="K113" s="21"/>
-      <c r="L113" s="21"/>
-      <c r="M113" s="21"/>
-      <c r="N113" s="20">
+      <c r="K113" s="31"/>
+      <c r="L113" s="31"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="30">
         <v>2003</v>
       </c>
-      <c r="O113" s="21"/>
-      <c r="P113" s="21"/>
-      <c r="Q113" s="21"/>
-      <c r="R113" s="20">
+      <c r="O113" s="31"/>
+      <c r="P113" s="31"/>
+      <c r="Q113" s="31"/>
+      <c r="R113" s="30">
         <v>2004</v>
       </c>
-      <c r="S113" s="21"/>
-      <c r="T113" s="21"/>
-      <c r="U113" s="21"/>
-      <c r="V113" s="20">
+      <c r="S113" s="31"/>
+      <c r="T113" s="31"/>
+      <c r="U113" s="31"/>
+      <c r="V113" s="30">
         <v>2005</v>
       </c>
-      <c r="W113" s="21"/>
-      <c r="X113" s="21"/>
-      <c r="Y113" s="21"/>
-      <c r="Z113" s="20">
+      <c r="W113" s="31"/>
+      <c r="X113" s="31"/>
+      <c r="Y113" s="31"/>
+      <c r="Z113" s="30">
         <v>2006</v>
       </c>
-      <c r="AA113" s="21"/>
-      <c r="AB113" s="21"/>
-      <c r="AC113" s="21"/>
-      <c r="AD113" s="20">
+      <c r="AA113" s="31"/>
+      <c r="AB113" s="31"/>
+      <c r="AC113" s="31"/>
+      <c r="AD113" s="30">
         <v>2007</v>
       </c>
-      <c r="AE113" s="21"/>
-      <c r="AF113" s="21"/>
-      <c r="AG113" s="21"/>
-      <c r="AH113" s="20">
+      <c r="AE113" s="31"/>
+      <c r="AF113" s="31"/>
+      <c r="AG113" s="31"/>
+      <c r="AH113" s="30">
         <v>2008</v>
       </c>
-      <c r="AI113" s="21"/>
-      <c r="AJ113" s="21"/>
-      <c r="AK113" s="21"/>
-      <c r="AL113" s="20">
+      <c r="AI113" s="31"/>
+      <c r="AJ113" s="31"/>
+      <c r="AK113" s="31"/>
+      <c r="AL113" s="30">
         <v>2009</v>
       </c>
-      <c r="AM113" s="21"/>
-      <c r="AN113" s="21"/>
-      <c r="AO113" s="21"/>
-      <c r="AP113" s="20">
+      <c r="AM113" s="31"/>
+      <c r="AN113" s="31"/>
+      <c r="AO113" s="31"/>
+      <c r="AP113" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="21"/>
-      <c r="AR113" s="21"/>
-      <c r="AS113" s="21"/>
-      <c r="AT113" s="20">
+      <c r="AQ113" s="31"/>
+      <c r="AR113" s="31"/>
+      <c r="AS113" s="31"/>
+      <c r="AT113" s="30">
         <v>2011</v>
       </c>
-      <c r="AU113" s="21"/>
-      <c r="AV113" s="21"/>
-      <c r="AW113" s="21"/>
-      <c r="AX113" s="20">
+      <c r="AU113" s="31"/>
+      <c r="AV113" s="31"/>
+      <c r="AW113" s="31"/>
+      <c r="AX113" s="30">
         <v>2012</v>
       </c>
-      <c r="AY113" s="21"/>
-      <c r="AZ113" s="21"/>
-      <c r="BA113" s="21"/>
-      <c r="BB113" s="20">
+      <c r="AY113" s="31"/>
+      <c r="AZ113" s="31"/>
+      <c r="BA113" s="31"/>
+      <c r="BB113" s="30">
         <v>2013</v>
       </c>
-      <c r="BC113" s="21"/>
-      <c r="BD113" s="21"/>
-      <c r="BE113" s="21"/>
-      <c r="BF113" s="20">
+      <c r="BC113" s="31"/>
+      <c r="BD113" s="31"/>
+      <c r="BE113" s="31"/>
+      <c r="BF113" s="30">
         <v>2014</v>
       </c>
-      <c r="BG113" s="21"/>
-      <c r="BH113" s="21"/>
-      <c r="BI113" s="21"/>
-      <c r="BJ113" s="20">
+      <c r="BG113" s="31"/>
+      <c r="BH113" s="31"/>
+      <c r="BI113" s="31"/>
+      <c r="BJ113" s="30">
         <v>2015</v>
       </c>
-      <c r="BK113" s="21"/>
-      <c r="BL113" s="21"/>
-      <c r="BM113" s="21"/>
-      <c r="BN113" s="20">
+      <c r="BK113" s="31"/>
+      <c r="BL113" s="31"/>
+      <c r="BM113" s="31"/>
+      <c r="BN113" s="30">
         <v>2016</v>
       </c>
-      <c r="BO113" s="21"/>
-      <c r="BP113" s="21"/>
-      <c r="BQ113" s="21"/>
-      <c r="BR113" s="20">
+      <c r="BO113" s="31"/>
+      <c r="BP113" s="31"/>
+      <c r="BQ113" s="31"/>
+      <c r="BR113" s="30">
         <v>2017</v>
       </c>
-      <c r="BS113" s="21"/>
-      <c r="BT113" s="21"/>
-      <c r="BU113" s="21"/>
-      <c r="BV113" s="20">
+      <c r="BS113" s="31"/>
+      <c r="BT113" s="31"/>
+      <c r="BU113" s="31"/>
+      <c r="BV113" s="30">
         <v>2018</v>
       </c>
-      <c r="BW113" s="21"/>
-      <c r="BX113" s="21"/>
-      <c r="BY113" s="21"/>
-      <c r="BZ113" s="20">
+      <c r="BW113" s="31"/>
+      <c r="BX113" s="31"/>
+      <c r="BY113" s="31"/>
+      <c r="BZ113" s="30">
         <v>2019</v>
       </c>
-      <c r="CA113" s="21"/>
-      <c r="CB113" s="21"/>
-      <c r="CC113" s="21"/>
-      <c r="CD113" s="20">
+      <c r="CA113" s="31"/>
+      <c r="CB113" s="31"/>
+      <c r="CC113" s="31"/>
+      <c r="CD113" s="30">
         <v>2020</v>
       </c>
-      <c r="CE113" s="20"/>
-      <c r="CF113" s="20"/>
-      <c r="CG113" s="20"/>
-      <c r="CH113" s="20">
+      <c r="CE113" s="30"/>
+      <c r="CF113" s="30"/>
+      <c r="CG113" s="30"/>
+      <c r="CH113" s="30">
         <v>2021</v>
       </c>
-      <c r="CI113" s="20"/>
-      <c r="CJ113" s="20"/>
-      <c r="CK113" s="20"/>
-      <c r="CL113" s="20">
+      <c r="CI113" s="30"/>
+      <c r="CJ113" s="30"/>
+      <c r="CK113" s="30"/>
+      <c r="CL113" s="30">
         <v>2022</v>
       </c>
-      <c r="CM113" s="20"/>
-      <c r="CN113" s="20"/>
-      <c r="CO113" s="20"/>
-      <c r="CP113" s="19">
+      <c r="CM113" s="30"/>
+      <c r="CN113" s="30"/>
+      <c r="CO113" s="30"/>
+      <c r="CP113" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ113" s="19"/>
-      <c r="CR113" s="19"/>
-      <c r="CS113" s="19"/>
-      <c r="CT113" s="19">
+      <c r="CQ113" s="20"/>
+      <c r="CR113" s="20"/>
+      <c r="CS113" s="20"/>
+      <c r="CT113" s="20">
         <v>2024</v>
       </c>
-      <c r="CU113" s="19"/>
+      <c r="CU113" s="20"/>
+      <c r="CV113" s="20"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37651,23 +37741,26 @@
       <c r="CO114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP114" s="6" t="s">
+      <c r="CP114" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ114" s="6" t="s">
+      <c r="CQ114" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR114" s="6" t="s">
+      <c r="CR114" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS114" s="6" t="s">
+      <c r="CS114" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CT114" s="6" t="s">
+      <c r="CT114" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CU114" s="6" t="s">
+      <c r="CU114" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CV114" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -37953,25 +38046,27 @@
       <c r="CO116" s="15">
         <v>79.805688302271733</v>
       </c>
-      <c r="CP116" s="15">
+      <c r="CP116" s="28">
         <v>83.408319863540854</v>
       </c>
-      <c r="CQ116" s="15">
+      <c r="CQ116" s="28">
         <v>85.776559493505317</v>
       </c>
-      <c r="CR116" s="15">
+      <c r="CR116" s="28">
         <v>81.461310553247557</v>
       </c>
-      <c r="CS116" s="15">
+      <c r="CS116" s="28">
         <v>78.274500320197831</v>
       </c>
-      <c r="CT116" s="15">
+      <c r="CT116" s="28">
         <v>81.869968244029579</v>
       </c>
-      <c r="CU116" s="15">
-        <v>84.8625568080204</v>
-      </c>
-      <c r="CV116" s="9"/>
+      <c r="CU116" s="28">
+        <v>85.22036628423453</v>
+      </c>
+      <c r="CV116" s="28">
+        <v>81.14584635425652</v>
+      </c>
       <c r="CW116" s="9"/>
       <c r="CX116" s="9"/>
       <c r="CY116" s="9"/>
@@ -38305,25 +38400,27 @@
       <c r="CO117" s="15">
         <v>2.0842109281832095</v>
       </c>
-      <c r="CP117" s="15">
+      <c r="CP117" s="28">
         <v>1.9010465659418612</v>
       </c>
-      <c r="CQ117" s="15">
+      <c r="CQ117" s="28">
         <v>1.3820510141090199</v>
       </c>
-      <c r="CR117" s="15">
+      <c r="CR117" s="28">
         <v>1.6863340564737137</v>
       </c>
-      <c r="CS117" s="15">
+      <c r="CS117" s="28">
         <v>1.9044596093757546</v>
       </c>
-      <c r="CT117" s="15">
+      <c r="CT117" s="28">
         <v>1.7768424234110969</v>
       </c>
-      <c r="CU117" s="15">
-        <v>1.3710553549209459</v>
-      </c>
-      <c r="CV117" s="9"/>
+      <c r="CU117" s="28">
+        <v>1.2282853164496632</v>
+      </c>
+      <c r="CV117" s="28">
+        <v>1.4655290304837001</v>
+      </c>
       <c r="CW117" s="9"/>
       <c r="CX117" s="9"/>
       <c r="CY117" s="9"/>
@@ -38657,25 +38754,27 @@
       <c r="CO118" s="15">
         <v>16.536151969049982</v>
       </c>
-      <c r="CP118" s="15">
+      <c r="CP118" s="28">
         <v>13.634583461154781</v>
       </c>
-      <c r="CQ118" s="15">
+      <c r="CQ118" s="28">
         <v>11.982034406461093</v>
       </c>
-      <c r="CR118" s="15">
+      <c r="CR118" s="28">
         <v>15.329191039285142</v>
       </c>
-      <c r="CS118" s="15">
+      <c r="CS118" s="28">
         <v>18.176586931759505</v>
       </c>
-      <c r="CT118" s="15">
+      <c r="CT118" s="28">
         <v>15.12036383743904</v>
       </c>
-      <c r="CU118" s="15">
-        <v>12.903859744080865</v>
-      </c>
-      <c r="CV118" s="9"/>
+      <c r="CU118" s="28">
+        <v>12.679666198238012</v>
+      </c>
+      <c r="CV118" s="28">
+        <v>15.878775205351229</v>
+      </c>
       <c r="CW118" s="9"/>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
@@ -39009,25 +39108,27 @@
       <c r="CO119" s="15">
         <v>1.5739488004950772</v>
       </c>
-      <c r="CP119" s="15">
+      <c r="CP119" s="28">
         <v>1.0560501093624985</v>
       </c>
-      <c r="CQ119" s="15">
+      <c r="CQ119" s="28">
         <v>0.85935508592456178</v>
       </c>
-      <c r="CR119" s="15">
+      <c r="CR119" s="28">
         <v>1.5231643509935922</v>
       </c>
-      <c r="CS119" s="15">
+      <c r="CS119" s="28">
         <v>1.6444531386669001</v>
       </c>
-      <c r="CT119" s="15">
+      <c r="CT119" s="28">
         <v>1.2328254951202842</v>
       </c>
-      <c r="CU119" s="15">
-        <v>0.86252809297777855</v>
-      </c>
-      <c r="CV119" s="9"/>
+      <c r="CU119" s="28">
+        <v>0.87168220107777616</v>
+      </c>
+      <c r="CV119" s="28">
+        <v>1.5098494099085475</v>
+      </c>
       <c r="CW119" s="9"/>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
@@ -39174,13 +39275,13 @@
       <c r="CM120" s="9"/>
       <c r="CN120" s="9"/>
       <c r="CO120" s="9"/>
-      <c r="CP120" s="9"/>
-      <c r="CQ120" s="9"/>
-      <c r="CR120" s="9"/>
-      <c r="CS120" s="9"/>
-      <c r="CT120" s="9"/>
-      <c r="CU120" s="9"/>
-      <c r="CV120" s="9"/>
+      <c r="CP120" s="26"/>
+      <c r="CQ120" s="26"/>
+      <c r="CR120" s="26"/>
+      <c r="CS120" s="26"/>
+      <c r="CT120" s="26"/>
+      <c r="CU120" s="26"/>
+      <c r="CV120" s="26"/>
       <c r="CW120" s="9"/>
       <c r="CX120" s="9"/>
       <c r="CY120" s="9"/>
@@ -39514,25 +39615,27 @@
       <c r="CO121" s="15">
         <v>100</v>
       </c>
-      <c r="CP121" s="15">
+      <c r="CP121" s="28">
         <v>100</v>
       </c>
-      <c r="CQ121" s="15">
+      <c r="CQ121" s="28">
         <v>100</v>
       </c>
-      <c r="CR121" s="15">
+      <c r="CR121" s="28">
         <v>100</v>
       </c>
-      <c r="CS121" s="15">
+      <c r="CS121" s="28">
         <v>100</v>
       </c>
-      <c r="CT121" s="15">
+      <c r="CT121" s="28">
         <v>100</v>
       </c>
-      <c r="CU121" s="15">
+      <c r="CU121" s="28">
         <v>100</v>
       </c>
-      <c r="CV121" s="9"/>
+      <c r="CV121" s="28">
+        <v>100</v>
+      </c>
       <c r="CW121" s="9"/>
       <c r="CX121" s="9"/>
       <c r="CY121" s="9"/>
@@ -39680,12 +39783,13 @@
       <c r="CM122" s="13"/>
       <c r="CN122" s="13"/>
       <c r="CO122" s="13"/>
-      <c r="CP122" s="13"/>
-      <c r="CQ122" s="13"/>
-      <c r="CR122" s="13"/>
-      <c r="CS122" s="13"/>
-      <c r="CT122" s="13"/>
-      <c r="CU122" s="13"/>
+      <c r="CP122" s="25"/>
+      <c r="CQ122" s="25"/>
+      <c r="CR122" s="25"/>
+      <c r="CS122" s="25"/>
+      <c r="CT122" s="25"/>
+      <c r="CU122" s="25"/>
+      <c r="CV122" s="25"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39785,13 +39889,13 @@
       <c r="CM124" s="9"/>
       <c r="CN124" s="9"/>
       <c r="CO124" s="9"/>
-      <c r="CP124" s="9"/>
-      <c r="CQ124" s="9"/>
-      <c r="CR124" s="9"/>
-      <c r="CS124" s="9"/>
-      <c r="CT124" s="9"/>
-      <c r="CU124" s="9"/>
-      <c r="CV124" s="9"/>
+      <c r="CP124" s="26"/>
+      <c r="CQ124" s="26"/>
+      <c r="CR124" s="26"/>
+      <c r="CS124" s="26"/>
+      <c r="CT124" s="26"/>
+      <c r="CU124" s="26"/>
+      <c r="CV124" s="26"/>
       <c r="CW124" s="9"/>
       <c r="CX124" s="9"/>
       <c r="CY124" s="9"/>
@@ -39938,13 +40042,13 @@
       <c r="CM125" s="9"/>
       <c r="CN125" s="9"/>
       <c r="CO125" s="9"/>
-      <c r="CP125" s="9"/>
-      <c r="CQ125" s="9"/>
-      <c r="CR125" s="9"/>
-      <c r="CS125" s="9"/>
-      <c r="CT125" s="9"/>
-      <c r="CU125" s="9"/>
-      <c r="CV125" s="9"/>
+      <c r="CP125" s="26"/>
+      <c r="CQ125" s="26"/>
+      <c r="CR125" s="26"/>
+      <c r="CS125" s="26"/>
+      <c r="CT125" s="26"/>
+      <c r="CU125" s="26"/>
+      <c r="CV125" s="26"/>
       <c r="CW125" s="9"/>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
@@ -40030,154 +40134,155 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="20">
+      <c r="B134" s="30">
         <v>2000</v>
       </c>
-      <c r="C134" s="21"/>
-      <c r="D134" s="21"/>
-      <c r="E134" s="21"/>
-      <c r="F134" s="20">
+      <c r="C134" s="31"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="30">
         <v>2001</v>
       </c>
-      <c r="G134" s="21"/>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="20">
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+      <c r="J134" s="30">
         <v>2002</v>
       </c>
-      <c r="K134" s="21"/>
-      <c r="L134" s="21"/>
-      <c r="M134" s="21"/>
-      <c r="N134" s="20">
+      <c r="K134" s="31"/>
+      <c r="L134" s="31"/>
+      <c r="M134" s="31"/>
+      <c r="N134" s="30">
         <v>2003</v>
       </c>
-      <c r="O134" s="21"/>
-      <c r="P134" s="21"/>
-      <c r="Q134" s="21"/>
-      <c r="R134" s="20">
+      <c r="O134" s="31"/>
+      <c r="P134" s="31"/>
+      <c r="Q134" s="31"/>
+      <c r="R134" s="30">
         <v>2004</v>
       </c>
-      <c r="S134" s="21"/>
-      <c r="T134" s="21"/>
-      <c r="U134" s="21"/>
-      <c r="V134" s="20">
+      <c r="S134" s="31"/>
+      <c r="T134" s="31"/>
+      <c r="U134" s="31"/>
+      <c r="V134" s="30">
         <v>2005</v>
       </c>
-      <c r="W134" s="21"/>
-      <c r="X134" s="21"/>
-      <c r="Y134" s="21"/>
-      <c r="Z134" s="20">
+      <c r="W134" s="31"/>
+      <c r="X134" s="31"/>
+      <c r="Y134" s="31"/>
+      <c r="Z134" s="30">
         <v>2006</v>
       </c>
-      <c r="AA134" s="21"/>
-      <c r="AB134" s="21"/>
-      <c r="AC134" s="21"/>
-      <c r="AD134" s="20">
+      <c r="AA134" s="31"/>
+      <c r="AB134" s="31"/>
+      <c r="AC134" s="31"/>
+      <c r="AD134" s="30">
         <v>2007</v>
       </c>
-      <c r="AE134" s="21"/>
-      <c r="AF134" s="21"/>
-      <c r="AG134" s="21"/>
-      <c r="AH134" s="20">
+      <c r="AE134" s="31"/>
+      <c r="AF134" s="31"/>
+      <c r="AG134" s="31"/>
+      <c r="AH134" s="30">
         <v>2008</v>
       </c>
-      <c r="AI134" s="21"/>
-      <c r="AJ134" s="21"/>
-      <c r="AK134" s="21"/>
-      <c r="AL134" s="20">
+      <c r="AI134" s="31"/>
+      <c r="AJ134" s="31"/>
+      <c r="AK134" s="31"/>
+      <c r="AL134" s="30">
         <v>2009</v>
       </c>
-      <c r="AM134" s="21"/>
-      <c r="AN134" s="21"/>
-      <c r="AO134" s="21"/>
-      <c r="AP134" s="20">
+      <c r="AM134" s="31"/>
+      <c r="AN134" s="31"/>
+      <c r="AO134" s="31"/>
+      <c r="AP134" s="30">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="21"/>
-      <c r="AR134" s="21"/>
-      <c r="AS134" s="21"/>
-      <c r="AT134" s="20">
+      <c r="AQ134" s="31"/>
+      <c r="AR134" s="31"/>
+      <c r="AS134" s="31"/>
+      <c r="AT134" s="30">
         <v>2011</v>
       </c>
-      <c r="AU134" s="21"/>
-      <c r="AV134" s="21"/>
-      <c r="AW134" s="21"/>
-      <c r="AX134" s="20">
+      <c r="AU134" s="31"/>
+      <c r="AV134" s="31"/>
+      <c r="AW134" s="31"/>
+      <c r="AX134" s="30">
         <v>2012</v>
       </c>
-      <c r="AY134" s="21"/>
-      <c r="AZ134" s="21"/>
-      <c r="BA134" s="21"/>
-      <c r="BB134" s="20">
+      <c r="AY134" s="31"/>
+      <c r="AZ134" s="31"/>
+      <c r="BA134" s="31"/>
+      <c r="BB134" s="30">
         <v>2013</v>
       </c>
-      <c r="BC134" s="21"/>
-      <c r="BD134" s="21"/>
-      <c r="BE134" s="21"/>
-      <c r="BF134" s="20">
+      <c r="BC134" s="31"/>
+      <c r="BD134" s="31"/>
+      <c r="BE134" s="31"/>
+      <c r="BF134" s="30">
         <v>2014</v>
       </c>
-      <c r="BG134" s="21"/>
-      <c r="BH134" s="21"/>
-      <c r="BI134" s="21"/>
-      <c r="BJ134" s="20">
+      <c r="BG134" s="31"/>
+      <c r="BH134" s="31"/>
+      <c r="BI134" s="31"/>
+      <c r="BJ134" s="30">
         <v>2015</v>
       </c>
-      <c r="BK134" s="21"/>
-      <c r="BL134" s="21"/>
-      <c r="BM134" s="21"/>
-      <c r="BN134" s="20">
+      <c r="BK134" s="31"/>
+      <c r="BL134" s="31"/>
+      <c r="BM134" s="31"/>
+      <c r="BN134" s="30">
         <v>2016</v>
       </c>
-      <c r="BO134" s="21"/>
-      <c r="BP134" s="21"/>
-      <c r="BQ134" s="21"/>
-      <c r="BR134" s="20">
+      <c r="BO134" s="31"/>
+      <c r="BP134" s="31"/>
+      <c r="BQ134" s="31"/>
+      <c r="BR134" s="30">
         <v>2017</v>
       </c>
-      <c r="BS134" s="21"/>
-      <c r="BT134" s="21"/>
-      <c r="BU134" s="21"/>
-      <c r="BV134" s="20">
+      <c r="BS134" s="31"/>
+      <c r="BT134" s="31"/>
+      <c r="BU134" s="31"/>
+      <c r="BV134" s="30">
         <v>2018</v>
       </c>
-      <c r="BW134" s="21"/>
-      <c r="BX134" s="21"/>
-      <c r="BY134" s="21"/>
-      <c r="BZ134" s="20">
+      <c r="BW134" s="31"/>
+      <c r="BX134" s="31"/>
+      <c r="BY134" s="31"/>
+      <c r="BZ134" s="30">
         <v>2019</v>
       </c>
-      <c r="CA134" s="21"/>
-      <c r="CB134" s="21"/>
-      <c r="CC134" s="21"/>
-      <c r="CD134" s="20">
+      <c r="CA134" s="31"/>
+      <c r="CB134" s="31"/>
+      <c r="CC134" s="31"/>
+      <c r="CD134" s="30">
         <v>2020</v>
       </c>
-      <c r="CE134" s="20"/>
-      <c r="CF134" s="20"/>
-      <c r="CG134" s="20"/>
-      <c r="CH134" s="20">
+      <c r="CE134" s="30"/>
+      <c r="CF134" s="30"/>
+      <c r="CG134" s="30"/>
+      <c r="CH134" s="30">
         <v>2021</v>
       </c>
-      <c r="CI134" s="20"/>
-      <c r="CJ134" s="20"/>
-      <c r="CK134" s="20"/>
-      <c r="CL134" s="20">
+      <c r="CI134" s="30"/>
+      <c r="CJ134" s="30"/>
+      <c r="CK134" s="30"/>
+      <c r="CL134" s="30">
         <v>2022</v>
       </c>
-      <c r="CM134" s="20"/>
-      <c r="CN134" s="20"/>
-      <c r="CO134" s="20"/>
-      <c r="CP134" s="19">
+      <c r="CM134" s="30"/>
+      <c r="CN134" s="30"/>
+      <c r="CO134" s="30"/>
+      <c r="CP134" s="20">
         <v>2023</v>
       </c>
-      <c r="CQ134" s="19"/>
-      <c r="CR134" s="19"/>
-      <c r="CS134" s="19"/>
-      <c r="CT134" s="19">
+      <c r="CQ134" s="20"/>
+      <c r="CR134" s="20"/>
+      <c r="CS134" s="20"/>
+      <c r="CT134" s="20">
         <v>2024</v>
       </c>
-      <c r="CU134" s="19"/>
+      <c r="CU134" s="20"/>
+      <c r="CV134" s="20"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40459,23 +40564,26 @@
       <c r="CO135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CP135" s="6" t="s">
+      <c r="CP135" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CQ135" s="6" t="s">
+      <c r="CQ135" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CR135" s="6" t="s">
+      <c r="CR135" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CS135" s="6" t="s">
+      <c r="CS135" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="CT135" s="6" t="s">
+      <c r="CT135" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CU135" s="6" t="s">
+      <c r="CU135" s="21" t="s">
         <v>8</v>
+      </c>
+      <c r="CV135" s="21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40761,25 +40869,27 @@
       <c r="CO137" s="15">
         <v>79.103355960048304</v>
       </c>
-      <c r="CP137" s="15">
+      <c r="CP137" s="28">
         <v>79.458502952389296</v>
       </c>
-      <c r="CQ137" s="15">
+      <c r="CQ137" s="28">
         <v>81.117766660697669</v>
       </c>
-      <c r="CR137" s="15">
+      <c r="CR137" s="28">
         <v>84.844813485555591</v>
       </c>
-      <c r="CS137" s="15">
+      <c r="CS137" s="28">
         <v>79.531650373018778</v>
       </c>
-      <c r="CT137" s="15">
+      <c r="CT137" s="28">
         <v>79.761824717606444</v>
       </c>
-      <c r="CU137" s="15">
-        <v>81.856688140122358</v>
-      </c>
-      <c r="CV137" s="9"/>
+      <c r="CU137" s="28">
+        <v>82.127894885473523</v>
+      </c>
+      <c r="CV137" s="28">
+        <v>85.32339470118157</v>
+      </c>
       <c r="CW137" s="9"/>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
@@ -41113,25 +41223,27 @@
       <c r="CO138" s="15">
         <v>1.9728960382906189</v>
       </c>
-      <c r="CP138" s="15">
+      <c r="CP138" s="28">
         <v>2.3216046566986357</v>
       </c>
-      <c r="CQ138" s="15">
+      <c r="CQ138" s="28">
         <v>1.8157882857437542</v>
       </c>
-      <c r="CR138" s="15">
+      <c r="CR138" s="28">
         <v>1.3661582244309336</v>
       </c>
-      <c r="CS138" s="15">
+      <c r="CS138" s="28">
         <v>1.7126575244950766</v>
       </c>
-      <c r="CT138" s="15">
+      <c r="CT138" s="28">
         <v>1.8918514322562789</v>
       </c>
-      <c r="CU138" s="15">
-        <v>1.562592446851415</v>
-      </c>
-      <c r="CV138" s="9"/>
+      <c r="CU138" s="28">
+        <v>1.563152168580521</v>
+      </c>
+      <c r="CV138" s="28">
+        <v>1.2257949516524507</v>
+      </c>
       <c r="CW138" s="9"/>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
@@ -41465,25 +41577,27 @@
       <c r="CO139" s="15">
         <v>17.41929594652175</v>
       </c>
-      <c r="CP139" s="15">
+      <c r="CP139" s="28">
         <v>16.926429115513791</v>
       </c>
-      <c r="CQ139" s="15">
+      <c r="CQ139" s="28">
         <v>15.899861414397529</v>
       </c>
-      <c r="CR139" s="15">
+      <c r="CR139" s="28">
         <v>12.607468328290855</v>
       </c>
-      <c r="CS139" s="15">
+      <c r="CS139" s="28">
         <v>17.230937150108883</v>
       </c>
-      <c r="CT139" s="15">
+      <c r="CT139" s="28">
         <v>16.913306084189479</v>
       </c>
-      <c r="CU139" s="15">
-        <v>15.470680417197846</v>
-      </c>
-      <c r="CV139" s="9"/>
+      <c r="CU139" s="28">
+        <v>15.188141899908011</v>
+      </c>
+      <c r="CV139" s="28">
+        <v>12.29247544489894</v>
+      </c>
       <c r="CW139" s="9"/>
       <c r="CX139" s="9"/>
       <c r="CY139" s="9"/>
@@ -41817,25 +41931,27 @@
       <c r="CO140" s="15">
         <v>1.504452055139333</v>
       </c>
-      <c r="CP140" s="15">
+      <c r="CP140" s="28">
         <v>1.2934632753982716</v>
       </c>
-      <c r="CQ140" s="15">
+      <c r="CQ140" s="28">
         <v>1.1665836391610442</v>
       </c>
-      <c r="CR140" s="15">
+      <c r="CR140" s="28">
         <v>1.1815599617226231</v>
       </c>
-      <c r="CS140" s="15">
+      <c r="CS140" s="28">
         <v>1.5247549523772628</v>
       </c>
-      <c r="CT140" s="15">
+      <c r="CT140" s="28">
         <v>1.4330177659477901</v>
       </c>
-      <c r="CU140" s="15">
-        <v>1.1100389958283898</v>
-      </c>
-      <c r="CV140" s="9"/>
+      <c r="CU140" s="28">
+        <v>1.1208110460379408</v>
+      </c>
+      <c r="CV140" s="28">
+        <v>1.158334902267032</v>
+      </c>
       <c r="CW140" s="9"/>
       <c r="CX140" s="9"/>
       <c r="CY140" s="9"/>
@@ -41982,13 +42098,13 @@
       <c r="CM141" s="9"/>
       <c r="CN141" s="9"/>
       <c r="CO141" s="9"/>
-      <c r="CP141" s="9"/>
-      <c r="CQ141" s="9"/>
-      <c r="CR141" s="9"/>
-      <c r="CS141" s="9"/>
-      <c r="CT141" s="9"/>
-      <c r="CU141" s="9"/>
-      <c r="CV141" s="9"/>
+      <c r="CP141" s="26"/>
+      <c r="CQ141" s="26"/>
+      <c r="CR141" s="26"/>
+      <c r="CS141" s="26"/>
+      <c r="CT141" s="26"/>
+      <c r="CU141" s="26"/>
+      <c r="CV141" s="26"/>
       <c r="CW141" s="9"/>
       <c r="CX141" s="9"/>
       <c r="CY141" s="9"/>
@@ -42322,25 +42438,27 @@
       <c r="CO142" s="15">
         <v>100</v>
       </c>
-      <c r="CP142" s="15">
+      <c r="CP142" s="28">
         <v>100</v>
       </c>
-      <c r="CQ142" s="15">
+      <c r="CQ142" s="28">
         <v>100</v>
       </c>
-      <c r="CR142" s="15">
+      <c r="CR142" s="28">
         <v>100</v>
       </c>
-      <c r="CS142" s="15">
+      <c r="CS142" s="28">
         <v>100</v>
       </c>
-      <c r="CT142" s="15">
+      <c r="CT142" s="28">
         <v>100</v>
       </c>
-      <c r="CU142" s="15">
+      <c r="CU142" s="28">
         <v>100</v>
       </c>
-      <c r="CV142" s="9"/>
+      <c r="CV142" s="28">
+        <v>100</v>
+      </c>
       <c r="CW142" s="9"/>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
@@ -42488,12 +42606,13 @@
       <c r="CM143" s="13"/>
       <c r="CN143" s="13"/>
       <c r="CO143" s="13"/>
-      <c r="CP143" s="13"/>
-      <c r="CQ143" s="13"/>
-      <c r="CR143" s="13"/>
-      <c r="CS143" s="13"/>
-      <c r="CT143" s="13"/>
-      <c r="CU143" s="13"/>
+      <c r="CP143" s="25"/>
+      <c r="CQ143" s="25"/>
+      <c r="CR143" s="25"/>
+      <c r="CS143" s="25"/>
+      <c r="CT143" s="25"/>
+      <c r="CU143" s="25"/>
+      <c r="CV143" s="25"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
@@ -42669,9 +42788,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="97" man="1"/>
-    <brk id="84" max="97" man="1"/>
-    <brk id="104" max="97" man="1"/>
+    <brk id="42" max="99" man="1"/>
+    <brk id="84" max="99" man="1"/>
+    <brk id="104" max="99" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of November 2024\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A338E8C4-8B7F-4271-B998-E523E7516678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E298044-8B75-4680-9E89-B2B1A322C768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="975" windowWidth="12660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ESWW" sheetId="5" r:id="rId1"/>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CV$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CW$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="55">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -628,13 +628,13 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>As of November 2024</t>
+    <t>Q1 2000 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q3 2024</t>
+    <t>Q1 2001 to Q4 2024</t>
   </si>
   <si>
-    <t>Q1 2001 to Q3 2024</t>
+    <t>As of January 2025</t>
   </si>
 </sst>
 </file>
@@ -722,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -769,6 +769,18 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -23623,20 +23635,20 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV144"/>
+  <dimension ref="A1:EV145"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" sqref="A1:A1048576"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="100" width="10.109375" style="19" customWidth="1"/>
-    <col min="101" max="16384" width="7.77734375" style="1"/>
+    <col min="94" max="101" width="10.109375" style="19" customWidth="1"/>
+    <col min="102" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23651,7 +23663,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23661,7 +23673,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23671,144 +23683,144 @@
     </row>
     <row r="9" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
-      <c r="B9" s="30">
+      <c r="B9" s="34">
         <v>2000</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30">
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34">
         <v>2001</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30">
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34">
         <v>2002</v>
       </c>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34">
         <v>2003</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30">
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34">
         <v>2004</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30">
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34">
         <v>2005</v>
       </c>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30">
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34">
         <v>2006</v>
       </c>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30">
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34">
         <v>2007</v>
       </c>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-      <c r="AH9" s="30">
+      <c r="AE9" s="34"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34">
         <v>2008</v>
       </c>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="30"/>
-      <c r="AK9" s="30"/>
-      <c r="AL9" s="30">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34">
         <v>2009</v>
       </c>
-      <c r="AM9" s="30"/>
-      <c r="AN9" s="30"/>
-      <c r="AO9" s="30"/>
-      <c r="AP9" s="30">
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ9" s="30"/>
-      <c r="AR9" s="30"/>
-      <c r="AS9" s="30"/>
-      <c r="AT9" s="30">
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34">
         <v>2011</v>
       </c>
-      <c r="AU9" s="30"/>
-      <c r="AV9" s="30"/>
-      <c r="AW9" s="30"/>
-      <c r="AX9" s="30">
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34">
         <v>2012</v>
       </c>
-      <c r="AY9" s="30"/>
-      <c r="AZ9" s="30"/>
-      <c r="BA9" s="30"/>
-      <c r="BB9" s="30">
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34">
         <v>2013</v>
       </c>
-      <c r="BC9" s="30"/>
-      <c r="BD9" s="30"/>
-      <c r="BE9" s="30"/>
-      <c r="BF9" s="30">
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34">
         <v>2014</v>
       </c>
-      <c r="BG9" s="30"/>
-      <c r="BH9" s="30"/>
-      <c r="BI9" s="30"/>
-      <c r="BJ9" s="30">
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
+      <c r="BJ9" s="34">
         <v>2015</v>
       </c>
-      <c r="BK9" s="30"/>
-      <c r="BL9" s="30"/>
-      <c r="BM9" s="30"/>
-      <c r="BN9" s="30">
+      <c r="BK9" s="34"/>
+      <c r="BL9" s="34"/>
+      <c r="BM9" s="34"/>
+      <c r="BN9" s="34">
         <v>2016</v>
       </c>
-      <c r="BO9" s="30"/>
-      <c r="BP9" s="30"/>
-      <c r="BQ9" s="30"/>
-      <c r="BR9" s="30">
+      <c r="BO9" s="34"/>
+      <c r="BP9" s="34"/>
+      <c r="BQ9" s="34"/>
+      <c r="BR9" s="34">
         <v>2017</v>
       </c>
-      <c r="BS9" s="30"/>
-      <c r="BT9" s="30"/>
-      <c r="BU9" s="30"/>
-      <c r="BV9" s="30">
+      <c r="BS9" s="34"/>
+      <c r="BT9" s="34"/>
+      <c r="BU9" s="34"/>
+      <c r="BV9" s="34">
         <v>2018</v>
       </c>
-      <c r="BW9" s="30"/>
-      <c r="BX9" s="30"/>
-      <c r="BY9" s="30"/>
-      <c r="BZ9" s="30">
+      <c r="BW9" s="34"/>
+      <c r="BX9" s="34"/>
+      <c r="BY9" s="34"/>
+      <c r="BZ9" s="34">
         <v>2019</v>
       </c>
-      <c r="CA9" s="30"/>
-      <c r="CB9" s="30"/>
-      <c r="CC9" s="30"/>
-      <c r="CD9" s="30">
+      <c r="CA9" s="34"/>
+      <c r="CB9" s="34"/>
+      <c r="CC9" s="34"/>
+      <c r="CD9" s="34">
         <v>2020</v>
       </c>
-      <c r="CE9" s="30"/>
-      <c r="CF9" s="30"/>
-      <c r="CG9" s="30"/>
-      <c r="CH9" s="30">
+      <c r="CE9" s="34"/>
+      <c r="CF9" s="34"/>
+      <c r="CG9" s="34"/>
+      <c r="CH9" s="34">
         <v>2021</v>
       </c>
-      <c r="CI9" s="30"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="30"/>
-      <c r="CL9" s="30">
+      <c r="CI9" s="34"/>
+      <c r="CJ9" s="34"/>
+      <c r="CK9" s="34"/>
+      <c r="CL9" s="34">
         <v>2022</v>
       </c>
-      <c r="CM9" s="30"/>
-      <c r="CN9" s="30"/>
-      <c r="CO9" s="30"/>
+      <c r="CM9" s="34"/>
+      <c r="CN9" s="34"/>
+      <c r="CO9" s="34"/>
       <c r="CP9" s="20">
         <v>2023</v>
       </c>
@@ -23820,6 +23832,7 @@
       </c>
       <c r="CU9" s="20"/>
       <c r="CV9" s="20"/>
+      <c r="CW9" s="20"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24121,6 +24134,9 @@
       </c>
       <c r="CV10" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CW10" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24425,9 +24441,11 @@
         <v>247742.35582213555</v>
       </c>
       <c r="CV12" s="22">
-        <v>152218.97196884826</v>
-      </c>
-      <c r="CW12" s="9"/>
+        <v>151065.51640703797</v>
+      </c>
+      <c r="CW12" s="22">
+        <v>148444.57341146268</v>
+      </c>
       <c r="CX12" s="9"/>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
@@ -24781,7 +24799,9 @@
       <c r="CV13" s="22">
         <v>2749.1403741952581</v>
       </c>
-      <c r="CW13" s="9"/>
+      <c r="CW13" s="22">
+        <v>3569.8194256713487</v>
+      </c>
       <c r="CX13" s="9"/>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
@@ -25133,9 +25153,11 @@
         <v>36860.794103051332</v>
       </c>
       <c r="CV14" s="22">
-        <v>29786.501053066095</v>
-      </c>
-      <c r="CW14" s="9"/>
+        <v>30622.047439369533</v>
+      </c>
+      <c r="CW14" s="22">
+        <v>36516.955446201289</v>
+      </c>
       <c r="CX14" s="9"/>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
@@ -25487,9 +25509,11 @@
         <v>2534.0492119333121</v>
       </c>
       <c r="CV15" s="22">
-        <v>2832.279596921052</v>
-      </c>
-      <c r="CW15" s="9"/>
+        <v>2766.544466466391</v>
+      </c>
+      <c r="CW15" s="22">
+        <v>3193.7847726423256</v>
+      </c>
       <c r="CX15" s="9"/>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
@@ -25642,7 +25666,7 @@
       <c r="CT16" s="23"/>
       <c r="CU16" s="23"/>
       <c r="CV16" s="23"/>
-      <c r="CW16" s="9"/>
+      <c r="CW16" s="23"/>
       <c r="CX16" s="9"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
@@ -25994,9 +26018,11 @@
         <v>290707.92185502144</v>
       </c>
       <c r="CV17" s="24">
-        <v>187586.89299303066</v>
-      </c>
-      <c r="CW17" s="9"/>
+        <v>187203.24868706914</v>
+      </c>
+      <c r="CW17" s="24">
+        <v>191725.13305597767</v>
+      </c>
       <c r="CX17" s="9"/>
       <c r="CY17" s="9"/>
       <c r="CZ17" s="9"/>
@@ -26150,6 +26176,7 @@
       <c r="CT18" s="25"/>
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
+      <c r="CW18" s="25"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26256,7 +26283,7 @@
       <c r="CT20" s="26"/>
       <c r="CU20" s="26"/>
       <c r="CV20" s="26"/>
-      <c r="CW20" s="9"/>
+      <c r="CW20" s="26"/>
       <c r="CX20" s="9"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
@@ -26409,7 +26436,7 @@
       <c r="CT21" s="26"/>
       <c r="CU21" s="26"/>
       <c r="CV21" s="26"/>
-      <c r="CW21" s="9"/>
+      <c r="CW21" s="26"/>
       <c r="CX21" s="9"/>
       <c r="CY21" s="9"/>
       <c r="CZ21" s="9"/>
@@ -26474,7 +26501,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26484,7 +26511,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26494,144 +26521,144 @@
     </row>
     <row r="30" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
-      <c r="B30" s="30">
+      <c r="B30" s="34">
         <v>2000</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30">
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="34">
         <v>2001</v>
       </c>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="30">
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="34">
         <v>2002</v>
       </c>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="30">
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="34">
         <v>2003</v>
       </c>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="30">
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="34">
         <v>2004</v>
       </c>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="30">
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="34">
         <v>2005</v>
       </c>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="30">
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="34">
         <v>2006</v>
       </c>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="30">
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="34">
         <v>2007</v>
       </c>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="30">
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="34">
         <v>2008</v>
       </c>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="30">
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="34">
         <v>2009</v>
       </c>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="30">
+      <c r="AM30" s="35"/>
+      <c r="AN30" s="35"/>
+      <c r="AO30" s="35"/>
+      <c r="AP30" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-      <c r="AS30" s="31"/>
-      <c r="AT30" s="30">
+      <c r="AQ30" s="35"/>
+      <c r="AR30" s="35"/>
+      <c r="AS30" s="35"/>
+      <c r="AT30" s="34">
         <v>2011</v>
       </c>
-      <c r="AU30" s="31"/>
-      <c r="AV30" s="31"/>
-      <c r="AW30" s="31"/>
-      <c r="AX30" s="30">
+      <c r="AU30" s="35"/>
+      <c r="AV30" s="35"/>
+      <c r="AW30" s="35"/>
+      <c r="AX30" s="34">
         <v>2012</v>
       </c>
-      <c r="AY30" s="31"/>
-      <c r="AZ30" s="31"/>
-      <c r="BA30" s="31"/>
-      <c r="BB30" s="30">
+      <c r="AY30" s="35"/>
+      <c r="AZ30" s="35"/>
+      <c r="BA30" s="35"/>
+      <c r="BB30" s="34">
         <v>2013</v>
       </c>
-      <c r="BC30" s="31"/>
-      <c r="BD30" s="31"/>
-      <c r="BE30" s="31"/>
-      <c r="BF30" s="30">
+      <c r="BC30" s="35"/>
+      <c r="BD30" s="35"/>
+      <c r="BE30" s="35"/>
+      <c r="BF30" s="34">
         <v>2014</v>
       </c>
-      <c r="BG30" s="31"/>
-      <c r="BH30" s="31"/>
-      <c r="BI30" s="31"/>
-      <c r="BJ30" s="30">
+      <c r="BG30" s="35"/>
+      <c r="BH30" s="35"/>
+      <c r="BI30" s="35"/>
+      <c r="BJ30" s="34">
         <v>2015</v>
       </c>
-      <c r="BK30" s="31"/>
-      <c r="BL30" s="31"/>
-      <c r="BM30" s="31"/>
-      <c r="BN30" s="30">
+      <c r="BK30" s="35"/>
+      <c r="BL30" s="35"/>
+      <c r="BM30" s="35"/>
+      <c r="BN30" s="34">
         <v>2016</v>
       </c>
-      <c r="BO30" s="31"/>
-      <c r="BP30" s="31"/>
-      <c r="BQ30" s="31"/>
-      <c r="BR30" s="30">
+      <c r="BO30" s="35"/>
+      <c r="BP30" s="35"/>
+      <c r="BQ30" s="35"/>
+      <c r="BR30" s="34">
         <v>2017</v>
       </c>
-      <c r="BS30" s="31"/>
-      <c r="BT30" s="31"/>
-      <c r="BU30" s="31"/>
-      <c r="BV30" s="30">
+      <c r="BS30" s="35"/>
+      <c r="BT30" s="35"/>
+      <c r="BU30" s="35"/>
+      <c r="BV30" s="34">
         <v>2018</v>
       </c>
-      <c r="BW30" s="31"/>
-      <c r="BX30" s="31"/>
-      <c r="BY30" s="31"/>
-      <c r="BZ30" s="30">
+      <c r="BW30" s="35"/>
+      <c r="BX30" s="35"/>
+      <c r="BY30" s="35"/>
+      <c r="BZ30" s="34">
         <v>2019</v>
       </c>
-      <c r="CA30" s="31"/>
-      <c r="CB30" s="31"/>
-      <c r="CC30" s="31"/>
-      <c r="CD30" s="30">
+      <c r="CA30" s="35"/>
+      <c r="CB30" s="35"/>
+      <c r="CC30" s="35"/>
+      <c r="CD30" s="34">
         <v>2020</v>
       </c>
-      <c r="CE30" s="30"/>
-      <c r="CF30" s="30"/>
-      <c r="CG30" s="30"/>
-      <c r="CH30" s="30">
+      <c r="CE30" s="34"/>
+      <c r="CF30" s="34"/>
+      <c r="CG30" s="34"/>
+      <c r="CH30" s="34">
         <v>2021</v>
       </c>
-      <c r="CI30" s="30"/>
-      <c r="CJ30" s="30"/>
-      <c r="CK30" s="30"/>
-      <c r="CL30" s="30">
+      <c r="CI30" s="34"/>
+      <c r="CJ30" s="34"/>
+      <c r="CK30" s="34"/>
+      <c r="CL30" s="34">
         <v>2022</v>
       </c>
-      <c r="CM30" s="30"/>
-      <c r="CN30" s="30"/>
-      <c r="CO30" s="30"/>
+      <c r="CM30" s="34"/>
+      <c r="CN30" s="34"/>
+      <c r="CO30" s="34"/>
       <c r="CP30" s="20">
         <v>2023</v>
       </c>
@@ -26643,6 +26670,7 @@
       </c>
       <c r="CU30" s="20"/>
       <c r="CV30" s="20"/>
+      <c r="CW30" s="20"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26944,6 +26972,9 @@
       </c>
       <c r="CV31" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CW31" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27248,9 +27279,11 @@
         <v>154059.61597667262</v>
       </c>
       <c r="CV33" s="22">
-        <v>174869.76872774592</v>
-      </c>
-      <c r="CW33" s="9"/>
+        <v>173544.67432773387</v>
+      </c>
+      <c r="CW33" s="22">
+        <v>141059.13839247922</v>
+      </c>
       <c r="CX33" s="9"/>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
@@ -27604,7 +27637,9 @@
       <c r="CV34" s="22">
         <v>2512.2591576883674</v>
       </c>
-      <c r="CW34" s="9"/>
+      <c r="CW34" s="22">
+        <v>3148.8681184479988</v>
+      </c>
       <c r="CX34" s="9"/>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
@@ -27956,9 +27991,11 @@
         <v>28490.676788464822</v>
       </c>
       <c r="CV35" s="22">
-        <v>25193.352253144767</v>
-      </c>
-      <c r="CW35" s="9"/>
+        <v>25900.055413629543</v>
+      </c>
+      <c r="CW35" s="22">
+        <v>30247.197055693301</v>
+      </c>
       <c r="CX35" s="9"/>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
@@ -28310,9 +28347,11 @@
         <v>2102.4734601539071</v>
       </c>
       <c r="CV36" s="22">
-        <v>2374.0002044938205</v>
-      </c>
-      <c r="CW36" s="9"/>
+        <v>2318.9014023446825</v>
+      </c>
+      <c r="CW36" s="22">
+        <v>2722.9235808720523</v>
+      </c>
       <c r="CX36" s="9"/>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
@@ -28465,7 +28504,7 @@
       <c r="CT37" s="23"/>
       <c r="CU37" s="23"/>
       <c r="CV37" s="23"/>
-      <c r="CW37" s="9"/>
+      <c r="CW37" s="23"/>
       <c r="CX37" s="9"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
@@ -28817,9 +28856,11 @@
         <v>187585.00530362688</v>
       </c>
       <c r="CV38" s="24">
-        <v>204949.38034307287</v>
-      </c>
-      <c r="CW38" s="9"/>
+        <v>204275.89030139646</v>
+      </c>
+      <c r="CW38" s="24">
+        <v>177178.12714749257</v>
+      </c>
       <c r="CX38" s="9"/>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
@@ -28973,6 +29014,7 @@
       <c r="CT39" s="25"/>
       <c r="CU39" s="25"/>
       <c r="CV39" s="25"/>
+      <c r="CW39" s="25"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29079,7 +29121,7 @@
       <c r="CT41" s="26"/>
       <c r="CU41" s="26"/>
       <c r="CV41" s="26"/>
-      <c r="CW41" s="9"/>
+      <c r="CW41" s="26"/>
       <c r="CX41" s="9"/>
       <c r="CY41" s="9"/>
       <c r="CZ41" s="9"/>
@@ -29232,7 +29274,7 @@
       <c r="CT42" s="26"/>
       <c r="CU42" s="26"/>
       <c r="CV42" s="26"/>
-      <c r="CW42" s="9"/>
+      <c r="CW42" s="26"/>
       <c r="CX42" s="9"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
@@ -29297,173 +29339,188 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="CT47" s="30"/>
+      <c r="CU47" s="30"/>
+      <c r="CV47" s="30"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CT48" s="30"/>
+      <c r="CU48" s="30"/>
+      <c r="CV48" s="30"/>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="CT49" s="30"/>
+      <c r="CU49" s="30"/>
+      <c r="CV49" s="30"/>
+    </row>
+    <row r="50" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CT50" s="30"/>
+      <c r="CU50" s="30"/>
+      <c r="CV50" s="30"/>
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="30"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30" t="s">
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30" t="s">
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30" t="s">
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
+      <c r="M51" s="34"/>
+      <c r="N51" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30" t="s">
+      <c r="O51" s="34"/>
+      <c r="P51" s="34"/>
+      <c r="Q51" s="34"/>
+      <c r="R51" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30" t="s">
+      <c r="S51" s="34"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="34"/>
+      <c r="V51" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30" t="s">
+      <c r="W51" s="34"/>
+      <c r="X51" s="34"/>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AA51" s="30"/>
-      <c r="AB51" s="30"/>
-      <c r="AC51" s="30"/>
-      <c r="AD51" s="30" t="s">
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AE51" s="30"/>
-      <c r="AF51" s="30"/>
-      <c r="AG51" s="30"/>
-      <c r="AH51" s="30" t="s">
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AI51" s="30"/>
-      <c r="AJ51" s="30"/>
-      <c r="AK51" s="30"/>
-      <c r="AL51" s="30" t="s">
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="34"/>
+      <c r="AL51" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AM51" s="30"/>
-      <c r="AN51" s="30"/>
-      <c r="AO51" s="30"/>
-      <c r="AP51" s="30" t="s">
+      <c r="AM51" s="34"/>
+      <c r="AN51" s="34"/>
+      <c r="AO51" s="34"/>
+      <c r="AP51" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AQ51" s="30"/>
-      <c r="AR51" s="30"/>
-      <c r="AS51" s="30"/>
-      <c r="AT51" s="30" t="s">
+      <c r="AQ51" s="34"/>
+      <c r="AR51" s="34"/>
+      <c r="AS51" s="34"/>
+      <c r="AT51" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AU51" s="30"/>
-      <c r="AV51" s="30"/>
-      <c r="AW51" s="30"/>
-      <c r="AX51" s="30" t="s">
+      <c r="AU51" s="34"/>
+      <c r="AV51" s="34"/>
+      <c r="AW51" s="34"/>
+      <c r="AX51" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AY51" s="30"/>
-      <c r="AZ51" s="30"/>
-      <c r="BA51" s="30"/>
-      <c r="BB51" s="30" t="s">
+      <c r="AY51" s="34"/>
+      <c r="AZ51" s="34"/>
+      <c r="BA51" s="34"/>
+      <c r="BB51" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BC51" s="30"/>
-      <c r="BD51" s="30"/>
-      <c r="BE51" s="30"/>
-      <c r="BF51" s="30" t="s">
+      <c r="BC51" s="34"/>
+      <c r="BD51" s="34"/>
+      <c r="BE51" s="34"/>
+      <c r="BF51" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="BG51" s="30"/>
-      <c r="BH51" s="30"/>
-      <c r="BI51" s="30"/>
-      <c r="BJ51" s="30" t="s">
+      <c r="BG51" s="34"/>
+      <c r="BH51" s="34"/>
+      <c r="BI51" s="34"/>
+      <c r="BJ51" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BK51" s="30"/>
-      <c r="BL51" s="30"/>
-      <c r="BM51" s="30"/>
-      <c r="BN51" s="30" t="s">
+      <c r="BK51" s="34"/>
+      <c r="BL51" s="34"/>
+      <c r="BM51" s="34"/>
+      <c r="BN51" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BO51" s="30"/>
-      <c r="BP51" s="30"/>
-      <c r="BQ51" s="30"/>
-      <c r="BR51" s="30" t="s">
+      <c r="BO51" s="34"/>
+      <c r="BP51" s="34"/>
+      <c r="BQ51" s="34"/>
+      <c r="BR51" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="BS51" s="30"/>
-      <c r="BT51" s="30"/>
-      <c r="BU51" s="30"/>
-      <c r="BV51" s="30" t="s">
+      <c r="BS51" s="34"/>
+      <c r="BT51" s="34"/>
+      <c r="BU51" s="34"/>
+      <c r="BV51" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="BW51" s="30"/>
-      <c r="BX51" s="30"/>
-      <c r="BY51" s="30"/>
-      <c r="BZ51" s="30" t="s">
+      <c r="BW51" s="34"/>
+      <c r="BX51" s="34"/>
+      <c r="BY51" s="34"/>
+      <c r="BZ51" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="CA51" s="30"/>
-      <c r="CB51" s="30"/>
-      <c r="CC51" s="30"/>
-      <c r="CD51" s="30" t="s">
+      <c r="CA51" s="34"/>
+      <c r="CB51" s="34"/>
+      <c r="CC51" s="34"/>
+      <c r="CD51" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CE51" s="30"/>
-      <c r="CF51" s="30"/>
-      <c r="CG51" s="30"/>
-      <c r="CH51" s="30" t="s">
+      <c r="CE51" s="34"/>
+      <c r="CF51" s="34"/>
+      <c r="CG51" s="34"/>
+      <c r="CH51" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="CI51" s="30"/>
-      <c r="CJ51" s="30"/>
-      <c r="CK51" s="30"/>
-      <c r="CL51" s="30" t="s">
+      <c r="CI51" s="34"/>
+      <c r="CJ51" s="34"/>
+      <c r="CK51" s="34"/>
+      <c r="CL51" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="30"/>
-      <c r="CN51" s="30"/>
-      <c r="CO51" s="30"/>
+      <c r="CM51" s="34"/>
+      <c r="CN51" s="34"/>
+      <c r="CO51" s="34"/>
       <c r="CP51" s="20" t="s">
         <v>51</v>
       </c>
       <c r="CQ51" s="20"/>
       <c r="CR51" s="20"/>
-      <c r="CS51" s="18"/>
-      <c r="CT51" s="20"/>
-      <c r="CU51" s="20"/>
+      <c r="CS51" s="20"/>
+      <c r="CT51" s="18"/>
+      <c r="CU51" s="18"/>
       <c r="CV51" s="18"/>
+      <c r="CW51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29754,13 +29811,19 @@
       <c r="CR52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS52" s="27"/>
+      <c r="CS52" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CT52" s="27"/>
       <c r="CU52" s="27"/>
       <c r="CV52" s="27"/>
+      <c r="CW52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
+      <c r="CT53" s="30"/>
+      <c r="CU53" s="30"/>
+      <c r="CV53" s="30"/>
     </row>
     <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30049,13 +30112,15 @@
         <v>5.291158536872075</v>
       </c>
       <c r="CR54" s="28">
-        <v>8.0343824177671763</v>
-      </c>
-      <c r="CS54" s="28"/>
-      <c r="CT54" s="28"/>
-      <c r="CU54" s="28"/>
-      <c r="CV54" s="28"/>
-      <c r="CW54" s="9"/>
+        <v>7.2157403151781807</v>
+      </c>
+      <c r="CS54" s="28">
+        <v>6.0253042356596751</v>
+      </c>
+      <c r="CT54" s="31"/>
+      <c r="CU54" s="31"/>
+      <c r="CV54" s="31"/>
+      <c r="CW54" s="28"/>
       <c r="CX54" s="9"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
@@ -30393,11 +30458,13 @@
       <c r="CR55" s="28">
         <v>-5.7464087085296711</v>
       </c>
-      <c r="CS55" s="28"/>
-      <c r="CT55" s="28"/>
-      <c r="CU55" s="28"/>
-      <c r="CV55" s="28"/>
-      <c r="CW55" s="9"/>
+      <c r="CS55" s="28">
+        <v>4.7948613300937524</v>
+      </c>
+      <c r="CT55" s="31"/>
+      <c r="CU55" s="31"/>
+      <c r="CV55" s="31"/>
+      <c r="CW55" s="28"/>
       <c r="CX55" s="9"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
@@ -30733,13 +30800,15 @@
         <v>12.148737444424086</v>
       </c>
       <c r="CR56" s="28">
-        <v>12.342699631847438</v>
-      </c>
-      <c r="CS56" s="28"/>
-      <c r="CT56" s="28"/>
-      <c r="CU56" s="28"/>
-      <c r="CV56" s="28"/>
-      <c r="CW56" s="9"/>
+        <v>15.494044482245712</v>
+      </c>
+      <c r="CS56" s="28">
+        <v>12.317577783443937</v>
+      </c>
+      <c r="CT56" s="31"/>
+      <c r="CU56" s="31"/>
+      <c r="CV56" s="31"/>
+      <c r="CW56" s="28"/>
       <c r="CX56" s="9"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
@@ -31075,13 +31144,15 @@
         <v>7.4985625727638165</v>
       </c>
       <c r="CR57" s="28">
-        <v>7.5063108334189792</v>
-      </c>
-      <c r="CS57" s="28"/>
-      <c r="CT57" s="28"/>
-      <c r="CU57" s="28"/>
-      <c r="CV57" s="28"/>
-      <c r="CW57" s="9"/>
+        <v>5.0111682722761657</v>
+      </c>
+      <c r="CS57" s="28">
+        <v>8.5799529335119047</v>
+      </c>
+      <c r="CT57" s="31"/>
+      <c r="CU57" s="31"/>
+      <c r="CV57" s="31"/>
+      <c r="CW57" s="28"/>
       <c r="CX57" s="9"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
@@ -31227,10 +31298,10 @@
       <c r="CQ58" s="26"/>
       <c r="CR58" s="26"/>
       <c r="CS58" s="26"/>
-      <c r="CT58" s="26"/>
-      <c r="CU58" s="26"/>
-      <c r="CV58" s="26"/>
-      <c r="CW58" s="9"/>
+      <c r="CT58" s="32"/>
+      <c r="CU58" s="32"/>
+      <c r="CV58" s="32"/>
+      <c r="CW58" s="26"/>
       <c r="CX58" s="9"/>
       <c r="CY58" s="9"/>
       <c r="CZ58" s="9"/>
@@ -31566,13 +31637,15 @@
         <v>5.9783443579132722</v>
       </c>
       <c r="CR59" s="28">
-        <v>8.4543790219571804</v>
-      </c>
-      <c r="CS59" s="28"/>
-      <c r="CT59" s="28"/>
-      <c r="CU59" s="28"/>
-      <c r="CV59" s="28"/>
-      <c r="CW59" s="9"/>
+        <v>8.2325729868739472</v>
+      </c>
+      <c r="CS59" s="28">
+        <v>7.1876015195976066</v>
+      </c>
+      <c r="CT59" s="31"/>
+      <c r="CU59" s="31"/>
+      <c r="CV59" s="31"/>
+      <c r="CW59" s="28"/>
       <c r="CX59" s="9"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
@@ -31719,14 +31792,18 @@
       <c r="CQ60" s="25"/>
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
-      <c r="CT60" s="25"/>
-      <c r="CU60" s="25"/>
-      <c r="CV60" s="25"/>
+      <c r="CT60" s="21"/>
+      <c r="CU60" s="21"/>
+      <c r="CV60" s="21"/>
+      <c r="CW60" s="25"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
+      <c r="CT61" s="30"/>
+      <c r="CU61" s="30"/>
+      <c r="CV61" s="30"/>
     </row>
     <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
@@ -31825,10 +31902,10 @@
       <c r="CQ62" s="29"/>
       <c r="CR62" s="29"/>
       <c r="CS62" s="29"/>
-      <c r="CT62" s="29"/>
-      <c r="CU62" s="29"/>
-      <c r="CV62" s="29"/>
-      <c r="CW62" s="9"/>
+      <c r="CT62" s="33"/>
+      <c r="CU62" s="33"/>
+      <c r="CV62" s="33"/>
+      <c r="CW62" s="29"/>
       <c r="CX62" s="9"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
@@ -31974,10 +32051,10 @@
       <c r="CQ63" s="26"/>
       <c r="CR63" s="26"/>
       <c r="CS63" s="26"/>
-      <c r="CT63" s="26"/>
-      <c r="CU63" s="26"/>
-      <c r="CV63" s="26"/>
-      <c r="CW63" s="9"/>
+      <c r="CT63" s="32"/>
+      <c r="CU63" s="32"/>
+      <c r="CV63" s="32"/>
+      <c r="CW63" s="26"/>
       <c r="CX63" s="9"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
@@ -32030,181 +32107,210 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="CT64" s="30"/>
+      <c r="CU64" s="30"/>
+      <c r="CV64" s="30"/>
     </row>
     <row r="65" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="CT65" s="30"/>
+      <c r="CU65" s="30"/>
+      <c r="CV65" s="30"/>
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>52</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="CT66" s="30"/>
+      <c r="CU66" s="30"/>
+      <c r="CV66" s="30"/>
+    </row>
+    <row r="67" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CT67" s="30"/>
+      <c r="CU67" s="30"/>
+      <c r="CV67" s="30"/>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="CT68" s="30"/>
+      <c r="CU68" s="30"/>
+      <c r="CV68" s="30"/>
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="CT69" s="30"/>
+      <c r="CU69" s="30"/>
+      <c r="CV69" s="30"/>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="CT70" s="30"/>
+      <c r="CU70" s="30"/>
+      <c r="CV70" s="30"/>
+    </row>
+    <row r="71" spans="1:148" x14ac:dyDescent="0.2">
+      <c r="CT71" s="30"/>
+      <c r="CU71" s="30"/>
+      <c r="CV71" s="30"/>
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" s="30" t="s">
+      <c r="B72" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="32"/>
-      <c r="F72" s="30" t="s">
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G72" s="32"/>
-      <c r="H72" s="32"/>
-      <c r="I72" s="32"/>
-      <c r="J72" s="30" t="s">
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="32"/>
-      <c r="M72" s="32"/>
-      <c r="N72" s="30" t="s">
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="32"/>
-      <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
-      <c r="R72" s="30" t="s">
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="S72" s="32"/>
-      <c r="T72" s="32"/>
-      <c r="U72" s="32"/>
-      <c r="V72" s="30" t="s">
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="W72" s="32"/>
-      <c r="X72" s="32"/>
-      <c r="Y72" s="32"/>
-      <c r="Z72" s="30" t="s">
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AA72" s="32"/>
-      <c r="AB72" s="32"/>
-      <c r="AC72" s="32"/>
-      <c r="AD72" s="30" t="s">
+      <c r="AA72" s="36"/>
+      <c r="AB72" s="36"/>
+      <c r="AC72" s="36"/>
+      <c r="AD72" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AE72" s="32"/>
-      <c r="AF72" s="32"/>
-      <c r="AG72" s="32"/>
-      <c r="AH72" s="30" t="s">
+      <c r="AE72" s="36"/>
+      <c r="AF72" s="36"/>
+      <c r="AG72" s="36"/>
+      <c r="AH72" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="AI72" s="32"/>
-      <c r="AJ72" s="32"/>
-      <c r="AK72" s="32"/>
-      <c r="AL72" s="30" t="s">
+      <c r="AI72" s="36"/>
+      <c r="AJ72" s="36"/>
+      <c r="AK72" s="36"/>
+      <c r="AL72" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AM72" s="32"/>
-      <c r="AN72" s="32"/>
-      <c r="AO72" s="32"/>
-      <c r="AP72" s="30" t="s">
+      <c r="AM72" s="36"/>
+      <c r="AN72" s="36"/>
+      <c r="AO72" s="36"/>
+      <c r="AP72" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AQ72" s="32"/>
-      <c r="AR72" s="32"/>
-      <c r="AS72" s="32"/>
-      <c r="AT72" s="30" t="s">
+      <c r="AQ72" s="36"/>
+      <c r="AR72" s="36"/>
+      <c r="AS72" s="36"/>
+      <c r="AT72" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AU72" s="32"/>
-      <c r="AV72" s="32"/>
-      <c r="AW72" s="32"/>
-      <c r="AX72" s="30" t="s">
+      <c r="AU72" s="36"/>
+      <c r="AV72" s="36"/>
+      <c r="AW72" s="36"/>
+      <c r="AX72" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="AY72" s="32"/>
-      <c r="AZ72" s="32"/>
-      <c r="BA72" s="32"/>
-      <c r="BB72" s="30" t="s">
+      <c r="AY72" s="36"/>
+      <c r="AZ72" s="36"/>
+      <c r="BA72" s="36"/>
+      <c r="BB72" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="BC72" s="32"/>
-      <c r="BD72" s="32"/>
-      <c r="BE72" s="32"/>
-      <c r="BF72" s="30" t="s">
+      <c r="BC72" s="36"/>
+      <c r="BD72" s="36"/>
+      <c r="BE72" s="36"/>
+      <c r="BF72" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="BG72" s="32"/>
-      <c r="BH72" s="32"/>
-      <c r="BI72" s="32"/>
-      <c r="BJ72" s="30" t="s">
+      <c r="BG72" s="36"/>
+      <c r="BH72" s="36"/>
+      <c r="BI72" s="36"/>
+      <c r="BJ72" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="BK72" s="32"/>
-      <c r="BL72" s="32"/>
-      <c r="BM72" s="32"/>
-      <c r="BN72" s="30" t="s">
+      <c r="BK72" s="36"/>
+      <c r="BL72" s="36"/>
+      <c r="BM72" s="36"/>
+      <c r="BN72" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="BO72" s="32"/>
-      <c r="BP72" s="32"/>
-      <c r="BQ72" s="32"/>
-      <c r="BR72" s="30" t="s">
+      <c r="BO72" s="36"/>
+      <c r="BP72" s="36"/>
+      <c r="BQ72" s="36"/>
+      <c r="BR72" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="BS72" s="32"/>
-      <c r="BT72" s="32"/>
-      <c r="BU72" s="32"/>
-      <c r="BV72" s="30" t="s">
+      <c r="BS72" s="36"/>
+      <c r="BT72" s="36"/>
+      <c r="BU72" s="36"/>
+      <c r="BV72" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="BW72" s="32"/>
-      <c r="BX72" s="32"/>
-      <c r="BY72" s="32"/>
-      <c r="BZ72" s="30" t="s">
+      <c r="BW72" s="36"/>
+      <c r="BX72" s="36"/>
+      <c r="BY72" s="36"/>
+      <c r="BZ72" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="CA72" s="32"/>
-      <c r="CB72" s="32"/>
-      <c r="CC72" s="32"/>
-      <c r="CD72" s="30" t="s">
+      <c r="CA72" s="36"/>
+      <c r="CB72" s="36"/>
+      <c r="CC72" s="36"/>
+      <c r="CD72" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="CE72" s="30"/>
-      <c r="CF72" s="30"/>
-      <c r="CG72" s="30"/>
-      <c r="CH72" s="30" t="s">
+      <c r="CE72" s="34"/>
+      <c r="CF72" s="34"/>
+      <c r="CG72" s="34"/>
+      <c r="CH72" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="CI72" s="30"/>
-      <c r="CJ72" s="30"/>
-      <c r="CK72" s="30"/>
-      <c r="CL72" s="30" t="s">
+      <c r="CI72" s="34"/>
+      <c r="CJ72" s="34"/>
+      <c r="CK72" s="34"/>
+      <c r="CL72" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="30"/>
-      <c r="CN72" s="30"/>
-      <c r="CO72" s="30"/>
+      <c r="CM72" s="34"/>
+      <c r="CN72" s="34"/>
+      <c r="CO72" s="34"/>
       <c r="CP72" s="20" t="s">
         <v>51</v>
       </c>
       <c r="CQ72" s="20"/>
       <c r="CR72" s="20"/>
-      <c r="CS72" s="18"/>
-      <c r="CT72" s="20"/>
-      <c r="CU72" s="20"/>
+      <c r="CS72" s="20"/>
+      <c r="CT72" s="18"/>
+      <c r="CU72" s="18"/>
       <c r="CV72" s="18"/>
+      <c r="CW72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32495,13 +32601,19 @@
       <c r="CR73" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CS73" s="27"/>
+      <c r="CS73" s="27" t="s">
+        <v>9</v>
+      </c>
       <c r="CT73" s="27"/>
       <c r="CU73" s="27"/>
       <c r="CV73" s="27"/>
+      <c r="CW73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
+      <c r="CT74" s="30"/>
+      <c r="CU74" s="30"/>
+      <c r="CV74" s="30"/>
     </row>
     <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -32790,13 +32902,15 @@
         <v>10.435868115575403</v>
       </c>
       <c r="CR75" s="28">
-        <v>8.0343824177672332</v>
-      </c>
-      <c r="CS75" s="28"/>
-      <c r="CT75" s="28"/>
-      <c r="CU75" s="28"/>
-      <c r="CV75" s="28"/>
-      <c r="CW75" s="9"/>
+        <v>7.2157403151781807</v>
+      </c>
+      <c r="CS75" s="28">
+        <v>6.1793659971180546</v>
+      </c>
+      <c r="CT75" s="31"/>
+      <c r="CU75" s="31"/>
+      <c r="CV75" s="31"/>
+      <c r="CW75" s="28"/>
       <c r="CX75" s="9"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
@@ -33134,11 +33248,13 @@
       <c r="CR76" s="28">
         <v>-3.6091091054850182</v>
       </c>
-      <c r="CS76" s="28"/>
-      <c r="CT76" s="28"/>
-      <c r="CU76" s="28"/>
-      <c r="CV76" s="28"/>
-      <c r="CW76" s="9"/>
+      <c r="CS76" s="28">
+        <v>10.068447418818607</v>
+      </c>
+      <c r="CT76" s="31"/>
+      <c r="CU76" s="31"/>
+      <c r="CV76" s="31"/>
+      <c r="CW76" s="28"/>
       <c r="CX76" s="9"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
@@ -33474,13 +33590,15 @@
         <v>4.1949691838083538</v>
       </c>
       <c r="CR77" s="28">
-        <v>4.744355878676231</v>
-      </c>
-      <c r="CS77" s="28"/>
-      <c r="CT77" s="28"/>
-      <c r="CU77" s="28"/>
-      <c r="CV77" s="28"/>
-      <c r="CW77" s="9"/>
+        <v>7.6825582504214509</v>
+      </c>
+      <c r="CS77" s="28">
+        <v>5.0884854650160349</v>
+      </c>
+      <c r="CT77" s="31"/>
+      <c r="CU77" s="31"/>
+      <c r="CV77" s="31"/>
+      <c r="CW77" s="28"/>
       <c r="CX77" s="9"/>
       <c r="CY77" s="9"/>
       <c r="CZ77" s="9"/>
@@ -33816,13 +33934,15 @@
         <v>4.7977514768661678</v>
       </c>
       <c r="CR78" s="28">
-        <v>5.316772934571361</v>
-      </c>
-      <c r="CS78" s="28"/>
-      <c r="CT78" s="28"/>
-      <c r="CU78" s="28"/>
-      <c r="CV78" s="28"/>
-      <c r="CW78" s="9"/>
+        <v>2.8724479408652712</v>
+      </c>
+      <c r="CS78" s="28">
+        <v>6.909007084070538</v>
+      </c>
+      <c r="CT78" s="31"/>
+      <c r="CU78" s="31"/>
+      <c r="CV78" s="31"/>
+      <c r="CW78" s="28"/>
       <c r="CX78" s="9"/>
       <c r="CY78" s="9"/>
       <c r="CZ78" s="9"/>
@@ -33968,10 +34088,10 @@
       <c r="CQ79" s="26"/>
       <c r="CR79" s="26"/>
       <c r="CS79" s="26"/>
-      <c r="CT79" s="26"/>
-      <c r="CU79" s="26"/>
-      <c r="CV79" s="26"/>
-      <c r="CW79" s="9"/>
+      <c r="CT79" s="32"/>
+      <c r="CU79" s="32"/>
+      <c r="CV79" s="32"/>
+      <c r="CW79" s="26"/>
       <c r="CX79" s="9"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
@@ -34307,13 +34427,15 @@
         <v>9.0775672901770861</v>
       </c>
       <c r="CR80" s="28">
-        <v>7.4284146612337167</v>
-      </c>
-      <c r="CS80" s="28"/>
-      <c r="CT80" s="28"/>
-      <c r="CU80" s="28"/>
-      <c r="CV80" s="28"/>
-      <c r="CW80" s="9"/>
+        <v>7.075391064156662</v>
+      </c>
+      <c r="CS80" s="28">
+        <v>6.069128942459173</v>
+      </c>
+      <c r="CT80" s="31"/>
+      <c r="CU80" s="31"/>
+      <c r="CV80" s="31"/>
+      <c r="CW80" s="28"/>
       <c r="CX80" s="9"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
@@ -34460,9 +34582,10 @@
       <c r="CQ81" s="25"/>
       <c r="CR81" s="25"/>
       <c r="CS81" s="25"/>
-      <c r="CT81" s="25"/>
-      <c r="CU81" s="25"/>
-      <c r="CV81" s="25"/>
+      <c r="CT81" s="21"/>
+      <c r="CU81" s="21"/>
+      <c r="CV81" s="21"/>
+      <c r="CW81" s="25"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34569,7 +34692,7 @@
       <c r="CT83" s="26"/>
       <c r="CU83" s="26"/>
       <c r="CV83" s="26"/>
-      <c r="CW83" s="9"/>
+      <c r="CW83" s="26"/>
       <c r="CX83" s="9"/>
       <c r="CY83" s="9"/>
       <c r="CZ83" s="9"/>
@@ -34718,7 +34841,7 @@
       <c r="CT84" s="26"/>
       <c r="CU84" s="26"/>
       <c r="CV84" s="26"/>
-      <c r="CW84" s="9"/>
+      <c r="CW84" s="26"/>
       <c r="CX84" s="9"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
@@ -34774,7 +34897,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34784,7 +34907,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -34794,144 +34917,144 @@
     </row>
     <row r="92" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A92" s="4"/>
-      <c r="B92" s="30">
+      <c r="B92" s="34">
         <v>2000</v>
       </c>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="30">
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="34">
         <v>2001</v>
       </c>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="30">
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="34">
         <v>2002</v>
       </c>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="30">
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="34">
         <v>2003</v>
       </c>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="30">
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="34">
         <v>2004</v>
       </c>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-      <c r="V92" s="30">
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="34">
         <v>2005</v>
       </c>
-      <c r="W92" s="31"/>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="31"/>
-      <c r="Z92" s="30">
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="34">
         <v>2006</v>
       </c>
-      <c r="AA92" s="31"/>
-      <c r="AB92" s="31"/>
-      <c r="AC92" s="31"/>
-      <c r="AD92" s="30">
+      <c r="AA92" s="35"/>
+      <c r="AB92" s="35"/>
+      <c r="AC92" s="35"/>
+      <c r="AD92" s="34">
         <v>2007</v>
       </c>
-      <c r="AE92" s="31"/>
-      <c r="AF92" s="31"/>
-      <c r="AG92" s="31"/>
-      <c r="AH92" s="30">
+      <c r="AE92" s="35"/>
+      <c r="AF92" s="35"/>
+      <c r="AG92" s="35"/>
+      <c r="AH92" s="34">
         <v>2008</v>
       </c>
-      <c r="AI92" s="31"/>
-      <c r="AJ92" s="31"/>
-      <c r="AK92" s="31"/>
-      <c r="AL92" s="30">
+      <c r="AI92" s="35"/>
+      <c r="AJ92" s="35"/>
+      <c r="AK92" s="35"/>
+      <c r="AL92" s="34">
         <v>2009</v>
       </c>
-      <c r="AM92" s="31"/>
-      <c r="AN92" s="31"/>
-      <c r="AO92" s="31"/>
-      <c r="AP92" s="30">
+      <c r="AM92" s="35"/>
+      <c r="AN92" s="35"/>
+      <c r="AO92" s="35"/>
+      <c r="AP92" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ92" s="31"/>
-      <c r="AR92" s="31"/>
-      <c r="AS92" s="31"/>
-      <c r="AT92" s="30">
+      <c r="AQ92" s="35"/>
+      <c r="AR92" s="35"/>
+      <c r="AS92" s="35"/>
+      <c r="AT92" s="34">
         <v>2011</v>
       </c>
-      <c r="AU92" s="31"/>
-      <c r="AV92" s="31"/>
-      <c r="AW92" s="31"/>
-      <c r="AX92" s="30">
+      <c r="AU92" s="35"/>
+      <c r="AV92" s="35"/>
+      <c r="AW92" s="35"/>
+      <c r="AX92" s="34">
         <v>2012</v>
       </c>
-      <c r="AY92" s="31"/>
-      <c r="AZ92" s="31"/>
-      <c r="BA92" s="31"/>
-      <c r="BB92" s="30">
+      <c r="AY92" s="35"/>
+      <c r="AZ92" s="35"/>
+      <c r="BA92" s="35"/>
+      <c r="BB92" s="34">
         <v>2013</v>
       </c>
-      <c r="BC92" s="31"/>
-      <c r="BD92" s="31"/>
-      <c r="BE92" s="31"/>
-      <c r="BF92" s="30">
+      <c r="BC92" s="35"/>
+      <c r="BD92" s="35"/>
+      <c r="BE92" s="35"/>
+      <c r="BF92" s="34">
         <v>2014</v>
       </c>
-      <c r="BG92" s="31"/>
-      <c r="BH92" s="31"/>
-      <c r="BI92" s="31"/>
-      <c r="BJ92" s="30">
+      <c r="BG92" s="35"/>
+      <c r="BH92" s="35"/>
+      <c r="BI92" s="35"/>
+      <c r="BJ92" s="34">
         <v>2015</v>
       </c>
-      <c r="BK92" s="31"/>
-      <c r="BL92" s="31"/>
-      <c r="BM92" s="31"/>
-      <c r="BN92" s="30">
+      <c r="BK92" s="35"/>
+      <c r="BL92" s="35"/>
+      <c r="BM92" s="35"/>
+      <c r="BN92" s="34">
         <v>2016</v>
       </c>
-      <c r="BO92" s="31"/>
-      <c r="BP92" s="31"/>
-      <c r="BQ92" s="31"/>
-      <c r="BR92" s="30">
+      <c r="BO92" s="35"/>
+      <c r="BP92" s="35"/>
+      <c r="BQ92" s="35"/>
+      <c r="BR92" s="34">
         <v>2017</v>
       </c>
-      <c r="BS92" s="31"/>
-      <c r="BT92" s="31"/>
-      <c r="BU92" s="31"/>
-      <c r="BV92" s="30">
+      <c r="BS92" s="35"/>
+      <c r="BT92" s="35"/>
+      <c r="BU92" s="35"/>
+      <c r="BV92" s="34">
         <v>2018</v>
       </c>
-      <c r="BW92" s="31"/>
-      <c r="BX92" s="31"/>
-      <c r="BY92" s="31"/>
-      <c r="BZ92" s="30">
+      <c r="BW92" s="35"/>
+      <c r="BX92" s="35"/>
+      <c r="BY92" s="35"/>
+      <c r="BZ92" s="34">
         <v>2019</v>
       </c>
-      <c r="CA92" s="31"/>
-      <c r="CB92" s="31"/>
-      <c r="CC92" s="31"/>
-      <c r="CD92" s="30">
+      <c r="CA92" s="35"/>
+      <c r="CB92" s="35"/>
+      <c r="CC92" s="35"/>
+      <c r="CD92" s="34">
         <v>2020</v>
       </c>
-      <c r="CE92" s="30"/>
-      <c r="CF92" s="30"/>
-      <c r="CG92" s="30"/>
-      <c r="CH92" s="30">
+      <c r="CE92" s="34"/>
+      <c r="CF92" s="34"/>
+      <c r="CG92" s="34"/>
+      <c r="CH92" s="34">
         <v>2021</v>
       </c>
-      <c r="CI92" s="30"/>
-      <c r="CJ92" s="30"/>
-      <c r="CK92" s="30"/>
-      <c r="CL92" s="30">
+      <c r="CI92" s="34"/>
+      <c r="CJ92" s="34"/>
+      <c r="CK92" s="34"/>
+      <c r="CL92" s="34">
         <v>2022</v>
       </c>
-      <c r="CM92" s="30"/>
-      <c r="CN92" s="30"/>
-      <c r="CO92" s="30"/>
+      <c r="CM92" s="34"/>
+      <c r="CN92" s="34"/>
+      <c r="CO92" s="34"/>
       <c r="CP92" s="20">
         <v>2023</v>
       </c>
@@ -34943,6 +35066,7 @@
       </c>
       <c r="CU92" s="20"/>
       <c r="CV92" s="20"/>
+      <c r="CW92" s="20"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35244,6 +35368,9 @@
       </c>
       <c r="CV93" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CW93" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35548,9 +35675,11 @@
         <v>160.80940761247138</v>
       </c>
       <c r="CV95" s="28">
-        <v>87.047048255572065</v>
-      </c>
-      <c r="CW95" s="9"/>
+        <v>87.047048255572108</v>
+      </c>
+      <c r="CW95" s="28">
+        <v>105.23570121237691</v>
+      </c>
       <c r="CX95" s="9"/>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
@@ -35904,7 +36033,9 @@
       <c r="CV96" s="28">
         <v>109.42901196247823</v>
       </c>
-      <c r="CW96" s="9"/>
+      <c r="CW96" s="28">
+        <v>113.36833717351193</v>
+      </c>
       <c r="CX96" s="9"/>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
@@ -36256,9 +36387,11 @@
         <v>129.37844325963982</v>
       </c>
       <c r="CV97" s="28">
-        <v>118.23159043611588</v>
-      </c>
-      <c r="CW97" s="9"/>
+        <v>118.23159043611587</v>
+      </c>
+      <c r="CW97" s="28">
+        <v>120.72839469708106</v>
+      </c>
       <c r="CX97" s="9"/>
       <c r="CY97" s="9"/>
       <c r="CZ97" s="9"/>
@@ -36612,7 +36745,9 @@
       <c r="CV98" s="28">
         <v>119.30410079829564</v>
       </c>
-      <c r="CW98" s="9"/>
+      <c r="CW98" s="28">
+        <v>117.29248646851389</v>
+      </c>
       <c r="CX98" s="9"/>
       <c r="CY98" s="9"/>
       <c r="CZ98" s="9"/>
@@ -36765,7 +36900,7 @@
       <c r="CT99" s="28"/>
       <c r="CU99" s="28"/>
       <c r="CV99" s="28"/>
-      <c r="CW99" s="9"/>
+      <c r="CW99" s="28"/>
       <c r="CX99" s="9"/>
       <c r="CY99" s="9"/>
       <c r="CZ99" s="9"/>
@@ -37117,9 +37252,11 @@
         <v>154.97396574128024</v>
       </c>
       <c r="CV100" s="28">
-        <v>91.528402124964487</v>
-      </c>
-      <c r="CW100" s="9"/>
+        <v>91.642360932003427</v>
+      </c>
+      <c r="CW100" s="28">
+        <v>108.21038473692374</v>
+      </c>
       <c r="CX100" s="9"/>
       <c r="CY100" s="9"/>
       <c r="CZ100" s="9"/>
@@ -37273,6 +37410,7 @@
       <c r="CT101" s="25"/>
       <c r="CU101" s="25"/>
       <c r="CV101" s="25"/>
+      <c r="CW101" s="25"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37291,7 +37429,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -37301,7 +37439,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -37311,144 +37449,144 @@
     </row>
     <row r="113" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A113" s="4"/>
-      <c r="B113" s="30">
+      <c r="B113" s="34">
         <v>2000</v>
       </c>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="30">
+      <c r="C113" s="35"/>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="34">
         <v>2001</v>
       </c>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="30">
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="34">
         <v>2002</v>
       </c>
-      <c r="K113" s="31"/>
-      <c r="L113" s="31"/>
-      <c r="M113" s="31"/>
-      <c r="N113" s="30">
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="35"/>
+      <c r="N113" s="34">
         <v>2003</v>
       </c>
-      <c r="O113" s="31"/>
-      <c r="P113" s="31"/>
-      <c r="Q113" s="31"/>
-      <c r="R113" s="30">
+      <c r="O113" s="35"/>
+      <c r="P113" s="35"/>
+      <c r="Q113" s="35"/>
+      <c r="R113" s="34">
         <v>2004</v>
       </c>
-      <c r="S113" s="31"/>
-      <c r="T113" s="31"/>
-      <c r="U113" s="31"/>
-      <c r="V113" s="30">
+      <c r="S113" s="35"/>
+      <c r="T113" s="35"/>
+      <c r="U113" s="35"/>
+      <c r="V113" s="34">
         <v>2005</v>
       </c>
-      <c r="W113" s="31"/>
-      <c r="X113" s="31"/>
-      <c r="Y113" s="31"/>
-      <c r="Z113" s="30">
+      <c r="W113" s="35"/>
+      <c r="X113" s="35"/>
+      <c r="Y113" s="35"/>
+      <c r="Z113" s="34">
         <v>2006</v>
       </c>
-      <c r="AA113" s="31"/>
-      <c r="AB113" s="31"/>
-      <c r="AC113" s="31"/>
-      <c r="AD113" s="30">
+      <c r="AA113" s="35"/>
+      <c r="AB113" s="35"/>
+      <c r="AC113" s="35"/>
+      <c r="AD113" s="34">
         <v>2007</v>
       </c>
-      <c r="AE113" s="31"/>
-      <c r="AF113" s="31"/>
-      <c r="AG113" s="31"/>
-      <c r="AH113" s="30">
+      <c r="AE113" s="35"/>
+      <c r="AF113" s="35"/>
+      <c r="AG113" s="35"/>
+      <c r="AH113" s="34">
         <v>2008</v>
       </c>
-      <c r="AI113" s="31"/>
-      <c r="AJ113" s="31"/>
-      <c r="AK113" s="31"/>
-      <c r="AL113" s="30">
+      <c r="AI113" s="35"/>
+      <c r="AJ113" s="35"/>
+      <c r="AK113" s="35"/>
+      <c r="AL113" s="34">
         <v>2009</v>
       </c>
-      <c r="AM113" s="31"/>
-      <c r="AN113" s="31"/>
-      <c r="AO113" s="31"/>
-      <c r="AP113" s="30">
+      <c r="AM113" s="35"/>
+      <c r="AN113" s="35"/>
+      <c r="AO113" s="35"/>
+      <c r="AP113" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ113" s="31"/>
-      <c r="AR113" s="31"/>
-      <c r="AS113" s="31"/>
-      <c r="AT113" s="30">
+      <c r="AQ113" s="35"/>
+      <c r="AR113" s="35"/>
+      <c r="AS113" s="35"/>
+      <c r="AT113" s="34">
         <v>2011</v>
       </c>
-      <c r="AU113" s="31"/>
-      <c r="AV113" s="31"/>
-      <c r="AW113" s="31"/>
-      <c r="AX113" s="30">
+      <c r="AU113" s="35"/>
+      <c r="AV113" s="35"/>
+      <c r="AW113" s="35"/>
+      <c r="AX113" s="34">
         <v>2012</v>
       </c>
-      <c r="AY113" s="31"/>
-      <c r="AZ113" s="31"/>
-      <c r="BA113" s="31"/>
-      <c r="BB113" s="30">
+      <c r="AY113" s="35"/>
+      <c r="AZ113" s="35"/>
+      <c r="BA113" s="35"/>
+      <c r="BB113" s="34">
         <v>2013</v>
       </c>
-      <c r="BC113" s="31"/>
-      <c r="BD113" s="31"/>
-      <c r="BE113" s="31"/>
-      <c r="BF113" s="30">
+      <c r="BC113" s="35"/>
+      <c r="BD113" s="35"/>
+      <c r="BE113" s="35"/>
+      <c r="BF113" s="34">
         <v>2014</v>
       </c>
-      <c r="BG113" s="31"/>
-      <c r="BH113" s="31"/>
-      <c r="BI113" s="31"/>
-      <c r="BJ113" s="30">
+      <c r="BG113" s="35"/>
+      <c r="BH113" s="35"/>
+      <c r="BI113" s="35"/>
+      <c r="BJ113" s="34">
         <v>2015</v>
       </c>
-      <c r="BK113" s="31"/>
-      <c r="BL113" s="31"/>
-      <c r="BM113" s="31"/>
-      <c r="BN113" s="30">
+      <c r="BK113" s="35"/>
+      <c r="BL113" s="35"/>
+      <c r="BM113" s="35"/>
+      <c r="BN113" s="34">
         <v>2016</v>
       </c>
-      <c r="BO113" s="31"/>
-      <c r="BP113" s="31"/>
-      <c r="BQ113" s="31"/>
-      <c r="BR113" s="30">
+      <c r="BO113" s="35"/>
+      <c r="BP113" s="35"/>
+      <c r="BQ113" s="35"/>
+      <c r="BR113" s="34">
         <v>2017</v>
       </c>
-      <c r="BS113" s="31"/>
-      <c r="BT113" s="31"/>
-      <c r="BU113" s="31"/>
-      <c r="BV113" s="30">
+      <c r="BS113" s="35"/>
+      <c r="BT113" s="35"/>
+      <c r="BU113" s="35"/>
+      <c r="BV113" s="34">
         <v>2018</v>
       </c>
-      <c r="BW113" s="31"/>
-      <c r="BX113" s="31"/>
-      <c r="BY113" s="31"/>
-      <c r="BZ113" s="30">
+      <c r="BW113" s="35"/>
+      <c r="BX113" s="35"/>
+      <c r="BY113" s="35"/>
+      <c r="BZ113" s="34">
         <v>2019</v>
       </c>
-      <c r="CA113" s="31"/>
-      <c r="CB113" s="31"/>
-      <c r="CC113" s="31"/>
-      <c r="CD113" s="30">
+      <c r="CA113" s="35"/>
+      <c r="CB113" s="35"/>
+      <c r="CC113" s="35"/>
+      <c r="CD113" s="34">
         <v>2020</v>
       </c>
-      <c r="CE113" s="30"/>
-      <c r="CF113" s="30"/>
-      <c r="CG113" s="30"/>
-      <c r="CH113" s="30">
+      <c r="CE113" s="34"/>
+      <c r="CF113" s="34"/>
+      <c r="CG113" s="34"/>
+      <c r="CH113" s="34">
         <v>2021</v>
       </c>
-      <c r="CI113" s="30"/>
-      <c r="CJ113" s="30"/>
-      <c r="CK113" s="30"/>
-      <c r="CL113" s="30">
+      <c r="CI113" s="34"/>
+      <c r="CJ113" s="34"/>
+      <c r="CK113" s="34"/>
+      <c r="CL113" s="34">
         <v>2022</v>
       </c>
-      <c r="CM113" s="30"/>
-      <c r="CN113" s="30"/>
-      <c r="CO113" s="30"/>
+      <c r="CM113" s="34"/>
+      <c r="CN113" s="34"/>
+      <c r="CO113" s="34"/>
       <c r="CP113" s="20">
         <v>2023</v>
       </c>
@@ -37460,6 +37598,7 @@
       </c>
       <c r="CU113" s="20"/>
       <c r="CV113" s="20"/>
+      <c r="CW113" s="20"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37761,6 +37900,9 @@
       </c>
       <c r="CV114" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CW114" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38065,9 +38207,11 @@
         <v>85.22036628423453</v>
       </c>
       <c r="CV116" s="28">
-        <v>81.14584635425652</v>
-      </c>
-      <c r="CW116" s="9"/>
+        <v>80.695990836975611</v>
+      </c>
+      <c r="CW116" s="28">
+        <v>77.425724549176124</v>
+      </c>
       <c r="CX116" s="9"/>
       <c r="CY116" s="9"/>
       <c r="CZ116" s="9"/>
@@ -38419,9 +38563,11 @@
         <v>1.2282853164496632</v>
       </c>
       <c r="CV117" s="28">
-        <v>1.4655290304837001</v>
-      </c>
-      <c r="CW117" s="9"/>
+        <v>1.4685324071436117</v>
+      </c>
+      <c r="CW117" s="28">
+        <v>1.8619465110132818</v>
+      </c>
       <c r="CX117" s="9"/>
       <c r="CY117" s="9"/>
       <c r="CZ117" s="9"/>
@@ -38773,9 +38919,11 @@
         <v>12.679666198238012</v>
       </c>
       <c r="CV118" s="28">
-        <v>15.878775205351229</v>
-      </c>
-      <c r="CW118" s="9"/>
+        <v>16.357647452239281</v>
+      </c>
+      <c r="CW118" s="28">
+        <v>19.046514593128222</v>
+      </c>
       <c r="CX118" s="9"/>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
@@ -39127,9 +39275,11 @@
         <v>0.87168220107777616</v>
       </c>
       <c r="CV119" s="28">
-        <v>1.5098494099085475</v>
-      </c>
-      <c r="CW119" s="9"/>
+        <v>1.4778293036415064</v>
+      </c>
+      <c r="CW119" s="28">
+        <v>1.6658143466823629</v>
+      </c>
       <c r="CX119" s="9"/>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
@@ -39282,7 +39432,7 @@
       <c r="CT120" s="26"/>
       <c r="CU120" s="26"/>
       <c r="CV120" s="26"/>
-      <c r="CW120" s="9"/>
+      <c r="CW120" s="26"/>
       <c r="CX120" s="9"/>
       <c r="CY120" s="9"/>
       <c r="CZ120" s="9"/>
@@ -39636,7 +39786,9 @@
       <c r="CV121" s="28">
         <v>100</v>
       </c>
-      <c r="CW121" s="9"/>
+      <c r="CW121" s="28">
+        <v>100</v>
+      </c>
       <c r="CX121" s="9"/>
       <c r="CY121" s="9"/>
       <c r="CZ121" s="9"/>
@@ -39790,6 +39942,7 @@
       <c r="CT122" s="25"/>
       <c r="CU122" s="25"/>
       <c r="CV122" s="25"/>
+      <c r="CW122" s="25"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -39896,7 +40049,7 @@
       <c r="CT124" s="26"/>
       <c r="CU124" s="26"/>
       <c r="CV124" s="26"/>
-      <c r="CW124" s="9"/>
+      <c r="CW124" s="26"/>
       <c r="CX124" s="9"/>
       <c r="CY124" s="9"/>
       <c r="CZ124" s="9"/>
@@ -40049,7 +40202,7 @@
       <c r="CT125" s="26"/>
       <c r="CU125" s="26"/>
       <c r="CV125" s="26"/>
-      <c r="CW125" s="9"/>
+      <c r="CW125" s="26"/>
       <c r="CX125" s="9"/>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
@@ -40114,7 +40267,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -40124,7 +40277,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -40134,144 +40287,144 @@
     </row>
     <row r="134" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A134" s="4"/>
-      <c r="B134" s="30">
+      <c r="B134" s="34">
         <v>2000</v>
       </c>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="30">
+      <c r="C134" s="35"/>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="34">
         <v>2001</v>
       </c>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="30">
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="35"/>
+      <c r="J134" s="34">
         <v>2002</v>
       </c>
-      <c r="K134" s="31"/>
-      <c r="L134" s="31"/>
-      <c r="M134" s="31"/>
-      <c r="N134" s="30">
+      <c r="K134" s="35"/>
+      <c r="L134" s="35"/>
+      <c r="M134" s="35"/>
+      <c r="N134" s="34">
         <v>2003</v>
       </c>
-      <c r="O134" s="31"/>
-      <c r="P134" s="31"/>
-      <c r="Q134" s="31"/>
-      <c r="R134" s="30">
+      <c r="O134" s="35"/>
+      <c r="P134" s="35"/>
+      <c r="Q134" s="35"/>
+      <c r="R134" s="34">
         <v>2004</v>
       </c>
-      <c r="S134" s="31"/>
-      <c r="T134" s="31"/>
-      <c r="U134" s="31"/>
-      <c r="V134" s="30">
+      <c r="S134" s="35"/>
+      <c r="T134" s="35"/>
+      <c r="U134" s="35"/>
+      <c r="V134" s="34">
         <v>2005</v>
       </c>
-      <c r="W134" s="31"/>
-      <c r="X134" s="31"/>
-      <c r="Y134" s="31"/>
-      <c r="Z134" s="30">
+      <c r="W134" s="35"/>
+      <c r="X134" s="35"/>
+      <c r="Y134" s="35"/>
+      <c r="Z134" s="34">
         <v>2006</v>
       </c>
-      <c r="AA134" s="31"/>
-      <c r="AB134" s="31"/>
-      <c r="AC134" s="31"/>
-      <c r="AD134" s="30">
+      <c r="AA134" s="35"/>
+      <c r="AB134" s="35"/>
+      <c r="AC134" s="35"/>
+      <c r="AD134" s="34">
         <v>2007</v>
       </c>
-      <c r="AE134" s="31"/>
-      <c r="AF134" s="31"/>
-      <c r="AG134" s="31"/>
-      <c r="AH134" s="30">
+      <c r="AE134" s="35"/>
+      <c r="AF134" s="35"/>
+      <c r="AG134" s="35"/>
+      <c r="AH134" s="34">
         <v>2008</v>
       </c>
-      <c r="AI134" s="31"/>
-      <c r="AJ134" s="31"/>
-      <c r="AK134" s="31"/>
-      <c r="AL134" s="30">
+      <c r="AI134" s="35"/>
+      <c r="AJ134" s="35"/>
+      <c r="AK134" s="35"/>
+      <c r="AL134" s="34">
         <v>2009</v>
       </c>
-      <c r="AM134" s="31"/>
-      <c r="AN134" s="31"/>
-      <c r="AO134" s="31"/>
-      <c r="AP134" s="30">
+      <c r="AM134" s="35"/>
+      <c r="AN134" s="35"/>
+      <c r="AO134" s="35"/>
+      <c r="AP134" s="34">
         <v>2010</v>
       </c>
-      <c r="AQ134" s="31"/>
-      <c r="AR134" s="31"/>
-      <c r="AS134" s="31"/>
-      <c r="AT134" s="30">
+      <c r="AQ134" s="35"/>
+      <c r="AR134" s="35"/>
+      <c r="AS134" s="35"/>
+      <c r="AT134" s="34">
         <v>2011</v>
       </c>
-      <c r="AU134" s="31"/>
-      <c r="AV134" s="31"/>
-      <c r="AW134" s="31"/>
-      <c r="AX134" s="30">
+      <c r="AU134" s="35"/>
+      <c r="AV134" s="35"/>
+      <c r="AW134" s="35"/>
+      <c r="AX134" s="34">
         <v>2012</v>
       </c>
-      <c r="AY134" s="31"/>
-      <c r="AZ134" s="31"/>
-      <c r="BA134" s="31"/>
-      <c r="BB134" s="30">
+      <c r="AY134" s="35"/>
+      <c r="AZ134" s="35"/>
+      <c r="BA134" s="35"/>
+      <c r="BB134" s="34">
         <v>2013</v>
       </c>
-      <c r="BC134" s="31"/>
-      <c r="BD134" s="31"/>
-      <c r="BE134" s="31"/>
-      <c r="BF134" s="30">
+      <c r="BC134" s="35"/>
+      <c r="BD134" s="35"/>
+      <c r="BE134" s="35"/>
+      <c r="BF134" s="34">
         <v>2014</v>
       </c>
-      <c r="BG134" s="31"/>
-      <c r="BH134" s="31"/>
-      <c r="BI134" s="31"/>
-      <c r="BJ134" s="30">
+      <c r="BG134" s="35"/>
+      <c r="BH134" s="35"/>
+      <c r="BI134" s="35"/>
+      <c r="BJ134" s="34">
         <v>2015</v>
       </c>
-      <c r="BK134" s="31"/>
-      <c r="BL134" s="31"/>
-      <c r="BM134" s="31"/>
-      <c r="BN134" s="30">
+      <c r="BK134" s="35"/>
+      <c r="BL134" s="35"/>
+      <c r="BM134" s="35"/>
+      <c r="BN134" s="34">
         <v>2016</v>
       </c>
-      <c r="BO134" s="31"/>
-      <c r="BP134" s="31"/>
-      <c r="BQ134" s="31"/>
-      <c r="BR134" s="30">
+      <c r="BO134" s="35"/>
+      <c r="BP134" s="35"/>
+      <c r="BQ134" s="35"/>
+      <c r="BR134" s="34">
         <v>2017</v>
       </c>
-      <c r="BS134" s="31"/>
-      <c r="BT134" s="31"/>
-      <c r="BU134" s="31"/>
-      <c r="BV134" s="30">
+      <c r="BS134" s="35"/>
+      <c r="BT134" s="35"/>
+      <c r="BU134" s="35"/>
+      <c r="BV134" s="34">
         <v>2018</v>
       </c>
-      <c r="BW134" s="31"/>
-      <c r="BX134" s="31"/>
-      <c r="BY134" s="31"/>
-      <c r="BZ134" s="30">
+      <c r="BW134" s="35"/>
+      <c r="BX134" s="35"/>
+      <c r="BY134" s="35"/>
+      <c r="BZ134" s="34">
         <v>2019</v>
       </c>
-      <c r="CA134" s="31"/>
-      <c r="CB134" s="31"/>
-      <c r="CC134" s="31"/>
-      <c r="CD134" s="30">
+      <c r="CA134" s="35"/>
+      <c r="CB134" s="35"/>
+      <c r="CC134" s="35"/>
+      <c r="CD134" s="34">
         <v>2020</v>
       </c>
-      <c r="CE134" s="30"/>
-      <c r="CF134" s="30"/>
-      <c r="CG134" s="30"/>
-      <c r="CH134" s="30">
+      <c r="CE134" s="34"/>
+      <c r="CF134" s="34"/>
+      <c r="CG134" s="34"/>
+      <c r="CH134" s="34">
         <v>2021</v>
       </c>
-      <c r="CI134" s="30"/>
-      <c r="CJ134" s="30"/>
-      <c r="CK134" s="30"/>
-      <c r="CL134" s="30">
+      <c r="CI134" s="34"/>
+      <c r="CJ134" s="34"/>
+      <c r="CK134" s="34"/>
+      <c r="CL134" s="34">
         <v>2022</v>
       </c>
-      <c r="CM134" s="30"/>
-      <c r="CN134" s="30"/>
-      <c r="CO134" s="30"/>
+      <c r="CM134" s="34"/>
+      <c r="CN134" s="34"/>
+      <c r="CO134" s="34"/>
       <c r="CP134" s="20">
         <v>2023</v>
       </c>
@@ -40283,6 +40436,7 @@
       </c>
       <c r="CU134" s="20"/>
       <c r="CV134" s="20"/>
+      <c r="CW134" s="20"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40584,6 +40738,9 @@
       </c>
       <c r="CV135" s="21" t="s">
         <v>10</v>
+      </c>
+      <c r="CW135" s="21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -40888,9 +41045,11 @@
         <v>82.127894885473523</v>
       </c>
       <c r="CV137" s="28">
-        <v>85.32339470118157</v>
-      </c>
-      <c r="CW137" s="9"/>
+        <v>84.956023969191577</v>
+      </c>
+      <c r="CW137" s="28">
+        <v>79.614307174075734</v>
+      </c>
       <c r="CX137" s="9"/>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
@@ -41242,9 +41401,11 @@
         <v>1.563152168580521</v>
       </c>
       <c r="CV138" s="28">
-        <v>1.2257949516524507</v>
-      </c>
-      <c r="CW138" s="9"/>
+        <v>1.2298363521909923</v>
+      </c>
+      <c r="CW138" s="28">
+        <v>1.777232985325955</v>
+      </c>
       <c r="CX138" s="9"/>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
@@ -41596,9 +41757,11 @@
         <v>15.188141899908011</v>
       </c>
       <c r="CV139" s="28">
-        <v>12.29247544489894</v>
-      </c>
-      <c r="CW139" s="9"/>
+        <v>12.67895852781041</v>
+      </c>
+      <c r="CW139" s="28">
+        <v>17.071631551062687</v>
+      </c>
       <c r="CX139" s="9"/>
       <c r="CY139" s="9"/>
       <c r="CZ139" s="9"/>
@@ -41950,9 +42113,11 @@
         <v>1.1208110460379408</v>
       </c>
       <c r="CV140" s="28">
-        <v>1.158334902267032</v>
-      </c>
-      <c r="CW140" s="9"/>
+        <v>1.1351811508070222</v>
+      </c>
+      <c r="CW140" s="28">
+        <v>1.5368282895356178</v>
+      </c>
       <c r="CX140" s="9"/>
       <c r="CY140" s="9"/>
       <c r="CZ140" s="9"/>
@@ -42105,7 +42270,7 @@
       <c r="CT141" s="26"/>
       <c r="CU141" s="26"/>
       <c r="CV141" s="26"/>
-      <c r="CW141" s="9"/>
+      <c r="CW141" s="26"/>
       <c r="CX141" s="9"/>
       <c r="CY141" s="9"/>
       <c r="CZ141" s="9"/>
@@ -42459,7 +42624,9 @@
       <c r="CV142" s="28">
         <v>100</v>
       </c>
-      <c r="CW142" s="9"/>
+      <c r="CW142" s="28">
+        <v>100</v>
+      </c>
       <c r="CX142" s="9"/>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
@@ -42613,14 +42780,157 @@
       <c r="CT143" s="25"/>
       <c r="CU143" s="25"/>
       <c r="CV143" s="25"/>
+      <c r="CW143" s="25"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
+      <c r="CT145" s="30"/>
+      <c r="CU145" s="30"/>
+      <c r="CV145" s="30"/>
+    </row>
   </sheetData>
   <mergeCells count="161">
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="BR72:BU72"/>
+    <mergeCell ref="BV72:BY72"/>
+    <mergeCell ref="BR51:BU51"/>
+    <mergeCell ref="BR9:BU9"/>
+    <mergeCell ref="BV9:BY9"/>
+    <mergeCell ref="BJ9:BM9"/>
+    <mergeCell ref="BN9:BQ9"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
+    <mergeCell ref="BR30:BU30"/>
+    <mergeCell ref="BV30:BY30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="AL30:AO30"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:U113"/>
     <mergeCell ref="CL113:CO113"/>
     <mergeCell ref="CL134:CO134"/>
     <mergeCell ref="CL9:CO9"/>
@@ -42645,152 +42955,15 @@
     <mergeCell ref="BN92:BQ92"/>
     <mergeCell ref="BN72:BQ72"/>
     <mergeCell ref="CD92:CG92"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N9:Q9"/>
-    <mergeCell ref="R9:U9"/>
-    <mergeCell ref="BR72:BU72"/>
-    <mergeCell ref="BV72:BY72"/>
-    <mergeCell ref="BR51:BU51"/>
-    <mergeCell ref="BR9:BU9"/>
-    <mergeCell ref="BV9:BY9"/>
-    <mergeCell ref="BJ9:BM9"/>
-    <mergeCell ref="BN9:BQ9"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="N30:Q30"/>
-    <mergeCell ref="BR30:BU30"/>
-    <mergeCell ref="BV30:BY30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="AL30:AO30"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ92:CC92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="99" man="1"/>
-    <brk id="84" max="99" man="1"/>
-    <brk id="104" max="99" man="1"/>
+    <brk id="42" max="100" man="1"/>
+    <brk id="84" max="100" man="1"/>
+    <brk id="104" max="100" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of January 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E298044-8B75-4680-9E89-B2B1A322C768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FD052-8846-4320-B131-1BC7435D6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CW$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CX$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -628,13 +628,16 @@
     <t>2023 - 2024</t>
   </si>
   <si>
-    <t>Q1 2000 to Q4 2024</t>
+    <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q4 2024</t>
+    <t>Q1 2000 to Q1 2025</t>
   </si>
   <si>
-    <t>As of January 2025</t>
+    <t>Q1 2001 to Q1 2025</t>
+  </si>
+  <si>
+    <t>As of May 2025</t>
   </si>
 </sst>
 </file>
@@ -23635,20 +23638,20 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV145"/>
+  <dimension ref="A1:EV144"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
-    <col min="2" max="93" width="10.77734375" style="1" customWidth="1"/>
-    <col min="94" max="101" width="10.109375" style="19" customWidth="1"/>
-    <col min="102" max="16384" width="7.77734375" style="1"/>
+    <col min="2" max="89" width="10.77734375" style="1" customWidth="1"/>
+    <col min="90" max="102" width="10.109375" style="19" customWidth="1"/>
+    <col min="103" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23663,7 +23666,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23673,7 +23676,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23815,12 +23818,12 @@
       <c r="CI9" s="34"/>
       <c r="CJ9" s="34"/>
       <c r="CK9" s="34"/>
-      <c r="CL9" s="34">
+      <c r="CL9" s="20">
         <v>2022</v>
       </c>
-      <c r="CM9" s="34"/>
-      <c r="CN9" s="34"/>
-      <c r="CO9" s="34"/>
+      <c r="CM9" s="20"/>
+      <c r="CN9" s="20"/>
+      <c r="CO9" s="20"/>
       <c r="CP9" s="20">
         <v>2023</v>
       </c>
@@ -23833,6 +23836,9 @@
       <c r="CU9" s="20"/>
       <c r="CV9" s="20"/>
       <c r="CW9" s="20"/>
+      <c r="CX9" s="20">
+        <v>2025</v>
+      </c>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24102,16 +24108,16 @@
       <c r="CK10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL10" s="6" t="s">
+      <c r="CL10" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM10" s="6" t="s">
+      <c r="CM10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN10" s="6" t="s">
+      <c r="CN10" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO10" s="6" t="s">
+      <c r="CO10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CP10" s="21" t="s">
@@ -24137,6 +24143,9 @@
       </c>
       <c r="CW10" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX10" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24410,16 +24419,16 @@
       <c r="CK12" s="8">
         <v>116947.88973451944</v>
       </c>
-      <c r="CL12" s="8">
+      <c r="CL12" s="22">
         <v>149799.88109309287</v>
       </c>
-      <c r="CM12" s="8">
+      <c r="CM12" s="22">
         <v>203560.9396497971</v>
       </c>
-      <c r="CN12" s="8">
+      <c r="CN12" s="22">
         <v>131766.65399284259</v>
       </c>
-      <c r="CO12" s="8">
+      <c r="CO12" s="22">
         <v>134636.44569636678</v>
       </c>
       <c r="CP12" s="22">
@@ -24432,21 +24441,23 @@
         <v>140898.63667681278</v>
       </c>
       <c r="CS12" s="22">
-        <v>140008.62763998186</v>
+        <v>139702.18370973918</v>
       </c>
       <c r="CT12" s="22">
-        <v>186333.67762153904</v>
+        <v>186216.43913973245</v>
       </c>
       <c r="CU12" s="22">
-        <v>247742.35582213555</v>
+        <v>247730.92351370415</v>
       </c>
       <c r="CV12" s="22">
-        <v>151065.51640703797</v>
+        <v>151189.41872020048</v>
       </c>
       <c r="CW12" s="22">
-        <v>148444.57341146268</v>
-      </c>
-      <c r="CX12" s="9"/>
+        <v>147255.33193057618</v>
+      </c>
+      <c r="CX12" s="22">
+        <v>195416.25901830179</v>
+      </c>
       <c r="CY12" s="9"/>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
@@ -24766,16 +24777,16 @@
       <c r="CK13" s="8">
         <v>3131.4786591923739</v>
       </c>
-      <c r="CL13" s="8">
+      <c r="CL13" s="22">
         <v>3281.7999960750249</v>
       </c>
-      <c r="CM13" s="8">
+      <c r="CM13" s="22">
         <v>3386.612565393008</v>
       </c>
-      <c r="CN13" s="8">
+      <c r="CN13" s="22">
         <v>2665.9136282366271</v>
       </c>
-      <c r="CO13" s="8">
+      <c r="CO13" s="22">
         <v>3516.1748168786244</v>
       </c>
       <c r="CP13" s="22">
@@ -24802,7 +24813,9 @@
       <c r="CW13" s="22">
         <v>3569.8194256713487</v>
       </c>
-      <c r="CX13" s="9"/>
+      <c r="CX13" s="22">
+        <v>4525.226696298806</v>
+      </c>
       <c r="CY13" s="9"/>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
@@ -25122,16 +25135,16 @@
       <c r="CK14" s="8">
         <v>26136.660396856932</v>
       </c>
-      <c r="CL14" s="8">
+      <c r="CL14" s="22">
         <v>25706.956828065187</v>
       </c>
-      <c r="CM14" s="8">
+      <c r="CM14" s="22">
         <v>27496.487837448705</v>
       </c>
-      <c r="CN14" s="8">
+      <c r="CN14" s="22">
         <v>22943.754739326265</v>
       </c>
-      <c r="CO14" s="8">
+      <c r="CO14" s="22">
         <v>27897.368896503729</v>
       </c>
       <c r="CP14" s="22">
@@ -25144,21 +25157,23 @@
         <v>26513.962323032938</v>
       </c>
       <c r="CS14" s="22">
-        <v>32512.235543939976</v>
+        <v>32617.4168845229</v>
       </c>
       <c r="CT14" s="22">
-        <v>34413.510365703682</v>
+        <v>34600.227154587512</v>
       </c>
       <c r="CU14" s="22">
-        <v>36860.794103051332</v>
+        <v>37367.623630211056</v>
       </c>
       <c r="CV14" s="22">
-        <v>30622.047439369533</v>
+        <v>30614.881767554161</v>
       </c>
       <c r="CW14" s="22">
-        <v>36516.955446201289</v>
-      </c>
-      <c r="CX14" s="9"/>
+        <v>36621.250776370951</v>
+      </c>
+      <c r="CX14" s="22">
+        <v>37864.267491315033</v>
+      </c>
       <c r="CY14" s="9"/>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
@@ -25478,16 +25493,16 @@
       <c r="CK15" s="8">
         <v>2396.4928403397589</v>
       </c>
-      <c r="CL15" s="8">
+      <c r="CL15" s="22">
         <v>2091.9747789093585</v>
       </c>
-      <c r="CM15" s="8">
+      <c r="CM15" s="22">
         <v>2218.8726489597639</v>
       </c>
-      <c r="CN15" s="8">
+      <c r="CN15" s="22">
         <v>2478.9976749300654</v>
       </c>
-      <c r="CO15" s="8">
+      <c r="CO15" s="22">
         <v>2655.3354367934808</v>
       </c>
       <c r="CP15" s="22">
@@ -25500,21 +25515,23 @@
         <v>2634.5240339515221</v>
       </c>
       <c r="CS15" s="22">
-        <v>2941.4129278523587</v>
+        <v>2978.364102646945</v>
       </c>
       <c r="CT15" s="22">
-        <v>2805.8751371032754</v>
+        <v>2753.7675574030532</v>
       </c>
       <c r="CU15" s="22">
-        <v>2534.0492119333121</v>
+        <v>2562.3643157217452</v>
       </c>
       <c r="CV15" s="22">
         <v>2766.544466466391</v>
       </c>
       <c r="CW15" s="22">
-        <v>3193.7847726423256</v>
-      </c>
-      <c r="CX15" s="9"/>
+        <v>3436.2763991786846</v>
+      </c>
+      <c r="CX15" s="22">
+        <v>2789.4399014476157</v>
+      </c>
       <c r="CY15" s="9"/>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
@@ -25655,10 +25672,10 @@
       <c r="CI16" s="10"/>
       <c r="CJ16" s="10"/>
       <c r="CK16" s="10"/>
-      <c r="CL16" s="10"/>
-      <c r="CM16" s="10"/>
-      <c r="CN16" s="10"/>
-      <c r="CO16" s="10"/>
+      <c r="CL16" s="23"/>
+      <c r="CM16" s="23"/>
+      <c r="CN16" s="23"/>
+      <c r="CO16" s="23"/>
       <c r="CP16" s="23"/>
       <c r="CQ16" s="23"/>
       <c r="CR16" s="23"/>
@@ -25667,7 +25684,7 @@
       <c r="CU16" s="23"/>
       <c r="CV16" s="23"/>
       <c r="CW16" s="23"/>
-      <c r="CX16" s="9"/>
+      <c r="CX16" s="23"/>
       <c r="CY16" s="9"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
@@ -25987,16 +26004,16 @@
       <c r="CK17" s="12">
         <v>148612.52163090851</v>
       </c>
-      <c r="CL17" s="12">
+      <c r="CL17" s="24">
         <v>180880.61269614243</v>
       </c>
-      <c r="CM17" s="12">
+      <c r="CM17" s="24">
         <v>236662.9127015986</v>
       </c>
-      <c r="CN17" s="12">
+      <c r="CN17" s="24">
         <v>159855.32003533552</v>
       </c>
-      <c r="CO17" s="12">
+      <c r="CO17" s="24">
         <v>168705.32484654261</v>
       </c>
       <c r="CP17" s="24">
@@ -26009,21 +26026,23 @@
         <v>172963.87170780139</v>
       </c>
       <c r="CS17" s="24">
-        <v>178868.75938811232</v>
+        <v>178704.44797324715</v>
       </c>
       <c r="CT17" s="24">
-        <v>227597.10504117308</v>
+        <v>227614.4757685501</v>
       </c>
       <c r="CU17" s="24">
-        <v>290707.92185502144</v>
+        <v>291231.63417753816</v>
       </c>
       <c r="CV17" s="24">
-        <v>187203.24868706914</v>
+        <v>187319.98532841628</v>
       </c>
       <c r="CW17" s="24">
-        <v>191725.13305597767</v>
-      </c>
-      <c r="CX17" s="9"/>
+        <v>190882.6785317972</v>
+      </c>
+      <c r="CX17" s="24">
+        <v>240595.19310736324</v>
+      </c>
       <c r="CY17" s="9"/>
       <c r="CZ17" s="9"/>
       <c r="DA17" s="9"/>
@@ -26165,10 +26184,10 @@
       <c r="CI18" s="13"/>
       <c r="CJ18" s="13"/>
       <c r="CK18" s="13"/>
-      <c r="CL18" s="13"/>
-      <c r="CM18" s="13"/>
-      <c r="CN18" s="13"/>
-      <c r="CO18" s="13"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
       <c r="CP18" s="25"/>
       <c r="CQ18" s="25"/>
       <c r="CR18" s="25"/>
@@ -26177,6 +26196,7 @@
       <c r="CU18" s="25"/>
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
+      <c r="CX18" s="25"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26272,10 +26292,10 @@
       <c r="CI20" s="9"/>
       <c r="CJ20" s="9"/>
       <c r="CK20" s="9"/>
-      <c r="CL20" s="9"/>
-      <c r="CM20" s="9"/>
-      <c r="CN20" s="9"/>
-      <c r="CO20" s="9"/>
+      <c r="CL20" s="26"/>
+      <c r="CM20" s="26"/>
+      <c r="CN20" s="26"/>
+      <c r="CO20" s="26"/>
       <c r="CP20" s="26"/>
       <c r="CQ20" s="26"/>
       <c r="CR20" s="26"/>
@@ -26284,7 +26304,7 @@
       <c r="CU20" s="26"/>
       <c r="CV20" s="26"/>
       <c r="CW20" s="26"/>
-      <c r="CX20" s="9"/>
+      <c r="CX20" s="26"/>
       <c r="CY20" s="9"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
@@ -26425,10 +26445,10 @@
       <c r="CI21" s="9"/>
       <c r="CJ21" s="9"/>
       <c r="CK21" s="9"/>
-      <c r="CL21" s="9"/>
-      <c r="CM21" s="9"/>
-      <c r="CN21" s="9"/>
-      <c r="CO21" s="9"/>
+      <c r="CL21" s="26"/>
+      <c r="CM21" s="26"/>
+      <c r="CN21" s="26"/>
+      <c r="CO21" s="26"/>
       <c r="CP21" s="26"/>
       <c r="CQ21" s="26"/>
       <c r="CR21" s="26"/>
@@ -26437,7 +26457,7 @@
       <c r="CU21" s="26"/>
       <c r="CV21" s="26"/>
       <c r="CW21" s="26"/>
-      <c r="CX21" s="9"/>
+      <c r="CX21" s="26"/>
       <c r="CY21" s="9"/>
       <c r="CZ21" s="9"/>
       <c r="DA21" s="9"/>
@@ -26501,7 +26521,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26511,7 +26531,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26653,12 +26673,12 @@
       <c r="CI30" s="34"/>
       <c r="CJ30" s="34"/>
       <c r="CK30" s="34"/>
-      <c r="CL30" s="34">
+      <c r="CL30" s="20">
         <v>2022</v>
       </c>
-      <c r="CM30" s="34"/>
-      <c r="CN30" s="34"/>
-      <c r="CO30" s="34"/>
+      <c r="CM30" s="20"/>
+      <c r="CN30" s="20"/>
+      <c r="CO30" s="20"/>
       <c r="CP30" s="20">
         <v>2023</v>
       </c>
@@ -26671,6 +26691,9 @@
       <c r="CU30" s="20"/>
       <c r="CV30" s="20"/>
       <c r="CW30" s="20"/>
+      <c r="CX30" s="20">
+        <v>2025</v>
+      </c>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -26940,16 +26963,16 @@
       <c r="CK31" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL31" s="6" t="s">
+      <c r="CL31" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM31" s="6" t="s">
+      <c r="CM31" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN31" s="6" t="s">
+      <c r="CN31" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO31" s="6" t="s">
+      <c r="CO31" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CP31" s="21" t="s">
@@ -26975,6 +26998,9 @@
       </c>
       <c r="CW31" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX31" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27248,16 +27274,16 @@
       <c r="CK33" s="8">
         <v>120016.61292978798</v>
       </c>
-      <c r="CL33" s="8">
+      <c r="CL33" s="22">
         <v>115951.26534221484</v>
       </c>
-      <c r="CM33" s="8">
+      <c r="CM33" s="22">
         <v>133986.84916411166</v>
       </c>
-      <c r="CN33" s="8">
+      <c r="CN33" s="22">
         <v>151635.88072345522</v>
       </c>
-      <c r="CO33" s="8">
+      <c r="CO33" s="22">
         <v>125214.52203908504</v>
       </c>
       <c r="CP33" s="22">
@@ -27270,21 +27296,23 @@
         <v>161864.921901925</v>
       </c>
       <c r="CS33" s="22">
-        <v>132849.85935620285</v>
+        <v>132559.03842049395</v>
       </c>
       <c r="CT33" s="22">
-        <v>132229.52046055967</v>
+        <v>132145.99172936456</v>
       </c>
       <c r="CU33" s="22">
-        <v>154059.61597667262</v>
+        <v>154052.47067591338</v>
       </c>
       <c r="CV33" s="22">
-        <v>173544.67432773387</v>
+        <v>173687.01380465535</v>
       </c>
       <c r="CW33" s="22">
-        <v>141059.13839247922</v>
-      </c>
-      <c r="CX33" s="9"/>
+        <v>139929.01591262216</v>
+      </c>
+      <c r="CX33" s="22">
+        <v>137231.62156335905</v>
+      </c>
       <c r="CY33" s="9"/>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
@@ -27604,16 +27632,16 @@
       <c r="CK34" s="8">
         <v>2957.4612432783179</v>
       </c>
-      <c r="CL34" s="8">
+      <c r="CL34" s="22">
         <v>2995.4632546905109</v>
       </c>
-      <c r="CM34" s="8">
+      <c r="CM34" s="22">
         <v>2954.8050504315738</v>
       </c>
-      <c r="CN34" s="8">
+      <c r="CN34" s="22">
         <v>2569.3227630156825</v>
       </c>
-      <c r="CO34" s="8">
+      <c r="CO34" s="22">
         <v>3122.9425284071531</v>
       </c>
       <c r="CP34" s="22">
@@ -27640,7 +27668,9 @@
       <c r="CW34" s="22">
         <v>3148.8681184479988</v>
       </c>
-      <c r="CX34" s="9"/>
+      <c r="CX34" s="22">
+        <v>3416.6336265583732</v>
+      </c>
       <c r="CY34" s="9"/>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
@@ -27960,16 +27990,16 @@
       <c r="CK35" s="8">
         <v>24719.955784756323</v>
       </c>
-      <c r="CL35" s="8">
+      <c r="CL35" s="22">
         <v>24260.820389665172</v>
       </c>
-      <c r="CM35" s="8">
+      <c r="CM35" s="22">
         <v>25473.702528060967</v>
       </c>
-      <c r="CN35" s="8">
+      <c r="CN35" s="22">
         <v>23057.388227622931</v>
       </c>
-      <c r="CO35" s="8">
+      <c r="CO35" s="22">
         <v>27573.404310465623</v>
       </c>
       <c r="CP35" s="22">
@@ -27982,21 +28012,23 @@
         <v>24052.228916587959</v>
       </c>
       <c r="CS35" s="22">
-        <v>28782.598704177344</v>
+        <v>28875.71634794608</v>
       </c>
       <c r="CT35" s="22">
-        <v>28038.956741938411</v>
+        <v>28191.087225311727</v>
       </c>
       <c r="CU35" s="22">
-        <v>28490.676788464822</v>
+        <v>28887.900386933485</v>
       </c>
       <c r="CV35" s="22">
-        <v>25900.055413629543</v>
+        <v>25893.994705329045</v>
       </c>
       <c r="CW35" s="22">
-        <v>30247.197055693301</v>
-      </c>
-      <c r="CX35" s="9"/>
+        <v>30333.587733344346</v>
+      </c>
+      <c r="CX35" s="22">
+        <v>29114.103984566744</v>
+      </c>
       <c r="CY35" s="9"/>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
@@ -28316,16 +28348,16 @@
       <c r="CK36" s="8">
         <v>2161.554211327069</v>
       </c>
-      <c r="CL36" s="8">
+      <c r="CL36" s="22">
         <v>1884.5847292759472</v>
       </c>
-      <c r="CM36" s="8">
+      <c r="CM36" s="22">
         <v>1959.4704276840453</v>
       </c>
-      <c r="CN36" s="8">
+      <c r="CN36" s="22">
         <v>2200.1473327711597</v>
       </c>
-      <c r="CO36" s="8">
+      <c r="CO36" s="22">
         <v>2381.4317702289782</v>
       </c>
       <c r="CP36" s="22">
@@ -28338,21 +28370,23 @@
         <v>2254.1520579715079</v>
       </c>
       <c r="CS36" s="22">
-        <v>2546.9543260567502</v>
+        <v>2578.9731799921065</v>
       </c>
       <c r="CT36" s="22">
-        <v>2375.6634539594706</v>
+        <v>2331.5452852173298</v>
       </c>
       <c r="CU36" s="22">
-        <v>2102.4734601539071</v>
+        <v>2125.9661981624427</v>
       </c>
       <c r="CV36" s="22">
         <v>2318.9014023446825</v>
       </c>
       <c r="CW36" s="22">
-        <v>2722.9235808720523</v>
-      </c>
-      <c r="CX36" s="9"/>
+        <v>2929.6907052887482</v>
+      </c>
+      <c r="CX36" s="22">
+        <v>2332.9964392709089</v>
+      </c>
       <c r="CY36" s="9"/>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
@@ -28493,10 +28527,10 @@
       <c r="CI37" s="10"/>
       <c r="CJ37" s="10"/>
       <c r="CK37" s="10"/>
-      <c r="CL37" s="10"/>
-      <c r="CM37" s="10"/>
-      <c r="CN37" s="10"/>
-      <c r="CO37" s="10"/>
+      <c r="CL37" s="23"/>
+      <c r="CM37" s="23"/>
+      <c r="CN37" s="23"/>
+      <c r="CO37" s="23"/>
       <c r="CP37" s="23"/>
       <c r="CQ37" s="23"/>
       <c r="CR37" s="23"/>
@@ -28505,7 +28539,7 @@
       <c r="CU37" s="23"/>
       <c r="CV37" s="23"/>
       <c r="CW37" s="23"/>
-      <c r="CX37" s="9"/>
+      <c r="CX37" s="23"/>
       <c r="CY37" s="9"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
@@ -28825,16 +28859,16 @@
       <c r="CK38" s="12">
         <v>149855.58416914969</v>
       </c>
-      <c r="CL38" s="12">
+      <c r="CL38" s="24">
         <v>145092.13371584649</v>
       </c>
-      <c r="CM38" s="12">
+      <c r="CM38" s="24">
         <v>164374.82717028825</v>
       </c>
-      <c r="CN38" s="12">
+      <c r="CN38" s="24">
         <v>179462.739046865</v>
       </c>
-      <c r="CO38" s="12">
+      <c r="CO38" s="24">
         <v>158292.30064818679</v>
       </c>
       <c r="CP38" s="24">
@@ -28847,21 +28881,23 @@
         <v>190777.62711975517</v>
       </c>
       <c r="CS38" s="24">
-        <v>167040.23961920995</v>
+        <v>166874.55518120516</v>
       </c>
       <c r="CT38" s="24">
-        <v>165780.46067616055</v>
+        <v>165804.94425959661</v>
       </c>
       <c r="CU38" s="24">
-        <v>187585.00530362688</v>
+        <v>187998.57633934481</v>
       </c>
       <c r="CV38" s="24">
-        <v>204275.89030139646</v>
+        <v>204412.16907001744</v>
       </c>
       <c r="CW38" s="24">
-        <v>177178.12714749257</v>
-      </c>
-      <c r="CX38" s="9"/>
+        <v>176341.16246970327</v>
+      </c>
+      <c r="CX38" s="24">
+        <v>172095.35561375509</v>
+      </c>
       <c r="CY38" s="9"/>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
@@ -29003,10 +29039,10 @@
       <c r="CI39" s="13"/>
       <c r="CJ39" s="13"/>
       <c r="CK39" s="13"/>
-      <c r="CL39" s="13"/>
-      <c r="CM39" s="13"/>
-      <c r="CN39" s="13"/>
-      <c r="CO39" s="13"/>
+      <c r="CL39" s="25"/>
+      <c r="CM39" s="25"/>
+      <c r="CN39" s="25"/>
+      <c r="CO39" s="25"/>
       <c r="CP39" s="25"/>
       <c r="CQ39" s="25"/>
       <c r="CR39" s="25"/>
@@ -29015,6 +29051,7 @@
       <c r="CU39" s="25"/>
       <c r="CV39" s="25"/>
       <c r="CW39" s="25"/>
+      <c r="CX39" s="25"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29110,10 +29147,10 @@
       <c r="CI41" s="9"/>
       <c r="CJ41" s="9"/>
       <c r="CK41" s="9"/>
-      <c r="CL41" s="9"/>
-      <c r="CM41" s="9"/>
-      <c r="CN41" s="9"/>
-      <c r="CO41" s="9"/>
+      <c r="CL41" s="26"/>
+      <c r="CM41" s="26"/>
+      <c r="CN41" s="26"/>
+      <c r="CO41" s="26"/>
       <c r="CP41" s="26"/>
       <c r="CQ41" s="26"/>
       <c r="CR41" s="26"/>
@@ -29122,7 +29159,7 @@
       <c r="CU41" s="26"/>
       <c r="CV41" s="26"/>
       <c r="CW41" s="26"/>
-      <c r="CX41" s="9"/>
+      <c r="CX41" s="26"/>
       <c r="CY41" s="9"/>
       <c r="CZ41" s="9"/>
       <c r="DA41" s="9"/>
@@ -29263,10 +29300,10 @@
       <c r="CI42" s="9"/>
       <c r="CJ42" s="9"/>
       <c r="CK42" s="9"/>
-      <c r="CL42" s="9"/>
-      <c r="CM42" s="9"/>
-      <c r="CN42" s="9"/>
-      <c r="CO42" s="9"/>
+      <c r="CL42" s="26"/>
+      <c r="CM42" s="26"/>
+      <c r="CN42" s="26"/>
+      <c r="CO42" s="26"/>
       <c r="CP42" s="26"/>
       <c r="CQ42" s="26"/>
       <c r="CR42" s="26"/>
@@ -29275,7 +29312,7 @@
       <c r="CU42" s="26"/>
       <c r="CV42" s="26"/>
       <c r="CW42" s="26"/>
-      <c r="CX42" s="9"/>
+      <c r="CX42" s="26"/>
       <c r="CY42" s="9"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
@@ -29339,7 +29376,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29349,27 +29386,28 @@
       <c r="CT47" s="30"/>
       <c r="CU47" s="30"/>
       <c r="CV47" s="30"/>
+      <c r="CX47" s="30"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT48" s="30"/>
+        <v>54</v>
+      </c>
       <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
+      <c r="CX48" s="30"/>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CT49" s="30"/>
       <c r="CU49" s="30"/>
       <c r="CV49" s="30"/>
+      <c r="CX49" s="30"/>
     </row>
     <row r="50" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CT50" s="30"/>
       <c r="CU50" s="30"/>
       <c r="CV50" s="30"/>
+      <c r="CX50" s="30"/>
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -29505,22 +29543,25 @@
       <c r="CI51" s="34"/>
       <c r="CJ51" s="34"/>
       <c r="CK51" s="34"/>
-      <c r="CL51" s="34" t="s">
+      <c r="CL51" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM51" s="34"/>
-      <c r="CN51" s="34"/>
-      <c r="CO51" s="34"/>
+      <c r="CM51" s="20"/>
+      <c r="CN51" s="20"/>
+      <c r="CO51" s="20"/>
       <c r="CP51" s="20" t="s">
         <v>51</v>
       </c>
       <c r="CQ51" s="20"/>
       <c r="CR51" s="20"/>
       <c r="CS51" s="20"/>
-      <c r="CT51" s="18"/>
+      <c r="CT51" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="CU51" s="18"/>
       <c r="CV51" s="18"/>
       <c r="CW51" s="18"/>
+      <c r="CX51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29790,16 +29831,16 @@
       <c r="CK52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL52" s="5" t="s">
+      <c r="CL52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM52" s="5" t="s">
+      <c r="CM52" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN52" s="5" t="s">
+      <c r="CN52" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO52" s="5" t="s">
+      <c r="CO52" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP52" s="27" t="s">
@@ -29814,16 +29855,19 @@
       <c r="CS52" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT52" s="27"/>
+      <c r="CT52" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="CU52" s="27"/>
       <c r="CV52" s="27"/>
       <c r="CW52" s="27"/>
+      <c r="CX52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="CT53" s="30"/>
       <c r="CU53" s="30"/>
       <c r="CV53" s="30"/>
+      <c r="CX53" s="30"/>
     </row>
     <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30093,35 +30137,37 @@
       <c r="CK54" s="15">
         <v>15.125160447103141</v>
       </c>
-      <c r="CL54" s="15">
+      <c r="CL54" s="28">
         <v>21.503860320875901</v>
       </c>
-      <c r="CM54" s="15">
+      <c r="CM54" s="28">
         <v>15.588309405479478</v>
       </c>
-      <c r="CN54" s="15">
+      <c r="CN54" s="28">
         <v>6.9304201080086898</v>
       </c>
-      <c r="CO54" s="15">
-        <v>3.9901394572837035</v>
+      <c r="CO54" s="28">
+        <v>3.7625310050123346</v>
       </c>
       <c r="CP54" s="28">
-        <v>2.3740325826179856</v>
+        <v>2.3096203072332742</v>
       </c>
       <c r="CQ54" s="28">
-        <v>5.291158536872075</v>
+        <v>5.2862997754564276</v>
       </c>
       <c r="CR54" s="28">
-        <v>7.2157403151781807</v>
+        <v>7.3036775132127474</v>
       </c>
       <c r="CS54" s="28">
-        <v>6.0253042356596751</v>
-      </c>
-      <c r="CT54" s="31"/>
+        <v>5.4066071268651399</v>
+      </c>
+      <c r="CT54" s="28">
+        <v>4.940390827506917</v>
+      </c>
       <c r="CU54" s="31"/>
       <c r="CV54" s="31"/>
       <c r="CW54" s="28"/>
-      <c r="CX54" s="9"/>
+      <c r="CX54" s="31"/>
       <c r="CY54" s="9"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
@@ -30437,16 +30483,16 @@
       <c r="CK55" s="15">
         <v>12.284808537876657</v>
       </c>
-      <c r="CL55" s="15">
+      <c r="CL55" s="28">
         <v>26.40749253905193</v>
       </c>
-      <c r="CM55" s="15">
+      <c r="CM55" s="28">
         <v>11.943348768206079</v>
       </c>
-      <c r="CN55" s="15">
+      <c r="CN55" s="28">
         <v>9.4089712101230134</v>
       </c>
-      <c r="CO55" s="15">
+      <c r="CO55" s="28">
         <v>-3.1196270451051333</v>
       </c>
       <c r="CP55" s="28">
@@ -30461,11 +30507,13 @@
       <c r="CS55" s="28">
         <v>4.7948613300937524</v>
       </c>
-      <c r="CT55" s="31"/>
+      <c r="CT55" s="28">
+        <v>11.898610087831642</v>
+      </c>
       <c r="CU55" s="31"/>
       <c r="CV55" s="31"/>
       <c r="CW55" s="28"/>
-      <c r="CX55" s="9"/>
+      <c r="CX55" s="31"/>
       <c r="CY55" s="9"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
@@ -30781,35 +30829,37 @@
       <c r="CK56" s="15">
         <v>6.7365473358582904</v>
       </c>
-      <c r="CL56" s="15">
+      <c r="CL56" s="28">
         <v>15.739973415697236</v>
       </c>
-      <c r="CM56" s="15">
+      <c r="CM56" s="28">
         <v>19.534446261682547</v>
       </c>
-      <c r="CN56" s="15">
+      <c r="CN56" s="28">
         <v>15.560694508241198</v>
       </c>
-      <c r="CO56" s="15">
-        <v>16.542300689921376</v>
+      <c r="CO56" s="28">
+        <v>16.919330297885978</v>
       </c>
       <c r="CP56" s="28">
-        <v>15.663126827784851</v>
+        <v>16.29067825755908</v>
       </c>
       <c r="CQ56" s="28">
-        <v>12.148737444424086</v>
+        <v>13.690763137403181</v>
       </c>
       <c r="CR56" s="28">
-        <v>15.494044482245712</v>
+        <v>15.467018450722918</v>
       </c>
       <c r="CS56" s="28">
-        <v>12.317577783443937</v>
-      </c>
-      <c r="CT56" s="31"/>
+        <v>12.275140934743618</v>
+      </c>
+      <c r="CT56" s="28">
+        <v>9.4335806587176023</v>
+      </c>
       <c r="CU56" s="31"/>
       <c r="CV56" s="31"/>
       <c r="CW56" s="28"/>
-      <c r="CX56" s="9"/>
+      <c r="CX56" s="31"/>
       <c r="CY56" s="9"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
@@ -31125,35 +31175,37 @@
       <c r="CK57" s="15">
         <v>10.800891707109159</v>
       </c>
-      <c r="CL57" s="15">
+      <c r="CL57" s="28">
         <v>10.159068100733066</v>
       </c>
-      <c r="CM57" s="15">
+      <c r="CM57" s="28">
         <v>6.2380304806340661</v>
       </c>
-      <c r="CN57" s="15">
+      <c r="CN57" s="28">
         <v>6.273759777763587</v>
       </c>
-      <c r="CO57" s="15">
-        <v>10.773685580166784</v>
+      <c r="CO57" s="28">
+        <v>12.165267761558056</v>
       </c>
       <c r="CP57" s="28">
-        <v>21.756356383856129</v>
+        <v>19.495233299515917</v>
       </c>
       <c r="CQ57" s="28">
-        <v>7.4985625727638165</v>
+        <v>8.6997361498282402</v>
       </c>
       <c r="CR57" s="28">
         <v>5.0111682722761657</v>
       </c>
       <c r="CS57" s="28">
-        <v>8.5799529335119047</v>
-      </c>
-      <c r="CT57" s="31"/>
+        <v>15.374624483446524</v>
+      </c>
+      <c r="CT57" s="28">
+        <v>1.2954014200894761</v>
+      </c>
       <c r="CU57" s="31"/>
       <c r="CV57" s="31"/>
       <c r="CW57" s="28"/>
-      <c r="CX57" s="9"/>
+      <c r="CX57" s="31"/>
       <c r="CY57" s="9"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
@@ -31290,19 +31342,19 @@
       <c r="CI58" s="9"/>
       <c r="CJ58" s="9"/>
       <c r="CK58" s="9"/>
-      <c r="CL58" s="9"/>
-      <c r="CM58" s="9"/>
-      <c r="CN58" s="9"/>
-      <c r="CO58" s="9"/>
+      <c r="CL58" s="26"/>
+      <c r="CM58" s="26"/>
+      <c r="CN58" s="26"/>
+      <c r="CO58" s="26"/>
       <c r="CP58" s="26"/>
       <c r="CQ58" s="26"/>
       <c r="CR58" s="26"/>
       <c r="CS58" s="26"/>
-      <c r="CT58" s="32"/>
+      <c r="CT58" s="26"/>
       <c r="CU58" s="32"/>
       <c r="CV58" s="32"/>
       <c r="CW58" s="26"/>
-      <c r="CX58" s="9"/>
+      <c r="CX58" s="32"/>
       <c r="CY58" s="9"/>
       <c r="CZ58" s="9"/>
       <c r="DA58" s="9"/>
@@ -31618,35 +31670,37 @@
       <c r="CK59" s="15">
         <v>13.520262623318004</v>
       </c>
-      <c r="CL59" s="15">
+      <c r="CL59" s="28">
         <v>20.642450861271925</v>
       </c>
-      <c r="CM59" s="15">
+      <c r="CM59" s="28">
         <v>15.906964134898558</v>
       </c>
-      <c r="CN59" s="15">
+      <c r="CN59" s="28">
         <v>8.2002598784752792</v>
       </c>
-      <c r="CO59" s="15">
-        <v>6.0243709265339191</v>
+      <c r="CO59" s="28">
+        <v>5.9269754145578446</v>
       </c>
       <c r="CP59" s="28">
-        <v>4.2976593067660929</v>
+        <v>4.3056195407310582</v>
       </c>
       <c r="CQ59" s="28">
-        <v>5.9783443579132722</v>
+        <v>6.1692650748514097</v>
       </c>
       <c r="CR59" s="28">
-        <v>8.2325729868739472</v>
+        <v>8.3000649088542389</v>
       </c>
       <c r="CS59" s="28">
-        <v>7.1876015195976066</v>
-      </c>
-      <c r="CT59" s="31"/>
+        <v>6.8147327594068514</v>
+      </c>
+      <c r="CT59" s="28">
+        <v>5.702940155709868</v>
+      </c>
       <c r="CU59" s="31"/>
       <c r="CV59" s="31"/>
       <c r="CW59" s="28"/>
-      <c r="CX59" s="9"/>
+      <c r="CX59" s="31"/>
       <c r="CY59" s="9"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
@@ -31784,26 +31838,27 @@
       <c r="CI60" s="13"/>
       <c r="CJ60" s="13"/>
       <c r="CK60" s="13"/>
-      <c r="CL60" s="13"/>
-      <c r="CM60" s="13"/>
-      <c r="CN60" s="13"/>
-      <c r="CO60" s="13"/>
+      <c r="CL60" s="25"/>
+      <c r="CM60" s="25"/>
+      <c r="CN60" s="25"/>
+      <c r="CO60" s="25"/>
       <c r="CP60" s="25"/>
       <c r="CQ60" s="25"/>
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
-      <c r="CT60" s="21"/>
+      <c r="CT60" s="25"/>
       <c r="CU60" s="21"/>
       <c r="CV60" s="21"/>
       <c r="CW60" s="25"/>
+      <c r="CX60" s="21"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CT61" s="30"/>
       <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
+      <c r="CX61" s="30"/>
     </row>
     <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
@@ -31894,19 +31949,19 @@
       <c r="CI62" s="17"/>
       <c r="CJ62" s="17"/>
       <c r="CK62" s="17"/>
-      <c r="CL62" s="17"/>
-      <c r="CM62" s="17"/>
-      <c r="CN62" s="17"/>
-      <c r="CO62" s="17"/>
+      <c r="CL62" s="29"/>
+      <c r="CM62" s="29"/>
+      <c r="CN62" s="29"/>
+      <c r="CO62" s="29"/>
       <c r="CP62" s="29"/>
       <c r="CQ62" s="29"/>
       <c r="CR62" s="29"/>
       <c r="CS62" s="29"/>
-      <c r="CT62" s="33"/>
+      <c r="CT62" s="29"/>
       <c r="CU62" s="33"/>
       <c r="CV62" s="33"/>
       <c r="CW62" s="29"/>
-      <c r="CX62" s="9"/>
+      <c r="CX62" s="33"/>
       <c r="CY62" s="9"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
@@ -32043,19 +32098,19 @@
       <c r="CI63" s="9"/>
       <c r="CJ63" s="9"/>
       <c r="CK63" s="9"/>
-      <c r="CL63" s="9"/>
-      <c r="CM63" s="9"/>
-      <c r="CN63" s="9"/>
-      <c r="CO63" s="9"/>
+      <c r="CL63" s="26"/>
+      <c r="CM63" s="26"/>
+      <c r="CN63" s="26"/>
+      <c r="CO63" s="26"/>
       <c r="CP63" s="26"/>
       <c r="CQ63" s="26"/>
       <c r="CR63" s="26"/>
       <c r="CS63" s="26"/>
-      <c r="CT63" s="32"/>
+      <c r="CT63" s="26"/>
       <c r="CU63" s="32"/>
       <c r="CV63" s="32"/>
       <c r="CW63" s="26"/>
-      <c r="CX63" s="9"/>
+      <c r="CX63" s="32"/>
       <c r="CY63" s="9"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
@@ -32107,59 +32162,59 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CT64" s="30"/>
       <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
+      <c r="CX64" s="30"/>
     </row>
     <row r="65" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CT65" s="30"/>
       <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
+      <c r="CX65" s="30"/>
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CT66" s="30"/>
+        <v>55</v>
+      </c>
       <c r="CU66" s="30"/>
       <c r="CV66" s="30"/>
+      <c r="CX66" s="30"/>
     </row>
     <row r="67" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CT67" s="30"/>
       <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
+      <c r="CX67" s="30"/>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CT68" s="30"/>
       <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
+      <c r="CX68" s="30"/>
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CT69" s="30"/>
+        <v>54</v>
+      </c>
       <c r="CU69" s="30"/>
       <c r="CV69" s="30"/>
+      <c r="CX69" s="30"/>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CT70" s="30"/>
       <c r="CU70" s="30"/>
       <c r="CV70" s="30"/>
+      <c r="CX70" s="30"/>
     </row>
     <row r="71" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CT71" s="30"/>
       <c r="CU71" s="30"/>
       <c r="CV71" s="30"/>
+      <c r="CX71" s="30"/>
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -32295,22 +32350,25 @@
       <c r="CI72" s="34"/>
       <c r="CJ72" s="34"/>
       <c r="CK72" s="34"/>
-      <c r="CL72" s="34" t="s">
+      <c r="CL72" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="CM72" s="34"/>
-      <c r="CN72" s="34"/>
-      <c r="CO72" s="34"/>
+      <c r="CM72" s="20"/>
+      <c r="CN72" s="20"/>
+      <c r="CO72" s="20"/>
       <c r="CP72" s="20" t="s">
         <v>51</v>
       </c>
       <c r="CQ72" s="20"/>
       <c r="CR72" s="20"/>
       <c r="CS72" s="20"/>
-      <c r="CT72" s="18"/>
+      <c r="CT72" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="CU72" s="18"/>
       <c r="CV72" s="18"/>
       <c r="CW72" s="18"/>
+      <c r="CX72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32580,16 +32638,16 @@
       <c r="CK73" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CL73" s="5" t="s">
+      <c r="CL73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CM73" s="5" t="s">
+      <c r="CM73" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="CN73" s="5" t="s">
+      <c r="CN73" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="CO73" s="5" t="s">
+      <c r="CO73" s="27" t="s">
         <v>9</v>
       </c>
       <c r="CP73" s="27" t="s">
@@ -32604,16 +32662,19 @@
       <c r="CS73" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="CT73" s="27"/>
+      <c r="CT73" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="CU73" s="27"/>
       <c r="CV73" s="27"/>
       <c r="CW73" s="27"/>
+      <c r="CX73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="CT74" s="30"/>
       <c r="CU74" s="30"/>
       <c r="CV74" s="30"/>
+      <c r="CX74" s="30"/>
     </row>
     <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -32883,35 +32944,37 @@
       <c r="CK75" s="15">
         <v>4.3309913372892197</v>
       </c>
-      <c r="CL75" s="15">
+      <c r="CL75" s="28">
         <v>6.3043751743438321</v>
       </c>
-      <c r="CM75" s="15">
+      <c r="CM75" s="28">
         <v>4.1157632443372876</v>
       </c>
-      <c r="CN75" s="15">
+      <c r="CN75" s="28">
         <v>6.7457920445128252</v>
       </c>
-      <c r="CO75" s="15">
-        <v>6.0978049452878054</v>
+      <c r="CO75" s="28">
+        <v>5.8655467926606519</v>
       </c>
       <c r="CP75" s="28">
-        <v>7.275807289604046</v>
+        <v>7.2080416950558686</v>
       </c>
       <c r="CQ75" s="28">
-        <v>10.435868115575403</v>
+        <v>10.430746088707494</v>
       </c>
       <c r="CR75" s="28">
-        <v>7.2157403151781807</v>
+        <v>7.30367751321279</v>
       </c>
       <c r="CS75" s="28">
-        <v>6.1793659971180546</v>
-      </c>
-      <c r="CT75" s="31"/>
+        <v>5.5597698806095082</v>
+      </c>
+      <c r="CT75" s="28">
+        <v>3.8484934483747963</v>
+      </c>
       <c r="CU75" s="31"/>
       <c r="CV75" s="31"/>
       <c r="CW75" s="28"/>
-      <c r="CX75" s="9"/>
+      <c r="CX75" s="31"/>
       <c r="CY75" s="9"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
@@ -33227,16 +33290,16 @@
       <c r="CK76" s="15">
         <v>5.5953830504098505</v>
       </c>
-      <c r="CL76" s="15">
+      <c r="CL76" s="28">
         <v>20.229356544387841</v>
       </c>
-      <c r="CM76" s="15">
+      <c r="CM76" s="28">
         <v>5.6815206563201457</v>
       </c>
-      <c r="CN76" s="15">
+      <c r="CN76" s="28">
         <v>1.4401258101026713</v>
       </c>
-      <c r="CO76" s="15">
+      <c r="CO76" s="28">
         <v>-8.3932154770660787</v>
       </c>
       <c r="CP76" s="28">
@@ -33251,11 +33314,13 @@
       <c r="CS76" s="28">
         <v>10.068447418818607</v>
       </c>
-      <c r="CT76" s="31"/>
+      <c r="CT76" s="28">
+        <v>8.937659584939837</v>
+      </c>
       <c r="CU76" s="31"/>
       <c r="CV76" s="31"/>
       <c r="CW76" s="28"/>
-      <c r="CX76" s="9"/>
+      <c r="CX76" s="31"/>
       <c r="CY76" s="9"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
@@ -33571,35 +33636,37 @@
       <c r="CK77" s="15">
         <v>11.543097206787451</v>
       </c>
-      <c r="CL77" s="15">
+      <c r="CL77" s="28">
         <v>8.2296159286995021</v>
       </c>
-      <c r="CM77" s="15">
+      <c r="CM77" s="28">
         <v>7.3405811789020845</v>
       </c>
-      <c r="CN77" s="15">
+      <c r="CN77" s="28">
         <v>4.3146286957739761</v>
       </c>
-      <c r="CO77" s="15">
-        <v>4.3853648976262463</v>
+      <c r="CO77" s="28">
+        <v>4.7230730845453195</v>
       </c>
       <c r="CP77" s="28">
-        <v>6.7849996816029829</v>
+        <v>7.3643812102417883</v>
       </c>
       <c r="CQ77" s="28">
-        <v>4.1949691838083538</v>
+        <v>5.6476795180985278</v>
       </c>
       <c r="CR77" s="28">
-        <v>7.6825582504214509</v>
+        <v>7.6573601354296414</v>
       </c>
       <c r="CS77" s="28">
-        <v>5.0884854650160349</v>
-      </c>
-      <c r="CT77" s="31"/>
+        <v>5.0487799777198035</v>
+      </c>
+      <c r="CT77" s="28">
+        <v>3.2741438876691404</v>
+      </c>
       <c r="CU77" s="31"/>
       <c r="CV77" s="31"/>
       <c r="CW77" s="28"/>
-      <c r="CX77" s="9"/>
+      <c r="CX77" s="31"/>
       <c r="CY77" s="9"/>
       <c r="CZ77" s="9"/>
       <c r="DA77" s="9"/>
@@ -33915,35 +33982,37 @@
       <c r="CK78" s="15">
         <v>10.172197289787931</v>
       </c>
-      <c r="CL78" s="15">
+      <c r="CL78" s="28">
         <v>6.46937088915152</v>
       </c>
-      <c r="CM78" s="15">
+      <c r="CM78" s="28">
         <v>2.3858273975784385</v>
       </c>
-      <c r="CN78" s="15">
+      <c r="CN78" s="28">
         <v>2.4545958534662162</v>
       </c>
-      <c r="CO78" s="15">
-        <v>6.9505478971525037</v>
+      <c r="CO78" s="28">
+        <v>8.2950690518475199</v>
       </c>
       <c r="CP78" s="28">
-        <v>18.398053126789662</v>
+        <v>16.199296700292138</v>
       </c>
       <c r="CQ78" s="28">
-        <v>4.7977514768661678</v>
+        <v>5.9687465766803882</v>
       </c>
       <c r="CR78" s="28">
         <v>2.8724479408652712</v>
       </c>
       <c r="CS78" s="28">
-        <v>6.909007084070538</v>
-      </c>
-      <c r="CT78" s="31"/>
+        <v>13.599114873219236</v>
+      </c>
+      <c r="CT78" s="28">
+        <v>6.2240011497081582E-2</v>
+      </c>
       <c r="CU78" s="31"/>
       <c r="CV78" s="31"/>
       <c r="CW78" s="28"/>
-      <c r="CX78" s="9"/>
+      <c r="CX78" s="31"/>
       <c r="CY78" s="9"/>
       <c r="CZ78" s="9"/>
       <c r="DA78" s="9"/>
@@ -34080,19 +34149,19 @@
       <c r="CI79" s="9"/>
       <c r="CJ79" s="9"/>
       <c r="CK79" s="9"/>
-      <c r="CL79" s="9"/>
-      <c r="CM79" s="9"/>
-      <c r="CN79" s="9"/>
-      <c r="CO79" s="9"/>
+      <c r="CL79" s="26"/>
+      <c r="CM79" s="26"/>
+      <c r="CN79" s="26"/>
+      <c r="CO79" s="26"/>
       <c r="CP79" s="26"/>
       <c r="CQ79" s="26"/>
       <c r="CR79" s="26"/>
       <c r="CS79" s="26"/>
-      <c r="CT79" s="32"/>
+      <c r="CT79" s="26"/>
       <c r="CU79" s="32"/>
       <c r="CV79" s="32"/>
       <c r="CW79" s="26"/>
-      <c r="CX79" s="9"/>
+      <c r="CX79" s="32"/>
       <c r="CY79" s="9"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
@@ -34408,35 +34477,37 @@
       <c r="CK80" s="15">
         <v>5.629897961969931</v>
       </c>
-      <c r="CL80" s="15">
+      <c r="CL80" s="28">
         <v>6.9159220328578925</v>
       </c>
-      <c r="CM80" s="15">
+      <c r="CM80" s="28">
         <v>4.6230477475844793</v>
       </c>
-      <c r="CN80" s="15">
+      <c r="CN80" s="28">
         <v>6.304867591447703</v>
       </c>
-      <c r="CO80" s="15">
-        <v>5.5264462865227699</v>
+      <c r="CO80" s="28">
+        <v>5.4217763579625284</v>
       </c>
       <c r="CP80" s="28">
-        <v>6.8678541447583683</v>
+        <v>6.8836371146748121</v>
       </c>
       <c r="CQ80" s="28">
-        <v>9.0775672901770861</v>
+        <v>9.3180519835286191</v>
       </c>
       <c r="CR80" s="28">
-        <v>7.075391064156662</v>
+        <v>7.1468243714466411</v>
       </c>
       <c r="CS80" s="28">
-        <v>6.069128942459173</v>
-      </c>
-      <c r="CT80" s="31"/>
+        <v>5.6728884030393658</v>
+      </c>
+      <c r="CT80" s="28">
+        <v>3.7938623496714001</v>
+      </c>
       <c r="CU80" s="31"/>
       <c r="CV80" s="31"/>
       <c r="CW80" s="28"/>
-      <c r="CX80" s="9"/>
+      <c r="CX80" s="31"/>
       <c r="CY80" s="9"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
@@ -34574,18 +34645,19 @@
       <c r="CI81" s="13"/>
       <c r="CJ81" s="13"/>
       <c r="CK81" s="13"/>
-      <c r="CL81" s="13"/>
-      <c r="CM81" s="13"/>
-      <c r="CN81" s="13"/>
-      <c r="CO81" s="13"/>
+      <c r="CL81" s="25"/>
+      <c r="CM81" s="25"/>
+      <c r="CN81" s="25"/>
+      <c r="CO81" s="25"/>
       <c r="CP81" s="25"/>
       <c r="CQ81" s="25"/>
       <c r="CR81" s="25"/>
       <c r="CS81" s="25"/>
-      <c r="CT81" s="21"/>
+      <c r="CT81" s="25"/>
       <c r="CU81" s="21"/>
       <c r="CV81" s="21"/>
       <c r="CW81" s="25"/>
+      <c r="CX81" s="21"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34681,10 +34753,10 @@
       <c r="CI83" s="9"/>
       <c r="CJ83" s="9"/>
       <c r="CK83" s="9"/>
-      <c r="CL83" s="9"/>
-      <c r="CM83" s="9"/>
-      <c r="CN83" s="9"/>
-      <c r="CO83" s="9"/>
+      <c r="CL83" s="26"/>
+      <c r="CM83" s="26"/>
+      <c r="CN83" s="26"/>
+      <c r="CO83" s="26"/>
       <c r="CP83" s="26"/>
       <c r="CQ83" s="26"/>
       <c r="CR83" s="26"/>
@@ -34693,7 +34765,7 @@
       <c r="CU83" s="26"/>
       <c r="CV83" s="26"/>
       <c r="CW83" s="26"/>
-      <c r="CX83" s="9"/>
+      <c r="CX83" s="26"/>
       <c r="CY83" s="9"/>
       <c r="CZ83" s="9"/>
       <c r="DA83" s="9"/>
@@ -34830,10 +34902,10 @@
       <c r="CI84" s="9"/>
       <c r="CJ84" s="9"/>
       <c r="CK84" s="9"/>
-      <c r="CL84" s="9"/>
-      <c r="CM84" s="9"/>
-      <c r="CN84" s="9"/>
-      <c r="CO84" s="9"/>
+      <c r="CL84" s="26"/>
+      <c r="CM84" s="26"/>
+      <c r="CN84" s="26"/>
+      <c r="CO84" s="26"/>
       <c r="CP84" s="26"/>
       <c r="CQ84" s="26"/>
       <c r="CR84" s="26"/>
@@ -34842,7 +34914,7 @@
       <c r="CU84" s="26"/>
       <c r="CV84" s="26"/>
       <c r="CW84" s="26"/>
-      <c r="CX84" s="9"/>
+      <c r="CX84" s="26"/>
       <c r="CY84" s="9"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
@@ -34897,7 +34969,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34907,7 +34979,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -35049,12 +35121,12 @@
       <c r="CI92" s="34"/>
       <c r="CJ92" s="34"/>
       <c r="CK92" s="34"/>
-      <c r="CL92" s="34">
+      <c r="CL92" s="20">
         <v>2022</v>
       </c>
-      <c r="CM92" s="34"/>
-      <c r="CN92" s="34"/>
-      <c r="CO92" s="34"/>
+      <c r="CM92" s="20"/>
+      <c r="CN92" s="20"/>
+      <c r="CO92" s="20"/>
       <c r="CP92" s="20">
         <v>2023</v>
       </c>
@@ -35067,6 +35139,9 @@
       <c r="CU92" s="20"/>
       <c r="CV92" s="20"/>
       <c r="CW92" s="20"/>
+      <c r="CX92" s="20">
+        <v>2025</v>
+      </c>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35336,16 +35411,16 @@
       <c r="CK93" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL93" s="6" t="s">
+      <c r="CL93" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM93" s="6" t="s">
+      <c r="CM93" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN93" s="6" t="s">
+      <c r="CN93" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO93" s="6" t="s">
+      <c r="CO93" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CP93" s="21" t="s">
@@ -35371,6 +35446,9 @@
       </c>
       <c r="CW93" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX93" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35644,16 +35722,16 @@
       <c r="CK95" s="15">
         <v>97.443084652735706</v>
       </c>
-      <c r="CL95" s="15">
+      <c r="CL95" s="28">
         <v>129.1921055375966</v>
       </c>
-      <c r="CM95" s="15">
+      <c r="CM95" s="28">
         <v>151.92605910186657</v>
       </c>
-      <c r="CN95" s="15">
+      <c r="CN95" s="28">
         <v>86.896751193835854</v>
       </c>
-      <c r="CO95" s="15">
+      <c r="CO95" s="28">
         <v>107.52462534205156</v>
       </c>
       <c r="CP95" s="28">
@@ -35666,21 +35744,23 @@
         <v>87.047048255572108</v>
       </c>
       <c r="CS95" s="28">
-        <v>105.38861562855297</v>
+        <v>105.38865201072618</v>
       </c>
       <c r="CT95" s="28">
-        <v>140.91685198020295</v>
+        <v>140.917205813631</v>
       </c>
       <c r="CU95" s="28">
-        <v>160.80940761247138</v>
+        <v>160.80944526677931</v>
       </c>
       <c r="CV95" s="28">
-        <v>87.047048255572108</v>
+        <v>87.047048255572079</v>
       </c>
       <c r="CW95" s="28">
-        <v>105.23570121237691</v>
-      </c>
-      <c r="CX95" s="9"/>
+        <v>105.2357375417611</v>
+      </c>
+      <c r="CX95" s="28">
+        <v>142.39885588474172</v>
+      </c>
       <c r="CY95" s="9"/>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
@@ -36000,16 +36080,16 @@
       <c r="CK96" s="15">
         <v>105.88401340202043</v>
       </c>
-      <c r="CL96" s="15">
+      <c r="CL96" s="28">
         <v>109.55901364959652</v>
       </c>
-      <c r="CM96" s="15">
+      <c r="CM96" s="28">
         <v>114.61373957305119</v>
       </c>
-      <c r="CN96" s="15">
+      <c r="CN96" s="28">
         <v>103.75939008564161</v>
       </c>
-      <c r="CO96" s="15">
+      <c r="CO96" s="28">
         <v>112.59172350738194</v>
       </c>
       <c r="CP96" s="28">
@@ -36036,7 +36116,9 @@
       <c r="CW96" s="28">
         <v>113.36833717351193</v>
       </c>
-      <c r="CX96" s="9"/>
+      <c r="CX96" s="28">
+        <v>132.44694020228138</v>
+      </c>
       <c r="CY96" s="9"/>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
@@ -36356,16 +36438,16 @@
       <c r="CK97" s="15">
         <v>105.73101596312007</v>
       </c>
-      <c r="CL97" s="15">
+      <c r="CL97" s="28">
         <v>105.96078951648336</v>
       </c>
-      <c r="CM97" s="15">
+      <c r="CM97" s="28">
         <v>107.94068042193517</v>
       </c>
-      <c r="CN97" s="15">
+      <c r="CN97" s="28">
         <v>99.507171032664786</v>
       </c>
-      <c r="CO97" s="15">
+      <c r="CO97" s="28">
         <v>101.17491689597118</v>
       </c>
       <c r="CP97" s="28">
@@ -36378,21 +36460,23 @@
         <v>110.23494918072731</v>
       </c>
       <c r="CS97" s="28">
-        <v>112.9579572647182</v>
+        <v>112.95794878814485</v>
       </c>
       <c r="CT97" s="28">
-        <v>122.7346319709204</v>
+        <v>122.73463197092043</v>
       </c>
       <c r="CU97" s="28">
-        <v>129.37844325963982</v>
+        <v>129.35389256296764</v>
       </c>
       <c r="CV97" s="28">
         <v>118.23159043611587</v>
       </c>
       <c r="CW97" s="28">
-        <v>120.72839469708106</v>
-      </c>
-      <c r="CX97" s="9"/>
+        <v>120.72838563739975</v>
+      </c>
+      <c r="CX97" s="28">
+        <v>130.05472368782742</v>
+      </c>
       <c r="CY97" s="9"/>
       <c r="CZ97" s="9"/>
       <c r="DA97" s="9"/>
@@ -36712,16 +36796,16 @@
       <c r="CK98" s="15">
         <v>110.86896769840675</v>
       </c>
-      <c r="CL98" s="15">
+      <c r="CL98" s="28">
         <v>111.00454898162579</v>
       </c>
-      <c r="CM98" s="15">
+      <c r="CM98" s="28">
         <v>113.23838408637346</v>
       </c>
-      <c r="CN98" s="15">
+      <c r="CN98" s="28">
         <v>112.67416677080821</v>
       </c>
-      <c r="CO98" s="15">
+      <c r="CO98" s="28">
         <v>111.50163821565909</v>
       </c>
       <c r="CP98" s="28">
@@ -36734,21 +36818,23 @@
         <v>116.87428204476622</v>
       </c>
       <c r="CS98" s="28">
-        <v>115.48746272204724</v>
+        <v>115.48643179980883</v>
       </c>
       <c r="CT98" s="28">
-        <v>118.10911736789905</v>
+        <v>118.10911736789906</v>
       </c>
       <c r="CU98" s="28">
-        <v>120.52704873372397</v>
+        <v>120.52704873372393</v>
       </c>
       <c r="CV98" s="28">
         <v>119.30410079829564</v>
       </c>
       <c r="CW98" s="28">
-        <v>117.29248646851389</v>
-      </c>
-      <c r="CX98" s="9"/>
+        <v>117.29143943336528</v>
+      </c>
+      <c r="CX98" s="28">
+        <v>119.56468747630626</v>
+      </c>
       <c r="CY98" s="9"/>
       <c r="CZ98" s="9"/>
       <c r="DA98" s="9"/>
@@ -36889,10 +36975,10 @@
       <c r="CI99" s="15"/>
       <c r="CJ99" s="15"/>
       <c r="CK99" s="15"/>
-      <c r="CL99" s="15"/>
-      <c r="CM99" s="15"/>
-      <c r="CN99" s="15"/>
-      <c r="CO99" s="15"/>
+      <c r="CL99" s="28"/>
+      <c r="CM99" s="28"/>
+      <c r="CN99" s="28"/>
+      <c r="CO99" s="28"/>
       <c r="CP99" s="28"/>
       <c r="CQ99" s="28"/>
       <c r="CR99" s="28"/>
@@ -36901,7 +36987,7 @@
       <c r="CU99" s="28"/>
       <c r="CV99" s="28"/>
       <c r="CW99" s="28"/>
-      <c r="CX99" s="9"/>
+      <c r="CX99" s="28"/>
       <c r="CY99" s="9"/>
       <c r="CZ99" s="9"/>
       <c r="DA99" s="9"/>
@@ -37221,16 +37307,16 @@
       <c r="CK100" s="15">
         <v>99.170493014902888</v>
       </c>
-      <c r="CL100" s="15">
+      <c r="CL100" s="28">
         <v>124.66603672007838</v>
       </c>
-      <c r="CM100" s="15">
+      <c r="CM100" s="28">
         <v>143.97758876815226</v>
       </c>
-      <c r="CN100" s="15">
+      <c r="CN100" s="28">
         <v>89.074378828905992</v>
       </c>
-      <c r="CO100" s="15">
+      <c r="CO100" s="28">
         <v>106.57835166695779</v>
       </c>
       <c r="CP100" s="28">
@@ -37243,21 +37329,23 @@
         <v>90.662555310654056</v>
       </c>
       <c r="CS100" s="28">
-        <v>107.08123970359897</v>
+        <v>107.08909322886055</v>
       </c>
       <c r="CT100" s="28">
-        <v>137.28825707980545</v>
+        <v>137.27846101632522</v>
       </c>
       <c r="CU100" s="28">
-        <v>154.97396574128024</v>
+        <v>154.91161680493454</v>
       </c>
       <c r="CV100" s="28">
-        <v>91.642360932003427</v>
+        <v>91.638372696027432</v>
       </c>
       <c r="CW100" s="28">
-        <v>108.21038473692374</v>
-      </c>
-      <c r="CX100" s="9"/>
+        <v>108.24624033234002</v>
+      </c>
+      <c r="CX100" s="28">
+        <v>139.80342017325955</v>
+      </c>
       <c r="CY100" s="9"/>
       <c r="CZ100" s="9"/>
       <c r="DA100" s="9"/>
@@ -37399,10 +37487,10 @@
       <c r="CI101" s="13"/>
       <c r="CJ101" s="13"/>
       <c r="CK101" s="13"/>
-      <c r="CL101" s="13"/>
-      <c r="CM101" s="13"/>
-      <c r="CN101" s="13"/>
-      <c r="CO101" s="13"/>
+      <c r="CL101" s="25"/>
+      <c r="CM101" s="25"/>
+      <c r="CN101" s="25"/>
+      <c r="CO101" s="25"/>
       <c r="CP101" s="25"/>
       <c r="CQ101" s="25"/>
       <c r="CR101" s="25"/>
@@ -37411,6 +37499,7 @@
       <c r="CU101" s="25"/>
       <c r="CV101" s="25"/>
       <c r="CW101" s="25"/>
+      <c r="CX101" s="25"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37429,7 +37518,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -37439,7 +37528,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -37581,12 +37670,12 @@
       <c r="CI113" s="34"/>
       <c r="CJ113" s="34"/>
       <c r="CK113" s="34"/>
-      <c r="CL113" s="34">
+      <c r="CL113" s="20">
         <v>2022</v>
       </c>
-      <c r="CM113" s="34"/>
-      <c r="CN113" s="34"/>
-      <c r="CO113" s="34"/>
+      <c r="CM113" s="20"/>
+      <c r="CN113" s="20"/>
+      <c r="CO113" s="20"/>
       <c r="CP113" s="20">
         <v>2023</v>
       </c>
@@ -37599,6 +37688,9 @@
       <c r="CU113" s="20"/>
       <c r="CV113" s="20"/>
       <c r="CW113" s="20"/>
+      <c r="CX113" s="20">
+        <v>2025</v>
+      </c>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37868,16 +37960,16 @@
       <c r="CK114" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL114" s="6" t="s">
+      <c r="CL114" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM114" s="6" t="s">
+      <c r="CM114" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN114" s="6" t="s">
+      <c r="CN114" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO114" s="6" t="s">
+      <c r="CO114" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CP114" s="21" t="s">
@@ -37903,6 +37995,9 @@
       </c>
       <c r="CW114" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX114" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38176,16 +38271,16 @@
       <c r="CK116" s="15">
         <v>78.693160206896422</v>
       </c>
-      <c r="CL116" s="15">
+      <c r="CL116" s="28">
         <v>82.816991196695341</v>
       </c>
-      <c r="CM116" s="15">
+      <c r="CM116" s="28">
         <v>86.013028964306372</v>
       </c>
-      <c r="CN116" s="15">
+      <c r="CN116" s="28">
         <v>82.428694874662895</v>
       </c>
-      <c r="CO116" s="15">
+      <c r="CO116" s="28">
         <v>79.805688302271733</v>
       </c>
       <c r="CP116" s="28">
@@ -38198,21 +38293,23 @@
         <v>81.461310553247557</v>
       </c>
       <c r="CS116" s="28">
-        <v>78.274500320197831</v>
+        <v>78.174989651434544</v>
       </c>
       <c r="CT116" s="28">
-        <v>81.869968244029579</v>
+        <v>81.812212738651453</v>
       </c>
       <c r="CU116" s="28">
-        <v>85.22036628423453</v>
+        <v>85.063191783171646</v>
       </c>
       <c r="CV116" s="28">
-        <v>80.695990836975611</v>
+        <v>80.711846338835457</v>
       </c>
       <c r="CW116" s="28">
-        <v>77.425724549176124</v>
-      </c>
-      <c r="CX116" s="9"/>
+        <v>77.144418269490288</v>
+      </c>
+      <c r="CX116" s="28">
+        <v>81.222012998031587</v>
+      </c>
       <c r="CY116" s="9"/>
       <c r="CZ116" s="9"/>
       <c r="DA116" s="9"/>
@@ -38532,16 +38629,16 @@
       <c r="CK117" s="15">
         <v>2.1071432102939887</v>
       </c>
-      <c r="CL117" s="15">
+      <c r="CL117" s="28">
         <v>1.8143459086950642</v>
       </c>
-      <c r="CM117" s="15">
+      <c r="CM117" s="28">
         <v>1.4309857538443673</v>
       </c>
-      <c r="CN117" s="15">
+      <c r="CN117" s="28">
         <v>1.6677040386565398</v>
       </c>
-      <c r="CO117" s="15">
+      <c r="CO117" s="28">
         <v>2.0842109281832095</v>
       </c>
       <c r="CP117" s="28">
@@ -38554,21 +38651,23 @@
         <v>1.6863340564737137</v>
       </c>
       <c r="CS117" s="28">
-        <v>1.9044596093757546</v>
+        <v>1.9062106819232996</v>
       </c>
       <c r="CT117" s="28">
-        <v>1.7768424234110969</v>
+        <v>1.7767068211159229</v>
       </c>
       <c r="CU117" s="28">
-        <v>1.2282853164496632</v>
+        <v>1.2260765311382471</v>
       </c>
       <c r="CV117" s="28">
-        <v>1.4685324071436117</v>
+        <v>1.4676172269474419</v>
       </c>
       <c r="CW117" s="28">
-        <v>1.8619465110132818</v>
-      </c>
-      <c r="CX117" s="9"/>
+        <v>1.8701641516816252</v>
+      </c>
+      <c r="CX117" s="28">
+        <v>1.8808466777137429</v>
+      </c>
       <c r="CY117" s="9"/>
       <c r="CZ117" s="9"/>
       <c r="DA117" s="9"/>
@@ -38888,16 +38987,16 @@
       <c r="CK118" s="15">
         <v>17.58711857522308</v>
       </c>
-      <c r="CL118" s="15">
+      <c r="CL118" s="28">
         <v>14.21211286543449</v>
       </c>
-      <c r="CM118" s="15">
+      <c r="CM118" s="28">
         <v>11.618418586827007</v>
       </c>
-      <c r="CN118" s="15">
+      <c r="CN118" s="28">
         <v>14.352825251142482</v>
       </c>
-      <c r="CO118" s="15">
+      <c r="CO118" s="28">
         <v>16.536151969049982</v>
       </c>
       <c r="CP118" s="28">
@@ -38910,21 +39009,23 @@
         <v>15.329191039285142</v>
       </c>
       <c r="CS118" s="28">
-        <v>18.176586931759505</v>
+        <v>18.252157265501232</v>
       </c>
       <c r="CT118" s="28">
-        <v>15.12036383743904</v>
+        <v>15.201241941119234</v>
       </c>
       <c r="CU118" s="28">
-        <v>12.679666198238012</v>
+        <v>12.830894465067392</v>
       </c>
       <c r="CV118" s="28">
-        <v>16.357647452239281</v>
+        <v>16.34362810453942</v>
       </c>
       <c r="CW118" s="28">
-        <v>19.046514593128222</v>
-      </c>
-      <c r="CX118" s="9"/>
+        <v>19.185214215375016</v>
+      </c>
+      <c r="CX118" s="28">
+        <v>15.737748955947959</v>
+      </c>
       <c r="CY118" s="9"/>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
@@ -39244,16 +39345,16 @@
       <c r="CK119" s="15">
         <v>1.6125780075864986</v>
       </c>
-      <c r="CL119" s="15">
+      <c r="CL119" s="28">
         <v>1.1565500291751132</v>
       </c>
-      <c r="CM119" s="15">
+      <c r="CM119" s="28">
         <v>0.9375666950222471</v>
       </c>
-      <c r="CN119" s="15">
+      <c r="CN119" s="28">
         <v>1.5507758355380918</v>
       </c>
-      <c r="CO119" s="15">
+      <c r="CO119" s="28">
         <v>1.5739488004950772</v>
       </c>
       <c r="CP119" s="28">
@@ -39266,21 +39367,23 @@
         <v>1.5231643509935922</v>
       </c>
       <c r="CS119" s="28">
-        <v>1.6444531386669001</v>
+        <v>1.6666424011409158</v>
       </c>
       <c r="CT119" s="28">
-        <v>1.2328254951202842</v>
+        <v>1.209838499113397</v>
       </c>
       <c r="CU119" s="28">
-        <v>0.87168220107777616</v>
+        <v>0.8798372206227083</v>
       </c>
       <c r="CV119" s="28">
-        <v>1.4778293036415064</v>
+        <v>1.4769083296776815</v>
       </c>
       <c r="CW119" s="28">
-        <v>1.6658143466823629</v>
-      </c>
-      <c r="CX119" s="9"/>
+        <v>1.8002033634530492</v>
+      </c>
+      <c r="CX119" s="28">
+        <v>1.1593913683067041</v>
+      </c>
       <c r="CY119" s="9"/>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
@@ -39421,10 +39524,10 @@
       <c r="CI120" s="9"/>
       <c r="CJ120" s="9"/>
       <c r="CK120" s="9"/>
-      <c r="CL120" s="9"/>
-      <c r="CM120" s="9"/>
-      <c r="CN120" s="9"/>
-      <c r="CO120" s="9"/>
+      <c r="CL120" s="26"/>
+      <c r="CM120" s="26"/>
+      <c r="CN120" s="26"/>
+      <c r="CO120" s="26"/>
       <c r="CP120" s="26"/>
       <c r="CQ120" s="26"/>
       <c r="CR120" s="26"/>
@@ -39433,7 +39536,7 @@
       <c r="CU120" s="26"/>
       <c r="CV120" s="26"/>
       <c r="CW120" s="26"/>
-      <c r="CX120" s="9"/>
+      <c r="CX120" s="26"/>
       <c r="CY120" s="9"/>
       <c r="CZ120" s="9"/>
       <c r="DA120" s="9"/>
@@ -39753,16 +39856,16 @@
       <c r="CK121" s="15">
         <v>100</v>
       </c>
-      <c r="CL121" s="15">
+      <c r="CL121" s="28">
         <v>100</v>
       </c>
-      <c r="CM121" s="15">
+      <c r="CM121" s="28">
         <v>100</v>
       </c>
-      <c r="CN121" s="15">
+      <c r="CN121" s="28">
         <v>100</v>
       </c>
-      <c r="CO121" s="15">
+      <c r="CO121" s="28">
         <v>100</v>
       </c>
       <c r="CP121" s="28">
@@ -39789,7 +39892,9 @@
       <c r="CW121" s="28">
         <v>100</v>
       </c>
-      <c r="CX121" s="9"/>
+      <c r="CX121" s="28">
+        <v>100</v>
+      </c>
       <c r="CY121" s="9"/>
       <c r="CZ121" s="9"/>
       <c r="DA121" s="9"/>
@@ -39931,10 +40036,10 @@
       <c r="CI122" s="13"/>
       <c r="CJ122" s="13"/>
       <c r="CK122" s="13"/>
-      <c r="CL122" s="13"/>
-      <c r="CM122" s="13"/>
-      <c r="CN122" s="13"/>
-      <c r="CO122" s="13"/>
+      <c r="CL122" s="25"/>
+      <c r="CM122" s="25"/>
+      <c r="CN122" s="25"/>
+      <c r="CO122" s="25"/>
       <c r="CP122" s="25"/>
       <c r="CQ122" s="25"/>
       <c r="CR122" s="25"/>
@@ -39943,6 +40048,7 @@
       <c r="CU122" s="25"/>
       <c r="CV122" s="25"/>
       <c r="CW122" s="25"/>
+      <c r="CX122" s="25"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -40038,10 +40144,10 @@
       <c r="CI124" s="9"/>
       <c r="CJ124" s="9"/>
       <c r="CK124" s="9"/>
-      <c r="CL124" s="9"/>
-      <c r="CM124" s="9"/>
-      <c r="CN124" s="9"/>
-      <c r="CO124" s="9"/>
+      <c r="CL124" s="26"/>
+      <c r="CM124" s="26"/>
+      <c r="CN124" s="26"/>
+      <c r="CO124" s="26"/>
       <c r="CP124" s="26"/>
       <c r="CQ124" s="26"/>
       <c r="CR124" s="26"/>
@@ -40050,7 +40156,7 @@
       <c r="CU124" s="26"/>
       <c r="CV124" s="26"/>
       <c r="CW124" s="26"/>
-      <c r="CX124" s="9"/>
+      <c r="CX124" s="26"/>
       <c r="CY124" s="9"/>
       <c r="CZ124" s="9"/>
       <c r="DA124" s="9"/>
@@ -40191,10 +40297,10 @@
       <c r="CI125" s="9"/>
       <c r="CJ125" s="9"/>
       <c r="CK125" s="9"/>
-      <c r="CL125" s="9"/>
-      <c r="CM125" s="9"/>
-      <c r="CN125" s="9"/>
-      <c r="CO125" s="9"/>
+      <c r="CL125" s="26"/>
+      <c r="CM125" s="26"/>
+      <c r="CN125" s="26"/>
+      <c r="CO125" s="26"/>
       <c r="CP125" s="26"/>
       <c r="CQ125" s="26"/>
       <c r="CR125" s="26"/>
@@ -40203,7 +40309,7 @@
       <c r="CU125" s="26"/>
       <c r="CV125" s="26"/>
       <c r="CW125" s="26"/>
-      <c r="CX125" s="9"/>
+      <c r="CX125" s="26"/>
       <c r="CY125" s="9"/>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
@@ -40267,7 +40373,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -40277,7 +40383,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -40419,12 +40525,12 @@
       <c r="CI134" s="34"/>
       <c r="CJ134" s="34"/>
       <c r="CK134" s="34"/>
-      <c r="CL134" s="34">
+      <c r="CL134" s="20">
         <v>2022</v>
       </c>
-      <c r="CM134" s="34"/>
-      <c r="CN134" s="34"/>
-      <c r="CO134" s="34"/>
+      <c r="CM134" s="20"/>
+      <c r="CN134" s="20"/>
+      <c r="CO134" s="20"/>
       <c r="CP134" s="20">
         <v>2023</v>
       </c>
@@ -40437,6 +40543,9 @@
       <c r="CU134" s="20"/>
       <c r="CV134" s="20"/>
       <c r="CW134" s="20"/>
+      <c r="CX134" s="20">
+        <v>2025</v>
+      </c>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40706,16 +40815,16 @@
       <c r="CK135" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="CL135" s="6" t="s">
+      <c r="CL135" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="CM135" s="6" t="s">
+      <c r="CM135" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="CN135" s="6" t="s">
+      <c r="CN135" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="CO135" s="6" t="s">
+      <c r="CO135" s="21" t="s">
         <v>9</v>
       </c>
       <c r="CP135" s="21" t="s">
@@ -40741,6 +40850,9 @@
       </c>
       <c r="CW135" s="21" t="s">
         <v>9</v>
+      </c>
+      <c r="CX135" s="21" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41014,16 +41126,16 @@
       <c r="CK137" s="15">
         <v>80.088181962120998</v>
       </c>
-      <c r="CL137" s="15">
+      <c r="CL137" s="28">
         <v>79.91561111734552</v>
       </c>
-      <c r="CM137" s="15">
+      <c r="CM137" s="28">
         <v>81.512997744663537</v>
       </c>
-      <c r="CN137" s="15">
+      <c r="CN137" s="28">
         <v>84.494353272885775</v>
       </c>
-      <c r="CO137" s="15">
+      <c r="CO137" s="28">
         <v>79.103355960048304</v>
       </c>
       <c r="CP137" s="28">
@@ -41036,21 +41148,23 @@
         <v>84.844813485555591</v>
       </c>
       <c r="CS137" s="28">
-        <v>79.531650373018778</v>
+        <v>79.436339636412029</v>
       </c>
       <c r="CT137" s="28">
-        <v>79.761824717606444</v>
+        <v>79.699668981201739</v>
       </c>
       <c r="CU137" s="28">
-        <v>82.127894885473523</v>
+        <v>81.943424080958266</v>
       </c>
       <c r="CV137" s="28">
-        <v>84.956023969191577</v>
+        <v>84.969018525096814</v>
       </c>
       <c r="CW137" s="28">
-        <v>79.614307174075734</v>
-      </c>
-      <c r="CX137" s="9"/>
+        <v>79.351306270685953</v>
+      </c>
+      <c r="CX137" s="28">
+        <v>79.741618287106476</v>
+      </c>
       <c r="CY137" s="9"/>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
@@ -41370,16 +41484,16 @@
       <c r="CK138" s="15">
         <v>1.9735408991766896</v>
       </c>
-      <c r="CL138" s="15">
+      <c r="CL138" s="28">
         <v>2.0645249180475429</v>
       </c>
-      <c r="CM138" s="15">
+      <c r="CM138" s="28">
         <v>1.7976019207432956</v>
       </c>
-      <c r="CN138" s="15">
+      <c r="CN138" s="28">
         <v>1.4316747736390716</v>
       </c>
-      <c r="CO138" s="15">
+      <c r="CO138" s="28">
         <v>1.9728960382906189</v>
       </c>
       <c r="CP138" s="28">
@@ -41392,21 +41506,23 @@
         <v>1.3661582244309336</v>
       </c>
       <c r="CS138" s="28">
-        <v>1.7126575244950766</v>
+        <v>1.7143579676760785</v>
       </c>
       <c r="CT138" s="28">
-        <v>1.8918514322562789</v>
+        <v>1.8915720720562734</v>
       </c>
       <c r="CU138" s="28">
-        <v>1.563152168580521</v>
+        <v>1.5597134485969311</v>
       </c>
       <c r="CV138" s="28">
-        <v>1.2298363521909923</v>
+        <v>1.2290164372884482</v>
       </c>
       <c r="CW138" s="28">
-        <v>1.777232985325955</v>
-      </c>
-      <c r="CX138" s="9"/>
+        <v>1.7856682321627533</v>
+      </c>
+      <c r="CX138" s="28">
+        <v>1.9853142546313385</v>
+      </c>
       <c r="CY138" s="9"/>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
@@ -41726,16 +41842,16 @@
       <c r="CK139" s="15">
         <v>16.495852271246456</v>
       </c>
-      <c r="CL139" s="15">
+      <c r="CL139" s="28">
         <v>16.720975678239324</v>
       </c>
-      <c r="CM139" s="15">
+      <c r="CM139" s="28">
         <v>15.497325817213387</v>
       </c>
-      <c r="CN139" s="15">
+      <c r="CN139" s="28">
         <v>12.848008645182727</v>
       </c>
-      <c r="CO139" s="15">
+      <c r="CO139" s="28">
         <v>17.41929594652175</v>
       </c>
       <c r="CP139" s="28">
@@ -41748,21 +41864,23 @@
         <v>12.607468328290855</v>
       </c>
       <c r="CS139" s="28">
-        <v>17.230937150108883</v>
+        <v>17.303846183494311</v>
       </c>
       <c r="CT139" s="28">
-        <v>16.913306084189479</v>
+        <v>17.002561263296016</v>
       </c>
       <c r="CU139" s="28">
-        <v>15.188141899908011</v>
+        <v>15.366020822833089</v>
       </c>
       <c r="CV139" s="28">
-        <v>12.67895852781041</v>
+        <v>12.667540696395408</v>
       </c>
       <c r="CW139" s="28">
-        <v>17.071631551062687</v>
-      </c>
-      <c r="CX139" s="9"/>
+        <v>17.201648956213432</v>
+      </c>
+      <c r="CX139" s="28">
+        <v>16.917425738036439</v>
+      </c>
       <c r="CY139" s="9"/>
       <c r="CZ139" s="9"/>
       <c r="DA139" s="9"/>
@@ -42082,16 +42200,16 @@
       <c r="CK140" s="15">
         <v>1.4424248674558646</v>
       </c>
-      <c r="CL140" s="15">
+      <c r="CL140" s="28">
         <v>1.2988882863676012</v>
       </c>
-      <c r="CM140" s="15">
+      <c r="CM140" s="28">
         <v>1.1920745173797704</v>
       </c>
-      <c r="CN140" s="15">
+      <c r="CN140" s="28">
         <v>1.2259633082924317</v>
       </c>
-      <c r="CO140" s="15">
+      <c r="CO140" s="28">
         <v>1.504452055139333</v>
       </c>
       <c r="CP140" s="28">
@@ -42104,21 +42222,23 @@
         <v>1.1815599617226231</v>
       </c>
       <c r="CS140" s="28">
-        <v>1.5247549523772628</v>
+        <v>1.5454562124175613</v>
       </c>
       <c r="CT140" s="28">
-        <v>1.4330177659477901</v>
+        <v>1.4061976834459704</v>
       </c>
       <c r="CU140" s="28">
-        <v>1.1208110460379408</v>
+        <v>1.1308416476117298</v>
       </c>
       <c r="CV140" s="28">
-        <v>1.1351811508070222</v>
+        <v>1.1344243412193271</v>
       </c>
       <c r="CW140" s="28">
-        <v>1.5368282895356178</v>
-      </c>
-      <c r="CX140" s="9"/>
+        <v>1.6613765409378489</v>
+      </c>
+      <c r="CX140" s="28">
+        <v>1.3556417202257369</v>
+      </c>
       <c r="CY140" s="9"/>
       <c r="CZ140" s="9"/>
       <c r="DA140" s="9"/>
@@ -42259,10 +42379,10 @@
       <c r="CI141" s="9"/>
       <c r="CJ141" s="9"/>
       <c r="CK141" s="9"/>
-      <c r="CL141" s="9"/>
-      <c r="CM141" s="9"/>
-      <c r="CN141" s="9"/>
-      <c r="CO141" s="9"/>
+      <c r="CL141" s="26"/>
+      <c r="CM141" s="26"/>
+      <c r="CN141" s="26"/>
+      <c r="CO141" s="26"/>
       <c r="CP141" s="26"/>
       <c r="CQ141" s="26"/>
       <c r="CR141" s="26"/>
@@ -42271,7 +42391,7 @@
       <c r="CU141" s="26"/>
       <c r="CV141" s="26"/>
       <c r="CW141" s="26"/>
-      <c r="CX141" s="9"/>
+      <c r="CX141" s="26"/>
       <c r="CY141" s="9"/>
       <c r="CZ141" s="9"/>
       <c r="DA141" s="9"/>
@@ -42591,16 +42711,16 @@
       <c r="CK142" s="15">
         <v>100</v>
       </c>
-      <c r="CL142" s="15">
+      <c r="CL142" s="28">
         <v>100</v>
       </c>
-      <c r="CM142" s="15">
+      <c r="CM142" s="28">
         <v>100</v>
       </c>
-      <c r="CN142" s="15">
+      <c r="CN142" s="28">
         <v>100</v>
       </c>
-      <c r="CO142" s="15">
+      <c r="CO142" s="28">
         <v>100</v>
       </c>
       <c r="CP142" s="28">
@@ -42627,7 +42747,9 @@
       <c r="CW142" s="28">
         <v>100</v>
       </c>
-      <c r="CX142" s="9"/>
+      <c r="CX142" s="28">
+        <v>100</v>
+      </c>
       <c r="CY142" s="9"/>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
@@ -42769,10 +42891,10 @@
       <c r="CI143" s="13"/>
       <c r="CJ143" s="13"/>
       <c r="CK143" s="13"/>
-      <c r="CL143" s="13"/>
-      <c r="CM143" s="13"/>
-      <c r="CN143" s="13"/>
-      <c r="CO143" s="13"/>
+      <c r="CL143" s="25"/>
+      <c r="CM143" s="25"/>
+      <c r="CN143" s="25"/>
+      <c r="CO143" s="25"/>
       <c r="CP143" s="25"/>
       <c r="CQ143" s="25"/>
       <c r="CR143" s="25"/>
@@ -42781,40 +42903,124 @@
       <c r="CU143" s="25"/>
       <c r="CV143" s="25"/>
       <c r="CW143" s="25"/>
+      <c r="CX143" s="25"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="98:100" x14ac:dyDescent="0.2">
-      <c r="CT145" s="30"/>
-      <c r="CU145" s="30"/>
-      <c r="CV145" s="30"/>
-    </row>
   </sheetData>
-  <mergeCells count="161">
-    <mergeCell ref="CH113:CK113"/>
-    <mergeCell ref="CH134:CK134"/>
-    <mergeCell ref="BZ30:CC30"/>
-    <mergeCell ref="BV51:BY51"/>
-    <mergeCell ref="CD134:CG134"/>
-    <mergeCell ref="CD113:CG113"/>
-    <mergeCell ref="BZ113:CC113"/>
-    <mergeCell ref="BZ134:CC134"/>
-    <mergeCell ref="CD9:CG9"/>
-    <mergeCell ref="CD30:CG30"/>
-    <mergeCell ref="CH9:CK9"/>
-    <mergeCell ref="CH30:CK30"/>
-    <mergeCell ref="CD51:CG51"/>
-    <mergeCell ref="CD72:CG72"/>
-    <mergeCell ref="CH92:CK92"/>
-    <mergeCell ref="BZ51:CC51"/>
-    <mergeCell ref="BZ72:CC72"/>
-    <mergeCell ref="CH51:CK51"/>
-    <mergeCell ref="CH72:CK72"/>
-    <mergeCell ref="BZ9:CC9"/>
-    <mergeCell ref="BZ92:CC92"/>
+  <mergeCells count="154">
+    <mergeCell ref="BF134:BI134"/>
+    <mergeCell ref="BJ134:BM134"/>
+    <mergeCell ref="BN134:BQ134"/>
+    <mergeCell ref="BF113:BI113"/>
+    <mergeCell ref="BJ113:BM113"/>
+    <mergeCell ref="BN113:BQ113"/>
+    <mergeCell ref="BF92:BI92"/>
+    <mergeCell ref="BR134:BU134"/>
+    <mergeCell ref="BV134:BY134"/>
+    <mergeCell ref="BR113:BU113"/>
+    <mergeCell ref="BV113:BY113"/>
+    <mergeCell ref="BR92:BU92"/>
+    <mergeCell ref="BV92:BY92"/>
+    <mergeCell ref="BJ92:BM92"/>
+    <mergeCell ref="BN92:BQ92"/>
+    <mergeCell ref="BN72:BQ72"/>
+    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="BB134:BE134"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:M92"/>
+    <mergeCell ref="N92:Q92"/>
+    <mergeCell ref="R92:U92"/>
+    <mergeCell ref="AL134:AO134"/>
+    <mergeCell ref="AP134:AS134"/>
+    <mergeCell ref="AT134:AW134"/>
+    <mergeCell ref="AX134:BA134"/>
+    <mergeCell ref="B134:E134"/>
+    <mergeCell ref="F134:I134"/>
+    <mergeCell ref="J134:M134"/>
+    <mergeCell ref="N134:Q134"/>
+    <mergeCell ref="R134:U134"/>
+    <mergeCell ref="V134:Y134"/>
+    <mergeCell ref="Z134:AC134"/>
+    <mergeCell ref="AD134:AG134"/>
+    <mergeCell ref="AH134:AK134"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:I113"/>
+    <mergeCell ref="J113:M113"/>
+    <mergeCell ref="N113:Q113"/>
+    <mergeCell ref="R113:U113"/>
+    <mergeCell ref="V113:Y113"/>
+    <mergeCell ref="Z113:AC113"/>
+    <mergeCell ref="AD113:AG113"/>
+    <mergeCell ref="AH113:AK113"/>
+    <mergeCell ref="AL113:AO113"/>
+    <mergeCell ref="AP113:AS113"/>
+    <mergeCell ref="AT113:AW113"/>
+    <mergeCell ref="AX113:BA113"/>
+    <mergeCell ref="BF72:BI72"/>
+    <mergeCell ref="V92:Y92"/>
+    <mergeCell ref="Z92:AC92"/>
+    <mergeCell ref="AD92:AG92"/>
+    <mergeCell ref="AH92:AK92"/>
+    <mergeCell ref="AL92:AO92"/>
+    <mergeCell ref="AL72:AO72"/>
+    <mergeCell ref="BB113:BE113"/>
+    <mergeCell ref="AP92:AS92"/>
+    <mergeCell ref="AT92:AW92"/>
+    <mergeCell ref="AX92:BA92"/>
+    <mergeCell ref="BB92:BE92"/>
+    <mergeCell ref="AT72:AW72"/>
+    <mergeCell ref="AX72:BA72"/>
+    <mergeCell ref="BB72:BE72"/>
+    <mergeCell ref="AP72:AS72"/>
+    <mergeCell ref="BJ72:BM72"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="J72:M72"/>
+    <mergeCell ref="N72:Q72"/>
+    <mergeCell ref="R72:U72"/>
+    <mergeCell ref="V72:Y72"/>
+    <mergeCell ref="Z72:AC72"/>
+    <mergeCell ref="AD72:AG72"/>
+    <mergeCell ref="AH72:AK72"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX9:BA9"/>
+    <mergeCell ref="BB9:BE9"/>
+    <mergeCell ref="BF9:BI9"/>
+    <mergeCell ref="AH9:AK9"/>
+    <mergeCell ref="AL9:AO9"/>
+    <mergeCell ref="Z30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="AH30:AK30"/>
+    <mergeCell ref="BF30:BI30"/>
+    <mergeCell ref="BJ30:BM30"/>
+    <mergeCell ref="BN30:BQ30"/>
+    <mergeCell ref="AL51:AO51"/>
+    <mergeCell ref="AP51:AS51"/>
+    <mergeCell ref="AT51:AW51"/>
+    <mergeCell ref="AX51:BA51"/>
+    <mergeCell ref="AP30:AS30"/>
+    <mergeCell ref="AT30:AW30"/>
+    <mergeCell ref="AX30:BA30"/>
+    <mergeCell ref="BB30:BE30"/>
+    <mergeCell ref="BB51:BE51"/>
+    <mergeCell ref="BF51:BI51"/>
+    <mergeCell ref="BJ51:BM51"/>
+    <mergeCell ref="BN51:BQ51"/>
+    <mergeCell ref="N51:Q51"/>
+    <mergeCell ref="R51:U51"/>
+    <mergeCell ref="V51:Y51"/>
+    <mergeCell ref="Z51:AC51"/>
+    <mergeCell ref="AD51:AG51"/>
+    <mergeCell ref="AH51:AK51"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="AD9:AG9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="J9:M9"/>
@@ -42839,131 +43045,36 @@
     <mergeCell ref="B51:E51"/>
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="J51:M51"/>
-    <mergeCell ref="N51:Q51"/>
-    <mergeCell ref="R51:U51"/>
-    <mergeCell ref="V51:Y51"/>
-    <mergeCell ref="Z51:AC51"/>
-    <mergeCell ref="AD51:AG51"/>
-    <mergeCell ref="AH51:AK51"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="AD9:AG9"/>
-    <mergeCell ref="BJ30:BM30"/>
-    <mergeCell ref="BN30:BQ30"/>
-    <mergeCell ref="AL51:AO51"/>
-    <mergeCell ref="AP51:AS51"/>
-    <mergeCell ref="AT51:AW51"/>
-    <mergeCell ref="AX51:BA51"/>
-    <mergeCell ref="AP30:AS30"/>
-    <mergeCell ref="AT30:AW30"/>
-    <mergeCell ref="AX30:BA30"/>
-    <mergeCell ref="BB30:BE30"/>
-    <mergeCell ref="BB51:BE51"/>
-    <mergeCell ref="BF51:BI51"/>
-    <mergeCell ref="BJ51:BM51"/>
-    <mergeCell ref="BN51:BQ51"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX9:BA9"/>
-    <mergeCell ref="BB9:BE9"/>
-    <mergeCell ref="BF9:BI9"/>
-    <mergeCell ref="AH9:AK9"/>
-    <mergeCell ref="AL9:AO9"/>
-    <mergeCell ref="Z30:AC30"/>
-    <mergeCell ref="AD30:AG30"/>
-    <mergeCell ref="AH30:AK30"/>
-    <mergeCell ref="BF30:BI30"/>
-    <mergeCell ref="BJ72:BM72"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="J72:M72"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="R72:U72"/>
-    <mergeCell ref="V72:Y72"/>
-    <mergeCell ref="Z72:AC72"/>
-    <mergeCell ref="AD72:AG72"/>
-    <mergeCell ref="AH72:AK72"/>
-    <mergeCell ref="V113:Y113"/>
-    <mergeCell ref="Z113:AC113"/>
-    <mergeCell ref="AD113:AG113"/>
-    <mergeCell ref="AH113:AK113"/>
-    <mergeCell ref="AL113:AO113"/>
-    <mergeCell ref="AP113:AS113"/>
-    <mergeCell ref="AT113:AW113"/>
-    <mergeCell ref="AX113:BA113"/>
-    <mergeCell ref="BF72:BI72"/>
-    <mergeCell ref="V92:Y92"/>
-    <mergeCell ref="Z92:AC92"/>
-    <mergeCell ref="AD92:AG92"/>
-    <mergeCell ref="AH92:AK92"/>
-    <mergeCell ref="AL92:AO92"/>
-    <mergeCell ref="AL72:AO72"/>
-    <mergeCell ref="BB113:BE113"/>
-    <mergeCell ref="AP92:AS92"/>
-    <mergeCell ref="AT92:AW92"/>
-    <mergeCell ref="AX92:BA92"/>
-    <mergeCell ref="BB92:BE92"/>
-    <mergeCell ref="AT72:AW72"/>
-    <mergeCell ref="AX72:BA72"/>
-    <mergeCell ref="BB72:BE72"/>
-    <mergeCell ref="AP72:AS72"/>
-    <mergeCell ref="BB134:BE134"/>
-    <mergeCell ref="B92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:M92"/>
-    <mergeCell ref="N92:Q92"/>
-    <mergeCell ref="R92:U92"/>
-    <mergeCell ref="AL134:AO134"/>
-    <mergeCell ref="AP134:AS134"/>
-    <mergeCell ref="AT134:AW134"/>
-    <mergeCell ref="AX134:BA134"/>
-    <mergeCell ref="B134:E134"/>
-    <mergeCell ref="F134:I134"/>
-    <mergeCell ref="J134:M134"/>
-    <mergeCell ref="N134:Q134"/>
-    <mergeCell ref="R134:U134"/>
-    <mergeCell ref="V134:Y134"/>
-    <mergeCell ref="Z134:AC134"/>
-    <mergeCell ref="AD134:AG134"/>
-    <mergeCell ref="AH134:AK134"/>
-    <mergeCell ref="B113:E113"/>
-    <mergeCell ref="F113:I113"/>
-    <mergeCell ref="J113:M113"/>
-    <mergeCell ref="N113:Q113"/>
-    <mergeCell ref="R113:U113"/>
-    <mergeCell ref="CL113:CO113"/>
-    <mergeCell ref="CL134:CO134"/>
-    <mergeCell ref="CL9:CO9"/>
-    <mergeCell ref="CL30:CO30"/>
-    <mergeCell ref="CL51:CO51"/>
-    <mergeCell ref="CL72:CO72"/>
-    <mergeCell ref="CL92:CO92"/>
-    <mergeCell ref="BF134:BI134"/>
-    <mergeCell ref="BJ134:BM134"/>
-    <mergeCell ref="BN134:BQ134"/>
-    <mergeCell ref="BF113:BI113"/>
-    <mergeCell ref="BJ113:BM113"/>
-    <mergeCell ref="BN113:BQ113"/>
-    <mergeCell ref="BF92:BI92"/>
-    <mergeCell ref="BR134:BU134"/>
-    <mergeCell ref="BV134:BY134"/>
-    <mergeCell ref="BR113:BU113"/>
-    <mergeCell ref="BV113:BY113"/>
-    <mergeCell ref="BR92:BU92"/>
-    <mergeCell ref="BV92:BY92"/>
-    <mergeCell ref="BJ92:BM92"/>
-    <mergeCell ref="BN92:BQ92"/>
-    <mergeCell ref="BN72:BQ72"/>
-    <mergeCell ref="CD92:CG92"/>
+    <mergeCell ref="CH113:CK113"/>
+    <mergeCell ref="CH134:CK134"/>
+    <mergeCell ref="BZ30:CC30"/>
+    <mergeCell ref="BV51:BY51"/>
+    <mergeCell ref="CD134:CG134"/>
+    <mergeCell ref="CD113:CG113"/>
+    <mergeCell ref="BZ113:CC113"/>
+    <mergeCell ref="BZ134:CC134"/>
+    <mergeCell ref="CD9:CG9"/>
+    <mergeCell ref="CD30:CG30"/>
+    <mergeCell ref="CH9:CK9"/>
+    <mergeCell ref="CH30:CK30"/>
+    <mergeCell ref="CD51:CG51"/>
+    <mergeCell ref="CD72:CG72"/>
+    <mergeCell ref="CH92:CK92"/>
+    <mergeCell ref="BZ51:CC51"/>
+    <mergeCell ref="BZ72:CC72"/>
+    <mergeCell ref="CH51:CK51"/>
+    <mergeCell ref="CH72:CK72"/>
+    <mergeCell ref="BZ9:CC9"/>
+    <mergeCell ref="BZ92:CC92"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.3" top="1" bottom="0.16700000000000001" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="100" man="1"/>
-    <brk id="84" max="100" man="1"/>
-    <brk id="104" max="100" man="1"/>
+    <brk id="42" max="101" man="1"/>
+    <brk id="84" max="101" man="1"/>
+    <brk id="104" max="101" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
--- a/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
+++ b/Data/National Accounts/PSA-11ESWW_2018PSNA_Qrt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of May 2025\Qtr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Other computers\My Laptop (1)\6. MAS_Series\2018-base\NAP\NAP detailed series as of August 2025\Qtr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414FD052-8846-4320-B131-1BC7435D6FA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062A4110-5BE0-4E40-BD46-1A61EF2EF3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -323,7 +323,7 @@
     <definedName name="pet">#REF!</definedName>
     <definedName name="plastic">#REF!</definedName>
     <definedName name="ply">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CX$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ESWW!$A$1:$CY$146</definedName>
     <definedName name="_xlnm.Print_Area">#REF!</definedName>
     <definedName name="PRINT_AREA_MI">#REF!</definedName>
     <definedName name="Print_Titles_MI">'[9]CAP93+'!$A$1:$IV$1,'[9]CAP93+'!$A$1:$A$65536</definedName>
@@ -468,7 +468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="56">
   <si>
     <t>Source: Philippine Statistics Authority</t>
   </si>
@@ -631,13 +631,13 @@
     <t>2024 - 2025</t>
   </si>
   <si>
-    <t>Q1 2000 to Q1 2025</t>
+    <t>As of August 2025</t>
   </si>
   <si>
-    <t>Q1 2001 to Q1 2025</t>
+    <t>Q1 2000 to Q2 2025</t>
   </si>
   <si>
-    <t>As of May 2025</t>
+    <t>Q1 2001 to Q2 2025</t>
   </si>
 </sst>
 </file>
@@ -645,9 +645,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -721,9 +721,9 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -740,18 +740,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,26 +762,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -23638,20 +23638,20 @@
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:EV144"/>
+  <dimension ref="A1:EV146"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" view="pageBreakPreview" colorId="22" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="CH1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="CN1" activePane="topRight" state="frozen"/>
       <selection activeCell="N19" sqref="N19"/>
-      <selection pane="topRight" activeCell="CX1" sqref="CX1"/>
+      <selection pane="topRight" activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.5546875" style="1" customWidth="1"/>
     <col min="2" max="89" width="10.77734375" style="1" customWidth="1"/>
-    <col min="90" max="102" width="10.109375" style="19" customWidth="1"/>
-    <col min="103" max="16384" width="7.77734375" style="1"/>
+    <col min="90" max="103" width="10.109375" style="19" customWidth="1"/>
+    <col min="104" max="16384" width="7.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:152" x14ac:dyDescent="0.2">
@@ -23666,7 +23666,7 @@
     </row>
     <row r="3" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:152" x14ac:dyDescent="0.2">
@@ -23676,7 +23676,7 @@
     </row>
     <row r="6" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:152" x14ac:dyDescent="0.2">
@@ -23839,6 +23839,7 @@
       <c r="CX9" s="20">
         <v>2025</v>
       </c>
+      <c r="CY9" s="20"/>
     </row>
     <row r="10" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -24146,6 +24147,9 @@
       </c>
       <c r="CX10" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CY10" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -24456,9 +24460,11 @@
         <v>147255.33193057618</v>
       </c>
       <c r="CX12" s="22">
-        <v>195416.25901830179</v>
-      </c>
-      <c r="CY12" s="9"/>
+        <v>192637.59503296064</v>
+      </c>
+      <c r="CY12" s="22">
+        <v>259192.83723430644</v>
+      </c>
       <c r="CZ12" s="9"/>
       <c r="DA12" s="9"/>
       <c r="DB12" s="9"/>
@@ -24814,9 +24820,11 @@
         <v>3569.8194256713487</v>
       </c>
       <c r="CX13" s="22">
-        <v>4525.226696298806</v>
-      </c>
-      <c r="CY13" s="9"/>
+        <v>4541.5573471804</v>
+      </c>
+      <c r="CY13" s="22">
+        <v>3943.2907933469023</v>
+      </c>
       <c r="CZ13" s="9"/>
       <c r="DA13" s="9"/>
       <c r="DB13" s="9"/>
@@ -25172,9 +25180,11 @@
         <v>36621.250776370951</v>
       </c>
       <c r="CX14" s="22">
-        <v>37864.267491315033</v>
-      </c>
-      <c r="CY14" s="9"/>
+        <v>37923.45497722859</v>
+      </c>
+      <c r="CY14" s="22">
+        <v>40819.053810955818</v>
+      </c>
       <c r="CZ14" s="9"/>
       <c r="DA14" s="9"/>
       <c r="DB14" s="9"/>
@@ -25530,9 +25540,11 @@
         <v>3436.2763991786846</v>
       </c>
       <c r="CX15" s="22">
-        <v>2789.4399014476157</v>
-      </c>
-      <c r="CY15" s="9"/>
+        <v>2845.5078765960234</v>
+      </c>
+      <c r="CY15" s="22">
+        <v>2914.7133992774661</v>
+      </c>
       <c r="CZ15" s="9"/>
       <c r="DA15" s="9"/>
       <c r="DB15" s="9"/>
@@ -25685,7 +25697,7 @@
       <c r="CV16" s="23"/>
       <c r="CW16" s="23"/>
       <c r="CX16" s="23"/>
-      <c r="CY16" s="9"/>
+      <c r="CY16" s="23"/>
       <c r="CZ16" s="9"/>
       <c r="DA16" s="9"/>
       <c r="DB16" s="9"/>
@@ -26041,9 +26053,11 @@
         <v>190882.6785317972</v>
       </c>
       <c r="CX17" s="24">
-        <v>240595.19310736324</v>
-      </c>
-      <c r="CY17" s="9"/>
+        <v>237948.11523396568</v>
+      </c>
+      <c r="CY17" s="24">
+        <v>306869.89523788664</v>
+      </c>
       <c r="CZ17" s="9"/>
       <c r="DA17" s="9"/>
       <c r="DB17" s="9"/>
@@ -26197,6 +26211,7 @@
       <c r="CV18" s="25"/>
       <c r="CW18" s="25"/>
       <c r="CX18" s="25"/>
+      <c r="CY18" s="25"/>
     </row>
     <row r="19" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
@@ -26305,7 +26320,7 @@
       <c r="CV20" s="26"/>
       <c r="CW20" s="26"/>
       <c r="CX20" s="26"/>
-      <c r="CY20" s="9"/>
+      <c r="CY20" s="26"/>
       <c r="CZ20" s="9"/>
       <c r="DA20" s="9"/>
       <c r="DB20" s="9"/>
@@ -26458,7 +26473,7 @@
       <c r="CV21" s="26"/>
       <c r="CW21" s="26"/>
       <c r="CX21" s="26"/>
-      <c r="CY21" s="9"/>
+      <c r="CY21" s="26"/>
       <c r="CZ21" s="9"/>
       <c r="DA21" s="9"/>
       <c r="DB21" s="9"/>
@@ -26521,7 +26536,7 @@
     </row>
     <row r="24" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:152" x14ac:dyDescent="0.2">
@@ -26531,7 +26546,7 @@
     </row>
     <row r="27" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:152" x14ac:dyDescent="0.2">
@@ -26694,6 +26709,7 @@
       <c r="CX30" s="20">
         <v>2025</v>
       </c>
+      <c r="CY30" s="20"/>
     </row>
     <row r="31" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
@@ -27001,6 +27017,9 @@
       </c>
       <c r="CX31" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CY31" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -27311,9 +27330,11 @@
         <v>139929.01591262216</v>
       </c>
       <c r="CX33" s="22">
-        <v>137231.62156335905</v>
-      </c>
-      <c r="CY33" s="9"/>
+        <v>135272.21010767654</v>
+      </c>
+      <c r="CY33" s="22">
+        <v>154575.57672294899</v>
+      </c>
       <c r="CZ33" s="9"/>
       <c r="DA33" s="9"/>
       <c r="DB33" s="9"/>
@@ -27669,9 +27690,11 @@
         <v>3148.8681184479988</v>
       </c>
       <c r="CX34" s="22">
-        <v>3416.6336265583732</v>
-      </c>
-      <c r="CY34" s="9"/>
+        <v>3461.0837502724839</v>
+      </c>
+      <c r="CY34" s="22">
+        <v>3363.7431259395844</v>
+      </c>
       <c r="CZ34" s="9"/>
       <c r="DA34" s="9"/>
       <c r="DB34" s="9"/>
@@ -28027,9 +28050,11 @@
         <v>30333.587733344346</v>
       </c>
       <c r="CX35" s="22">
-        <v>29114.103984566744</v>
-      </c>
-      <c r="CY35" s="9"/>
+        <v>29159.613662520165</v>
+      </c>
+      <c r="CY35" s="22">
+        <v>29804.729154521687</v>
+      </c>
       <c r="CZ35" s="9"/>
       <c r="DA35" s="9"/>
       <c r="DB35" s="9"/>
@@ -28385,9 +28410,11 @@
         <v>2929.6907052887482</v>
       </c>
       <c r="CX36" s="22">
-        <v>2332.9964392709089</v>
-      </c>
-      <c r="CY36" s="9"/>
+        <v>2379.889862681996</v>
+      </c>
+      <c r="CY36" s="22">
+        <v>2394.5221274789856</v>
+      </c>
       <c r="CZ36" s="9"/>
       <c r="DA36" s="9"/>
       <c r="DB36" s="9"/>
@@ -28540,7 +28567,7 @@
       <c r="CV37" s="23"/>
       <c r="CW37" s="23"/>
       <c r="CX37" s="23"/>
-      <c r="CY37" s="9"/>
+      <c r="CY37" s="23"/>
       <c r="CZ37" s="9"/>
       <c r="DA37" s="9"/>
       <c r="DB37" s="9"/>
@@ -28896,9 +28923,11 @@
         <v>176341.16246970327</v>
       </c>
       <c r="CX38" s="24">
-        <v>172095.35561375509</v>
-      </c>
-      <c r="CY38" s="9"/>
+        <v>170272.79738315119</v>
+      </c>
+      <c r="CY38" s="24">
+        <v>190138.57113088926</v>
+      </c>
       <c r="CZ38" s="9"/>
       <c r="DA38" s="9"/>
       <c r="DB38" s="9"/>
@@ -29052,6 +29081,7 @@
       <c r="CV39" s="25"/>
       <c r="CW39" s="25"/>
       <c r="CX39" s="25"/>
+      <c r="CY39" s="25"/>
     </row>
     <row r="40" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A40" s="14" t="s">
@@ -29160,7 +29190,7 @@
       <c r="CV41" s="26"/>
       <c r="CW41" s="26"/>
       <c r="CX41" s="26"/>
-      <c r="CY41" s="9"/>
+      <c r="CY41" s="26"/>
       <c r="CZ41" s="9"/>
       <c r="DA41" s="9"/>
       <c r="DB41" s="9"/>
@@ -29313,7 +29343,7 @@
       <c r="CV42" s="26"/>
       <c r="CW42" s="26"/>
       <c r="CX42" s="26"/>
-      <c r="CY42" s="9"/>
+      <c r="CY42" s="26"/>
       <c r="CZ42" s="9"/>
       <c r="DA42" s="9"/>
       <c r="DB42" s="9"/>
@@ -29376,7 +29406,7 @@
     </row>
     <row r="45" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:152" x14ac:dyDescent="0.2">
@@ -29387,27 +29417,29 @@
       <c r="CU47" s="30"/>
       <c r="CV47" s="30"/>
       <c r="CX47" s="30"/>
+      <c r="CY47" s="30"/>
     </row>
     <row r="48" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CU48" s="30"/>
       <c r="CV48" s="30"/>
       <c r="CX48" s="30"/>
+      <c r="CY48" s="30"/>
     </row>
     <row r="49" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="CU49" s="30"/>
       <c r="CV49" s="30"/>
       <c r="CX49" s="30"/>
+      <c r="CY49" s="30"/>
     </row>
     <row r="50" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CU50" s="30"/>
       <c r="CV50" s="30"/>
       <c r="CX50" s="30"/>
+      <c r="CY50" s="30"/>
     </row>
     <row r="51" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
@@ -29558,10 +29590,11 @@
       <c r="CT51" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="CU51" s="18"/>
+      <c r="CU51" s="20"/>
       <c r="CV51" s="18"/>
       <c r="CW51" s="18"/>
       <c r="CX51" s="18"/>
+      <c r="CY51" s="18"/>
     </row>
     <row r="52" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
@@ -29858,16 +29891,19 @@
       <c r="CT52" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU52" s="27"/>
+      <c r="CU52" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="CV52" s="27"/>
       <c r="CW52" s="27"/>
       <c r="CX52" s="27"/>
+      <c r="CY52" s="27"/>
     </row>
     <row r="53" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
-      <c r="CU53" s="30"/>
       <c r="CV53" s="30"/>
       <c r="CX53" s="30"/>
+      <c r="CY53" s="30"/>
     </row>
     <row r="54" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
@@ -30162,13 +30198,15 @@
         <v>5.4066071268651399</v>
       </c>
       <c r="CT54" s="28">
-        <v>4.940390827506917</v>
-      </c>
-      <c r="CU54" s="31"/>
+        <v>3.4482218234287672</v>
+      </c>
+      <c r="CU54" s="28">
+        <v>4.6267593718344386</v>
+      </c>
       <c r="CV54" s="31"/>
       <c r="CW54" s="28"/>
       <c r="CX54" s="31"/>
-      <c r="CY54" s="9"/>
+      <c r="CY54" s="31"/>
       <c r="CZ54" s="9"/>
       <c r="DA54" s="9"/>
       <c r="DB54" s="9"/>
@@ -30508,13 +30546,15 @@
         <v>4.7948613300937524</v>
       </c>
       <c r="CT55" s="28">
-        <v>11.898610087831642</v>
-      </c>
-      <c r="CU55" s="31"/>
+        <v>12.302430107936829</v>
+      </c>
+      <c r="CU55" s="28">
+        <v>10.433968271406457</v>
+      </c>
       <c r="CV55" s="31"/>
       <c r="CW55" s="28"/>
       <c r="CX55" s="31"/>
-      <c r="CY55" s="9"/>
+      <c r="CY55" s="31"/>
       <c r="CZ55" s="9"/>
       <c r="DA55" s="9"/>
       <c r="DB55" s="9"/>
@@ -30854,13 +30894,15 @@
         <v>12.275140934743618</v>
       </c>
       <c r="CT56" s="28">
-        <v>9.4335806587176023</v>
-      </c>
-      <c r="CU56" s="31"/>
+        <v>9.6046416336907185</v>
+      </c>
+      <c r="CU56" s="28">
+        <v>9.2364187107535116</v>
+      </c>
       <c r="CV56" s="31"/>
       <c r="CW56" s="28"/>
       <c r="CX56" s="31"/>
-      <c r="CY56" s="9"/>
+      <c r="CY56" s="31"/>
       <c r="CZ56" s="9"/>
       <c r="DA56" s="9"/>
       <c r="DB56" s="9"/>
@@ -31200,13 +31242,15 @@
         <v>15.374624483446524</v>
       </c>
       <c r="CT57" s="28">
-        <v>1.2954014200894761</v>
-      </c>
-      <c r="CU57" s="31"/>
+        <v>3.3314474544643815</v>
+      </c>
+      <c r="CU57" s="28">
+        <v>13.750936250315135</v>
+      </c>
       <c r="CV57" s="31"/>
       <c r="CW57" s="28"/>
       <c r="CX57" s="31"/>
-      <c r="CY57" s="9"/>
+      <c r="CY57" s="31"/>
       <c r="CZ57" s="9"/>
       <c r="DA57" s="9"/>
       <c r="DB57" s="9"/>
@@ -31351,11 +31395,11 @@
       <c r="CR58" s="26"/>
       <c r="CS58" s="26"/>
       <c r="CT58" s="26"/>
-      <c r="CU58" s="32"/>
+      <c r="CU58" s="26"/>
       <c r="CV58" s="32"/>
       <c r="CW58" s="26"/>
       <c r="CX58" s="32"/>
-      <c r="CY58" s="9"/>
+      <c r="CY58" s="32"/>
       <c r="CZ58" s="9"/>
       <c r="DA58" s="9"/>
       <c r="DB58" s="9"/>
@@ -31695,13 +31739,15 @@
         <v>6.8147327594068514</v>
       </c>
       <c r="CT59" s="28">
-        <v>5.702940155709868</v>
-      </c>
-      <c r="CU59" s="31"/>
+        <v>4.5399746349715286</v>
+      </c>
+      <c r="CU59" s="28">
+        <v>5.3696986264944115</v>
+      </c>
       <c r="CV59" s="31"/>
       <c r="CW59" s="28"/>
       <c r="CX59" s="31"/>
-      <c r="CY59" s="9"/>
+      <c r="CY59" s="31"/>
       <c r="CZ59" s="9"/>
       <c r="DA59" s="9"/>
       <c r="DB59" s="9"/>
@@ -31847,18 +31893,19 @@
       <c r="CR60" s="25"/>
       <c r="CS60" s="25"/>
       <c r="CT60" s="25"/>
-      <c r="CU60" s="21"/>
+      <c r="CU60" s="25"/>
       <c r="CV60" s="21"/>
       <c r="CW60" s="25"/>
       <c r="CX60" s="21"/>
+      <c r="CY60" s="21"/>
     </row>
     <row r="61" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A61" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="CU61" s="30"/>
       <c r="CV61" s="30"/>
       <c r="CX61" s="30"/>
+      <c r="CY61" s="30"/>
     </row>
     <row r="62" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="16"/>
@@ -31958,11 +32005,11 @@
       <c r="CR62" s="29"/>
       <c r="CS62" s="29"/>
       <c r="CT62" s="29"/>
-      <c r="CU62" s="33"/>
+      <c r="CU62" s="29"/>
       <c r="CV62" s="33"/>
       <c r="CW62" s="29"/>
       <c r="CX62" s="33"/>
-      <c r="CY62" s="9"/>
+      <c r="CY62" s="33"/>
       <c r="CZ62" s="9"/>
       <c r="DA62" s="9"/>
       <c r="DB62" s="9"/>
@@ -32107,11 +32154,11 @@
       <c r="CR63" s="26"/>
       <c r="CS63" s="26"/>
       <c r="CT63" s="26"/>
-      <c r="CU63" s="32"/>
+      <c r="CU63" s="26"/>
       <c r="CV63" s="32"/>
       <c r="CW63" s="26"/>
       <c r="CX63" s="32"/>
-      <c r="CY63" s="9"/>
+      <c r="CY63" s="32"/>
       <c r="CZ63" s="9"/>
       <c r="DA63" s="9"/>
       <c r="DB63" s="9"/>
@@ -32162,59 +32209,59 @@
       <c r="A64" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="CU64" s="30"/>
       <c r="CV64" s="30"/>
       <c r="CX64" s="30"/>
+      <c r="CY64" s="30"/>
     </row>
     <row r="65" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="CU65" s="30"/>
       <c r="CV65" s="30"/>
       <c r="CX65" s="30"/>
+      <c r="CY65" s="30"/>
     </row>
     <row r="66" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CU66" s="30"/>
+        <v>53</v>
+      </c>
       <c r="CV66" s="30"/>
       <c r="CX66" s="30"/>
+      <c r="CY66" s="30"/>
     </row>
     <row r="67" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CU67" s="30"/>
       <c r="CV67" s="30"/>
       <c r="CX67" s="30"/>
+      <c r="CY67" s="30"/>
     </row>
     <row r="68" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="CU68" s="30"/>
       <c r="CV68" s="30"/>
       <c r="CX68" s="30"/>
+      <c r="CY68" s="30"/>
     </row>
     <row r="69" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CU69" s="30"/>
+        <v>55</v>
+      </c>
       <c r="CV69" s="30"/>
       <c r="CX69" s="30"/>
+      <c r="CY69" s="30"/>
     </row>
     <row r="70" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="CU70" s="30"/>
       <c r="CV70" s="30"/>
       <c r="CX70" s="30"/>
+      <c r="CY70" s="30"/>
     </row>
     <row r="71" spans="1:148" x14ac:dyDescent="0.2">
-      <c r="CU71" s="30"/>
       <c r="CV71" s="30"/>
       <c r="CX71" s="30"/>
+      <c r="CY71" s="30"/>
     </row>
     <row r="72" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
@@ -32365,10 +32412,11 @@
       <c r="CT72" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="CU72" s="18"/>
+      <c r="CU72" s="20"/>
       <c r="CV72" s="18"/>
       <c r="CW72" s="18"/>
       <c r="CX72" s="18"/>
+      <c r="CY72" s="18"/>
     </row>
     <row r="73" spans="1:148" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
@@ -32665,16 +32713,19 @@
       <c r="CT73" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="CU73" s="27"/>
+      <c r="CU73" s="27" t="s">
+        <v>8</v>
+      </c>
       <c r="CV73" s="27"/>
       <c r="CW73" s="27"/>
       <c r="CX73" s="27"/>
+      <c r="CY73" s="27"/>
     </row>
     <row r="74" spans="1:148" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
-      <c r="CU74" s="30"/>
       <c r="CV74" s="30"/>
       <c r="CX74" s="30"/>
+      <c r="CY74" s="30"/>
     </row>
     <row r="75" spans="1:148" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
@@ -32969,13 +33020,15 @@
         <v>5.5597698806095082</v>
       </c>
       <c r="CT75" s="28">
-        <v>3.8484934483747963</v>
-      </c>
-      <c r="CU75" s="31"/>
+        <v>2.3657307629235476</v>
+      </c>
+      <c r="CU75" s="28">
+        <v>0.33956355567713103</v>
+      </c>
       <c r="CV75" s="31"/>
       <c r="CW75" s="28"/>
       <c r="CX75" s="31"/>
-      <c r="CY75" s="9"/>
+      <c r="CY75" s="31"/>
       <c r="CZ75" s="9"/>
       <c r="DA75" s="9"/>
       <c r="DB75" s="9"/>
@@ -33315,13 +33368,15 @@
         <v>10.068447418818607</v>
       </c>
       <c r="CT76" s="28">
-        <v>8.937659584939837</v>
-      </c>
-      <c r="CU76" s="31"/>
+        <v>10.354929615895415</v>
+      </c>
+      <c r="CU76" s="28">
+        <v>14.715854883463209</v>
+      </c>
       <c r="CV76" s="31"/>
       <c r="CW76" s="28"/>
       <c r="CX76" s="31"/>
-      <c r="CY76" s="9"/>
+      <c r="CY76" s="31"/>
       <c r="CZ76" s="9"/>
       <c r="DA76" s="9"/>
       <c r="DB76" s="9"/>
@@ -33661,13 +33716,15 @@
         <v>5.0487799777198035</v>
       </c>
       <c r="CT77" s="28">
-        <v>3.2741438876691404</v>
-      </c>
-      <c r="CU77" s="31"/>
+        <v>3.4355767461810842</v>
+      </c>
+      <c r="CU77" s="28">
+        <v>3.1737466389315756</v>
+      </c>
       <c r="CV77" s="31"/>
       <c r="CW77" s="28"/>
       <c r="CX77" s="31"/>
-      <c r="CY77" s="9"/>
+      <c r="CY77" s="31"/>
       <c r="CZ77" s="9"/>
       <c r="DA77" s="9"/>
       <c r="DB77" s="9"/>
@@ -34007,13 +34064,15 @@
         <v>13.599114873219236</v>
       </c>
       <c r="CT78" s="28">
-        <v>6.2240011497081582E-2</v>
-      </c>
-      <c r="CU78" s="31"/>
+        <v>2.0734993984969918</v>
+      </c>
+      <c r="CU78" s="28">
+        <v>12.632182465961421</v>
+      </c>
       <c r="CV78" s="31"/>
       <c r="CW78" s="28"/>
       <c r="CX78" s="31"/>
-      <c r="CY78" s="9"/>
+      <c r="CY78" s="31"/>
       <c r="CZ78" s="9"/>
       <c r="DA78" s="9"/>
       <c r="DB78" s="9"/>
@@ -34158,11 +34217,11 @@
       <c r="CR79" s="26"/>
       <c r="CS79" s="26"/>
       <c r="CT79" s="26"/>
-      <c r="CU79" s="32"/>
+      <c r="CU79" s="26"/>
       <c r="CV79" s="32"/>
       <c r="CW79" s="26"/>
       <c r="CX79" s="32"/>
-      <c r="CY79" s="9"/>
+      <c r="CY79" s="32"/>
       <c r="CZ79" s="9"/>
       <c r="DA79" s="9"/>
       <c r="DB79" s="9"/>
@@ -34502,13 +34561,15 @@
         <v>5.6728884030393658</v>
       </c>
       <c r="CT80" s="28">
-        <v>3.7938623496714001</v>
-      </c>
-      <c r="CU80" s="31"/>
+        <v>2.6946440852568116</v>
+      </c>
+      <c r="CU80" s="28">
+        <v>1.1383037218758858</v>
+      </c>
       <c r="CV80" s="31"/>
       <c r="CW80" s="28"/>
       <c r="CX80" s="31"/>
-      <c r="CY80" s="9"/>
+      <c r="CY80" s="31"/>
       <c r="CZ80" s="9"/>
       <c r="DA80" s="9"/>
       <c r="DB80" s="9"/>
@@ -34654,10 +34715,11 @@
       <c r="CR81" s="25"/>
       <c r="CS81" s="25"/>
       <c r="CT81" s="25"/>
-      <c r="CU81" s="21"/>
+      <c r="CU81" s="25"/>
       <c r="CV81" s="21"/>
       <c r="CW81" s="25"/>
       <c r="CX81" s="21"/>
+      <c r="CY81" s="21"/>
     </row>
     <row r="82" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A82" s="14" t="s">
@@ -34766,7 +34828,7 @@
       <c r="CV83" s="26"/>
       <c r="CW83" s="26"/>
       <c r="CX83" s="26"/>
-      <c r="CY83" s="9"/>
+      <c r="CY83" s="26"/>
       <c r="CZ83" s="9"/>
       <c r="DA83" s="9"/>
       <c r="DB83" s="9"/>
@@ -34915,7 +34977,7 @@
       <c r="CV84" s="26"/>
       <c r="CW84" s="26"/>
       <c r="CX84" s="26"/>
-      <c r="CY84" s="9"/>
+      <c r="CY84" s="26"/>
       <c r="CZ84" s="9"/>
       <c r="DA84" s="9"/>
       <c r="DB84" s="9"/>
@@ -34969,7 +35031,7 @@
     </row>
     <row r="86" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:152" x14ac:dyDescent="0.2">
@@ -34979,7 +35041,7 @@
     </row>
     <row r="89" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:152" x14ac:dyDescent="0.2">
@@ -35142,6 +35204,7 @@
       <c r="CX92" s="20">
         <v>2025</v>
       </c>
+      <c r="CY92" s="20"/>
     </row>
     <row r="93" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
@@ -35449,6 +35512,9 @@
       </c>
       <c r="CX93" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CY93" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -35759,9 +35825,11 @@
         <v>105.2357375417611</v>
       </c>
       <c r="CX95" s="28">
-        <v>142.39885588474172</v>
-      </c>
-      <c r="CY95" s="9"/>
+        <v>142.40736872682226</v>
+      </c>
+      <c r="CY95" s="28">
+        <v>167.68033005554719</v>
+      </c>
       <c r="CZ95" s="9"/>
       <c r="DA95" s="9"/>
       <c r="DB95" s="9"/>
@@ -36117,9 +36185,11 @@
         <v>113.36833717351193</v>
       </c>
       <c r="CX96" s="28">
-        <v>132.44694020228138</v>
-      </c>
-      <c r="CY96" s="9"/>
+        <v>131.21778248858763</v>
+      </c>
+      <c r="CY96" s="28">
+        <v>117.22924865867796</v>
+      </c>
       <c r="CZ96" s="9"/>
       <c r="DA96" s="9"/>
       <c r="DB96" s="9"/>
@@ -36475,9 +36545,11 @@
         <v>120.72838563739975</v>
       </c>
       <c r="CX97" s="28">
-        <v>130.05472368782742</v>
-      </c>
-      <c r="CY97" s="9"/>
+        <v>130.05472368782748</v>
+      </c>
+      <c r="CY97" s="28">
+        <v>136.95495637397244</v>
+      </c>
       <c r="CZ97" s="9"/>
       <c r="DA97" s="9"/>
       <c r="DB97" s="9"/>
@@ -36833,9 +36905,11 @@
         <v>117.29143943336528</v>
       </c>
       <c r="CX98" s="28">
-        <v>119.56468747630626</v>
-      </c>
-      <c r="CY98" s="9"/>
+        <v>119.56468747630629</v>
+      </c>
+      <c r="CY98" s="28">
+        <v>121.72422070478636</v>
+      </c>
       <c r="CZ98" s="9"/>
       <c r="DA98" s="9"/>
       <c r="DB98" s="9"/>
@@ -36988,7 +37062,7 @@
       <c r="CV99" s="28"/>
       <c r="CW99" s="28"/>
       <c r="CX99" s="28"/>
-      <c r="CY99" s="9"/>
+      <c r="CY99" s="28"/>
       <c r="CZ99" s="9"/>
       <c r="DA99" s="9"/>
       <c r="DB99" s="9"/>
@@ -37344,9 +37418,11 @@
         <v>108.24624033234002</v>
       </c>
       <c r="CX100" s="28">
-        <v>139.80342017325955</v>
-      </c>
-      <c r="CY100" s="9"/>
+        <v>139.74523170517378</v>
+      </c>
+      <c r="CY100" s="28">
+        <v>161.39276392617933</v>
+      </c>
       <c r="CZ100" s="9"/>
       <c r="DA100" s="9"/>
       <c r="DB100" s="9"/>
@@ -37500,6 +37576,7 @@
       <c r="CV101" s="25"/>
       <c r="CW101" s="25"/>
       <c r="CX101" s="25"/>
+      <c r="CY101" s="25"/>
     </row>
     <row r="102" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
@@ -37518,7 +37595,7 @@
     </row>
     <row r="107" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="109" spans="1:152" x14ac:dyDescent="0.2">
@@ -37528,7 +37605,7 @@
     </row>
     <row r="110" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:152" x14ac:dyDescent="0.2">
@@ -37691,6 +37768,7 @@
       <c r="CX113" s="20">
         <v>2025</v>
       </c>
+      <c r="CY113" s="20"/>
     </row>
     <row r="114" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
@@ -37998,6 +38076,9 @@
       </c>
       <c r="CX114" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CY114" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -38308,9 +38389,11 @@
         <v>77.144418269490288</v>
       </c>
       <c r="CX116" s="28">
-        <v>81.222012998031587</v>
-      </c>
-      <c r="CY116" s="9"/>
+        <v>80.95781504448864</v>
+      </c>
+      <c r="CY116" s="28">
+        <v>84.463429373995524</v>
+      </c>
       <c r="CZ116" s="9"/>
       <c r="DA116" s="9"/>
       <c r="DB116" s="9"/>
@@ -38666,9 +38749,11 @@
         <v>1.8701641516816252</v>
       </c>
       <c r="CX117" s="28">
-        <v>1.8808466777137429</v>
-      </c>
-      <c r="CY117" s="9"/>
+        <v>1.9086334610025604</v>
+      </c>
+      <c r="CY117" s="28">
+        <v>1.2850041188595738</v>
+      </c>
       <c r="CZ117" s="9"/>
       <c r="DA117" s="9"/>
       <c r="DB117" s="9"/>
@@ -39024,9 +39109,11 @@
         <v>19.185214215375016</v>
       </c>
       <c r="CX118" s="28">
-        <v>15.737748955947959</v>
-      </c>
-      <c r="CY118" s="9"/>
+        <v>15.937699250082247</v>
+      </c>
+      <c r="CY118" s="28">
+        <v>13.301745933504733</v>
+      </c>
       <c r="CZ118" s="9"/>
       <c r="DA118" s="9"/>
       <c r="DB118" s="9"/>
@@ -39382,9 +39469,11 @@
         <v>1.8002033634530492</v>
       </c>
       <c r="CX119" s="28">
-        <v>1.1593913683067041</v>
-      </c>
-      <c r="CY119" s="9"/>
+        <v>1.1958522444265378</v>
+      </c>
+      <c r="CY119" s="28">
+        <v>0.94982057364016437</v>
+      </c>
       <c r="CZ119" s="9"/>
       <c r="DA119" s="9"/>
       <c r="DB119" s="9"/>
@@ -39537,7 +39626,7 @@
       <c r="CV120" s="26"/>
       <c r="CW120" s="26"/>
       <c r="CX120" s="26"/>
-      <c r="CY120" s="9"/>
+      <c r="CY120" s="26"/>
       <c r="CZ120" s="9"/>
       <c r="DA120" s="9"/>
       <c r="DB120" s="9"/>
@@ -39895,7 +39984,9 @@
       <c r="CX121" s="28">
         <v>100</v>
       </c>
-      <c r="CY121" s="9"/>
+      <c r="CY121" s="28">
+        <v>100</v>
+      </c>
       <c r="CZ121" s="9"/>
       <c r="DA121" s="9"/>
       <c r="DB121" s="9"/>
@@ -40049,6 +40140,7 @@
       <c r="CV122" s="25"/>
       <c r="CW122" s="25"/>
       <c r="CX122" s="25"/>
+      <c r="CY122" s="25"/>
     </row>
     <row r="123" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
@@ -40157,7 +40249,7 @@
       <c r="CV124" s="26"/>
       <c r="CW124" s="26"/>
       <c r="CX124" s="26"/>
-      <c r="CY124" s="9"/>
+      <c r="CY124" s="26"/>
       <c r="CZ124" s="9"/>
       <c r="DA124" s="9"/>
       <c r="DB124" s="9"/>
@@ -40310,7 +40402,7 @@
       <c r="CV125" s="26"/>
       <c r="CW125" s="26"/>
       <c r="CX125" s="26"/>
-      <c r="CY125" s="9"/>
+      <c r="CY125" s="26"/>
       <c r="CZ125" s="9"/>
       <c r="DA125" s="9"/>
       <c r="DB125" s="9"/>
@@ -40373,7 +40465,7 @@
     </row>
     <row r="128" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:152" x14ac:dyDescent="0.2">
@@ -40383,7 +40475,7 @@
     </row>
     <row r="131" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="132" spans="1:152" x14ac:dyDescent="0.2">
@@ -40546,6 +40638,7 @@
       <c r="CX134" s="20">
         <v>2025</v>
       </c>
+      <c r="CY134" s="20"/>
     </row>
     <row r="135" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A135" s="5" t="s">
@@ -40853,6 +40946,9 @@
       </c>
       <c r="CX135" s="21" t="s">
         <v>7</v>
+      </c>
+      <c r="CY135" s="21" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:152" ht="10.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -41163,9 +41259,11 @@
         <v>79.351306270685953</v>
       </c>
       <c r="CX137" s="28">
-        <v>79.741618287106476</v>
-      </c>
-      <c r="CY137" s="9"/>
+        <v>79.444404618128374</v>
+      </c>
+      <c r="CY137" s="28">
+        <v>81.296275555021865</v>
+      </c>
       <c r="CZ137" s="9"/>
       <c r="DA137" s="9"/>
       <c r="DB137" s="9"/>
@@ -41521,9 +41619,11 @@
         <v>1.7856682321627533</v>
       </c>
       <c r="CX138" s="28">
-        <v>1.9853142546313385</v>
-      </c>
-      <c r="CY138" s="9"/>
+        <v>2.0326698118926685</v>
+      </c>
+      <c r="CY138" s="28">
+        <v>1.7691008751843522</v>
+      </c>
       <c r="CZ138" s="9"/>
       <c r="DA138" s="9"/>
       <c r="DB138" s="9"/>
@@ -41879,9 +41979,11 @@
         <v>17.201648956213432</v>
       </c>
       <c r="CX139" s="28">
-        <v>16.917425738036439</v>
-      </c>
-      <c r="CY139" s="9"/>
+        <v>17.125233220256924</v>
+      </c>
+      <c r="CY139" s="28">
+        <v>15.675267241807788</v>
+      </c>
       <c r="CZ139" s="9"/>
       <c r="DA139" s="9"/>
       <c r="DB139" s="9"/>
@@ -42237,9 +42339,11 @@
         <v>1.6613765409378489</v>
       </c>
       <c r="CX140" s="28">
-        <v>1.3556417202257369</v>
-      </c>
-      <c r="CY140" s="9"/>
+        <v>1.3976923497220293</v>
+      </c>
+      <c r="CY140" s="28">
+        <v>1.2593563279859843</v>
+      </c>
       <c r="CZ140" s="9"/>
       <c r="DA140" s="9"/>
       <c r="DB140" s="9"/>
@@ -42392,7 +42496,7 @@
       <c r="CV141" s="26"/>
       <c r="CW141" s="26"/>
       <c r="CX141" s="26"/>
-      <c r="CY141" s="9"/>
+      <c r="CY141" s="26"/>
       <c r="CZ141" s="9"/>
       <c r="DA141" s="9"/>
       <c r="DB141" s="9"/>
@@ -42750,7 +42854,9 @@
       <c r="CX142" s="28">
         <v>100</v>
       </c>
-      <c r="CY142" s="9"/>
+      <c r="CY142" s="28">
+        <v>100</v>
+      </c>
       <c r="CZ142" s="9"/>
       <c r="DA142" s="9"/>
       <c r="DB142" s="9"/>
@@ -42904,11 +43010,26 @@
       <c r="CV143" s="25"/>
       <c r="CW143" s="25"/>
       <c r="CX143" s="25"/>
+      <c r="CY143" s="25"/>
     </row>
     <row r="144" spans="1:152" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="145" spans="98:103" x14ac:dyDescent="0.2">
+      <c r="CT145" s="30"/>
+      <c r="CU145" s="30"/>
+      <c r="CV145" s="30"/>
+      <c r="CX145" s="30"/>
+      <c r="CY145" s="30"/>
+    </row>
+    <row r="146" spans="98:103" x14ac:dyDescent="0.2">
+      <c r="CT146" s="30"/>
+      <c r="CU146" s="30"/>
+      <c r="CV146" s="30"/>
+      <c r="CX146" s="30"/>
+      <c r="CY146" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="154">
@@ -43072,9 +43193,9 @@
   <pageSetup paperSize="9" scale="31" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="42" max="101" man="1"/>
-    <brk id="84" max="101" man="1"/>
-    <brk id="104" max="101" man="1"/>
+    <brk id="42" max="102" man="1"/>
+    <brk id="84" max="102" man="1"/>
+    <brk id="104" max="102" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>